--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="364">
   <si>
     <t>SNDG</t>
   </si>
@@ -1093,6 +1093,24 @@
   </si>
   <si>
     <t>XRA004_2</t>
+  </si>
+  <si>
+    <t>0000000000000492</t>
+  </si>
+  <si>
+    <t>0000000000000493</t>
+  </si>
+  <si>
+    <t>0000000000000494</t>
+  </si>
+  <si>
+    <t>0000000000000495</t>
+  </si>
+  <si>
+    <t>0000000000000496</t>
+  </si>
+  <si>
+    <t>0000000000000497</t>
   </si>
 </sst>
 </file>
@@ -1623,20 +1641,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:CN245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="BF226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomRight" activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.88671875" style="3" customWidth="1"/>
@@ -1662,16 +1679,15 @@
     <col min="41" max="42" width="28.21875" style="3" customWidth="1"/>
     <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
     <col min="44" max="44" width="28.21875" style="3" customWidth="1"/>
-    <col min="45" max="50" width="25.109375" style="3" customWidth="1"/>
-    <col min="51" max="62" width="25.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="21.21875" style="3" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="21" style="3" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="21.21875" style="3" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="19" style="3" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="18.77734375" style="3" hidden="1" customWidth="1"/>
-    <col min="68" max="69" width="19" style="3" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="17.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="19" style="3" hidden="1" customWidth="1"/>
+    <col min="45" max="62" width="25.109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="21.21875" style="3" customWidth="1"/>
+    <col min="64" max="64" width="21" style="3" customWidth="1"/>
+    <col min="65" max="65" width="21.21875" style="3" customWidth="1"/>
+    <col min="66" max="66" width="19" style="3" customWidth="1"/>
+    <col min="67" max="67" width="18.77734375" style="3" customWidth="1"/>
+    <col min="68" max="69" width="19" style="3" customWidth="1"/>
+    <col min="70" max="70" width="17.88671875" style="3" customWidth="1"/>
+    <col min="71" max="71" width="19" style="3" customWidth="1"/>
     <col min="72" max="72" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="16.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="74" max="77" width="16.109375" style="3" customWidth="1"/>
@@ -30482,6 +30498,9 @@
       <c r="CN239" s="1"/>
     </row>
     <row r="240" spans="2:92" x14ac:dyDescent="0.3">
+      <c r="B240" s="6" t="s">
+        <v>358</v>
+      </c>
       <c r="C240" s="1">
         <v>230</v>
       </c>
@@ -30591,7 +30610,10 @@
       <c r="CM240" s="1"/>
       <c r="CN240" s="1"/>
     </row>
-    <row r="241" spans="3:92" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:92" x14ac:dyDescent="0.3">
+      <c r="B241" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="C241" s="1">
         <v>231</v>
       </c>
@@ -30700,7 +30722,10 @@
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
     </row>
-    <row r="242" spans="3:92" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:92" x14ac:dyDescent="0.3">
+      <c r="B242" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="C242" s="1">
         <v>231</v>
       </c>
@@ -30809,7 +30834,10 @@
       <c r="CM242" s="1"/>
       <c r="CN242" s="1"/>
     </row>
-    <row r="243" spans="3:92" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:92" x14ac:dyDescent="0.3">
+      <c r="B243" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="C243" s="1">
         <v>231</v>
       </c>
@@ -30919,7 +30947,10 @@
       <c r="CM243" s="1"/>
       <c r="CN243" s="1"/>
     </row>
-    <row r="244" spans="3:92" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:92" x14ac:dyDescent="0.3">
+      <c r="B244" s="6" t="s">
+        <v>362</v>
+      </c>
       <c r="C244" s="1">
         <v>231</v>
       </c>
@@ -31028,7 +31059,10 @@
       <c r="CM244" s="1"/>
       <c r="CN244" s="1"/>
     </row>
-    <row r="245" spans="3:92" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:92" x14ac:dyDescent="0.3">
+      <c r="B245" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="C245" s="1">
         <v>231</v>
       </c>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="367">
   <si>
     <t>SNDG</t>
   </si>
@@ -357,714 +357,6 @@
     <t>IMP_ENT_CORR_M2</t>
   </si>
   <si>
-    <t>0000000000000255</t>
-  </si>
-  <si>
-    <t>0000000000000256</t>
-  </si>
-  <si>
-    <t>0000000000000257</t>
-  </si>
-  <si>
-    <t>0000000000000258</t>
-  </si>
-  <si>
-    <t>0000000000000259</t>
-  </si>
-  <si>
-    <t>0000000000000260</t>
-  </si>
-  <si>
-    <t>0000000000000261</t>
-  </si>
-  <si>
-    <t>0000000000000262</t>
-  </si>
-  <si>
-    <t>0000000000000263</t>
-  </si>
-  <si>
-    <t>0000000000000264</t>
-  </si>
-  <si>
-    <t>0000000000000265</t>
-  </si>
-  <si>
-    <t>0000000000000266</t>
-  </si>
-  <si>
-    <t>0000000000000269</t>
-  </si>
-  <si>
-    <t>0000000000000267</t>
-  </si>
-  <si>
-    <t>0000000000000268</t>
-  </si>
-  <si>
-    <t>0000000000000270</t>
-  </si>
-  <si>
-    <t>0000000000000271</t>
-  </si>
-  <si>
-    <t>0000000000000272</t>
-  </si>
-  <si>
-    <t>0000000000000273</t>
-  </si>
-  <si>
-    <t>0000000000000274</t>
-  </si>
-  <si>
-    <t>0000000000000275</t>
-  </si>
-  <si>
-    <t>0000000000000276</t>
-  </si>
-  <si>
-    <t>0000000000000277</t>
-  </si>
-  <si>
-    <t>0000000000000278</t>
-  </si>
-  <si>
-    <t>0000000000000279</t>
-  </si>
-  <si>
-    <t>0000000000000280</t>
-  </si>
-  <si>
-    <t>0000000000000281</t>
-  </si>
-  <si>
-    <t>0000000000000282</t>
-  </si>
-  <si>
-    <t>0000000000000283</t>
-  </si>
-  <si>
-    <t>0000000000000284</t>
-  </si>
-  <si>
-    <t>0000000000000285</t>
-  </si>
-  <si>
-    <t>0000000000000286</t>
-  </si>
-  <si>
-    <t>0000000000000287</t>
-  </si>
-  <si>
-    <t>0000000000000288</t>
-  </si>
-  <si>
-    <t>0000000000000289</t>
-  </si>
-  <si>
-    <t>0000000000000290</t>
-  </si>
-  <si>
-    <t>0000000000000291</t>
-  </si>
-  <si>
-    <t>0000000000000292</t>
-  </si>
-  <si>
-    <t>0000000000000293</t>
-  </si>
-  <si>
-    <t>0000000000000294</t>
-  </si>
-  <si>
-    <t>0000000000000295</t>
-  </si>
-  <si>
-    <t>0000000000000296</t>
-  </si>
-  <si>
-    <t>0000000000000297</t>
-  </si>
-  <si>
-    <t>0000000000000298</t>
-  </si>
-  <si>
-    <t>0000000000000299</t>
-  </si>
-  <si>
-    <t>0000000000000300</t>
-  </si>
-  <si>
-    <t>0000000000000301</t>
-  </si>
-  <si>
-    <t>0000000000000302</t>
-  </si>
-  <si>
-    <t>0000000000000303</t>
-  </si>
-  <si>
-    <t>0000000000000304</t>
-  </si>
-  <si>
-    <t>0000000000000305</t>
-  </si>
-  <si>
-    <t>0000000000000306</t>
-  </si>
-  <si>
-    <t>0000000000000307</t>
-  </si>
-  <si>
-    <t>0000000000000308</t>
-  </si>
-  <si>
-    <t>0000000000000309</t>
-  </si>
-  <si>
-    <t>0000000000000310</t>
-  </si>
-  <si>
-    <t>0000000000000311</t>
-  </si>
-  <si>
-    <t>0000000000000312</t>
-  </si>
-  <si>
-    <t>00000000000003013</t>
-  </si>
-  <si>
-    <t>0000000000000314</t>
-  </si>
-  <si>
-    <t>0000000000000315</t>
-  </si>
-  <si>
-    <t>0000000000000316</t>
-  </si>
-  <si>
-    <t>0000000000000317</t>
-  </si>
-  <si>
-    <t>0000000000000318</t>
-  </si>
-  <si>
-    <t>0000000000000319</t>
-  </si>
-  <si>
-    <t>0000000000000320</t>
-  </si>
-  <si>
-    <t>0000000000000321</t>
-  </si>
-  <si>
-    <t>0000000000000322</t>
-  </si>
-  <si>
-    <t>0000000000000323</t>
-  </si>
-  <si>
-    <t>0000000000000324</t>
-  </si>
-  <si>
-    <t>0000000000000325</t>
-  </si>
-  <si>
-    <t>0000000000000326</t>
-  </si>
-  <si>
-    <t>0000000000000327</t>
-  </si>
-  <si>
-    <t>0000000000000328</t>
-  </si>
-  <si>
-    <t>0000000000000329</t>
-  </si>
-  <si>
-    <t>0000000000000330</t>
-  </si>
-  <si>
-    <t>0000000000000331</t>
-  </si>
-  <si>
-    <t>0000000000000332</t>
-  </si>
-  <si>
-    <t>0000000000000333</t>
-  </si>
-  <si>
-    <t>0000000000000334</t>
-  </si>
-  <si>
-    <t>0000000000000335</t>
-  </si>
-  <si>
-    <t>0000000000000336</t>
-  </si>
-  <si>
-    <t>0000000000000337</t>
-  </si>
-  <si>
-    <t>0000000000000338</t>
-  </si>
-  <si>
-    <t>0000000000000339</t>
-  </si>
-  <si>
-    <t>0000000000000340</t>
-  </si>
-  <si>
-    <t>0000000000000342</t>
-  </si>
-  <si>
-    <t>0000000000000341</t>
-  </si>
-  <si>
-    <t>0000000000000343</t>
-  </si>
-  <si>
-    <t>0000000000000344</t>
-  </si>
-  <si>
-    <t>0000000000000345</t>
-  </si>
-  <si>
-    <t>0000000000000346</t>
-  </si>
-  <si>
-    <t>0000000000000347</t>
-  </si>
-  <si>
-    <t>0000000000000348</t>
-  </si>
-  <si>
-    <t>0000000000000349</t>
-  </si>
-  <si>
-    <t>0000000000000350</t>
-  </si>
-  <si>
-    <t>0000000000000351</t>
-  </si>
-  <si>
-    <t>0000000000000352</t>
-  </si>
-  <si>
-    <t>0000000000000353</t>
-  </si>
-  <si>
-    <t>0000000000000354</t>
-  </si>
-  <si>
-    <t>0000000000000355</t>
-  </si>
-  <si>
-    <t>0000000000000356</t>
-  </si>
-  <si>
-    <t>0000000000000357</t>
-  </si>
-  <si>
-    <t>0000000000000358</t>
-  </si>
-  <si>
-    <t>0000000000000359</t>
-  </si>
-  <si>
-    <t>0000000000000360</t>
-  </si>
-  <si>
-    <t>0000000000000361</t>
-  </si>
-  <si>
-    <t>0000000000000363</t>
-  </si>
-  <si>
-    <t>0000000000000364</t>
-  </si>
-  <si>
-    <t>0000000000000365</t>
-  </si>
-  <si>
-    <t>0000000000000366</t>
-  </si>
-  <si>
-    <t>0000000000000367</t>
-  </si>
-  <si>
-    <t>0000000000000368</t>
-  </si>
-  <si>
-    <t>0000000000000369</t>
-  </si>
-  <si>
-    <t>0000000000000370</t>
-  </si>
-  <si>
-    <t>0000000000000371</t>
-  </si>
-  <si>
-    <t>0000000000000372</t>
-  </si>
-  <si>
-    <t>0000000000000373</t>
-  </si>
-  <si>
-    <t>0000000000000374</t>
-  </si>
-  <si>
-    <t>0000000000000375</t>
-  </si>
-  <si>
-    <t>0000000000000376</t>
-  </si>
-  <si>
-    <t>0000000000000377</t>
-  </si>
-  <si>
-    <t>0000000000000378</t>
-  </si>
-  <si>
-    <t>0000000000000379</t>
-  </si>
-  <si>
-    <t>0000000000000380</t>
-  </si>
-  <si>
-    <t>0000000000000381</t>
-  </si>
-  <si>
-    <t>0000000000000382</t>
-  </si>
-  <si>
-    <t>0000000000000383</t>
-  </si>
-  <si>
-    <t>0000000000000384</t>
-  </si>
-  <si>
-    <t>0000000000000385</t>
-  </si>
-  <si>
-    <t>0000000000000386</t>
-  </si>
-  <si>
-    <t>0000000000000387</t>
-  </si>
-  <si>
-    <t>0000000000000388</t>
-  </si>
-  <si>
-    <t>0000000000000389</t>
-  </si>
-  <si>
-    <t>0000000000000390</t>
-  </si>
-  <si>
-    <t>0000000000000391</t>
-  </si>
-  <si>
-    <t>0000000000000392</t>
-  </si>
-  <si>
-    <t>0000000000000393</t>
-  </si>
-  <si>
-    <t>0000000000000394</t>
-  </si>
-  <si>
-    <t>0000000000000395</t>
-  </si>
-  <si>
-    <t>0000000000000396</t>
-  </si>
-  <si>
-    <t>0000000000000397</t>
-  </si>
-  <si>
-    <t>0000000000000398</t>
-  </si>
-  <si>
-    <t>0000000000000399</t>
-  </si>
-  <si>
-    <t>0000000000000400</t>
-  </si>
-  <si>
-    <t>0000000000000401</t>
-  </si>
-  <si>
-    <t>0000000000000402</t>
-  </si>
-  <si>
-    <t>0000000000000403</t>
-  </si>
-  <si>
-    <t>0000000000000404</t>
-  </si>
-  <si>
-    <t>0000000000000405</t>
-  </si>
-  <si>
-    <t>0000000000000406</t>
-  </si>
-  <si>
-    <t>0000000000000407</t>
-  </si>
-  <si>
-    <t>0000000000000408</t>
-  </si>
-  <si>
-    <t>0000000000000409</t>
-  </si>
-  <si>
-    <t>0000000000000410</t>
-  </si>
-  <si>
-    <t>0000000000000411</t>
-  </si>
-  <si>
-    <t>0000000000000412</t>
-  </si>
-  <si>
-    <t>0000000000000413</t>
-  </si>
-  <si>
-    <t>0000000000000414</t>
-  </si>
-  <si>
-    <t>0000000000000415</t>
-  </si>
-  <si>
-    <t>0000000000000416</t>
-  </si>
-  <si>
-    <t>0000000000000417</t>
-  </si>
-  <si>
-    <t>00000000000004138</t>
-  </si>
-  <si>
-    <t>0000000000000419</t>
-  </si>
-  <si>
-    <t>0000000000000420</t>
-  </si>
-  <si>
-    <t>0000000000000421</t>
-  </si>
-  <si>
-    <t>0000000000000422</t>
-  </si>
-  <si>
-    <t>0000000000000423</t>
-  </si>
-  <si>
-    <t>0000000000000424</t>
-  </si>
-  <si>
-    <t>0000000000000425</t>
-  </si>
-  <si>
-    <t>0000000000000426</t>
-  </si>
-  <si>
-    <t>0000000000000427</t>
-  </si>
-  <si>
-    <t>0000000000000428</t>
-  </si>
-  <si>
-    <t>0000000000000429</t>
-  </si>
-  <si>
-    <t>0000000000000430</t>
-  </si>
-  <si>
-    <t>0000000000000431</t>
-  </si>
-  <si>
-    <t>0000000000000432</t>
-  </si>
-  <si>
-    <t>0000000000000433</t>
-  </si>
-  <si>
-    <t>0000000000000434</t>
-  </si>
-  <si>
-    <t>0000000000000435</t>
-  </si>
-  <si>
-    <t>0000000000000436</t>
-  </si>
-  <si>
-    <t>0000000000000437</t>
-  </si>
-  <si>
-    <t>0000000000000438</t>
-  </si>
-  <si>
-    <t>0000000000000439</t>
-  </si>
-  <si>
-    <t>0000000000000440</t>
-  </si>
-  <si>
-    <t>0000000000000441</t>
-  </si>
-  <si>
-    <t>0000000000000442</t>
-  </si>
-  <si>
-    <t>0000000000000443</t>
-  </si>
-  <si>
-    <t>0000000000000444</t>
-  </si>
-  <si>
-    <t>0000000000000445</t>
-  </si>
-  <si>
-    <t>0000000000000446</t>
-  </si>
-  <si>
-    <t>0000000000000447</t>
-  </si>
-  <si>
-    <t>0000000000000448</t>
-  </si>
-  <si>
-    <t>0000000000000449</t>
-  </si>
-  <si>
-    <t>0000000000000450</t>
-  </si>
-  <si>
-    <t>0000000000000451</t>
-  </si>
-  <si>
-    <t>0000000000000452</t>
-  </si>
-  <si>
-    <t>0000000000000453</t>
-  </si>
-  <si>
-    <t>0000000000000454</t>
-  </si>
-  <si>
-    <t>0000000000000455</t>
-  </si>
-  <si>
-    <t>0000000000000456</t>
-  </si>
-  <si>
-    <t>0000000000000457</t>
-  </si>
-  <si>
-    <t>0000000000000458</t>
-  </si>
-  <si>
-    <t>0000000000000459</t>
-  </si>
-  <si>
-    <t>0000000000000460</t>
-  </si>
-  <si>
-    <t>0000000000000461</t>
-  </si>
-  <si>
-    <t>0000000000000462</t>
-  </si>
-  <si>
-    <t>0000000000000463</t>
-  </si>
-  <si>
-    <t>0000000000000464</t>
-  </si>
-  <si>
-    <t>0000000000000465</t>
-  </si>
-  <si>
-    <t>0000000000000466</t>
-  </si>
-  <si>
-    <t>0000000000000467</t>
-  </si>
-  <si>
-    <t>0000000000000468</t>
-  </si>
-  <si>
-    <t>0000000000000469</t>
-  </si>
-  <si>
-    <t>0000000000000470</t>
-  </si>
-  <si>
-    <t>0000000000000471</t>
-  </si>
-  <si>
-    <t>0000000000000472</t>
-  </si>
-  <si>
-    <t>0000000000000473</t>
-  </si>
-  <si>
-    <t>0000000000000474</t>
-  </si>
-  <si>
-    <t>0000000000000475</t>
-  </si>
-  <si>
-    <t>0000000000000476</t>
-  </si>
-  <si>
-    <t>0000000000000477</t>
-  </si>
-  <si>
-    <t>0000000000000478</t>
-  </si>
-  <si>
-    <t>0000000000000479</t>
-  </si>
-  <si>
-    <t>0000000000000480</t>
-  </si>
-  <si>
-    <t>0000000000000481</t>
-  </si>
-  <si>
-    <t>0000000000000482</t>
-  </si>
-  <si>
-    <t>0000000000000483</t>
-  </si>
-  <si>
-    <t>0000000000000484</t>
-  </si>
-  <si>
-    <t>0000000000000485</t>
-  </si>
-  <si>
-    <t>0000000000000486</t>
-  </si>
-  <si>
-    <t>0000000000000487</t>
-  </si>
-  <si>
-    <t>0000000000000488</t>
-  </si>
-  <si>
-    <t>0000000000000489</t>
-  </si>
-  <si>
-    <t>0000000000000490</t>
-  </si>
-  <si>
-    <t>0000000000000491</t>
-  </si>
-  <si>
     <t>IND_61</t>
   </si>
   <si>
@@ -1095,28 +387,745 @@
     <t>XRA004_2</t>
   </si>
   <si>
-    <t>0000000000000492</t>
-  </si>
-  <si>
-    <t>0000000000000493</t>
-  </si>
-  <si>
-    <t>0000000000000494</t>
-  </si>
-  <si>
-    <t>0000000000000495</t>
-  </si>
-  <si>
-    <t>0000000000000496</t>
-  </si>
-  <si>
-    <t>0000000000000497</t>
+    <t>'0000000000000255'</t>
+  </si>
+  <si>
+    <t>'0000000000000256'</t>
+  </si>
+  <si>
+    <t>'0000000000000257'</t>
+  </si>
+  <si>
+    <t>'0000000000000258'</t>
+  </si>
+  <si>
+    <t>'0000000000000259'</t>
+  </si>
+  <si>
+    <t>'0000000000000260'</t>
+  </si>
+  <si>
+    <t>'0000000000000261'</t>
+  </si>
+  <si>
+    <t>'0000000000000262'</t>
+  </si>
+  <si>
+    <t>'0000000000000263'</t>
+  </si>
+  <si>
+    <t>'0000000000000264'</t>
+  </si>
+  <si>
+    <t>'0000000000000265'</t>
+  </si>
+  <si>
+    <t>'0000000000000266'</t>
+  </si>
+  <si>
+    <t>'0000000000000267'</t>
+  </si>
+  <si>
+    <t>'0000000000000268'</t>
+  </si>
+  <si>
+    <t>'0000000000000269'</t>
+  </si>
+  <si>
+    <t>'0000000000000270'</t>
+  </si>
+  <si>
+    <t>'0000000000000271'</t>
+  </si>
+  <si>
+    <t>'0000000000000272'</t>
+  </si>
+  <si>
+    <t>'0000000000000273'</t>
+  </si>
+  <si>
+    <t>'0000000000000274'</t>
+  </si>
+  <si>
+    <t>'0000000000000275'</t>
+  </si>
+  <si>
+    <t>'0000000000000276'</t>
+  </si>
+  <si>
+    <t>'0000000000000277'</t>
+  </si>
+  <si>
+    <t>'0000000000000278'</t>
+  </si>
+  <si>
+    <t>'0000000000000279'</t>
+  </si>
+  <si>
+    <t>'0000000000000280'</t>
+  </si>
+  <si>
+    <t>'0000000000000281'</t>
+  </si>
+  <si>
+    <t>'0000000000000282'</t>
+  </si>
+  <si>
+    <t>'0000000000000283'</t>
+  </si>
+  <si>
+    <t>'0000000000000284'</t>
+  </si>
+  <si>
+    <t>'0000000000000285'</t>
+  </si>
+  <si>
+    <t>'0000000000000286'</t>
+  </si>
+  <si>
+    <t>'0000000000000287'</t>
+  </si>
+  <si>
+    <t>'0000000000000288'</t>
+  </si>
+  <si>
+    <t>'0000000000000289'</t>
+  </si>
+  <si>
+    <t>'0000000000000290'</t>
+  </si>
+  <si>
+    <t>'0000000000000291'</t>
+  </si>
+  <si>
+    <t>'0000000000000292'</t>
+  </si>
+  <si>
+    <t>'0000000000000293'</t>
+  </si>
+  <si>
+    <t>'0000000000000294'</t>
+  </si>
+  <si>
+    <t>'0000000000000295'</t>
+  </si>
+  <si>
+    <t>'0000000000000296'</t>
+  </si>
+  <si>
+    <t>'0000000000000297'</t>
+  </si>
+  <si>
+    <t>'0000000000000298'</t>
+  </si>
+  <si>
+    <t>'0000000000000299'</t>
+  </si>
+  <si>
+    <t>'0000000000000300'</t>
+  </si>
+  <si>
+    <t>'0000000000000301'</t>
+  </si>
+  <si>
+    <t>'0000000000000302'</t>
+  </si>
+  <si>
+    <t>'0000000000000303'</t>
+  </si>
+  <si>
+    <t>'0000000000000304'</t>
+  </si>
+  <si>
+    <t>'0000000000000305'</t>
+  </si>
+  <si>
+    <t>'0000000000000306'</t>
+  </si>
+  <si>
+    <t>'0000000000000307'</t>
+  </si>
+  <si>
+    <t>'0000000000000308'</t>
+  </si>
+  <si>
+    <t>'0000000000000309'</t>
+  </si>
+  <si>
+    <t>'0000000000000310'</t>
+  </si>
+  <si>
+    <t>'0000000000000311'</t>
+  </si>
+  <si>
+    <t>'0000000000000312'</t>
+  </si>
+  <si>
+    <t>'0000000000000313'</t>
+  </si>
+  <si>
+    <t>'0000000000000314'</t>
+  </si>
+  <si>
+    <t>'0000000000000315'</t>
+  </si>
+  <si>
+    <t>'0000000000000316'</t>
+  </si>
+  <si>
+    <t>'0000000000000317'</t>
+  </si>
+  <si>
+    <t>'0000000000000318'</t>
+  </si>
+  <si>
+    <t>'0000000000000319'</t>
+  </si>
+  <si>
+    <t>'0000000000000320'</t>
+  </si>
+  <si>
+    <t>'0000000000000321'</t>
+  </si>
+  <si>
+    <t>'0000000000000322'</t>
+  </si>
+  <si>
+    <t>'0000000000000323'</t>
+  </si>
+  <si>
+    <t>'0000000000000324'</t>
+  </si>
+  <si>
+    <t>'0000000000000325'</t>
+  </si>
+  <si>
+    <t>'0000000000000326'</t>
+  </si>
+  <si>
+    <t>'0000000000000327'</t>
+  </si>
+  <si>
+    <t>'0000000000000328'</t>
+  </si>
+  <si>
+    <t>'0000000000000329'</t>
+  </si>
+  <si>
+    <t>'0000000000000330'</t>
+  </si>
+  <si>
+    <t>'0000000000000331'</t>
+  </si>
+  <si>
+    <t>'0000000000000332'</t>
+  </si>
+  <si>
+    <t>'0000000000000333'</t>
+  </si>
+  <si>
+    <t>'0000000000000334'</t>
+  </si>
+  <si>
+    <t>'0000000000000335'</t>
+  </si>
+  <si>
+    <t>'0000000000000336'</t>
+  </si>
+  <si>
+    <t>'0000000000000337'</t>
+  </si>
+  <si>
+    <t>'0000000000000338'</t>
+  </si>
+  <si>
+    <t>'0000000000000339'</t>
+  </si>
+  <si>
+    <t>'0000000000000340'</t>
+  </si>
+  <si>
+    <t>'0000000000000341'</t>
+  </si>
+  <si>
+    <t>'0000000000000342'</t>
+  </si>
+  <si>
+    <t>'0000000000000343'</t>
+  </si>
+  <si>
+    <t>'0000000000000344'</t>
+  </si>
+  <si>
+    <t>'0000000000000345'</t>
+  </si>
+  <si>
+    <t>'0000000000000346'</t>
+  </si>
+  <si>
+    <t>'0000000000000347'</t>
+  </si>
+  <si>
+    <t>'0000000000000348'</t>
+  </si>
+  <si>
+    <t>'0000000000000349'</t>
+  </si>
+  <si>
+    <t>'0000000000000350'</t>
+  </si>
+  <si>
+    <t>'0000000000000351'</t>
+  </si>
+  <si>
+    <t>'0000000000000352'</t>
+  </si>
+  <si>
+    <t>'0000000000000353'</t>
+  </si>
+  <si>
+    <t>'0000000000000354'</t>
+  </si>
+  <si>
+    <t>'0000000000000355'</t>
+  </si>
+  <si>
+    <t>'0000000000000356'</t>
+  </si>
+  <si>
+    <t>'0000000000000357'</t>
+  </si>
+  <si>
+    <t>'0000000000000358'</t>
+  </si>
+  <si>
+    <t>'0000000000000359'</t>
+  </si>
+  <si>
+    <t>'0000000000000360'</t>
+  </si>
+  <si>
+    <t>'0000000000000361'</t>
+  </si>
+  <si>
+    <t>'0000000000000363'</t>
+  </si>
+  <si>
+    <t>'0000000000000364'</t>
+  </si>
+  <si>
+    <t>'0000000000000365'</t>
+  </si>
+  <si>
+    <t>'0000000000000366'</t>
+  </si>
+  <si>
+    <t>'0000000000000367'</t>
+  </si>
+  <si>
+    <t>'0000000000000368'</t>
+  </si>
+  <si>
+    <t>'0000000000000369'</t>
+  </si>
+  <si>
+    <t>'0000000000000370'</t>
+  </si>
+  <si>
+    <t>'0000000000000371'</t>
+  </si>
+  <si>
+    <t>'0000000000000372'</t>
+  </si>
+  <si>
+    <t>'0000000000000373'</t>
+  </si>
+  <si>
+    <t>'0000000000000374'</t>
+  </si>
+  <si>
+    <t>'0000000000000375'</t>
+  </si>
+  <si>
+    <t>'0000000000000376'</t>
+  </si>
+  <si>
+    <t>'0000000000000377'</t>
+  </si>
+  <si>
+    <t>'0000000000000378'</t>
+  </si>
+  <si>
+    <t>'0000000000000379'</t>
+  </si>
+  <si>
+    <t>'0000000000000380'</t>
+  </si>
+  <si>
+    <t>'0000000000000381'</t>
+  </si>
+  <si>
+    <t>'0000000000000382'</t>
+  </si>
+  <si>
+    <t>'0000000000000383'</t>
+  </si>
+  <si>
+    <t>'0000000000000384'</t>
+  </si>
+  <si>
+    <t>'0000000000000385'</t>
+  </si>
+  <si>
+    <t>'0000000000000386'</t>
+  </si>
+  <si>
+    <t>'0000000000000387'</t>
+  </si>
+  <si>
+    <t>'0000000000000388'</t>
+  </si>
+  <si>
+    <t>'0000000000000389'</t>
+  </si>
+  <si>
+    <t>'0000000000000390'</t>
+  </si>
+  <si>
+    <t>'0000000000000391'</t>
+  </si>
+  <si>
+    <t>'0000000000000392'</t>
+  </si>
+  <si>
+    <t>'0000000000000393'</t>
+  </si>
+  <si>
+    <t>'0000000000000394'</t>
+  </si>
+  <si>
+    <t>'0000000000000395'</t>
+  </si>
+  <si>
+    <t>'0000000000000396'</t>
+  </si>
+  <si>
+    <t>'0000000000000397'</t>
+  </si>
+  <si>
+    <t>'0000000000000398'</t>
+  </si>
+  <si>
+    <t>'0000000000000399'</t>
+  </si>
+  <si>
+    <t>'0000000000000400'</t>
+  </si>
+  <si>
+    <t>'0000000000000401'</t>
+  </si>
+  <si>
+    <t>'0000000000000402'</t>
+  </si>
+  <si>
+    <t>'0000000000000403'</t>
+  </si>
+  <si>
+    <t>'0000000000000404'</t>
+  </si>
+  <si>
+    <t>'0000000000000405'</t>
+  </si>
+  <si>
+    <t>'0000000000000406'</t>
+  </si>
+  <si>
+    <t>'0000000000000407'</t>
+  </si>
+  <si>
+    <t>'0000000000000408'</t>
+  </si>
+  <si>
+    <t>'0000000000000409'</t>
+  </si>
+  <si>
+    <t>'0000000000000410'</t>
+  </si>
+  <si>
+    <t>'0000000000000411'</t>
+  </si>
+  <si>
+    <t>'0000000000000412'</t>
+  </si>
+  <si>
+    <t>'0000000000000413'</t>
+  </si>
+  <si>
+    <t>'0000000000000414'</t>
+  </si>
+  <si>
+    <t>'0000000000000415'</t>
+  </si>
+  <si>
+    <t>'0000000000000416'</t>
+  </si>
+  <si>
+    <t>'0000000000000417'</t>
+  </si>
+  <si>
+    <t>'0000000000000418'</t>
+  </si>
+  <si>
+    <t>'0000000000000419'</t>
+  </si>
+  <si>
+    <t>'0000000000000420'</t>
+  </si>
+  <si>
+    <t>'0000000000000421'</t>
+  </si>
+  <si>
+    <t>'0000000000000422'</t>
+  </si>
+  <si>
+    <t>'0000000000000423'</t>
+  </si>
+  <si>
+    <t>'0000000000000424'</t>
+  </si>
+  <si>
+    <t>'0000000000000425'</t>
+  </si>
+  <si>
+    <t>'0000000000000426'</t>
+  </si>
+  <si>
+    <t>'0000000000000427'</t>
+  </si>
+  <si>
+    <t>'0000000000000428'</t>
+  </si>
+  <si>
+    <t>'0000000000000429'</t>
+  </si>
+  <si>
+    <t>'0000000000000430'</t>
+  </si>
+  <si>
+    <t>'0000000000000431'</t>
+  </si>
+  <si>
+    <t>'0000000000000432'</t>
+  </si>
+  <si>
+    <t>'0000000000000433'</t>
+  </si>
+  <si>
+    <t>'0000000000000434'</t>
+  </si>
+  <si>
+    <t>'0000000000000435'</t>
+  </si>
+  <si>
+    <t>'0000000000000436'</t>
+  </si>
+  <si>
+    <t>'0000000000000437'</t>
+  </si>
+  <si>
+    <t>'0000000000000438'</t>
+  </si>
+  <si>
+    <t>'0000000000000439'</t>
+  </si>
+  <si>
+    <t>'0000000000000440'</t>
+  </si>
+  <si>
+    <t>'0000000000000441'</t>
+  </si>
+  <si>
+    <t>'0000000000000442'</t>
+  </si>
+  <si>
+    <t>'0000000000000443'</t>
+  </si>
+  <si>
+    <t>'0000000000000444'</t>
+  </si>
+  <si>
+    <t>'0000000000000445'</t>
+  </si>
+  <si>
+    <t>'0000000000000446'</t>
+  </si>
+  <si>
+    <t>'0000000000000447'</t>
+  </si>
+  <si>
+    <t>'0000000000000448'</t>
+  </si>
+  <si>
+    <t>'0000000000000449'</t>
+  </si>
+  <si>
+    <t>'0000000000000450'</t>
+  </si>
+  <si>
+    <t>'0000000000000451'</t>
+  </si>
+  <si>
+    <t>'0000000000000452'</t>
+  </si>
+  <si>
+    <t>'0000000000000453'</t>
+  </si>
+  <si>
+    <t>'0000000000000454'</t>
+  </si>
+  <si>
+    <t>'0000000000000455'</t>
+  </si>
+  <si>
+    <t>'0000000000000456'</t>
+  </si>
+  <si>
+    <t>'0000000000000457'</t>
+  </si>
+  <si>
+    <t>'0000000000000458'</t>
+  </si>
+  <si>
+    <t>'0000000000000459'</t>
+  </si>
+  <si>
+    <t>'0000000000000460'</t>
+  </si>
+  <si>
+    <t>'0000000000000461'</t>
+  </si>
+  <si>
+    <t>'0000000000000462'</t>
+  </si>
+  <si>
+    <t>'0000000000000463'</t>
+  </si>
+  <si>
+    <t>'0000000000000464'</t>
+  </si>
+  <si>
+    <t>'0000000000000465'</t>
+  </si>
+  <si>
+    <t>'0000000000000466'</t>
+  </si>
+  <si>
+    <t>'0000000000000467'</t>
+  </si>
+  <si>
+    <t>'0000000000000468'</t>
+  </si>
+  <si>
+    <t>'0000000000000469'</t>
+  </si>
+  <si>
+    <t>'0000000000000470'</t>
+  </si>
+  <si>
+    <t>'0000000000000471'</t>
+  </si>
+  <si>
+    <t>'0000000000000472'</t>
+  </si>
+  <si>
+    <t>'0000000000000473'</t>
+  </si>
+  <si>
+    <t>'0000000000000474'</t>
+  </si>
+  <si>
+    <t>'0000000000000475'</t>
+  </si>
+  <si>
+    <t>'0000000000000476'</t>
+  </si>
+  <si>
+    <t>'0000000000000477'</t>
+  </si>
+  <si>
+    <t>'0000000000000478'</t>
+  </si>
+  <si>
+    <t>'0000000000000479'</t>
+  </si>
+  <si>
+    <t>'0000000000000480'</t>
+  </si>
+  <si>
+    <t>'0000000000000481'</t>
+  </si>
+  <si>
+    <t>'0000000000000482'</t>
+  </si>
+  <si>
+    <t>'0000000000000483'</t>
+  </si>
+  <si>
+    <t>'0000000000000484'</t>
+  </si>
+  <si>
+    <t>'0000000000000485'</t>
+  </si>
+  <si>
+    <t>'0000000000000486'</t>
+  </si>
+  <si>
+    <t>'0000000000000487'</t>
+  </si>
+  <si>
+    <t>'0000000000000488'</t>
+  </si>
+  <si>
+    <t>'0000000000000489'</t>
+  </si>
+  <si>
+    <t>'0000000000000490'</t>
+  </si>
+  <si>
+    <t>'0000000000000491'</t>
+  </si>
+  <si>
+    <t>'0000000000000492'</t>
+  </si>
+  <si>
+    <t>'0000000000000493'</t>
+  </si>
+  <si>
+    <t>'0000000000000494'</t>
+  </si>
+  <si>
+    <t>'0000000000000495'</t>
+  </si>
+  <si>
+    <t>'0000000000000496'</t>
+  </si>
+  <si>
+    <t>'0000000000000497'</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>CRZER004_1; CRZER004_2</t>
+  </si>
+  <si>
+    <t>BILFAM004_1; BILFAM004_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1152,7 +1161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,6 +1171,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,15 +1335,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1639,69 +1690,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:CN245"/>
+  <dimension ref="A3:FF245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BF226" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BQ238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B245" sqref="B245"/>
+      <selection pane="bottomRight" activeCell="BQ4" sqref="BQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.77734375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="3" customWidth="1"/>
     <col min="16" max="16" width="21" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="3" customWidth="1"/>
     <col min="18" max="18" width="21" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.88671875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.5546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="24.88671875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="21.77734375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.109375" style="3" customWidth="1"/>
-    <col min="25" max="38" width="25.109375" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.21875" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.88671875" style="3" customWidth="1"/>
-    <col min="41" max="42" width="28.21875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
-    <col min="44" max="44" width="28.21875" style="3" customWidth="1"/>
-    <col min="45" max="62" width="25.109375" style="3" customWidth="1"/>
-    <col min="63" max="63" width="21.21875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" style="3" customWidth="1"/>
+    <col min="25" max="38" width="25.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" style="3" customWidth="1"/>
+    <col min="41" max="42" width="28.28515625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" style="3" customWidth="1"/>
+    <col min="44" max="44" width="28.28515625" style="3" customWidth="1"/>
+    <col min="45" max="62" width="25.140625" style="3" customWidth="1"/>
+    <col min="63" max="63" width="21.28515625" style="3" customWidth="1"/>
     <col min="64" max="64" width="21" style="3" customWidth="1"/>
-    <col min="65" max="65" width="21.21875" style="3" customWidth="1"/>
+    <col min="65" max="65" width="21.28515625" style="3" customWidth="1"/>
     <col min="66" max="66" width="19" style="3" customWidth="1"/>
-    <col min="67" max="67" width="18.77734375" style="3" customWidth="1"/>
+    <col min="67" max="67" width="18.7109375" style="3" customWidth="1"/>
     <col min="68" max="69" width="19" style="3" customWidth="1"/>
-    <col min="70" max="70" width="17.88671875" style="3" customWidth="1"/>
+    <col min="70" max="70" width="17.85546875" style="3" customWidth="1"/>
     <col min="71" max="71" width="19" style="3" customWidth="1"/>
-    <col min="72" max="72" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="16.109375" style="3" customWidth="1"/>
-    <col min="78" max="78" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.5546875" style="3" customWidth="1"/>
-    <col min="80" max="83" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="88" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="8.88671875" style="3"/>
+    <col min="72" max="72" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="16.140625" style="3" customWidth="1"/>
+    <col min="78" max="78" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.5703125" style="3" customWidth="1"/>
+    <col min="80" max="83" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="88" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="8.85546875" style="3"/>
+    <col min="94" max="94" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="160" width="8.85546875" style="3"/>
+    <col min="161" max="161" width="15.28515625" style="3" customWidth="1"/>
+    <col min="162" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:92" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1791,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="AF3" s="5" t="s">
         <v>89</v>
@@ -1977,9 +2034,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10">
         <v>200</v>
@@ -2079,9 +2136,9 @@
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C5" s="10">
         <v>200</v>
@@ -2183,9 +2240,9 @@
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C6" s="10">
         <v>200</v>
@@ -2195,7 +2252,7 @@
         <v>missing</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="F6" s="9">
         <v>-100</v>
@@ -2287,9 +2344,9 @@
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10">
         <v>201</v>
@@ -2389,9 +2446,9 @@
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C8" s="10">
         <v>201</v>
@@ -2493,9 +2550,9 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10">
         <v>201</v>
@@ -2505,7 +2562,7 @@
         <v>missing</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9">
@@ -2597,9 +2654,9 @@
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1">
         <v>202</v>
@@ -2699,9 +2756,9 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1">
         <v>202</v>
@@ -2803,9 +2860,9 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1">
         <v>202</v>
@@ -2814,7 +2871,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2906,9 +2963,9 @@
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1">
         <v>203</v>
@@ -3008,9 +3065,9 @@
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1">
         <v>203</v>
@@ -3112,9 +3169,9 @@
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1">
         <v>203</v>
@@ -3123,7 +3180,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -3215,9 +3272,9 @@
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1">
         <v>204</v>
@@ -3317,9 +3374,9 @@
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
     </row>
-    <row r="17" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1">
         <v>204</v>
@@ -3421,9 +3478,9 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
     </row>
-    <row r="18" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1">
         <v>204</v>
@@ -3432,7 +3489,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3524,9 +3581,9 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
     </row>
-    <row r="19" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1">
         <v>205</v>
@@ -3626,9 +3683,9 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
     </row>
-    <row r="20" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1">
         <v>205</v>
@@ -3730,9 +3787,9 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
     </row>
-    <row r="21" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1">
         <v>205</v>
@@ -3742,7 +3799,7 @@
         <v>missing</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3834,9 +3891,9 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
     </row>
-    <row r="22" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1">
         <v>206</v>
@@ -3936,9 +3993,9 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
     </row>
-    <row r="23" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1">
         <v>206</v>
@@ -4040,9 +4097,9 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
     </row>
-    <row r="24" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1">
         <v>206</v>
@@ -4052,7 +4109,7 @@
         <v>missing</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -4144,9 +4201,9 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
     </row>
-    <row r="25" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1">
         <v>207</v>
@@ -4246,9 +4303,9 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
     </row>
-    <row r="26" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1">
         <v>207</v>
@@ -4350,9 +4407,9 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
     </row>
-    <row r="27" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1">
         <v>207</v>
@@ -4361,7 +4418,7 @@
         <v>63</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -4453,9 +4510,9 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
     </row>
-    <row r="28" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C28" s="1">
         <v>208</v>
@@ -4555,9 +4612,9 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
     </row>
-    <row r="29" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C29" s="1">
         <v>208</v>
@@ -4659,9 +4716,9 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
     </row>
-    <row r="30" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C30" s="1">
         <v>208</v>
@@ -4670,7 +4727,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -4762,9 +4819,9 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
     </row>
-    <row r="31" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1">
         <v>209</v>
@@ -4870,9 +4927,9 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
     </row>
-    <row r="32" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C32" s="1">
         <v>209</v>
@@ -4980,9 +5037,9 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
     </row>
-    <row r="33" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1">
         <v>209</v>
@@ -4991,7 +5048,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -5089,9 +5146,9 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
     </row>
-    <row r="34" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C34" s="1">
         <v>209</v>
@@ -5101,7 +5158,7 @@
         <v>missing</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -5199,9 +5256,9 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
     </row>
-    <row r="35" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C35" s="1">
         <v>209</v>
@@ -5210,7 +5267,7 @@
         <v>63</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -5308,9 +5365,9 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
     </row>
-    <row r="36" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1">
         <v>209</v>
@@ -5319,7 +5376,7 @@
         <v>63</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -5417,9 +5474,9 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
     </row>
-    <row r="37" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1">
         <v>209</v>
@@ -5428,7 +5485,7 @@
         <v>63</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>356</v>
+        <v>120</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -5526,9 +5583,9 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
     </row>
-    <row r="38" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1">
         <v>209</v>
@@ -5537,7 +5594,7 @@
         <v>63</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -5635,9 +5692,9 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
     </row>
-    <row r="39" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1">
         <v>209</v>
@@ -5646,7 +5703,7 @@
         <v>63</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -5744,9 +5801,9 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
     </row>
-    <row r="40" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1">
         <v>209</v>
@@ -5755,7 +5812,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>356</v>
+        <v>120</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -5853,9 +5910,9 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
     </row>
-    <row r="41" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1">
         <v>210</v>
@@ -6028,9 +6085,9 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
     </row>
-    <row r="42" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C42" s="1">
         <v>210</v>
@@ -6203,9 +6260,9 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
     </row>
-    <row r="43" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1">
         <v>210</v>
@@ -6378,9 +6435,9 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="2:92" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C44" s="1">
         <v>210</v>
@@ -6553,9 +6610,9 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2">
         <v>210</v>
@@ -6729,10 +6786,80 @@
       <c r="CL45" s="2"/>
       <c r="CM45" s="2"/>
       <c r="CN45" s="1"/>
+      <c r="CO45" s="3"/>
+      <c r="CP45" s="3"/>
+      <c r="CQ45" s="3"/>
+      <c r="CR45" s="3"/>
+      <c r="CS45" s="3"/>
+      <c r="CT45" s="3"/>
+      <c r="CU45" s="3"/>
+      <c r="CV45" s="3"/>
+      <c r="CW45" s="3"/>
+      <c r="CX45" s="3"/>
+      <c r="CY45" s="3"/>
+      <c r="CZ45" s="3"/>
+      <c r="DA45" s="3"/>
+      <c r="DB45" s="3"/>
+      <c r="DC45" s="3"/>
+      <c r="DD45" s="3"/>
+      <c r="DE45" s="3"/>
+      <c r="DF45" s="3"/>
+      <c r="DG45" s="3"/>
+      <c r="DH45" s="3"/>
+      <c r="DI45" s="3"/>
+      <c r="DJ45" s="3"/>
+      <c r="DK45" s="3"/>
+      <c r="DL45" s="3"/>
+      <c r="DM45" s="3"/>
+      <c r="DN45" s="3"/>
+      <c r="DO45" s="3"/>
+      <c r="DP45" s="3"/>
+      <c r="DQ45" s="3"/>
+      <c r="DR45" s="3"/>
+      <c r="DS45" s="3"/>
+      <c r="DT45" s="3"/>
+      <c r="DU45" s="3"/>
+      <c r="DV45" s="3"/>
+      <c r="DW45" s="3"/>
+      <c r="DX45" s="3"/>
+      <c r="DY45" s="3"/>
+      <c r="DZ45" s="3"/>
+      <c r="EA45" s="3"/>
+      <c r="EB45" s="3"/>
+      <c r="EC45" s="3"/>
+      <c r="ED45" s="3"/>
+      <c r="EE45" s="3"/>
+      <c r="EF45" s="3"/>
+      <c r="EG45" s="3"/>
+      <c r="EH45" s="3"/>
+      <c r="EI45" s="3"/>
+      <c r="EJ45" s="3"/>
+      <c r="EK45" s="3"/>
+      <c r="EL45" s="3"/>
+      <c r="EM45" s="3"/>
+      <c r="EN45" s="3"/>
+      <c r="EO45" s="3"/>
+      <c r="EP45" s="3"/>
+      <c r="EQ45" s="3"/>
+      <c r="ER45" s="3"/>
+      <c r="ES45" s="3"/>
+      <c r="ET45" s="3"/>
+      <c r="EU45" s="3"/>
+      <c r="EV45" s="3"/>
+      <c r="EW45" s="3"/>
+      <c r="EX45" s="3"/>
+      <c r="EY45" s="3"/>
+      <c r="EZ45" s="3"/>
+      <c r="FA45" s="3"/>
+      <c r="FB45" s="3"/>
+      <c r="FC45" s="3"/>
+      <c r="FD45" s="3"/>
+      <c r="FE45" s="3"/>
+      <c r="FF45" s="3"/>
     </row>
-    <row r="46" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C46" s="2">
         <v>211</v>
@@ -6904,10 +7031,80 @@
       <c r="CL46" s="2"/>
       <c r="CM46" s="2"/>
       <c r="CN46" s="1"/>
+      <c r="CO46" s="3"/>
+      <c r="CP46" s="3"/>
+      <c r="CQ46" s="3"/>
+      <c r="CR46" s="3"/>
+      <c r="CS46" s="3"/>
+      <c r="CT46" s="3"/>
+      <c r="CU46" s="3"/>
+      <c r="CV46" s="3"/>
+      <c r="CW46" s="3"/>
+      <c r="CX46" s="3"/>
+      <c r="CY46" s="3"/>
+      <c r="CZ46" s="3"/>
+      <c r="DA46" s="3"/>
+      <c r="DB46" s="3"/>
+      <c r="DC46" s="3"/>
+      <c r="DD46" s="3"/>
+      <c r="DE46" s="3"/>
+      <c r="DF46" s="3"/>
+      <c r="DG46" s="3"/>
+      <c r="DH46" s="3"/>
+      <c r="DI46" s="3"/>
+      <c r="DJ46" s="3"/>
+      <c r="DK46" s="3"/>
+      <c r="DL46" s="3"/>
+      <c r="DM46" s="3"/>
+      <c r="DN46" s="3"/>
+      <c r="DO46" s="3"/>
+      <c r="DP46" s="3"/>
+      <c r="DQ46" s="3"/>
+      <c r="DR46" s="3"/>
+      <c r="DS46" s="3"/>
+      <c r="DT46" s="3"/>
+      <c r="DU46" s="3"/>
+      <c r="DV46" s="3"/>
+      <c r="DW46" s="3"/>
+      <c r="DX46" s="3"/>
+      <c r="DY46" s="3"/>
+      <c r="DZ46" s="3"/>
+      <c r="EA46" s="3"/>
+      <c r="EB46" s="3"/>
+      <c r="EC46" s="3"/>
+      <c r="ED46" s="3"/>
+      <c r="EE46" s="3"/>
+      <c r="EF46" s="3"/>
+      <c r="EG46" s="3"/>
+      <c r="EH46" s="3"/>
+      <c r="EI46" s="3"/>
+      <c r="EJ46" s="3"/>
+      <c r="EK46" s="3"/>
+      <c r="EL46" s="3"/>
+      <c r="EM46" s="3"/>
+      <c r="EN46" s="3"/>
+      <c r="EO46" s="3"/>
+      <c r="EP46" s="3"/>
+      <c r="EQ46" s="3"/>
+      <c r="ER46" s="3"/>
+      <c r="ES46" s="3"/>
+      <c r="ET46" s="3"/>
+      <c r="EU46" s="3"/>
+      <c r="EV46" s="3"/>
+      <c r="EW46" s="3"/>
+      <c r="EX46" s="3"/>
+      <c r="EY46" s="3"/>
+      <c r="EZ46" s="3"/>
+      <c r="FA46" s="3"/>
+      <c r="FB46" s="3"/>
+      <c r="FC46" s="3"/>
+      <c r="FD46" s="3"/>
+      <c r="FE46" s="3"/>
+      <c r="FF46" s="3"/>
     </row>
-    <row r="47" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C47" s="2">
         <v>211</v>
@@ -7079,10 +7276,80 @@
       <c r="CL47" s="2"/>
       <c r="CM47" s="2"/>
       <c r="CN47" s="1"/>
+      <c r="CO47" s="3"/>
+      <c r="CP47" s="3"/>
+      <c r="CQ47" s="3"/>
+      <c r="CR47" s="3"/>
+      <c r="CS47" s="3"/>
+      <c r="CT47" s="3"/>
+      <c r="CU47" s="3"/>
+      <c r="CV47" s="3"/>
+      <c r="CW47" s="3"/>
+      <c r="CX47" s="3"/>
+      <c r="CY47" s="3"/>
+      <c r="CZ47" s="3"/>
+      <c r="DA47" s="3"/>
+      <c r="DB47" s="3"/>
+      <c r="DC47" s="3"/>
+      <c r="DD47" s="3"/>
+      <c r="DE47" s="3"/>
+      <c r="DF47" s="3"/>
+      <c r="DG47" s="3"/>
+      <c r="DH47" s="3"/>
+      <c r="DI47" s="3"/>
+      <c r="DJ47" s="3"/>
+      <c r="DK47" s="3"/>
+      <c r="DL47" s="3"/>
+      <c r="DM47" s="3"/>
+      <c r="DN47" s="3"/>
+      <c r="DO47" s="3"/>
+      <c r="DP47" s="3"/>
+      <c r="DQ47" s="3"/>
+      <c r="DR47" s="3"/>
+      <c r="DS47" s="3"/>
+      <c r="DT47" s="3"/>
+      <c r="DU47" s="3"/>
+      <c r="DV47" s="3"/>
+      <c r="DW47" s="3"/>
+      <c r="DX47" s="3"/>
+      <c r="DY47" s="3"/>
+      <c r="DZ47" s="3"/>
+      <c r="EA47" s="3"/>
+      <c r="EB47" s="3"/>
+      <c r="EC47" s="3"/>
+      <c r="ED47" s="3"/>
+      <c r="EE47" s="3"/>
+      <c r="EF47" s="3"/>
+      <c r="EG47" s="3"/>
+      <c r="EH47" s="3"/>
+      <c r="EI47" s="3"/>
+      <c r="EJ47" s="3"/>
+      <c r="EK47" s="3"/>
+      <c r="EL47" s="3"/>
+      <c r="EM47" s="3"/>
+      <c r="EN47" s="3"/>
+      <c r="EO47" s="3"/>
+      <c r="EP47" s="3"/>
+      <c r="EQ47" s="3"/>
+      <c r="ER47" s="3"/>
+      <c r="ES47" s="3"/>
+      <c r="ET47" s="3"/>
+      <c r="EU47" s="3"/>
+      <c r="EV47" s="3"/>
+      <c r="EW47" s="3"/>
+      <c r="EX47" s="3"/>
+      <c r="EY47" s="3"/>
+      <c r="EZ47" s="3"/>
+      <c r="FA47" s="3"/>
+      <c r="FB47" s="3"/>
+      <c r="FC47" s="3"/>
+      <c r="FD47" s="3"/>
+      <c r="FE47" s="3"/>
+      <c r="FF47" s="3"/>
     </row>
-    <row r="48" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C48" s="2">
         <v>211</v>
@@ -7254,10 +7521,80 @@
       <c r="CL48" s="2"/>
       <c r="CM48" s="2"/>
       <c r="CN48" s="1"/>
+      <c r="CO48" s="3"/>
+      <c r="CP48" s="3"/>
+      <c r="CQ48" s="3"/>
+      <c r="CR48" s="3"/>
+      <c r="CS48" s="3"/>
+      <c r="CT48" s="3"/>
+      <c r="CU48" s="3"/>
+      <c r="CV48" s="3"/>
+      <c r="CW48" s="3"/>
+      <c r="CX48" s="3"/>
+      <c r="CY48" s="3"/>
+      <c r="CZ48" s="3"/>
+      <c r="DA48" s="3"/>
+      <c r="DB48" s="3"/>
+      <c r="DC48" s="3"/>
+      <c r="DD48" s="3"/>
+      <c r="DE48" s="3"/>
+      <c r="DF48" s="3"/>
+      <c r="DG48" s="3"/>
+      <c r="DH48" s="3"/>
+      <c r="DI48" s="3"/>
+      <c r="DJ48" s="3"/>
+      <c r="DK48" s="3"/>
+      <c r="DL48" s="3"/>
+      <c r="DM48" s="3"/>
+      <c r="DN48" s="3"/>
+      <c r="DO48" s="3"/>
+      <c r="DP48" s="3"/>
+      <c r="DQ48" s="3"/>
+      <c r="DR48" s="3"/>
+      <c r="DS48" s="3"/>
+      <c r="DT48" s="3"/>
+      <c r="DU48" s="3"/>
+      <c r="DV48" s="3"/>
+      <c r="DW48" s="3"/>
+      <c r="DX48" s="3"/>
+      <c r="DY48" s="3"/>
+      <c r="DZ48" s="3"/>
+      <c r="EA48" s="3"/>
+      <c r="EB48" s="3"/>
+      <c r="EC48" s="3"/>
+      <c r="ED48" s="3"/>
+      <c r="EE48" s="3"/>
+      <c r="EF48" s="3"/>
+      <c r="EG48" s="3"/>
+      <c r="EH48" s="3"/>
+      <c r="EI48" s="3"/>
+      <c r="EJ48" s="3"/>
+      <c r="EK48" s="3"/>
+      <c r="EL48" s="3"/>
+      <c r="EM48" s="3"/>
+      <c r="EN48" s="3"/>
+      <c r="EO48" s="3"/>
+      <c r="EP48" s="3"/>
+      <c r="EQ48" s="3"/>
+      <c r="ER48" s="3"/>
+      <c r="ES48" s="3"/>
+      <c r="ET48" s="3"/>
+      <c r="EU48" s="3"/>
+      <c r="EV48" s="3"/>
+      <c r="EW48" s="3"/>
+      <c r="EX48" s="3"/>
+      <c r="EY48" s="3"/>
+      <c r="EZ48" s="3"/>
+      <c r="FA48" s="3"/>
+      <c r="FB48" s="3"/>
+      <c r="FC48" s="3"/>
+      <c r="FD48" s="3"/>
+      <c r="FE48" s="3"/>
+      <c r="FF48" s="3"/>
     </row>
-    <row r="49" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C49" s="2">
         <v>211</v>
@@ -7429,10 +7766,80 @@
       <c r="CL49" s="2"/>
       <c r="CM49" s="2"/>
       <c r="CN49" s="1"/>
+      <c r="CO49" s="3"/>
+      <c r="CP49" s="3"/>
+      <c r="CQ49" s="3"/>
+      <c r="CR49" s="3"/>
+      <c r="CS49" s="3"/>
+      <c r="CT49" s="3"/>
+      <c r="CU49" s="3"/>
+      <c r="CV49" s="3"/>
+      <c r="CW49" s="3"/>
+      <c r="CX49" s="3"/>
+      <c r="CY49" s="3"/>
+      <c r="CZ49" s="3"/>
+      <c r="DA49" s="3"/>
+      <c r="DB49" s="3"/>
+      <c r="DC49" s="3"/>
+      <c r="DD49" s="3"/>
+      <c r="DE49" s="3"/>
+      <c r="DF49" s="3"/>
+      <c r="DG49" s="3"/>
+      <c r="DH49" s="3"/>
+      <c r="DI49" s="3"/>
+      <c r="DJ49" s="3"/>
+      <c r="DK49" s="3"/>
+      <c r="DL49" s="3"/>
+      <c r="DM49" s="3"/>
+      <c r="DN49" s="3"/>
+      <c r="DO49" s="3"/>
+      <c r="DP49" s="3"/>
+      <c r="DQ49" s="3"/>
+      <c r="DR49" s="3"/>
+      <c r="DS49" s="3"/>
+      <c r="DT49" s="3"/>
+      <c r="DU49" s="3"/>
+      <c r="DV49" s="3"/>
+      <c r="DW49" s="3"/>
+      <c r="DX49" s="3"/>
+      <c r="DY49" s="3"/>
+      <c r="DZ49" s="3"/>
+      <c r="EA49" s="3"/>
+      <c r="EB49" s="3"/>
+      <c r="EC49" s="3"/>
+      <c r="ED49" s="3"/>
+      <c r="EE49" s="3"/>
+      <c r="EF49" s="3"/>
+      <c r="EG49" s="3"/>
+      <c r="EH49" s="3"/>
+      <c r="EI49" s="3"/>
+      <c r="EJ49" s="3"/>
+      <c r="EK49" s="3"/>
+      <c r="EL49" s="3"/>
+      <c r="EM49" s="3"/>
+      <c r="EN49" s="3"/>
+      <c r="EO49" s="3"/>
+      <c r="EP49" s="3"/>
+      <c r="EQ49" s="3"/>
+      <c r="ER49" s="3"/>
+      <c r="ES49" s="3"/>
+      <c r="ET49" s="3"/>
+      <c r="EU49" s="3"/>
+      <c r="EV49" s="3"/>
+      <c r="EW49" s="3"/>
+      <c r="EX49" s="3"/>
+      <c r="EY49" s="3"/>
+      <c r="EZ49" s="3"/>
+      <c r="FA49" s="3"/>
+      <c r="FB49" s="3"/>
+      <c r="FC49" s="3"/>
+      <c r="FD49" s="3"/>
+      <c r="FE49" s="3"/>
+      <c r="FF49" s="3"/>
     </row>
-    <row r="50" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2">
         <v>211</v>
@@ -7606,12 +8013,82 @@
       <c r="CL50" s="2"/>
       <c r="CM50" s="2"/>
       <c r="CN50" s="1"/>
+      <c r="CO50" s="3"/>
+      <c r="CP50" s="3"/>
+      <c r="CQ50" s="3"/>
+      <c r="CR50" s="3"/>
+      <c r="CS50" s="3"/>
+      <c r="CT50" s="3"/>
+      <c r="CU50" s="3"/>
+      <c r="CV50" s="3"/>
+      <c r="CW50" s="3"/>
+      <c r="CX50" s="3"/>
+      <c r="CY50" s="3"/>
+      <c r="CZ50" s="3"/>
+      <c r="DA50" s="3"/>
+      <c r="DB50" s="3"/>
+      <c r="DC50" s="3"/>
+      <c r="DD50" s="3"/>
+      <c r="DE50" s="3"/>
+      <c r="DF50" s="3"/>
+      <c r="DG50" s="3"/>
+      <c r="DH50" s="3"/>
+      <c r="DI50" s="3"/>
+      <c r="DJ50" s="3"/>
+      <c r="DK50" s="3"/>
+      <c r="DL50" s="3"/>
+      <c r="DM50" s="3"/>
+      <c r="DN50" s="3"/>
+      <c r="DO50" s="3"/>
+      <c r="DP50" s="3"/>
+      <c r="DQ50" s="3"/>
+      <c r="DR50" s="3"/>
+      <c r="DS50" s="3"/>
+      <c r="DT50" s="3"/>
+      <c r="DU50" s="3"/>
+      <c r="DV50" s="3"/>
+      <c r="DW50" s="3"/>
+      <c r="DX50" s="3"/>
+      <c r="DY50" s="3"/>
+      <c r="DZ50" s="3"/>
+      <c r="EA50" s="3"/>
+      <c r="EB50" s="3"/>
+      <c r="EC50" s="3"/>
+      <c r="ED50" s="3"/>
+      <c r="EE50" s="3"/>
+      <c r="EF50" s="3"/>
+      <c r="EG50" s="3"/>
+      <c r="EH50" s="3"/>
+      <c r="EI50" s="3"/>
+      <c r="EJ50" s="3"/>
+      <c r="EK50" s="3"/>
+      <c r="EL50" s="3"/>
+      <c r="EM50" s="3"/>
+      <c r="EN50" s="3"/>
+      <c r="EO50" s="3"/>
+      <c r="EP50" s="3"/>
+      <c r="EQ50" s="3"/>
+      <c r="ER50" s="3"/>
+      <c r="ES50" s="3"/>
+      <c r="ET50" s="3"/>
+      <c r="EU50" s="3"/>
+      <c r="EV50" s="3"/>
+      <c r="EW50" s="3"/>
+      <c r="EX50" s="3"/>
+      <c r="EY50" s="3"/>
+      <c r="EZ50" s="3"/>
+      <c r="FA50" s="3"/>
+      <c r="FB50" s="3"/>
+      <c r="FC50" s="3"/>
+      <c r="FD50" s="3"/>
+      <c r="FE50" s="3"/>
+      <c r="FF50" s="3"/>
     </row>
-    <row r="51" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="2">
+        <v>169</v>
+      </c>
+      <c r="C51" s="32">
         <v>212</v>
       </c>
       <c r="D51" s="10">
@@ -7732,15 +8209,87 @@
       <c r="CI51" s="2"/>
       <c r="CJ51" s="2"/>
       <c r="CK51" s="2"/>
-      <c r="CL51" s="2"/>
+      <c r="CL51" s="2">
+        <v>0.35420000000000001</v>
+      </c>
       <c r="CM51" s="2"/>
       <c r="CN51" s="1"/>
+      <c r="CO51" s="3"/>
+      <c r="CP51" s="3"/>
+      <c r="CQ51" s="3"/>
+      <c r="CR51" s="3"/>
+      <c r="CS51" s="3"/>
+      <c r="CT51" s="3"/>
+      <c r="CU51" s="3"/>
+      <c r="CV51" s="3"/>
+      <c r="CW51" s="3"/>
+      <c r="CX51" s="3"/>
+      <c r="CY51" s="3"/>
+      <c r="CZ51" s="3"/>
+      <c r="DA51" s="3"/>
+      <c r="DB51" s="3"/>
+      <c r="DC51" s="3"/>
+      <c r="DD51" s="3"/>
+      <c r="DE51" s="3"/>
+      <c r="DF51" s="3"/>
+      <c r="DG51" s="3"/>
+      <c r="DH51" s="3"/>
+      <c r="DI51" s="3"/>
+      <c r="DJ51" s="3"/>
+      <c r="DK51" s="3"/>
+      <c r="DL51" s="3"/>
+      <c r="DM51" s="3"/>
+      <c r="DN51" s="3"/>
+      <c r="DO51" s="3"/>
+      <c r="DP51" s="3"/>
+      <c r="DQ51" s="3"/>
+      <c r="DR51" s="3"/>
+      <c r="DS51" s="3"/>
+      <c r="DT51" s="3"/>
+      <c r="DU51" s="3"/>
+      <c r="DV51" s="3"/>
+      <c r="DW51" s="3"/>
+      <c r="DX51" s="3"/>
+      <c r="DY51" s="3"/>
+      <c r="DZ51" s="3"/>
+      <c r="EA51" s="3"/>
+      <c r="EB51" s="3"/>
+      <c r="EC51" s="3"/>
+      <c r="ED51" s="3"/>
+      <c r="EE51" s="3"/>
+      <c r="EF51" s="3"/>
+      <c r="EG51" s="3"/>
+      <c r="EH51" s="3"/>
+      <c r="EI51" s="3"/>
+      <c r="EJ51" s="3"/>
+      <c r="EK51" s="3"/>
+      <c r="EL51" s="3"/>
+      <c r="EM51" s="3"/>
+      <c r="EN51" s="3"/>
+      <c r="EO51" s="3"/>
+      <c r="EP51" s="3"/>
+      <c r="EQ51" s="3"/>
+      <c r="ER51" s="3"/>
+      <c r="ES51" s="3"/>
+      <c r="ET51" s="3"/>
+      <c r="EU51" s="3"/>
+      <c r="EV51" s="3"/>
+      <c r="EW51" s="3"/>
+      <c r="EX51" s="3"/>
+      <c r="EY51" s="3"/>
+      <c r="EZ51" s="3"/>
+      <c r="FA51" s="3"/>
+      <c r="FB51" s="3"/>
+      <c r="FC51" s="3"/>
+      <c r="FD51" s="3"/>
+      <c r="FE51" s="3"/>
+      <c r="FF51" s="3"/>
     </row>
-    <row r="52" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="2">
+        <v>170</v>
+      </c>
+      <c r="C52" s="32">
         <v>212</v>
       </c>
       <c r="D52" s="10">
@@ -7861,15 +8410,87 @@
       <c r="CI52" s="2"/>
       <c r="CJ52" s="2"/>
       <c r="CK52" s="2"/>
-      <c r="CL52" s="2"/>
+      <c r="CL52" s="2">
+        <v>0</v>
+      </c>
       <c r="CM52" s="2"/>
       <c r="CN52" s="1"/>
+      <c r="CO52" s="3"/>
+      <c r="CP52" s="3"/>
+      <c r="CQ52" s="3"/>
+      <c r="CR52" s="3"/>
+      <c r="CS52" s="3"/>
+      <c r="CT52" s="3"/>
+      <c r="CU52" s="3"/>
+      <c r="CV52" s="3"/>
+      <c r="CW52" s="3"/>
+      <c r="CX52" s="3"/>
+      <c r="CY52" s="3"/>
+      <c r="CZ52" s="3"/>
+      <c r="DA52" s="3"/>
+      <c r="DB52" s="3"/>
+      <c r="DC52" s="3"/>
+      <c r="DD52" s="3"/>
+      <c r="DE52" s="3"/>
+      <c r="DF52" s="3"/>
+      <c r="DG52" s="3"/>
+      <c r="DH52" s="3"/>
+      <c r="DI52" s="3"/>
+      <c r="DJ52" s="3"/>
+      <c r="DK52" s="3"/>
+      <c r="DL52" s="3"/>
+      <c r="DM52" s="3"/>
+      <c r="DN52" s="3"/>
+      <c r="DO52" s="3"/>
+      <c r="DP52" s="3"/>
+      <c r="DQ52" s="3"/>
+      <c r="DR52" s="3"/>
+      <c r="DS52" s="3"/>
+      <c r="DT52" s="3"/>
+      <c r="DU52" s="3"/>
+      <c r="DV52" s="3"/>
+      <c r="DW52" s="3"/>
+      <c r="DX52" s="3"/>
+      <c r="DY52" s="3"/>
+      <c r="DZ52" s="3"/>
+      <c r="EA52" s="3"/>
+      <c r="EB52" s="3"/>
+      <c r="EC52" s="3"/>
+      <c r="ED52" s="3"/>
+      <c r="EE52" s="3"/>
+      <c r="EF52" s="3"/>
+      <c r="EG52" s="3"/>
+      <c r="EH52" s="3"/>
+      <c r="EI52" s="3"/>
+      <c r="EJ52" s="3"/>
+      <c r="EK52" s="3"/>
+      <c r="EL52" s="3"/>
+      <c r="EM52" s="3"/>
+      <c r="EN52" s="3"/>
+      <c r="EO52" s="3"/>
+      <c r="EP52" s="3"/>
+      <c r="EQ52" s="3"/>
+      <c r="ER52" s="3"/>
+      <c r="ES52" s="3"/>
+      <c r="ET52" s="3"/>
+      <c r="EU52" s="3"/>
+      <c r="EV52" s="3"/>
+      <c r="EW52" s="3"/>
+      <c r="EX52" s="3"/>
+      <c r="EY52" s="3"/>
+      <c r="EZ52" s="3"/>
+      <c r="FA52" s="3"/>
+      <c r="FB52" s="3"/>
+      <c r="FC52" s="3"/>
+      <c r="FD52" s="3"/>
+      <c r="FE52" s="3"/>
+      <c r="FF52" s="3"/>
     </row>
-    <row r="53" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="2">
+        <v>171</v>
+      </c>
+      <c r="C53" s="32">
         <v>212</v>
       </c>
       <c r="D53" s="10">
@@ -7986,15 +8607,87 @@
       <c r="CI53" s="2"/>
       <c r="CJ53" s="2"/>
       <c r="CK53" s="2"/>
-      <c r="CL53" s="2"/>
+      <c r="CL53" s="2">
+        <v>0.4</v>
+      </c>
       <c r="CM53" s="2"/>
       <c r="CN53" s="1"/>
+      <c r="CO53" s="3"/>
+      <c r="CP53" s="3"/>
+      <c r="CQ53" s="3"/>
+      <c r="CR53" s="3"/>
+      <c r="CS53" s="3"/>
+      <c r="CT53" s="3"/>
+      <c r="CU53" s="3"/>
+      <c r="CV53" s="3"/>
+      <c r="CW53" s="3"/>
+      <c r="CX53" s="3"/>
+      <c r="CY53" s="3"/>
+      <c r="CZ53" s="3"/>
+      <c r="DA53" s="3"/>
+      <c r="DB53" s="3"/>
+      <c r="DC53" s="3"/>
+      <c r="DD53" s="3"/>
+      <c r="DE53" s="3"/>
+      <c r="DF53" s="3"/>
+      <c r="DG53" s="3"/>
+      <c r="DH53" s="3"/>
+      <c r="DI53" s="3"/>
+      <c r="DJ53" s="3"/>
+      <c r="DK53" s="3"/>
+      <c r="DL53" s="3"/>
+      <c r="DM53" s="3"/>
+      <c r="DN53" s="3"/>
+      <c r="DO53" s="3"/>
+      <c r="DP53" s="3"/>
+      <c r="DQ53" s="3"/>
+      <c r="DR53" s="3"/>
+      <c r="DS53" s="3"/>
+      <c r="DT53" s="3"/>
+      <c r="DU53" s="3"/>
+      <c r="DV53" s="3"/>
+      <c r="DW53" s="3"/>
+      <c r="DX53" s="3"/>
+      <c r="DY53" s="3"/>
+      <c r="DZ53" s="3"/>
+      <c r="EA53" s="3"/>
+      <c r="EB53" s="3"/>
+      <c r="EC53" s="3"/>
+      <c r="ED53" s="3"/>
+      <c r="EE53" s="3"/>
+      <c r="EF53" s="3"/>
+      <c r="EG53" s="3"/>
+      <c r="EH53" s="3"/>
+      <c r="EI53" s="3"/>
+      <c r="EJ53" s="3"/>
+      <c r="EK53" s="3"/>
+      <c r="EL53" s="3"/>
+      <c r="EM53" s="3"/>
+      <c r="EN53" s="3"/>
+      <c r="EO53" s="3"/>
+      <c r="EP53" s="3"/>
+      <c r="EQ53" s="3"/>
+      <c r="ER53" s="3"/>
+      <c r="ES53" s="3"/>
+      <c r="ET53" s="3"/>
+      <c r="EU53" s="3"/>
+      <c r="EV53" s="3"/>
+      <c r="EW53" s="3"/>
+      <c r="EX53" s="3"/>
+      <c r="EY53" s="3"/>
+      <c r="EZ53" s="3"/>
+      <c r="FA53" s="3"/>
+      <c r="FB53" s="3"/>
+      <c r="FC53" s="3"/>
+      <c r="FD53" s="3"/>
+      <c r="FE53" s="3"/>
+      <c r="FF53" s="3"/>
     </row>
-    <row r="54" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="2">
+        <v>172</v>
+      </c>
+      <c r="C54" s="32">
         <v>212</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -8111,15 +8804,89 @@
       <c r="CI54" s="2"/>
       <c r="CJ54" s="2"/>
       <c r="CK54" s="2"/>
-      <c r="CL54" s="2"/>
-      <c r="CM54" s="2"/>
+      <c r="CL54" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM54" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="CN54" s="1"/>
+      <c r="CO54" s="3"/>
+      <c r="CP54" s="3"/>
+      <c r="CQ54" s="3"/>
+      <c r="CR54" s="3"/>
+      <c r="CS54" s="3"/>
+      <c r="CT54" s="3"/>
+      <c r="CU54" s="3"/>
+      <c r="CV54" s="3"/>
+      <c r="CW54" s="3"/>
+      <c r="CX54" s="3"/>
+      <c r="CY54" s="3"/>
+      <c r="CZ54" s="3"/>
+      <c r="DA54" s="3"/>
+      <c r="DB54" s="3"/>
+      <c r="DC54" s="3"/>
+      <c r="DD54" s="3"/>
+      <c r="DE54" s="3"/>
+      <c r="DF54" s="3"/>
+      <c r="DG54" s="3"/>
+      <c r="DH54" s="3"/>
+      <c r="DI54" s="3"/>
+      <c r="DJ54" s="3"/>
+      <c r="DK54" s="3"/>
+      <c r="DL54" s="3"/>
+      <c r="DM54" s="3"/>
+      <c r="DN54" s="3"/>
+      <c r="DO54" s="3"/>
+      <c r="DP54" s="3"/>
+      <c r="DQ54" s="3"/>
+      <c r="DR54" s="3"/>
+      <c r="DS54" s="3"/>
+      <c r="DT54" s="3"/>
+      <c r="DU54" s="3"/>
+      <c r="DV54" s="3"/>
+      <c r="DW54" s="3"/>
+      <c r="DX54" s="3"/>
+      <c r="DY54" s="3"/>
+      <c r="DZ54" s="3"/>
+      <c r="EA54" s="3"/>
+      <c r="EB54" s="3"/>
+      <c r="EC54" s="3"/>
+      <c r="ED54" s="3"/>
+      <c r="EE54" s="3"/>
+      <c r="EF54" s="3"/>
+      <c r="EG54" s="3"/>
+      <c r="EH54" s="3"/>
+      <c r="EI54" s="3"/>
+      <c r="EJ54" s="3"/>
+      <c r="EK54" s="3"/>
+      <c r="EL54" s="3"/>
+      <c r="EM54" s="3"/>
+      <c r="EN54" s="3"/>
+      <c r="EO54" s="3"/>
+      <c r="EP54" s="3"/>
+      <c r="EQ54" s="3"/>
+      <c r="ER54" s="3"/>
+      <c r="ES54" s="3"/>
+      <c r="ET54" s="3"/>
+      <c r="EU54" s="3"/>
+      <c r="EV54" s="3"/>
+      <c r="EW54" s="3"/>
+      <c r="EX54" s="3"/>
+      <c r="EY54" s="3"/>
+      <c r="EZ54" s="3"/>
+      <c r="FA54" s="3"/>
+      <c r="FB54" s="3"/>
+      <c r="FC54" s="3"/>
+      <c r="FD54" s="3"/>
+      <c r="FE54" s="3"/>
+      <c r="FF54" s="3"/>
     </row>
-    <row r="55" spans="2:92" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="2">
+        <v>173</v>
+      </c>
+      <c r="C55" s="32">
         <v>212</v>
       </c>
       <c r="D55" s="10">
@@ -8241,15 +9008,89 @@
       <c r="CI55" s="2"/>
       <c r="CJ55" s="2"/>
       <c r="CK55" s="2"/>
-      <c r="CL55" s="2"/>
-      <c r="CM55" s="2"/>
+      <c r="CL55" s="34">
+        <v>-1000000</v>
+      </c>
+      <c r="CM55" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="CN55" s="1"/>
+      <c r="CO55" s="3"/>
+      <c r="CP55" s="3"/>
+      <c r="CQ55" s="3"/>
+      <c r="CR55" s="3"/>
+      <c r="CS55" s="3"/>
+      <c r="CT55" s="3"/>
+      <c r="CU55" s="3"/>
+      <c r="CV55" s="3"/>
+      <c r="CW55" s="3"/>
+      <c r="CX55" s="3"/>
+      <c r="CY55" s="3"/>
+      <c r="CZ55" s="3"/>
+      <c r="DA55" s="3"/>
+      <c r="DB55" s="3"/>
+      <c r="DC55" s="3"/>
+      <c r="DD55" s="3"/>
+      <c r="DE55" s="3"/>
+      <c r="DF55" s="3"/>
+      <c r="DG55" s="3"/>
+      <c r="DH55" s="3"/>
+      <c r="DI55" s="3"/>
+      <c r="DJ55" s="3"/>
+      <c r="DK55" s="3"/>
+      <c r="DL55" s="3"/>
+      <c r="DM55" s="3"/>
+      <c r="DN55" s="3"/>
+      <c r="DO55" s="3"/>
+      <c r="DP55" s="3"/>
+      <c r="DQ55" s="3"/>
+      <c r="DR55" s="3"/>
+      <c r="DS55" s="3"/>
+      <c r="DT55" s="3"/>
+      <c r="DU55" s="3"/>
+      <c r="DV55" s="3"/>
+      <c r="DW55" s="3"/>
+      <c r="DX55" s="3"/>
+      <c r="DY55" s="3"/>
+      <c r="DZ55" s="3"/>
+      <c r="EA55" s="3"/>
+      <c r="EB55" s="3"/>
+      <c r="EC55" s="3"/>
+      <c r="ED55" s="3"/>
+      <c r="EE55" s="3"/>
+      <c r="EF55" s="3"/>
+      <c r="EG55" s="3"/>
+      <c r="EH55" s="3"/>
+      <c r="EI55" s="3"/>
+      <c r="EJ55" s="3"/>
+      <c r="EK55" s="3"/>
+      <c r="EL55" s="3"/>
+      <c r="EM55" s="3"/>
+      <c r="EN55" s="3"/>
+      <c r="EO55" s="3"/>
+      <c r="EP55" s="3"/>
+      <c r="EQ55" s="3"/>
+      <c r="ER55" s="3"/>
+      <c r="ES55" s="3"/>
+      <c r="ET55" s="3"/>
+      <c r="EU55" s="3"/>
+      <c r="EV55" s="3"/>
+      <c r="EW55" s="3"/>
+      <c r="EX55" s="3"/>
+      <c r="EY55" s="3"/>
+      <c r="EZ55" s="3"/>
+      <c r="FA55" s="3"/>
+      <c r="FB55" s="3"/>
+      <c r="FC55" s="3"/>
+      <c r="FD55" s="3"/>
+      <c r="FE55" s="3"/>
+      <c r="FF55" s="3"/>
     </row>
-    <row r="56" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="2">
+        <v>174</v>
+      </c>
+      <c r="C56" s="32">
         <v>212</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -8367,15 +9208,19 @@
       <c r="CI56" s="1"/>
       <c r="CJ56" s="1"/>
       <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
+      <c r="CL56" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM56" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN56" s="1"/>
     </row>
-    <row r="57" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:162" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="2">
+        <v>175</v>
+      </c>
+      <c r="C57" s="32">
         <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -8497,15 +9342,19 @@
       <c r="CI57" s="1"/>
       <c r="CJ57" s="1"/>
       <c r="CK57" s="1"/>
-      <c r="CL57" s="1"/>
-      <c r="CM57" s="1"/>
+      <c r="CL57" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM57" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN57" s="1"/>
     </row>
-    <row r="58" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:162" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="2">
+        <v>176</v>
+      </c>
+      <c r="C58" s="32">
         <v>212</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -8627,22 +9476,26 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
+      <c r="CL58" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM58" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN58" s="1"/>
     </row>
-    <row r="59" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:162" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="2">
+        <v>177</v>
+      </c>
+      <c r="C59" s="32">
         <v>212</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="35">
         <f>BV59</f>
         <v>999999</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="36" t="s">
         <v>97</v>
       </c>
       <c r="F59" s="1"/>
@@ -8727,15 +9580,15 @@
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
       <c r="BS59" s="1"/>
-      <c r="BT59" s="2">
+      <c r="BT59" s="35">
         <f>AVERAGE(BW59,BX59,BY59)</f>
         <v>0</v>
       </c>
-      <c r="BU59" s="2">
+      <c r="BU59" s="35">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="BV59" s="2">
+      <c r="BV59" s="35">
         <f>IF(AND(AF59 &lt;&gt; "AC", AE59=0),999999,"-")</f>
         <v>999999</v>
       </c>
@@ -8763,15 +9616,17 @@
       <c r="CI59" s="1"/>
       <c r="CJ59" s="1"/>
       <c r="CK59" s="1"/>
-      <c r="CL59" s="1"/>
-      <c r="CM59" s="1"/>
+      <c r="CL59" s="35">
+        <v>0</v>
+      </c>
+      <c r="CM59" s="35"/>
       <c r="CN59" s="1"/>
     </row>
-    <row r="60" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="2">
+        <v>178</v>
+      </c>
+      <c r="C60" s="32">
         <v>212</v>
       </c>
       <c r="D60" s="10">
@@ -8897,15 +9752,17 @@
       <c r="CI60" s="1"/>
       <c r="CJ60" s="1"/>
       <c r="CK60" s="1"/>
-      <c r="CL60" s="1"/>
+      <c r="CL60" s="1">
+        <v>0</v>
+      </c>
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
     </row>
-    <row r="61" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="2">
+        <v>179</v>
+      </c>
+      <c r="C61" s="32">
         <v>212</v>
       </c>
       <c r="D61" s="10">
@@ -9031,15 +9888,17 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
+      <c r="CL61" s="1">
+        <v>0.34620000000000001</v>
+      </c>
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
     </row>
-    <row r="62" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="2">
+        <v>180</v>
+      </c>
+      <c r="C62" s="32">
         <v>212</v>
       </c>
       <c r="D62" s="10">
@@ -9165,15 +10024,17 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
+      <c r="CL62" s="1">
+        <v>0.34620000000000001</v>
+      </c>
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
     </row>
-    <row r="63" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="1">
+        <v>181</v>
+      </c>
+      <c r="C63" s="32">
         <v>213</v>
       </c>
       <c r="D63" s="1">
@@ -9294,15 +10155,17 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
+      <c r="CL63" s="1">
+        <v>0.17860000000000001</v>
+      </c>
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
     </row>
-    <row r="64" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="1">
+        <v>182</v>
+      </c>
+      <c r="C64" s="32">
         <v>213</v>
       </c>
       <c r="D64" s="1">
@@ -9423,15 +10286,17 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
+      <c r="CL64" s="1">
+        <v>0</v>
+      </c>
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
     </row>
-    <row r="65" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="1">
+        <v>183</v>
+      </c>
+      <c r="C65" s="32">
         <v>213</v>
       </c>
       <c r="D65" s="1">
@@ -9548,15 +10413,17 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
+      <c r="CL65" s="1">
+        <v>0.625</v>
+      </c>
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
     </row>
-    <row r="66" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="1">
+        <v>184</v>
+      </c>
+      <c r="C66" s="32">
         <v>213</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -9673,15 +10540,19 @@
       <c r="CI66" s="1"/>
       <c r="CJ66" s="1"/>
       <c r="CK66" s="1"/>
-      <c r="CL66" s="1"/>
-      <c r="CM66" s="1"/>
+      <c r="CL66" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM66" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN66" s="1"/>
     </row>
-    <row r="67" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="1">
+        <v>185</v>
+      </c>
+      <c r="C67" s="32">
         <v>213</v>
       </c>
       <c r="D67" s="10">
@@ -9803,15 +10674,19 @@
       <c r="CI67" s="1"/>
       <c r="CJ67" s="1"/>
       <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
+      <c r="CL67" s="37">
+        <v>-1000000</v>
+      </c>
+      <c r="CM67" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN67" s="1"/>
     </row>
-    <row r="68" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="1">
+        <v>186</v>
+      </c>
+      <c r="C68" s="32">
         <v>213</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -9929,15 +10804,19 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
+      <c r="CL68" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM68" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN68" s="1"/>
     </row>
-    <row r="69" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C69" s="1">
+        <v>187</v>
+      </c>
+      <c r="C69" s="32">
         <v>213</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -10059,15 +10938,19 @@
       <c r="CI69" s="1"/>
       <c r="CJ69" s="1"/>
       <c r="CK69" s="1"/>
-      <c r="CL69" s="1"/>
-      <c r="CM69" s="1"/>
+      <c r="CL69" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM69" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN69" s="1"/>
     </row>
-    <row r="70" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="1">
+        <v>188</v>
+      </c>
+      <c r="C70" s="32">
         <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -10189,22 +11072,26 @@
       <c r="CI70" s="1"/>
       <c r="CJ70" s="1"/>
       <c r="CK70" s="1"/>
-      <c r="CL70" s="1"/>
-      <c r="CM70" s="1"/>
+      <c r="CL70" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM70" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN70" s="1"/>
     </row>
-    <row r="71" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" s="1">
+        <v>189</v>
+      </c>
+      <c r="C71" s="32">
         <v>213</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="35">
         <f>BV71</f>
         <v>999999</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="36" t="s">
         <v>97</v>
       </c>
       <c r="F71" s="1"/>
@@ -10325,15 +11212,17 @@
       <c r="CI71" s="1"/>
       <c r="CJ71" s="1"/>
       <c r="CK71" s="1"/>
-      <c r="CL71" s="1"/>
-      <c r="CM71" s="1"/>
+      <c r="CL71" s="35">
+        <v>0</v>
+      </c>
+      <c r="CM71" s="35"/>
       <c r="CN71" s="1"/>
     </row>
-    <row r="72" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="1">
+        <v>190</v>
+      </c>
+      <c r="C72" s="32">
         <v>213</v>
       </c>
       <c r="D72" s="1">
@@ -10459,15 +11348,17 @@
       <c r="CI72" s="1"/>
       <c r="CJ72" s="1"/>
       <c r="CK72" s="1"/>
-      <c r="CL72" s="1"/>
+      <c r="CL72" s="1">
+        <v>0</v>
+      </c>
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
     </row>
-    <row r="73" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="1">
+        <v>191</v>
+      </c>
+      <c r="C73" s="32">
         <v>213</v>
       </c>
       <c r="D73" s="1">
@@ -10593,15 +11484,17 @@
       <c r="CI73" s="1"/>
       <c r="CJ73" s="1"/>
       <c r="CK73" s="1"/>
-      <c r="CL73" s="1"/>
+      <c r="CL73" s="1">
+        <v>0.4138</v>
+      </c>
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
     </row>
-    <row r="74" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="1">
+        <v>192</v>
+      </c>
+      <c r="C74" s="32">
         <v>213</v>
       </c>
       <c r="D74" s="1">
@@ -10727,15 +11620,17 @@
       <c r="CI74" s="1"/>
       <c r="CJ74" s="1"/>
       <c r="CK74" s="1"/>
-      <c r="CL74" s="1"/>
+      <c r="CL74" s="1">
+        <v>0.34620000000000001</v>
+      </c>
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
     </row>
-    <row r="75" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="1">
+        <v>193</v>
+      </c>
+      <c r="C75" s="32">
         <v>214</v>
       </c>
       <c r="D75" s="1">
@@ -10856,15 +11751,17 @@
       <c r="CI75" s="1"/>
       <c r="CJ75" s="1"/>
       <c r="CK75" s="1"/>
-      <c r="CL75" s="1"/>
+      <c r="CL75" s="1">
+        <v>0.2</v>
+      </c>
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
     </row>
-    <row r="76" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="1">
+        <v>194</v>
+      </c>
+      <c r="C76" s="32">
         <v>214</v>
       </c>
       <c r="D76" s="1">
@@ -10985,15 +11882,17 @@
       <c r="CI76" s="1"/>
       <c r="CJ76" s="1"/>
       <c r="CK76" s="1"/>
-      <c r="CL76" s="1"/>
+      <c r="CL76" s="1">
+        <v>0</v>
+      </c>
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
     </row>
-    <row r="77" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" s="1">
+        <v>195</v>
+      </c>
+      <c r="C77" s="32">
         <v>214</v>
       </c>
       <c r="D77" s="1">
@@ -11110,15 +12009,17 @@
       <c r="CI77" s="1"/>
       <c r="CJ77" s="1"/>
       <c r="CK77" s="1"/>
-      <c r="CL77" s="1"/>
+      <c r="CL77" s="1">
+        <v>0.2</v>
+      </c>
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
     </row>
-    <row r="78" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="1">
+        <v>196</v>
+      </c>
+      <c r="C78" s="32">
         <v>214</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -11235,15 +12136,19 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
+      <c r="CL78" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM78" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="1">
+        <v>197</v>
+      </c>
+      <c r="C79" s="32">
         <v>214</v>
       </c>
       <c r="D79" s="10">
@@ -11365,15 +12270,19 @@
       <c r="CI79" s="1"/>
       <c r="CJ79" s="1"/>
       <c r="CK79" s="1"/>
-      <c r="CL79" s="1"/>
-      <c r="CM79" s="1"/>
+      <c r="CL79" s="37">
+        <v>-1000000</v>
+      </c>
+      <c r="CM79" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN79" s="1"/>
     </row>
-    <row r="80" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="1">
+        <v>198</v>
+      </c>
+      <c r="C80" s="32">
         <v>214</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -11491,15 +12400,19 @@
       <c r="CI80" s="1"/>
       <c r="CJ80" s="1"/>
       <c r="CK80" s="1"/>
-      <c r="CL80" s="1"/>
-      <c r="CM80" s="1"/>
+      <c r="CL80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM80" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN80" s="1"/>
     </row>
-    <row r="81" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C81" s="1">
+        <v>199</v>
+      </c>
+      <c r="C81" s="32">
         <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -11621,15 +12534,19 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="1"/>
-      <c r="CM81" s="1"/>
+      <c r="CL81" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM81" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN81" s="1"/>
     </row>
-    <row r="82" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="1">
+        <v>200</v>
+      </c>
+      <c r="C82" s="32">
         <v>214</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -11751,22 +12668,26 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="1"/>
-      <c r="CM82" s="1"/>
+      <c r="CL82" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM82" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN82" s="1"/>
     </row>
-    <row r="83" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="1">
+        <v>201</v>
+      </c>
+      <c r="C83" s="32">
         <v>214</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="35">
         <f>BV83</f>
         <v>999999</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="36" t="s">
         <v>97</v>
       </c>
       <c r="F83" s="1"/>
@@ -11887,15 +12808,17 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="1"/>
-      <c r="CM83" s="1"/>
+      <c r="CL83" s="35">
+        <v>0</v>
+      </c>
+      <c r="CM83" s="35"/>
       <c r="CN83" s="1"/>
     </row>
-    <row r="84" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="1">
+        <v>202</v>
+      </c>
+      <c r="C84" s="32">
         <v>214</v>
       </c>
       <c r="D84" s="1">
@@ -12021,15 +12944,17 @@
       <c r="CI84" s="1"/>
       <c r="CJ84" s="1"/>
       <c r="CK84" s="1"/>
-      <c r="CL84" s="1"/>
+      <c r="CL84" s="1">
+        <v>0</v>
+      </c>
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
     </row>
-    <row r="85" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="1">
+        <v>203</v>
+      </c>
+      <c r="C85" s="32">
         <v>214</v>
       </c>
       <c r="D85" s="1">
@@ -12155,15 +13080,17 @@
       <c r="CI85" s="1"/>
       <c r="CJ85" s="1"/>
       <c r="CK85" s="1"/>
-      <c r="CL85" s="1"/>
+      <c r="CL85" s="1">
+        <v>0.47760000000000002</v>
+      </c>
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
     </row>
-    <row r="86" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="1">
+        <v>204</v>
+      </c>
+      <c r="C86" s="32">
         <v>214</v>
       </c>
       <c r="D86" s="1">
@@ -12289,15 +13216,17 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
+      <c r="CL86" s="1">
+        <v>0.2041</v>
+      </c>
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
     </row>
-    <row r="87" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="1">
+        <v>205</v>
+      </c>
+      <c r="C87" s="32">
         <v>215</v>
       </c>
       <c r="D87" s="1">
@@ -12418,15 +13347,17 @@
       <c r="CI87" s="1"/>
       <c r="CJ87" s="1"/>
       <c r="CK87" s="1"/>
-      <c r="CL87" s="1"/>
+      <c r="CL87" s="1">
+        <v>0.2</v>
+      </c>
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
     </row>
-    <row r="88" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="1">
+        <v>206</v>
+      </c>
+      <c r="C88" s="32">
         <v>215</v>
       </c>
       <c r="D88" s="1">
@@ -12547,15 +13478,17 @@
       <c r="CI88" s="1"/>
       <c r="CJ88" s="1"/>
       <c r="CK88" s="1"/>
-      <c r="CL88" s="1"/>
+      <c r="CL88" s="1">
+        <v>0</v>
+      </c>
       <c r="CM88" s="1"/>
       <c r="CN88" s="1"/>
     </row>
-    <row r="89" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="1">
+        <v>207</v>
+      </c>
+      <c r="C89" s="32">
         <v>215</v>
       </c>
       <c r="D89" s="1">
@@ -12672,15 +13605,17 @@
       <c r="CI89" s="1"/>
       <c r="CJ89" s="1"/>
       <c r="CK89" s="1"/>
-      <c r="CL89" s="1"/>
+      <c r="CL89" s="1">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="CM89" s="1"/>
       <c r="CN89" s="1"/>
     </row>
-    <row r="90" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="1">
+        <v>208</v>
+      </c>
+      <c r="C90" s="32">
         <v>215</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -12797,15 +13732,19 @@
       <c r="CI90" s="1"/>
       <c r="CJ90" s="1"/>
       <c r="CK90" s="1"/>
-      <c r="CL90" s="1"/>
-      <c r="CM90" s="1"/>
+      <c r="CL90" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM90" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN90" s="1"/>
     </row>
-    <row r="91" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C91" s="1">
+        <v>209</v>
+      </c>
+      <c r="C91" s="32">
         <v>215</v>
       </c>
       <c r="D91" s="10">
@@ -12927,15 +13866,19 @@
       <c r="CI91" s="1"/>
       <c r="CJ91" s="1"/>
       <c r="CK91" s="1"/>
-      <c r="CL91" s="1"/>
-      <c r="CM91" s="1"/>
+      <c r="CL91" s="37">
+        <v>-1000000</v>
+      </c>
+      <c r="CM91" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN91" s="1"/>
     </row>
-    <row r="92" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="1">
+        <v>210</v>
+      </c>
+      <c r="C92" s="32">
         <v>215</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -13053,15 +13996,19 @@
       <c r="CI92" s="1"/>
       <c r="CJ92" s="1"/>
       <c r="CK92" s="1"/>
-      <c r="CL92" s="1"/>
-      <c r="CM92" s="1"/>
+      <c r="CL92" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM92" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN92" s="1"/>
     </row>
-    <row r="93" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" s="1">
+        <v>211</v>
+      </c>
+      <c r="C93" s="32">
         <v>215</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -13183,15 +14130,19 @@
       <c r="CI93" s="1"/>
       <c r="CJ93" s="1"/>
       <c r="CK93" s="1"/>
-      <c r="CL93" s="1"/>
-      <c r="CM93" s="1"/>
+      <c r="CL93" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM93" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN93" s="1"/>
     </row>
-    <row r="94" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="1">
+        <v>212</v>
+      </c>
+      <c r="C94" s="32">
         <v>215</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -13313,22 +14264,26 @@
       <c r="CI94" s="1"/>
       <c r="CJ94" s="1"/>
       <c r="CK94" s="1"/>
-      <c r="CL94" s="1"/>
-      <c r="CM94" s="1"/>
+      <c r="CL94" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM94" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN94" s="1"/>
     </row>
-    <row r="95" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="1">
+        <v>213</v>
+      </c>
+      <c r="C95" s="32">
         <v>215</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="35">
         <f>BV95</f>
         <v>999999</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="36" t="s">
         <v>97</v>
       </c>
       <c r="F95" s="1"/>
@@ -13449,15 +14404,17 @@
       <c r="CI95" s="1"/>
       <c r="CJ95" s="1"/>
       <c r="CK95" s="1"/>
-      <c r="CL95" s="1"/>
-      <c r="CM95" s="1"/>
+      <c r="CL95" s="35">
+        <v>0</v>
+      </c>
+      <c r="CM95" s="35"/>
       <c r="CN95" s="1"/>
     </row>
-    <row r="96" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C96" s="1">
+        <v>214</v>
+      </c>
+      <c r="C96" s="32">
         <v>215</v>
       </c>
       <c r="D96" s="1">
@@ -13583,15 +14540,17 @@
       <c r="CI96" s="1"/>
       <c r="CJ96" s="1"/>
       <c r="CK96" s="1"/>
-      <c r="CL96" s="1"/>
+      <c r="CL96" s="1">
+        <v>0</v>
+      </c>
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
     </row>
-    <row r="97" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" s="1">
+        <v>215</v>
+      </c>
+      <c r="C97" s="32">
         <v>215</v>
       </c>
       <c r="D97" s="1">
@@ -13717,15 +14676,17 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="1"/>
+      <c r="CL97" s="1">
+        <v>0.47760000000000002</v>
+      </c>
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
     </row>
-    <row r="98" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="1">
+        <v>216</v>
+      </c>
+      <c r="C98" s="32">
         <v>215</v>
       </c>
       <c r="D98" s="1">
@@ -13851,22 +14812,24 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="1"/>
+      <c r="CL98" s="1">
+        <v>0.2041</v>
+      </c>
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
     </row>
-    <row r="99" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="1">
+        <v>217</v>
+      </c>
+      <c r="C99" s="32">
         <v>216</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <f>BT99/BU99</f>
         <v>0</v>
       </c>
-      <c r="E99" s="1"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -13978,22 +14941,24 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="1"/>
-      <c r="CM99" s="1"/>
+      <c r="CL99" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM99" s="2"/>
       <c r="CN99" s="1"/>
     </row>
-    <row r="100" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="1">
+        <v>218</v>
+      </c>
+      <c r="C100" s="32">
         <v>216</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <f t="shared" ref="D100:D101" si="38">BT100/BU100</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -14105,22 +15070,24 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
+      <c r="CL100" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="CM100" s="2"/>
       <c r="CN100" s="1"/>
     </row>
-    <row r="101" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" s="1">
+        <v>219</v>
+      </c>
+      <c r="C101" s="32">
         <v>216</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <f t="shared" si="38"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="E101" s="1"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -14230,15 +15197,17 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="1"/>
-      <c r="CM101" s="1"/>
+      <c r="CL101" s="2">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="CM101" s="2"/>
       <c r="CN101" s="1"/>
     </row>
-    <row r="102" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C102" s="1">
+        <v>220</v>
+      </c>
+      <c r="C102" s="32">
         <v>216</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -14353,15 +15322,19 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="1"/>
-      <c r="CM102" s="1"/>
+      <c r="CL102" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM102" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN102" s="1"/>
     </row>
-    <row r="103" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="1">
+        <v>221</v>
+      </c>
+      <c r="C103" s="32">
         <v>216</v>
       </c>
       <c r="D103" s="2">
@@ -14481,15 +15454,19 @@
       <c r="CI103" s="1"/>
       <c r="CJ103" s="1"/>
       <c r="CK103" s="1"/>
-      <c r="CL103" s="1"/>
-      <c r="CM103" s="1"/>
+      <c r="CL103" s="37">
+        <v>-1000000</v>
+      </c>
+      <c r="CM103" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN103" s="1"/>
     </row>
-    <row r="104" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104" s="1">
+        <v>222</v>
+      </c>
+      <c r="C104" s="32">
         <v>216</v>
       </c>
       <c r="D104" s="21">
@@ -14609,15 +15586,19 @@
       <c r="CI104" s="1"/>
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
-      <c r="CL104" s="1"/>
-      <c r="CM104" s="1"/>
+      <c r="CL104" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM104" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="CN104" s="1"/>
     </row>
-    <row r="105" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C105" s="1">
+        <v>223</v>
+      </c>
+      <c r="C105" s="32">
         <v>216</v>
       </c>
       <c r="D105" s="20" t="s">
@@ -14732,15 +15713,19 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="1"/>
-      <c r="CM105" s="1"/>
+      <c r="CL105" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM105" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN105" s="1"/>
     </row>
-    <row r="106" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="1">
+        <v>224</v>
+      </c>
+      <c r="C106" s="32">
         <v>216</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -14856,15 +15841,19 @@
       <c r="CI106" s="1"/>
       <c r="CJ106" s="1"/>
       <c r="CK106" s="1"/>
-      <c r="CL106" s="1"/>
-      <c r="CM106" s="1"/>
+      <c r="CL106" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM106" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN106" s="1"/>
     </row>
-    <row r="107" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" s="1">
+        <v>225</v>
+      </c>
+      <c r="C107" s="32">
         <v>216</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -14984,15 +15973,19 @@
       <c r="CI107" s="1"/>
       <c r="CJ107" s="1"/>
       <c r="CK107" s="1"/>
-      <c r="CL107" s="1"/>
-      <c r="CM107" s="1"/>
+      <c r="CL107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM107" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN107" s="1"/>
     </row>
-    <row r="108" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="1">
+        <v>226</v>
+      </c>
+      <c r="C108" s="32">
         <v>216</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -15112,18 +16105,22 @@
       <c r="CI108" s="1"/>
       <c r="CJ108" s="1"/>
       <c r="CK108" s="1"/>
-      <c r="CL108" s="1"/>
-      <c r="CM108" s="1"/>
+      <c r="CL108" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM108" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN108" s="1"/>
     </row>
-    <row r="109" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="32">
         <v>217</v>
       </c>
-      <c r="C109" s="1">
-        <v>217</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <f>BT109/BU109</f>
         <v>0</v>
       </c>
@@ -15239,18 +16236,20 @@
       <c r="CI109" s="1"/>
       <c r="CJ109" s="1"/>
       <c r="CK109" s="1"/>
-      <c r="CL109" s="1"/>
-      <c r="CM109" s="1"/>
+      <c r="CL109" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM109" s="2"/>
       <c r="CN109" s="1"/>
     </row>
-    <row r="110" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C110" s="1">
+        <v>228</v>
+      </c>
+      <c r="C110" s="32">
         <v>217</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <f t="shared" ref="D110:D111" si="45">BT110/BU110</f>
         <v>0.39999999999999997</v>
       </c>
@@ -15366,18 +16365,20 @@
       <c r="CI110" s="1"/>
       <c r="CJ110" s="1"/>
       <c r="CK110" s="1"/>
-      <c r="CL110" s="1"/>
-      <c r="CM110" s="1"/>
+      <c r="CL110" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="CM110" s="2"/>
       <c r="CN110" s="1"/>
     </row>
-    <row r="111" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" s="1">
+        <v>229</v>
+      </c>
+      <c r="C111" s="32">
         <v>217</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <f t="shared" si="45"/>
         <v>0.4</v>
       </c>
@@ -15491,15 +16492,17 @@
       <c r="CI111" s="1"/>
       <c r="CJ111" s="1"/>
       <c r="CK111" s="1"/>
-      <c r="CL111" s="1"/>
-      <c r="CM111" s="1"/>
+      <c r="CL111" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="CM111" s="2"/>
       <c r="CN111" s="1"/>
     </row>
-    <row r="112" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C112" s="1">
+        <v>230</v>
+      </c>
+      <c r="C112" s="32">
         <v>217</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -15614,15 +16617,19 @@
       <c r="CI112" s="1"/>
       <c r="CJ112" s="1"/>
       <c r="CK112" s="1"/>
-      <c r="CL112" s="1"/>
-      <c r="CM112" s="1"/>
+      <c r="CL112" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM112" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN112" s="1"/>
     </row>
-    <row r="113" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" s="1">
+        <v>231</v>
+      </c>
+      <c r="C113" s="32">
         <v>217</v>
       </c>
       <c r="D113" s="1">
@@ -15742,15 +16749,19 @@
       <c r="CI113" s="1"/>
       <c r="CJ113" s="1"/>
       <c r="CK113" s="1"/>
-      <c r="CL113" s="1"/>
-      <c r="CM113" s="1"/>
+      <c r="CL113" s="37">
+        <v>-1000000</v>
+      </c>
+      <c r="CM113" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN113" s="1"/>
     </row>
-    <row r="114" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C114" s="1">
+        <v>232</v>
+      </c>
+      <c r="C114" s="32">
         <v>217</v>
       </c>
       <c r="D114" s="21">
@@ -15870,15 +16881,19 @@
       <c r="CI114" s="1"/>
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
-      <c r="CL114" s="1"/>
-      <c r="CM114" s="1"/>
+      <c r="CL114" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM114" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="CN114" s="1"/>
     </row>
-    <row r="115" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C115" s="1">
+        <v>233</v>
+      </c>
+      <c r="C115" s="32">
         <v>217</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -15993,15 +17008,19 @@
       <c r="CI115" s="1"/>
       <c r="CJ115" s="1"/>
       <c r="CK115" s="1"/>
-      <c r="CL115" s="1"/>
-      <c r="CM115" s="1"/>
+      <c r="CL115" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM115" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN115" s="1"/>
     </row>
-    <row r="116" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C116" s="1">
+        <v>234</v>
+      </c>
+      <c r="C116" s="32">
         <v>217</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -16117,15 +17136,19 @@
       <c r="CI116" s="1"/>
       <c r="CJ116" s="1"/>
       <c r="CK116" s="1"/>
-      <c r="CL116" s="1"/>
-      <c r="CM116" s="1"/>
+      <c r="CL116" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM116" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN116" s="1"/>
     </row>
-    <row r="117" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C117" s="1">
+        <v>235</v>
+      </c>
+      <c r="C117" s="32">
         <v>217</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -16245,15 +17268,19 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
+      <c r="CL117" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM117" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN117" s="1"/>
     </row>
-    <row r="118" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C118" s="1">
+        <v>236</v>
+      </c>
+      <c r="C118" s="32">
         <v>217</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -16373,15 +17400,19 @@
       <c r="CI118" s="1"/>
       <c r="CJ118" s="1"/>
       <c r="CK118" s="1"/>
-      <c r="CL118" s="1"/>
-      <c r="CM118" s="1"/>
+      <c r="CL118" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM118" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN118" s="1"/>
     </row>
-    <row r="119" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C119" s="1">
+        <v>237</v>
+      </c>
+      <c r="C119" s="32">
         <v>218</v>
       </c>
       <c r="D119" s="1">
@@ -16491,15 +17522,17 @@
       <c r="CI119" s="1"/>
       <c r="CJ119" s="1"/>
       <c r="CK119" s="1"/>
-      <c r="CL119" s="1"/>
+      <c r="CL119" s="1">
+        <v>0.64580000000000004</v>
+      </c>
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
     </row>
-    <row r="120" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C120" s="1">
+        <v>238</v>
+      </c>
+      <c r="C120" s="32">
         <v>218</v>
       </c>
       <c r="D120" s="1">
@@ -16609,15 +17642,17 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="1"/>
+      <c r="CL120" s="1">
+        <v>0.92310000000000003</v>
+      </c>
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
     </row>
-    <row r="121" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C121" s="1">
+        <v>239</v>
+      </c>
+      <c r="C121" s="32">
         <v>218</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -16726,15 +17761,19 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="1"/>
-      <c r="CM121" s="1"/>
+      <c r="CL121" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM121" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN121" s="1"/>
     </row>
-    <row r="122" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C122" s="1">
+        <v>240</v>
+      </c>
+      <c r="C122" s="32">
         <v>218</v>
       </c>
       <c r="D122" s="1">
@@ -16845,15 +17884,19 @@
       <c r="CI122" s="1"/>
       <c r="CJ122" s="1"/>
       <c r="CK122" s="1"/>
-      <c r="CL122" s="1"/>
-      <c r="CM122" s="1"/>
+      <c r="CL122" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM122" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN122" s="1"/>
     </row>
-    <row r="123" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C123" s="1">
+        <v>241</v>
+      </c>
+      <c r="C123" s="32">
         <v>218</v>
       </c>
       <c r="D123" s="21">
@@ -16964,15 +18007,19 @@
       <c r="CI123" s="1"/>
       <c r="CJ123" s="1"/>
       <c r="CK123" s="1"/>
-      <c r="CL123" s="1"/>
-      <c r="CM123" s="1"/>
+      <c r="CL123" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="CM123" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="CN123" s="1"/>
     </row>
-    <row r="124" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C124" s="1">
+        <v>242</v>
+      </c>
+      <c r="C124" s="32">
         <v>218</v>
       </c>
       <c r="D124" s="21" t="s">
@@ -17082,15 +18129,19 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="1"/>
-      <c r="CM124" s="1"/>
+      <c r="CL124" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM124" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="CN124" s="1"/>
     </row>
-    <row r="125" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" s="1">
+        <v>243</v>
+      </c>
+      <c r="C125" s="32">
         <v>218</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -17200,15 +18251,19 @@
       <c r="CI125" s="1"/>
       <c r="CJ125" s="1"/>
       <c r="CK125" s="1"/>
-      <c r="CL125" s="1"/>
-      <c r="CM125" s="1"/>
+      <c r="CL125" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM125" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN125" s="1"/>
     </row>
-    <row r="126" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C126" s="1">
+        <v>244</v>
+      </c>
+      <c r="C126" s="32">
         <v>218</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -17319,22 +18374,26 @@
       <c r="CI126" s="1"/>
       <c r="CJ126" s="1"/>
       <c r="CK126" s="1"/>
-      <c r="CL126" s="1"/>
-      <c r="CM126" s="1"/>
+      <c r="CL126" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM126" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN126" s="1"/>
     </row>
-    <row r="127" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C127" s="1">
+        <v>245</v>
+      </c>
+      <c r="C127" s="32">
         <v>218</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -17438,15 +18497,19 @@
       <c r="CI127" s="1"/>
       <c r="CJ127" s="1"/>
       <c r="CK127" s="1"/>
-      <c r="CL127" s="1"/>
-      <c r="CM127" s="1"/>
+      <c r="CL127" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM127" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN127" s="1"/>
     </row>
-    <row r="128" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C128" s="1">
+        <v>246</v>
+      </c>
+      <c r="C128" s="32">
         <v>218</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -17557,15 +18620,19 @@
       <c r="CI128" s="1"/>
       <c r="CJ128" s="1"/>
       <c r="CK128" s="1"/>
-      <c r="CL128" s="1"/>
-      <c r="CM128" s="1"/>
+      <c r="CL128" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM128" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN128" s="1"/>
     </row>
-    <row r="129" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C129" s="1">
+        <v>247</v>
+      </c>
+      <c r="C129" s="32">
         <v>218</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -17676,22 +18743,26 @@
       <c r="CI129" s="1"/>
       <c r="CJ129" s="1"/>
       <c r="CK129" s="1"/>
-      <c r="CL129" s="1"/>
-      <c r="CM129" s="1"/>
+      <c r="CL129" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM129" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN129" s="1"/>
     </row>
-    <row r="130" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C130" s="1">
+        <v>248</v>
+      </c>
+      <c r="C130" s="32">
         <v>218</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -17795,15 +18866,19 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="1"/>
-      <c r="CM130" s="1"/>
+      <c r="CL130" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM130" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN130" s="1"/>
     </row>
-    <row r="131" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="1">
+        <v>249</v>
+      </c>
+      <c r="C131" s="32">
         <v>218</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -17914,15 +18989,19 @@
       <c r="CI131" s="1"/>
       <c r="CJ131" s="1"/>
       <c r="CK131" s="1"/>
-      <c r="CL131" s="1"/>
-      <c r="CM131" s="1"/>
+      <c r="CL131" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM131" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN131" s="1"/>
     </row>
-    <row r="132" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C132" s="9">
+        <v>250</v>
+      </c>
+      <c r="C132" s="33">
         <v>219</v>
       </c>
       <c r="D132" s="1">
@@ -18032,15 +19111,17 @@
       <c r="CI132" s="1"/>
       <c r="CJ132" s="1"/>
       <c r="CK132" s="1"/>
-      <c r="CL132" s="1"/>
+      <c r="CL132" s="1">
+        <v>0.82140000000000002</v>
+      </c>
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
     </row>
-    <row r="133" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C133" s="9">
+        <v>251</v>
+      </c>
+      <c r="C133" s="33">
         <v>219</v>
       </c>
       <c r="D133" s="1">
@@ -18150,15 +19231,17 @@
       <c r="CI133" s="1"/>
       <c r="CJ133" s="1"/>
       <c r="CK133" s="1"/>
-      <c r="CL133" s="1"/>
+      <c r="CL133" s="1">
+        <v>0.8</v>
+      </c>
       <c r="CM133" s="1"/>
       <c r="CN133" s="1"/>
     </row>
-    <row r="134" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C134" s="9">
+        <v>252</v>
+      </c>
+      <c r="C134" s="33">
         <v>219</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -18267,15 +19350,19 @@
       <c r="CI134" s="1"/>
       <c r="CJ134" s="1"/>
       <c r="CK134" s="1"/>
-      <c r="CL134" s="1"/>
-      <c r="CM134" s="1"/>
+      <c r="CL134" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM134" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN134" s="1"/>
     </row>
-    <row r="135" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C135" s="9">
+        <v>253</v>
+      </c>
+      <c r="C135" s="33">
         <v>219</v>
       </c>
       <c r="D135" s="1">
@@ -18386,15 +19473,19 @@
       <c r="CI135" s="1"/>
       <c r="CJ135" s="1"/>
       <c r="CK135" s="1"/>
-      <c r="CL135" s="1"/>
-      <c r="CM135" s="1"/>
+      <c r="CL135" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM135" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN135" s="1"/>
     </row>
-    <row r="136" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C136" s="9">
+        <v>254</v>
+      </c>
+      <c r="C136" s="33">
         <v>219</v>
       </c>
       <c r="D136" s="21">
@@ -18505,15 +19596,19 @@
       <c r="CI136" s="1"/>
       <c r="CJ136" s="1"/>
       <c r="CK136" s="1"/>
-      <c r="CL136" s="1"/>
-      <c r="CM136" s="1"/>
+      <c r="CL136" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="CM136" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="CN136" s="1"/>
     </row>
-    <row r="137" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C137" s="9">
+        <v>255</v>
+      </c>
+      <c r="C137" s="33">
         <v>219</v>
       </c>
       <c r="D137" s="26" t="s">
@@ -18623,15 +19718,19 @@
       <c r="CI137" s="1"/>
       <c r="CJ137" s="1"/>
       <c r="CK137" s="1"/>
-      <c r="CL137" s="1"/>
-      <c r="CM137" s="1"/>
+      <c r="CL137" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM137" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="CN137" s="1"/>
     </row>
-    <row r="138" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="9">
+        <v>256</v>
+      </c>
+      <c r="C138" s="33">
         <v>219</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -18741,15 +19840,19 @@
       <c r="CI138" s="1"/>
       <c r="CJ138" s="1"/>
       <c r="CK138" s="1"/>
-      <c r="CL138" s="1"/>
-      <c r="CM138" s="1"/>
+      <c r="CL138" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM138" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN138" s="1"/>
     </row>
-    <row r="139" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C139" s="9">
+        <v>257</v>
+      </c>
+      <c r="C139" s="33">
         <v>219</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -18860,15 +19963,19 @@
       <c r="CI139" s="1"/>
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
-      <c r="CL139" s="1"/>
-      <c r="CM139" s="1"/>
+      <c r="CL139" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM139" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN139" s="1"/>
     </row>
-    <row r="140" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="9">
+        <v>258</v>
+      </c>
+      <c r="C140" s="33">
         <v>219</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -18979,22 +20086,26 @@
       <c r="CI140" s="1"/>
       <c r="CJ140" s="1"/>
       <c r="CK140" s="1"/>
-      <c r="CL140" s="1"/>
-      <c r="CM140" s="1"/>
+      <c r="CL140" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM140" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN140" s="1"/>
     </row>
-    <row r="141" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C141" s="9">
+        <v>259</v>
+      </c>
+      <c r="C141" s="33">
         <v>219</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -19098,15 +20209,19 @@
       <c r="CI141" s="1"/>
       <c r="CJ141" s="1"/>
       <c r="CK141" s="1"/>
-      <c r="CL141" s="1"/>
-      <c r="CM141" s="1"/>
+      <c r="CL141" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM141" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN141" s="1"/>
     </row>
-    <row r="142" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" s="9">
+        <v>260</v>
+      </c>
+      <c r="C142" s="33">
         <v>219</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -19217,15 +20332,19 @@
       <c r="CI142" s="1"/>
       <c r="CJ142" s="1"/>
       <c r="CK142" s="1"/>
-      <c r="CL142" s="1"/>
-      <c r="CM142" s="1"/>
+      <c r="CL142" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM142" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN142" s="1"/>
     </row>
-    <row r="143" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C143" s="9">
+        <v>261</v>
+      </c>
+      <c r="C143" s="33">
         <v>219</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -19336,22 +20455,26 @@
       <c r="CI143" s="1"/>
       <c r="CJ143" s="1"/>
       <c r="CK143" s="1"/>
-      <c r="CL143" s="1"/>
-      <c r="CM143" s="1"/>
+      <c r="CL143" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM143" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN143" s="1"/>
     </row>
-    <row r="144" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C144" s="9">
+        <v>262</v>
+      </c>
+      <c r="C144" s="33">
         <v>219</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -19455,15 +20578,19 @@
       <c r="CI144" s="1"/>
       <c r="CJ144" s="1"/>
       <c r="CK144" s="1"/>
-      <c r="CL144" s="1"/>
-      <c r="CM144" s="1"/>
+      <c r="CL144" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM144" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN144" s="1"/>
     </row>
-    <row r="145" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C145" s="9">
+        <v>263</v>
+      </c>
+      <c r="C145" s="33">
         <v>220</v>
       </c>
       <c r="D145" s="1">
@@ -19573,15 +20700,17 @@
       <c r="CI145" s="1"/>
       <c r="CJ145" s="1"/>
       <c r="CK145" s="1"/>
-      <c r="CL145" s="1"/>
+      <c r="CL145" s="1">
+        <v>1.2142999999999999</v>
+      </c>
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
     </row>
-    <row r="146" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C146" s="9">
+        <v>264</v>
+      </c>
+      <c r="C146" s="33">
         <v>220</v>
       </c>
       <c r="D146" s="1">
@@ -19691,15 +20820,17 @@
       <c r="CI146" s="1"/>
       <c r="CJ146" s="1"/>
       <c r="CK146" s="1"/>
-      <c r="CL146" s="1"/>
+      <c r="CL146" s="1">
+        <v>0.625</v>
+      </c>
       <c r="CM146" s="1"/>
       <c r="CN146" s="1"/>
     </row>
-    <row r="147" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C147" s="9">
+        <v>265</v>
+      </c>
+      <c r="C147" s="33">
         <v>220</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -19808,15 +20939,19 @@
       <c r="CI147" s="1"/>
       <c r="CJ147" s="1"/>
       <c r="CK147" s="1"/>
-      <c r="CL147" s="1"/>
-      <c r="CM147" s="1"/>
+      <c r="CL147" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM147" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN147" s="1"/>
     </row>
-    <row r="148" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C148" s="9">
+        <v>266</v>
+      </c>
+      <c r="C148" s="33">
         <v>220</v>
       </c>
       <c r="D148" s="1">
@@ -19927,15 +21062,19 @@
       <c r="CI148" s="1"/>
       <c r="CJ148" s="1"/>
       <c r="CK148" s="1"/>
-      <c r="CL148" s="1"/>
-      <c r="CM148" s="1"/>
+      <c r="CL148" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM148" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN148" s="1"/>
     </row>
-    <row r="149" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C149" s="9">
+        <v>267</v>
+      </c>
+      <c r="C149" s="33">
         <v>220</v>
       </c>
       <c r="D149" s="21">
@@ -20046,15 +21185,19 @@
       <c r="CI149" s="1"/>
       <c r="CJ149" s="1"/>
       <c r="CK149" s="1"/>
-      <c r="CL149" s="1"/>
-      <c r="CM149" s="1"/>
+      <c r="CL149" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="CM149" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="CN149" s="1"/>
     </row>
-    <row r="150" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C150" s="9">
+        <v>268</v>
+      </c>
+      <c r="C150" s="33">
         <v>220</v>
       </c>
       <c r="D150" s="26" t="s">
@@ -20164,15 +21307,19 @@
       <c r="CI150" s="1"/>
       <c r="CJ150" s="1"/>
       <c r="CK150" s="1"/>
-      <c r="CL150" s="1"/>
-      <c r="CM150" s="1"/>
+      <c r="CL150" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM150" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="CN150" s="1"/>
     </row>
-    <row r="151" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C151" s="9">
+        <v>269</v>
+      </c>
+      <c r="C151" s="33">
         <v>220</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -20282,15 +21429,19 @@
       <c r="CI151" s="1"/>
       <c r="CJ151" s="1"/>
       <c r="CK151" s="1"/>
-      <c r="CL151" s="1"/>
-      <c r="CM151" s="1"/>
+      <c r="CL151" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM151" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN151" s="1"/>
     </row>
-    <row r="152" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C152" s="9">
+        <v>270</v>
+      </c>
+      <c r="C152" s="33">
         <v>220</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -20401,15 +21552,19 @@
       <c r="CI152" s="1"/>
       <c r="CJ152" s="1"/>
       <c r="CK152" s="1"/>
-      <c r="CL152" s="1"/>
-      <c r="CM152" s="1"/>
+      <c r="CL152" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM152" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN152" s="1"/>
     </row>
-    <row r="153" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C153" s="9">
+        <v>271</v>
+      </c>
+      <c r="C153" s="33">
         <v>220</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -20520,22 +21675,26 @@
       <c r="CI153" s="1"/>
       <c r="CJ153" s="1"/>
       <c r="CK153" s="1"/>
-      <c r="CL153" s="1"/>
-      <c r="CM153" s="1"/>
+      <c r="CL153" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM153" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN153" s="1"/>
     </row>
-    <row r="154" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C154" s="9">
+        <v>272</v>
+      </c>
+      <c r="C154" s="33">
         <v>220</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -20639,15 +21798,19 @@
       <c r="CI154" s="1"/>
       <c r="CJ154" s="1"/>
       <c r="CK154" s="1"/>
-      <c r="CL154" s="1"/>
-      <c r="CM154" s="1"/>
+      <c r="CL154" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM154" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN154" s="1"/>
     </row>
-    <row r="155" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C155" s="9">
+        <v>273</v>
+      </c>
+      <c r="C155" s="33">
         <v>220</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -20758,15 +21921,19 @@
       <c r="CI155" s="1"/>
       <c r="CJ155" s="1"/>
       <c r="CK155" s="1"/>
-      <c r="CL155" s="1"/>
-      <c r="CM155" s="1"/>
+      <c r="CL155" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM155" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN155" s="1"/>
     </row>
-    <row r="156" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C156" s="9">
+        <v>274</v>
+      </c>
+      <c r="C156" s="33">
         <v>220</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -20877,22 +22044,26 @@
       <c r="CI156" s="1"/>
       <c r="CJ156" s="1"/>
       <c r="CK156" s="1"/>
-      <c r="CL156" s="1"/>
-      <c r="CM156" s="1"/>
+      <c r="CL156" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM156" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN156" s="1"/>
     </row>
-    <row r="157" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C157" s="9">
+        <v>275</v>
+      </c>
+      <c r="C157" s="33">
         <v>220</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -20996,15 +22167,19 @@
       <c r="CI157" s="1"/>
       <c r="CJ157" s="1"/>
       <c r="CK157" s="1"/>
-      <c r="CL157" s="1"/>
-      <c r="CM157" s="1"/>
+      <c r="CL157" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM157" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN157" s="1"/>
     </row>
-    <row r="158" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C158" s="1">
+        <v>276</v>
+      </c>
+      <c r="C158" s="32">
         <v>221</v>
       </c>
       <c r="D158" s="1">
@@ -21114,15 +22289,17 @@
       <c r="CI158" s="1"/>
       <c r="CJ158" s="1"/>
       <c r="CK158" s="1"/>
-      <c r="CL158" s="1"/>
+      <c r="CL158" s="1">
+        <v>0.94289999999999996</v>
+      </c>
       <c r="CM158" s="1"/>
       <c r="CN158" s="1"/>
     </row>
-    <row r="159" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C159" s="1">
+        <v>277</v>
+      </c>
+      <c r="C159" s="32">
         <v>221</v>
       </c>
       <c r="D159" s="1">
@@ -21232,15 +22409,17 @@
       <c r="CI159" s="1"/>
       <c r="CJ159" s="1"/>
       <c r="CK159" s="1"/>
-      <c r="CL159" s="1"/>
+      <c r="CL159" s="1">
+        <v>0.6</v>
+      </c>
       <c r="CM159" s="1"/>
       <c r="CN159" s="1"/>
     </row>
-    <row r="160" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C160" s="1">
+        <v>278</v>
+      </c>
+      <c r="C160" s="32">
         <v>221</v>
       </c>
       <c r="D160" s="1">
@@ -21350,15 +22529,17 @@
       <c r="CI160" s="1"/>
       <c r="CJ160" s="1"/>
       <c r="CK160" s="1"/>
-      <c r="CL160" s="1"/>
+      <c r="CL160" s="1">
+        <v>1.3635999999999999</v>
+      </c>
       <c r="CM160" s="1"/>
       <c r="CN160" s="1"/>
     </row>
-    <row r="161" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C161" s="1">
+        <v>279</v>
+      </c>
+      <c r="C161" s="32">
         <v>221</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -21467,15 +22648,19 @@
       <c r="CI161" s="1"/>
       <c r="CJ161" s="1"/>
       <c r="CK161" s="1"/>
-      <c r="CL161" s="1"/>
-      <c r="CM161" s="1"/>
+      <c r="CL161" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM161" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN161" s="1"/>
     </row>
-    <row r="162" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C162" s="1">
+        <v>280</v>
+      </c>
+      <c r="C162" s="32">
         <v>221</v>
       </c>
       <c r="D162" s="1">
@@ -21586,15 +22771,19 @@
       <c r="CI162" s="1"/>
       <c r="CJ162" s="1"/>
       <c r="CK162" s="1"/>
-      <c r="CL162" s="1"/>
-      <c r="CM162" s="1"/>
+      <c r="CL162" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM162" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="CN162" s="1"/>
     </row>
-    <row r="163" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C163" s="1">
+        <v>281</v>
+      </c>
+      <c r="C163" s="32">
         <v>221</v>
       </c>
       <c r="D163" s="21">
@@ -21705,15 +22894,19 @@
       <c r="CI163" s="1"/>
       <c r="CJ163" s="1"/>
       <c r="CK163" s="1"/>
-      <c r="CL163" s="1"/>
-      <c r="CM163" s="1"/>
+      <c r="CL163" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="CM163" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="CN163" s="1"/>
     </row>
-    <row r="164" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C164" s="1">
+        <v>282</v>
+      </c>
+      <c r="C164" s="32">
         <v>221</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -21823,15 +23016,19 @@
       <c r="CI164" s="1"/>
       <c r="CJ164" s="1"/>
       <c r="CK164" s="1"/>
-      <c r="CL164" s="1"/>
-      <c r="CM164" s="1"/>
+      <c r="CL164" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM164" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="CN164" s="1"/>
     </row>
-    <row r="165" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C165" s="1">
+        <v>283</v>
+      </c>
+      <c r="C165" s="32">
         <v>221</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -21941,22 +23138,26 @@
       <c r="CI165" s="1"/>
       <c r="CJ165" s="1"/>
       <c r="CK165" s="1"/>
-      <c r="CL165" s="1"/>
-      <c r="CM165" s="1"/>
+      <c r="CL165" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM165" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="CN165" s="1"/>
     </row>
-    <row r="166" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C166" s="1">
+        <v>284</v>
+      </c>
+      <c r="C166" s="32">
         <v>221</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -22060,15 +23261,19 @@
       <c r="CI166" s="1"/>
       <c r="CJ166" s="1"/>
       <c r="CK166" s="1"/>
-      <c r="CL166" s="1"/>
-      <c r="CM166" s="1"/>
+      <c r="CL166" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM166" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN166" s="1"/>
     </row>
-    <row r="167" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C167" s="1">
+        <v>285</v>
+      </c>
+      <c r="C167" s="32">
         <v>221</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -22179,15 +23384,19 @@
       <c r="CI167" s="1"/>
       <c r="CJ167" s="1"/>
       <c r="CK167" s="1"/>
-      <c r="CL167" s="1"/>
-      <c r="CM167" s="1"/>
+      <c r="CL167" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM167" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN167" s="1"/>
     </row>
-    <row r="168" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C168" s="1">
+        <v>286</v>
+      </c>
+      <c r="C168" s="32">
         <v>221</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -22298,22 +23507,26 @@
       <c r="CI168" s="1"/>
       <c r="CJ168" s="1"/>
       <c r="CK168" s="1"/>
-      <c r="CL168" s="1"/>
-      <c r="CM168" s="1"/>
+      <c r="CL168" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM168" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="CN168" s="1"/>
     </row>
-    <row r="169" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C169" s="1">
+        <v>287</v>
+      </c>
+      <c r="C169" s="32">
         <v>221</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -22417,15 +23630,19 @@
       <c r="CI169" s="1"/>
       <c r="CJ169" s="1"/>
       <c r="CK169" s="1"/>
-      <c r="CL169" s="1"/>
-      <c r="CM169" s="1"/>
+      <c r="CL169" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM169" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="CN169" s="1"/>
     </row>
-    <row r="170" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C170" s="1">
+        <v>288</v>
+      </c>
+      <c r="C170" s="32">
         <v>221</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -22536,21 +23753,25 @@
       <c r="CI170" s="1"/>
       <c r="CJ170" s="1"/>
       <c r="CK170" s="1"/>
-      <c r="CL170" s="1"/>
-      <c r="CM170" s="1"/>
+      <c r="CL170" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM170" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="CN170" s="1"/>
     </row>
-    <row r="171" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C171" s="1">
+        <v>289</v>
+      </c>
+      <c r="C171" s="32">
         <v>221</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E171" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F171" s="1"/>
@@ -22655,15 +23876,17 @@
       <c r="CI171" s="1"/>
       <c r="CJ171" s="1"/>
       <c r="CK171" s="1"/>
-      <c r="CL171" s="1"/>
-      <c r="CM171" s="1"/>
+      <c r="CL171" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CM171" s="35"/>
       <c r="CN171" s="1"/>
     </row>
-    <row r="172" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C172" s="9">
+        <v>290</v>
+      </c>
+      <c r="C172" s="33">
         <v>222</v>
       </c>
       <c r="D172" s="9">
@@ -22773,15 +23996,17 @@
       <c r="CI172" s="1"/>
       <c r="CJ172" s="1"/>
       <c r="CK172" s="1"/>
-      <c r="CL172" s="1"/>
+      <c r="CL172" s="1">
+        <v>1.0529999999999999</v>
+      </c>
       <c r="CM172" s="1"/>
       <c r="CN172" s="1"/>
     </row>
-    <row r="173" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C173" s="9">
+        <v>291</v>
+      </c>
+      <c r="C173" s="33">
         <v>222</v>
       </c>
       <c r="D173" s="9">
@@ -22891,15 +24116,17 @@
       <c r="CI173" s="1"/>
       <c r="CJ173" s="1"/>
       <c r="CK173" s="1"/>
-      <c r="CL173" s="1"/>
+      <c r="CL173" s="1">
+        <v>1</v>
+      </c>
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
     </row>
-    <row r="174" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C174" s="9">
+        <v>292</v>
+      </c>
+      <c r="C174" s="33">
         <v>222</v>
       </c>
       <c r="D174" s="9" t="s">
@@ -23008,21 +24235,25 @@
       <c r="CI174" s="1"/>
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
-      <c r="CL174" s="1"/>
-      <c r="CM174" s="1"/>
+      <c r="CL174" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM174" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN174" s="1"/>
     </row>
-    <row r="175" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C175" s="9">
+        <v>293</v>
+      </c>
+      <c r="C175" s="33">
         <v>222</v>
       </c>
-      <c r="D175" s="10">
+      <c r="D175" s="39">
         <v>0</v>
       </c>
-      <c r="E175" s="31" t="s">
+      <c r="E175" s="40" t="s">
         <v>91</v>
       </c>
       <c r="F175" s="1"/>
@@ -23125,21 +24356,25 @@
       <c r="CI175" s="1"/>
       <c r="CJ175" s="1"/>
       <c r="CK175" s="1"/>
-      <c r="CL175" s="1"/>
-      <c r="CM175" s="1"/>
+      <c r="CL175" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM175" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="CN175" s="1"/>
     </row>
-    <row r="176" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C176" s="9">
+        <v>294</v>
+      </c>
+      <c r="C176" s="33">
         <v>222</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E176" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F176" s="1"/>
@@ -23243,21 +24478,25 @@
       <c r="CI176" s="1"/>
       <c r="CJ176" s="1"/>
       <c r="CK176" s="1"/>
-      <c r="CL176" s="1"/>
-      <c r="CM176" s="1"/>
+      <c r="CL176" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM176" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="CN176" s="1"/>
     </row>
-    <row r="177" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B177" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C177" s="9">
+        <v>295</v>
+      </c>
+      <c r="C177" s="33">
         <v>222</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E177" s="31" t="s">
+      <c r="E177" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F177" s="1"/>
@@ -23361,22 +24600,26 @@
       <c r="CI177" s="1"/>
       <c r="CJ177" s="1"/>
       <c r="CK177" s="1"/>
-      <c r="CL177" s="1"/>
-      <c r="CM177" s="1"/>
+      <c r="CL177" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM177" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="CN177" s="1"/>
     </row>
-    <row r="178" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B178" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C178" s="9">
+        <v>296</v>
+      </c>
+      <c r="C178" s="33">
         <v>222</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E178" s="31" t="s">
-        <v>351</v>
+      <c r="E178" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -23480,15 +24723,19 @@
       <c r="CI178" s="1"/>
       <c r="CJ178" s="1"/>
       <c r="CK178" s="1"/>
-      <c r="CL178" s="1"/>
-      <c r="CM178" s="1"/>
+      <c r="CL178" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="CM178" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="CN178" s="1"/>
     </row>
-    <row r="179" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C179" s="9">
+        <v>297</v>
+      </c>
+      <c r="C179" s="33">
         <v>223</v>
       </c>
       <c r="D179" s="9">
@@ -23598,15 +24845,17 @@
       <c r="CI179" s="1"/>
       <c r="CJ179" s="1"/>
       <c r="CK179" s="1"/>
-      <c r="CL179" s="1"/>
+      <c r="CL179" s="1">
+        <v>1.329</v>
+      </c>
       <c r="CM179" s="1"/>
       <c r="CN179" s="1"/>
     </row>
-    <row r="180" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C180" s="9">
+        <v>298</v>
+      </c>
+      <c r="C180" s="33">
         <v>223</v>
       </c>
       <c r="D180" s="9">
@@ -23716,15 +24965,17 @@
       <c r="CI180" s="1"/>
       <c r="CJ180" s="1"/>
       <c r="CK180" s="1"/>
-      <c r="CL180" s="1"/>
+      <c r="CL180" s="1">
+        <v>1</v>
+      </c>
       <c r="CM180" s="1"/>
       <c r="CN180" s="1"/>
     </row>
-    <row r="181" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B181" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C181" s="9">
+        <v>299</v>
+      </c>
+      <c r="C181" s="33">
         <v>223</v>
       </c>
       <c r="D181" s="9" t="s">
@@ -23833,21 +25084,25 @@
       <c r="CI181" s="1"/>
       <c r="CJ181" s="1"/>
       <c r="CK181" s="1"/>
-      <c r="CL181" s="1"/>
-      <c r="CM181" s="1"/>
+      <c r="CL181" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM181" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN181" s="1"/>
     </row>
-    <row r="182" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B182" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C182" s="9">
+        <v>300</v>
+      </c>
+      <c r="C182" s="33">
         <v>223</v>
       </c>
-      <c r="D182" s="10">
+      <c r="D182" s="39">
         <v>0</v>
       </c>
-      <c r="E182" s="31" t="s">
+      <c r="E182" s="40" t="s">
         <v>91</v>
       </c>
       <c r="F182" s="1"/>
@@ -23950,21 +25205,25 @@
       <c r="CI182" s="1"/>
       <c r="CJ182" s="1"/>
       <c r="CK182" s="1"/>
-      <c r="CL182" s="1"/>
-      <c r="CM182" s="1"/>
+      <c r="CL182" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM182" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="CN182" s="1"/>
     </row>
-    <row r="183" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B183" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C183" s="9">
+        <v>301</v>
+      </c>
+      <c r="C183" s="33">
         <v>223</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E183" s="31" t="s">
+      <c r="E183" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F183" s="1"/>
@@ -24068,21 +25327,25 @@
       <c r="CI183" s="1"/>
       <c r="CJ183" s="1"/>
       <c r="CK183" s="1"/>
-      <c r="CL183" s="1"/>
-      <c r="CM183" s="1"/>
+      <c r="CL183" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM183" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="CN183" s="1"/>
     </row>
-    <row r="184" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C184" s="9">
+        <v>302</v>
+      </c>
+      <c r="C184" s="33">
         <v>223</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E184" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F184" s="1"/>
@@ -24186,22 +25449,26 @@
       <c r="CI184" s="1"/>
       <c r="CJ184" s="1"/>
       <c r="CK184" s="1"/>
-      <c r="CL184" s="1"/>
-      <c r="CM184" s="1"/>
+      <c r="CL184" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM184" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="CN184" s="1"/>
     </row>
-    <row r="185" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C185" s="9">
+        <v>303</v>
+      </c>
+      <c r="C185" s="33">
         <v>223</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E185" s="32" t="s">
-        <v>351</v>
+      <c r="E185" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -24305,15 +25572,19 @@
       <c r="CI185" s="1"/>
       <c r="CJ185" s="1"/>
       <c r="CK185" s="1"/>
-      <c r="CL185" s="1"/>
-      <c r="CM185" s="1"/>
+      <c r="CL185" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="CM185" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="CN185" s="1"/>
     </row>
-    <row r="186" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C186" s="1">
+        <v>304</v>
+      </c>
+      <c r="C186" s="32">
         <v>224</v>
       </c>
       <c r="D186" s="1">
@@ -24423,15 +25694,17 @@
       <c r="CI186" s="1"/>
       <c r="CJ186" s="1"/>
       <c r="CK186" s="1"/>
-      <c r="CL186" s="1"/>
+      <c r="CL186" s="1">
+        <v>1.1109</v>
+      </c>
       <c r="CM186" s="1"/>
       <c r="CN186" s="1"/>
     </row>
-    <row r="187" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B187" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C187" s="1">
+        <v>305</v>
+      </c>
+      <c r="C187" s="32">
         <v>224</v>
       </c>
       <c r="D187" s="1">
@@ -24541,15 +25814,17 @@
       <c r="CI187" s="1"/>
       <c r="CJ187" s="1"/>
       <c r="CK187" s="1"/>
-      <c r="CL187" s="1"/>
+      <c r="CL187" s="1">
+        <v>0.99429999999999996</v>
+      </c>
       <c r="CM187" s="1"/>
       <c r="CN187" s="1"/>
     </row>
-    <row r="188" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C188" s="1">
+        <v>306</v>
+      </c>
+      <c r="C188" s="32">
         <v>224</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -24658,21 +25933,25 @@
       <c r="CI188" s="1"/>
       <c r="CJ188" s="1"/>
       <c r="CK188" s="1"/>
-      <c r="CL188" s="1"/>
-      <c r="CM188" s="1"/>
+      <c r="CL188" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM188" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN188" s="1"/>
     </row>
-    <row r="189" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B189" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C189" s="1">
+        <v>307</v>
+      </c>
+      <c r="C189" s="32">
         <v>224</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="35">
         <v>0</v>
       </c>
-      <c r="E189" s="24" t="s">
+      <c r="E189" s="38" t="s">
         <v>91</v>
       </c>
       <c r="F189" s="1"/>
@@ -24775,21 +26054,25 @@
       <c r="CI189" s="1"/>
       <c r="CJ189" s="1"/>
       <c r="CK189" s="1"/>
-      <c r="CL189" s="1"/>
-      <c r="CM189" s="1"/>
+      <c r="CL189" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM189" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="CN189" s="1"/>
     </row>
-    <row r="190" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B190" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C190" s="9">
+        <v>308</v>
+      </c>
+      <c r="C190" s="33">
         <v>224</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E190" s="31" t="s">
+      <c r="E190" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F190" s="1"/>
@@ -24893,21 +26176,25 @@
       <c r="CI190" s="1"/>
       <c r="CJ190" s="1"/>
       <c r="CK190" s="1"/>
-      <c r="CL190" s="1"/>
-      <c r="CM190" s="1"/>
+      <c r="CL190" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM190" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="CN190" s="1"/>
     </row>
-    <row r="191" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B191" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C191" s="9">
+        <v>309</v>
+      </c>
+      <c r="C191" s="33">
         <v>224</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E191" s="31" t="s">
+      <c r="E191" s="40" t="s">
         <v>99</v>
       </c>
       <c r="F191" s="9"/>
@@ -25011,22 +26298,26 @@
       <c r="CI191" s="1"/>
       <c r="CJ191" s="1"/>
       <c r="CK191" s="1"/>
-      <c r="CL191" s="1"/>
-      <c r="CM191" s="1"/>
+      <c r="CL191" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM191" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="CN191" s="1"/>
     </row>
-    <row r="192" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C192" s="9">
+        <v>310</v>
+      </c>
+      <c r="C192" s="33">
         <v>224</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E192" s="33" t="s">
-        <v>351</v>
+      <c r="E192" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
@@ -25130,18 +26421,22 @@
       <c r="CI192" s="1"/>
       <c r="CJ192" s="1"/>
       <c r="CK192" s="1"/>
-      <c r="CL192" s="1"/>
-      <c r="CM192" s="1"/>
+      <c r="CL192" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="CM192" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="CN192" s="1"/>
     </row>
-    <row r="193" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B193" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C193" s="1">
+        <v>311</v>
+      </c>
+      <c r="C193" s="32">
         <v>225</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="35">
         <f>AVERAGE(BH193,BI193,BJ193)</f>
         <v>1833.3333333333333</v>
       </c>
@@ -25236,15 +26531,17 @@
       <c r="CI193" s="1"/>
       <c r="CJ193" s="1"/>
       <c r="CK193" s="1"/>
-      <c r="CL193" s="1"/>
+      <c r="CL193" s="41">
+        <v>5500</v>
+      </c>
       <c r="CM193" s="1"/>
       <c r="CN193" s="1"/>
     </row>
-    <row r="194" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B194" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C194" s="1">
+        <v>312</v>
+      </c>
+      <c r="C194" s="32">
         <v>225</v>
       </c>
       <c r="D194" s="1">
@@ -25342,18 +26639,20 @@
       <c r="CI194" s="1"/>
       <c r="CJ194" s="1"/>
       <c r="CK194" s="1"/>
-      <c r="CL194" s="1"/>
+      <c r="CL194" s="37">
+        <v>1500</v>
+      </c>
       <c r="CM194" s="1"/>
       <c r="CN194" s="1"/>
     </row>
-    <row r="195" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B195" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C195" s="1">
+        <v>313</v>
+      </c>
+      <c r="C195" s="32">
         <v>225</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="35">
         <f>AVERAGE(BH195,BI195,BJ195)</f>
         <v>1400</v>
       </c>
@@ -25448,15 +26747,17 @@
       <c r="CI195" s="1"/>
       <c r="CJ195" s="1"/>
       <c r="CK195" s="1"/>
-      <c r="CL195" s="1"/>
+      <c r="CL195" s="41">
+        <v>2800</v>
+      </c>
       <c r="CM195" s="1"/>
       <c r="CN195" s="1"/>
     </row>
-    <row r="196" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C196" s="1">
+        <v>314</v>
+      </c>
+      <c r="C196" s="32">
         <v>225</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -25555,18 +26856,22 @@
       <c r="CI196" s="1"/>
       <c r="CJ196" s="1"/>
       <c r="CK196" s="1"/>
-      <c r="CL196" s="1"/>
-      <c r="CM196" s="1"/>
+      <c r="CL196" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM196" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN196" s="1"/>
     </row>
-    <row r="197" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C197" s="1">
+        <v>315</v>
+      </c>
+      <c r="C197" s="32">
         <v>225</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E197" s="24" t="s">
@@ -25662,15 +26967,19 @@
       <c r="CI197" s="1"/>
       <c r="CJ197" s="1"/>
       <c r="CK197" s="1"/>
-      <c r="CL197" s="1"/>
-      <c r="CM197" s="1"/>
+      <c r="CL197" s="41">
+        <v>-1000</v>
+      </c>
+      <c r="CM197" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN197" s="1"/>
     </row>
-    <row r="198" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B198" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C198" s="1">
+        <v>316</v>
+      </c>
+      <c r="C198" s="32">
         <v>226</v>
       </c>
       <c r="D198" s="1">
@@ -25768,15 +27077,17 @@
       <c r="CI198" s="1"/>
       <c r="CJ198" s="1"/>
       <c r="CK198" s="1"/>
-      <c r="CL198" s="1"/>
+      <c r="CL198" s="37">
+        <v>1500</v>
+      </c>
       <c r="CM198" s="1"/>
       <c r="CN198" s="1"/>
     </row>
-    <row r="199" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C199" s="1">
+        <v>317</v>
+      </c>
+      <c r="C199" s="32">
         <v>226</v>
       </c>
       <c r="D199" s="1">
@@ -25874,15 +27185,17 @@
       <c r="CI199" s="1"/>
       <c r="CJ199" s="1"/>
       <c r="CK199" s="1"/>
-      <c r="CL199" s="1"/>
+      <c r="CL199" s="1">
+        <v>800</v>
+      </c>
       <c r="CM199" s="1"/>
       <c r="CN199" s="1"/>
     </row>
-    <row r="200" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C200" s="1">
+        <v>318</v>
+      </c>
+      <c r="C200" s="32">
         <v>226</v>
       </c>
       <c r="D200" s="1">
@@ -25980,15 +27293,17 @@
       <c r="CI200" s="1"/>
       <c r="CJ200" s="1"/>
       <c r="CK200" s="1"/>
-      <c r="CL200" s="1"/>
+      <c r="CL200" s="37">
+        <v>2200</v>
+      </c>
       <c r="CM200" s="1"/>
       <c r="CN200" s="1"/>
     </row>
-    <row r="201" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B201" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C201" s="1">
+        <v>319</v>
+      </c>
+      <c r="C201" s="32">
         <v>226</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -26087,21 +27402,25 @@
       <c r="CI201" s="1"/>
       <c r="CJ201" s="1"/>
       <c r="CK201" s="1"/>
-      <c r="CL201" s="1"/>
-      <c r="CM201" s="1"/>
+      <c r="CL201" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM201" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN201" s="1"/>
     </row>
-    <row r="202" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C202" s="1">
+        <v>320</v>
+      </c>
+      <c r="C202" s="32">
         <v>226</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E202" s="24" t="s">
+      <c r="E202" s="38" t="s">
         <v>103</v>
       </c>
       <c r="F202" s="1"/>
@@ -26194,15 +27513,17 @@
       <c r="CI202" s="1"/>
       <c r="CJ202" s="1"/>
       <c r="CK202" s="1"/>
-      <c r="CL202" s="1"/>
+      <c r="CL202" s="35">
+        <v>-933.33</v>
+      </c>
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
     </row>
-    <row r="203" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B203" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C203" s="1">
+        <v>321</v>
+      </c>
+      <c r="C203" s="32">
         <v>227</v>
       </c>
       <c r="D203" s="1">
@@ -26300,15 +27621,17 @@
       <c r="CI203" s="1"/>
       <c r="CJ203" s="1"/>
       <c r="CK203" s="1"/>
-      <c r="CL203" s="1"/>
+      <c r="CL203" s="37">
+        <v>1000</v>
+      </c>
       <c r="CM203" s="1"/>
       <c r="CN203" s="1"/>
     </row>
-    <row r="204" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C204" s="1">
+        <v>322</v>
+      </c>
+      <c r="C204" s="32">
         <v>227</v>
       </c>
       <c r="D204" s="1">
@@ -26406,15 +27729,17 @@
       <c r="CI204" s="1"/>
       <c r="CJ204" s="1"/>
       <c r="CK204" s="1"/>
-      <c r="CL204" s="1"/>
+      <c r="CL204" s="1">
+        <v>900</v>
+      </c>
       <c r="CM204" s="1"/>
       <c r="CN204" s="1"/>
     </row>
-    <row r="205" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B205" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C205" s="1">
+        <v>323</v>
+      </c>
+      <c r="C205" s="32">
         <v>227</v>
       </c>
       <c r="D205" s="1">
@@ -26512,15 +27837,17 @@
       <c r="CI205" s="1"/>
       <c r="CJ205" s="1"/>
       <c r="CK205" s="1"/>
-      <c r="CL205" s="1"/>
+      <c r="CL205" s="37">
+        <v>2100</v>
+      </c>
       <c r="CM205" s="1"/>
       <c r="CN205" s="1"/>
     </row>
-    <row r="206" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C206" s="1">
+        <v>324</v>
+      </c>
+      <c r="C206" s="32">
         <v>227</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -26619,15 +27946,19 @@
       <c r="CI206" s="1"/>
       <c r="CJ206" s="1"/>
       <c r="CK206" s="1"/>
-      <c r="CL206" s="1"/>
-      <c r="CM206" s="1"/>
+      <c r="CL206" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM206" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN206" s="1"/>
     </row>
-    <row r="207" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B207" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C207" s="1">
+        <v>325</v>
+      </c>
+      <c r="C207" s="32">
         <v>227</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -26726,15 +28057,19 @@
       <c r="CI207" s="1"/>
       <c r="CJ207" s="1"/>
       <c r="CK207" s="1"/>
-      <c r="CL207" s="1"/>
-      <c r="CM207" s="1"/>
+      <c r="CL207" s="1">
+        <v>-966.67</v>
+      </c>
+      <c r="CM207" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN207" s="1"/>
     </row>
-    <row r="208" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C208" s="1">
+        <v>326</v>
+      </c>
+      <c r="C208" s="32">
         <v>228</v>
       </c>
       <c r="D208" s="1">
@@ -26844,15 +28179,17 @@
       <c r="CI208" s="1"/>
       <c r="CJ208" s="1"/>
       <c r="CK208" s="1"/>
-      <c r="CL208" s="1"/>
+      <c r="CL208" s="1">
+        <v>0.75</v>
+      </c>
       <c r="CM208" s="1"/>
       <c r="CN208" s="1"/>
     </row>
-    <row r="209" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C209" s="1">
+        <v>327</v>
+      </c>
+      <c r="C209" s="32">
         <v>228</v>
       </c>
       <c r="D209" s="1">
@@ -26962,15 +28299,17 @@
       <c r="CI209" s="1"/>
       <c r="CJ209" s="1"/>
       <c r="CK209" s="1"/>
-      <c r="CL209" s="1"/>
+      <c r="CL209" s="1">
+        <v>0.5333</v>
+      </c>
       <c r="CM209" s="1"/>
       <c r="CN209" s="1"/>
     </row>
-    <row r="210" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C210" s="1">
+        <v>328</v>
+      </c>
+      <c r="C210" s="32">
         <v>228</v>
       </c>
       <c r="D210" s="1">
@@ -27080,15 +28419,17 @@
       <c r="CI210" s="1"/>
       <c r="CJ210" s="1"/>
       <c r="CK210" s="1"/>
-      <c r="CL210" s="1"/>
+      <c r="CL210" s="1">
+        <v>0.48</v>
+      </c>
       <c r="CM210" s="1"/>
       <c r="CN210" s="1"/>
     </row>
-    <row r="211" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C211" s="1">
+        <v>329</v>
+      </c>
+      <c r="C211" s="32">
         <v>228</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -27197,15 +28538,19 @@
       <c r="CI211" s="1"/>
       <c r="CJ211" s="1"/>
       <c r="CK211" s="1"/>
-      <c r="CL211" s="1"/>
-      <c r="CM211" s="1"/>
+      <c r="CL211" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM211" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN211" s="1"/>
     </row>
-    <row r="212" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C212" s="1">
+        <v>330</v>
+      </c>
+      <c r="C212" s="32">
         <v>228</v>
       </c>
       <c r="D212" s="1">
@@ -27316,15 +28661,19 @@
       <c r="CI212" s="1"/>
       <c r="CJ212" s="1"/>
       <c r="CK212" s="1"/>
-      <c r="CL212" s="1"/>
-      <c r="CM212" s="1"/>
+      <c r="CL212" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM212" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="CN212" s="1"/>
     </row>
-    <row r="213" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C213" s="1">
+        <v>331</v>
+      </c>
+      <c r="C213" s="32">
         <v>228</v>
       </c>
       <c r="D213" s="1">
@@ -27435,15 +28784,19 @@
       <c r="CI213" s="1"/>
       <c r="CJ213" s="1"/>
       <c r="CK213" s="1"/>
-      <c r="CL213" s="1"/>
-      <c r="CM213" s="1"/>
+      <c r="CL213" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="CM213" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="CN213" s="1"/>
     </row>
-    <row r="214" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C214" s="1">
+        <v>332</v>
+      </c>
+      <c r="C214" s="32">
         <v>228</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -27553,15 +28906,19 @@
       <c r="CI214" s="1"/>
       <c r="CJ214" s="1"/>
       <c r="CK214" s="1"/>
-      <c r="CL214" s="1"/>
-      <c r="CM214" s="1"/>
+      <c r="CL214" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM214" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="CN214" s="1"/>
     </row>
-    <row r="215" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B215" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C215" s="1">
+        <v>333</v>
+      </c>
+      <c r="C215" s="32">
         <v>228</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -27671,15 +29028,19 @@
       <c r="CI215" s="1"/>
       <c r="CJ215" s="1"/>
       <c r="CK215" s="1"/>
-      <c r="CL215" s="1"/>
-      <c r="CM215" s="1"/>
+      <c r="CL215" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM215" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="CN215" s="1"/>
     </row>
-    <row r="216" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C216" s="1">
+        <v>334</v>
+      </c>
+      <c r="C216" s="32">
         <v>228</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -27790,22 +29151,26 @@
       <c r="CI216" s="1"/>
       <c r="CJ216" s="1"/>
       <c r="CK216" s="1"/>
-      <c r="CL216" s="1"/>
-      <c r="CM216" s="1"/>
+      <c r="CL216" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM216" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN216" s="1"/>
     </row>
-    <row r="217" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C217" s="1">
+        <v>335</v>
+      </c>
+      <c r="C217" s="32">
         <v>228</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -27909,15 +29274,19 @@
       <c r="CI217" s="1"/>
       <c r="CJ217" s="1"/>
       <c r="CK217" s="1"/>
-      <c r="CL217" s="1"/>
-      <c r="CM217" s="1"/>
+      <c r="CL217" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM217" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="CN217" s="1"/>
     </row>
-    <row r="218" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C218" s="1">
+        <v>336</v>
+      </c>
+      <c r="C218" s="32">
         <v>228</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -28028,15 +29397,19 @@
       <c r="CI218" s="1"/>
       <c r="CJ218" s="1"/>
       <c r="CK218" s="1"/>
-      <c r="CL218" s="1"/>
-      <c r="CM218" s="1"/>
+      <c r="CL218" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM218" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN218" s="1"/>
     </row>
-    <row r="219" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C219" s="1">
+        <v>337</v>
+      </c>
+      <c r="C219" s="32">
         <v>228</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -28147,22 +29520,26 @@
       <c r="CI219" s="1"/>
       <c r="CJ219" s="1"/>
       <c r="CK219" s="1"/>
-      <c r="CL219" s="1"/>
-      <c r="CM219" s="1"/>
+      <c r="CL219" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM219" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="CN219" s="1"/>
     </row>
-    <row r="220" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C220" s="1">
+        <v>338</v>
+      </c>
+      <c r="C220" s="32">
         <v>228</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -28266,15 +29643,19 @@
       <c r="CI220" s="1"/>
       <c r="CJ220" s="1"/>
       <c r="CK220" s="1"/>
-      <c r="CL220" s="1"/>
-      <c r="CM220" s="1"/>
+      <c r="CL220" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM220" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="CN220" s="1"/>
     </row>
-    <row r="221" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C221" s="1">
+        <v>339</v>
+      </c>
+      <c r="C221" s="32">
         <v>228</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -28385,15 +29766,19 @@
       <c r="CI221" s="1"/>
       <c r="CJ221" s="1"/>
       <c r="CK221" s="1"/>
-      <c r="CL221" s="1"/>
-      <c r="CM221" s="1"/>
+      <c r="CL221" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM221" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="CN221" s="1"/>
     </row>
-    <row r="222" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C222" s="1">
+        <v>340</v>
+      </c>
+      <c r="C222" s="32">
         <v>229</v>
       </c>
       <c r="D222" s="1">
@@ -28503,15 +29888,17 @@
       <c r="CI222" s="1"/>
       <c r="CJ222" s="1"/>
       <c r="CK222" s="1"/>
-      <c r="CL222" s="1"/>
+      <c r="CL222" s="1">
+        <v>0.5</v>
+      </c>
       <c r="CM222" s="1"/>
       <c r="CN222" s="1"/>
     </row>
-    <row r="223" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C223" s="1">
+        <v>341</v>
+      </c>
+      <c r="C223" s="32">
         <v>229</v>
       </c>
       <c r="D223" s="1">
@@ -28621,15 +30008,17 @@
       <c r="CI223" s="1"/>
       <c r="CJ223" s="1"/>
       <c r="CK223" s="1"/>
-      <c r="CL223" s="1"/>
+      <c r="CL223" s="1">
+        <v>0.6</v>
+      </c>
       <c r="CM223" s="1"/>
       <c r="CN223" s="1"/>
     </row>
-    <row r="224" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C224" s="1">
+        <v>342</v>
+      </c>
+      <c r="C224" s="32">
         <v>229</v>
       </c>
       <c r="D224" s="1">
@@ -28739,15 +30128,17 @@
       <c r="CI224" s="1"/>
       <c r="CJ224" s="1"/>
       <c r="CK224" s="1"/>
-      <c r="CL224" s="1"/>
+      <c r="CL224" s="1">
+        <v>0.84</v>
+      </c>
       <c r="CM224" s="1"/>
       <c r="CN224" s="1"/>
     </row>
-    <row r="225" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C225" s="1">
+        <v>343</v>
+      </c>
+      <c r="C225" s="32">
         <v>229</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -28856,21 +30247,25 @@
       <c r="CI225" s="1"/>
       <c r="CJ225" s="1"/>
       <c r="CK225" s="1"/>
-      <c r="CL225" s="1"/>
-      <c r="CM225" s="1"/>
+      <c r="CL225" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM225" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN225" s="1"/>
     </row>
-    <row r="226" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C226" s="1">
+        <v>344</v>
+      </c>
+      <c r="C226" s="32">
         <v>229</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="35">
         <v>999999</v>
       </c>
-      <c r="E226" s="24" t="s">
+      <c r="E226" s="38" t="s">
         <v>104</v>
       </c>
       <c r="F226" s="1"/>
@@ -28975,15 +30370,19 @@
       <c r="CI226" s="1"/>
       <c r="CJ226" s="1"/>
       <c r="CK226" s="1"/>
-      <c r="CL226" s="1"/>
-      <c r="CM226" s="1"/>
+      <c r="CL226" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM226" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="CN226" s="1"/>
     </row>
-    <row r="227" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C227" s="1">
+        <v>345</v>
+      </c>
+      <c r="C227" s="32">
         <v>229</v>
       </c>
       <c r="D227" s="1">
@@ -29094,15 +30493,19 @@
       <c r="CI227" s="1"/>
       <c r="CJ227" s="1"/>
       <c r="CK227" s="1"/>
-      <c r="CL227" s="1"/>
-      <c r="CM227" s="1"/>
+      <c r="CL227" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="CM227" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="CN227" s="1"/>
     </row>
-    <row r="228" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C228" s="1">
+        <v>346</v>
+      </c>
+      <c r="C228" s="32">
         <v>229</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -29212,15 +30615,19 @@
       <c r="CI228" s="1"/>
       <c r="CJ228" s="1"/>
       <c r="CK228" s="1"/>
-      <c r="CL228" s="1"/>
-      <c r="CM228" s="1"/>
+      <c r="CL228" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM228" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="CN228" s="1"/>
     </row>
-    <row r="229" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C229" s="1">
+        <v>347</v>
+      </c>
+      <c r="C229" s="32">
         <v>229</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -29330,15 +30737,19 @@
       <c r="CI229" s="1"/>
       <c r="CJ229" s="1"/>
       <c r="CK229" s="1"/>
-      <c r="CL229" s="1"/>
-      <c r="CM229" s="1"/>
+      <c r="CL229" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM229" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="CN229" s="1"/>
     </row>
-    <row r="230" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C230" s="1">
+        <v>348</v>
+      </c>
+      <c r="C230" s="32">
         <v>229</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -29449,22 +30860,26 @@
       <c r="CI230" s="1"/>
       <c r="CJ230" s="1"/>
       <c r="CK230" s="1"/>
-      <c r="CL230" s="1"/>
-      <c r="CM230" s="1"/>
+      <c r="CL230" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM230" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN230" s="1"/>
     </row>
-    <row r="231" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B231" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C231" s="1">
+        <v>349</v>
+      </c>
+      <c r="C231" s="32">
         <v>229</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -29568,15 +30983,19 @@
       <c r="CI231" s="1"/>
       <c r="CJ231" s="1"/>
       <c r="CK231" s="1"/>
-      <c r="CL231" s="1"/>
-      <c r="CM231" s="1"/>
+      <c r="CL231" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM231" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="CN231" s="1"/>
     </row>
-    <row r="232" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C232" s="1">
+        <v>350</v>
+      </c>
+      <c r="C232" s="32">
         <v>229</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -29687,15 +31106,19 @@
       <c r="CI232" s="1"/>
       <c r="CJ232" s="1"/>
       <c r="CK232" s="1"/>
-      <c r="CL232" s="1"/>
-      <c r="CM232" s="1"/>
+      <c r="CL232" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM232" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN232" s="1"/>
     </row>
-    <row r="233" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B233" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C233" s="1">
+        <v>351</v>
+      </c>
+      <c r="C233" s="32">
         <v>229</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -29806,22 +31229,26 @@
       <c r="CI233" s="1"/>
       <c r="CJ233" s="1"/>
       <c r="CK233" s="1"/>
-      <c r="CL233" s="1"/>
-      <c r="CM233" s="1"/>
+      <c r="CL233" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM233" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="CN233" s="1"/>
     </row>
-    <row r="234" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B234" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C234" s="1">
+        <v>352</v>
+      </c>
+      <c r="C234" s="32">
         <v>229</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -29925,15 +31352,19 @@
       <c r="CI234" s="1"/>
       <c r="CJ234" s="1"/>
       <c r="CK234" s="1"/>
-      <c r="CL234" s="1"/>
-      <c r="CM234" s="1"/>
+      <c r="CL234" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM234" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="CN234" s="1"/>
     </row>
-    <row r="235" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B235" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C235" s="1">
+        <v>353</v>
+      </c>
+      <c r="C235" s="32">
         <v>229</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -30044,15 +31475,19 @@
       <c r="CI235" s="1"/>
       <c r="CJ235" s="1"/>
       <c r="CK235" s="1"/>
-      <c r="CL235" s="1"/>
-      <c r="CM235" s="1"/>
+      <c r="CL235" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM235" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="CN235" s="1"/>
     </row>
-    <row r="236" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C236" s="1">
+        <v>354</v>
+      </c>
+      <c r="C236" s="32">
         <v>230</v>
       </c>
       <c r="D236" s="1">
@@ -30156,15 +31591,17 @@
       <c r="CI236" s="1"/>
       <c r="CJ236" s="1"/>
       <c r="CK236" s="1"/>
-      <c r="CL236" s="1"/>
+      <c r="CL236" s="1">
+        <v>233.33</v>
+      </c>
       <c r="CM236" s="1"/>
       <c r="CN236" s="1"/>
     </row>
-    <row r="237" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B237" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C237" s="1">
+        <v>355</v>
+      </c>
+      <c r="C237" s="32">
         <v>230</v>
       </c>
       <c r="D237" s="1">
@@ -30268,15 +31705,17 @@
       <c r="CI237" s="1"/>
       <c r="CJ237" s="1"/>
       <c r="CK237" s="1"/>
-      <c r="CL237" s="1"/>
+      <c r="CL237" s="1">
+        <v>200</v>
+      </c>
       <c r="CM237" s="1"/>
       <c r="CN237" s="1"/>
     </row>
-    <row r="238" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B238" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C238" s="1">
+        <v>356</v>
+      </c>
+      <c r="C238" s="32">
         <v>230</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -30381,15 +31820,19 @@
       <c r="CI238" s="1"/>
       <c r="CJ238" s="1"/>
       <c r="CK238" s="1"/>
-      <c r="CL238" s="1"/>
-      <c r="CM238" s="1"/>
+      <c r="CL238" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM238" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN238" s="1"/>
     </row>
-    <row r="239" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B239" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C239" s="1">
+        <v>357</v>
+      </c>
+      <c r="C239" s="32">
         <v>230</v>
       </c>
       <c r="D239" s="1">
@@ -30493,18 +31936,20 @@
       <c r="CI239" s="1"/>
       <c r="CJ239" s="1"/>
       <c r="CK239" s="1"/>
-      <c r="CL239" s="1"/>
+      <c r="CL239" s="37">
+        <v>1300</v>
+      </c>
       <c r="CM239" s="1"/>
       <c r="CN239" s="1"/>
     </row>
-    <row r="240" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="32">
         <v>230</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E240" s="11" t="s">
@@ -30606,15 +32051,19 @@
       <c r="CI240" s="1"/>
       <c r="CJ240" s="1"/>
       <c r="CK240" s="1"/>
-      <c r="CL240" s="1"/>
-      <c r="CM240" s="1"/>
+      <c r="CL240" s="41">
+        <v>-1300</v>
+      </c>
+      <c r="CM240" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN240" s="1"/>
     </row>
-    <row r="241" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="32">
         <v>231</v>
       </c>
       <c r="D241" s="1">
@@ -30718,15 +32167,17 @@
       <c r="CI241" s="1"/>
       <c r="CJ241" s="1"/>
       <c r="CK241" s="1"/>
-      <c r="CL241" s="1"/>
+      <c r="CL241" s="37">
+        <v>433.33</v>
+      </c>
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
     </row>
-    <row r="242" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="32">
         <v>231</v>
       </c>
       <c r="D242" s="1">
@@ -30830,15 +32281,17 @@
       <c r="CI242" s="1"/>
       <c r="CJ242" s="1"/>
       <c r="CK242" s="1"/>
-      <c r="CL242" s="1"/>
+      <c r="CL242" s="37">
+        <v>300</v>
+      </c>
       <c r="CM242" s="1"/>
       <c r="CN242" s="1"/>
     </row>
-    <row r="243" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B243" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="32">
         <v>231</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -30943,15 +32396,19 @@
       <c r="CI243" s="1"/>
       <c r="CJ243" s="1"/>
       <c r="CK243" s="1"/>
-      <c r="CL243" s="1"/>
-      <c r="CM243" s="1"/>
+      <c r="CL243" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM243" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN243" s="1"/>
     </row>
-    <row r="244" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="32">
         <v>231</v>
       </c>
       <c r="D244" s="1">
@@ -31055,18 +32512,20 @@
       <c r="CI244" s="1"/>
       <c r="CJ244" s="1"/>
       <c r="CK244" s="1"/>
-      <c r="CL244" s="1"/>
+      <c r="CL244" s="37">
+        <v>966.67</v>
+      </c>
       <c r="CM244" s="1"/>
       <c r="CN244" s="1"/>
     </row>
-    <row r="245" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="32">
         <v>231</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E245" s="29" t="s">
@@ -31168,8 +32627,12 @@
       <c r="CI245" s="1"/>
       <c r="CJ245" s="1"/>
       <c r="CK245" s="1"/>
-      <c r="CL245" s="1"/>
-      <c r="CM245" s="1"/>
+      <c r="CL245" s="35">
+        <v>-400</v>
+      </c>
+      <c r="CM245" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN245" s="1"/>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="366">
   <si>
     <t>SNDG</t>
   </si>
@@ -880,9 +880,6 @@
   </si>
   <si>
     <t>'0000000000000420'</t>
-  </si>
-  <si>
-    <t>'0000000000000421'</t>
   </si>
   <si>
     <t>'0000000000000422'</t>
@@ -1125,7 +1122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1373,7 +1370,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1690,75 +1687,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:FF245"/>
+  <dimension ref="A3:FF244"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BQ238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="AE163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BQ4" sqref="BQ4"/>
+      <selection pane="bottomRight" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="21" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" style="3" customWidth="1"/>
-    <col min="25" max="38" width="25.140625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.85546875" style="3" customWidth="1"/>
-    <col min="41" max="42" width="28.28515625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="27.85546875" style="3" customWidth="1"/>
-    <col min="44" max="44" width="28.28515625" style="3" customWidth="1"/>
-    <col min="45" max="62" width="25.140625" style="3" customWidth="1"/>
-    <col min="63" max="63" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="21" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="24.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="22.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="22.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="30" width="25.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="25.109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="3" customWidth="1"/>
+    <col min="41" max="42" width="28.33203125" style="3" customWidth="1"/>
+    <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
+    <col min="44" max="44" width="28.33203125" style="3" customWidth="1"/>
+    <col min="45" max="62" width="25.109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="21.33203125" style="3" customWidth="1"/>
     <col min="64" max="64" width="21" style="3" customWidth="1"/>
-    <col min="65" max="65" width="21.28515625" style="3" customWidth="1"/>
+    <col min="65" max="65" width="21.33203125" style="3" customWidth="1"/>
     <col min="66" max="66" width="19" style="3" customWidth="1"/>
-    <col min="67" max="67" width="18.7109375" style="3" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" style="3" customWidth="1"/>
     <col min="68" max="69" width="19" style="3" customWidth="1"/>
-    <col min="70" max="70" width="17.85546875" style="3" customWidth="1"/>
+    <col min="70" max="70" width="17.88671875" style="3" customWidth="1"/>
     <col min="71" max="71" width="19" style="3" customWidth="1"/>
-    <col min="72" max="72" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="16.140625" style="3" customWidth="1"/>
-    <col min="78" max="78" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.5703125" style="3" customWidth="1"/>
-    <col min="80" max="83" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="88" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="8.85546875" style="3"/>
-    <col min="94" max="94" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="16.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="18.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="80" max="83" width="13.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="84" max="88" width="14.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="15.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="8.88671875" style="3"/>
+    <col min="94" max="94" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="160" width="8.85546875" style="3"/>
-    <col min="161" max="161" width="15.28515625" style="3" customWidth="1"/>
-    <col min="162" max="16384" width="8.85546875" style="3"/>
+    <col min="97" max="160" width="8.88671875" style="3"/>
+    <col min="161" max="161" width="15.33203125" style="3" customWidth="1"/>
+    <col min="162" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:92" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2034,7 +2032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>122</v>
       </c>
@@ -2136,7 +2134,7 @@
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>123</v>
       </c>
@@ -2240,7 +2238,7 @@
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
@@ -2344,7 +2342,7 @@
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>125</v>
       </c>
@@ -2446,7 +2444,7 @@
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>126</v>
       </c>
@@ -2550,7 +2548,7 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>127</v>
       </c>
@@ -2654,7 +2652,7 @@
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>128</v>
       </c>
@@ -2756,7 +2754,7 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>129</v>
       </c>
@@ -2860,7 +2858,7 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>130</v>
       </c>
@@ -2963,7 +2961,7 @@
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>131</v>
       </c>
@@ -3065,7 +3063,7 @@
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>132</v>
       </c>
@@ -3169,7 +3167,7 @@
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>133</v>
       </c>
@@ -3272,7 +3270,7 @@
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>134</v>
       </c>
@@ -3374,7 +3372,7 @@
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
     </row>
-    <row r="17" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3476,7 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
     </row>
-    <row r="18" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>136</v>
       </c>
@@ -3581,7 +3579,7 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
     </row>
-    <row r="19" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>137</v>
       </c>
@@ -3683,7 +3681,7 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
     </row>
-    <row r="20" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>138</v>
       </c>
@@ -3787,7 +3785,7 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
     </row>
-    <row r="21" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>139</v>
       </c>
@@ -3891,7 +3889,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
     </row>
-    <row r="22" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>140</v>
       </c>
@@ -3993,7 +3991,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
     </row>
-    <row r="23" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>141</v>
       </c>
@@ -4097,7 +4095,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
     </row>
-    <row r="24" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>142</v>
       </c>
@@ -4201,7 +4199,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
     </row>
-    <row r="25" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>143</v>
       </c>
@@ -4303,7 +4301,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
     </row>
-    <row r="26" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>144</v>
       </c>
@@ -4407,7 +4405,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
     </row>
-    <row r="27" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>145</v>
       </c>
@@ -4510,7 +4508,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
     </row>
-    <row r="28" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>146</v>
       </c>
@@ -4612,7 +4610,7 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
     </row>
-    <row r="29" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>147</v>
       </c>
@@ -4716,7 +4714,7 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
     </row>
-    <row r="30" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>148</v>
       </c>
@@ -4819,7 +4817,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
     </row>
-    <row r="31" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
@@ -4927,7 +4925,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
     </row>
-    <row r="32" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>150</v>
       </c>
@@ -5037,7 +5035,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
     </row>
-    <row r="33" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>151</v>
       </c>
@@ -5146,7 +5144,7 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
     </row>
-    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>152</v>
       </c>
@@ -5256,7 +5254,7 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
     </row>
-    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>153</v>
       </c>
@@ -5365,7 +5363,7 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
     </row>
-    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>154</v>
       </c>
@@ -5474,7 +5472,7 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
     </row>
-    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>155</v>
       </c>
@@ -5583,7 +5581,7 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
     </row>
-    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>156</v>
       </c>
@@ -5692,7 +5690,7 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
     </row>
-    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>157</v>
       </c>
@@ -5801,7 +5799,7 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
     </row>
-    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
@@ -5910,7 +5908,7 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
     </row>
-    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>159</v>
       </c>
@@ -6085,7 +6083,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
     </row>
-    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>160</v>
       </c>
@@ -6260,7 +6258,7 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
     </row>
-    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>161</v>
       </c>
@@ -6435,7 +6433,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>162</v>
       </c>
@@ -6610,7 +6608,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>163</v>
       </c>
@@ -6857,7 +6855,7 @@
       <c r="FE45" s="3"/>
       <c r="FF45" s="3"/>
     </row>
-    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>164</v>
       </c>
@@ -7102,7 +7100,7 @@
       <c r="FE46" s="3"/>
       <c r="FF46" s="3"/>
     </row>
-    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>165</v>
       </c>
@@ -7347,7 +7345,7 @@
       <c r="FE47" s="3"/>
       <c r="FF47" s="3"/>
     </row>
-    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>166</v>
       </c>
@@ -7592,7 +7590,7 @@
       <c r="FE48" s="3"/>
       <c r="FF48" s="3"/>
     </row>
-    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>167</v>
       </c>
@@ -7837,7 +7835,7 @@
       <c r="FE49" s="3"/>
       <c r="FF49" s="3"/>
     </row>
-    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>168</v>
       </c>
@@ -8084,7 +8082,7 @@
       <c r="FE50" s="3"/>
       <c r="FF50" s="3"/>
     </row>
-    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>169</v>
       </c>
@@ -8285,7 +8283,7 @@
       <c r="FE51" s="3"/>
       <c r="FF51" s="3"/>
     </row>
-    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
@@ -8486,7 +8484,7 @@
       <c r="FE52" s="3"/>
       <c r="FF52" s="3"/>
     </row>
-    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
@@ -8683,7 +8681,7 @@
       <c r="FE53" s="3"/>
       <c r="FF53" s="3"/>
     </row>
-    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>172</v>
       </c>
@@ -8805,7 +8803,7 @@
       <c r="CJ54" s="2"/>
       <c r="CK54" s="2"/>
       <c r="CL54" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM54" s="2" t="s">
         <v>92</v>
@@ -8882,7 +8880,7 @@
       <c r="FE54" s="3"/>
       <c r="FF54" s="3"/>
     </row>
-    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>173</v>
       </c>
@@ -9086,7 +9084,7 @@
       <c r="FE55" s="3"/>
       <c r="FF55" s="3"/>
     </row>
-    <row r="56" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>174</v>
       </c>
@@ -9209,14 +9207,14 @@
       <c r="CJ56" s="1"/>
       <c r="CK56" s="1"/>
       <c r="CL56" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM56" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN56" s="1"/>
     </row>
-    <row r="57" spans="2:162" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
         <v>175</v>
       </c>
@@ -9343,14 +9341,14 @@
       <c r="CJ57" s="1"/>
       <c r="CK57" s="1"/>
       <c r="CL57" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM57" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN57" s="1"/>
     </row>
-    <row r="58" spans="2:162" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>176</v>
       </c>
@@ -9477,14 +9475,14 @@
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
       <c r="CL58" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM58" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN58" s="1"/>
     </row>
-    <row r="59" spans="2:162" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
         <v>177</v>
       </c>
@@ -9622,7 +9620,7 @@
       <c r="CM59" s="35"/>
       <c r="CN59" s="1"/>
     </row>
-    <row r="60" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
         <v>178</v>
       </c>
@@ -9758,7 +9756,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
     </row>
-    <row r="61" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
         <v>179</v>
       </c>
@@ -9894,7 +9892,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
     </row>
-    <row r="62" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
         <v>180</v>
       </c>
@@ -10030,7 +10028,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
     </row>
-    <row r="63" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
         <v>181</v>
       </c>
@@ -10161,7 +10159,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
     </row>
-    <row r="64" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
         <v>182</v>
       </c>
@@ -10292,7 +10290,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
     </row>
-    <row r="65" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
         <v>183</v>
       </c>
@@ -10419,7 +10417,7 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
     </row>
-    <row r="66" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
         <v>184</v>
       </c>
@@ -10541,14 +10539,14 @@
       <c r="CJ66" s="1"/>
       <c r="CK66" s="1"/>
       <c r="CL66" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM66" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN66" s="1"/>
     </row>
-    <row r="67" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
         <v>185</v>
       </c>
@@ -10682,7 +10680,7 @@
       </c>
       <c r="CN67" s="1"/>
     </row>
-    <row r="68" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>186</v>
       </c>
@@ -10805,14 +10803,14 @@
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
       <c r="CL68" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM68" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN68" s="1"/>
     </row>
-    <row r="69" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>187</v>
       </c>
@@ -10939,14 +10937,14 @@
       <c r="CJ69" s="1"/>
       <c r="CK69" s="1"/>
       <c r="CL69" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM69" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN69" s="1"/>
     </row>
-    <row r="70" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>188</v>
       </c>
@@ -11073,14 +11071,14 @@
       <c r="CJ70" s="1"/>
       <c r="CK70" s="1"/>
       <c r="CL70" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM70" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN70" s="1"/>
     </row>
-    <row r="71" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>189</v>
       </c>
@@ -11218,7 +11216,7 @@
       <c r="CM71" s="35"/>
       <c r="CN71" s="1"/>
     </row>
-    <row r="72" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
         <v>190</v>
       </c>
@@ -11354,7 +11352,7 @@
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
     </row>
-    <row r="73" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
         <v>191</v>
       </c>
@@ -11490,7 +11488,7 @@
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
     </row>
-    <row r="74" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
         <v>192</v>
       </c>
@@ -11626,7 +11624,7 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
     </row>
-    <row r="75" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
         <v>193</v>
       </c>
@@ -11757,7 +11755,7 @@
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
     </row>
-    <row r="76" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>194</v>
       </c>
@@ -11888,7 +11886,7 @@
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
     </row>
-    <row r="77" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
         <v>195</v>
       </c>
@@ -12015,7 +12013,7 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
     </row>
-    <row r="78" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
         <v>196</v>
       </c>
@@ -12137,14 +12135,14 @@
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
       <c r="CL78" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM78" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
         <v>197</v>
       </c>
@@ -12278,7 +12276,7 @@
       </c>
       <c r="CN79" s="1"/>
     </row>
-    <row r="80" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
         <v>198</v>
       </c>
@@ -12401,14 +12399,14 @@
       <c r="CJ80" s="1"/>
       <c r="CK80" s="1"/>
       <c r="CL80" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM80" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN80" s="1"/>
     </row>
-    <row r="81" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
         <v>199</v>
       </c>
@@ -12535,14 +12533,14 @@
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
       <c r="CL81" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM81" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN81" s="1"/>
     </row>
-    <row r="82" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
         <v>200</v>
       </c>
@@ -12669,14 +12667,14 @@
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
       <c r="CL82" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN82" s="1"/>
     </row>
-    <row r="83" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
         <v>201</v>
       </c>
@@ -12814,7 +12812,7 @@
       <c r="CM83" s="35"/>
       <c r="CN83" s="1"/>
     </row>
-    <row r="84" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
         <v>202</v>
       </c>
@@ -12950,7 +12948,7 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
     </row>
-    <row r="85" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
         <v>203</v>
       </c>
@@ -13086,7 +13084,7 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
     </row>
-    <row r="86" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
         <v>204</v>
       </c>
@@ -13222,7 +13220,7 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
     </row>
-    <row r="87" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>205</v>
       </c>
@@ -13353,7 +13351,7 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
     </row>
-    <row r="88" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
         <v>206</v>
       </c>
@@ -13484,7 +13482,7 @@
       <c r="CM88" s="1"/>
       <c r="CN88" s="1"/>
     </row>
-    <row r="89" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>207</v>
       </c>
@@ -13611,7 +13609,7 @@
       <c r="CM89" s="1"/>
       <c r="CN89" s="1"/>
     </row>
-    <row r="90" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
         <v>208</v>
       </c>
@@ -13733,14 +13731,14 @@
       <c r="CJ90" s="1"/>
       <c r="CK90" s="1"/>
       <c r="CL90" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM90" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN90" s="1"/>
     </row>
-    <row r="91" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
         <v>209</v>
       </c>
@@ -13874,7 +13872,7 @@
       </c>
       <c r="CN91" s="1"/>
     </row>
-    <row r="92" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>210</v>
       </c>
@@ -13997,14 +13995,14 @@
       <c r="CJ92" s="1"/>
       <c r="CK92" s="1"/>
       <c r="CL92" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM92" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN92" s="1"/>
     </row>
-    <row r="93" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>211</v>
       </c>
@@ -14131,14 +14129,14 @@
       <c r="CJ93" s="1"/>
       <c r="CK93" s="1"/>
       <c r="CL93" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN93" s="1"/>
     </row>
-    <row r="94" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>212</v>
       </c>
@@ -14265,14 +14263,14 @@
       <c r="CJ94" s="1"/>
       <c r="CK94" s="1"/>
       <c r="CL94" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN94" s="1"/>
     </row>
-    <row r="95" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>213</v>
       </c>
@@ -14410,7 +14408,7 @@
       <c r="CM95" s="35"/>
       <c r="CN95" s="1"/>
     </row>
-    <row r="96" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>214</v>
       </c>
@@ -14546,7 +14544,7 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
     </row>
-    <row r="97" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
         <v>215</v>
       </c>
@@ -14682,7 +14680,7 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
     </row>
-    <row r="98" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>216</v>
       </c>
@@ -14818,7 +14816,7 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
     </row>
-    <row r="99" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>217</v>
       </c>
@@ -14947,7 +14945,7 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="1"/>
     </row>
-    <row r="100" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>218</v>
       </c>
@@ -15076,7 +15074,7 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="1"/>
     </row>
-    <row r="101" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
         <v>219</v>
       </c>
@@ -15203,7 +15201,7 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="1"/>
     </row>
-    <row r="102" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>220</v>
       </c>
@@ -15323,14 +15321,14 @@
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
       <c r="CL102" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM102" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN102" s="1"/>
     </row>
-    <row r="103" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>221</v>
       </c>
@@ -15462,7 +15460,7 @@
       </c>
       <c r="CN103" s="1"/>
     </row>
-    <row r="104" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>222</v>
       </c>
@@ -15587,14 +15585,14 @@
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
       <c r="CL104" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM104" s="1" t="s">
         <v>115</v>
       </c>
       <c r="CN104" s="1"/>
     </row>
-    <row r="105" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>223</v>
       </c>
@@ -15714,14 +15712,14 @@
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
       <c r="CL105" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM105" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN105" s="1"/>
     </row>
-    <row r="106" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
         <v>224</v>
       </c>
@@ -15842,14 +15840,14 @@
       <c r="CJ106" s="1"/>
       <c r="CK106" s="1"/>
       <c r="CL106" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM106" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN106" s="1"/>
     </row>
-    <row r="107" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
         <v>225</v>
       </c>
@@ -15974,14 +15972,14 @@
       <c r="CJ107" s="1"/>
       <c r="CK107" s="1"/>
       <c r="CL107" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM107" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN107" s="1"/>
     </row>
-    <row r="108" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>226</v>
       </c>
@@ -16106,14 +16104,14 @@
       <c r="CJ108" s="1"/>
       <c r="CK108" s="1"/>
       <c r="CL108" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM108" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN108" s="1"/>
     </row>
-    <row r="109" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>227</v>
       </c>
@@ -16242,7 +16240,7 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="1"/>
     </row>
-    <row r="110" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
         <v>228</v>
       </c>
@@ -16371,7 +16369,7 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="1"/>
     </row>
-    <row r="111" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B111" s="6" t="s">
         <v>229</v>
       </c>
@@ -16498,7 +16496,7 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="1"/>
     </row>
-    <row r="112" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
         <v>230</v>
       </c>
@@ -16618,14 +16616,14 @@
       <c r="CJ112" s="1"/>
       <c r="CK112" s="1"/>
       <c r="CL112" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM112" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN112" s="1"/>
     </row>
-    <row r="113" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>231</v>
       </c>
@@ -16757,7 +16755,7 @@
       </c>
       <c r="CN113" s="1"/>
     </row>
-    <row r="114" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>232</v>
       </c>
@@ -16882,14 +16880,14 @@
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
       <c r="CL114" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM114" s="1" t="s">
         <v>115</v>
       </c>
       <c r="CN114" s="1"/>
     </row>
-    <row r="115" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>233</v>
       </c>
@@ -17009,14 +17007,14 @@
       <c r="CJ115" s="1"/>
       <c r="CK115" s="1"/>
       <c r="CL115" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM115" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN115" s="1"/>
     </row>
-    <row r="116" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>234</v>
       </c>
@@ -17137,14 +17135,14 @@
       <c r="CJ116" s="1"/>
       <c r="CK116" s="1"/>
       <c r="CL116" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM116" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN116" s="1"/>
     </row>
-    <row r="117" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>235</v>
       </c>
@@ -17269,14 +17267,14 @@
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
       <c r="CL117" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM117" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN117" s="1"/>
     </row>
-    <row r="118" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
         <v>236</v>
       </c>
@@ -17401,14 +17399,14 @@
       <c r="CJ118" s="1"/>
       <c r="CK118" s="1"/>
       <c r="CL118" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM118" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN118" s="1"/>
     </row>
-    <row r="119" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
         <v>237</v>
       </c>
@@ -17528,7 +17526,7 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
     </row>
-    <row r="120" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
         <v>238</v>
       </c>
@@ -17648,7 +17646,7 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
     </row>
-    <row r="121" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>239</v>
       </c>
@@ -17762,14 +17760,14 @@
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
       <c r="CL121" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM121" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN121" s="1"/>
     </row>
-    <row r="122" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -17892,7 +17890,7 @@
       </c>
       <c r="CN122" s="1"/>
     </row>
-    <row r="123" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>241</v>
       </c>
@@ -18015,7 +18013,7 @@
       </c>
       <c r="CN123" s="1"/>
     </row>
-    <row r="124" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>242</v>
       </c>
@@ -18130,14 +18128,14 @@
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
       <c r="CL124" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM124" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CN124" s="1"/>
     </row>
-    <row r="125" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>243</v>
       </c>
@@ -18252,14 +18250,14 @@
       <c r="CJ125" s="1"/>
       <c r="CK125" s="1"/>
       <c r="CL125" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM125" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN125" s="1"/>
     </row>
-    <row r="126" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>244</v>
       </c>
@@ -18375,14 +18373,14 @@
       <c r="CJ126" s="1"/>
       <c r="CK126" s="1"/>
       <c r="CL126" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM126" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN126" s="1"/>
     </row>
-    <row r="127" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>245</v>
       </c>
@@ -18498,14 +18496,14 @@
       <c r="CJ127" s="1"/>
       <c r="CK127" s="1"/>
       <c r="CL127" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM127" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM127" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN127" s="1"/>
     </row>
-    <row r="128" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B128" s="6" t="s">
         <v>246</v>
       </c>
@@ -18621,14 +18619,14 @@
       <c r="CJ128" s="1"/>
       <c r="CK128" s="1"/>
       <c r="CL128" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM128" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN128" s="1"/>
     </row>
-    <row r="129" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
         <v>247</v>
       </c>
@@ -18744,14 +18742,14 @@
       <c r="CJ129" s="1"/>
       <c r="CK129" s="1"/>
       <c r="CL129" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM129" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN129" s="1"/>
     </row>
-    <row r="130" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
         <v>248</v>
       </c>
@@ -18867,14 +18865,14 @@
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
       <c r="CL130" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM130" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM130" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN130" s="1"/>
     </row>
-    <row r="131" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
         <v>249</v>
       </c>
@@ -18990,14 +18988,14 @@
       <c r="CJ131" s="1"/>
       <c r="CK131" s="1"/>
       <c r="CL131" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM131" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN131" s="1"/>
     </row>
-    <row r="132" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>250</v>
       </c>
@@ -19117,7 +19115,7 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
     </row>
-    <row r="133" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
         <v>251</v>
       </c>
@@ -19237,7 +19235,7 @@
       <c r="CM133" s="1"/>
       <c r="CN133" s="1"/>
     </row>
-    <row r="134" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
         <v>252</v>
       </c>
@@ -19351,14 +19349,14 @@
       <c r="CJ134" s="1"/>
       <c r="CK134" s="1"/>
       <c r="CL134" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM134" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN134" s="1"/>
     </row>
-    <row r="135" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
         <v>253</v>
       </c>
@@ -19481,7 +19479,7 @@
       </c>
       <c r="CN135" s="1"/>
     </row>
-    <row r="136" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
         <v>254</v>
       </c>
@@ -19604,7 +19602,7 @@
       </c>
       <c r="CN136" s="1"/>
     </row>
-    <row r="137" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
         <v>255</v>
       </c>
@@ -19719,14 +19717,14 @@
       <c r="CJ137" s="1"/>
       <c r="CK137" s="1"/>
       <c r="CL137" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM137" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CN137" s="1"/>
     </row>
-    <row r="138" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
         <v>256</v>
       </c>
@@ -19841,14 +19839,14 @@
       <c r="CJ138" s="1"/>
       <c r="CK138" s="1"/>
       <c r="CL138" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM138" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN138" s="1"/>
     </row>
-    <row r="139" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
         <v>257</v>
       </c>
@@ -19964,14 +19962,14 @@
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
       <c r="CL139" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM139" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN139" s="1"/>
     </row>
-    <row r="140" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
         <v>258</v>
       </c>
@@ -20087,14 +20085,14 @@
       <c r="CJ140" s="1"/>
       <c r="CK140" s="1"/>
       <c r="CL140" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM140" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN140" s="1"/>
     </row>
-    <row r="141" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B141" s="6" t="s">
         <v>259</v>
       </c>
@@ -20210,14 +20208,14 @@
       <c r="CJ141" s="1"/>
       <c r="CK141" s="1"/>
       <c r="CL141" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM141" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM141" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN141" s="1"/>
     </row>
-    <row r="142" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
         <v>260</v>
       </c>
@@ -20333,14 +20331,14 @@
       <c r="CJ142" s="1"/>
       <c r="CK142" s="1"/>
       <c r="CL142" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM142" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN142" s="1"/>
     </row>
-    <row r="143" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
         <v>261</v>
       </c>
@@ -20456,14 +20454,14 @@
       <c r="CJ143" s="1"/>
       <c r="CK143" s="1"/>
       <c r="CL143" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM143" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN143" s="1"/>
     </row>
-    <row r="144" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
         <v>262</v>
       </c>
@@ -20579,14 +20577,14 @@
       <c r="CJ144" s="1"/>
       <c r="CK144" s="1"/>
       <c r="CL144" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM144" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM144" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN144" s="1"/>
     </row>
-    <row r="145" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B145" s="6" t="s">
         <v>263</v>
       </c>
@@ -20706,7 +20704,7 @@
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
     </row>
-    <row r="146" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
         <v>264</v>
       </c>
@@ -20826,7 +20824,7 @@
       <c r="CM146" s="1"/>
       <c r="CN146" s="1"/>
     </row>
-    <row r="147" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B147" s="6" t="s">
         <v>265</v>
       </c>
@@ -20940,14 +20938,14 @@
       <c r="CJ147" s="1"/>
       <c r="CK147" s="1"/>
       <c r="CL147" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM147" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN147" s="1"/>
     </row>
-    <row r="148" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
         <v>266</v>
       </c>
@@ -21070,7 +21068,7 @@
       </c>
       <c r="CN148" s="1"/>
     </row>
-    <row r="149" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
         <v>267</v>
       </c>
@@ -21193,7 +21191,7 @@
       </c>
       <c r="CN149" s="1"/>
     </row>
-    <row r="150" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
         <v>268</v>
       </c>
@@ -21308,14 +21306,14 @@
       <c r="CJ150" s="1"/>
       <c r="CK150" s="1"/>
       <c r="CL150" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM150" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CN150" s="1"/>
     </row>
-    <row r="151" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
         <v>269</v>
       </c>
@@ -21430,14 +21428,14 @@
       <c r="CJ151" s="1"/>
       <c r="CK151" s="1"/>
       <c r="CL151" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM151" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN151" s="1"/>
     </row>
-    <row r="152" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
         <v>270</v>
       </c>
@@ -21553,14 +21551,14 @@
       <c r="CJ152" s="1"/>
       <c r="CK152" s="1"/>
       <c r="CL152" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM152" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN152" s="1"/>
     </row>
-    <row r="153" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
         <v>271</v>
       </c>
@@ -21676,14 +21674,14 @@
       <c r="CJ153" s="1"/>
       <c r="CK153" s="1"/>
       <c r="CL153" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM153" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN153" s="1"/>
     </row>
-    <row r="154" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
         <v>272</v>
       </c>
@@ -21799,14 +21797,14 @@
       <c r="CJ154" s="1"/>
       <c r="CK154" s="1"/>
       <c r="CL154" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM154" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM154" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN154" s="1"/>
     </row>
-    <row r="155" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>273</v>
       </c>
@@ -21922,14 +21920,14 @@
       <c r="CJ155" s="1"/>
       <c r="CK155" s="1"/>
       <c r="CL155" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM155" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN155" s="1"/>
     </row>
-    <row r="156" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
         <v>274</v>
       </c>
@@ -22045,14 +22043,14 @@
       <c r="CJ156" s="1"/>
       <c r="CK156" s="1"/>
       <c r="CL156" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM156" s="1" t="s">
         <v>94</v>
       </c>
       <c r="CN156" s="1"/>
     </row>
-    <row r="157" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>275</v>
       </c>
@@ -22168,14 +22166,14 @@
       <c r="CJ157" s="1"/>
       <c r="CK157" s="1"/>
       <c r="CL157" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM157" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM157" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN157" s="1"/>
     </row>
-    <row r="158" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
@@ -22295,7 +22293,7 @@
       <c r="CM158" s="1"/>
       <c r="CN158" s="1"/>
     </row>
-    <row r="159" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
         <v>277</v>
       </c>
@@ -22415,7 +22413,7 @@
       <c r="CM159" s="1"/>
       <c r="CN159" s="1"/>
     </row>
-    <row r="160" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
         <v>278</v>
       </c>
@@ -22535,7 +22533,7 @@
       <c r="CM160" s="1"/>
       <c r="CN160" s="1"/>
     </row>
-    <row r="161" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B161" s="6" t="s">
         <v>279</v>
       </c>
@@ -22649,14 +22647,14 @@
       <c r="CJ161" s="1"/>
       <c r="CK161" s="1"/>
       <c r="CL161" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM161" s="1" t="s">
         <v>92</v>
       </c>
       <c r="CN161" s="1"/>
     </row>
-    <row r="162" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B162" s="6" t="s">
         <v>280</v>
       </c>
@@ -22779,14 +22777,14 @@
       </c>
       <c r="CN162" s="1"/>
     </row>
-    <row r="163" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B163" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C163" s="32">
         <v>221</v>
       </c>
-      <c r="D163" s="21">
+      <c r="D163" s="1">
         <v>1000000</v>
       </c>
       <c r="E163" s="27" t="s">
@@ -22902,7 +22900,7 @@
       </c>
       <c r="CN163" s="1"/>
     </row>
-    <row r="164" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
         <v>282</v>
       </c>
@@ -23017,14 +23015,14 @@
       <c r="CJ164" s="1"/>
       <c r="CK164" s="1"/>
       <c r="CL164" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM164" s="1" t="s">
         <v>99</v>
       </c>
       <c r="CN164" s="1"/>
     </row>
-    <row r="165" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B165" s="6" t="s">
         <v>283</v>
       </c>
@@ -23119,7 +23117,7 @@
         <v>62</v>
       </c>
       <c r="BU165" s="10">
-        <f t="shared" ref="BU165:BU171" si="57">AVERAGE(AY165,AZ165,BA165)</f>
+        <f t="shared" ref="BU165:BU170" si="57">AVERAGE(AY165,AZ165,BA165)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="BV165" s="1"/>
@@ -23139,14 +23137,14 @@
       <c r="CJ165" s="1"/>
       <c r="CK165" s="1"/>
       <c r="CL165" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM165" s="1" t="s">
         <v>93</v>
       </c>
       <c r="CN165" s="1"/>
     </row>
-    <row r="166" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B166" s="6" t="s">
         <v>284</v>
       </c>
@@ -23238,7 +23236,7 @@
       <c r="BR166" s="1"/>
       <c r="BS166" s="1"/>
       <c r="BT166" s="10">
-        <f t="shared" ref="BT166:BT171" si="58">AVERAGE(BB166,BC166,BD166)</f>
+        <f t="shared" ref="BT166:BT170" si="58">AVERAGE(BB166,BC166,BD166)</f>
         <v>-366.66666666666669</v>
       </c>
       <c r="BU166" s="10">
@@ -23262,14 +23260,14 @@
       <c r="CJ166" s="1"/>
       <c r="CK166" s="1"/>
       <c r="CL166" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM166" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="CM166" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="CN166" s="1"/>
     </row>
-    <row r="167" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B167" s="6" t="s">
         <v>285</v>
       </c>
@@ -23385,14 +23383,14 @@
       <c r="CJ167" s="1"/>
       <c r="CK167" s="1"/>
       <c r="CL167" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM167" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN167" s="1"/>
     </row>
-    <row r="168" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B168" s="6" t="s">
         <v>286</v>
       </c>
@@ -23508,14 +23506,14 @@
       <c r="CJ168" s="1"/>
       <c r="CK168" s="1"/>
       <c r="CL168" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM168" s="1" t="s">
         <v>100</v>
       </c>
       <c r="CN168" s="1"/>
     </row>
-    <row r="169" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B169" s="6" t="s">
         <v>287</v>
       </c>
@@ -23526,7 +23524,7 @@
         <v>63</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -23573,27 +23571,27 @@
       <c r="AV169" s="1"/>
       <c r="AW169" s="1"/>
       <c r="AX169" s="1"/>
-      <c r="AY169" s="10">
+      <c r="AY169" s="9">
         <v>-500</v>
       </c>
-      <c r="AZ169" s="10">
+      <c r="AZ169" s="9">
         <v>300</v>
       </c>
-      <c r="BA169" s="10">
-        <v>100</v>
-      </c>
-      <c r="BB169" s="10">
-        <v>600</v>
-      </c>
-      <c r="BC169" s="10">
-        <v>-700</v>
-      </c>
-      <c r="BD169" s="10">
-        <v>-1000</v>
-      </c>
-      <c r="BE169" s="10"/>
-      <c r="BF169" s="10"/>
-      <c r="BG169" s="10"/>
+      <c r="BA169" s="9">
+        <v>-200</v>
+      </c>
+      <c r="BB169" s="9">
+        <v>-500</v>
+      </c>
+      <c r="BC169" s="9">
+        <v>300</v>
+      </c>
+      <c r="BD169" s="9">
+        <v>200</v>
+      </c>
+      <c r="BE169" s="9"/>
+      <c r="BF169" s="9"/>
+      <c r="BG169" s="9"/>
       <c r="BH169" s="1"/>
       <c r="BI169" s="1"/>
       <c r="BJ169" s="1"/>
@@ -23608,11 +23606,11 @@
       <c r="BS169" s="1"/>
       <c r="BT169" s="10">
         <f t="shared" si="58"/>
-        <v>-366.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="BU169" s="10">
         <f t="shared" si="57"/>
-        <v>-33.333333333333336</v>
+        <v>-133.33333333333334</v>
       </c>
       <c r="BV169" s="1"/>
       <c r="BW169" s="1"/>
@@ -23631,24 +23629,24 @@
       <c r="CJ169" s="1"/>
       <c r="CK169" s="1"/>
       <c r="CL169" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM169" s="1" t="s">
-        <v>365</v>
+        <v>94</v>
       </c>
       <c r="CN169" s="1"/>
     </row>
-    <row r="170" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B170" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C170" s="32">
         <v>221</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E170" s="24" t="s">
+      <c r="E170" s="38" t="s">
         <v>94</v>
       </c>
       <c r="F170" s="1"/>
@@ -23697,22 +23695,22 @@
       <c r="AW170" s="1"/>
       <c r="AX170" s="1"/>
       <c r="AY170" s="9">
-        <v>-500</v>
+        <v>500</v>
       </c>
       <c r="AZ170" s="9">
         <v>300</v>
       </c>
       <c r="BA170" s="9">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="BB170" s="9">
         <v>-500</v>
       </c>
       <c r="BC170" s="9">
-        <v>300</v>
+        <v>-500</v>
       </c>
       <c r="BD170" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="BE170" s="9"/>
       <c r="BF170" s="9"/>
@@ -23729,13 +23727,13 @@
       <c r="BQ170" s="1"/>
       <c r="BR170" s="1"/>
       <c r="BS170" s="1"/>
-      <c r="BT170" s="10">
+      <c r="BT170" s="38">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="BU170" s="10">
         <f t="shared" si="57"/>
-        <v>-133.33333333333334</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BV170" s="1"/>
       <c r="BW170" s="1"/>
@@ -23753,27 +23751,24 @@
       <c r="CI170" s="1"/>
       <c r="CJ170" s="1"/>
       <c r="CK170" s="1"/>
-      <c r="CL170" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM170" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="CL170" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CM170" s="35"/>
       <c r="CN170" s="1"/>
     </row>
-    <row r="171" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B171" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C171" s="32">
-        <v>221</v>
-      </c>
-      <c r="D171" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E171" s="38" t="s">
-        <v>94</v>
-      </c>
+      <c r="C171" s="33">
+        <v>222</v>
+      </c>
+      <c r="D171" s="9">
+        <f>BT171/BU171</f>
+        <v>1.0529032258064519</v>
+      </c>
+      <c r="E171" s="9"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -23801,12 +23796,24 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
-      <c r="AH171" s="1"/>
-      <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
-      <c r="AK171" s="1"/>
-      <c r="AL171" s="1"/>
+      <c r="AG171" s="9">
+        <v>2500</v>
+      </c>
+      <c r="AH171" s="9">
+        <v>1500</v>
+      </c>
+      <c r="AI171" s="9">
+        <v>800</v>
+      </c>
+      <c r="AJ171" s="9">
+        <v>1700</v>
+      </c>
+      <c r="AK171" s="9">
+        <v>900</v>
+      </c>
+      <c r="AL171" s="9">
+        <v>500</v>
+      </c>
       <c r="AM171" s="1"/>
       <c r="AN171" s="1"/>
       <c r="AO171" s="1"/>
@@ -23819,27 +23826,15 @@
       <c r="AV171" s="1"/>
       <c r="AW171" s="1"/>
       <c r="AX171" s="1"/>
-      <c r="AY171" s="9">
-        <v>500</v>
-      </c>
-      <c r="AZ171" s="9">
-        <v>300</v>
-      </c>
-      <c r="BA171" s="9">
-        <v>200</v>
-      </c>
-      <c r="BB171" s="9">
-        <v>500</v>
-      </c>
-      <c r="BC171" s="9">
-        <v>500</v>
-      </c>
-      <c r="BD171" s="9">
-        <v>100</v>
-      </c>
-      <c r="BE171" s="9"/>
-      <c r="BF171" s="9"/>
-      <c r="BG171" s="9"/>
+      <c r="AY171" s="1"/>
+      <c r="AZ171" s="1"/>
+      <c r="BA171" s="1"/>
+      <c r="BB171" s="1"/>
+      <c r="BC171" s="1"/>
+      <c r="BD171" s="1"/>
+      <c r="BE171" s="1"/>
+      <c r="BF171" s="1"/>
+      <c r="BG171" s="1"/>
       <c r="BH171" s="1"/>
       <c r="BI171" s="1"/>
       <c r="BJ171" s="1"/>
@@ -23852,13 +23847,13 @@
       <c r="BQ171" s="1"/>
       <c r="BR171" s="1"/>
       <c r="BS171" s="1"/>
-      <c r="BT171" s="10">
-        <f t="shared" si="58"/>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="BU171" s="10">
-        <f t="shared" si="57"/>
-        <v>333.33333333333331</v>
+      <c r="BT171" s="1">
+        <f>AJ171/AG171</f>
+        <v>0.68</v>
+      </c>
+      <c r="BU171" s="1">
+        <f>(AVERAGE(AJ171,AK171,AL171)/AVERAGE(AG171,AH171,AI171))</f>
+        <v>0.64583333333333326</v>
       </c>
       <c r="BV171" s="1"/>
       <c r="BW171" s="1"/>
@@ -23876,13 +23871,13 @@
       <c r="CI171" s="1"/>
       <c r="CJ171" s="1"/>
       <c r="CK171" s="1"/>
-      <c r="CL171" s="35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CM171" s="35"/>
+      <c r="CL171" s="1">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="CM171" s="1"/>
       <c r="CN171" s="1"/>
     </row>
-    <row r="172" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
         <v>290</v>
       </c>
@@ -23891,7 +23886,7 @@
       </c>
       <c r="D172" s="9">
         <f>BT172/BU172</f>
-        <v>1.0529032258064519</v>
+        <v>1</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="1"/>
@@ -23921,23 +23916,23 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
-      <c r="AG172" s="9">
-        <v>2500</v>
-      </c>
-      <c r="AH172" s="9">
-        <v>1500</v>
-      </c>
-      <c r="AI172" s="9">
-        <v>800</v>
-      </c>
-      <c r="AJ172" s="9">
-        <v>1700</v>
-      </c>
-      <c r="AK172" s="9">
-        <v>900</v>
-      </c>
-      <c r="AL172" s="9">
-        <v>500</v>
+      <c r="AG172" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AH172" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI172" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ172" s="10">
+        <v>700</v>
+      </c>
+      <c r="AK172" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL172" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="AM172" s="1"/>
       <c r="AN172" s="1"/>
@@ -23974,11 +23969,11 @@
       <c r="BS172" s="1"/>
       <c r="BT172" s="1">
         <f>AJ172/AG172</f>
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="BU172" s="1">
         <f>(AVERAGE(AJ172,AK172,AL172)/AVERAGE(AG172,AH172,AI172))</f>
-        <v>0.64583333333333326</v>
+        <v>0.7</v>
       </c>
       <c r="BV172" s="1"/>
       <c r="BW172" s="1"/>
@@ -23997,23 +23992,24 @@
       <c r="CJ172" s="1"/>
       <c r="CK172" s="1"/>
       <c r="CL172" s="1">
-        <v>1.0529999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM172" s="1"/>
       <c r="CN172" s="1"/>
     </row>
-    <row r="173" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B173" s="6" t="s">
         <v>291</v>
       </c>
       <c r="C173" s="33">
         <v>222</v>
       </c>
-      <c r="D173" s="9">
-        <f>BT173/BU173</f>
-        <v>1</v>
-      </c>
-      <c r="E173" s="9"/>
+      <c r="D173" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -24041,8 +24037,8 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="10">
-        <v>1000</v>
+      <c r="AG173" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AH173" s="10" t="s">
         <v>62</v>
@@ -24050,8 +24046,8 @@
       <c r="AI173" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AJ173" s="10">
-        <v>700</v>
+      <c r="AJ173" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AK173" s="10" t="s">
         <v>62</v>
@@ -24092,13 +24088,11 @@
       <c r="BQ173" s="1"/>
       <c r="BR173" s="1"/>
       <c r="BS173" s="1"/>
-      <c r="BT173" s="1">
-        <f>AJ173/AG173</f>
-        <v>0.7</v>
-      </c>
-      <c r="BU173" s="1">
-        <f>(AVERAGE(AJ173,AK173,AL173)/AVERAGE(AG173,AH173,AI173))</f>
-        <v>0.7</v>
+      <c r="BT173" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU173" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BV173" s="1"/>
       <c r="BW173" s="1"/>
@@ -24116,24 +24110,26 @@
       <c r="CI173" s="1"/>
       <c r="CJ173" s="1"/>
       <c r="CK173" s="1"/>
-      <c r="CL173" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM173" s="1"/>
+      <c r="CL173" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM173" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN173" s="1"/>
     </row>
-    <row r="174" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B174" s="6" t="s">
         <v>292</v>
       </c>
       <c r="C174" s="33">
         <v>222</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>92</v>
+      <c r="D174" s="39">
+        <v>0</v>
+      </c>
+      <c r="E174" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -24162,23 +24158,23 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
-      <c r="AG174" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH174" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI174" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ174" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK174" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL174" s="9" t="s">
-        <v>62</v>
+      <c r="AG174" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH174" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI174" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ174" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK174" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL174" s="9">
+        <v>0</v>
       </c>
       <c r="AM174" s="1"/>
       <c r="AN174" s="1"/>
@@ -24213,11 +24209,11 @@
       <c r="BQ174" s="1"/>
       <c r="BR174" s="1"/>
       <c r="BS174" s="1"/>
-      <c r="BT174" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU174" s="1" t="s">
-        <v>62</v>
+      <c r="BT174" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU174" s="1">
+        <v>0</v>
       </c>
       <c r="BV174" s="1"/>
       <c r="BW174" s="1"/>
@@ -24235,26 +24231,26 @@
       <c r="CI174" s="1"/>
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
-      <c r="CL174" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM174" s="1" t="s">
+      <c r="CL174" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM174" s="35" t="s">
         <v>92</v>
       </c>
       <c r="CN174" s="1"/>
     </row>
-    <row r="175" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B175" s="6" t="s">
         <v>293</v>
       </c>
       <c r="C175" s="33">
         <v>222</v>
       </c>
-      <c r="D175" s="39">
-        <v>0</v>
+      <c r="D175" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E175" s="40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -24283,23 +24279,23 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
-      <c r="AG175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK175" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL175" s="9">
-        <v>0</v>
+      <c r="AG175" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH175" s="10">
+        <v>300</v>
+      </c>
+      <c r="AI175" s="10">
+        <v>400</v>
+      </c>
+      <c r="AJ175" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK175" s="10">
+        <v>700</v>
+      </c>
+      <c r="AL175" s="10">
+        <v>800</v>
       </c>
       <c r="AM175" s="1"/>
       <c r="AN175" s="1"/>
@@ -24334,11 +24330,12 @@
       <c r="BQ175" s="1"/>
       <c r="BR175" s="1"/>
       <c r="BS175" s="1"/>
-      <c r="BT175" s="1">
-        <v>0</v>
+      <c r="BT175" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BU175" s="1">
-        <v>0</v>
+        <f t="shared" ref="BU175:BU177" si="59">(AVERAGE(AJ175,AK175,AL175)/AVERAGE(AG175,AH175,AI175))</f>
+        <v>2.1428571428571428</v>
       </c>
       <c r="BV175" s="1"/>
       <c r="BW175" s="1"/>
@@ -24356,15 +24353,15 @@
       <c r="CI175" s="1"/>
       <c r="CJ175" s="1"/>
       <c r="CK175" s="1"/>
-      <c r="CL175" s="35" t="s">
-        <v>364</v>
+      <c r="CL175" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="CM175" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CN175" s="1"/>
     </row>
-    <row r="176" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B176" s="6" t="s">
         <v>294</v>
       </c>
@@ -24417,7 +24414,7 @@
         <v>62</v>
       </c>
       <c r="AK176" s="10">
-        <v>700</v>
+        <v>-800</v>
       </c>
       <c r="AL176" s="10">
         <v>800</v>
@@ -24455,12 +24452,12 @@
       <c r="BQ176" s="1"/>
       <c r="BR176" s="1"/>
       <c r="BS176" s="1"/>
-      <c r="BT176" s="1" t="s">
+      <c r="BT176" s="9" t="s">
         <v>62</v>
       </c>
       <c r="BU176" s="1">
-        <f t="shared" ref="BU176:BU178" si="59">(AVERAGE(AJ176,AK176,AL176)/AVERAGE(AG176,AH176,AI176))</f>
-        <v>2.1428571428571428</v>
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
       <c r="BV176" s="1"/>
       <c r="BW176" s="1"/>
@@ -24479,25 +24476,25 @@
       <c r="CJ176" s="1"/>
       <c r="CK176" s="1"/>
       <c r="CL176" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM176" s="35" t="s">
         <v>93</v>
       </c>
       <c r="CN176" s="1"/>
     </row>
-    <row r="177" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B177" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C177" s="33">
         <v>222</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E177" s="40" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -24526,23 +24523,23 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
-      <c r="AG177" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH177" s="10">
+      <c r="AG177" s="25">
+        <v>700</v>
+      </c>
+      <c r="AH177" s="25">
         <v>300</v>
       </c>
-      <c r="AI177" s="10">
+      <c r="AI177" s="25">
         <v>400</v>
       </c>
-      <c r="AJ177" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK177" s="10">
-        <v>-800</v>
-      </c>
-      <c r="AL177" s="10">
-        <v>800</v>
+      <c r="AJ177" s="25">
+        <v>500</v>
+      </c>
+      <c r="AK177" s="25">
+        <v>-300</v>
+      </c>
+      <c r="AL177" s="25">
+        <v>-200</v>
       </c>
       <c r="AM177" s="1"/>
       <c r="AN177" s="1"/>
@@ -24577,8 +24574,9 @@
       <c r="BQ177" s="1"/>
       <c r="BR177" s="1"/>
       <c r="BS177" s="1"/>
-      <c r="BT177" s="9" t="s">
-        <v>62</v>
+      <c r="BT177" s="1">
+        <f t="shared" ref="BT177" si="60">AJ177/AG177</f>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BU177" s="1">
         <f t="shared" si="59"/>
@@ -24600,27 +24598,26 @@
       <c r="CI177" s="1"/>
       <c r="CJ177" s="1"/>
       <c r="CK177" s="1"/>
-      <c r="CL177" s="1" t="s">
-        <v>364</v>
+      <c r="CL177" s="41">
+        <v>1000000</v>
       </c>
       <c r="CM177" s="35" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="CN177" s="1"/>
     </row>
-    <row r="178" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B178" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C178" s="33">
-        <v>222</v>
-      </c>
-      <c r="D178" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E178" s="40" t="s">
-        <v>115</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D178" s="9">
+        <f>BT178/BU178</f>
+        <v>1.3352490421455938</v>
+      </c>
+      <c r="E178" s="9"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -24648,30 +24645,30 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
-      <c r="AG178" s="25">
+      <c r="AG178" s="1"/>
+      <c r="AH178" s="1"/>
+      <c r="AI178" s="1"/>
+      <c r="AJ178" s="1"/>
+      <c r="AK178" s="1"/>
+      <c r="AL178" s="1"/>
+      <c r="AM178" s="9">
+        <v>1800</v>
+      </c>
+      <c r="AN178" s="9">
+        <v>1500</v>
+      </c>
+      <c r="AO178" s="9">
+        <v>800</v>
+      </c>
+      <c r="AP178" s="9">
+        <v>1700</v>
+      </c>
+      <c r="AQ178" s="9">
         <v>700</v>
       </c>
-      <c r="AH178" s="25">
-        <v>300</v>
-      </c>
-      <c r="AI178" s="25">
-        <v>400</v>
-      </c>
-      <c r="AJ178" s="25">
+      <c r="AR178" s="9">
         <v>500</v>
       </c>
-      <c r="AK178" s="25">
-        <v>-300</v>
-      </c>
-      <c r="AL178" s="25">
-        <v>-200</v>
-      </c>
-      <c r="AM178" s="1"/>
-      <c r="AN178" s="1"/>
-      <c r="AO178" s="1"/>
-      <c r="AP178" s="1"/>
-      <c r="AQ178" s="1"/>
-      <c r="AR178" s="1"/>
       <c r="AS178" s="1"/>
       <c r="AT178" s="1"/>
       <c r="AU178" s="1"/>
@@ -24700,12 +24697,12 @@
       <c r="BR178" s="1"/>
       <c r="BS178" s="1"/>
       <c r="BT178" s="1">
-        <f t="shared" ref="BT178" si="60">AJ178/AG178</f>
-        <v>0.7142857142857143</v>
+        <f>AP178/AM178</f>
+        <v>0.94444444444444442</v>
       </c>
       <c r="BU178" s="1">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f>(AVERAGE(AP178,AQ178,AR178)/AVERAGE(AM178,AN178,AO178))</f>
+        <v>0.70731707317073167</v>
       </c>
       <c r="BV178" s="1"/>
       <c r="BW178" s="1"/>
@@ -24723,15 +24720,13 @@
       <c r="CI178" s="1"/>
       <c r="CJ178" s="1"/>
       <c r="CK178" s="1"/>
-      <c r="CL178" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="CM178" s="35" t="s">
-        <v>98</v>
-      </c>
+      <c r="CL178" s="1">
+        <v>1.329</v>
+      </c>
+      <c r="CM178" s="1"/>
       <c r="CN178" s="1"/>
     </row>
-    <row r="179" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B179" s="6" t="s">
         <v>297</v>
       </c>
@@ -24740,7 +24735,7 @@
       </c>
       <c r="D179" s="9">
         <f>BT179/BU179</f>
-        <v>1.3352490421455938</v>
+        <v>1</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="1"/>
@@ -24776,23 +24771,23 @@
       <c r="AJ179" s="1"/>
       <c r="AK179" s="1"/>
       <c r="AL179" s="1"/>
-      <c r="AM179" s="9">
-        <v>1800</v>
-      </c>
-      <c r="AN179" s="9">
-        <v>1500</v>
-      </c>
-      <c r="AO179" s="9">
-        <v>800</v>
-      </c>
-      <c r="AP179" s="9">
-        <v>1700</v>
-      </c>
-      <c r="AQ179" s="9">
+      <c r="AM179" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AN179" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO179" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP179" s="10">
         <v>700</v>
       </c>
-      <c r="AR179" s="9">
-        <v>500</v>
+      <c r="AQ179" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR179" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="AS179" s="1"/>
       <c r="AT179" s="1"/>
@@ -24821,13 +24816,13 @@
       <c r="BQ179" s="1"/>
       <c r="BR179" s="1"/>
       <c r="BS179" s="1"/>
-      <c r="BT179" s="1">
+      <c r="BT179" s="9">
         <f>AP179/AM179</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="BU179" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="BU179" s="9">
         <f>(AVERAGE(AP179,AQ179,AR179)/AVERAGE(AM179,AN179,AO179))</f>
-        <v>0.70731707317073167</v>
+        <v>0.7</v>
       </c>
       <c r="BV179" s="1"/>
       <c r="BW179" s="1"/>
@@ -24846,23 +24841,24 @@
       <c r="CJ179" s="1"/>
       <c r="CK179" s="1"/>
       <c r="CL179" s="1">
-        <v>1.329</v>
+        <v>1</v>
       </c>
       <c r="CM179" s="1"/>
       <c r="CN179" s="1"/>
     </row>
-    <row r="180" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B180" s="6" t="s">
         <v>298</v>
       </c>
       <c r="C180" s="33">
         <v>223</v>
       </c>
-      <c r="D180" s="9">
-        <f>BT180/BU180</f>
-        <v>1</v>
-      </c>
-      <c r="E180" s="9"/>
+      <c r="D180" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E180" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -24896,8 +24892,8 @@
       <c r="AJ180" s="1"/>
       <c r="AK180" s="1"/>
       <c r="AL180" s="1"/>
-      <c r="AM180" s="10">
-        <v>1000</v>
+      <c r="AM180" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AN180" s="10" t="s">
         <v>62</v>
@@ -24905,8 +24901,8 @@
       <c r="AO180" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AP180" s="10">
-        <v>700</v>
+      <c r="AP180" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AQ180" s="10" t="s">
         <v>62</v>
@@ -24941,13 +24937,11 @@
       <c r="BQ180" s="1"/>
       <c r="BR180" s="1"/>
       <c r="BS180" s="1"/>
-      <c r="BT180" s="9">
-        <f>AP180/AM180</f>
-        <v>0.7</v>
-      </c>
-      <c r="BU180" s="9">
-        <f>(AVERAGE(AP180,AQ180,AR180)/AVERAGE(AM180,AN180,AO180))</f>
-        <v>0.7</v>
+      <c r="BT180" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU180" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BV180" s="1"/>
       <c r="BW180" s="1"/>
@@ -24965,24 +24959,26 @@
       <c r="CI180" s="1"/>
       <c r="CJ180" s="1"/>
       <c r="CK180" s="1"/>
-      <c r="CL180" s="1">
-        <v>1</v>
-      </c>
-      <c r="CM180" s="1"/>
+      <c r="CL180" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM180" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN180" s="1"/>
     </row>
-    <row r="181" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B181" s="6" t="s">
         <v>299</v>
       </c>
       <c r="C181" s="33">
         <v>223</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E181" s="31" t="s">
-        <v>92</v>
+      <c r="D181" s="39">
+        <v>0</v>
+      </c>
+      <c r="E181" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -25017,23 +25013,23 @@
       <c r="AJ181" s="1"/>
       <c r="AK181" s="1"/>
       <c r="AL181" s="1"/>
-      <c r="AM181" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN181" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO181" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP181" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ181" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR181" s="9" t="s">
-        <v>62</v>
+      <c r="AM181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ181" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR181" s="9">
+        <v>0</v>
       </c>
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
@@ -25062,11 +25058,11 @@
       <c r="BQ181" s="1"/>
       <c r="BR181" s="1"/>
       <c r="BS181" s="1"/>
-      <c r="BT181" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU181" s="9" t="s">
-        <v>62</v>
+      <c r="BT181" s="9">
+        <v>0</v>
+      </c>
+      <c r="BU181" s="9">
+        <v>0</v>
       </c>
       <c r="BV181" s="1"/>
       <c r="BW181" s="1"/>
@@ -25084,26 +25080,26 @@
       <c r="CI181" s="1"/>
       <c r="CJ181" s="1"/>
       <c r="CK181" s="1"/>
-      <c r="CL181" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM181" s="1" t="s">
+      <c r="CL181" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM181" s="35" t="s">
         <v>92</v>
       </c>
       <c r="CN181" s="1"/>
     </row>
-    <row r="182" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B182" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C182" s="33">
         <v>223</v>
       </c>
-      <c r="D182" s="39">
-        <v>0</v>
+      <c r="D182" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -25138,23 +25134,23 @@
       <c r="AJ182" s="1"/>
       <c r="AK182" s="1"/>
       <c r="AL182" s="1"/>
-      <c r="AM182" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN182" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO182" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP182" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ182" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR182" s="9">
-        <v>0</v>
+      <c r="AM182" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN182" s="10">
+        <v>550</v>
+      </c>
+      <c r="AO182" s="10">
+        <v>400</v>
+      </c>
+      <c r="AP182" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ182" s="10">
+        <v>700</v>
+      </c>
+      <c r="AR182" s="10">
+        <v>750</v>
       </c>
       <c r="AS182" s="1"/>
       <c r="AT182" s="1"/>
@@ -25183,11 +25179,12 @@
       <c r="BQ182" s="1"/>
       <c r="BR182" s="1"/>
       <c r="BS182" s="1"/>
-      <c r="BT182" s="9">
-        <v>0</v>
+      <c r="BT182" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BU182" s="9">
-        <v>0</v>
+        <f t="shared" ref="BU182:BU184" si="61">(AVERAGE(AP182,AQ182,AR182)/AVERAGE(AM182,AN182,AO182))</f>
+        <v>1.5263157894736843</v>
       </c>
       <c r="BV182" s="1"/>
       <c r="BW182" s="1"/>
@@ -25205,15 +25202,15 @@
       <c r="CI182" s="1"/>
       <c r="CJ182" s="1"/>
       <c r="CK182" s="1"/>
-      <c r="CL182" s="35" t="s">
-        <v>364</v>
+      <c r="CL182" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="CM182" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CN182" s="1"/>
     </row>
-    <row r="183" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B183" s="6" t="s">
         <v>301</v>
       </c>
@@ -25263,10 +25260,10 @@
         <v>62</v>
       </c>
       <c r="AN183" s="10">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="AO183" s="10">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AP183" s="10" t="s">
         <v>62</v>
@@ -25275,7 +25272,7 @@
         <v>700</v>
       </c>
       <c r="AR183" s="10">
-        <v>750</v>
+        <v>-700</v>
       </c>
       <c r="AS183" s="1"/>
       <c r="AT183" s="1"/>
@@ -25308,8 +25305,8 @@
         <v>62</v>
       </c>
       <c r="BU183" s="9">
-        <f t="shared" ref="BU183:BU185" si="61">(AVERAGE(AP183,AQ183,AR183)/AVERAGE(AM183,AN183,AO183))</f>
-        <v>1.5263157894736843</v>
+        <f t="shared" si="61"/>
+        <v>0</v>
       </c>
       <c r="BV183" s="1"/>
       <c r="BW183" s="1"/>
@@ -25328,61 +25325,61 @@
       <c r="CJ183" s="1"/>
       <c r="CK183" s="1"/>
       <c r="CL183" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM183" s="35" t="s">
         <v>93</v>
       </c>
       <c r="CN183" s="1"/>
     </row>
-    <row r="184" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C184" s="33">
         <v>223</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E184" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
-      <c r="Y184" s="1"/>
-      <c r="Z184" s="1"/>
-      <c r="AA184" s="1"/>
-      <c r="AB184" s="1"/>
-      <c r="AC184" s="1"/>
-      <c r="AD184" s="1"/>
-      <c r="AE184" s="1"/>
-      <c r="AF184" s="1"/>
-      <c r="AG184" s="1"/>
-      <c r="AH184" s="1"/>
-      <c r="AI184" s="1"/>
-      <c r="AJ184" s="1"/>
-      <c r="AK184" s="1"/>
-      <c r="AL184" s="1"/>
-      <c r="AM184" s="10" t="s">
-        <v>62</v>
+      <c r="E184" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="9"/>
+      <c r="L184" s="9"/>
+      <c r="M184" s="9"/>
+      <c r="N184" s="9"/>
+      <c r="O184" s="9"/>
+      <c r="P184" s="9"/>
+      <c r="Q184" s="9"/>
+      <c r="R184" s="9"/>
+      <c r="S184" s="9"/>
+      <c r="T184" s="9"/>
+      <c r="U184" s="9"/>
+      <c r="V184" s="9"/>
+      <c r="W184" s="9"/>
+      <c r="X184" s="9"/>
+      <c r="Y184" s="9"/>
+      <c r="Z184" s="9"/>
+      <c r="AA184" s="9"/>
+      <c r="AB184" s="9"/>
+      <c r="AC184" s="9"/>
+      <c r="AD184" s="9"/>
+      <c r="AE184" s="9"/>
+      <c r="AF184" s="9"/>
+      <c r="AG184" s="9"/>
+      <c r="AH184" s="9"/>
+      <c r="AI184" s="9"/>
+      <c r="AJ184" s="9"/>
+      <c r="AK184" s="9"/>
+      <c r="AL184" s="9"/>
+      <c r="AM184" s="10">
+        <v>800</v>
       </c>
       <c r="AN184" s="10">
         <v>300</v>
@@ -25390,44 +25387,45 @@
       <c r="AO184" s="10">
         <v>500</v>
       </c>
-      <c r="AP184" s="10" t="s">
-        <v>62</v>
+      <c r="AP184" s="10">
+        <v>700</v>
       </c>
       <c r="AQ184" s="10">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="AR184" s="10">
-        <v>-700</v>
-      </c>
-      <c r="AS184" s="1"/>
-      <c r="AT184" s="1"/>
-      <c r="AU184" s="1"/>
-      <c r="AV184" s="1"/>
-      <c r="AW184" s="1"/>
-      <c r="AX184" s="1"/>
-      <c r="AY184" s="1"/>
-      <c r="AZ184" s="1"/>
-      <c r="BA184" s="1"/>
-      <c r="BB184" s="1"/>
-      <c r="BC184" s="1"/>
-      <c r="BD184" s="1"/>
-      <c r="BE184" s="1"/>
-      <c r="BF184" s="1"/>
-      <c r="BG184" s="1"/>
-      <c r="BH184" s="1"/>
-      <c r="BI184" s="1"/>
-      <c r="BJ184" s="1"/>
-      <c r="BK184" s="1"/>
-      <c r="BL184" s="1"/>
-      <c r="BM184" s="1"/>
-      <c r="BN184" s="1"/>
-      <c r="BO184" s="1"/>
-      <c r="BP184" s="1"/>
-      <c r="BQ184" s="1"/>
-      <c r="BR184" s="1"/>
-      <c r="BS184" s="1"/>
-      <c r="BT184" s="9" t="s">
-        <v>62</v>
+        <v>-500</v>
+      </c>
+      <c r="AS184" s="9"/>
+      <c r="AT184" s="9"/>
+      <c r="AU184" s="9"/>
+      <c r="AV184" s="9"/>
+      <c r="AW184" s="9"/>
+      <c r="AX184" s="9"/>
+      <c r="AY184" s="9"/>
+      <c r="AZ184" s="9"/>
+      <c r="BA184" s="9"/>
+      <c r="BB184" s="9"/>
+      <c r="BC184" s="9"/>
+      <c r="BD184" s="9"/>
+      <c r="BE184" s="9"/>
+      <c r="BF184" s="9"/>
+      <c r="BG184" s="9"/>
+      <c r="BH184" s="9"/>
+      <c r="BI184" s="9"/>
+      <c r="BJ184" s="9"/>
+      <c r="BK184" s="9"/>
+      <c r="BL184" s="9"/>
+      <c r="BM184" s="9"/>
+      <c r="BN184" s="9"/>
+      <c r="BO184" s="9"/>
+      <c r="BP184" s="9"/>
+      <c r="BQ184" s="9"/>
+      <c r="BR184" s="9"/>
+      <c r="BS184" s="9"/>
+      <c r="BT184" s="9">
+        <f>AP184/AM184</f>
+        <v>0.875</v>
       </c>
       <c r="BU184" s="9">
         <f t="shared" si="61"/>
@@ -25449,112 +25447,111 @@
       <c r="CI184" s="1"/>
       <c r="CJ184" s="1"/>
       <c r="CK184" s="1"/>
-      <c r="CL184" s="1" t="s">
-        <v>364</v>
+      <c r="CL184" s="41">
+        <v>1000000</v>
       </c>
       <c r="CM184" s="35" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="CN184" s="1"/>
     </row>
-    <row r="185" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B185" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C185" s="33">
-        <v>223</v>
-      </c>
-      <c r="D185" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E185" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9"/>
-      <c r="J185" s="9"/>
-      <c r="K185" s="9"/>
-      <c r="L185" s="9"/>
-      <c r="M185" s="9"/>
-      <c r="N185" s="9"/>
-      <c r="O185" s="9"/>
-      <c r="P185" s="9"/>
-      <c r="Q185" s="9"/>
-      <c r="R185" s="9"/>
-      <c r="S185" s="9"/>
-      <c r="T185" s="9"/>
-      <c r="U185" s="9"/>
-      <c r="V185" s="9"/>
-      <c r="W185" s="9"/>
-      <c r="X185" s="9"/>
-      <c r="Y185" s="9"/>
-      <c r="Z185" s="9"/>
-      <c r="AA185" s="9"/>
-      <c r="AB185" s="9"/>
-      <c r="AC185" s="9"/>
-      <c r="AD185" s="9"/>
-      <c r="AE185" s="9"/>
-      <c r="AF185" s="9"/>
-      <c r="AG185" s="9"/>
-      <c r="AH185" s="9"/>
-      <c r="AI185" s="9"/>
-      <c r="AJ185" s="9"/>
-      <c r="AK185" s="9"/>
-      <c r="AL185" s="9"/>
-      <c r="AM185" s="10">
+      <c r="C185" s="32">
+        <v>224</v>
+      </c>
+      <c r="D185" s="1">
+        <f>BT185/BU185</f>
+        <v>1.103787878787879</v>
+      </c>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+      <c r="Y185" s="1"/>
+      <c r="Z185" s="1"/>
+      <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
+      <c r="AC185" s="1"/>
+      <c r="AD185" s="1"/>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1"/>
+      <c r="AG185" s="1"/>
+      <c r="AH185" s="1"/>
+      <c r="AI185" s="1"/>
+      <c r="AJ185" s="1"/>
+      <c r="AK185" s="1"/>
+      <c r="AL185" s="1"/>
+      <c r="AM185" s="10"/>
+      <c r="AN185" s="10"/>
+      <c r="AO185" s="10"/>
+      <c r="AP185" s="10"/>
+      <c r="AQ185" s="10"/>
+      <c r="AR185" s="10"/>
+      <c r="AS185" s="9">
+        <v>2400</v>
+      </c>
+      <c r="AT185" s="9">
+        <v>1500</v>
+      </c>
+      <c r="AU185" s="9">
         <v>800</v>
       </c>
-      <c r="AN185" s="10">
-        <v>300</v>
-      </c>
-      <c r="AO185" s="10">
+      <c r="AV185" s="9">
+        <v>1550</v>
+      </c>
+      <c r="AW185" s="9">
+        <v>700</v>
+      </c>
+      <c r="AX185" s="9">
         <v>500</v>
       </c>
-      <c r="AP185" s="10">
-        <v>700</v>
-      </c>
-      <c r="AQ185" s="10">
-        <v>-200</v>
-      </c>
-      <c r="AR185" s="10">
-        <v>-500</v>
-      </c>
-      <c r="AS185" s="9"/>
-      <c r="AT185" s="9"/>
-      <c r="AU185" s="9"/>
-      <c r="AV185" s="9"/>
-      <c r="AW185" s="9"/>
-      <c r="AX185" s="9"/>
-      <c r="AY185" s="9"/>
-      <c r="AZ185" s="9"/>
-      <c r="BA185" s="9"/>
-      <c r="BB185" s="9"/>
-      <c r="BC185" s="9"/>
-      <c r="BD185" s="9"/>
-      <c r="BE185" s="9"/>
-      <c r="BF185" s="9"/>
-      <c r="BG185" s="9"/>
-      <c r="BH185" s="9"/>
-      <c r="BI185" s="9"/>
-      <c r="BJ185" s="9"/>
-      <c r="BK185" s="9"/>
-      <c r="BL185" s="9"/>
-      <c r="BM185" s="9"/>
-      <c r="BN185" s="9"/>
-      <c r="BO185" s="9"/>
-      <c r="BP185" s="9"/>
-      <c r="BQ185" s="9"/>
-      <c r="BR185" s="9"/>
-      <c r="BS185" s="9"/>
-      <c r="BT185" s="9">
-        <f>AP185/AM185</f>
-        <v>0.875</v>
-      </c>
-      <c r="BU185" s="9">
-        <f t="shared" si="61"/>
-        <v>0</v>
+      <c r="AY185" s="1"/>
+      <c r="AZ185" s="1"/>
+      <c r="BA185" s="1"/>
+      <c r="BB185" s="1"/>
+      <c r="BC185" s="1"/>
+      <c r="BD185" s="1"/>
+      <c r="BE185" s="1"/>
+      <c r="BF185" s="1"/>
+      <c r="BG185" s="1"/>
+      <c r="BH185" s="1"/>
+      <c r="BI185" s="1"/>
+      <c r="BJ185" s="1"/>
+      <c r="BK185" s="1"/>
+      <c r="BL185" s="1"/>
+      <c r="BM185" s="1"/>
+      <c r="BN185" s="1"/>
+      <c r="BO185" s="1"/>
+      <c r="BP185" s="1"/>
+      <c r="BQ185" s="1"/>
+      <c r="BR185" s="1"/>
+      <c r="BS185" s="1"/>
+      <c r="BT185" s="1">
+        <f>AV185/AS185</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="BU185" s="1">
+        <f>(AVERAGE(AV185,AW185,AX185)/AVERAGE(AS185,AT185,AU185))</f>
+        <v>0.58510638297872331</v>
       </c>
       <c r="BV185" s="1"/>
       <c r="BW185" s="1"/>
@@ -25572,15 +25569,13 @@
       <c r="CI185" s="1"/>
       <c r="CJ185" s="1"/>
       <c r="CK185" s="1"/>
-      <c r="CL185" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="CM185" s="35" t="s">
-        <v>98</v>
-      </c>
+      <c r="CL185" s="1">
+        <v>1.1109</v>
+      </c>
+      <c r="CM185" s="1"/>
       <c r="CN185" s="1"/>
     </row>
-    <row r="186" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
         <v>304</v>
       </c>
@@ -25589,7 +25584,7 @@
       </c>
       <c r="D186" s="1">
         <f>BT186/BU186</f>
-        <v>1.103787878787879</v>
+        <v>1</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -25625,29 +25620,29 @@
       <c r="AJ186" s="1"/>
       <c r="AK186" s="1"/>
       <c r="AL186" s="1"/>
-      <c r="AM186" s="10"/>
-      <c r="AN186" s="10"/>
-      <c r="AO186" s="10"/>
-      <c r="AP186" s="10"/>
-      <c r="AQ186" s="10"/>
-      <c r="AR186" s="10"/>
-      <c r="AS186" s="9">
-        <v>2400</v>
-      </c>
-      <c r="AT186" s="9">
-        <v>1500</v>
-      </c>
-      <c r="AU186" s="9">
-        <v>800</v>
-      </c>
-      <c r="AV186" s="9">
-        <v>1550</v>
-      </c>
-      <c r="AW186" s="9">
+      <c r="AM186" s="1"/>
+      <c r="AN186" s="1"/>
+      <c r="AO186" s="1"/>
+      <c r="AP186" s="1"/>
+      <c r="AQ186" s="1"/>
+      <c r="AR186" s="1"/>
+      <c r="AS186" s="10">
+        <v>1200</v>
+      </c>
+      <c r="AT186" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU186" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV186" s="10">
         <v>700</v>
       </c>
-      <c r="AX186" s="9">
-        <v>500</v>
+      <c r="AW186" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX186" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
@@ -25672,11 +25667,11 @@
       <c r="BS186" s="1"/>
       <c r="BT186" s="1">
         <f>AV186/AS186</f>
-        <v>0.64583333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BU186" s="1">
         <f>(AVERAGE(AV186,AW186,AX186)/AVERAGE(AS186,AT186,AU186))</f>
-        <v>0.58510638297872331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="BV186" s="1"/>
       <c r="BW186" s="1"/>
@@ -25695,23 +25690,24 @@
       <c r="CJ186" s="1"/>
       <c r="CK186" s="1"/>
       <c r="CL186" s="1">
-        <v>1.1109</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="CM186" s="1"/>
       <c r="CN186" s="1"/>
     </row>
-    <row r="187" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B187" s="6" t="s">
         <v>305</v>
       </c>
       <c r="C187" s="32">
         <v>224</v>
       </c>
-      <c r="D187" s="1">
-        <f>BT187/BU187</f>
-        <v>1</v>
-      </c>
-      <c r="E187" s="1"/>
+      <c r="D187" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -25751,8 +25747,8 @@
       <c r="AP187" s="1"/>
       <c r="AQ187" s="1"/>
       <c r="AR187" s="1"/>
-      <c r="AS187" s="10">
-        <v>1200</v>
+      <c r="AS187" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AT187" s="10" t="s">
         <v>62</v>
@@ -25760,8 +25756,8 @@
       <c r="AU187" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AV187" s="10">
-        <v>700</v>
+      <c r="AV187" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AW187" s="10" t="s">
         <v>62</v>
@@ -25790,13 +25786,11 @@
       <c r="BQ187" s="1"/>
       <c r="BR187" s="1"/>
       <c r="BS187" s="1"/>
-      <c r="BT187" s="1">
-        <f>AV187/AS187</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="BU187" s="1">
-        <f>(AVERAGE(AV187,AW187,AX187)/AVERAGE(AS187,AT187,AU187))</f>
-        <v>0.58333333333333337</v>
+      <c r="BT187" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU187" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BV187" s="1"/>
       <c r="BW187" s="1"/>
@@ -25814,24 +25808,26 @@
       <c r="CI187" s="1"/>
       <c r="CJ187" s="1"/>
       <c r="CK187" s="1"/>
-      <c r="CL187" s="1">
-        <v>0.99429999999999996</v>
-      </c>
-      <c r="CM187" s="1"/>
+      <c r="CL187" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM187" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="CN187" s="1"/>
     </row>
-    <row r="188" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B188" s="6" t="s">
         <v>306</v>
       </c>
       <c r="C188" s="32">
         <v>224</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>92</v>
+      <c r="D188" s="35">
+        <v>0</v>
+      </c>
+      <c r="E188" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -25872,23 +25868,23 @@
       <c r="AP188" s="1"/>
       <c r="AQ188" s="1"/>
       <c r="AR188" s="1"/>
-      <c r="AS188" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT188" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU188" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV188" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW188" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX188" s="9" t="s">
-        <v>62</v>
+      <c r="AS188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW188" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX188" s="9">
+        <v>0</v>
       </c>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
@@ -25911,11 +25907,11 @@
       <c r="BQ188" s="1"/>
       <c r="BR188" s="1"/>
       <c r="BS188" s="1"/>
-      <c r="BT188" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU188" s="1" t="s">
-        <v>62</v>
+      <c r="BT188" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU188" s="1">
+        <v>0</v>
       </c>
       <c r="BV188" s="1"/>
       <c r="BW188" s="1"/>
@@ -25933,26 +25929,26 @@
       <c r="CI188" s="1"/>
       <c r="CJ188" s="1"/>
       <c r="CK188" s="1"/>
-      <c r="CL188" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM188" s="1" t="s">
+      <c r="CL188" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM188" s="35" t="s">
         <v>92</v>
       </c>
       <c r="CN188" s="1"/>
     </row>
-    <row r="189" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B189" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C189" s="32">
+      <c r="C189" s="33">
         <v>224</v>
       </c>
-      <c r="D189" s="35">
-        <v>0</v>
-      </c>
-      <c r="E189" s="38" t="s">
-        <v>91</v>
+      <c r="D189" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E189" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -25993,50 +25989,51 @@
       <c r="AP189" s="1"/>
       <c r="AQ189" s="1"/>
       <c r="AR189" s="1"/>
-      <c r="AS189" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT189" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU189" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV189" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW189" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX189" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY189" s="1"/>
-      <c r="AZ189" s="1"/>
-      <c r="BA189" s="1"/>
-      <c r="BB189" s="1"/>
-      <c r="BC189" s="1"/>
-      <c r="BD189" s="1"/>
-      <c r="BE189" s="1"/>
-      <c r="BF189" s="1"/>
-      <c r="BG189" s="1"/>
-      <c r="BH189" s="1"/>
-      <c r="BI189" s="1"/>
-      <c r="BJ189" s="1"/>
-      <c r="BK189" s="1"/>
-      <c r="BL189" s="1"/>
-      <c r="BM189" s="1"/>
-      <c r="BN189" s="1"/>
-      <c r="BO189" s="1"/>
-      <c r="BP189" s="1"/>
-      <c r="BQ189" s="1"/>
-      <c r="BR189" s="1"/>
-      <c r="BS189" s="1"/>
-      <c r="BT189" s="1">
-        <v>0</v>
+      <c r="AS189" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT189" s="10">
+        <v>550</v>
+      </c>
+      <c r="AU189" s="10">
+        <v>400</v>
+      </c>
+      <c r="AV189" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW189" s="10">
+        <v>700</v>
+      </c>
+      <c r="AX189" s="10">
+        <v>750</v>
+      </c>
+      <c r="AY189" s="9"/>
+      <c r="AZ189" s="9"/>
+      <c r="BA189" s="9"/>
+      <c r="BB189" s="9"/>
+      <c r="BC189" s="9"/>
+      <c r="BD189" s="9"/>
+      <c r="BE189" s="9"/>
+      <c r="BF189" s="9"/>
+      <c r="BG189" s="9"/>
+      <c r="BH189" s="9"/>
+      <c r="BI189" s="9"/>
+      <c r="BJ189" s="9"/>
+      <c r="BK189" s="9"/>
+      <c r="BL189" s="9"/>
+      <c r="BM189" s="9"/>
+      <c r="BN189" s="9"/>
+      <c r="BO189" s="9"/>
+      <c r="BP189" s="9"/>
+      <c r="BQ189" s="9"/>
+      <c r="BR189" s="9"/>
+      <c r="BS189" s="9"/>
+      <c r="BT189" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BU189" s="1">
-        <v>0</v>
+        <f t="shared" ref="BU189:BU191" si="62">(AVERAGE(AV189,AW189,AX189)/AVERAGE(AS189,AT189,AU189))</f>
+        <v>1.5263157894736843</v>
       </c>
       <c r="BV189" s="1"/>
       <c r="BW189" s="1"/>
@@ -26054,15 +26051,15 @@
       <c r="CI189" s="1"/>
       <c r="CJ189" s="1"/>
       <c r="CK189" s="1"/>
-      <c r="CL189" s="35" t="s">
-        <v>364</v>
+      <c r="CL189" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="CM189" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CN189" s="1"/>
     </row>
-    <row r="190" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
         <v>308</v>
       </c>
@@ -26075,53 +26072,53 @@
       <c r="E190" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-      <c r="S190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
-      <c r="V190" s="1"/>
-      <c r="W190" s="1"/>
-      <c r="X190" s="1"/>
-      <c r="Y190" s="1"/>
-      <c r="Z190" s="1"/>
-      <c r="AA190" s="1"/>
-      <c r="AB190" s="1"/>
-      <c r="AC190" s="1"/>
-      <c r="AD190" s="1"/>
-      <c r="AE190" s="1"/>
-      <c r="AF190" s="1"/>
-      <c r="AG190" s="1"/>
-      <c r="AH190" s="1"/>
-      <c r="AI190" s="1"/>
-      <c r="AJ190" s="1"/>
-      <c r="AK190" s="1"/>
-      <c r="AL190" s="1"/>
-      <c r="AM190" s="1"/>
-      <c r="AN190" s="1"/>
-      <c r="AO190" s="1"/>
-      <c r="AP190" s="1"/>
-      <c r="AQ190" s="1"/>
-      <c r="AR190" s="1"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="9"/>
+      <c r="M190" s="9"/>
+      <c r="N190" s="9"/>
+      <c r="O190" s="9"/>
+      <c r="P190" s="9"/>
+      <c r="Q190" s="9"/>
+      <c r="R190" s="9"/>
+      <c r="S190" s="9"/>
+      <c r="T190" s="9"/>
+      <c r="U190" s="9"/>
+      <c r="V190" s="9"/>
+      <c r="W190" s="9"/>
+      <c r="X190" s="9"/>
+      <c r="Y190" s="9"/>
+      <c r="Z190" s="9"/>
+      <c r="AA190" s="9"/>
+      <c r="AB190" s="9"/>
+      <c r="AC190" s="9"/>
+      <c r="AD190" s="9"/>
+      <c r="AE190" s="9"/>
+      <c r="AF190" s="9"/>
+      <c r="AG190" s="9"/>
+      <c r="AH190" s="9"/>
+      <c r="AI190" s="9"/>
+      <c r="AJ190" s="9"/>
+      <c r="AK190" s="9"/>
+      <c r="AL190" s="9"/>
+      <c r="AM190" s="9"/>
+      <c r="AN190" s="9"/>
+      <c r="AO190" s="9"/>
+      <c r="AP190" s="9"/>
+      <c r="AQ190" s="9"/>
+      <c r="AR190" s="9"/>
       <c r="AS190" s="10" t="s">
         <v>62</v>
       </c>
       <c r="AT190" s="10">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="AU190" s="10">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AV190" s="10" t="s">
         <v>62</v>
@@ -26130,7 +26127,7 @@
         <v>700</v>
       </c>
       <c r="AX190" s="10">
-        <v>750</v>
+        <v>-700</v>
       </c>
       <c r="AY190" s="9"/>
       <c r="AZ190" s="9"/>
@@ -26156,12 +26153,12 @@
       <c r="BT190" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BU190" s="1">
-        <f t="shared" ref="BU190:BU192" si="62">(AVERAGE(AV190,AW190,AX190)/AVERAGE(AS190,AT190,AU190))</f>
-        <v>1.5263157894736843</v>
-      </c>
-      <c r="BV190" s="1"/>
-      <c r="BW190" s="1"/>
+      <c r="BU190" s="9">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BV190" s="9"/>
+      <c r="BW190" s="9"/>
       <c r="BX190" s="1"/>
       <c r="BY190" s="1"/>
       <c r="BZ190" s="1"/>
@@ -26177,25 +26174,25 @@
       <c r="CJ190" s="1"/>
       <c r="CK190" s="1"/>
       <c r="CL190" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM190" s="35" t="s">
         <v>93</v>
       </c>
       <c r="CN190" s="1"/>
     </row>
-    <row r="191" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B191" s="6" t="s">
         <v>309</v>
       </c>
       <c r="C191" s="33">
         <v>224</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E191" s="40" t="s">
-        <v>99</v>
+      <c r="E191" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
@@ -26236,23 +26233,23 @@
       <c r="AP191" s="9"/>
       <c r="AQ191" s="9"/>
       <c r="AR191" s="9"/>
-      <c r="AS191" s="10" t="s">
-        <v>62</v>
+      <c r="AS191" s="10">
+        <v>800</v>
       </c>
       <c r="AT191" s="10">
         <v>300</v>
       </c>
       <c r="AU191" s="10">
-        <v>500</v>
-      </c>
-      <c r="AV191" s="10" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="AV191" s="10">
+        <v>700</v>
       </c>
       <c r="AW191" s="10">
-        <v>700</v>
+        <v>-600</v>
       </c>
       <c r="AX191" s="10">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="AY191" s="9"/>
       <c r="AZ191" s="9"/>
@@ -26275,8 +26272,9 @@
       <c r="BQ191" s="9"/>
       <c r="BR191" s="9"/>
       <c r="BS191" s="9"/>
-      <c r="BT191" s="9" t="s">
-        <v>62</v>
+      <c r="BT191" s="9">
+        <f t="shared" ref="BT191" si="63">AV191/AS191</f>
+        <v>0.875</v>
       </c>
       <c r="BU191" s="9">
         <f t="shared" si="62"/>
@@ -26298,115 +26296,102 @@
       <c r="CI191" s="1"/>
       <c r="CJ191" s="1"/>
       <c r="CK191" s="1"/>
-      <c r="CL191" s="1" t="s">
-        <v>364</v>
+      <c r="CL191" s="41">
+        <v>1000000</v>
       </c>
       <c r="CM191" s="35" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="CN191" s="1"/>
     </row>
-    <row r="192" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B192" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C192" s="33">
-        <v>224</v>
-      </c>
-      <c r="D192" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E192" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
-      <c r="K192" s="9"/>
-      <c r="L192" s="9"/>
-      <c r="M192" s="9"/>
-      <c r="N192" s="9"/>
-      <c r="O192" s="9"/>
-      <c r="P192" s="9"/>
-      <c r="Q192" s="9"/>
-      <c r="R192" s="9"/>
-      <c r="S192" s="9"/>
-      <c r="T192" s="9"/>
-      <c r="U192" s="9"/>
-      <c r="V192" s="9"/>
-      <c r="W192" s="9"/>
-      <c r="X192" s="9"/>
-      <c r="Y192" s="9"/>
-      <c r="Z192" s="9"/>
-      <c r="AA192" s="9"/>
-      <c r="AB192" s="9"/>
-      <c r="AC192" s="9"/>
-      <c r="AD192" s="9"/>
-      <c r="AE192" s="9"/>
-      <c r="AF192" s="9"/>
-      <c r="AG192" s="9"/>
-      <c r="AH192" s="9"/>
-      <c r="AI192" s="9"/>
-      <c r="AJ192" s="9"/>
-      <c r="AK192" s="9"/>
-      <c r="AL192" s="9"/>
-      <c r="AM192" s="9"/>
-      <c r="AN192" s="9"/>
-      <c r="AO192" s="9"/>
-      <c r="AP192" s="9"/>
-      <c r="AQ192" s="9"/>
-      <c r="AR192" s="9"/>
-      <c r="AS192" s="10">
-        <v>800</v>
-      </c>
-      <c r="AT192" s="10">
-        <v>300</v>
-      </c>
-      <c r="AU192" s="10">
-        <v>100</v>
-      </c>
-      <c r="AV192" s="10">
-        <v>700</v>
-      </c>
-      <c r="AW192" s="10">
-        <v>-600</v>
-      </c>
-      <c r="AX192" s="10">
-        <v>-100</v>
-      </c>
-      <c r="AY192" s="9"/>
-      <c r="AZ192" s="9"/>
-      <c r="BA192" s="9"/>
-      <c r="BB192" s="9"/>
-      <c r="BC192" s="9"/>
-      <c r="BD192" s="9"/>
-      <c r="BE192" s="9"/>
-      <c r="BF192" s="9"/>
-      <c r="BG192" s="9"/>
-      <c r="BH192" s="9"/>
-      <c r="BI192" s="9"/>
-      <c r="BJ192" s="9"/>
-      <c r="BK192" s="9"/>
-      <c r="BL192" s="9"/>
-      <c r="BM192" s="9"/>
-      <c r="BN192" s="9"/>
-      <c r="BO192" s="9"/>
-      <c r="BP192" s="9"/>
-      <c r="BQ192" s="9"/>
-      <c r="BR192" s="9"/>
-      <c r="BS192" s="9"/>
-      <c r="BT192" s="9">
-        <f t="shared" ref="BT192" si="63">AV192/AS192</f>
-        <v>0.875</v>
-      </c>
-      <c r="BU192" s="9">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="BV192" s="9"/>
-      <c r="BW192" s="9"/>
+      <c r="C192" s="32">
+        <v>225</v>
+      </c>
+      <c r="D192" s="35">
+        <f>AVERAGE(BH192,BI192,BJ192)</f>
+        <v>1833.3333333333333</v>
+      </c>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+      <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+      <c r="Y192" s="1"/>
+      <c r="Z192" s="1"/>
+      <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
+      <c r="AC192" s="1"/>
+      <c r="AD192" s="1"/>
+      <c r="AE192" s="1"/>
+      <c r="AF192" s="1"/>
+      <c r="AG192" s="1"/>
+      <c r="AH192" s="1"/>
+      <c r="AI192" s="1"/>
+      <c r="AJ192" s="1"/>
+      <c r="AK192" s="1"/>
+      <c r="AL192" s="1"/>
+      <c r="AM192" s="1"/>
+      <c r="AN192" s="1"/>
+      <c r="AO192" s="1"/>
+      <c r="AP192" s="1"/>
+      <c r="AQ192" s="1"/>
+      <c r="AR192" s="1"/>
+      <c r="AS192" s="1"/>
+      <c r="AT192" s="1"/>
+      <c r="AU192" s="1"/>
+      <c r="AV192" s="1"/>
+      <c r="AW192" s="1"/>
+      <c r="AX192" s="1"/>
+      <c r="AY192" s="1"/>
+      <c r="AZ192" s="1"/>
+      <c r="BA192" s="1"/>
+      <c r="BB192" s="1"/>
+      <c r="BC192" s="1"/>
+      <c r="BD192" s="1"/>
+      <c r="BE192" s="1"/>
+      <c r="BF192" s="1"/>
+      <c r="BG192" s="1"/>
+      <c r="BH192" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BI192" s="1">
+        <v>1500</v>
+      </c>
+      <c r="BJ192" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BK192" s="1"/>
+      <c r="BL192" s="1"/>
+      <c r="BM192" s="1"/>
+      <c r="BN192" s="1"/>
+      <c r="BO192" s="1"/>
+      <c r="BP192" s="1"/>
+      <c r="BQ192" s="1"/>
+      <c r="BR192" s="1"/>
+      <c r="BS192" s="1"/>
+      <c r="BT192" s="1"/>
+      <c r="BU192" s="1"/>
+      <c r="BV192" s="1"/>
+      <c r="BW192" s="1"/>
       <c r="BX192" s="1"/>
       <c r="BY192" s="1"/>
       <c r="BZ192" s="1"/>
@@ -26422,23 +26407,21 @@
       <c r="CJ192" s="1"/>
       <c r="CK192" s="1"/>
       <c r="CL192" s="41">
-        <v>1000000</v>
-      </c>
-      <c r="CM192" s="35" t="s">
-        <v>98</v>
-      </c>
+        <v>5500</v>
+      </c>
+      <c r="CM192" s="1"/>
       <c r="CN192" s="1"/>
     </row>
-    <row r="193" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B193" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C193" s="32">
         <v>225</v>
       </c>
-      <c r="D193" s="35">
+      <c r="D193" s="1">
         <f>AVERAGE(BH193,BI193,BJ193)</f>
-        <v>1833.3333333333333</v>
+        <v>1500</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -26496,13 +26479,13 @@
       <c r="BF193" s="1"/>
       <c r="BG193" s="1"/>
       <c r="BH193" s="1">
-        <v>2000</v>
-      </c>
-      <c r="BI193" s="1">
         <v>1500</v>
       </c>
-      <c r="BJ193" s="1">
-        <v>2000</v>
+      <c r="BI193" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ193" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BK193" s="1"/>
       <c r="BL193" s="1"/>
@@ -26531,22 +26514,22 @@
       <c r="CI193" s="1"/>
       <c r="CJ193" s="1"/>
       <c r="CK193" s="1"/>
-      <c r="CL193" s="41">
-        <v>5500</v>
+      <c r="CL193" s="37">
+        <v>1500</v>
       </c>
       <c r="CM193" s="1"/>
       <c r="CN193" s="1"/>
     </row>
-    <row r="194" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B194" s="6" t="s">
         <v>312</v>
       </c>
       <c r="C194" s="32">
         <v>225</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="35">
         <f>AVERAGE(BH194,BI194,BJ194)</f>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -26604,13 +26587,13 @@
       <c r="BF194" s="1"/>
       <c r="BG194" s="1"/>
       <c r="BH194" s="1">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="BI194" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BJ194" s="1" t="s">
-        <v>62</v>
+      <c r="BJ194" s="1">
+        <v>1400</v>
       </c>
       <c r="BK194" s="1"/>
       <c r="BL194" s="1"/>
@@ -26639,24 +26622,25 @@
       <c r="CI194" s="1"/>
       <c r="CJ194" s="1"/>
       <c r="CK194" s="1"/>
-      <c r="CL194" s="37">
-        <v>1500</v>
+      <c r="CL194" s="41">
+        <v>2800</v>
       </c>
       <c r="CM194" s="1"/>
       <c r="CN194" s="1"/>
     </row>
-    <row r="195" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B195" s="6" t="s">
         <v>313</v>
       </c>
       <c r="C195" s="32">
         <v>225</v>
       </c>
-      <c r="D195" s="35">
-        <f>AVERAGE(BH195,BI195,BJ195)</f>
-        <v>1400</v>
-      </c>
-      <c r="E195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -26711,14 +26695,14 @@
       <c r="BE195" s="1"/>
       <c r="BF195" s="1"/>
       <c r="BG195" s="1"/>
-      <c r="BH195" s="1">
-        <v>1400</v>
+      <c r="BH195" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BJ195" s="1">
-        <v>1400</v>
+      <c r="BJ195" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BK195" s="1"/>
       <c r="BL195" s="1"/>
@@ -26747,24 +26731,26 @@
       <c r="CI195" s="1"/>
       <c r="CJ195" s="1"/>
       <c r="CK195" s="1"/>
-      <c r="CL195" s="41">
-        <v>2800</v>
-      </c>
-      <c r="CM195" s="1"/>
+      <c r="CL195" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM195" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN195" s="1"/>
     </row>
-    <row r="196" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B196" s="6" t="s">
         <v>314</v>
       </c>
       <c r="C196" s="32">
         <v>225</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="35" t="s">
         <v>63</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -26820,14 +26806,14 @@
       <c r="BE196" s="1"/>
       <c r="BF196" s="1"/>
       <c r="BG196" s="1"/>
-      <c r="BH196" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ196" s="1" t="s">
-        <v>62</v>
+      <c r="BH196" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="BI196" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BJ196" s="1">
+        <v>-1000</v>
       </c>
       <c r="BK196" s="1"/>
       <c r="BL196" s="1"/>
@@ -26856,27 +26842,26 @@
       <c r="CI196" s="1"/>
       <c r="CJ196" s="1"/>
       <c r="CK196" s="1"/>
-      <c r="CL196" s="1">
-        <v>0</v>
+      <c r="CL196" s="41">
+        <v>-1000</v>
       </c>
       <c r="CM196" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CN196" s="1"/>
     </row>
-    <row r="197" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B197" s="6" t="s">
         <v>315</v>
       </c>
       <c r="C197" s="32">
-        <v>225</v>
-      </c>
-      <c r="D197" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>103</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="D197" s="1">
+        <f>AVERAGE(BK197,BL197,BM197)</f>
+        <v>1500</v>
+      </c>
+      <c r="E197" s="24"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -26931,18 +26916,18 @@
       <c r="BE197" s="1"/>
       <c r="BF197" s="1"/>
       <c r="BG197" s="1"/>
-      <c r="BH197" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="BI197" s="1">
+      <c r="BH197" s="1"/>
+      <c r="BI197" s="1"/>
+      <c r="BJ197" s="1"/>
+      <c r="BK197" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BL197" s="1">
+        <v>1500</v>
+      </c>
+      <c r="BM197" s="1">
         <v>2000</v>
       </c>
-      <c r="BJ197" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="BK197" s="1"/>
-      <c r="BL197" s="1"/>
-      <c r="BM197" s="1"/>
       <c r="BN197" s="1"/>
       <c r="BO197" s="1"/>
       <c r="BP197" s="1"/>
@@ -26967,15 +26952,13 @@
       <c r="CI197" s="1"/>
       <c r="CJ197" s="1"/>
       <c r="CK197" s="1"/>
-      <c r="CL197" s="41">
-        <v>-1000</v>
-      </c>
-      <c r="CM197" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="CL197" s="37">
+        <v>1500</v>
+      </c>
+      <c r="CM197" s="1"/>
       <c r="CN197" s="1"/>
     </row>
-    <row r="198" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B198" s="6" t="s">
         <v>316</v>
       </c>
@@ -26984,9 +26967,9 @@
       </c>
       <c r="D198" s="1">
         <f>AVERAGE(BK198,BL198,BM198)</f>
-        <v>1500</v>
-      </c>
-      <c r="E198" s="24"/>
+        <v>800</v>
+      </c>
+      <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -27045,13 +27028,13 @@
       <c r="BI198" s="1"/>
       <c r="BJ198" s="1"/>
       <c r="BK198" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BL198" s="1">
-        <v>1500</v>
-      </c>
-      <c r="BM198" s="1">
-        <v>2000</v>
+        <v>800</v>
+      </c>
+      <c r="BL198" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM198" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BN198" s="1"/>
       <c r="BO198" s="1"/>
@@ -27077,13 +27060,13 @@
       <c r="CI198" s="1"/>
       <c r="CJ198" s="1"/>
       <c r="CK198" s="1"/>
-      <c r="CL198" s="37">
-        <v>1500</v>
+      <c r="CL198" s="1">
+        <v>800</v>
       </c>
       <c r="CM198" s="1"/>
       <c r="CN198" s="1"/>
     </row>
-    <row r="199" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B199" s="6" t="s">
         <v>317</v>
       </c>
@@ -27092,7 +27075,7 @@
       </c>
       <c r="D199" s="1">
         <f>AVERAGE(BK199,BL199,BM199)</f>
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -27153,13 +27136,13 @@
       <c r="BI199" s="1"/>
       <c r="BJ199" s="1"/>
       <c r="BK199" s="1">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="BL199" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM199" s="1" t="s">
-        <v>62</v>
+      <c r="BM199" s="1">
+        <v>1400</v>
       </c>
       <c r="BN199" s="1"/>
       <c r="BO199" s="1"/>
@@ -27185,24 +27168,25 @@
       <c r="CI199" s="1"/>
       <c r="CJ199" s="1"/>
       <c r="CK199" s="1"/>
-      <c r="CL199" s="1">
-        <v>800</v>
+      <c r="CL199" s="37">
+        <v>2200</v>
       </c>
       <c r="CM199" s="1"/>
       <c r="CN199" s="1"/>
     </row>
-    <row r="200" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C200" s="32">
         <v>226</v>
       </c>
-      <c r="D200" s="1">
-        <f>AVERAGE(BK200,BL200,BM200)</f>
-        <v>2200</v>
-      </c>
-      <c r="E200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -27260,14 +27244,14 @@
       <c r="BH200" s="1"/>
       <c r="BI200" s="1"/>
       <c r="BJ200" s="1"/>
-      <c r="BK200" s="1">
-        <v>3000</v>
+      <c r="BK200" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BL200" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM200" s="1">
-        <v>1400</v>
+      <c r="BM200" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BN200" s="1"/>
       <c r="BO200" s="1"/>
@@ -27293,24 +27277,26 @@
       <c r="CI200" s="1"/>
       <c r="CJ200" s="1"/>
       <c r="CK200" s="1"/>
-      <c r="CL200" s="37">
-        <v>2200</v>
-      </c>
-      <c r="CM200" s="1"/>
+      <c r="CL200" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM200" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN200" s="1"/>
     </row>
-    <row r="201" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B201" s="6" t="s">
         <v>319</v>
       </c>
       <c r="C201" s="32">
         <v>226</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E201" s="24" t="s">
-        <v>102</v>
+      <c r="E201" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -27369,14 +27355,14 @@
       <c r="BH201" s="1"/>
       <c r="BI201" s="1"/>
       <c r="BJ201" s="1"/>
-      <c r="BK201" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL201" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM201" s="1" t="s">
-        <v>62</v>
+      <c r="BK201" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="BL201" s="1">
+        <v>-1500</v>
+      </c>
+      <c r="BM201" s="1">
+        <v>-300</v>
       </c>
       <c r="BN201" s="1"/>
       <c r="BO201" s="1"/>
@@ -27402,27 +27388,24 @@
       <c r="CI201" s="1"/>
       <c r="CJ201" s="1"/>
       <c r="CK201" s="1"/>
-      <c r="CL201" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM201" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="CL201" s="35">
+        <v>-933.33</v>
+      </c>
+      <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
     </row>
-    <row r="202" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B202" s="6" t="s">
         <v>320</v>
       </c>
       <c r="C202" s="32">
-        <v>226</v>
-      </c>
-      <c r="D202" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E202" s="38" t="s">
-        <v>103</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D202" s="1">
+        <f>AVERAGE(BN202,BO202,BP202)</f>
+        <v>1000</v>
+      </c>
+      <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -27480,18 +27463,18 @@
       <c r="BH202" s="1"/>
       <c r="BI202" s="1"/>
       <c r="BJ202" s="1"/>
-      <c r="BK202" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="BL202" s="1">
-        <v>-1500</v>
-      </c>
-      <c r="BM202" s="1">
-        <v>-300</v>
-      </c>
-      <c r="BN202" s="1"/>
-      <c r="BO202" s="1"/>
-      <c r="BP202" s="1"/>
+      <c r="BK202" s="1"/>
+      <c r="BL202" s="1"/>
+      <c r="BM202" s="1"/>
+      <c r="BN202" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BO202" s="1">
+        <v>1500</v>
+      </c>
+      <c r="BP202" s="1">
+        <v>500</v>
+      </c>
       <c r="BQ202" s="1"/>
       <c r="BR202" s="1"/>
       <c r="BS202" s="1"/>
@@ -27513,13 +27496,13 @@
       <c r="CI202" s="1"/>
       <c r="CJ202" s="1"/>
       <c r="CK202" s="1"/>
-      <c r="CL202" s="35">
-        <v>-933.33</v>
+      <c r="CL202" s="38">
+        <v>1000</v>
       </c>
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
     </row>
-    <row r="203" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B203" s="6" t="s">
         <v>321</v>
       </c>
@@ -27527,8 +27510,8 @@
         <v>227</v>
       </c>
       <c r="D203" s="1">
-        <f>AVERAGE(BN203,BO203,BP203)</f>
-        <v>1000</v>
+        <f t="shared" ref="D203:D204" si="64">AVERAGE(BN203,BO203,BP203)</f>
+        <v>900</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -27592,13 +27575,13 @@
       <c r="BL203" s="1"/>
       <c r="BM203" s="1"/>
       <c r="BN203" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BO203" s="1">
-        <v>1500</v>
-      </c>
-      <c r="BP203" s="1">
-        <v>500</v>
+        <v>900</v>
+      </c>
+      <c r="BO203" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP203" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BQ203" s="1"/>
       <c r="BR203" s="1"/>
@@ -27621,13 +27604,13 @@
       <c r="CI203" s="1"/>
       <c r="CJ203" s="1"/>
       <c r="CK203" s="1"/>
-      <c r="CL203" s="37">
-        <v>1000</v>
+      <c r="CL203" s="1">
+        <v>900</v>
       </c>
       <c r="CM203" s="1"/>
       <c r="CN203" s="1"/>
     </row>
-    <row r="204" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B204" s="6" t="s">
         <v>322</v>
       </c>
@@ -27635,8 +27618,8 @@
         <v>227</v>
       </c>
       <c r="D204" s="1">
-        <f t="shared" ref="D204:D205" si="64">AVERAGE(BN204,BO204,BP204)</f>
-        <v>900</v>
+        <f t="shared" si="64"/>
+        <v>2100</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -27700,13 +27683,13 @@
       <c r="BL204" s="1"/>
       <c r="BM204" s="1"/>
       <c r="BN204" s="1">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="BO204" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP204" s="1" t="s">
-        <v>62</v>
+      <c r="BP204" s="1">
+        <v>1200</v>
       </c>
       <c r="BQ204" s="1"/>
       <c r="BR204" s="1"/>
@@ -27729,24 +27712,25 @@
       <c r="CI204" s="1"/>
       <c r="CJ204" s="1"/>
       <c r="CK204" s="1"/>
-      <c r="CL204" s="1">
-        <v>900</v>
+      <c r="CL204" s="37">
+        <v>2100</v>
       </c>
       <c r="CM204" s="1"/>
       <c r="CN204" s="1"/>
     </row>
-    <row r="205" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B205" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C205" s="32">
         <v>227</v>
       </c>
-      <c r="D205" s="1">
-        <f t="shared" si="64"/>
-        <v>2100</v>
-      </c>
-      <c r="E205" s="1"/>
+      <c r="D205" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E205" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -27807,14 +27791,14 @@
       <c r="BK205" s="1"/>
       <c r="BL205" s="1"/>
       <c r="BM205" s="1"/>
-      <c r="BN205" s="1">
-        <v>3000</v>
+      <c r="BN205" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BO205" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BP205" s="1">
-        <v>1200</v>
+      <c r="BP205" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BQ205" s="1"/>
       <c r="BR205" s="1"/>
@@ -27837,13 +27821,15 @@
       <c r="CI205" s="1"/>
       <c r="CJ205" s="1"/>
       <c r="CK205" s="1"/>
-      <c r="CL205" s="37">
-        <v>2100</v>
-      </c>
-      <c r="CM205" s="1"/>
+      <c r="CL205" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM205" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN205" s="1"/>
     </row>
-    <row r="206" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B206" s="6" t="s">
         <v>324</v>
       </c>
@@ -27854,7 +27840,7 @@
         <v>63</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -27916,14 +27902,14 @@
       <c r="BK206" s="1"/>
       <c r="BL206" s="1"/>
       <c r="BM206" s="1"/>
-      <c r="BN206" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO206" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP206" s="1" t="s">
-        <v>62</v>
+      <c r="BN206" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="BO206" s="1">
+        <v>-1500</v>
+      </c>
+      <c r="BP206" s="1">
+        <v>-400</v>
       </c>
       <c r="BQ206" s="1"/>
       <c r="BR206" s="1"/>
@@ -27946,27 +27932,26 @@
       <c r="CI206" s="1"/>
       <c r="CJ206" s="1"/>
       <c r="CK206" s="1"/>
-      <c r="CL206" s="1" t="s">
-        <v>364</v>
+      <c r="CL206" s="38">
+        <v>-966.67</v>
       </c>
       <c r="CM206" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="CN206" s="1"/>
     </row>
-    <row r="207" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B207" s="6" t="s">
         <v>325</v>
       </c>
       <c r="C207" s="32">
-        <v>227</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E207" s="24" t="s">
-        <v>103</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D207" s="1">
+        <f>BT207/BU207</f>
+        <v>0.75</v>
+      </c>
+      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -28024,23 +28009,35 @@
       <c r="BH207" s="1"/>
       <c r="BI207" s="1"/>
       <c r="BJ207" s="1"/>
-      <c r="BK207" s="1"/>
-      <c r="BL207" s="1"/>
-      <c r="BM207" s="1"/>
-      <c r="BN207" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="BO207" s="1">
-        <v>-1500</v>
-      </c>
-      <c r="BP207" s="1">
-        <v>-400</v>
-      </c>
-      <c r="BQ207" s="1"/>
-      <c r="BR207" s="1"/>
-      <c r="BS207" s="1"/>
-      <c r="BT207" s="1"/>
-      <c r="BU207" s="1"/>
+      <c r="BK207" s="9">
+        <v>1000</v>
+      </c>
+      <c r="BL207" s="9">
+        <v>1500</v>
+      </c>
+      <c r="BM207" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BN207" s="1"/>
+      <c r="BO207" s="1"/>
+      <c r="BP207" s="1"/>
+      <c r="BQ207" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BR207" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BS207" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BT207" s="1">
+        <f>AVERAGE(BK207,BL207,BM207)</f>
+        <v>1500</v>
+      </c>
+      <c r="BU207" s="1">
+        <f>AVERAGE(BQ207,BR207,BS207)</f>
+        <v>2000</v>
+      </c>
       <c r="BV207" s="1"/>
       <c r="BW207" s="1"/>
       <c r="BX207" s="1"/>
@@ -28058,14 +28055,12 @@
       <c r="CJ207" s="1"/>
       <c r="CK207" s="1"/>
       <c r="CL207" s="1">
-        <v>-966.67</v>
-      </c>
-      <c r="CM207" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="CM207" s="1"/>
       <c r="CN207" s="1"/>
     </row>
-    <row r="208" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
         <v>326</v>
       </c>
@@ -28074,7 +28069,7 @@
       </c>
       <c r="D208" s="1">
         <f>BT208/BU208</f>
-        <v>0.75</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -28134,34 +28129,34 @@
       <c r="BH208" s="1"/>
       <c r="BI208" s="1"/>
       <c r="BJ208" s="1"/>
-      <c r="BK208" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BL208" s="9">
-        <v>1500</v>
+      <c r="BK208" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL208" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BM208" s="9">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="BN208" s="1"/>
       <c r="BO208" s="1"/>
       <c r="BP208" s="1"/>
-      <c r="BQ208" s="1">
-        <v>2000</v>
-      </c>
-      <c r="BR208" s="1">
-        <v>2000</v>
+      <c r="BQ208" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR208" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BS208" s="1">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="BT208" s="1">
         <f>AVERAGE(BK208,BL208,BM208)</f>
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="BU208" s="1">
         <f>AVERAGE(BQ208,BR208,BS208)</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="BV208" s="1"/>
       <c r="BW208" s="1"/>
@@ -28180,12 +28175,12 @@
       <c r="CJ208" s="1"/>
       <c r="CK208" s="1"/>
       <c r="CL208" s="1">
-        <v>0.75</v>
+        <v>0.5333</v>
       </c>
       <c r="CM208" s="1"/>
       <c r="CN208" s="1"/>
     </row>
-    <row r="209" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B209" s="6" t="s">
         <v>327</v>
       </c>
@@ -28194,7 +28189,7 @@
       </c>
       <c r="D209" s="1">
         <f>BT209/BU209</f>
-        <v>0.53333333333333333</v>
+        <v>0.48</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -28254,34 +28249,34 @@
       <c r="BH209" s="1"/>
       <c r="BI209" s="1"/>
       <c r="BJ209" s="1"/>
-      <c r="BK209" s="9" t="s">
-        <v>62</v>
+      <c r="BK209" s="9">
+        <v>1000</v>
       </c>
       <c r="BL209" s="9" t="s">
         <v>62</v>
       </c>
       <c r="BM209" s="9">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="BN209" s="1"/>
       <c r="BO209" s="1"/>
       <c r="BP209" s="1"/>
-      <c r="BQ209" s="1" t="s">
-        <v>62</v>
+      <c r="BQ209" s="1">
+        <v>2500</v>
       </c>
       <c r="BR209" s="1" t="s">
         <v>62</v>
       </c>
       <c r="BS209" s="1">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="BT209" s="1">
         <f>AVERAGE(BK209,BL209,BM209)</f>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="BU209" s="1">
         <f>AVERAGE(BQ209,BR209,BS209)</f>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="BV209" s="1"/>
       <c r="BW209" s="1"/>
@@ -28300,23 +28295,24 @@
       <c r="CJ209" s="1"/>
       <c r="CK209" s="1"/>
       <c r="CL209" s="1">
-        <v>0.5333</v>
+        <v>0.48</v>
       </c>
       <c r="CM209" s="1"/>
       <c r="CN209" s="1"/>
     </row>
-    <row r="210" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B210" s="6" t="s">
         <v>328</v>
       </c>
       <c r="C210" s="32">
         <v>228</v>
       </c>
-      <c r="D210" s="1">
-        <f>BT210/BU210</f>
-        <v>0.48</v>
-      </c>
-      <c r="E210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E210" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -28374,34 +28370,32 @@
       <c r="BH210" s="1"/>
       <c r="BI210" s="1"/>
       <c r="BJ210" s="1"/>
-      <c r="BK210" s="9">
-        <v>1000</v>
+      <c r="BK210" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BL210" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BM210" s="9">
-        <v>1400</v>
+      <c r="BM210" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BN210" s="1"/>
       <c r="BO210" s="1"/>
       <c r="BP210" s="1"/>
-      <c r="BQ210" s="1">
-        <v>2500</v>
+      <c r="BQ210" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BR210" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BS210" s="1">
-        <v>2500</v>
-      </c>
-      <c r="BT210" s="1">
-        <f>AVERAGE(BK210,BL210,BM210)</f>
-        <v>1200</v>
-      </c>
-      <c r="BU210" s="1">
-        <f>AVERAGE(BQ210,BR210,BS210)</f>
-        <v>2500</v>
+      <c r="BS210" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT210" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU210" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BV210" s="1"/>
       <c r="BW210" s="1"/>
@@ -28419,24 +28413,26 @@
       <c r="CI210" s="1"/>
       <c r="CJ210" s="1"/>
       <c r="CK210" s="1"/>
-      <c r="CL210" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="CM210" s="1"/>
+      <c r="CL210" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM210" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN210" s="1"/>
     </row>
-    <row r="211" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B211" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C211" s="32">
         <v>228</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>63</v>
+      <c r="D211" s="1">
+        <v>999999</v>
       </c>
       <c r="E211" s="24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -28495,32 +28491,34 @@
       <c r="BH211" s="1"/>
       <c r="BI211" s="1"/>
       <c r="BJ211" s="1"/>
-      <c r="BK211" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL211" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM211" s="9" t="s">
-        <v>62</v>
+      <c r="BK211" s="9">
+        <v>1000</v>
+      </c>
+      <c r="BL211" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="BM211" s="9">
+        <v>500</v>
       </c>
       <c r="BN211" s="1"/>
       <c r="BO211" s="1"/>
       <c r="BP211" s="1"/>
-      <c r="BQ211" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR211" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS211" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT211" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU211" s="1" t="s">
-        <v>62</v>
+      <c r="BQ211" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="BR211" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BS211" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="BT211" s="1">
+        <f>AVERAGE(BK211,BL211,BM211)</f>
+        <v>0</v>
+      </c>
+      <c r="BU211" s="1">
+        <f>AVERAGE(BQ211,BR211,BS211)</f>
+        <v>0</v>
       </c>
       <c r="BV211" s="1"/>
       <c r="BW211" s="1"/>
@@ -28538,15 +28536,15 @@
       <c r="CI211" s="1"/>
       <c r="CJ211" s="1"/>
       <c r="CK211" s="1"/>
-      <c r="CL211" s="1" t="s">
-        <v>364</v>
+      <c r="CL211" s="1">
+        <v>0</v>
       </c>
       <c r="CM211" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CN211" s="1"/>
     </row>
-    <row r="212" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B212" s="6" t="s">
         <v>330</v>
       </c>
@@ -28554,10 +28552,10 @@
         <v>228</v>
       </c>
       <c r="D212" s="1">
-        <v>999999</v>
+        <v>1000000</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -28620,7 +28618,7 @@
         <v>1000</v>
       </c>
       <c r="BL212" s="9">
-        <v>-1500</v>
+        <v>1500</v>
       </c>
       <c r="BM212" s="9">
         <v>500</v>
@@ -28639,7 +28637,7 @@
       </c>
       <c r="BT212" s="1">
         <f>AVERAGE(BK212,BL212,BM212)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BU212" s="1">
         <f>AVERAGE(BQ212,BR212,BS212)</f>
@@ -28661,26 +28659,26 @@
       <c r="CI212" s="1"/>
       <c r="CJ212" s="1"/>
       <c r="CK212" s="1"/>
-      <c r="CL212" s="1">
-        <v>0</v>
+      <c r="CL212" s="37">
+        <v>1000000</v>
       </c>
       <c r="CM212" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CN212" s="1"/>
     </row>
-    <row r="213" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B213" s="6" t="s">
         <v>331</v>
       </c>
       <c r="C213" s="32">
         <v>228</v>
       </c>
-      <c r="D213" s="1">
-        <v>1000000</v>
+      <c r="D213" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -28739,34 +28737,33 @@
       <c r="BH213" s="1"/>
       <c r="BI213" s="1"/>
       <c r="BJ213" s="1"/>
-      <c r="BK213" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BL213" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BM213" s="9">
-        <v>500</v>
+      <c r="BK213" s="1">
+        <v>750</v>
+      </c>
+      <c r="BL213" s="1">
+        <v>800</v>
+      </c>
+      <c r="BM213" s="1">
+        <v>1200</v>
       </c>
       <c r="BN213" s="1"/>
       <c r="BO213" s="1"/>
       <c r="BP213" s="1"/>
-      <c r="BQ213" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="BR213" s="1">
-        <v>2000</v>
-      </c>
-      <c r="BS213" s="1">
-        <v>-1000</v>
+      <c r="BQ213" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR213" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS213" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BT213" s="1">
         <f>AVERAGE(BK213,BL213,BM213)</f>
-        <v>1000</v>
-      </c>
-      <c r="BU213" s="1">
-        <f>AVERAGE(BQ213,BR213,BS213)</f>
-        <v>0</v>
+        <v>916.66666666666663</v>
+      </c>
+      <c r="BU213" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BV213" s="1"/>
       <c r="BW213" s="1"/>
@@ -28784,15 +28781,15 @@
       <c r="CI213" s="1"/>
       <c r="CJ213" s="1"/>
       <c r="CK213" s="1"/>
-      <c r="CL213" s="37">
-        <v>1000000</v>
+      <c r="CL213" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="CM213" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CN213" s="1"/>
     </row>
-    <row r="214" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B214" s="6" t="s">
         <v>332</v>
       </c>
@@ -28803,7 +28800,7 @@
         <v>63</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -28862,33 +28859,33 @@
       <c r="BH214" s="1"/>
       <c r="BI214" s="1"/>
       <c r="BJ214" s="1"/>
-      <c r="BK214" s="1">
-        <v>750</v>
-      </c>
-      <c r="BL214" s="1">
-        <v>800</v>
-      </c>
-      <c r="BM214" s="1">
-        <v>1200</v>
+      <c r="BK214" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL214" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM214" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BN214" s="1"/>
       <c r="BO214" s="1"/>
       <c r="BP214" s="1"/>
-      <c r="BQ214" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR214" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS214" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT214" s="1">
-        <f>AVERAGE(BK214,BL214,BM214)</f>
+      <c r="BQ214" s="1">
+        <v>750</v>
+      </c>
+      <c r="BR214" s="1">
+        <v>800</v>
+      </c>
+      <c r="BS214" s="1">
+        <v>1200</v>
+      </c>
+      <c r="BT214" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU214" s="1">
+        <f>AVERAGE(BQ214,BR214,BS214)</f>
         <v>916.66666666666663</v>
-      </c>
-      <c r="BU214" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="BV214" s="1"/>
       <c r="BW214" s="1"/>
@@ -28907,14 +28904,14 @@
       <c r="CJ214" s="1"/>
       <c r="CK214" s="1"/>
       <c r="CL214" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM214" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CN214" s="1"/>
     </row>
-    <row r="215" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B215" s="6" t="s">
         <v>333</v>
       </c>
@@ -28924,8 +28921,8 @@
       <c r="D215" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E215" s="24" t="s">
-        <v>107</v>
+      <c r="E215" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -28984,33 +28981,34 @@
       <c r="BH215" s="1"/>
       <c r="BI215" s="1"/>
       <c r="BJ215" s="1"/>
-      <c r="BK215" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL215" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM215" s="1" t="s">
-        <v>62</v>
+      <c r="BK215" s="9">
+        <v>-1000</v>
+      </c>
+      <c r="BL215" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="BM215" s="9">
+        <v>500</v>
       </c>
       <c r="BN215" s="1"/>
       <c r="BO215" s="1"/>
       <c r="BP215" s="1"/>
       <c r="BQ215" s="1">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="BR215" s="1">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="BS215" s="1">
-        <v>1200</v>
-      </c>
-      <c r="BT215" s="1" t="s">
-        <v>62</v>
+        <v>2000</v>
+      </c>
+      <c r="BT215" s="1">
+        <f>AVERAGE(BK215,BL215,BM215)</f>
+        <v>-666.66666666666663</v>
       </c>
       <c r="BU215" s="1">
         <f>AVERAGE(BQ215,BR215,BS215)</f>
-        <v>916.66666666666663</v>
+        <v>2000</v>
       </c>
       <c r="BV215" s="1"/>
       <c r="BW215" s="1"/>
@@ -29029,14 +29027,14 @@
       <c r="CJ215" s="1"/>
       <c r="CK215" s="1"/>
       <c r="CL215" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM215" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="CN215" s="1"/>
     </row>
-    <row r="216" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B216" s="6" t="s">
         <v>334</v>
       </c>
@@ -29046,8 +29044,8 @@
       <c r="D216" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E216" s="28" t="s">
-        <v>103</v>
+      <c r="E216" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -29107,7 +29105,7 @@
       <c r="BI216" s="1"/>
       <c r="BJ216" s="1"/>
       <c r="BK216" s="9">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="BL216" s="9">
         <v>-1500</v>
@@ -29119,21 +29117,21 @@
       <c r="BO216" s="1"/>
       <c r="BP216" s="1"/>
       <c r="BQ216" s="1">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BR216" s="1">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BS216" s="1">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="BT216" s="1">
         <f>AVERAGE(BK216,BL216,BM216)</f>
-        <v>-666.66666666666663</v>
+        <v>-600</v>
       </c>
       <c r="BU216" s="1">
         <f>AVERAGE(BQ216,BR216,BS216)</f>
-        <v>2000</v>
+        <v>-833.33333333333337</v>
       </c>
       <c r="BV216" s="1"/>
       <c r="BW216" s="1"/>
@@ -29152,14 +29150,14 @@
       <c r="CJ216" s="1"/>
       <c r="CK216" s="1"/>
       <c r="CL216" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM216" s="1" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="CN216" s="1"/>
     </row>
-    <row r="217" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B217" s="6" t="s">
         <v>335</v>
       </c>
@@ -29169,8 +29167,8 @@
       <c r="D217" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E217" s="16" t="s">
-        <v>117</v>
+      <c r="E217" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -29236,27 +29234,27 @@
         <v>-1500</v>
       </c>
       <c r="BM217" s="9">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="BN217" s="1"/>
       <c r="BO217" s="1"/>
       <c r="BP217" s="1"/>
       <c r="BQ217" s="1">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BR217" s="1">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BS217" s="1">
-        <v>2500</v>
+        <v>-2000</v>
       </c>
       <c r="BT217" s="1">
         <f>AVERAGE(BK217,BL217,BM217)</f>
-        <v>-600</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="BU217" s="1">
         <f>AVERAGE(BQ217,BR217,BS217)</f>
-        <v>-833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="BV217" s="1"/>
       <c r="BW217" s="1"/>
@@ -29275,14 +29273,14 @@
       <c r="CJ217" s="1"/>
       <c r="CK217" s="1"/>
       <c r="CL217" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM217" s="1" t="s">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="CN217" s="1"/>
     </row>
-    <row r="218" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B218" s="6" t="s">
         <v>336</v>
       </c>
@@ -29293,7 +29291,7 @@
         <v>63</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -29352,34 +29350,34 @@
       <c r="BH218" s="1"/>
       <c r="BI218" s="1"/>
       <c r="BJ218" s="1"/>
-      <c r="BK218" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BL218" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BM218" s="9">
-        <v>-500</v>
+      <c r="BK218" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BL218" s="1">
+        <v>2000</v>
+      </c>
+      <c r="BM218" s="1">
+        <v>2000</v>
       </c>
       <c r="BN218" s="1"/>
       <c r="BO218" s="1"/>
       <c r="BP218" s="1"/>
-      <c r="BQ218" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BR218" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BS218" s="1">
-        <v>-2000</v>
+      <c r="BQ218" s="9">
+        <v>-1000</v>
+      </c>
+      <c r="BR218" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="BS218" s="9">
+        <v>500</v>
       </c>
       <c r="BT218" s="1">
-        <f>AVERAGE(BK218,BL218,BM218)</f>
-        <v>-933.33333333333337</v>
+        <f t="shared" ref="BT218:BT220" si="65">AVERAGE(BK218,BL218,BM218)</f>
+        <v>2000</v>
       </c>
       <c r="BU218" s="1">
-        <f>AVERAGE(BQ218,BR218,BS218)</f>
-        <v>0</v>
+        <f t="shared" ref="BU218:BU221" si="66">AVERAGE(BQ218,BR218,BS218)</f>
+        <v>-666.66666666666663</v>
       </c>
       <c r="BV218" s="1"/>
       <c r="BW218" s="1"/>
@@ -29398,14 +29396,14 @@
       <c r="CJ218" s="1"/>
       <c r="CK218" s="1"/>
       <c r="CL218" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM218" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="CN218" s="1"/>
     </row>
-    <row r="219" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B219" s="6" t="s">
         <v>337</v>
       </c>
@@ -29415,8 +29413,8 @@
       <c r="D219" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E219" s="28" t="s">
-        <v>108</v>
+      <c r="E219" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -29476,19 +29474,19 @@
       <c r="BI219" s="1"/>
       <c r="BJ219" s="1"/>
       <c r="BK219" s="1">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BL219" s="1">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BM219" s="1">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="BN219" s="1"/>
       <c r="BO219" s="1"/>
       <c r="BP219" s="1"/>
       <c r="BQ219" s="9">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="BR219" s="9">
         <v>-1500</v>
@@ -29497,12 +29495,12 @@
         <v>500</v>
       </c>
       <c r="BT219" s="1">
-        <f t="shared" ref="BT219:BT221" si="65">AVERAGE(BK219,BL219,BM219)</f>
-        <v>2000</v>
+        <f t="shared" si="65"/>
+        <v>-833.33333333333337</v>
       </c>
       <c r="BU219" s="1">
-        <f t="shared" ref="BU219:BU222" si="66">AVERAGE(BQ219,BR219,BS219)</f>
-        <v>-666.66666666666663</v>
+        <f t="shared" si="66"/>
+        <v>-600</v>
       </c>
       <c r="BV219" s="1"/>
       <c r="BW219" s="1"/>
@@ -29521,14 +29519,14 @@
       <c r="CJ219" s="1"/>
       <c r="CK219" s="1"/>
       <c r="CL219" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM219" s="1" t="s">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="CN219" s="1"/>
     </row>
-    <row r="220" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B220" s="6" t="s">
         <v>338</v>
       </c>
@@ -29538,8 +29536,8 @@
       <c r="D220" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E220" s="16" t="s">
-        <v>117</v>
+      <c r="E220" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -29599,13 +29597,13 @@
       <c r="BI220" s="1"/>
       <c r="BJ220" s="1"/>
       <c r="BK220" s="1">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BL220" s="1">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BM220" s="1">
-        <v>2500</v>
+        <v>-2000</v>
       </c>
       <c r="BN220" s="1"/>
       <c r="BO220" s="1"/>
@@ -29617,15 +29615,15 @@
         <v>-1500</v>
       </c>
       <c r="BS220" s="9">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="BT220" s="1">
         <f t="shared" si="65"/>
-        <v>-833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="BU220" s="1">
         <f t="shared" si="66"/>
-        <v>-600</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="BV220" s="1"/>
       <c r="BW220" s="1"/>
@@ -29644,26 +29642,25 @@
       <c r="CJ220" s="1"/>
       <c r="CK220" s="1"/>
       <c r="CL220" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM220" s="1" t="s">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="CN220" s="1"/>
     </row>
-    <row r="221" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B221" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C221" s="32">
-        <v>228</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E221" s="28" t="s">
-        <v>108</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D221" s="1">
+        <f>BT221/BU221</f>
+        <v>0.5</v>
+      </c>
+      <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -29721,34 +29718,34 @@
       <c r="BH221" s="1"/>
       <c r="BI221" s="1"/>
       <c r="BJ221" s="1"/>
-      <c r="BK221" s="1">
+      <c r="BK221" s="1"/>
+      <c r="BL221" s="1"/>
+      <c r="BM221" s="1"/>
+      <c r="BN221" s="9">
         <v>1000</v>
       </c>
-      <c r="BL221" s="1">
+      <c r="BO221" s="9">
+        <v>1500</v>
+      </c>
+      <c r="BP221" s="9">
+        <v>500</v>
+      </c>
+      <c r="BQ221" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BR221" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BS221" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BT221" s="1">
+        <f>AVERAGE(BN221,BO221,BP221)</f>
         <v>1000</v>
-      </c>
-      <c r="BM221" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="BN221" s="1"/>
-      <c r="BO221" s="1"/>
-      <c r="BP221" s="1"/>
-      <c r="BQ221" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BR221" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BS221" s="9">
-        <v>-500</v>
-      </c>
-      <c r="BT221" s="1">
-        <f t="shared" si="65"/>
-        <v>0</v>
       </c>
       <c r="BU221" s="1">
         <f t="shared" si="66"/>
-        <v>-933.33333333333337</v>
+        <v>2000</v>
       </c>
       <c r="BV221" s="1"/>
       <c r="BW221" s="1"/>
@@ -29766,15 +29763,13 @@
       <c r="CI221" s="1"/>
       <c r="CJ221" s="1"/>
       <c r="CK221" s="1"/>
-      <c r="CL221" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM221" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="CL221" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="CM221" s="1"/>
       <c r="CN221" s="1"/>
     </row>
-    <row r="222" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B222" s="6" t="s">
         <v>340</v>
       </c>
@@ -29783,7 +29778,7 @@
       </c>
       <c r="D222" s="1">
         <f>BT222/BU222</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -29847,30 +29842,30 @@
       <c r="BL222" s="1"/>
       <c r="BM222" s="1"/>
       <c r="BN222" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO222" s="9">
+        <v>900</v>
+      </c>
+      <c r="BO222" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP222" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ222" s="9">
         <v>1500</v>
       </c>
-      <c r="BP222" s="9">
-        <v>500</v>
-      </c>
-      <c r="BQ222" s="9">
-        <v>2000</v>
-      </c>
-      <c r="BR222" s="9">
-        <v>2000</v>
-      </c>
-      <c r="BS222" s="9">
-        <v>2000</v>
+      <c r="BR222" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS222" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BT222" s="1">
         <f>AVERAGE(BN222,BO222,BP222)</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="BU222" s="1">
-        <f t="shared" si="66"/>
-        <v>2000</v>
+        <f t="shared" ref="BU222" si="67">AVERAGE(BQ222,BR222,BS222)</f>
+        <v>1500</v>
       </c>
       <c r="BV222" s="1"/>
       <c r="BW222" s="1"/>
@@ -29889,12 +29884,12 @@
       <c r="CJ222" s="1"/>
       <c r="CK222" s="1"/>
       <c r="CL222" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CM222" s="1"/>
       <c r="CN222" s="1"/>
     </row>
-    <row r="223" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B223" s="6" t="s">
         <v>341</v>
       </c>
@@ -29903,7 +29898,7 @@
       </c>
       <c r="D223" s="1">
         <f>BT223/BU223</f>
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
@@ -29967,30 +29962,30 @@
       <c r="BL223" s="1"/>
       <c r="BM223" s="1"/>
       <c r="BN223" s="9">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="BO223" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BP223" s="9" t="s">
-        <v>62</v>
+      <c r="BP223" s="9">
+        <v>1200</v>
       </c>
       <c r="BQ223" s="9">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="BR223" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BS223" s="9" t="s">
-        <v>62</v>
+      <c r="BS223" s="9">
+        <v>2500</v>
       </c>
       <c r="BT223" s="1">
         <f>AVERAGE(BN223,BO223,BP223)</f>
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="BU223" s="1">
-        <f t="shared" ref="BU223" si="67">AVERAGE(BQ223,BR223,BS223)</f>
-        <v>1500</v>
+        <f t="shared" ref="BU223:BU225" si="68">AVERAGE(BQ223,BR223,BS223)</f>
+        <v>2500</v>
       </c>
       <c r="BV223" s="1"/>
       <c r="BW223" s="1"/>
@@ -30009,23 +30004,24 @@
       <c r="CJ223" s="1"/>
       <c r="CK223" s="1"/>
       <c r="CL223" s="1">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="CM223" s="1"/>
       <c r="CN223" s="1"/>
     </row>
-    <row r="224" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B224" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C224" s="32">
         <v>229</v>
       </c>
-      <c r="D224" s="1">
-        <f>BT224/BU224</f>
-        <v>0.84</v>
-      </c>
-      <c r="E224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -30086,31 +30082,29 @@
       <c r="BK224" s="1"/>
       <c r="BL224" s="1"/>
       <c r="BM224" s="1"/>
-      <c r="BN224" s="9">
-        <v>3000</v>
+      <c r="BN224" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BO224" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BP224" s="9">
-        <v>1200</v>
-      </c>
-      <c r="BQ224" s="9">
-        <v>2500</v>
+      <c r="BP224" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ224" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BR224" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BS224" s="9">
-        <v>2500</v>
-      </c>
-      <c r="BT224" s="1">
-        <f>AVERAGE(BN224,BO224,BP224)</f>
-        <v>2100</v>
-      </c>
-      <c r="BU224" s="1">
-        <f t="shared" ref="BU224:BU226" si="68">AVERAGE(BQ224,BR224,BS224)</f>
-        <v>2500</v>
+      <c r="BS224" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT224" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU224" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BV224" s="1"/>
       <c r="BW224" s="1"/>
@@ -30128,24 +30122,26 @@
       <c r="CI224" s="1"/>
       <c r="CJ224" s="1"/>
       <c r="CK224" s="1"/>
-      <c r="CL224" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="CM224" s="1"/>
+      <c r="CL224" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM224" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN224" s="1"/>
     </row>
-    <row r="225" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B225" s="6" t="s">
         <v>343</v>
       </c>
       <c r="C225" s="32">
         <v>229</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E225" s="24" t="s">
-        <v>102</v>
+      <c r="D225" s="35">
+        <v>999999</v>
+      </c>
+      <c r="E225" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -30207,29 +30203,31 @@
       <c r="BK225" s="1"/>
       <c r="BL225" s="1"/>
       <c r="BM225" s="1"/>
-      <c r="BN225" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO225" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP225" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BQ225" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR225" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS225" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT225" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BU225" s="1" t="s">
-        <v>62</v>
+      <c r="BN225" s="9">
+        <v>1000</v>
+      </c>
+      <c r="BO225" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="BP225" s="9">
+        <v>500</v>
+      </c>
+      <c r="BQ225" s="9">
+        <v>-1000</v>
+      </c>
+      <c r="BR225" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BS225" s="9">
+        <v>-1000</v>
+      </c>
+      <c r="BT225" s="1">
+        <f>AVERAGE(BN225,BO225,BP225)</f>
+        <v>0</v>
+      </c>
+      <c r="BU225" s="1">
+        <f t="shared" si="68"/>
+        <v>0</v>
       </c>
       <c r="BV225" s="1"/>
       <c r="BW225" s="1"/>
@@ -30247,26 +30245,26 @@
       <c r="CI225" s="1"/>
       <c r="CJ225" s="1"/>
       <c r="CK225" s="1"/>
-      <c r="CL225" s="1" t="s">
-        <v>364</v>
+      <c r="CL225" s="1">
+        <v>0</v>
       </c>
       <c r="CM225" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CN225" s="1"/>
     </row>
-    <row r="226" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B226" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C226" s="32">
         <v>229</v>
       </c>
-      <c r="D226" s="35">
-        <v>999999</v>
-      </c>
-      <c r="E226" s="38" t="s">
-        <v>104</v>
+      <c r="D226" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E226" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -30332,7 +30330,7 @@
         <v>1000</v>
       </c>
       <c r="BO226" s="9">
-        <v>-1500</v>
+        <v>1500</v>
       </c>
       <c r="BP226" s="9">
         <v>500</v>
@@ -30348,10 +30346,10 @@
       </c>
       <c r="BT226" s="1">
         <f>AVERAGE(BN226,BO226,BP226)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BU226" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="BU226" si="69">AVERAGE(BQ226,BR226,BS226)</f>
         <v>0</v>
       </c>
       <c r="BV226" s="1"/>
@@ -30370,26 +30368,26 @@
       <c r="CI226" s="1"/>
       <c r="CJ226" s="1"/>
       <c r="CK226" s="1"/>
-      <c r="CL226" s="1">
-        <v>0</v>
+      <c r="CL226" s="37">
+        <v>1000000</v>
       </c>
       <c r="CM226" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CN226" s="1"/>
     </row>
-    <row r="227" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B227" s="6" t="s">
         <v>345</v>
       </c>
       <c r="C227" s="32">
         <v>229</v>
       </c>
-      <c r="D227" s="1">
-        <v>1000000</v>
+      <c r="D227" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -30452,30 +30450,29 @@
       <c r="BL227" s="1"/>
       <c r="BM227" s="1"/>
       <c r="BN227" s="9">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="BO227" s="9">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="BP227" s="9">
-        <v>500</v>
-      </c>
-      <c r="BQ227" s="9">
-        <v>-1000</v>
-      </c>
-      <c r="BR227" s="9">
-        <v>2000</v>
-      </c>
-      <c r="BS227" s="9">
-        <v>-1000</v>
+        <v>1200</v>
+      </c>
+      <c r="BQ227" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR227" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS227" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BT227" s="1">
         <f>AVERAGE(BN227,BO227,BP227)</f>
-        <v>1000</v>
-      </c>
-      <c r="BU227" s="1">
-        <f t="shared" ref="BU227" si="69">AVERAGE(BQ227,BR227,BS227)</f>
-        <v>0</v>
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="BU227" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BV227" s="1"/>
       <c r="BW227" s="1"/>
@@ -30493,15 +30490,15 @@
       <c r="CI227" s="1"/>
       <c r="CJ227" s="1"/>
       <c r="CK227" s="1"/>
-      <c r="CL227" s="37">
-        <v>1000000</v>
+      <c r="CL227" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="CM227" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CN227" s="1"/>
     </row>
-    <row r="228" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B228" s="6" t="s">
         <v>346</v>
       </c>
@@ -30512,7 +30509,7 @@
         <v>63</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -30574,30 +30571,30 @@
       <c r="BK228" s="1"/>
       <c r="BL228" s="1"/>
       <c r="BM228" s="1"/>
-      <c r="BN228" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BO228" s="9">
-        <v>800</v>
-      </c>
-      <c r="BP228" s="9">
+      <c r="BN228" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO228" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP228" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ228" s="9">
+        <v>750</v>
+      </c>
+      <c r="BR228" s="9">
+        <v>900</v>
+      </c>
+      <c r="BS228" s="9">
         <v>1200</v>
       </c>
-      <c r="BQ228" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR228" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS228" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT228" s="1">
-        <f>AVERAGE(BN228,BO228,BP228)</f>
-        <v>1166.6666666666667</v>
-      </c>
-      <c r="BU228" s="1" t="s">
-        <v>62</v>
+      <c r="BT228" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BU228" s="1">
+        <f t="shared" ref="BU228:BU234" si="70">AVERAGE(BQ228,BR228,BS228)</f>
+        <v>950</v>
       </c>
       <c r="BV228" s="1"/>
       <c r="BW228" s="1"/>
@@ -30616,14 +30613,14 @@
       <c r="CJ228" s="1"/>
       <c r="CK228" s="1"/>
       <c r="CL228" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM228" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CN228" s="1"/>
     </row>
-    <row r="229" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B229" s="6" t="s">
         <v>347</v>
       </c>
@@ -30633,8 +30630,8 @@
       <c r="D229" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E229" s="24" t="s">
-        <v>107</v>
+      <c r="E229" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -30696,30 +30693,31 @@
       <c r="BK229" s="1"/>
       <c r="BL229" s="1"/>
       <c r="BM229" s="1"/>
-      <c r="BN229" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO229" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP229" s="9" t="s">
-        <v>62</v>
+      <c r="BN229" s="9">
+        <v>-1000</v>
+      </c>
+      <c r="BO229" s="9">
+        <v>-1500</v>
+      </c>
+      <c r="BP229" s="9">
+        <v>500</v>
       </c>
       <c r="BQ229" s="9">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="BR229" s="9">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="BS229" s="9">
-        <v>1200</v>
-      </c>
-      <c r="BT229" s="1" t="s">
-        <v>62</v>
+        <v>2000</v>
+      </c>
+      <c r="BT229" s="1">
+        <f>AVERAGE(BN229,BO229,BP229)</f>
+        <v>-666.66666666666663</v>
       </c>
       <c r="BU229" s="1">
-        <f t="shared" ref="BU229:BU235" si="70">AVERAGE(BQ229,BR229,BS229)</f>
-        <v>950</v>
+        <f t="shared" si="70"/>
+        <v>2000</v>
       </c>
       <c r="BV229" s="1"/>
       <c r="BW229" s="1"/>
@@ -30738,14 +30736,14 @@
       <c r="CJ229" s="1"/>
       <c r="CK229" s="1"/>
       <c r="CL229" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM229" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="CN229" s="1"/>
     </row>
-    <row r="230" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B230" s="6" t="s">
         <v>348</v>
       </c>
@@ -30755,8 +30753,8 @@
       <c r="D230" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E230" s="28" t="s">
-        <v>103</v>
+      <c r="E230" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -30819,7 +30817,7 @@
       <c r="BL230" s="1"/>
       <c r="BM230" s="1"/>
       <c r="BN230" s="9">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="BO230" s="9">
         <v>-1500</v>
@@ -30828,21 +30826,21 @@
         <v>500</v>
       </c>
       <c r="BQ230" s="9">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BR230" s="9">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BS230" s="9">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="BT230" s="1">
-        <f>AVERAGE(BN230,BO230,BP230)</f>
-        <v>-666.66666666666663</v>
+        <f t="shared" ref="BT230:BT234" si="71">AVERAGE(BN230,BO230,BP230)</f>
+        <v>-600</v>
       </c>
       <c r="BU230" s="1">
         <f t="shared" si="70"/>
-        <v>2000</v>
+        <v>-833.33333333333337</v>
       </c>
       <c r="BV230" s="1"/>
       <c r="BW230" s="1"/>
@@ -30861,14 +30859,14 @@
       <c r="CJ230" s="1"/>
       <c r="CK230" s="1"/>
       <c r="CL230" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM230" s="1" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="CN230" s="1"/>
     </row>
-    <row r="231" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B231" s="6" t="s">
         <v>349</v>
       </c>
@@ -30879,7 +30877,7 @@
         <v>63</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -30948,24 +30946,24 @@
         <v>-1500</v>
       </c>
       <c r="BP231" s="9">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="BQ231" s="9">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BR231" s="9">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BS231" s="9">
-        <v>2500</v>
+        <v>-2000</v>
       </c>
       <c r="BT231" s="1">
-        <f t="shared" ref="BT231:BT235" si="71">AVERAGE(BN231,BO231,BP231)</f>
-        <v>-600</v>
+        <f t="shared" si="71"/>
+        <v>-933.33333333333337</v>
       </c>
       <c r="BU231" s="1">
         <f t="shared" si="70"/>
-        <v>-833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="BV231" s="1"/>
       <c r="BW231" s="1"/>
@@ -30984,14 +30982,14 @@
       <c r="CJ231" s="1"/>
       <c r="CK231" s="1"/>
       <c r="CL231" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM231" s="1" t="s">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="CN231" s="1"/>
     </row>
-    <row r="232" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B232" s="6" t="s">
         <v>350</v>
       </c>
@@ -31002,7 +31000,7 @@
         <v>63</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -31065,30 +31063,30 @@
       <c r="BL232" s="1"/>
       <c r="BM232" s="1"/>
       <c r="BN232" s="9">
-        <v>-800</v>
+        <v>2000</v>
       </c>
       <c r="BO232" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BP232" s="9">
+        <v>2000</v>
+      </c>
+      <c r="BQ232" s="9">
+        <v>-1000</v>
+      </c>
+      <c r="BR232" s="9">
         <v>-1500</v>
       </c>
-      <c r="BP232" s="9">
-        <v>-500</v>
-      </c>
-      <c r="BQ232" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BR232" s="9">
-        <v>1000</v>
-      </c>
       <c r="BS232" s="9">
-        <v>-2000</v>
+        <v>500</v>
       </c>
       <c r="BT232" s="1">
         <f t="shared" si="71"/>
-        <v>-933.33333333333337</v>
+        <v>2000</v>
       </c>
       <c r="BU232" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>-666.66666666666663</v>
       </c>
       <c r="BV232" s="1"/>
       <c r="BW232" s="1"/>
@@ -31107,14 +31105,14 @@
       <c r="CJ232" s="1"/>
       <c r="CK232" s="1"/>
       <c r="CL232" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM232" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="CN232" s="1"/>
     </row>
-    <row r="233" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B233" s="6" t="s">
         <v>351</v>
       </c>
@@ -31125,7 +31123,7 @@
         <v>63</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -31188,16 +31186,16 @@
       <c r="BL233" s="1"/>
       <c r="BM233" s="1"/>
       <c r="BN233" s="9">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BO233" s="9">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="BP233" s="9">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="BQ233" s="9">
-        <v>-1000</v>
+        <v>-800</v>
       </c>
       <c r="BR233" s="9">
         <v>-1500</v>
@@ -31207,11 +31205,11 @@
       </c>
       <c r="BT233" s="1">
         <f t="shared" si="71"/>
-        <v>2000</v>
+        <v>-833.33333333333337</v>
       </c>
       <c r="BU233" s="1">
         <f t="shared" si="70"/>
-        <v>-666.66666666666663</v>
+        <v>-600</v>
       </c>
       <c r="BV233" s="1"/>
       <c r="BW233" s="1"/>
@@ -31230,14 +31228,14 @@
       <c r="CJ233" s="1"/>
       <c r="CK233" s="1"/>
       <c r="CL233" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM233" s="1" t="s">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="CN233" s="1"/>
     </row>
-    <row r="234" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B234" s="6" t="s">
         <v>352</v>
       </c>
@@ -31248,7 +31246,7 @@
         <v>63</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -31311,13 +31309,13 @@
       <c r="BL234" s="1"/>
       <c r="BM234" s="1"/>
       <c r="BN234" s="9">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BO234" s="9">
-        <v>-2500</v>
+        <v>1000</v>
       </c>
       <c r="BP234" s="9">
-        <v>2500</v>
+        <v>-2000</v>
       </c>
       <c r="BQ234" s="9">
         <v>-800</v>
@@ -31326,15 +31324,15 @@
         <v>-1500</v>
       </c>
       <c r="BS234" s="9">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="BT234" s="1">
         <f t="shared" si="71"/>
-        <v>-833.33333333333337</v>
+        <v>0</v>
       </c>
       <c r="BU234" s="1">
         <f t="shared" si="70"/>
-        <v>-600</v>
+        <v>-933.33333333333337</v>
       </c>
       <c r="BV234" s="1"/>
       <c r="BW234" s="1"/>
@@ -31353,26 +31351,25 @@
       <c r="CJ234" s="1"/>
       <c r="CK234" s="1"/>
       <c r="CL234" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CM234" s="1" t="s">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="CN234" s="1"/>
     </row>
-    <row r="235" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B235" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C235" s="32">
-        <v>229</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E235" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D235" s="1">
+        <f>AVERAGE((BE235-BK235),(BF235-BL235),(BG235-BM235))</f>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -31424,41 +31421,35 @@
       <c r="BB235" s="1"/>
       <c r="BC235" s="1"/>
       <c r="BD235" s="1"/>
-      <c r="BE235" s="1"/>
-      <c r="BF235" s="1"/>
-      <c r="BG235" s="1"/>
+      <c r="BE235" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BF235" s="1">
+        <v>1000</v>
+      </c>
+      <c r="BG235" s="1">
+        <v>1500</v>
+      </c>
       <c r="BH235" s="1"/>
       <c r="BI235" s="1"/>
       <c r="BJ235" s="1"/>
-      <c r="BK235" s="1"/>
-      <c r="BL235" s="1"/>
-      <c r="BM235" s="1"/>
-      <c r="BN235" s="9">
+      <c r="BK235" s="1">
+        <v>800</v>
+      </c>
+      <c r="BL235" s="1">
         <v>1000</v>
       </c>
-      <c r="BO235" s="9">
+      <c r="BM235" s="1">
         <v>1000</v>
       </c>
-      <c r="BP235" s="9">
-        <v>-2000</v>
-      </c>
-      <c r="BQ235" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BR235" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BS235" s="9">
-        <v>-500</v>
-      </c>
-      <c r="BT235" s="1">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="BU235" s="1">
-        <f t="shared" si="70"/>
-        <v>-933.33333333333337</v>
-      </c>
+      <c r="BN235" s="1"/>
+      <c r="BO235" s="1"/>
+      <c r="BP235" s="1"/>
+      <c r="BQ235" s="1"/>
+      <c r="BR235" s="1"/>
+      <c r="BS235" s="1"/>
+      <c r="BT235" s="1"/>
+      <c r="BU235" s="1"/>
       <c r="BV235" s="1"/>
       <c r="BW235" s="1"/>
       <c r="BX235" s="1"/>
@@ -31475,15 +31466,13 @@
       <c r="CI235" s="1"/>
       <c r="CJ235" s="1"/>
       <c r="CK235" s="1"/>
-      <c r="CL235" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM235" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="CL235" s="1">
+        <v>233.33</v>
+      </c>
+      <c r="CM235" s="1"/>
       <c r="CN235" s="1"/>
     </row>
-    <row r="236" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B236" s="6" t="s">
         <v>354</v>
       </c>
@@ -31491,8 +31480,8 @@
         <v>230</v>
       </c>
       <c r="D236" s="1">
-        <f>AVERAGE((BE236-BK236),(BF236-BL236),(BG236-BM236))</f>
-        <v>233.33333333333334</v>
+        <f>AVERAGE((BE236-BK236))</f>
+        <v>200</v>
       </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
@@ -31549,11 +31538,11 @@
       <c r="BE236" s="1">
         <v>1000</v>
       </c>
-      <c r="BF236" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BG236" s="1">
-        <v>1500</v>
+      <c r="BF236" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG236" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BH236" s="1"/>
       <c r="BI236" s="1"/>
@@ -31561,11 +31550,11 @@
       <c r="BK236" s="1">
         <v>800</v>
       </c>
-      <c r="BL236" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BM236" s="1">
-        <v>1000</v>
+      <c r="BL236" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM236" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BN236" s="1"/>
       <c r="BO236" s="1"/>
@@ -31592,23 +31581,24 @@
       <c r="CJ236" s="1"/>
       <c r="CK236" s="1"/>
       <c r="CL236" s="1">
-        <v>233.33</v>
+        <v>200</v>
       </c>
       <c r="CM236" s="1"/>
       <c r="CN236" s="1"/>
     </row>
-    <row r="237" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B237" s="6" t="s">
         <v>355</v>
       </c>
       <c r="C237" s="32">
         <v>230</v>
       </c>
-      <c r="D237" s="1">
-        <f>AVERAGE((BE237-BK237))</f>
-        <v>200</v>
-      </c>
-      <c r="E237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -31660,8 +31650,8 @@
       <c r="BB237" s="1"/>
       <c r="BC237" s="1"/>
       <c r="BD237" s="1"/>
-      <c r="BE237" s="1">
-        <v>1000</v>
+      <c r="BE237" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BF237" s="1" t="s">
         <v>62</v>
@@ -31672,8 +31662,8 @@
       <c r="BH237" s="1"/>
       <c r="BI237" s="1"/>
       <c r="BJ237" s="1"/>
-      <c r="BK237" s="1">
-        <v>800</v>
+      <c r="BK237" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="BL237" s="1" t="s">
         <v>62</v>
@@ -31705,25 +31695,26 @@
       <c r="CI237" s="1"/>
       <c r="CJ237" s="1"/>
       <c r="CK237" s="1"/>
-      <c r="CL237" s="1">
-        <v>200</v>
-      </c>
-      <c r="CM237" s="1"/>
+      <c r="CL237" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM237" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN237" s="1"/>
     </row>
-    <row r="238" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B238" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C238" s="32">
         <v>230</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E238" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="D238" s="1">
+        <f>AVERAGE((BE238-BK238),(BF238-BL238),(BG238-BM238))</f>
+        <v>1300</v>
+      </c>
+      <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -31775,26 +31766,26 @@
       <c r="BB238" s="1"/>
       <c r="BC238" s="1"/>
       <c r="BD238" s="1"/>
-      <c r="BE238" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BF238" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BG238" s="1" t="s">
-        <v>62</v>
+      <c r="BE238" s="1">
+        <v>1500</v>
+      </c>
+      <c r="BF238" s="1">
+        <v>1500</v>
+      </c>
+      <c r="BG238" s="1">
+        <v>1200</v>
       </c>
       <c r="BH238" s="1"/>
       <c r="BI238" s="1"/>
       <c r="BJ238" s="1"/>
-      <c r="BK238" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL238" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM238" s="1" t="s">
-        <v>62</v>
+      <c r="BK238" s="1">
+        <v>-1200</v>
+      </c>
+      <c r="BL238" s="1">
+        <v>800</v>
+      </c>
+      <c r="BM238" s="1">
+        <v>700</v>
       </c>
       <c r="BN238" s="1"/>
       <c r="BO238" s="1"/>
@@ -31820,26 +31811,25 @@
       <c r="CI238" s="1"/>
       <c r="CJ238" s="1"/>
       <c r="CK238" s="1"/>
-      <c r="CL238" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM238" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="CL238" s="37">
+        <v>1300</v>
+      </c>
+      <c r="CM238" s="1"/>
       <c r="CN238" s="1"/>
     </row>
-    <row r="239" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B239" s="6" t="s">
         <v>357</v>
       </c>
       <c r="C239" s="32">
         <v>230</v>
       </c>
-      <c r="D239" s="1">
-        <f>AVERAGE((BE239-BK239),(BF239-BL239),(BG239-BM239))</f>
-        <v>1300</v>
-      </c>
-      <c r="E239" s="1"/>
+      <c r="D239" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -31895,16 +31885,16 @@
         <v>1500</v>
       </c>
       <c r="BF239" s="1">
-        <v>1500</v>
+        <v>-1500</v>
       </c>
       <c r="BG239" s="1">
-        <v>1200</v>
+        <v>-1200</v>
       </c>
       <c r="BH239" s="1"/>
       <c r="BI239" s="1"/>
       <c r="BJ239" s="1"/>
       <c r="BK239" s="1">
-        <v>-1200</v>
+        <v>1200</v>
       </c>
       <c r="BL239" s="1">
         <v>800</v>
@@ -31936,25 +31926,26 @@
       <c r="CI239" s="1"/>
       <c r="CJ239" s="1"/>
       <c r="CK239" s="1"/>
-      <c r="CL239" s="37">
-        <v>1300</v>
-      </c>
-      <c r="CM239" s="1"/>
+      <c r="CL239" s="41">
+        <v>-1300</v>
+      </c>
+      <c r="CM239" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN239" s="1"/>
     </row>
-    <row r="240" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B240" s="6" t="s">
         <v>358</v>
       </c>
       <c r="C240" s="32">
-        <v>230</v>
-      </c>
-      <c r="D240" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E240" s="11" t="s">
-        <v>103</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D240" s="1">
+        <f>AVERAGE((BH240-BN240),(BI240-BO240),(BJ240-BP240))</f>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
@@ -32006,30 +31997,30 @@
       <c r="BB240" s="1"/>
       <c r="BC240" s="1"/>
       <c r="BD240" s="1"/>
-      <c r="BE240" s="1">
+      <c r="BE240" s="1"/>
+      <c r="BF240" s="1"/>
+      <c r="BG240" s="1"/>
+      <c r="BH240" s="9">
         <v>1500</v>
       </c>
-      <c r="BF240" s="1">
-        <v>-1500</v>
-      </c>
-      <c r="BG240" s="1">
-        <v>-1200</v>
-      </c>
-      <c r="BH240" s="1"/>
-      <c r="BI240" s="1"/>
-      <c r="BJ240" s="1"/>
-      <c r="BK240" s="1">
-        <v>1200</v>
-      </c>
-      <c r="BL240" s="1">
+      <c r="BI240" s="9">
+        <v>1000</v>
+      </c>
+      <c r="BJ240" s="9">
+        <v>1000</v>
+      </c>
+      <c r="BK240" s="9"/>
+      <c r="BL240" s="9"/>
+      <c r="BM240" s="9"/>
+      <c r="BN240" s="9">
         <v>800</v>
       </c>
-      <c r="BM240" s="1">
-        <v>700</v>
-      </c>
-      <c r="BN240" s="1"/>
-      <c r="BO240" s="1"/>
-      <c r="BP240" s="1"/>
+      <c r="BO240" s="9">
+        <v>900</v>
+      </c>
+      <c r="BP240" s="9">
+        <v>500</v>
+      </c>
       <c r="BQ240" s="1"/>
       <c r="BR240" s="1"/>
       <c r="BS240" s="1"/>
@@ -32051,15 +32042,13 @@
       <c r="CI240" s="1"/>
       <c r="CJ240" s="1"/>
       <c r="CK240" s="1"/>
-      <c r="CL240" s="41">
-        <v>-1300</v>
-      </c>
-      <c r="CM240" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="CL240" s="37">
+        <v>433.33</v>
+      </c>
+      <c r="CM240" s="1"/>
       <c r="CN240" s="1"/>
     </row>
-    <row r="241" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B241" s="6" t="s">
         <v>359</v>
       </c>
@@ -32067,8 +32056,8 @@
         <v>231</v>
       </c>
       <c r="D241" s="1">
-        <f>AVERAGE((BH241-BN241),(BI241-BO241),(BJ241-BP241))</f>
-        <v>433.33333333333331</v>
+        <f>AVERAGE((BH241-BN241))</f>
+        <v>300</v>
       </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
@@ -32126,25 +32115,25 @@
       <c r="BF241" s="1"/>
       <c r="BG241" s="1"/>
       <c r="BH241" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BI241" s="9">
         <v>1000</v>
       </c>
-      <c r="BJ241" s="9">
-        <v>1000</v>
+      <c r="BI241" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ241" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BK241" s="9"/>
       <c r="BL241" s="9"/>
       <c r="BM241" s="9"/>
       <c r="BN241" s="9">
-        <v>800</v>
-      </c>
-      <c r="BO241" s="9">
-        <v>900</v>
-      </c>
-      <c r="BP241" s="9">
-        <v>500</v>
+        <v>700</v>
+      </c>
+      <c r="BO241" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP241" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BQ241" s="1"/>
       <c r="BR241" s="1"/>
@@ -32168,23 +32157,24 @@
       <c r="CJ241" s="1"/>
       <c r="CK241" s="1"/>
       <c r="CL241" s="37">
-        <v>433.33</v>
+        <v>300</v>
       </c>
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
     </row>
-    <row r="242" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B242" s="6" t="s">
         <v>360</v>
       </c>
       <c r="C242" s="32">
         <v>231</v>
       </c>
-      <c r="D242" s="1">
-        <f>AVERAGE((BH242-BN242))</f>
-        <v>300</v>
-      </c>
-      <c r="E242" s="1"/>
+      <c r="D242" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E242" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -32239,8 +32229,8 @@
       <c r="BE242" s="1"/>
       <c r="BF242" s="1"/>
       <c r="BG242" s="1"/>
-      <c r="BH242" s="9">
-        <v>1000</v>
+      <c r="BH242" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BI242" s="9" t="s">
         <v>62</v>
@@ -32251,8 +32241,8 @@
       <c r="BK242" s="9"/>
       <c r="BL242" s="9"/>
       <c r="BM242" s="9"/>
-      <c r="BN242" s="9">
-        <v>700</v>
+      <c r="BN242" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="BO242" s="9" t="s">
         <v>62</v>
@@ -32281,25 +32271,26 @@
       <c r="CI242" s="1"/>
       <c r="CJ242" s="1"/>
       <c r="CK242" s="1"/>
-      <c r="CL242" s="37">
-        <v>300</v>
-      </c>
-      <c r="CM242" s="1"/>
+      <c r="CL242" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM242" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="CN242" s="1"/>
     </row>
-    <row r="243" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B243" s="6" t="s">
         <v>361</v>
       </c>
       <c r="C243" s="32">
         <v>231</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E243" s="24" t="s">
-        <v>102</v>
-      </c>
+      <c r="D243" s="1">
+        <f>AVERAGE((BH243-BN243),(BI243-BO243),(BJ243-BP243))</f>
+        <v>966.66666666666663</v>
+      </c>
+      <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -32354,26 +32345,26 @@
       <c r="BE243" s="1"/>
       <c r="BF243" s="1"/>
       <c r="BG243" s="1"/>
-      <c r="BH243" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI243" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ243" s="9" t="s">
-        <v>62</v>
+      <c r="BH243" s="9">
+        <v>1500</v>
+      </c>
+      <c r="BI243" s="9">
+        <v>1000</v>
+      </c>
+      <c r="BJ243" s="9">
+        <v>1000</v>
       </c>
       <c r="BK243" s="9"/>
       <c r="BL243" s="9"/>
       <c r="BM243" s="9"/>
-      <c r="BN243" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO243" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP243" s="9" t="s">
-        <v>62</v>
+      <c r="BN243" s="9">
+        <v>-800</v>
+      </c>
+      <c r="BO243" s="9">
+        <v>900</v>
+      </c>
+      <c r="BP243" s="9">
+        <v>500</v>
       </c>
       <c r="BQ243" s="1"/>
       <c r="BR243" s="1"/>
@@ -32396,26 +32387,25 @@
       <c r="CI243" s="1"/>
       <c r="CJ243" s="1"/>
       <c r="CK243" s="1"/>
-      <c r="CL243" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM243" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="CL243" s="37">
+        <v>966.67</v>
+      </c>
+      <c r="CM243" s="1"/>
       <c r="CN243" s="1"/>
     </row>
-    <row r="244" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B244" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C244" s="32">
         <v>231</v>
       </c>
-      <c r="D244" s="1">
-        <f>AVERAGE((BH244-BN244),(BI244-BO244),(BJ244-BP244))</f>
-        <v>966.66666666666663</v>
-      </c>
-      <c r="E244" s="1"/>
+      <c r="D244" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>103</v>
+      </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -32474,22 +32464,22 @@
         <v>1500</v>
       </c>
       <c r="BI244" s="9">
-        <v>1000</v>
+        <v>-1500</v>
       </c>
       <c r="BJ244" s="9">
-        <v>1000</v>
+        <v>-1200</v>
       </c>
       <c r="BK244" s="9"/>
       <c r="BL244" s="9"/>
       <c r="BM244" s="9"/>
       <c r="BN244" s="9">
-        <v>-800</v>
+        <v>1000</v>
       </c>
       <c r="BO244" s="9">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="BP244" s="9">
-        <v>500</v>
+        <v>-2000</v>
       </c>
       <c r="BQ244" s="1"/>
       <c r="BR244" s="1"/>
@@ -32512,128 +32502,13 @@
       <c r="CI244" s="1"/>
       <c r="CJ244" s="1"/>
       <c r="CK244" s="1"/>
-      <c r="CL244" s="37">
-        <v>966.67</v>
-      </c>
-      <c r="CM244" s="1"/>
+      <c r="CL244" s="35">
+        <v>-400</v>
+      </c>
+      <c r="CM244" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="CN244" s="1"/>
-    </row>
-    <row r="245" spans="2:92" x14ac:dyDescent="0.2">
-      <c r="B245" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C245" s="32">
-        <v>231</v>
-      </c>
-      <c r="D245" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E245" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
-      <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="V245" s="1"/>
-      <c r="W245" s="1"/>
-      <c r="X245" s="1"/>
-      <c r="Y245" s="1"/>
-      <c r="Z245" s="1"/>
-      <c r="AA245" s="1"/>
-      <c r="AB245" s="1"/>
-      <c r="AC245" s="1"/>
-      <c r="AD245" s="1"/>
-      <c r="AE245" s="1"/>
-      <c r="AF245" s="1"/>
-      <c r="AG245" s="1"/>
-      <c r="AH245" s="1"/>
-      <c r="AI245" s="1"/>
-      <c r="AJ245" s="1"/>
-      <c r="AK245" s="1"/>
-      <c r="AL245" s="1"/>
-      <c r="AM245" s="1"/>
-      <c r="AN245" s="1"/>
-      <c r="AO245" s="1"/>
-      <c r="AP245" s="1"/>
-      <c r="AQ245" s="1"/>
-      <c r="AR245" s="1"/>
-      <c r="AS245" s="1"/>
-      <c r="AT245" s="1"/>
-      <c r="AU245" s="1"/>
-      <c r="AV245" s="1"/>
-      <c r="AW245" s="1"/>
-      <c r="AX245" s="1"/>
-      <c r="AY245" s="1"/>
-      <c r="AZ245" s="1"/>
-      <c r="BA245" s="1"/>
-      <c r="BB245" s="1"/>
-      <c r="BC245" s="1"/>
-      <c r="BD245" s="1"/>
-      <c r="BE245" s="1"/>
-      <c r="BF245" s="1"/>
-      <c r="BG245" s="1"/>
-      <c r="BH245" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BI245" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BJ245" s="9">
-        <v>-1200</v>
-      </c>
-      <c r="BK245" s="9"/>
-      <c r="BL245" s="9"/>
-      <c r="BM245" s="9"/>
-      <c r="BN245" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO245" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BP245" s="9">
-        <v>-2000</v>
-      </c>
-      <c r="BQ245" s="1"/>
-      <c r="BR245" s="1"/>
-      <c r="BS245" s="1"/>
-      <c r="BT245" s="1"/>
-      <c r="BU245" s="1"/>
-      <c r="BV245" s="1"/>
-      <c r="BW245" s="1"/>
-      <c r="BX245" s="1"/>
-      <c r="BY245" s="1"/>
-      <c r="BZ245" s="1"/>
-      <c r="CA245" s="1"/>
-      <c r="CB245" s="1"/>
-      <c r="CC245" s="1"/>
-      <c r="CD245" s="1"/>
-      <c r="CE245" s="1"/>
-      <c r="CF245" s="1"/>
-      <c r="CG245" s="1"/>
-      <c r="CH245" s="1"/>
-      <c r="CI245" s="1"/>
-      <c r="CJ245" s="1"/>
-      <c r="CK245" s="1"/>
-      <c r="CL245" s="35">
-        <v>-400</v>
-      </c>
-      <c r="CM245" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CN245" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1693,10 +1693,10 @@
   <dimension ref="A3:FF245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BQ238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="CK175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BQ4" sqref="BQ4"/>
+      <selection pane="bottomRight" activeCell="CL182" sqref="CL182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="367">
   <si>
     <t>SNDG</t>
   </si>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1161,7 +1161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,6 +1183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,9 +1377,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1693,72 +1705,73 @@
   <dimension ref="A3:FF245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="CK175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BI215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CL182" sqref="CL182"/>
+      <selection pane="bottomRight" activeCell="BK217" sqref="BK217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="21" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="3" customWidth="1"/>
     <col min="18" max="18" width="21" style="3" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="22.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" style="3" customWidth="1"/>
-    <col min="25" max="38" width="25.140625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.85546875" style="3" customWidth="1"/>
-    <col min="41" max="42" width="28.28515625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="27.85546875" style="3" customWidth="1"/>
-    <col min="44" max="44" width="28.28515625" style="3" customWidth="1"/>
-    <col min="45" max="62" width="25.140625" style="3" customWidth="1"/>
-    <col min="63" max="63" width="21.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="24.88671875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.5546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="24.88671875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="22.109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.109375" style="3" customWidth="1"/>
+    <col min="25" max="38" width="25.109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.88671875" style="3" customWidth="1"/>
+    <col min="41" max="42" width="28.33203125" style="3" customWidth="1"/>
+    <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
+    <col min="44" max="44" width="28.33203125" style="3" customWidth="1"/>
+    <col min="45" max="62" width="25.109375" style="3" customWidth="1"/>
+    <col min="63" max="63" width="21.33203125" style="3" customWidth="1"/>
     <col min="64" max="64" width="21" style="3" customWidth="1"/>
-    <col min="65" max="65" width="21.28515625" style="3" customWidth="1"/>
+    <col min="65" max="65" width="21.33203125" style="3" customWidth="1"/>
     <col min="66" max="66" width="19" style="3" customWidth="1"/>
-    <col min="67" max="67" width="18.7109375" style="3" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" style="3" customWidth="1"/>
     <col min="68" max="69" width="19" style="3" customWidth="1"/>
-    <col min="70" max="70" width="17.85546875" style="3" customWidth="1"/>
+    <col min="70" max="70" width="17.88671875" style="3" customWidth="1"/>
     <col min="71" max="71" width="19" style="3" customWidth="1"/>
-    <col min="72" max="72" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="16.140625" style="3" customWidth="1"/>
-    <col min="78" max="78" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="18.5703125" style="3" customWidth="1"/>
-    <col min="80" max="83" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="84" max="88" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="8.85546875" style="3"/>
-    <col min="94" max="94" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="16.109375" style="3" customWidth="1"/>
+    <col min="77" max="77" width="16.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="18.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="80" max="83" width="13.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="84" max="88" width="14.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="15.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="8.88671875" style="3"/>
+    <col min="94" max="94" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="160" width="8.85546875" style="3"/>
-    <col min="161" max="161" width="15.28515625" style="3" customWidth="1"/>
-    <col min="162" max="16384" width="8.85546875" style="3"/>
+    <col min="97" max="160" width="8.88671875" style="3"/>
+    <col min="161" max="161" width="15.33203125" style="3" customWidth="1"/>
+    <col min="162" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:92" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2034,7 +2047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>122</v>
       </c>
@@ -2136,7 +2149,7 @@
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>123</v>
       </c>
@@ -2240,7 +2253,7 @@
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
@@ -2344,7 +2357,7 @@
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>125</v>
       </c>
@@ -2446,7 +2459,7 @@
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>126</v>
       </c>
@@ -2550,7 +2563,7 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>127</v>
       </c>
@@ -2654,7 +2667,7 @@
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>128</v>
       </c>
@@ -2756,7 +2769,7 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>129</v>
       </c>
@@ -2860,7 +2873,7 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>130</v>
       </c>
@@ -2963,7 +2976,7 @@
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>131</v>
       </c>
@@ -3065,7 +3078,7 @@
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>132</v>
       </c>
@@ -3169,7 +3182,7 @@
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>133</v>
       </c>
@@ -3272,7 +3285,7 @@
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>134</v>
       </c>
@@ -3374,7 +3387,7 @@
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
     </row>
-    <row r="17" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3491,7 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
     </row>
-    <row r="18" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>136</v>
       </c>
@@ -3581,7 +3594,7 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
     </row>
-    <row r="19" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>137</v>
       </c>
@@ -3683,7 +3696,7 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
     </row>
-    <row r="20" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>138</v>
       </c>
@@ -3787,7 +3800,7 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
     </row>
-    <row r="21" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>139</v>
       </c>
@@ -3891,7 +3904,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
     </row>
-    <row r="22" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>140</v>
       </c>
@@ -3993,7 +4006,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
     </row>
-    <row r="23" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>141</v>
       </c>
@@ -4097,7 +4110,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
     </row>
-    <row r="24" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>142</v>
       </c>
@@ -4201,7 +4214,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
     </row>
-    <row r="25" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>143</v>
       </c>
@@ -4303,7 +4316,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
     </row>
-    <row r="26" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>144</v>
       </c>
@@ -4407,7 +4420,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
     </row>
-    <row r="27" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>145</v>
       </c>
@@ -4510,7 +4523,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
     </row>
-    <row r="28" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>146</v>
       </c>
@@ -4612,7 +4625,7 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
     </row>
-    <row r="29" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>147</v>
       </c>
@@ -4716,7 +4729,7 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
     </row>
-    <row r="30" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>148</v>
       </c>
@@ -4819,7 +4832,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
     </row>
-    <row r="31" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
@@ -4927,7 +4940,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
     </row>
-    <row r="32" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>150</v>
       </c>
@@ -5037,7 +5050,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
     </row>
-    <row r="33" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>151</v>
       </c>
@@ -5146,7 +5159,7 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
     </row>
-    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>152</v>
       </c>
@@ -5256,7 +5269,7 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
     </row>
-    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>153</v>
       </c>
@@ -5365,7 +5378,7 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
     </row>
-    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>154</v>
       </c>
@@ -5474,7 +5487,7 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
     </row>
-    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>155</v>
       </c>
@@ -5583,7 +5596,7 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
     </row>
-    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>156</v>
       </c>
@@ -5692,7 +5705,7 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
     </row>
-    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>157</v>
       </c>
@@ -5801,7 +5814,7 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
     </row>
-    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>158</v>
       </c>
@@ -5910,7 +5923,7 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
     </row>
-    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
         <v>159</v>
       </c>
@@ -6085,7 +6098,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
     </row>
-    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>160</v>
       </c>
@@ -6260,7 +6273,7 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
     </row>
-    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
         <v>161</v>
       </c>
@@ -6435,7 +6448,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
         <v>162</v>
       </c>
@@ -6610,7 +6623,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
         <v>163</v>
       </c>
@@ -6857,7 +6870,7 @@
       <c r="FE45" s="3"/>
       <c r="FF45" s="3"/>
     </row>
-    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
         <v>164</v>
       </c>
@@ -7102,7 +7115,7 @@
       <c r="FE46" s="3"/>
       <c r="FF46" s="3"/>
     </row>
-    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
         <v>165</v>
       </c>
@@ -7347,7 +7360,7 @@
       <c r="FE47" s="3"/>
       <c r="FF47" s="3"/>
     </row>
-    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>166</v>
       </c>
@@ -7592,7 +7605,7 @@
       <c r="FE48" s="3"/>
       <c r="FF48" s="3"/>
     </row>
-    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
         <v>167</v>
       </c>
@@ -7837,7 +7850,7 @@
       <c r="FE49" s="3"/>
       <c r="FF49" s="3"/>
     </row>
-    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>168</v>
       </c>
@@ -8084,7 +8097,7 @@
       <c r="FE50" s="3"/>
       <c r="FF50" s="3"/>
     </row>
-    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>169</v>
       </c>
@@ -8285,7 +8298,7 @@
       <c r="FE51" s="3"/>
       <c r="FF51" s="3"/>
     </row>
-    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>170</v>
       </c>
@@ -8486,7 +8499,7 @@
       <c r="FE52" s="3"/>
       <c r="FF52" s="3"/>
     </row>
-    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>171</v>
       </c>
@@ -8683,7 +8696,7 @@
       <c r="FE53" s="3"/>
       <c r="FF53" s="3"/>
     </row>
-    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>172</v>
       </c>
@@ -8882,7 +8895,7 @@
       <c r="FE54" s="3"/>
       <c r="FF54" s="3"/>
     </row>
-    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>173</v>
       </c>
@@ -9086,7 +9099,7 @@
       <c r="FE55" s="3"/>
       <c r="FF55" s="3"/>
     </row>
-    <row r="56" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>174</v>
       </c>
@@ -9216,7 +9229,7 @@
       </c>
       <c r="CN56" s="1"/>
     </row>
-    <row r="57" spans="2:162" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
         <v>175</v>
       </c>
@@ -9350,7 +9363,7 @@
       </c>
       <c r="CN57" s="1"/>
     </row>
-    <row r="58" spans="2:162" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>176</v>
       </c>
@@ -9484,7 +9497,7 @@
       </c>
       <c r="CN58" s="1"/>
     </row>
-    <row r="59" spans="2:162" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
         <v>177</v>
       </c>
@@ -9622,7 +9635,7 @@
       <c r="CM59" s="35"/>
       <c r="CN59" s="1"/>
     </row>
-    <row r="60" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
         <v>178</v>
       </c>
@@ -9758,7 +9771,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
     </row>
-    <row r="61" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
         <v>179</v>
       </c>
@@ -9894,7 +9907,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
     </row>
-    <row r="62" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
         <v>180</v>
       </c>
@@ -10030,7 +10043,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
     </row>
-    <row r="63" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
         <v>181</v>
       </c>
@@ -10161,7 +10174,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
     </row>
-    <row r="64" spans="2:162" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
         <v>182</v>
       </c>
@@ -10292,7 +10305,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
     </row>
-    <row r="65" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
         <v>183</v>
       </c>
@@ -10419,7 +10432,7 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
     </row>
-    <row r="66" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
         <v>184</v>
       </c>
@@ -10548,7 +10561,7 @@
       </c>
       <c r="CN66" s="1"/>
     </row>
-    <row r="67" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
         <v>185</v>
       </c>
@@ -10682,7 +10695,7 @@
       </c>
       <c r="CN67" s="1"/>
     </row>
-    <row r="68" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>186</v>
       </c>
@@ -10812,7 +10825,7 @@
       </c>
       <c r="CN68" s="1"/>
     </row>
-    <row r="69" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>187</v>
       </c>
@@ -10946,7 +10959,7 @@
       </c>
       <c r="CN69" s="1"/>
     </row>
-    <row r="70" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>188</v>
       </c>
@@ -11080,7 +11093,7 @@
       </c>
       <c r="CN70" s="1"/>
     </row>
-    <row r="71" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>189</v>
       </c>
@@ -11218,7 +11231,7 @@
       <c r="CM71" s="35"/>
       <c r="CN71" s="1"/>
     </row>
-    <row r="72" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
         <v>190</v>
       </c>
@@ -11354,7 +11367,7 @@
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
     </row>
-    <row r="73" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
         <v>191</v>
       </c>
@@ -11490,7 +11503,7 @@
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
     </row>
-    <row r="74" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
         <v>192</v>
       </c>
@@ -11626,7 +11639,7 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
     </row>
-    <row r="75" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
         <v>193</v>
       </c>
@@ -11757,7 +11770,7 @@
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
     </row>
-    <row r="76" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>194</v>
       </c>
@@ -11888,7 +11901,7 @@
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
     </row>
-    <row r="77" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
         <v>195</v>
       </c>
@@ -12015,7 +12028,7 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
     </row>
-    <row r="78" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
         <v>196</v>
       </c>
@@ -12144,7 +12157,7 @@
       </c>
       <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
         <v>197</v>
       </c>
@@ -12278,7 +12291,7 @@
       </c>
       <c r="CN79" s="1"/>
     </row>
-    <row r="80" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
         <v>198</v>
       </c>
@@ -12408,7 +12421,7 @@
       </c>
       <c r="CN80" s="1"/>
     </row>
-    <row r="81" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
         <v>199</v>
       </c>
@@ -12542,7 +12555,7 @@
       </c>
       <c r="CN81" s="1"/>
     </row>
-    <row r="82" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
         <v>200</v>
       </c>
@@ -12676,7 +12689,7 @@
       </c>
       <c r="CN82" s="1"/>
     </row>
-    <row r="83" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
         <v>201</v>
       </c>
@@ -12814,7 +12827,7 @@
       <c r="CM83" s="35"/>
       <c r="CN83" s="1"/>
     </row>
-    <row r="84" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
         <v>202</v>
       </c>
@@ -12950,7 +12963,7 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
     </row>
-    <row r="85" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
         <v>203</v>
       </c>
@@ -13086,7 +13099,7 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
     </row>
-    <row r="86" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
         <v>204</v>
       </c>
@@ -13222,7 +13235,7 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
     </row>
-    <row r="87" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>205</v>
       </c>
@@ -13353,7 +13366,7 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
     </row>
-    <row r="88" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
         <v>206</v>
       </c>
@@ -13484,7 +13497,7 @@
       <c r="CM88" s="1"/>
       <c r="CN88" s="1"/>
     </row>
-    <row r="89" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>207</v>
       </c>
@@ -13611,7 +13624,7 @@
       <c r="CM89" s="1"/>
       <c r="CN89" s="1"/>
     </row>
-    <row r="90" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
         <v>208</v>
       </c>
@@ -13740,7 +13753,7 @@
       </c>
       <c r="CN90" s="1"/>
     </row>
-    <row r="91" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
         <v>209</v>
       </c>
@@ -13874,7 +13887,7 @@
       </c>
       <c r="CN91" s="1"/>
     </row>
-    <row r="92" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>210</v>
       </c>
@@ -14004,7 +14017,7 @@
       </c>
       <c r="CN92" s="1"/>
     </row>
-    <row r="93" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>211</v>
       </c>
@@ -14138,7 +14151,7 @@
       </c>
       <c r="CN93" s="1"/>
     </row>
-    <row r="94" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>212</v>
       </c>
@@ -14272,7 +14285,7 @@
       </c>
       <c r="CN94" s="1"/>
     </row>
-    <row r="95" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>213</v>
       </c>
@@ -14410,7 +14423,7 @@
       <c r="CM95" s="35"/>
       <c r="CN95" s="1"/>
     </row>
-    <row r="96" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>214</v>
       </c>
@@ -14546,7 +14559,7 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
     </row>
-    <row r="97" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
         <v>215</v>
       </c>
@@ -14682,7 +14695,7 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
     </row>
-    <row r="98" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>216</v>
       </c>
@@ -14818,7 +14831,7 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
     </row>
-    <row r="99" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>217</v>
       </c>
@@ -14947,7 +14960,7 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="1"/>
     </row>
-    <row r="100" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>218</v>
       </c>
@@ -15076,7 +15089,7 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="1"/>
     </row>
-    <row r="101" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
         <v>219</v>
       </c>
@@ -15203,7 +15216,7 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="1"/>
     </row>
-    <row r="102" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>220</v>
       </c>
@@ -15330,7 +15343,7 @@
       </c>
       <c r="CN102" s="1"/>
     </row>
-    <row r="103" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>221</v>
       </c>
@@ -15462,7 +15475,7 @@
       </c>
       <c r="CN103" s="1"/>
     </row>
-    <row r="104" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>222</v>
       </c>
@@ -15594,7 +15607,7 @@
       </c>
       <c r="CN104" s="1"/>
     </row>
-    <row r="105" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>223</v>
       </c>
@@ -15721,7 +15734,7 @@
       </c>
       <c r="CN105" s="1"/>
     </row>
-    <row r="106" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
         <v>224</v>
       </c>
@@ -15849,7 +15862,7 @@
       </c>
       <c r="CN106" s="1"/>
     </row>
-    <row r="107" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
         <v>225</v>
       </c>
@@ -15981,7 +15994,7 @@
       </c>
       <c r="CN107" s="1"/>
     </row>
-    <row r="108" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>226</v>
       </c>
@@ -16113,7 +16126,7 @@
       </c>
       <c r="CN108" s="1"/>
     </row>
-    <row r="109" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>227</v>
       </c>
@@ -16242,7 +16255,7 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="1"/>
     </row>
-    <row r="110" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
         <v>228</v>
       </c>
@@ -16371,7 +16384,7 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="1"/>
     </row>
-    <row r="111" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B111" s="6" t="s">
         <v>229</v>
       </c>
@@ -16498,7 +16511,7 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="1"/>
     </row>
-    <row r="112" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
         <v>230</v>
       </c>
@@ -16625,7 +16638,7 @@
       </c>
       <c r="CN112" s="1"/>
     </row>
-    <row r="113" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>231</v>
       </c>
@@ -16757,7 +16770,7 @@
       </c>
       <c r="CN113" s="1"/>
     </row>
-    <row r="114" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>232</v>
       </c>
@@ -16889,7 +16902,7 @@
       </c>
       <c r="CN114" s="1"/>
     </row>
-    <row r="115" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>233</v>
       </c>
@@ -17016,7 +17029,7 @@
       </c>
       <c r="CN115" s="1"/>
     </row>
-    <row r="116" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>234</v>
       </c>
@@ -17144,7 +17157,7 @@
       </c>
       <c r="CN116" s="1"/>
     </row>
-    <row r="117" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>235</v>
       </c>
@@ -17276,7 +17289,7 @@
       </c>
       <c r="CN117" s="1"/>
     </row>
-    <row r="118" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
         <v>236</v>
       </c>
@@ -17408,7 +17421,7 @@
       </c>
       <c r="CN118" s="1"/>
     </row>
-    <row r="119" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
         <v>237</v>
       </c>
@@ -17528,7 +17541,7 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
     </row>
-    <row r="120" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
         <v>238</v>
       </c>
@@ -17648,7 +17661,7 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
     </row>
-    <row r="121" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>239</v>
       </c>
@@ -17769,7 +17782,7 @@
       </c>
       <c r="CN121" s="1"/>
     </row>
-    <row r="122" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>240</v>
       </c>
@@ -17892,7 +17905,7 @@
       </c>
       <c r="CN122" s="1"/>
     </row>
-    <row r="123" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>241</v>
       </c>
@@ -18015,7 +18028,7 @@
       </c>
       <c r="CN123" s="1"/>
     </row>
-    <row r="124" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>242</v>
       </c>
@@ -18137,7 +18150,7 @@
       </c>
       <c r="CN124" s="1"/>
     </row>
-    <row r="125" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>243</v>
       </c>
@@ -18259,7 +18272,7 @@
       </c>
       <c r="CN125" s="1"/>
     </row>
-    <row r="126" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>244</v>
       </c>
@@ -18382,7 +18395,7 @@
       </c>
       <c r="CN126" s="1"/>
     </row>
-    <row r="127" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>245</v>
       </c>
@@ -18505,7 +18518,7 @@
       </c>
       <c r="CN127" s="1"/>
     </row>
-    <row r="128" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B128" s="6" t="s">
         <v>246</v>
       </c>
@@ -18628,7 +18641,7 @@
       </c>
       <c r="CN128" s="1"/>
     </row>
-    <row r="129" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
         <v>247</v>
       </c>
@@ -18751,7 +18764,7 @@
       </c>
       <c r="CN129" s="1"/>
     </row>
-    <row r="130" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
         <v>248</v>
       </c>
@@ -18874,7 +18887,7 @@
       </c>
       <c r="CN130" s="1"/>
     </row>
-    <row r="131" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
         <v>249</v>
       </c>
@@ -18997,7 +19010,7 @@
       </c>
       <c r="CN131" s="1"/>
     </row>
-    <row r="132" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>250</v>
       </c>
@@ -19117,7 +19130,7 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
     </row>
-    <row r="133" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
         <v>251</v>
       </c>
@@ -19237,7 +19250,7 @@
       <c r="CM133" s="1"/>
       <c r="CN133" s="1"/>
     </row>
-    <row r="134" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
         <v>252</v>
       </c>
@@ -19358,7 +19371,7 @@
       </c>
       <c r="CN134" s="1"/>
     </row>
-    <row r="135" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
         <v>253</v>
       </c>
@@ -19481,7 +19494,7 @@
       </c>
       <c r="CN135" s="1"/>
     </row>
-    <row r="136" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
         <v>254</v>
       </c>
@@ -19604,7 +19617,7 @@
       </c>
       <c r="CN136" s="1"/>
     </row>
-    <row r="137" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
         <v>255</v>
       </c>
@@ -19726,7 +19739,7 @@
       </c>
       <c r="CN137" s="1"/>
     </row>
-    <row r="138" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
         <v>256</v>
       </c>
@@ -19848,7 +19861,7 @@
       </c>
       <c r="CN138" s="1"/>
     </row>
-    <row r="139" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
         <v>257</v>
       </c>
@@ -19971,7 +19984,7 @@
       </c>
       <c r="CN139" s="1"/>
     </row>
-    <row r="140" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
         <v>258</v>
       </c>
@@ -20094,7 +20107,7 @@
       </c>
       <c r="CN140" s="1"/>
     </row>
-    <row r="141" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B141" s="6" t="s">
         <v>259</v>
       </c>
@@ -20217,7 +20230,7 @@
       </c>
       <c r="CN141" s="1"/>
     </row>
-    <row r="142" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
         <v>260</v>
       </c>
@@ -20340,7 +20353,7 @@
       </c>
       <c r="CN142" s="1"/>
     </row>
-    <row r="143" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
         <v>261</v>
       </c>
@@ -20463,7 +20476,7 @@
       </c>
       <c r="CN143" s="1"/>
     </row>
-    <row r="144" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
         <v>262</v>
       </c>
@@ -20586,7 +20599,7 @@
       </c>
       <c r="CN144" s="1"/>
     </row>
-    <row r="145" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B145" s="6" t="s">
         <v>263</v>
       </c>
@@ -20706,7 +20719,7 @@
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
     </row>
-    <row r="146" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
         <v>264</v>
       </c>
@@ -20826,7 +20839,7 @@
       <c r="CM146" s="1"/>
       <c r="CN146" s="1"/>
     </row>
-    <row r="147" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B147" s="6" t="s">
         <v>265</v>
       </c>
@@ -20947,7 +20960,7 @@
       </c>
       <c r="CN147" s="1"/>
     </row>
-    <row r="148" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
         <v>266</v>
       </c>
@@ -21070,7 +21083,7 @@
       </c>
       <c r="CN148" s="1"/>
     </row>
-    <row r="149" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
         <v>267</v>
       </c>
@@ -21193,7 +21206,7 @@
       </c>
       <c r="CN149" s="1"/>
     </row>
-    <row r="150" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
         <v>268</v>
       </c>
@@ -21315,7 +21328,7 @@
       </c>
       <c r="CN150" s="1"/>
     </row>
-    <row r="151" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
         <v>269</v>
       </c>
@@ -21437,7 +21450,7 @@
       </c>
       <c r="CN151" s="1"/>
     </row>
-    <row r="152" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
         <v>270</v>
       </c>
@@ -21560,7 +21573,7 @@
       </c>
       <c r="CN152" s="1"/>
     </row>
-    <row r="153" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
         <v>271</v>
       </c>
@@ -21683,7 +21696,7 @@
       </c>
       <c r="CN153" s="1"/>
     </row>
-    <row r="154" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
         <v>272</v>
       </c>
@@ -21806,7 +21819,7 @@
       </c>
       <c r="CN154" s="1"/>
     </row>
-    <row r="155" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>273</v>
       </c>
@@ -21929,7 +21942,7 @@
       </c>
       <c r="CN155" s="1"/>
     </row>
-    <row r="156" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
         <v>274</v>
       </c>
@@ -22052,7 +22065,7 @@
       </c>
       <c r="CN156" s="1"/>
     </row>
-    <row r="157" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>275</v>
       </c>
@@ -22175,7 +22188,7 @@
       </c>
       <c r="CN157" s="1"/>
     </row>
-    <row r="158" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
@@ -22295,7 +22308,7 @@
       <c r="CM158" s="1"/>
       <c r="CN158" s="1"/>
     </row>
-    <row r="159" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
         <v>277</v>
       </c>
@@ -22415,7 +22428,7 @@
       <c r="CM159" s="1"/>
       <c r="CN159" s="1"/>
     </row>
-    <row r="160" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
         <v>278</v>
       </c>
@@ -22535,7 +22548,7 @@
       <c r="CM160" s="1"/>
       <c r="CN160" s="1"/>
     </row>
-    <row r="161" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B161" s="6" t="s">
         <v>279</v>
       </c>
@@ -22656,7 +22669,7 @@
       </c>
       <c r="CN161" s="1"/>
     </row>
-    <row r="162" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B162" s="6" t="s">
         <v>280</v>
       </c>
@@ -22779,7 +22792,7 @@
       </c>
       <c r="CN162" s="1"/>
     </row>
-    <row r="163" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B163" s="6" t="s">
         <v>281</v>
       </c>
@@ -22902,7 +22915,7 @@
       </c>
       <c r="CN163" s="1"/>
     </row>
-    <row r="164" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
         <v>282</v>
       </c>
@@ -23024,7 +23037,7 @@
       </c>
       <c r="CN164" s="1"/>
     </row>
-    <row r="165" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B165" s="6" t="s">
         <v>283</v>
       </c>
@@ -23146,7 +23159,7 @@
       </c>
       <c r="CN165" s="1"/>
     </row>
-    <row r="166" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B166" s="6" t="s">
         <v>284</v>
       </c>
@@ -23269,7 +23282,7 @@
       </c>
       <c r="CN166" s="1"/>
     </row>
-    <row r="167" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B167" s="6" t="s">
         <v>285</v>
       </c>
@@ -23392,7 +23405,7 @@
       </c>
       <c r="CN167" s="1"/>
     </row>
-    <row r="168" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B168" s="6" t="s">
         <v>286</v>
       </c>
@@ -23515,7 +23528,7 @@
       </c>
       <c r="CN168" s="1"/>
     </row>
-    <row r="169" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B169" s="6" t="s">
         <v>287</v>
       </c>
@@ -23638,7 +23651,7 @@
       </c>
       <c r="CN169" s="1"/>
     </row>
-    <row r="170" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B170" s="6" t="s">
         <v>288</v>
       </c>
@@ -23761,7 +23774,7 @@
       </c>
       <c r="CN170" s="1"/>
     </row>
-    <row r="171" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B171" s="6" t="s">
         <v>289</v>
       </c>
@@ -23882,7 +23895,7 @@
       <c r="CM171" s="35"/>
       <c r="CN171" s="1"/>
     </row>
-    <row r="172" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
         <v>290</v>
       </c>
@@ -24002,7 +24015,7 @@
       <c r="CM172" s="1"/>
       <c r="CN172" s="1"/>
     </row>
-    <row r="173" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B173" s="6" t="s">
         <v>291</v>
       </c>
@@ -24122,7 +24135,7 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
     </row>
-    <row r="174" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B174" s="6" t="s">
         <v>292</v>
       </c>
@@ -24243,7 +24256,7 @@
       </c>
       <c r="CN174" s="1"/>
     </row>
-    <row r="175" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B175" s="6" t="s">
         <v>293</v>
       </c>
@@ -24364,7 +24377,7 @@
       </c>
       <c r="CN175" s="1"/>
     </row>
-    <row r="176" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B176" s="6" t="s">
         <v>294</v>
       </c>
@@ -24486,7 +24499,7 @@
       </c>
       <c r="CN176" s="1"/>
     </row>
-    <row r="177" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B177" s="6" t="s">
         <v>295</v>
       </c>
@@ -24608,7 +24621,7 @@
       </c>
       <c r="CN177" s="1"/>
     </row>
-    <row r="178" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B178" s="6" t="s">
         <v>296</v>
       </c>
@@ -24731,7 +24744,7 @@
       </c>
       <c r="CN178" s="1"/>
     </row>
-    <row r="179" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B179" s="6" t="s">
         <v>297</v>
       </c>
@@ -24851,7 +24864,7 @@
       <c r="CM179" s="1"/>
       <c r="CN179" s="1"/>
     </row>
-    <row r="180" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B180" s="6" t="s">
         <v>298</v>
       </c>
@@ -24971,7 +24984,7 @@
       <c r="CM180" s="1"/>
       <c r="CN180" s="1"/>
     </row>
-    <row r="181" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B181" s="6" t="s">
         <v>299</v>
       </c>
@@ -25092,7 +25105,7 @@
       </c>
       <c r="CN181" s="1"/>
     </row>
-    <row r="182" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B182" s="6" t="s">
         <v>300</v>
       </c>
@@ -25213,7 +25226,7 @@
       </c>
       <c r="CN182" s="1"/>
     </row>
-    <row r="183" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B183" s="6" t="s">
         <v>301</v>
       </c>
@@ -25335,7 +25348,7 @@
       </c>
       <c r="CN183" s="1"/>
     </row>
-    <row r="184" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="s">
         <v>302</v>
       </c>
@@ -25457,7 +25470,7 @@
       </c>
       <c r="CN184" s="1"/>
     </row>
-    <row r="185" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B185" s="6" t="s">
         <v>303</v>
       </c>
@@ -25580,7 +25593,7 @@
       </c>
       <c r="CN185" s="1"/>
     </row>
-    <row r="186" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
         <v>304</v>
       </c>
@@ -25700,7 +25713,7 @@
       <c r="CM186" s="1"/>
       <c r="CN186" s="1"/>
     </row>
-    <row r="187" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B187" s="6" t="s">
         <v>305</v>
       </c>
@@ -25820,7 +25833,7 @@
       <c r="CM187" s="1"/>
       <c r="CN187" s="1"/>
     </row>
-    <row r="188" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B188" s="6" t="s">
         <v>306</v>
       </c>
@@ -25941,7 +25954,7 @@
       </c>
       <c r="CN188" s="1"/>
     </row>
-    <row r="189" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B189" s="6" t="s">
         <v>307</v>
       </c>
@@ -26062,7 +26075,7 @@
       </c>
       <c r="CN189" s="1"/>
     </row>
-    <row r="190" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
         <v>308</v>
       </c>
@@ -26184,7 +26197,7 @@
       </c>
       <c r="CN190" s="1"/>
     </row>
-    <row r="191" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B191" s="6" t="s">
         <v>309</v>
       </c>
@@ -26306,7 +26319,7 @@
       </c>
       <c r="CN191" s="1"/>
     </row>
-    <row r="192" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B192" s="6" t="s">
         <v>310</v>
       </c>
@@ -26429,7 +26442,7 @@
       </c>
       <c r="CN192" s="1"/>
     </row>
-    <row r="193" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B193" s="6" t="s">
         <v>311</v>
       </c>
@@ -26537,7 +26550,7 @@
       <c r="CM193" s="1"/>
       <c r="CN193" s="1"/>
     </row>
-    <row r="194" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B194" s="6" t="s">
         <v>312</v>
       </c>
@@ -26645,7 +26658,7 @@
       <c r="CM194" s="1"/>
       <c r="CN194" s="1"/>
     </row>
-    <row r="195" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B195" s="6" t="s">
         <v>313</v>
       </c>
@@ -26753,7 +26766,7 @@
       <c r="CM195" s="1"/>
       <c r="CN195" s="1"/>
     </row>
-    <row r="196" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B196" s="6" t="s">
         <v>314</v>
       </c>
@@ -26864,7 +26877,7 @@
       </c>
       <c r="CN196" s="1"/>
     </row>
-    <row r="197" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B197" s="6" t="s">
         <v>315</v>
       </c>
@@ -26975,15 +26988,15 @@
       </c>
       <c r="CN197" s="1"/>
     </row>
-    <row r="198" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B198" s="6" t="s">
         <v>316</v>
       </c>
       <c r="C198" s="32">
         <v>226</v>
       </c>
-      <c r="D198" s="1">
-        <f>AVERAGE(BK198,BL198,BM198)</f>
+      <c r="D198" s="2">
+        <f>AVERAGE(BV198,BW198,BX198)</f>
         <v>1500</v>
       </c>
       <c r="E198" s="24"/>
@@ -27044,14 +27057,14 @@
       <c r="BH198" s="1"/>
       <c r="BI198" s="1"/>
       <c r="BJ198" s="1"/>
-      <c r="BK198" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BL198" s="1">
-        <v>1500</v>
-      </c>
-      <c r="BM198" s="1">
-        <v>2000</v>
+      <c r="BK198" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="BL198" s="44">
+        <v>-1500</v>
+      </c>
+      <c r="BM198" s="44">
+        <v>-2000</v>
       </c>
       <c r="BN198" s="1"/>
       <c r="BO198" s="1"/>
@@ -27061,9 +27074,18 @@
       <c r="BS198" s="1"/>
       <c r="BT198" s="1"/>
       <c r="BU198" s="1"/>
-      <c r="BV198" s="1"/>
-      <c r="BW198" s="1"/>
-      <c r="BX198" s="1"/>
+      <c r="BV198" s="1">
+        <f>BK198*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW198" s="1">
+        <f t="shared" ref="BW198:BX198" si="64">BL198*(-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="BX198" s="1">
+        <f t="shared" si="64"/>
+        <v>2000</v>
+      </c>
       <c r="BY198" s="1"/>
       <c r="BZ198" s="1"/>
       <c r="CA198" s="1"/>
@@ -27083,15 +27105,15 @@
       <c r="CM198" s="1"/>
       <c r="CN198" s="1"/>
     </row>
-    <row r="199" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B199" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C199" s="32">
         <v>226</v>
       </c>
-      <c r="D199" s="1">
-        <f>AVERAGE(BK199,BL199,BM199)</f>
+      <c r="D199" s="2">
+        <f t="shared" ref="D199:D200" si="65">AVERAGE(BV199,BW199,BX199)</f>
         <v>800</v>
       </c>
       <c r="E199" s="1"/>
@@ -27152,13 +27174,13 @@
       <c r="BH199" s="1"/>
       <c r="BI199" s="1"/>
       <c r="BJ199" s="1"/>
-      <c r="BK199" s="1">
-        <v>800</v>
-      </c>
-      <c r="BL199" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM199" s="1" t="s">
+      <c r="BK199" s="44">
+        <v>-800</v>
+      </c>
+      <c r="BL199" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM199" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BN199" s="1"/>
@@ -27169,9 +27191,16 @@
       <c r="BS199" s="1"/>
       <c r="BT199" s="1"/>
       <c r="BU199" s="1"/>
-      <c r="BV199" s="1"/>
-      <c r="BW199" s="1"/>
-      <c r="BX199" s="1"/>
+      <c r="BV199" s="1">
+        <f t="shared" ref="BV199:BV202" si="66">BK199*(-1)</f>
+        <v>800</v>
+      </c>
+      <c r="BW199" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX199" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY199" s="1"/>
       <c r="BZ199" s="1"/>
       <c r="CA199" s="1"/>
@@ -27191,15 +27220,15 @@
       <c r="CM199" s="1"/>
       <c r="CN199" s="1"/>
     </row>
-    <row r="200" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C200" s="32">
         <v>226</v>
       </c>
-      <c r="D200" s="1">
-        <f>AVERAGE(BK200,BL200,BM200)</f>
+      <c r="D200" s="2">
+        <f t="shared" si="65"/>
         <v>2200</v>
       </c>
       <c r="E200" s="1"/>
@@ -27260,14 +27289,14 @@
       <c r="BH200" s="1"/>
       <c r="BI200" s="1"/>
       <c r="BJ200" s="1"/>
-      <c r="BK200" s="1">
-        <v>3000</v>
-      </c>
-      <c r="BL200" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM200" s="1">
-        <v>1400</v>
+      <c r="BK200" s="44">
+        <v>-3000</v>
+      </c>
+      <c r="BL200" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM200" s="44">
+        <v>-1400</v>
       </c>
       <c r="BN200" s="1"/>
       <c r="BO200" s="1"/>
@@ -27277,9 +27306,17 @@
       <c r="BS200" s="1"/>
       <c r="BT200" s="1"/>
       <c r="BU200" s="1"/>
-      <c r="BV200" s="1"/>
-      <c r="BW200" s="1"/>
-      <c r="BX200" s="1"/>
+      <c r="BV200" s="1">
+        <f t="shared" si="66"/>
+        <v>3000</v>
+      </c>
+      <c r="BW200" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX200" s="1">
+        <f t="shared" ref="BX200:BX202" si="67">BM200*(-1)</f>
+        <v>1400</v>
+      </c>
       <c r="BY200" s="1"/>
       <c r="BZ200" s="1"/>
       <c r="CA200" s="1"/>
@@ -27299,14 +27336,14 @@
       <c r="CM200" s="1"/>
       <c r="CN200" s="1"/>
     </row>
-    <row r="201" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B201" s="6" t="s">
         <v>319</v>
       </c>
       <c r="C201" s="32">
         <v>226</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E201" s="24" t="s">
@@ -27369,13 +27406,13 @@
       <c r="BH201" s="1"/>
       <c r="BI201" s="1"/>
       <c r="BJ201" s="1"/>
-      <c r="BK201" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL201" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM201" s="1" t="s">
+      <c r="BK201" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL201" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM201" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BN201" s="1"/>
@@ -27386,9 +27423,15 @@
       <c r="BS201" s="1"/>
       <c r="BT201" s="1"/>
       <c r="BU201" s="1"/>
-      <c r="BV201" s="1"/>
-      <c r="BW201" s="1"/>
-      <c r="BX201" s="1"/>
+      <c r="BV201" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW201" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX201" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY201" s="1"/>
       <c r="BZ201" s="1"/>
       <c r="CA201" s="1"/>
@@ -27410,7 +27453,7 @@
       </c>
       <c r="CN201" s="1"/>
     </row>
-    <row r="202" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B202" s="6" t="s">
         <v>320</v>
       </c>
@@ -27480,14 +27523,14 @@
       <c r="BH202" s="1"/>
       <c r="BI202" s="1"/>
       <c r="BJ202" s="1"/>
-      <c r="BK202" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="BL202" s="1">
-        <v>-1500</v>
-      </c>
-      <c r="BM202" s="1">
-        <v>-300</v>
+      <c r="BK202" s="44">
+        <v>1000</v>
+      </c>
+      <c r="BL202" s="44">
+        <v>1500</v>
+      </c>
+      <c r="BM202" s="44">
+        <v>300</v>
       </c>
       <c r="BN202" s="1"/>
       <c r="BO202" s="1"/>
@@ -27497,9 +27540,18 @@
       <c r="BS202" s="1"/>
       <c r="BT202" s="1"/>
       <c r="BU202" s="1"/>
-      <c r="BV202" s="1"/>
-      <c r="BW202" s="1"/>
-      <c r="BX202" s="1"/>
+      <c r="BV202" s="1">
+        <f t="shared" si="66"/>
+        <v>-1000</v>
+      </c>
+      <c r="BW202" s="1">
+        <f t="shared" ref="BW202" si="68">BL202*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX202" s="1">
+        <f t="shared" si="67"/>
+        <v>-300</v>
+      </c>
       <c r="BY202" s="1"/>
       <c r="BZ202" s="1"/>
       <c r="CA202" s="1"/>
@@ -27519,18 +27571,18 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
     </row>
-    <row r="203" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B203" s="6" t="s">
         <v>321</v>
       </c>
       <c r="C203" s="32">
         <v>227</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="35">
         <f>AVERAGE(BN203,BO203,BP203)</f>
-        <v>1000</v>
-      </c>
-      <c r="E203" s="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="E203" s="35"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -27591,23 +27643,32 @@
       <c r="BK203" s="1"/>
       <c r="BL203" s="1"/>
       <c r="BM203" s="1"/>
-      <c r="BN203" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BO203" s="1">
-        <v>1500</v>
-      </c>
-      <c r="BP203" s="1">
-        <v>500</v>
+      <c r="BN203" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="BO203" s="44">
+        <v>-1500</v>
+      </c>
+      <c r="BP203" s="44">
+        <v>-500</v>
       </c>
       <c r="BQ203" s="1"/>
       <c r="BR203" s="1"/>
       <c r="BS203" s="1"/>
       <c r="BT203" s="1"/>
       <c r="BU203" s="1"/>
-      <c r="BV203" s="1"/>
-      <c r="BW203" s="1"/>
-      <c r="BX203" s="1"/>
+      <c r="BV203" s="1">
+        <f>BN203*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW203" s="1">
+        <f>BO203*(-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="BX203" s="1">
+        <f>BP203*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY203" s="1"/>
       <c r="BZ203" s="1"/>
       <c r="CA203" s="1"/>
@@ -27627,18 +27688,18 @@
       <c r="CM203" s="1"/>
       <c r="CN203" s="1"/>
     </row>
-    <row r="204" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B204" s="6" t="s">
         <v>322</v>
       </c>
       <c r="C204" s="32">
         <v>227</v>
       </c>
-      <c r="D204" s="1">
-        <f t="shared" ref="D204:D205" si="64">AVERAGE(BN204,BO204,BP204)</f>
-        <v>900</v>
-      </c>
-      <c r="E204" s="1"/>
+      <c r="D204" s="35">
+        <f t="shared" ref="D204:D205" si="69">AVERAGE(BN204,BO204,BP204)</f>
+        <v>-900</v>
+      </c>
+      <c r="E204" s="35"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -27699,13 +27760,13 @@
       <c r="BK204" s="1"/>
       <c r="BL204" s="1"/>
       <c r="BM204" s="1"/>
-      <c r="BN204" s="1">
-        <v>900</v>
-      </c>
-      <c r="BO204" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP204" s="1" t="s">
+      <c r="BN204" s="44">
+        <v>-900</v>
+      </c>
+      <c r="BO204" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP204" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BQ204" s="1"/>
@@ -27713,9 +27774,16 @@
       <c r="BS204" s="1"/>
       <c r="BT204" s="1"/>
       <c r="BU204" s="1"/>
-      <c r="BV204" s="1"/>
-      <c r="BW204" s="1"/>
-      <c r="BX204" s="1"/>
+      <c r="BV204" s="1">
+        <f t="shared" ref="BV204:BV207" si="70">BN204*(-1)</f>
+        <v>900</v>
+      </c>
+      <c r="BW204" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX204" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY204" s="1"/>
       <c r="BZ204" s="1"/>
       <c r="CA204" s="1"/>
@@ -27735,18 +27803,18 @@
       <c r="CM204" s="1"/>
       <c r="CN204" s="1"/>
     </row>
-    <row r="205" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B205" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C205" s="32">
         <v>227</v>
       </c>
-      <c r="D205" s="1">
-        <f t="shared" si="64"/>
-        <v>2100</v>
-      </c>
-      <c r="E205" s="1"/>
+      <c r="D205" s="35">
+        <f t="shared" si="69"/>
+        <v>-2100</v>
+      </c>
+      <c r="E205" s="35"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -27807,23 +27875,31 @@
       <c r="BK205" s="1"/>
       <c r="BL205" s="1"/>
       <c r="BM205" s="1"/>
-      <c r="BN205" s="1">
-        <v>3000</v>
-      </c>
-      <c r="BO205" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP205" s="1">
-        <v>1200</v>
+      <c r="BN205" s="44">
+        <v>-3000</v>
+      </c>
+      <c r="BO205" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP205" s="44">
+        <v>-1200</v>
       </c>
       <c r="BQ205" s="1"/>
       <c r="BR205" s="1"/>
       <c r="BS205" s="1"/>
       <c r="BT205" s="1"/>
       <c r="BU205" s="1"/>
-      <c r="BV205" s="1"/>
-      <c r="BW205" s="1"/>
-      <c r="BX205" s="1"/>
+      <c r="BV205" s="1">
+        <f t="shared" si="70"/>
+        <v>3000</v>
+      </c>
+      <c r="BW205" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX205" s="1">
+        <f t="shared" ref="BX205:BX207" si="71">BP205*(-1)</f>
+        <v>1200</v>
+      </c>
       <c r="BY205" s="1"/>
       <c r="BZ205" s="1"/>
       <c r="CA205" s="1"/>
@@ -27843,17 +27919,17 @@
       <c r="CM205" s="1"/>
       <c r="CN205" s="1"/>
     </row>
-    <row r="206" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B206" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C206" s="32">
         <v>227</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E206" s="24" t="s">
+      <c r="E206" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F206" s="1"/>
@@ -27916,13 +27992,13 @@
       <c r="BK206" s="1"/>
       <c r="BL206" s="1"/>
       <c r="BM206" s="1"/>
-      <c r="BN206" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BO206" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP206" s="1" t="s">
+      <c r="BN206" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO206" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BP206" s="2" t="s">
         <v>62</v>
       </c>
       <c r="BQ206" s="1"/>
@@ -27930,9 +28006,15 @@
       <c r="BS206" s="1"/>
       <c r="BT206" s="1"/>
       <c r="BU206" s="1"/>
-      <c r="BV206" s="1"/>
-      <c r="BW206" s="1"/>
-      <c r="BX206" s="1"/>
+      <c r="BV206" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW206" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX206" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY206" s="1"/>
       <c r="BZ206" s="1"/>
       <c r="CA206" s="1"/>
@@ -27954,17 +28036,17 @@
       </c>
       <c r="CN206" s="1"/>
     </row>
-    <row r="207" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B207" s="6" t="s">
         <v>325</v>
       </c>
       <c r="C207" s="32">
         <v>227</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E207" s="24" t="s">
+      <c r="E207" s="38" t="s">
         <v>103</v>
       </c>
       <c r="F207" s="1"/>
@@ -28027,23 +28109,32 @@
       <c r="BK207" s="1"/>
       <c r="BL207" s="1"/>
       <c r="BM207" s="1"/>
-      <c r="BN207" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="BO207" s="1">
-        <v>-1500</v>
-      </c>
-      <c r="BP207" s="1">
-        <v>-400</v>
+      <c r="BN207" s="44">
+        <v>1000</v>
+      </c>
+      <c r="BO207" s="44">
+        <v>1500</v>
+      </c>
+      <c r="BP207" s="44">
+        <v>400</v>
       </c>
       <c r="BQ207" s="1"/>
       <c r="BR207" s="1"/>
       <c r="BS207" s="1"/>
       <c r="BT207" s="1"/>
       <c r="BU207" s="1"/>
-      <c r="BV207" s="1"/>
-      <c r="BW207" s="1"/>
-      <c r="BX207" s="1"/>
+      <c r="BV207" s="1">
+        <f t="shared" si="70"/>
+        <v>-1000</v>
+      </c>
+      <c r="BW207" s="1">
+        <f t="shared" ref="BW207" si="72">BO207*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX207" s="1">
+        <f t="shared" si="71"/>
+        <v>-400</v>
+      </c>
       <c r="BY207" s="1"/>
       <c r="BZ207" s="1"/>
       <c r="CA207" s="1"/>
@@ -28057,7 +28148,7 @@
       <c r="CI207" s="1"/>
       <c r="CJ207" s="1"/>
       <c r="CK207" s="1"/>
-      <c r="CL207" s="1">
+      <c r="CL207" s="35">
         <v>-966.67</v>
       </c>
       <c r="CM207" s="1" t="s">
@@ -28065,7 +28156,7 @@
       </c>
       <c r="CN207" s="1"/>
     </row>
-    <row r="208" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
         <v>326</v>
       </c>
@@ -28134,14 +28225,14 @@
       <c r="BH208" s="1"/>
       <c r="BI208" s="1"/>
       <c r="BJ208" s="1"/>
-      <c r="BK208" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BL208" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BM208" s="9">
-        <v>2000</v>
+      <c r="BK208" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BL208" s="45">
+        <v>-1500</v>
+      </c>
+      <c r="BM208" s="45">
+        <v>-2000</v>
       </c>
       <c r="BN208" s="1"/>
       <c r="BO208" s="1"/>
@@ -28156,16 +28247,25 @@
         <v>2000</v>
       </c>
       <c r="BT208" s="1">
-        <f>AVERAGE(BK208,BL208,BM208)</f>
+        <f>AVERAGE(BV208,BW208,BX208)</f>
         <v>1500</v>
       </c>
       <c r="BU208" s="1">
         <f>AVERAGE(BQ208,BR208,BS208)</f>
         <v>2000</v>
       </c>
-      <c r="BV208" s="1"/>
-      <c r="BW208" s="1"/>
-      <c r="BX208" s="1"/>
+      <c r="BV208" s="1">
+        <f>BK208*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW208" s="1">
+        <f t="shared" ref="BW208" si="73">BL208*(-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="BX208" s="1">
+        <f t="shared" ref="BX208" si="74">BM208*(-1)</f>
+        <v>2000</v>
+      </c>
       <c r="BY208" s="1"/>
       <c r="BZ208" s="1"/>
       <c r="CA208" s="1"/>
@@ -28185,7 +28285,7 @@
       <c r="CM208" s="1"/>
       <c r="CN208" s="1"/>
     </row>
-    <row r="209" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B209" s="6" t="s">
         <v>327</v>
       </c>
@@ -28254,14 +28354,14 @@
       <c r="BH209" s="1"/>
       <c r="BI209" s="1"/>
       <c r="BJ209" s="1"/>
-      <c r="BK209" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL209" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM209" s="9">
-        <v>800</v>
+      <c r="BK209" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL209" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM209" s="45">
+        <v>-800</v>
       </c>
       <c r="BN209" s="1"/>
       <c r="BO209" s="1"/>
@@ -28276,16 +28376,23 @@
         <v>1500</v>
       </c>
       <c r="BT209" s="1">
-        <f>AVERAGE(BK209,BL209,BM209)</f>
+        <f>AVERAGE(BV209,BW209,BX209)</f>
         <v>800</v>
       </c>
       <c r="BU209" s="1">
         <f>AVERAGE(BQ209,BR209,BS209)</f>
         <v>1500</v>
       </c>
-      <c r="BV209" s="1"/>
-      <c r="BW209" s="1"/>
-      <c r="BX209" s="1"/>
+      <c r="BV209" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW209" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX209" s="1">
+        <f t="shared" ref="BX209:BX210" si="75">BM209*(-1)</f>
+        <v>800</v>
+      </c>
       <c r="BY209" s="1"/>
       <c r="BZ209" s="1"/>
       <c r="CA209" s="1"/>
@@ -28305,7 +28412,7 @@
       <c r="CM209" s="1"/>
       <c r="CN209" s="1"/>
     </row>
-    <row r="210" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B210" s="6" t="s">
         <v>328</v>
       </c>
@@ -28374,14 +28481,14 @@
       <c r="BH210" s="1"/>
       <c r="BI210" s="1"/>
       <c r="BJ210" s="1"/>
-      <c r="BK210" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BL210" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM210" s="9">
-        <v>1400</v>
+      <c r="BK210" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BL210" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM210" s="45">
+        <v>-1400</v>
       </c>
       <c r="BN210" s="1"/>
       <c r="BO210" s="1"/>
@@ -28396,16 +28503,24 @@
         <v>2500</v>
       </c>
       <c r="BT210" s="1">
-        <f>AVERAGE(BK210,BL210,BM210)</f>
+        <f>AVERAGE(BV210,BW210,BX210)</f>
         <v>1200</v>
       </c>
       <c r="BU210" s="1">
         <f>AVERAGE(BQ210,BR210,BS210)</f>
         <v>2500</v>
       </c>
-      <c r="BV210" s="1"/>
-      <c r="BW210" s="1"/>
-      <c r="BX210" s="1"/>
+      <c r="BV210" s="1">
+        <f>BK210*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW210" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX210" s="1">
+        <f t="shared" si="75"/>
+        <v>1400</v>
+      </c>
       <c r="BY210" s="1"/>
       <c r="BZ210" s="1"/>
       <c r="CA210" s="1"/>
@@ -28425,7 +28540,7 @@
       <c r="CM210" s="1"/>
       <c r="CN210" s="1"/>
     </row>
-    <row r="211" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B211" s="6" t="s">
         <v>329</v>
       </c>
@@ -28522,9 +28637,15 @@
       <c r="BU211" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BV211" s="1"/>
-      <c r="BW211" s="1"/>
-      <c r="BX211" s="1"/>
+      <c r="BV211" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW211" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX211" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY211" s="1"/>
       <c r="BZ211" s="1"/>
       <c r="CA211" s="1"/>
@@ -28546,7 +28667,7 @@
       </c>
       <c r="CN211" s="1"/>
     </row>
-    <row r="212" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B212" s="6" t="s">
         <v>330</v>
       </c>
@@ -28616,14 +28737,14 @@
       <c r="BH212" s="1"/>
       <c r="BI212" s="1"/>
       <c r="BJ212" s="1"/>
-      <c r="BK212" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BL212" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BM212" s="9">
-        <v>500</v>
+      <c r="BK212" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BL212" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BM212" s="45">
+        <v>-500</v>
       </c>
       <c r="BN212" s="1"/>
       <c r="BO212" s="1"/>
@@ -28638,16 +28759,25 @@
         <v>-1000</v>
       </c>
       <c r="BT212" s="1">
-        <f>AVERAGE(BK212,BL212,BM212)</f>
+        <f t="shared" ref="BT212:BT235" si="76">AVERAGE(BV212,BW212,BX212)</f>
         <v>0</v>
       </c>
       <c r="BU212" s="1">
         <f>AVERAGE(BQ212,BR212,BS212)</f>
         <v>0</v>
       </c>
-      <c r="BV212" s="1"/>
-      <c r="BW212" s="1"/>
-      <c r="BX212" s="1"/>
+      <c r="BV212" s="1">
+        <f t="shared" ref="BV212:BX214" si="77">BK212*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW212" s="1">
+        <f t="shared" si="77"/>
+        <v>-1500</v>
+      </c>
+      <c r="BX212" s="1">
+        <f t="shared" si="77"/>
+        <v>500</v>
+      </c>
       <c r="BY212" s="1"/>
       <c r="BZ212" s="1"/>
       <c r="CA212" s="1"/>
@@ -28661,7 +28791,7 @@
       <c r="CI212" s="1"/>
       <c r="CJ212" s="1"/>
       <c r="CK212" s="1"/>
-      <c r="CL212" s="1">
+      <c r="CL212" s="35">
         <v>0</v>
       </c>
       <c r="CM212" s="1" t="s">
@@ -28669,7 +28799,7 @@
       </c>
       <c r="CN212" s="1"/>
     </row>
-    <row r="213" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B213" s="6" t="s">
         <v>331</v>
       </c>
@@ -28739,14 +28869,14 @@
       <c r="BH213" s="1"/>
       <c r="BI213" s="1"/>
       <c r="BJ213" s="1"/>
-      <c r="BK213" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BL213" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BM213" s="9">
-        <v>500</v>
+      <c r="BK213" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BL213" s="45">
+        <v>-1500</v>
+      </c>
+      <c r="BM213" s="45">
+        <v>-500</v>
       </c>
       <c r="BN213" s="1"/>
       <c r="BO213" s="1"/>
@@ -28761,16 +28891,25 @@
         <v>-1000</v>
       </c>
       <c r="BT213" s="1">
-        <f>AVERAGE(BK213,BL213,BM213)</f>
+        <f t="shared" si="76"/>
         <v>1000</v>
       </c>
       <c r="BU213" s="1">
         <f>AVERAGE(BQ213,BR213,BS213)</f>
         <v>0</v>
       </c>
-      <c r="BV213" s="1"/>
-      <c r="BW213" s="1"/>
-      <c r="BX213" s="1"/>
+      <c r="BV213" s="1">
+        <f t="shared" si="77"/>
+        <v>1000</v>
+      </c>
+      <c r="BW213" s="1">
+        <f t="shared" si="77"/>
+        <v>1500</v>
+      </c>
+      <c r="BX213" s="1">
+        <f t="shared" si="77"/>
+        <v>500</v>
+      </c>
       <c r="BY213" s="1"/>
       <c r="BZ213" s="1"/>
       <c r="CA213" s="1"/>
@@ -28792,7 +28931,7 @@
       </c>
       <c r="CN213" s="1"/>
     </row>
-    <row r="214" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B214" s="6" t="s">
         <v>332</v>
       </c>
@@ -28862,14 +29001,14 @@
       <c r="BH214" s="1"/>
       <c r="BI214" s="1"/>
       <c r="BJ214" s="1"/>
-      <c r="BK214" s="1">
-        <v>750</v>
-      </c>
-      <c r="BL214" s="1">
-        <v>800</v>
-      </c>
-      <c r="BM214" s="1">
-        <v>1200</v>
+      <c r="BK214" s="44">
+        <v>-750</v>
+      </c>
+      <c r="BL214" s="44">
+        <v>-800</v>
+      </c>
+      <c r="BM214" s="44">
+        <v>-1200</v>
       </c>
       <c r="BN214" s="1"/>
       <c r="BO214" s="1"/>
@@ -28884,15 +29023,24 @@
         <v>62</v>
       </c>
       <c r="BT214" s="1">
-        <f>AVERAGE(BK214,BL214,BM214)</f>
+        <f t="shared" si="76"/>
         <v>916.66666666666663</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BV214" s="1"/>
-      <c r="BW214" s="1"/>
-      <c r="BX214" s="1"/>
+      <c r="BV214" s="1">
+        <f t="shared" si="77"/>
+        <v>750</v>
+      </c>
+      <c r="BW214" s="1">
+        <f t="shared" si="77"/>
+        <v>800</v>
+      </c>
+      <c r="BX214" s="1">
+        <f t="shared" si="77"/>
+        <v>1200</v>
+      </c>
       <c r="BY214" s="1"/>
       <c r="BZ214" s="1"/>
       <c r="CA214" s="1"/>
@@ -28914,7 +29062,7 @@
       </c>
       <c r="CN214" s="1"/>
     </row>
-    <row r="215" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B215" s="6" t="s">
         <v>333</v>
       </c>
@@ -29012,9 +29160,15 @@
         <f>AVERAGE(BQ215,BR215,BS215)</f>
         <v>916.66666666666663</v>
       </c>
-      <c r="BV215" s="1"/>
-      <c r="BW215" s="1"/>
-      <c r="BX215" s="1"/>
+      <c r="BV215" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW215" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX215" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY215" s="1"/>
       <c r="BZ215" s="1"/>
       <c r="CA215" s="1"/>
@@ -29036,7 +29190,7 @@
       </c>
       <c r="CN215" s="1"/>
     </row>
-    <row r="216" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B216" s="6" t="s">
         <v>334</v>
       </c>
@@ -29106,14 +29260,14 @@
       <c r="BH216" s="1"/>
       <c r="BI216" s="1"/>
       <c r="BJ216" s="1"/>
-      <c r="BK216" s="9">
-        <v>-1000</v>
-      </c>
-      <c r="BL216" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BM216" s="9">
-        <v>500</v>
+      <c r="BK216" s="45">
+        <v>1000</v>
+      </c>
+      <c r="BL216" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BM216" s="45">
+        <v>-500</v>
       </c>
       <c r="BN216" s="1"/>
       <c r="BO216" s="1"/>
@@ -29128,16 +29282,25 @@
         <v>2000</v>
       </c>
       <c r="BT216" s="1">
-        <f>AVERAGE(BK216,BL216,BM216)</f>
+        <f t="shared" si="76"/>
         <v>-666.66666666666663</v>
       </c>
       <c r="BU216" s="1">
         <f>AVERAGE(BQ216,BR216,BS216)</f>
         <v>2000</v>
       </c>
-      <c r="BV216" s="1"/>
-      <c r="BW216" s="1"/>
-      <c r="BX216" s="1"/>
+      <c r="BV216" s="1">
+        <f t="shared" ref="BV216:BX221" si="78">BK216*(-1)</f>
+        <v>-1000</v>
+      </c>
+      <c r="BW216" s="1">
+        <f t="shared" si="78"/>
+        <v>-1500</v>
+      </c>
+      <c r="BX216" s="1">
+        <f t="shared" si="78"/>
+        <v>500</v>
+      </c>
       <c r="BY216" s="1"/>
       <c r="BZ216" s="1"/>
       <c r="CA216" s="1"/>
@@ -29159,7 +29322,7 @@
       </c>
       <c r="CN216" s="1"/>
     </row>
-    <row r="217" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B217" s="6" t="s">
         <v>335</v>
       </c>
@@ -29229,14 +29392,14 @@
       <c r="BH217" s="1"/>
       <c r="BI217" s="1"/>
       <c r="BJ217" s="1"/>
-      <c r="BK217" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BL217" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BM217" s="9">
-        <v>500</v>
+      <c r="BK217" s="45">
+        <v>800</v>
+      </c>
+      <c r="BL217" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BM217" s="45">
+        <v>-500</v>
       </c>
       <c r="BN217" s="1"/>
       <c r="BO217" s="1"/>
@@ -29251,16 +29414,25 @@
         <v>2500</v>
       </c>
       <c r="BT217" s="1">
-        <f>AVERAGE(BK217,BL217,BM217)</f>
+        <f t="shared" si="76"/>
         <v>-600</v>
       </c>
       <c r="BU217" s="1">
         <f>AVERAGE(BQ217,BR217,BS217)</f>
         <v>-833.33333333333337</v>
       </c>
-      <c r="BV217" s="1"/>
-      <c r="BW217" s="1"/>
-      <c r="BX217" s="1"/>
+      <c r="BV217" s="1">
+        <f t="shared" si="78"/>
+        <v>-800</v>
+      </c>
+      <c r="BW217" s="1">
+        <f t="shared" si="78"/>
+        <v>-1500</v>
+      </c>
+      <c r="BX217" s="1">
+        <f t="shared" si="78"/>
+        <v>500</v>
+      </c>
       <c r="BY217" s="1"/>
       <c r="BZ217" s="1"/>
       <c r="CA217" s="1"/>
@@ -29282,7 +29454,7 @@
       </c>
       <c r="CN217" s="1"/>
     </row>
-    <row r="218" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B218" s="6" t="s">
         <v>336</v>
       </c>
@@ -29352,14 +29524,14 @@
       <c r="BH218" s="1"/>
       <c r="BI218" s="1"/>
       <c r="BJ218" s="1"/>
-      <c r="BK218" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BL218" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BM218" s="9">
-        <v>-500</v>
+      <c r="BK218" s="45">
+        <v>800</v>
+      </c>
+      <c r="BL218" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BM218" s="45">
+        <v>500</v>
       </c>
       <c r="BN218" s="1"/>
       <c r="BO218" s="1"/>
@@ -29374,16 +29546,25 @@
         <v>-2000</v>
       </c>
       <c r="BT218" s="1">
-        <f>AVERAGE(BK218,BL218,BM218)</f>
+        <f t="shared" si="76"/>
         <v>-933.33333333333337</v>
       </c>
       <c r="BU218" s="1">
         <f>AVERAGE(BQ218,BR218,BS218)</f>
         <v>0</v>
       </c>
-      <c r="BV218" s="1"/>
-      <c r="BW218" s="1"/>
-      <c r="BX218" s="1"/>
+      <c r="BV218" s="1">
+        <f t="shared" si="78"/>
+        <v>-800</v>
+      </c>
+      <c r="BW218" s="1">
+        <f t="shared" si="78"/>
+        <v>-1500</v>
+      </c>
+      <c r="BX218" s="1">
+        <f t="shared" si="78"/>
+        <v>-500</v>
+      </c>
       <c r="BY218" s="1"/>
       <c r="BZ218" s="1"/>
       <c r="CA218" s="1"/>
@@ -29405,7 +29586,7 @@
       </c>
       <c r="CN218" s="1"/>
     </row>
-    <row r="219" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B219" s="6" t="s">
         <v>337</v>
       </c>
@@ -29475,14 +29656,14 @@
       <c r="BH219" s="1"/>
       <c r="BI219" s="1"/>
       <c r="BJ219" s="1"/>
-      <c r="BK219" s="1">
-        <v>2000</v>
-      </c>
-      <c r="BL219" s="1">
-        <v>2000</v>
-      </c>
-      <c r="BM219" s="1">
-        <v>2000</v>
+      <c r="BK219" s="44">
+        <v>-2000</v>
+      </c>
+      <c r="BL219" s="44">
+        <v>-2000</v>
+      </c>
+      <c r="BM219" s="44">
+        <v>-2000</v>
       </c>
       <c r="BN219" s="1"/>
       <c r="BO219" s="1"/>
@@ -29497,16 +29678,25 @@
         <v>500</v>
       </c>
       <c r="BT219" s="1">
-        <f t="shared" ref="BT219:BT221" si="65">AVERAGE(BK219,BL219,BM219)</f>
+        <f t="shared" si="76"/>
         <v>2000</v>
       </c>
       <c r="BU219" s="1">
-        <f t="shared" ref="BU219:BU222" si="66">AVERAGE(BQ219,BR219,BS219)</f>
+        <f t="shared" ref="BU219:BU222" si="79">AVERAGE(BQ219,BR219,BS219)</f>
         <v>-666.66666666666663</v>
       </c>
-      <c r="BV219" s="1"/>
-      <c r="BW219" s="1"/>
-      <c r="BX219" s="1"/>
+      <c r="BV219" s="1">
+        <f t="shared" si="78"/>
+        <v>2000</v>
+      </c>
+      <c r="BW219" s="1">
+        <f t="shared" si="78"/>
+        <v>2000</v>
+      </c>
+      <c r="BX219" s="1">
+        <f t="shared" si="78"/>
+        <v>2000</v>
+      </c>
       <c r="BY219" s="1"/>
       <c r="BZ219" s="1"/>
       <c r="CA219" s="1"/>
@@ -29528,7 +29718,7 @@
       </c>
       <c r="CN219" s="1"/>
     </row>
-    <row r="220" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B220" s="6" t="s">
         <v>338</v>
       </c>
@@ -29598,14 +29788,14 @@
       <c r="BH220" s="1"/>
       <c r="BI220" s="1"/>
       <c r="BJ220" s="1"/>
-      <c r="BK220" s="1">
+      <c r="BK220" s="44">
+        <v>2500</v>
+      </c>
+      <c r="BL220" s="44">
+        <v>2500</v>
+      </c>
+      <c r="BM220" s="44">
         <v>-2500</v>
-      </c>
-      <c r="BL220" s="1">
-        <v>-2500</v>
-      </c>
-      <c r="BM220" s="1">
-        <v>2500</v>
       </c>
       <c r="BN220" s="1"/>
       <c r="BO220" s="1"/>
@@ -29620,16 +29810,25 @@
         <v>500</v>
       </c>
       <c r="BT220" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>-833.33333333333337</v>
       </c>
       <c r="BU220" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>-600</v>
       </c>
-      <c r="BV220" s="1"/>
-      <c r="BW220" s="1"/>
-      <c r="BX220" s="1"/>
+      <c r="BV220" s="1">
+        <f t="shared" si="78"/>
+        <v>-2500</v>
+      </c>
+      <c r="BW220" s="1">
+        <f t="shared" si="78"/>
+        <v>-2500</v>
+      </c>
+      <c r="BX220" s="1">
+        <f t="shared" si="78"/>
+        <v>2500</v>
+      </c>
       <c r="BY220" s="1"/>
       <c r="BZ220" s="1"/>
       <c r="CA220" s="1"/>
@@ -29651,7 +29850,7 @@
       </c>
       <c r="CN220" s="1"/>
     </row>
-    <row r="221" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B221" s="6" t="s">
         <v>339</v>
       </c>
@@ -29721,14 +29920,14 @@
       <c r="BH221" s="1"/>
       <c r="BI221" s="1"/>
       <c r="BJ221" s="1"/>
-      <c r="BK221" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BL221" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BM221" s="1">
-        <v>-2000</v>
+      <c r="BK221" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="BL221" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="BM221" s="44">
+        <v>2000</v>
       </c>
       <c r="BN221" s="1"/>
       <c r="BO221" s="1"/>
@@ -29743,16 +29942,25 @@
         <v>-500</v>
       </c>
       <c r="BT221" s="1">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="BU221" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>-933.33333333333337</v>
       </c>
-      <c r="BV221" s="1"/>
-      <c r="BW221" s="1"/>
-      <c r="BX221" s="1"/>
+      <c r="BV221" s="1">
+        <f t="shared" si="78"/>
+        <v>1000</v>
+      </c>
+      <c r="BW221" s="1">
+        <f t="shared" si="78"/>
+        <v>1000</v>
+      </c>
+      <c r="BX221" s="1">
+        <f t="shared" si="78"/>
+        <v>-2000</v>
+      </c>
       <c r="BY221" s="1"/>
       <c r="BZ221" s="1"/>
       <c r="CA221" s="1"/>
@@ -29774,7 +29982,7 @@
       </c>
       <c r="CN221" s="1"/>
     </row>
-    <row r="222" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B222" s="6" t="s">
         <v>340</v>
       </c>
@@ -29846,14 +30054,14 @@
       <c r="BK222" s="1"/>
       <c r="BL222" s="1"/>
       <c r="BM222" s="1"/>
-      <c r="BN222" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO222" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BP222" s="9">
-        <v>500</v>
+      <c r="BN222" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BO222" s="45">
+        <v>-1500</v>
+      </c>
+      <c r="BP222" s="45">
+        <v>-500</v>
       </c>
       <c r="BQ222" s="9">
         <v>2000</v>
@@ -29865,16 +30073,25 @@
         <v>2000</v>
       </c>
       <c r="BT222" s="1">
-        <f>AVERAGE(BN222,BO222,BP222)</f>
+        <f t="shared" si="76"/>
         <v>1000</v>
       </c>
       <c r="BU222" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="79"/>
         <v>2000</v>
       </c>
-      <c r="BV222" s="1"/>
-      <c r="BW222" s="1"/>
-      <c r="BX222" s="1"/>
+      <c r="BV222" s="1">
+        <f t="shared" ref="BV222" si="80">BN222*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW222" s="1">
+        <f t="shared" ref="BW222" si="81">BO222*(-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="BX222" s="1">
+        <f t="shared" ref="BX222" si="82">BP222*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY222" s="1"/>
       <c r="BZ222" s="1"/>
       <c r="CA222" s="1"/>
@@ -29894,7 +30111,7 @@
       <c r="CM222" s="1"/>
       <c r="CN222" s="1"/>
     </row>
-    <row r="223" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B223" s="6" t="s">
         <v>341</v>
       </c>
@@ -29966,8 +30183,8 @@
       <c r="BK223" s="1"/>
       <c r="BL223" s="1"/>
       <c r="BM223" s="1"/>
-      <c r="BN223" s="9">
-        <v>900</v>
+      <c r="BN223" s="45">
+        <v>-900</v>
       </c>
       <c r="BO223" s="9" t="s">
         <v>62</v>
@@ -29985,16 +30202,23 @@
         <v>62</v>
       </c>
       <c r="BT223" s="1">
-        <f>AVERAGE(BN223,BO223,BP223)</f>
+        <f t="shared" si="76"/>
         <v>900</v>
       </c>
       <c r="BU223" s="1">
-        <f t="shared" ref="BU223" si="67">AVERAGE(BQ223,BR223,BS223)</f>
+        <f t="shared" ref="BU223" si="83">AVERAGE(BQ223,BR223,BS223)</f>
         <v>1500</v>
       </c>
-      <c r="BV223" s="1"/>
-      <c r="BW223" s="1"/>
-      <c r="BX223" s="1"/>
+      <c r="BV223" s="1">
+        <f t="shared" ref="BV223:BV224" si="84">BN223*(-1)</f>
+        <v>900</v>
+      </c>
+      <c r="BW223" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX223" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY223" s="1"/>
       <c r="BZ223" s="1"/>
       <c r="CA223" s="1"/>
@@ -30014,7 +30238,7 @@
       <c r="CM223" s="1"/>
       <c r="CN223" s="1"/>
     </row>
-    <row r="224" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B224" s="6" t="s">
         <v>342</v>
       </c>
@@ -30086,14 +30310,14 @@
       <c r="BK224" s="1"/>
       <c r="BL224" s="1"/>
       <c r="BM224" s="1"/>
-      <c r="BN224" s="9">
-        <v>3000</v>
+      <c r="BN224" s="45">
+        <v>-3000</v>
       </c>
       <c r="BO224" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BP224" s="9">
-        <v>1200</v>
+      <c r="BP224" s="45">
+        <v>-1200</v>
       </c>
       <c r="BQ224" s="9">
         <v>2500</v>
@@ -30105,16 +30329,24 @@
         <v>2500</v>
       </c>
       <c r="BT224" s="1">
-        <f>AVERAGE(BN224,BO224,BP224)</f>
+        <f t="shared" si="76"/>
         <v>2100</v>
       </c>
       <c r="BU224" s="1">
-        <f t="shared" ref="BU224:BU226" si="68">AVERAGE(BQ224,BR224,BS224)</f>
+        <f t="shared" ref="BU224:BU226" si="85">AVERAGE(BQ224,BR224,BS224)</f>
         <v>2500</v>
       </c>
-      <c r="BV224" s="1"/>
-      <c r="BW224" s="1"/>
-      <c r="BX224" s="1"/>
+      <c r="BV224" s="1">
+        <f t="shared" si="84"/>
+        <v>3000</v>
+      </c>
+      <c r="BW224" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX224" s="1">
+        <f t="shared" ref="BX224" si="86">BP224*(-1)</f>
+        <v>1200</v>
+      </c>
       <c r="BY224" s="1"/>
       <c r="BZ224" s="1"/>
       <c r="CA224" s="1"/>
@@ -30134,7 +30366,7 @@
       <c r="CM224" s="1"/>
       <c r="CN224" s="1"/>
     </row>
-    <row r="225" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B225" s="6" t="s">
         <v>343</v>
       </c>
@@ -30231,9 +30463,15 @@
       <c r="BU225" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BV225" s="1"/>
-      <c r="BW225" s="1"/>
-      <c r="BX225" s="1"/>
+      <c r="BV225" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW225" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX225" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY225" s="1"/>
       <c r="BZ225" s="1"/>
       <c r="CA225" s="1"/>
@@ -30255,7 +30493,7 @@
       </c>
       <c r="CN225" s="1"/>
     </row>
-    <row r="226" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B226" s="6" t="s">
         <v>344</v>
       </c>
@@ -30328,14 +30566,14 @@
       <c r="BK226" s="1"/>
       <c r="BL226" s="1"/>
       <c r="BM226" s="1"/>
-      <c r="BN226" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO226" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BP226" s="9">
-        <v>500</v>
+      <c r="BN226" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BO226" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BP226" s="45">
+        <v>-500</v>
       </c>
       <c r="BQ226" s="9">
         <v>-1000</v>
@@ -30347,16 +30585,25 @@
         <v>-1000</v>
       </c>
       <c r="BT226" s="1">
-        <f>AVERAGE(BN226,BO226,BP226)</f>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="BU226" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="BV226" s="1"/>
-      <c r="BW226" s="1"/>
-      <c r="BX226" s="1"/>
+      <c r="BV226" s="1">
+        <f t="shared" ref="BV226" si="87">BN226*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW226" s="1">
+        <f t="shared" ref="BW226" si="88">BO226*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX226" s="1">
+        <f t="shared" ref="BX226" si="89">BP226*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY226" s="1"/>
       <c r="BZ226" s="1"/>
       <c r="CA226" s="1"/>
@@ -30378,7 +30625,7 @@
       </c>
       <c r="CN226" s="1"/>
     </row>
-    <row r="227" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B227" s="6" t="s">
         <v>345</v>
       </c>
@@ -30451,14 +30698,14 @@
       <c r="BK227" s="1"/>
       <c r="BL227" s="1"/>
       <c r="BM227" s="1"/>
-      <c r="BN227" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO227" s="9">
-        <v>1500</v>
-      </c>
-      <c r="BP227" s="9">
-        <v>500</v>
+      <c r="BN227" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BO227" s="45">
+        <v>-1500</v>
+      </c>
+      <c r="BP227" s="45">
+        <v>-500</v>
       </c>
       <c r="BQ227" s="9">
         <v>-1000</v>
@@ -30470,16 +30717,25 @@
         <v>-1000</v>
       </c>
       <c r="BT227" s="1">
-        <f>AVERAGE(BN227,BO227,BP227)</f>
+        <f t="shared" si="76"/>
         <v>1000</v>
       </c>
       <c r="BU227" s="1">
-        <f t="shared" ref="BU227" si="69">AVERAGE(BQ227,BR227,BS227)</f>
+        <f t="shared" ref="BU227" si="90">AVERAGE(BQ227,BR227,BS227)</f>
         <v>0</v>
       </c>
-      <c r="BV227" s="1"/>
-      <c r="BW227" s="1"/>
-      <c r="BX227" s="1"/>
+      <c r="BV227" s="1">
+        <f t="shared" ref="BV227" si="91">BN227*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW227" s="1">
+        <f t="shared" ref="BW227" si="92">BO227*(-1)</f>
+        <v>1500</v>
+      </c>
+      <c r="BX227" s="1">
+        <f t="shared" ref="BX227" si="93">BP227*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY227" s="1"/>
       <c r="BZ227" s="1"/>
       <c r="CA227" s="1"/>
@@ -30501,7 +30757,7 @@
       </c>
       <c r="CN227" s="1"/>
     </row>
-    <row r="228" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B228" s="6" t="s">
         <v>346</v>
       </c>
@@ -30574,34 +30830,43 @@
       <c r="BK228" s="1"/>
       <c r="BL228" s="1"/>
       <c r="BM228" s="1"/>
-      <c r="BN228" s="9">
+      <c r="BN228" s="45">
+        <v>-1500</v>
+      </c>
+      <c r="BO228" s="45">
+        <v>-800</v>
+      </c>
+      <c r="BP228" s="45">
+        <v>-1200</v>
+      </c>
+      <c r="BQ228" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR228" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BS228" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BT228" s="1">
+        <f t="shared" si="76"/>
+        <v>1166.6666666666667</v>
+      </c>
+      <c r="BU228" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV228" s="1">
+        <f t="shared" ref="BV228" si="94">BN228*(-1)</f>
         <v>1500</v>
       </c>
-      <c r="BO228" s="9">
+      <c r="BW228" s="1">
+        <f t="shared" ref="BW228" si="95">BO228*(-1)</f>
         <v>800</v>
       </c>
-      <c r="BP228" s="9">
+      <c r="BX228" s="1">
+        <f t="shared" ref="BX228" si="96">BP228*(-1)</f>
         <v>1200</v>
       </c>
-      <c r="BQ228" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR228" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS228" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BT228" s="1">
-        <f>AVERAGE(BN228,BO228,BP228)</f>
-        <v>1166.6666666666667</v>
-      </c>
-      <c r="BU228" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BV228" s="1"/>
-      <c r="BW228" s="1"/>
-      <c r="BX228" s="1"/>
       <c r="BY228" s="1"/>
       <c r="BZ228" s="1"/>
       <c r="CA228" s="1"/>
@@ -30623,7 +30888,7 @@
       </c>
       <c r="CN228" s="1"/>
     </row>
-    <row r="229" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B229" s="6" t="s">
         <v>347</v>
       </c>
@@ -30718,12 +30983,18 @@
         <v>62</v>
       </c>
       <c r="BU229" s="1">
-        <f t="shared" ref="BU229:BU235" si="70">AVERAGE(BQ229,BR229,BS229)</f>
+        <f t="shared" ref="BU229:BU235" si="97">AVERAGE(BQ229,BR229,BS229)</f>
         <v>950</v>
       </c>
-      <c r="BV229" s="1"/>
-      <c r="BW229" s="1"/>
-      <c r="BX229" s="1"/>
+      <c r="BV229" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW229" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX229" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY229" s="1"/>
       <c r="BZ229" s="1"/>
       <c r="CA229" s="1"/>
@@ -30745,7 +31016,7 @@
       </c>
       <c r="CN229" s="1"/>
     </row>
-    <row r="230" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B230" s="6" t="s">
         <v>348</v>
       </c>
@@ -30818,14 +31089,14 @@
       <c r="BK230" s="1"/>
       <c r="BL230" s="1"/>
       <c r="BM230" s="1"/>
-      <c r="BN230" s="9">
-        <v>-1000</v>
-      </c>
-      <c r="BO230" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BP230" s="9">
-        <v>500</v>
+      <c r="BN230" s="45">
+        <v>1000</v>
+      </c>
+      <c r="BO230" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BP230" s="45">
+        <v>-500</v>
       </c>
       <c r="BQ230" s="9">
         <v>2000</v>
@@ -30837,16 +31108,25 @@
         <v>2000</v>
       </c>
       <c r="BT230" s="1">
-        <f>AVERAGE(BN230,BO230,BP230)</f>
+        <f t="shared" si="76"/>
         <v>-666.66666666666663</v>
       </c>
       <c r="BU230" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>2000</v>
       </c>
-      <c r="BV230" s="1"/>
-      <c r="BW230" s="1"/>
-      <c r="BX230" s="1"/>
+      <c r="BV230" s="1">
+        <f t="shared" ref="BV230" si="98">BN230*(-1)</f>
+        <v>-1000</v>
+      </c>
+      <c r="BW230" s="1">
+        <f t="shared" ref="BW230" si="99">BO230*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX230" s="1">
+        <f t="shared" ref="BX230" si="100">BP230*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY230" s="1"/>
       <c r="BZ230" s="1"/>
       <c r="CA230" s="1"/>
@@ -30868,7 +31148,7 @@
       </c>
       <c r="CN230" s="1"/>
     </row>
-    <row r="231" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B231" s="6" t="s">
         <v>349</v>
       </c>
@@ -30941,14 +31221,14 @@
       <c r="BK231" s="1"/>
       <c r="BL231" s="1"/>
       <c r="BM231" s="1"/>
-      <c r="BN231" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BO231" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BP231" s="9">
-        <v>500</v>
+      <c r="BN231" s="45">
+        <v>800</v>
+      </c>
+      <c r="BO231" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BP231" s="45">
+        <v>-500</v>
       </c>
       <c r="BQ231" s="9">
         <v>-2500</v>
@@ -30960,16 +31240,25 @@
         <v>2500</v>
       </c>
       <c r="BT231" s="1">
-        <f t="shared" ref="BT231:BT235" si="71">AVERAGE(BN231,BO231,BP231)</f>
+        <f t="shared" si="76"/>
         <v>-600</v>
       </c>
       <c r="BU231" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>-833.33333333333337</v>
       </c>
-      <c r="BV231" s="1"/>
-      <c r="BW231" s="1"/>
-      <c r="BX231" s="1"/>
+      <c r="BV231" s="1">
+        <f t="shared" ref="BV231" si="101">BN231*(-1)</f>
+        <v>-800</v>
+      </c>
+      <c r="BW231" s="1">
+        <f t="shared" ref="BW231" si="102">BO231*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX231" s="1">
+        <f t="shared" ref="BX231" si="103">BP231*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY231" s="1"/>
       <c r="BZ231" s="1"/>
       <c r="CA231" s="1"/>
@@ -30991,7 +31280,7 @@
       </c>
       <c r="CN231" s="1"/>
     </row>
-    <row r="232" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B232" s="6" t="s">
         <v>350</v>
       </c>
@@ -31064,14 +31353,14 @@
       <c r="BK232" s="1"/>
       <c r="BL232" s="1"/>
       <c r="BM232" s="1"/>
-      <c r="BN232" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BO232" s="9">
-        <v>-1500</v>
-      </c>
-      <c r="BP232" s="9">
-        <v>-500</v>
+      <c r="BN232" s="45">
+        <v>800</v>
+      </c>
+      <c r="BO232" s="45">
+        <v>1500</v>
+      </c>
+      <c r="BP232" s="45">
+        <v>500</v>
       </c>
       <c r="BQ232" s="9">
         <v>1000</v>
@@ -31083,16 +31372,25 @@
         <v>-2000</v>
       </c>
       <c r="BT232" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>-933.33333333333337</v>
       </c>
       <c r="BU232" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="BV232" s="1"/>
-      <c r="BW232" s="1"/>
-      <c r="BX232" s="1"/>
+      <c r="BV232" s="1">
+        <f t="shared" ref="BV232" si="104">BN232*(-1)</f>
+        <v>-800</v>
+      </c>
+      <c r="BW232" s="1">
+        <f t="shared" ref="BW232" si="105">BO232*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX232" s="1">
+        <f t="shared" ref="BX232" si="106">BP232*(-1)</f>
+        <v>-500</v>
+      </c>
       <c r="BY232" s="1"/>
       <c r="BZ232" s="1"/>
       <c r="CA232" s="1"/>
@@ -31114,7 +31412,7 @@
       </c>
       <c r="CN232" s="1"/>
     </row>
-    <row r="233" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B233" s="6" t="s">
         <v>351</v>
       </c>
@@ -31187,14 +31485,14 @@
       <c r="BK233" s="1"/>
       <c r="BL233" s="1"/>
       <c r="BM233" s="1"/>
-      <c r="BN233" s="9">
-        <v>2000</v>
-      </c>
-      <c r="BO233" s="9">
-        <v>2000</v>
-      </c>
-      <c r="BP233" s="9">
-        <v>2000</v>
+      <c r="BN233" s="45">
+        <v>-2000</v>
+      </c>
+      <c r="BO233" s="45">
+        <v>-2000</v>
+      </c>
+      <c r="BP233" s="45">
+        <v>-2000</v>
       </c>
       <c r="BQ233" s="9">
         <v>-1000</v>
@@ -31206,16 +31504,25 @@
         <v>500</v>
       </c>
       <c r="BT233" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>2000</v>
       </c>
       <c r="BU233" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>-666.66666666666663</v>
       </c>
-      <c r="BV233" s="1"/>
-      <c r="BW233" s="1"/>
-      <c r="BX233" s="1"/>
+      <c r="BV233" s="1">
+        <f t="shared" ref="BV233" si="107">BN233*(-1)</f>
+        <v>2000</v>
+      </c>
+      <c r="BW233" s="1">
+        <f t="shared" ref="BW233" si="108">BO233*(-1)</f>
+        <v>2000</v>
+      </c>
+      <c r="BX233" s="1">
+        <f t="shared" ref="BX233" si="109">BP233*(-1)</f>
+        <v>2000</v>
+      </c>
       <c r="BY233" s="1"/>
       <c r="BZ233" s="1"/>
       <c r="CA233" s="1"/>
@@ -31237,7 +31544,7 @@
       </c>
       <c r="CN233" s="1"/>
     </row>
-    <row r="234" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B234" s="6" t="s">
         <v>352</v>
       </c>
@@ -31310,14 +31617,14 @@
       <c r="BK234" s="1"/>
       <c r="BL234" s="1"/>
       <c r="BM234" s="1"/>
-      <c r="BN234" s="9">
+      <c r="BN234" s="45">
+        <v>2500</v>
+      </c>
+      <c r="BO234" s="45">
+        <v>2500</v>
+      </c>
+      <c r="BP234" s="45">
         <v>-2500</v>
-      </c>
-      <c r="BO234" s="9">
-        <v>-2500</v>
-      </c>
-      <c r="BP234" s="9">
-        <v>2500</v>
       </c>
       <c r="BQ234" s="9">
         <v>-800</v>
@@ -31329,16 +31636,25 @@
         <v>500</v>
       </c>
       <c r="BT234" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>-833.33333333333337</v>
       </c>
       <c r="BU234" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>-600</v>
       </c>
-      <c r="BV234" s="1"/>
-      <c r="BW234" s="1"/>
-      <c r="BX234" s="1"/>
+      <c r="BV234" s="1">
+        <f t="shared" ref="BV234" si="110">BN234*(-1)</f>
+        <v>-2500</v>
+      </c>
+      <c r="BW234" s="1">
+        <f t="shared" ref="BW234" si="111">BO234*(-1)</f>
+        <v>-2500</v>
+      </c>
+      <c r="BX234" s="1">
+        <f t="shared" ref="BX234" si="112">BP234*(-1)</f>
+        <v>2500</v>
+      </c>
       <c r="BY234" s="1"/>
       <c r="BZ234" s="1"/>
       <c r="CA234" s="1"/>
@@ -31360,7 +31676,7 @@
       </c>
       <c r="CN234" s="1"/>
     </row>
-    <row r="235" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B235" s="6" t="s">
         <v>353</v>
       </c>
@@ -31433,14 +31749,14 @@
       <c r="BK235" s="1"/>
       <c r="BL235" s="1"/>
       <c r="BM235" s="1"/>
-      <c r="BN235" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO235" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BP235" s="9">
-        <v>-2000</v>
+      <c r="BN235" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BO235" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BP235" s="45">
+        <v>2000</v>
       </c>
       <c r="BQ235" s="9">
         <v>-800</v>
@@ -31452,16 +31768,25 @@
         <v>-500</v>
       </c>
       <c r="BT235" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="BU235" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="97"/>
         <v>-933.33333333333337</v>
       </c>
-      <c r="BV235" s="1"/>
-      <c r="BW235" s="1"/>
-      <c r="BX235" s="1"/>
+      <c r="BV235" s="1">
+        <f t="shared" ref="BV235" si="113">BN235*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW235" s="1">
+        <f t="shared" ref="BW235" si="114">BO235*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BX235" s="1">
+        <f t="shared" ref="BX235" si="115">BP235*(-1)</f>
+        <v>-2000</v>
+      </c>
       <c r="BY235" s="1"/>
       <c r="BZ235" s="1"/>
       <c r="CA235" s="1"/>
@@ -31483,7 +31808,7 @@
       </c>
       <c r="CN235" s="1"/>
     </row>
-    <row r="236" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B236" s="6" t="s">
         <v>354</v>
       </c>
@@ -31491,7 +31816,7 @@
         <v>230</v>
       </c>
       <c r="D236" s="1">
-        <f>AVERAGE((BE236-BK236),(BF236-BL236),(BG236-BM236))</f>
+        <f>AVERAGE((BE236-BV236),(BF236-BW236),(BG236-BX236))</f>
         <v>233.33333333333334</v>
       </c>
       <c r="E236" s="1"/>
@@ -31558,14 +31883,14 @@
       <c r="BH236" s="1"/>
       <c r="BI236" s="1"/>
       <c r="BJ236" s="1"/>
-      <c r="BK236" s="1">
-        <v>800</v>
-      </c>
-      <c r="BL236" s="1">
-        <v>1000</v>
-      </c>
-      <c r="BM236" s="1">
-        <v>1000</v>
+      <c r="BK236" s="44">
+        <v>-800</v>
+      </c>
+      <c r="BL236" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="BM236" s="44">
+        <v>-1000</v>
       </c>
       <c r="BN236" s="1"/>
       <c r="BO236" s="1"/>
@@ -31575,9 +31900,18 @@
       <c r="BS236" s="1"/>
       <c r="BT236" s="1"/>
       <c r="BU236" s="1"/>
-      <c r="BV236" s="1"/>
-      <c r="BW236" s="1"/>
-      <c r="BX236" s="1"/>
+      <c r="BV236" s="1">
+        <f>BK236*(-1)</f>
+        <v>800</v>
+      </c>
+      <c r="BW236" s="1">
+        <f>BL236*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BX236" s="1">
+        <f>BM236*(-1)</f>
+        <v>1000</v>
+      </c>
       <c r="BY236" s="1"/>
       <c r="BZ236" s="1"/>
       <c r="CA236" s="1"/>
@@ -31597,7 +31931,7 @@
       <c r="CM236" s="1"/>
       <c r="CN236" s="1"/>
     </row>
-    <row r="237" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B237" s="6" t="s">
         <v>355</v>
       </c>
@@ -31605,7 +31939,7 @@
         <v>230</v>
       </c>
       <c r="D237" s="1">
-        <f>AVERAGE((BE237-BK237))</f>
+        <f>AVERAGE((BE237-BV237))</f>
         <v>200</v>
       </c>
       <c r="E237" s="1"/>
@@ -31672,8 +32006,8 @@
       <c r="BH237" s="1"/>
       <c r="BI237" s="1"/>
       <c r="BJ237" s="1"/>
-      <c r="BK237" s="1">
-        <v>800</v>
+      <c r="BK237" s="44">
+        <v>-800</v>
       </c>
       <c r="BL237" s="1" t="s">
         <v>62</v>
@@ -31689,9 +32023,16 @@
       <c r="BS237" s="1"/>
       <c r="BT237" s="1"/>
       <c r="BU237" s="1"/>
-      <c r="BV237" s="1"/>
-      <c r="BW237" s="1"/>
-      <c r="BX237" s="1"/>
+      <c r="BV237" s="1">
+        <f>BK237*(-1)</f>
+        <v>800</v>
+      </c>
+      <c r="BW237" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX237" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY237" s="1"/>
       <c r="BZ237" s="1"/>
       <c r="CA237" s="1"/>
@@ -31711,7 +32052,7 @@
       <c r="CM237" s="1"/>
       <c r="CN237" s="1"/>
     </row>
-    <row r="238" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B238" s="6" t="s">
         <v>356</v>
       </c>
@@ -31804,9 +32145,15 @@
       <c r="BS238" s="1"/>
       <c r="BT238" s="1"/>
       <c r="BU238" s="1"/>
-      <c r="BV238" s="1"/>
-      <c r="BW238" s="1"/>
-      <c r="BX238" s="1"/>
+      <c r="BV238" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW238" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX238" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY238" s="1"/>
       <c r="BZ238" s="1"/>
       <c r="CA238" s="1"/>
@@ -31828,7 +32175,7 @@
       </c>
       <c r="CN238" s="1"/>
     </row>
-    <row r="239" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B239" s="6" t="s">
         <v>357</v>
       </c>
@@ -31836,7 +32183,7 @@
         <v>230</v>
       </c>
       <c r="D239" s="1">
-        <f>AVERAGE((BE239-BK239),(BF239-BL239),(BG239-BM239))</f>
+        <f>AVERAGE((BE239-BV239),(BF239-BW239),(BG239-BX239))</f>
         <v>1300</v>
       </c>
       <c r="E239" s="1"/>
@@ -31903,14 +32250,14 @@
       <c r="BH239" s="1"/>
       <c r="BI239" s="1"/>
       <c r="BJ239" s="1"/>
-      <c r="BK239" s="1">
-        <v>-1200</v>
-      </c>
-      <c r="BL239" s="1">
-        <v>800</v>
-      </c>
-      <c r="BM239" s="1">
-        <v>700</v>
+      <c r="BK239" s="44">
+        <v>1200</v>
+      </c>
+      <c r="BL239" s="44">
+        <v>-800</v>
+      </c>
+      <c r="BM239" s="44">
+        <v>-700</v>
       </c>
       <c r="BN239" s="1"/>
       <c r="BO239" s="1"/>
@@ -31920,9 +32267,18 @@
       <c r="BS239" s="1"/>
       <c r="BT239" s="1"/>
       <c r="BU239" s="1"/>
-      <c r="BV239" s="1"/>
-      <c r="BW239" s="1"/>
-      <c r="BX239" s="1"/>
+      <c r="BV239" s="1">
+        <f t="shared" ref="BV239:BX240" si="116">BK239*(-1)</f>
+        <v>-1200</v>
+      </c>
+      <c r="BW239" s="1">
+        <f t="shared" si="116"/>
+        <v>800</v>
+      </c>
+      <c r="BX239" s="1">
+        <f t="shared" si="116"/>
+        <v>700</v>
+      </c>
       <c r="BY239" s="1"/>
       <c r="BZ239" s="1"/>
       <c r="CA239" s="1"/>
@@ -31942,7 +32298,7 @@
       <c r="CM239" s="1"/>
       <c r="CN239" s="1"/>
     </row>
-    <row r="240" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B240" s="6" t="s">
         <v>358</v>
       </c>
@@ -32018,14 +32374,14 @@
       <c r="BH240" s="1"/>
       <c r="BI240" s="1"/>
       <c r="BJ240" s="1"/>
-      <c r="BK240" s="1">
+      <c r="BK240" s="44">
         <v>1200</v>
       </c>
-      <c r="BL240" s="1">
-        <v>800</v>
-      </c>
-      <c r="BM240" s="1">
-        <v>700</v>
+      <c r="BL240" s="44">
+        <v>-800</v>
+      </c>
+      <c r="BM240" s="44">
+        <v>-700</v>
       </c>
       <c r="BN240" s="1"/>
       <c r="BO240" s="1"/>
@@ -32035,9 +32391,18 @@
       <c r="BS240" s="1"/>
       <c r="BT240" s="1"/>
       <c r="BU240" s="1"/>
-      <c r="BV240" s="1"/>
-      <c r="BW240" s="1"/>
-      <c r="BX240" s="1"/>
+      <c r="BV240" s="1">
+        <f t="shared" si="116"/>
+        <v>-1200</v>
+      </c>
+      <c r="BW240" s="1">
+        <f t="shared" si="116"/>
+        <v>800</v>
+      </c>
+      <c r="BX240" s="1">
+        <f t="shared" si="116"/>
+        <v>700</v>
+      </c>
       <c r="BY240" s="1"/>
       <c r="BZ240" s="1"/>
       <c r="CA240" s="1"/>
@@ -32059,7 +32424,7 @@
       </c>
       <c r="CN240" s="1"/>
     </row>
-    <row r="241" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B241" s="6" t="s">
         <v>359</v>
       </c>
@@ -32067,7 +32432,7 @@
         <v>231</v>
       </c>
       <c r="D241" s="1">
-        <f>AVERAGE((BH241-BN241),(BI241-BO241),(BJ241-BP241))</f>
+        <f>AVERAGE((BH241-BV241),(BI241-BW241),(BJ241-BX241))</f>
         <v>433.33333333333331</v>
       </c>
       <c r="E241" s="1"/>
@@ -32137,23 +32502,32 @@
       <c r="BK241" s="9"/>
       <c r="BL241" s="9"/>
       <c r="BM241" s="9"/>
-      <c r="BN241" s="9">
-        <v>800</v>
-      </c>
-      <c r="BO241" s="9">
-        <v>900</v>
-      </c>
-      <c r="BP241" s="9">
-        <v>500</v>
-      </c>
-      <c r="BQ241" s="1"/>
-      <c r="BR241" s="1"/>
-      <c r="BS241" s="1"/>
+      <c r="BN241" s="45">
+        <v>-800</v>
+      </c>
+      <c r="BO241" s="45">
+        <v>-900</v>
+      </c>
+      <c r="BP241" s="45">
+        <v>-500</v>
+      </c>
+      <c r="BQ241" s="9"/>
+      <c r="BR241" s="9"/>
+      <c r="BS241" s="9"/>
       <c r="BT241" s="1"/>
       <c r="BU241" s="1"/>
-      <c r="BV241" s="1"/>
-      <c r="BW241" s="1"/>
-      <c r="BX241" s="1"/>
+      <c r="BV241" s="1">
+        <f t="shared" ref="BV241" si="117">BN241*(-1)</f>
+        <v>800</v>
+      </c>
+      <c r="BW241" s="1">
+        <f t="shared" ref="BW241" si="118">BO241*(-1)</f>
+        <v>900</v>
+      </c>
+      <c r="BX241" s="1">
+        <f t="shared" ref="BX241" si="119">BP241*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY241" s="1"/>
       <c r="BZ241" s="1"/>
       <c r="CA241" s="1"/>
@@ -32173,7 +32547,7 @@
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
     </row>
-    <row r="242" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B242" s="6" t="s">
         <v>360</v>
       </c>
@@ -32181,7 +32555,7 @@
         <v>231</v>
       </c>
       <c r="D242" s="1">
-        <f>AVERAGE((BH242-BN242))</f>
+        <f>AVERAGE((BH242-BV242))</f>
         <v>300</v>
       </c>
       <c r="E242" s="1"/>
@@ -32251,8 +32625,8 @@
       <c r="BK242" s="9"/>
       <c r="BL242" s="9"/>
       <c r="BM242" s="9"/>
-      <c r="BN242" s="9">
-        <v>700</v>
+      <c r="BN242" s="45">
+        <v>-700</v>
       </c>
       <c r="BO242" s="9" t="s">
         <v>62</v>
@@ -32265,9 +32639,16 @@
       <c r="BS242" s="1"/>
       <c r="BT242" s="1"/>
       <c r="BU242" s="1"/>
-      <c r="BV242" s="1"/>
-      <c r="BW242" s="1"/>
-      <c r="BX242" s="1"/>
+      <c r="BV242" s="1">
+        <f t="shared" ref="BV242" si="120">BN242*(-1)</f>
+        <v>700</v>
+      </c>
+      <c r="BW242" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX242" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY242" s="1"/>
       <c r="BZ242" s="1"/>
       <c r="CA242" s="1"/>
@@ -32287,7 +32668,7 @@
       <c r="CM242" s="1"/>
       <c r="CN242" s="1"/>
     </row>
-    <row r="243" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B243" s="6" t="s">
         <v>361</v>
       </c>
@@ -32380,9 +32761,15 @@
       <c r="BS243" s="1"/>
       <c r="BT243" s="1"/>
       <c r="BU243" s="1"/>
-      <c r="BV243" s="1"/>
-      <c r="BW243" s="1"/>
-      <c r="BX243" s="1"/>
+      <c r="BV243" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW243" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BX243" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="BY243" s="1"/>
       <c r="BZ243" s="1"/>
       <c r="CA243" s="1"/>
@@ -32404,7 +32791,7 @@
       </c>
       <c r="CN243" s="1"/>
     </row>
-    <row r="244" spans="2:92" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B244" s="6" t="s">
         <v>362</v>
       </c>
@@ -32412,7 +32799,7 @@
         <v>231</v>
       </c>
       <c r="D244" s="1">
-        <f>AVERAGE((BH244-BN244),(BI244-BO244),(BJ244-BP244))</f>
+        <f>AVERAGE((BH244-BV244),(BI244-BW244),(BJ244-BX244))</f>
         <v>966.66666666666663</v>
       </c>
       <c r="E244" s="1"/>
@@ -32482,23 +32869,32 @@
       <c r="BK244" s="9"/>
       <c r="BL244" s="9"/>
       <c r="BM244" s="9"/>
-      <c r="BN244" s="9">
-        <v>-800</v>
-      </c>
-      <c r="BO244" s="9">
-        <v>900</v>
-      </c>
-      <c r="BP244" s="9">
-        <v>500</v>
+      <c r="BN244" s="45">
+        <v>800</v>
+      </c>
+      <c r="BO244" s="45">
+        <v>-900</v>
+      </c>
+      <c r="BP244" s="45">
+        <v>-500</v>
       </c>
       <c r="BQ244" s="1"/>
       <c r="BR244" s="1"/>
       <c r="BS244" s="1"/>
       <c r="BT244" s="1"/>
       <c r="BU244" s="1"/>
-      <c r="BV244" s="1"/>
-      <c r="BW244" s="1"/>
-      <c r="BX244" s="1"/>
+      <c r="BV244" s="1">
+        <f t="shared" ref="BV244" si="121">BN244*(-1)</f>
+        <v>-800</v>
+      </c>
+      <c r="BW244" s="1">
+        <f t="shared" ref="BW244" si="122">BO244*(-1)</f>
+        <v>900</v>
+      </c>
+      <c r="BX244" s="1">
+        <f t="shared" ref="BX244" si="123">BP244*(-1)</f>
+        <v>500</v>
+      </c>
       <c r="BY244" s="1"/>
       <c r="BZ244" s="1"/>
       <c r="CA244" s="1"/>
@@ -32518,7 +32914,7 @@
       <c r="CM244" s="1"/>
       <c r="CN244" s="1"/>
     </row>
-    <row r="245" spans="2:92" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B245" s="6" t="s">
         <v>363</v>
       </c>
@@ -32597,23 +32993,32 @@
       <c r="BK245" s="9"/>
       <c r="BL245" s="9"/>
       <c r="BM245" s="9"/>
-      <c r="BN245" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BO245" s="9">
-        <v>1000</v>
-      </c>
-      <c r="BP245" s="9">
-        <v>-2000</v>
+      <c r="BN245" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BO245" s="45">
+        <v>-1000</v>
+      </c>
+      <c r="BP245" s="45">
+        <v>2000</v>
       </c>
       <c r="BQ245" s="1"/>
       <c r="BR245" s="1"/>
       <c r="BS245" s="1"/>
       <c r="BT245" s="1"/>
       <c r="BU245" s="1"/>
-      <c r="BV245" s="1"/>
-      <c r="BW245" s="1"/>
-      <c r="BX245" s="1"/>
+      <c r="BV245" s="1">
+        <f t="shared" ref="BV245" si="124">BN245*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BW245" s="1">
+        <f t="shared" ref="BW245" si="125">BO245*(-1)</f>
+        <v>1000</v>
+      </c>
+      <c r="BX245" s="1">
+        <f t="shared" ref="BX245" si="126">BP245*(-1)</f>
+        <v>-2000</v>
+      </c>
       <c r="BY245" s="1"/>
       <c r="BZ245" s="1"/>
       <c r="CA245" s="1"/>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -27,15 +27,6 @@
     <t>valore atteso</t>
   </si>
   <si>
-    <t>IMP_SALDO_CC_M0</t>
-  </si>
-  <si>
-    <t>IMP_SALDO_CC_M1</t>
-  </si>
-  <si>
-    <t>IMP_SALDO_CC_M2</t>
-  </si>
-  <si>
     <t>IMP_VAL_MERC_CD_M0</t>
   </si>
   <si>
@@ -1120,6 +1111,15 @@
   </si>
   <si>
     <t>BILFAM004_1; BILFAM004_2</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_LT_0_M1</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_LT_0_M2</t>
+  </si>
+  <si>
+    <t>IMP_SALDO_CC_LT_0_M0</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,6 +1381,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,10 +1708,10 @@
   <dimension ref="A3:FF245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BI215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BK217" sqref="BK217"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,9 +1730,7 @@
     <col min="13" max="13" width="21.6640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="19.5546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="21" style="3" customWidth="1"/>
+    <col min="16" max="18" width="23.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.88671875" style="3" customWidth="1"/>
     <col min="20" max="20" width="24.5546875" style="3" customWidth="1"/>
     <col min="21" max="21" width="24.88671875" style="3" customWidth="1"/>
@@ -1777,279 +1778,279 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="BI3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="BK3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BN3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BO3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BP3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ3" s="5" t="s">
+      <c r="BX3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="CA3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="CC3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CF3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CH3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CI3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CJ3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CM3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BR3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="BS3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BT3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BV3" s="5" t="s">
+      <c r="CN3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="BW3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="CE3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="10">
         <v>200</v>
@@ -2151,7 +2152,7 @@
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5" s="10">
         <v>200</v>
@@ -2161,10 +2162,10 @@
         <v>missing</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2255,7 +2256,7 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="10">
         <v>200</v>
@@ -2265,7 +2266,7 @@
         <v>missing</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" s="9">
         <v>-100</v>
@@ -2359,7 +2360,7 @@
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" s="10">
         <v>201</v>
@@ -2461,7 +2462,7 @@
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" s="10">
         <v>201</v>
@@ -2471,11 +2472,11 @@
         <v>missing</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2565,7 +2566,7 @@
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="10">
         <v>201</v>
@@ -2575,7 +2576,7 @@
         <v>missing</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9">
@@ -2669,7 +2670,7 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1">
         <v>202</v>
@@ -2771,7 +2772,7 @@
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1">
         <v>202</v>
@@ -2781,12 +2782,12 @@
         <v>missing</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2875,16 +2876,16 @@
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1">
         <v>202</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2978,7 +2979,7 @@
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1">
         <v>203</v>
@@ -3080,7 +3081,7 @@
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1">
         <v>203</v>
@@ -3090,13 +3091,13 @@
         <v>missing</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -3184,16 +3185,16 @@
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>203</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -3287,7 +3288,7 @@
     </row>
     <row r="16" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1">
         <v>204</v>
@@ -3389,7 +3390,7 @@
     </row>
     <row r="17" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1">
         <v>204</v>
@@ -3399,14 +3400,14 @@
         <v>missing</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="1"/>
@@ -3493,16 +3494,16 @@
     </row>
     <row r="18" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1">
         <v>204</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3596,7 +3597,7 @@
     </row>
     <row r="19" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C19" s="1">
         <v>205</v>
@@ -3698,7 +3699,7 @@
     </row>
     <row r="20" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1">
         <v>205</v>
@@ -3708,7 +3709,7 @@
         <v>missing</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3716,7 +3717,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="21" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>205</v>
@@ -3812,7 +3813,7 @@
         <v>missing</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3906,7 +3907,7 @@
     </row>
     <row r="22" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C22" s="1">
         <v>206</v>
@@ -4008,7 +4009,7 @@
     </row>
     <row r="23" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C23" s="1">
         <v>206</v>
@@ -4018,7 +4019,7 @@
         <v>missing</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -4027,7 +4028,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -4112,7 +4113,7 @@
     </row>
     <row r="24" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C24" s="1">
         <v>206</v>
@@ -4122,7 +4123,7 @@
         <v>missing</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -4216,7 +4217,7 @@
     </row>
     <row r="25" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25" s="1">
         <v>207</v>
@@ -4318,7 +4319,7 @@
     </row>
     <row r="26" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" s="1">
         <v>207</v>
@@ -4328,7 +4329,7 @@
         <v>missing</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -4338,7 +4339,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4422,16 +4423,16 @@
     </row>
     <row r="27" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1">
         <v>207</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -4525,7 +4526,7 @@
     </row>
     <row r="28" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1">
         <v>208</v>
@@ -4627,7 +4628,7 @@
     </row>
     <row r="29" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1">
         <v>208</v>
@@ -4637,7 +4638,7 @@
         <v>missing</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -4648,7 +4649,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -4731,16 +4732,16 @@
     </row>
     <row r="30" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1">
         <v>208</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -4834,7 +4835,7 @@
     </row>
     <row r="31" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C31" s="1">
         <v>209</v>
@@ -4942,7 +4943,7 @@
     </row>
     <row r="32" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1">
         <v>209</v>
@@ -4952,7 +4953,7 @@
         <v>missing</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -4963,10 +4964,10 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -5025,10 +5026,10 @@
       <c r="BR32" s="1"/>
       <c r="BS32" s="1"/>
       <c r="BT32" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU32" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV32" s="1"/>
       <c r="BW32" s="1"/>
@@ -5052,16 +5053,16 @@
     </row>
     <row r="33" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C33" s="1">
         <v>209</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -5075,7 +5076,7 @@
         <v>700</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -5137,7 +5138,7 @@
         <v>700</v>
       </c>
       <c r="BU33" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV33" s="1"/>
       <c r="BW33" s="1"/>
@@ -5161,7 +5162,7 @@
     </row>
     <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1">
         <v>209</v>
@@ -5171,7 +5172,7 @@
         <v>missing</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -5182,7 +5183,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O34" s="22">
         <v>700</v>
@@ -5244,7 +5245,7 @@
       <c r="BR34" s="1"/>
       <c r="BS34" s="1"/>
       <c r="BT34" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU34" s="22">
         <v>700</v>
@@ -5271,16 +5272,16 @@
     </row>
     <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1">
         <v>209</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -5380,16 +5381,16 @@
     </row>
     <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1">
         <v>209</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -5489,16 +5490,16 @@
     </row>
     <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1">
         <v>209</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -5598,16 +5599,16 @@
     </row>
     <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="1">
         <v>209</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -5707,16 +5708,16 @@
     </row>
     <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1">
         <v>209</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -5816,16 +5817,16 @@
     </row>
     <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1">
         <v>209</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -5925,7 +5926,7 @@
     </row>
     <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C41" s="1">
         <v>210</v>
@@ -6100,7 +6101,7 @@
     </row>
     <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1">
         <v>210</v>
@@ -6121,7 +6122,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q42" s="10">
         <v>1500</v>
@@ -6130,7 +6131,7 @@
         <v>800</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T42" s="10">
         <v>300</v>
@@ -6139,7 +6140,7 @@
         <v>1000</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W42" s="10">
         <v>300</v>
@@ -6148,7 +6149,7 @@
         <v>200</v>
       </c>
       <c r="Y42" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z42" s="10">
         <v>700</v>
@@ -6157,7 +6158,7 @@
         <v>600</v>
       </c>
       <c r="AB42" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC42" s="14">
         <v>400</v>
@@ -6275,7 +6276,7 @@
     </row>
     <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1">
         <v>210</v>
@@ -6299,46 +6300,46 @@
         <v>100</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S43" s="10">
         <v>600</v>
       </c>
       <c r="T43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V43" s="10">
         <v>400</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y43" s="10">
         <v>800</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB43" s="14">
         <v>500</v>
       </c>
       <c r="AC43" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD43" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE43" s="14"/>
       <c r="AF43" s="13"/>
@@ -6450,7 +6451,7 @@
     </row>
     <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1">
         <v>210</v>
@@ -6625,7 +6626,7 @@
     </row>
     <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2">
         <v>210</v>
@@ -6635,7 +6636,7 @@
         <v>missing</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -6648,49 +6649,49 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB45" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD45" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE45" s="14"/>
       <c r="AF45" s="8"/>
@@ -6872,7 +6873,7 @@
     </row>
     <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" s="2">
         <v>211</v>
@@ -7117,7 +7118,7 @@
     </row>
     <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C47" s="2">
         <v>211</v>
@@ -7138,7 +7139,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q47" s="10">
         <v>1500</v>
@@ -7147,7 +7148,7 @@
         <v>800</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T47" s="10">
         <v>300</v>
@@ -7156,7 +7157,7 @@
         <v>1000</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W47" s="10">
         <v>300</v>
@@ -7165,7 +7166,7 @@
         <v>200</v>
       </c>
       <c r="Y47" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z47" s="10">
         <v>700</v>
@@ -7174,7 +7175,7 @@
         <v>600</v>
       </c>
       <c r="AB47" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC47" s="14">
         <v>400</v>
@@ -7362,7 +7363,7 @@
     </row>
     <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2">
         <v>211</v>
@@ -7386,46 +7387,46 @@
         <v>100</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S48" s="10">
         <v>600</v>
       </c>
       <c r="T48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V48" s="10">
         <v>400</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y48" s="10">
         <v>800</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA48" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB48" s="14">
         <v>500</v>
       </c>
       <c r="AC48" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD48" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE48" s="14"/>
       <c r="AF48" s="13"/>
@@ -7607,7 +7608,7 @@
     </row>
     <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2">
         <v>211</v>
@@ -7852,7 +7853,7 @@
     </row>
     <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C50" s="2">
         <v>211</v>
@@ -7862,7 +7863,7 @@
         <v>missing</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -7875,49 +7876,49 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA50" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AB50" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC50" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AD50" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AE50" s="14"/>
       <c r="AF50" s="8"/>
@@ -8099,7 +8100,7 @@
     </row>
     <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" s="32">
         <v>212</v>
@@ -8136,7 +8137,7 @@
       <c r="AD51" s="8"/>
       <c r="AE51" s="8"/>
       <c r="AF51" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG51" s="1">
         <v>2500</v>
@@ -8300,7 +8301,7 @@
     </row>
     <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C52" s="32">
         <v>212</v>
@@ -8337,7 +8338,7 @@
       <c r="AD52" s="8"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG52" s="2">
         <v>1000</v>
@@ -8501,7 +8502,7 @@
     </row>
     <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C53" s="32">
         <v>212</v>
@@ -8542,19 +8543,19 @@
         <v>2500</v>
       </c>
       <c r="AH53" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI53" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ53" s="2">
         <v>1500</v>
       </c>
       <c r="AK53" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
@@ -8603,10 +8604,10 @@
         <v>1000</v>
       </c>
       <c r="BX53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ53" s="2"/>
       <c r="CA53" s="2"/>
@@ -8698,16 +8699,16 @@
     </row>
     <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C54" s="32">
         <v>212</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -8736,25 +8737,25 @@
       <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
@@ -8790,20 +8791,20 @@
       <c r="BR54" s="2"/>
       <c r="BS54" s="2"/>
       <c r="BT54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV54" s="2"/>
       <c r="BW54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ54" s="2"/>
       <c r="CA54" s="2"/>
@@ -8818,10 +8819,10 @@
       <c r="CJ54" s="2"/>
       <c r="CK54" s="2"/>
       <c r="CL54" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM54" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN54" s="1"/>
       <c r="CO54" s="3"/>
@@ -8897,7 +8898,7 @@
     </row>
     <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C55" s="32">
         <v>212</v>
@@ -8906,7 +8907,7 @@
         <v>-1000000</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -8935,7 +8936,7 @@
       <c r="AD55" s="8"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG55" s="1">
         <v>0</v>
@@ -9025,7 +9026,7 @@
         <v>-1000000</v>
       </c>
       <c r="CM55" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN55" s="1"/>
       <c r="CO55" s="3"/>
@@ -9101,16 +9102,16 @@
     </row>
     <row r="56" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C56" s="32">
         <v>212</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -9139,7 +9140,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG56" s="2">
         <v>400</v>
@@ -9151,13 +9152,13 @@
         <v>700</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK56" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL56" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
@@ -9193,7 +9194,7 @@
       <c r="BR56" s="1"/>
       <c r="BS56" s="1"/>
       <c r="BT56" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU56" s="2">
         <f t="shared" si="5"/>
@@ -9201,13 +9202,13 @@
       </c>
       <c r="BV56" s="2"/>
       <c r="BW56" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX56" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY56" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ56" s="1"/>
       <c r="CA56" s="1"/>
@@ -9222,25 +9223,25 @@
       <c r="CJ56" s="1"/>
       <c r="CK56" s="1"/>
       <c r="CL56" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM56" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN56" s="1"/>
     </row>
     <row r="57" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="32">
         <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -9269,7 +9270,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG57" s="2">
         <v>-500</v>
@@ -9356,25 +9357,25 @@
       <c r="CJ57" s="1"/>
       <c r="CK57" s="1"/>
       <c r="CL57" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM57" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN57" s="1"/>
     </row>
     <row r="58" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58" s="32">
         <v>212</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -9403,7 +9404,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG58" s="2">
         <v>-500</v>
@@ -9490,16 +9491,16 @@
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
       <c r="CL58" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM58" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN58" s="1"/>
     </row>
     <row r="59" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C59" s="32">
         <v>212</v>
@@ -9509,7 +9510,7 @@
         <v>999999</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -9540,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG59" s="17">
         <v>500</v>
@@ -9637,7 +9638,7 @@
     </row>
     <row r="60" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" s="32">
         <v>212</v>
@@ -9676,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG60" s="2">
         <v>500</v>
@@ -9773,7 +9774,7 @@
     </row>
     <row r="61" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C61" s="32">
         <v>212</v>
@@ -9812,7 +9813,7 @@
         <v>300</v>
       </c>
       <c r="AF61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG61" s="2">
         <v>1000</v>
@@ -9909,7 +9910,7 @@
     </row>
     <row r="62" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C62" s="32">
         <v>212</v>
@@ -9948,7 +9949,7 @@
         <v>300</v>
       </c>
       <c r="AF62" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG62" s="2">
         <v>1000</v>
@@ -10045,7 +10046,7 @@
     </row>
     <row r="63" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C63" s="32">
         <v>213</v>
@@ -10082,7 +10083,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
@@ -10176,7 +10177,7 @@
     </row>
     <row r="64" spans="2:162" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" s="32">
         <v>213</v>
@@ -10213,7 +10214,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
@@ -10307,7 +10308,7 @@
     </row>
     <row r="65" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C65" s="32">
         <v>213</v>
@@ -10354,19 +10355,19 @@
         <v>2000</v>
       </c>
       <c r="AN65" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO65" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP65" s="2">
         <v>750</v>
       </c>
       <c r="AQ65" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR65" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1"/>
@@ -10409,10 +10410,10 @@
         <v>1250</v>
       </c>
       <c r="BX65" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY65" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ65" s="1"/>
       <c r="CA65" s="1"/>
@@ -10434,16 +10435,16 @@
     </row>
     <row r="66" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C66" s="32">
         <v>213</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -10472,7 +10473,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
@@ -10481,22 +10482,22 @@
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS66" s="1"/>
       <c r="AT66" s="1"/>
@@ -10526,20 +10527,20 @@
       <c r="BR66" s="1"/>
       <c r="BS66" s="1"/>
       <c r="BT66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU66" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV66" s="1"/>
       <c r="BW66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ66" s="1"/>
       <c r="CA66" s="1"/>
@@ -10554,16 +10555,16 @@
       <c r="CJ66" s="1"/>
       <c r="CK66" s="1"/>
       <c r="CL66" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM66" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN66" s="1"/>
     </row>
     <row r="67" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C67" s="32">
         <v>213</v>
@@ -10572,7 +10573,7 @@
         <v>-1000000</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -10601,7 +10602,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
@@ -10691,22 +10692,22 @@
         <v>-1000000</v>
       </c>
       <c r="CM67" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN67" s="1"/>
     </row>
     <row r="68" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C68" s="32">
         <v>213</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -10735,7 +10736,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
@@ -10753,13 +10754,13 @@
         <v>700</v>
       </c>
       <c r="AP68" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ68" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR68" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
@@ -10789,7 +10790,7 @@
       <c r="BR68" s="1"/>
       <c r="BS68" s="1"/>
       <c r="BT68" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU68" s="2">
         <f t="shared" si="16"/>
@@ -10797,13 +10798,13 @@
       </c>
       <c r="BV68" s="1"/>
       <c r="BW68" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX68" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY68" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ68" s="1"/>
       <c r="CA68" s="1"/>
@@ -10818,25 +10819,25 @@
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
       <c r="CL68" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM68" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN68" s="1"/>
     </row>
     <row r="69" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C69" s="32">
         <v>213</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -10865,7 +10866,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
@@ -10952,25 +10953,25 @@
       <c r="CJ69" s="1"/>
       <c r="CK69" s="1"/>
       <c r="CL69" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM69" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN69" s="1"/>
     </row>
     <row r="70" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C70" s="32">
         <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -10999,7 +11000,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
@@ -11086,16 +11087,16 @@
       <c r="CJ70" s="1"/>
       <c r="CK70" s="1"/>
       <c r="CL70" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM70" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN70" s="1"/>
     </row>
     <row r="71" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C71" s="32">
         <v>213</v>
@@ -11105,7 +11106,7 @@
         <v>999999</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -11136,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AF71" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
@@ -11233,7 +11234,7 @@
     </row>
     <row r="72" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" s="32">
         <v>213</v>
@@ -11272,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="AF72" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
@@ -11369,7 +11370,7 @@
     </row>
     <row r="73" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" s="32">
         <v>213</v>
@@ -11408,7 +11409,7 @@
         <v>300</v>
       </c>
       <c r="AF73" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
@@ -11505,7 +11506,7 @@
     </row>
     <row r="74" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C74" s="32">
         <v>213</v>
@@ -11544,7 +11545,7 @@
         <v>300</v>
       </c>
       <c r="AF74" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
@@ -11641,7 +11642,7 @@
     </row>
     <row r="75" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C75" s="32">
         <v>214</v>
@@ -11678,7 +11679,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
@@ -11772,7 +11773,7 @@
     </row>
     <row r="76" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C76" s="32">
         <v>214</v>
@@ -11809,7 +11810,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
@@ -11903,7 +11904,7 @@
     </row>
     <row r="77" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" s="32">
         <v>214</v>
@@ -11956,19 +11957,19 @@
         <v>1000</v>
       </c>
       <c r="AT77" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU77" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV77" s="2">
         <v>800</v>
       </c>
       <c r="AW77" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX77" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
@@ -12005,10 +12006,10 @@
         <v>200</v>
       </c>
       <c r="BX77" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY77" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ77" s="1"/>
       <c r="CA77" s="1"/>
@@ -12030,16 +12031,16 @@
     </row>
     <row r="78" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C78" s="32">
         <v>214</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -12068,7 +12069,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
@@ -12083,22 +12084,22 @@
       <c r="AQ78" s="1"/>
       <c r="AR78" s="1"/>
       <c r="AS78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX78" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
@@ -12122,20 +12123,20 @@
       <c r="BR78" s="1"/>
       <c r="BS78" s="1"/>
       <c r="BT78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU78" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV78" s="1"/>
       <c r="BW78" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX78" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY78" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ78" s="1"/>
       <c r="CA78" s="1"/>
@@ -12150,16 +12151,16 @@
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
       <c r="CL78" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM78" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN78" s="1"/>
     </row>
     <row r="79" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C79" s="32">
         <v>214</v>
@@ -12168,7 +12169,7 @@
         <v>-1000000</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -12197,7 +12198,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
@@ -12287,22 +12288,22 @@
         <v>-1000000</v>
       </c>
       <c r="CM79" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN79" s="1"/>
     </row>
     <row r="80" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" s="32">
         <v>214</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -12331,7 +12332,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -12355,13 +12356,13 @@
         <v>700</v>
       </c>
       <c r="AV80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
@@ -12385,7 +12386,7 @@
       <c r="BR80" s="1"/>
       <c r="BS80" s="1"/>
       <c r="BT80" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU80" s="2">
         <f t="shared" si="25"/>
@@ -12393,13 +12394,13 @@
       </c>
       <c r="BV80" s="1"/>
       <c r="BW80" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX80" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY80" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ80" s="1"/>
       <c r="CA80" s="1"/>
@@ -12414,25 +12415,25 @@
       <c r="CJ80" s="1"/>
       <c r="CK80" s="1"/>
       <c r="CL80" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM80" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN80" s="1"/>
     </row>
     <row r="81" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81" s="32">
         <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -12461,7 +12462,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
@@ -12548,25 +12549,25 @@
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
       <c r="CL81" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM81" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN81" s="1"/>
     </row>
     <row r="82" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C82" s="32">
         <v>214</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -12595,7 +12596,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
@@ -12682,16 +12683,16 @@
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
       <c r="CL82" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM82" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN82" s="1"/>
     </row>
     <row r="83" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C83" s="32">
         <v>214</v>
@@ -12701,7 +12702,7 @@
         <v>999999</v>
       </c>
       <c r="E83" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -12732,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="AF83" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
@@ -12829,7 +12830,7 @@
     </row>
     <row r="84" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C84" s="32">
         <v>214</v>
@@ -12868,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="AF84" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
@@ -12965,7 +12966,7 @@
     </row>
     <row r="85" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C85" s="32">
         <v>214</v>
@@ -13004,7 +13005,7 @@
         <v>300</v>
       </c>
       <c r="AF85" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
@@ -13101,7 +13102,7 @@
     </row>
     <row r="86" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" s="32">
         <v>214</v>
@@ -13140,7 +13141,7 @@
         <v>300</v>
       </c>
       <c r="AF86" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
@@ -13237,7 +13238,7 @@
     </row>
     <row r="87" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C87" s="32">
         <v>215</v>
@@ -13274,7 +13275,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
@@ -13368,7 +13369,7 @@
     </row>
     <row r="88" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C88" s="32">
         <v>215</v>
@@ -13405,7 +13406,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
@@ -13499,7 +13500,7 @@
     </row>
     <row r="89" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C89" s="32">
         <v>215</v>
@@ -13558,19 +13559,19 @@
         <v>1000</v>
       </c>
       <c r="AZ89" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA89" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB89" s="2">
         <v>450</v>
       </c>
       <c r="BC89" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD89" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE89" s="1"/>
       <c r="BF89" s="1"/>
@@ -13601,10 +13602,10 @@
         <v>550</v>
       </c>
       <c r="BX89" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY89" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ89" s="1"/>
       <c r="CA89" s="1"/>
@@ -13626,16 +13627,16 @@
     </row>
     <row r="90" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C90" s="32">
         <v>215</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -13664,7 +13665,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
@@ -13685,22 +13686,22 @@
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
       <c r="AY90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AZ90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD90" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE90" s="1"/>
       <c r="BF90" s="1"/>
@@ -13718,20 +13719,20 @@
       <c r="BR90" s="1"/>
       <c r="BS90" s="1"/>
       <c r="BT90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU90" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV90" s="1"/>
       <c r="BW90" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX90" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY90" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ90" s="1"/>
       <c r="CA90" s="1"/>
@@ -13746,16 +13747,16 @@
       <c r="CJ90" s="1"/>
       <c r="CK90" s="1"/>
       <c r="CL90" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM90" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN90" s="1"/>
     </row>
     <row r="91" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C91" s="32">
         <v>215</v>
@@ -13764,7 +13765,7 @@
         <v>-1000000</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -13793,7 +13794,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
@@ -13883,22 +13884,22 @@
         <v>-1000000</v>
       </c>
       <c r="CM91" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN91" s="1"/>
     </row>
     <row r="92" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C92" s="32">
         <v>215</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -13927,7 +13928,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
@@ -13957,13 +13958,13 @@
         <v>700</v>
       </c>
       <c r="BB92" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC92" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD92" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE92" s="2"/>
       <c r="BF92" s="2"/>
@@ -13981,7 +13982,7 @@
       <c r="BR92" s="1"/>
       <c r="BS92" s="1"/>
       <c r="BT92" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU92" s="2">
         <f t="shared" si="34"/>
@@ -13989,13 +13990,13 @@
       </c>
       <c r="BV92" s="1"/>
       <c r="BW92" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX92" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY92" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ92" s="1"/>
       <c r="CA92" s="1"/>
@@ -14010,25 +14011,25 @@
       <c r="CJ92" s="1"/>
       <c r="CK92" s="1"/>
       <c r="CL92" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM92" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN92" s="1"/>
     </row>
     <row r="93" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="32">
         <v>215</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -14057,7 +14058,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
@@ -14144,25 +14145,25 @@
       <c r="CJ93" s="1"/>
       <c r="CK93" s="1"/>
       <c r="CL93" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM93" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN93" s="1"/>
     </row>
     <row r="94" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C94" s="32">
         <v>215</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -14191,7 +14192,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -14278,16 +14279,16 @@
       <c r="CJ94" s="1"/>
       <c r="CK94" s="1"/>
       <c r="CL94" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM94" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN94" s="1"/>
     </row>
     <row r="95" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C95" s="32">
         <v>215</v>
@@ -14297,7 +14298,7 @@
         <v>999999</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -14328,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="AF95" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
@@ -14425,7 +14426,7 @@
     </row>
     <row r="96" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C96" s="32">
         <v>215</v>
@@ -14464,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="AF96" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
@@ -14561,7 +14562,7 @@
     </row>
     <row r="97" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C97" s="32">
         <v>215</v>
@@ -14600,7 +14601,7 @@
         <v>300</v>
       </c>
       <c r="AF97" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
@@ -14697,7 +14698,7 @@
     </row>
     <row r="98" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C98" s="32">
         <v>215</v>
@@ -14736,7 +14737,7 @@
         <v>300</v>
       </c>
       <c r="AF98" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
@@ -14833,7 +14834,7 @@
     </row>
     <row r="99" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C99" s="32">
         <v>216</v>
@@ -14962,7 +14963,7 @@
     </row>
     <row r="100" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C100" s="32">
         <v>216</v>
@@ -15091,7 +15092,7 @@
     </row>
     <row r="101" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C101" s="32">
         <v>216</v>
@@ -15144,19 +15145,19 @@
         <v>1200</v>
       </c>
       <c r="AT101" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU101" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV101" s="9">
         <v>2300</v>
       </c>
       <c r="AW101" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX101" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
@@ -15193,10 +15194,10 @@
         <v>1100</v>
       </c>
       <c r="BX101" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY101" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ101" s="1"/>
       <c r="CA101" s="1"/>
@@ -15218,16 +15219,16 @@
     </row>
     <row r="102" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C102" s="32">
         <v>216</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -15269,22 +15270,22 @@
       <c r="AQ102" s="1"/>
       <c r="AR102" s="1"/>
       <c r="AS102" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT102" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU102" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV102" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW102" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX102" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
@@ -15308,20 +15309,20 @@
       <c r="BR102" s="1"/>
       <c r="BS102" s="1"/>
       <c r="BT102" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU102" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV102" s="1"/>
       <c r="BW102" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX102" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY102" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ102" s="1"/>
       <c r="CA102" s="1"/>
@@ -15336,16 +15337,16 @@
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
       <c r="CL102" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM102" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN102" s="1"/>
     </row>
     <row r="103" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C103" s="32">
         <v>216</v>
@@ -15354,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -15471,13 +15472,13 @@
         <v>-1000000</v>
       </c>
       <c r="CM103" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN103" s="1"/>
     </row>
     <row r="104" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C104" s="32">
         <v>216</v>
@@ -15486,7 +15487,7 @@
         <v>1000000</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -15600,25 +15601,25 @@
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
       <c r="CL104" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM104" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="CN104" s="1"/>
     </row>
     <row r="105" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C105" s="32">
         <v>216</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -15660,13 +15661,13 @@
       <c r="AQ105" s="1"/>
       <c r="AR105" s="1"/>
       <c r="AS105" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT105" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU105" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV105" s="23">
         <v>500</v>
@@ -15699,20 +15700,20 @@
       <c r="BR105" s="1"/>
       <c r="BS105" s="1"/>
       <c r="BT105" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU105" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV105" s="1"/>
       <c r="BW105" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX105" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY105" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ105" s="1"/>
       <c r="CA105" s="1"/>
@@ -15727,25 +15728,25 @@
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
       <c r="CL105" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM105" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN105" s="1"/>
     </row>
     <row r="106" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C106" s="32">
         <v>216</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -15796,13 +15797,13 @@
         <v>700</v>
       </c>
       <c r="AV106" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW106" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX106" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY106" s="1"/>
       <c r="AZ106" s="1"/>
@@ -15826,7 +15827,7 @@
       <c r="BR106" s="1"/>
       <c r="BS106" s="1"/>
       <c r="BT106" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU106" s="10">
         <f>AVERAGE(AS106,AT106,AU106)</f>
@@ -15834,13 +15835,13 @@
       </c>
       <c r="BV106" s="1"/>
       <c r="BW106" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX106" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY106" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ106" s="1"/>
       <c r="CA106" s="1"/>
@@ -15855,25 +15856,25 @@
       <c r="CJ106" s="1"/>
       <c r="CK106" s="1"/>
       <c r="CL106" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM106" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN106" s="1"/>
     </row>
     <row r="107" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C107" s="32">
         <v>216</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -15987,25 +15988,25 @@
       <c r="CJ107" s="1"/>
       <c r="CK107" s="1"/>
       <c r="CL107" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM107" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN107" s="1"/>
     </row>
     <row r="108" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C108" s="32">
         <v>216</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -16119,16 +16120,16 @@
       <c r="CJ108" s="1"/>
       <c r="CK108" s="1"/>
       <c r="CL108" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM108" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN108" s="1"/>
     </row>
     <row r="109" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C109" s="32">
         <v>217</v>
@@ -16257,7 +16258,7 @@
     </row>
     <row r="110" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C110" s="32">
         <v>217</v>
@@ -16386,7 +16387,7 @@
     </row>
     <row r="111" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B111" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C111" s="32">
         <v>217</v>
@@ -16445,19 +16446,19 @@
         <v>1000</v>
       </c>
       <c r="AZ111" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA111" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB111" s="9">
         <v>1400</v>
       </c>
       <c r="BC111" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD111" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE111" s="9"/>
       <c r="BF111" s="9"/>
@@ -16488,10 +16489,10 @@
         <v>400</v>
       </c>
       <c r="BX111" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY111" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ111" s="1"/>
       <c r="CA111" s="1"/>
@@ -16513,16 +16514,16 @@
     </row>
     <row r="112" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C112" s="32">
         <v>217</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -16570,22 +16571,22 @@
       <c r="AW112" s="1"/>
       <c r="AX112" s="1"/>
       <c r="AY112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AZ112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE112" s="9"/>
       <c r="BF112" s="9"/>
@@ -16603,20 +16604,20 @@
       <c r="BR112" s="1"/>
       <c r="BS112" s="1"/>
       <c r="BT112" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU112" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV112" s="1"/>
       <c r="BW112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY112" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ112" s="1"/>
       <c r="CA112" s="1"/>
@@ -16631,16 +16632,16 @@
       <c r="CJ112" s="1"/>
       <c r="CK112" s="1"/>
       <c r="CL112" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM112" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN112" s="1"/>
     </row>
     <row r="113" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C113" s="32">
         <v>217</v>
@@ -16649,7 +16650,7 @@
         <v>0</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -16766,13 +16767,13 @@
         <v>-1000000</v>
       </c>
       <c r="CM113" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN113" s="1"/>
     </row>
     <row r="114" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C114" s="32">
         <v>217</v>
@@ -16781,7 +16782,7 @@
         <v>1000000</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -16895,25 +16896,25 @@
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
       <c r="CL114" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM114" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="CN114" s="1"/>
     </row>
     <row r="115" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C115" s="32">
         <v>217</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -16961,13 +16962,13 @@
       <c r="AW115" s="1"/>
       <c r="AX115" s="1"/>
       <c r="AY115" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AZ115" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA115" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB115" s="23">
         <v>500</v>
@@ -16994,20 +16995,20 @@
       <c r="BR115" s="1"/>
       <c r="BS115" s="1"/>
       <c r="BT115" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU115" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV115" s="1"/>
       <c r="BW115" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX115" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY115" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ115" s="1"/>
       <c r="CA115" s="1"/>
@@ -17022,25 +17023,25 @@
       <c r="CJ115" s="1"/>
       <c r="CK115" s="1"/>
       <c r="CL115" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM115" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN115" s="1"/>
     </row>
     <row r="116" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C116" s="32">
         <v>217</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -17097,13 +17098,13 @@
         <v>700</v>
       </c>
       <c r="BB116" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC116" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD116" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE116" s="10"/>
       <c r="BF116" s="10"/>
@@ -17121,7 +17122,7 @@
       <c r="BR116" s="1"/>
       <c r="BS116" s="1"/>
       <c r="BT116" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU116" s="10">
         <f>AVERAGE(AY116,AZ116,BA116)</f>
@@ -17129,13 +17130,13 @@
       </c>
       <c r="BV116" s="1"/>
       <c r="BW116" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX116" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY116" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BZ116" s="1"/>
       <c r="CA116" s="1"/>
@@ -17150,25 +17151,25 @@
       <c r="CJ116" s="1"/>
       <c r="CK116" s="1"/>
       <c r="CL116" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM116" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN116" s="1"/>
     </row>
     <row r="117" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C117" s="32">
         <v>217</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -17282,25 +17283,25 @@
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
       <c r="CL117" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM117" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN117" s="1"/>
     </row>
     <row r="118" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118" s="32">
         <v>217</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -17414,16 +17415,16 @@
       <c r="CJ118" s="1"/>
       <c r="CK118" s="1"/>
       <c r="CL118" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM118" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN118" s="1"/>
     </row>
     <row r="119" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C119" s="32">
         <v>218</v>
@@ -17543,7 +17544,7 @@
     </row>
     <row r="120" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C120" s="32">
         <v>218</v>
@@ -17584,19 +17585,19 @@
         <v>1300</v>
       </c>
       <c r="AH120" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI120" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ120" s="9">
         <v>1200</v>
       </c>
       <c r="AK120" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL120" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM120" s="9"/>
       <c r="AN120" s="9"/>
@@ -17663,16 +17664,16 @@
     </row>
     <row r="121" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C121" s="32">
         <v>218</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -17702,22 +17703,22 @@
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
       <c r="AG121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL121" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM121" s="9"/>
       <c r="AN121" s="9"/>
@@ -17753,10 +17754,10 @@
       <c r="BR121" s="9"/>
       <c r="BS121" s="9"/>
       <c r="BT121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU121" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV121" s="1"/>
       <c r="BW121" s="1"/>
@@ -17775,16 +17776,16 @@
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
       <c r="CL121" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM121" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN121" s="1"/>
     </row>
     <row r="122" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C122" s="32">
         <v>218</v>
@@ -17793,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -17901,13 +17902,13 @@
         <v>0</v>
       </c>
       <c r="CM122" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN122" s="1"/>
     </row>
     <row r="123" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C123" s="32">
         <v>218</v>
@@ -17916,7 +17917,7 @@
         <v>1000000</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -18024,22 +18025,22 @@
         <v>1000000</v>
       </c>
       <c r="CM123" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN123" s="1"/>
     </row>
     <row r="124" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C124" s="32">
         <v>218</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -18069,13 +18070,13 @@
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
       <c r="AG124" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH124" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI124" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ124" s="10">
         <v>800</v>
@@ -18124,7 +18125,7 @@
         <v>800</v>
       </c>
       <c r="BU124" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV124" s="1"/>
       <c r="BW124" s="1"/>
@@ -18143,25 +18144,25 @@
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
       <c r="CL124" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM124" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CN124" s="1"/>
     </row>
     <row r="125" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C125" s="32">
         <v>218</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -18200,13 +18201,13 @@
         <v>700</v>
       </c>
       <c r="AJ125" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK125" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL125" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM125" s="9"/>
       <c r="AN125" s="9"/>
@@ -18242,7 +18243,7 @@
       <c r="BR125" s="9"/>
       <c r="BS125" s="9"/>
       <c r="BT125" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU125" s="10">
         <f t="shared" ref="BU125:BU131" si="51">AVERAGE(AG125,AH125,AI125)</f>
@@ -18265,25 +18266,25 @@
       <c r="CJ125" s="1"/>
       <c r="CK125" s="1"/>
       <c r="CL125" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM125" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN125" s="1"/>
     </row>
     <row r="126" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C126" s="32">
         <v>218</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -18388,25 +18389,25 @@
       <c r="CJ126" s="1"/>
       <c r="CK126" s="1"/>
       <c r="CL126" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM126" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN126" s="1"/>
     </row>
     <row r="127" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C127" s="32">
         <v>218</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -18511,25 +18512,25 @@
       <c r="CJ127" s="1"/>
       <c r="CK127" s="1"/>
       <c r="CL127" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM127" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN127" s="1"/>
     </row>
     <row r="128" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B128" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C128" s="32">
         <v>218</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -18634,25 +18635,25 @@
       <c r="CJ128" s="1"/>
       <c r="CK128" s="1"/>
       <c r="CL128" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM128" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN128" s="1"/>
     </row>
     <row r="129" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C129" s="32">
         <v>218</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -18757,25 +18758,25 @@
       <c r="CJ129" s="1"/>
       <c r="CK129" s="1"/>
       <c r="CL129" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM129" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN129" s="1"/>
     </row>
     <row r="130" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C130" s="32">
         <v>218</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -18880,25 +18881,25 @@
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
       <c r="CL130" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM130" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN130" s="1"/>
     </row>
     <row r="131" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C131" s="32">
         <v>218</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -19003,16 +19004,16 @@
       <c r="CJ131" s="1"/>
       <c r="CK131" s="1"/>
       <c r="CL131" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM131" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN131" s="1"/>
     </row>
     <row r="132" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C132" s="33">
         <v>219</v>
@@ -19132,7 +19133,7 @@
     </row>
     <row r="133" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C133" s="33">
         <v>219</v>
@@ -19179,19 +19180,19 @@
         <v>1000</v>
       </c>
       <c r="AN133" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO133" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP133" s="9">
         <v>800</v>
       </c>
       <c r="AQ133" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR133" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS133" s="1"/>
       <c r="AT133" s="1"/>
@@ -19252,16 +19253,16 @@
     </row>
     <row r="134" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C134" s="33">
         <v>219</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -19297,22 +19298,22 @@
       <c r="AK134" s="1"/>
       <c r="AL134" s="1"/>
       <c r="AM134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR134" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS134" s="1"/>
       <c r="AT134" s="1"/>
@@ -19342,10 +19343,10 @@
       <c r="BR134" s="1"/>
       <c r="BS134" s="1"/>
       <c r="BT134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU134" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV134" s="1"/>
       <c r="BW134" s="1"/>
@@ -19364,16 +19365,16 @@
       <c r="CJ134" s="1"/>
       <c r="CK134" s="1"/>
       <c r="CL134" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM134" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN134" s="1"/>
     </row>
     <row r="135" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C135" s="33">
         <v>219</v>
@@ -19382,7 +19383,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -19490,13 +19491,13 @@
         <v>0</v>
       </c>
       <c r="CM135" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN135" s="1"/>
     </row>
     <row r="136" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C136" s="33">
         <v>219</v>
@@ -19505,7 +19506,7 @@
         <v>1000000</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -19613,22 +19614,22 @@
         <v>1000000</v>
       </c>
       <c r="CM136" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN136" s="1"/>
     </row>
     <row r="137" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C137" s="33">
         <v>219</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -19664,13 +19665,13 @@
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
       <c r="AM137" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN137" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO137" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP137" s="10">
         <v>800</v>
@@ -19713,7 +19714,7 @@
         <v>800</v>
       </c>
       <c r="BU137" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV137" s="1"/>
       <c r="BW137" s="1"/>
@@ -19732,25 +19733,25 @@
       <c r="CJ137" s="1"/>
       <c r="CK137" s="1"/>
       <c r="CL137" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM137" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CN137" s="1"/>
     </row>
     <row r="138" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C138" s="33">
         <v>219</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -19795,13 +19796,13 @@
         <v>700</v>
       </c>
       <c r="AP138" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ138" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR138" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS138" s="1"/>
       <c r="AT138" s="1"/>
@@ -19831,7 +19832,7 @@
       <c r="BR138" s="1"/>
       <c r="BS138" s="1"/>
       <c r="BT138" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU138" s="10">
         <f t="shared" ref="BU138:BU144" si="53">AVERAGE(AM138,AN138,AO138)</f>
@@ -19854,25 +19855,25 @@
       <c r="CJ138" s="1"/>
       <c r="CK138" s="1"/>
       <c r="CL138" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM138" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN138" s="1"/>
     </row>
     <row r="139" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C139" s="33">
         <v>219</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -19977,25 +19978,25 @@
       <c r="CJ139" s="1"/>
       <c r="CK139" s="1"/>
       <c r="CL139" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM139" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN139" s="1"/>
     </row>
     <row r="140" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C140" s="33">
         <v>219</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -20100,25 +20101,25 @@
       <c r="CJ140" s="1"/>
       <c r="CK140" s="1"/>
       <c r="CL140" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM140" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN140" s="1"/>
     </row>
     <row r="141" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B141" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C141" s="33">
         <v>219</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -20223,25 +20224,25 @@
       <c r="CJ141" s="1"/>
       <c r="CK141" s="1"/>
       <c r="CL141" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM141" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN141" s="1"/>
     </row>
     <row r="142" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C142" s="33">
         <v>219</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -20346,25 +20347,25 @@
       <c r="CJ142" s="1"/>
       <c r="CK142" s="1"/>
       <c r="CL142" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM142" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN142" s="1"/>
     </row>
     <row r="143" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C143" s="33">
         <v>219</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -20469,25 +20470,25 @@
       <c r="CJ143" s="1"/>
       <c r="CK143" s="1"/>
       <c r="CL143" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM143" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN143" s="1"/>
     </row>
     <row r="144" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C144" s="33">
         <v>219</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -20592,16 +20593,16 @@
       <c r="CJ144" s="1"/>
       <c r="CK144" s="1"/>
       <c r="CL144" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM144" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN144" s="1"/>
     </row>
     <row r="145" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B145" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C145" s="33">
         <v>220</v>
@@ -20721,7 +20722,7 @@
     </row>
     <row r="146" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C146" s="33">
         <v>220</v>
@@ -20774,19 +20775,19 @@
         <v>2000</v>
       </c>
       <c r="AT146" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU146" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV146" s="9">
         <v>1250</v>
       </c>
       <c r="AW146" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX146" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
@@ -20841,16 +20842,16 @@
     </row>
     <row r="147" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B147" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C147" s="33">
         <v>220</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E147" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -20892,22 +20893,22 @@
       <c r="AQ147" s="1"/>
       <c r="AR147" s="1"/>
       <c r="AS147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX147" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
@@ -20931,10 +20932,10 @@
       <c r="BR147" s="1"/>
       <c r="BS147" s="1"/>
       <c r="BT147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU147" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV147" s="1"/>
       <c r="BW147" s="1"/>
@@ -20953,16 +20954,16 @@
       <c r="CJ147" s="1"/>
       <c r="CK147" s="1"/>
       <c r="CL147" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM147" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN147" s="1"/>
     </row>
     <row r="148" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C148" s="33">
         <v>220</v>
@@ -20971,7 +20972,7 @@
         <v>0</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -21079,13 +21080,13 @@
         <v>0</v>
       </c>
       <c r="CM148" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN148" s="1"/>
     </row>
     <row r="149" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C149" s="33">
         <v>220</v>
@@ -21094,7 +21095,7 @@
         <v>1000000</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -21202,22 +21203,22 @@
         <v>1000000</v>
       </c>
       <c r="CM149" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN149" s="1"/>
     </row>
     <row r="150" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C150" s="33">
         <v>220</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -21259,13 +21260,13 @@
       <c r="AQ150" s="1"/>
       <c r="AR150" s="1"/>
       <c r="AS150" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT150" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU150" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV150" s="10">
         <v>800</v>
@@ -21302,7 +21303,7 @@
         <v>800</v>
       </c>
       <c r="BU150" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV150" s="1"/>
       <c r="BW150" s="1"/>
@@ -21321,25 +21322,25 @@
       <c r="CJ150" s="1"/>
       <c r="CK150" s="1"/>
       <c r="CL150" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM150" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CN150" s="1"/>
     </row>
     <row r="151" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C151" s="33">
         <v>220</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -21390,13 +21391,13 @@
         <v>700</v>
       </c>
       <c r="AV151" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW151" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX151" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
@@ -21420,7 +21421,7 @@
       <c r="BR151" s="1"/>
       <c r="BS151" s="1"/>
       <c r="BT151" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU151" s="10">
         <f t="shared" ref="BU151:BU157" si="55">AVERAGE(AS151,AT151,AU151)</f>
@@ -21443,25 +21444,25 @@
       <c r="CJ151" s="1"/>
       <c r="CK151" s="1"/>
       <c r="CL151" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM151" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN151" s="1"/>
     </row>
     <row r="152" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C152" s="33">
         <v>220</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -21566,25 +21567,25 @@
       <c r="CJ152" s="1"/>
       <c r="CK152" s="1"/>
       <c r="CL152" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM152" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN152" s="1"/>
     </row>
     <row r="153" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C153" s="33">
         <v>220</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -21689,25 +21690,25 @@
       <c r="CJ153" s="1"/>
       <c r="CK153" s="1"/>
       <c r="CL153" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM153" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN153" s="1"/>
     </row>
     <row r="154" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C154" s="33">
         <v>220</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -21812,25 +21813,25 @@
       <c r="CJ154" s="1"/>
       <c r="CK154" s="1"/>
       <c r="CL154" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM154" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN154" s="1"/>
     </row>
     <row r="155" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C155" s="33">
         <v>220</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -21935,25 +21936,25 @@
       <c r="CJ155" s="1"/>
       <c r="CK155" s="1"/>
       <c r="CL155" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM155" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN155" s="1"/>
     </row>
     <row r="156" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C156" s="33">
         <v>220</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -22058,25 +22059,25 @@
       <c r="CJ156" s="1"/>
       <c r="CK156" s="1"/>
       <c r="CL156" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM156" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN156" s="1"/>
     </row>
     <row r="157" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C157" s="33">
         <v>220</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -22181,16 +22182,16 @@
       <c r="CJ157" s="1"/>
       <c r="CK157" s="1"/>
       <c r="CL157" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM157" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN157" s="1"/>
     </row>
     <row r="158" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C158" s="32">
         <v>221</v>
@@ -22310,7 +22311,7 @@
     </row>
     <row r="159" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C159" s="32">
         <v>221</v>
@@ -22369,19 +22370,19 @@
         <v>2500</v>
       </c>
       <c r="AZ159" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA159" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB159" s="9">
         <v>1500</v>
       </c>
       <c r="BC159" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD159" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE159" s="9"/>
       <c r="BF159" s="9"/>
@@ -22430,7 +22431,7 @@
     </row>
     <row r="160" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C160" s="32">
         <v>221</v>
@@ -22486,7 +22487,7 @@
       <c r="AW160" s="1"/>
       <c r="AX160" s="1"/>
       <c r="AY160" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AZ160" s="9">
         <v>400</v>
@@ -22495,7 +22496,7 @@
         <v>700</v>
       </c>
       <c r="BB160" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC160" s="9">
         <v>1200</v>
@@ -22550,16 +22551,16 @@
     </row>
     <row r="161" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B161" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C161" s="32">
         <v>221</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -22607,22 +22608,22 @@
       <c r="AW161" s="1"/>
       <c r="AX161" s="1"/>
       <c r="AY161" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AZ161" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA161" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB161" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC161" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD161" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE161" s="9"/>
       <c r="BF161" s="9"/>
@@ -22640,10 +22641,10 @@
       <c r="BR161" s="1"/>
       <c r="BS161" s="1"/>
       <c r="BT161" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU161" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV161" s="1"/>
       <c r="BW161" s="1"/>
@@ -22662,16 +22663,16 @@
       <c r="CJ161" s="1"/>
       <c r="CK161" s="1"/>
       <c r="CL161" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM161" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN161" s="1"/>
     </row>
     <row r="162" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B162" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C162" s="32">
         <v>221</v>
@@ -22680,7 +22681,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -22788,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="CM162" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="CN162" s="1"/>
     </row>
     <row r="163" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B163" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C163" s="32">
         <v>221</v>
@@ -22803,7 +22804,7 @@
         <v>1000000</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -22911,22 +22912,22 @@
         <v>1000000</v>
       </c>
       <c r="CM163" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN163" s="1"/>
     </row>
     <row r="164" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C164" s="32">
         <v>221</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -22974,13 +22975,13 @@
       <c r="AW164" s="1"/>
       <c r="AX164" s="1"/>
       <c r="AY164" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AZ164" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BA164" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BB164" s="23">
         <v>500</v>
@@ -23011,7 +23012,7 @@
         <v>1066.6666666666667</v>
       </c>
       <c r="BU164" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV164" s="1"/>
       <c r="BW164" s="1"/>
@@ -23030,25 +23031,25 @@
       <c r="CJ164" s="1"/>
       <c r="CK164" s="1"/>
       <c r="CL164" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM164" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="CN164" s="1"/>
     </row>
     <row r="165" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B165" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C165" s="32">
         <v>221</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -23105,13 +23106,13 @@
         <v>700</v>
       </c>
       <c r="BB165" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BC165" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BD165" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BE165" s="10"/>
       <c r="BF165" s="10"/>
@@ -23129,7 +23130,7 @@
       <c r="BR165" s="1"/>
       <c r="BS165" s="1"/>
       <c r="BT165" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU165" s="10">
         <f t="shared" ref="BU165:BU171" si="57">AVERAGE(AY165,AZ165,BA165)</f>
@@ -23152,25 +23153,25 @@
       <c r="CJ165" s="1"/>
       <c r="CK165" s="1"/>
       <c r="CL165" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM165" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN165" s="1"/>
     </row>
     <row r="166" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B166" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C166" s="32">
         <v>221</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -23275,25 +23276,25 @@
       <c r="CJ166" s="1"/>
       <c r="CK166" s="1"/>
       <c r="CL166" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM166" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN166" s="1"/>
     </row>
     <row r="167" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B167" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C167" s="32">
         <v>221</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -23398,25 +23399,25 @@
       <c r="CJ167" s="1"/>
       <c r="CK167" s="1"/>
       <c r="CL167" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM167" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN167" s="1"/>
     </row>
     <row r="168" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B168" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C168" s="32">
         <v>221</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -23521,25 +23522,25 @@
       <c r="CJ168" s="1"/>
       <c r="CK168" s="1"/>
       <c r="CL168" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM168" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="CN168" s="1"/>
     </row>
     <row r="169" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B169" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C169" s="32">
         <v>221</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -23644,25 +23645,25 @@
       <c r="CJ169" s="1"/>
       <c r="CK169" s="1"/>
       <c r="CL169" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM169" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="CN169" s="1"/>
     </row>
     <row r="170" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B170" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C170" s="32">
         <v>221</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -23767,25 +23768,25 @@
       <c r="CJ170" s="1"/>
       <c r="CK170" s="1"/>
       <c r="CL170" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM170" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="CN170" s="1"/>
     </row>
     <row r="171" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B171" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C171" s="32">
         <v>221</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E171" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -23897,7 +23898,7 @@
     </row>
     <row r="172" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C172" s="33">
         <v>222</v>
@@ -24017,7 +24018,7 @@
     </row>
     <row r="173" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B173" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C173" s="33">
         <v>222</v>
@@ -24058,19 +24059,19 @@
         <v>1000</v>
       </c>
       <c r="AH173" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI173" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ173" s="10">
         <v>700</v>
       </c>
       <c r="AK173" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL173" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM173" s="1"/>
       <c r="AN173" s="1"/>
@@ -24137,16 +24138,16 @@
     </row>
     <row r="174" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B174" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C174" s="33">
         <v>222</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -24176,22 +24177,22 @@
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
       <c r="AG174" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH174" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI174" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AJ174" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK174" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AL174" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AM174" s="1"/>
       <c r="AN174" s="1"/>
@@ -24227,10 +24228,10 @@
       <c r="BR174" s="1"/>
       <c r="BS174" s="1"/>
       <c r="BT174" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV174" s="1"/>
       <c r="BW174" s="1"/>
@@ -24249,16 +24250,16 @@
       <c r="CJ174" s="1"/>
       <c r="CK174" s="1"/>
       <c r="CL174" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM174" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN174" s="1"/>
     </row>
     <row r="175" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B175" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C175" s="33">
         <v>222</v>
@@ -24267,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -24370,25 +24371,25 @@
       <c r="CJ175" s="1"/>
       <c r="CK175" s="1"/>
       <c r="CL175" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM175" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN175" s="1"/>
     </row>
     <row r="176" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B176" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C176" s="33">
         <v>222</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E176" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -24418,7 +24419,7 @@
       <c r="AE176" s="1"/>
       <c r="AF176" s="1"/>
       <c r="AG176" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH176" s="10">
         <v>300</v>
@@ -24427,7 +24428,7 @@
         <v>400</v>
       </c>
       <c r="AJ176" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK176" s="10">
         <v>700</v>
@@ -24469,7 +24470,7 @@
       <c r="BR176" s="1"/>
       <c r="BS176" s="1"/>
       <c r="BT176" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU176" s="1">
         <f t="shared" ref="BU176:BU178" si="59">(AVERAGE(AJ176,AK176,AL176)/AVERAGE(AG176,AH176,AI176))</f>
@@ -24492,25 +24493,25 @@
       <c r="CJ176" s="1"/>
       <c r="CK176" s="1"/>
       <c r="CL176" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM176" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN176" s="1"/>
     </row>
     <row r="177" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B177" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C177" s="33">
         <v>222</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E177" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -24540,7 +24541,7 @@
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
       <c r="AG177" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AH177" s="10">
         <v>300</v>
@@ -24549,7 +24550,7 @@
         <v>400</v>
       </c>
       <c r="AJ177" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AK177" s="10">
         <v>-800</v>
@@ -24591,7 +24592,7 @@
       <c r="BR177" s="1"/>
       <c r="BS177" s="1"/>
       <c r="BT177" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU177" s="1">
         <f t="shared" si="59"/>
@@ -24614,25 +24615,25 @@
       <c r="CJ177" s="1"/>
       <c r="CK177" s="1"/>
       <c r="CL177" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM177" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN177" s="1"/>
     </row>
     <row r="178" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B178" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C178" s="33">
         <v>222</v>
       </c>
       <c r="D178" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -24740,13 +24741,13 @@
         <v>1000000</v>
       </c>
       <c r="CM178" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN178" s="1"/>
     </row>
     <row r="179" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B179" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C179" s="33">
         <v>223</v>
@@ -24866,7 +24867,7 @@
     </row>
     <row r="180" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B180" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C180" s="33">
         <v>223</v>
@@ -24913,19 +24914,19 @@
         <v>1000</v>
       </c>
       <c r="AN180" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO180" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP180" s="10">
         <v>700</v>
       </c>
       <c r="AQ180" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR180" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS180" s="1"/>
       <c r="AT180" s="1"/>
@@ -24986,16 +24987,16 @@
     </row>
     <row r="181" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B181" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C181" s="33">
         <v>223</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -25031,22 +25032,22 @@
       <c r="AK181" s="1"/>
       <c r="AL181" s="1"/>
       <c r="AM181" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN181" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO181" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AP181" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ181" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AR181" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS181" s="1"/>
       <c r="AT181" s="1"/>
@@ -25076,10 +25077,10 @@
       <c r="BR181" s="1"/>
       <c r="BS181" s="1"/>
       <c r="BT181" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU181" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV181" s="1"/>
       <c r="BW181" s="1"/>
@@ -25098,16 +25099,16 @@
       <c r="CJ181" s="1"/>
       <c r="CK181" s="1"/>
       <c r="CL181" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM181" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN181" s="1"/>
     </row>
     <row r="182" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B182" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C182" s="33">
         <v>223</v>
@@ -25116,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -25219,25 +25220,25 @@
       <c r="CJ182" s="1"/>
       <c r="CK182" s="1"/>
       <c r="CL182" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM182" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN182" s="1"/>
     </row>
     <row r="183" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B183" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C183" s="33">
         <v>223</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -25273,7 +25274,7 @@
       <c r="AK183" s="1"/>
       <c r="AL183" s="1"/>
       <c r="AM183" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN183" s="10">
         <v>550</v>
@@ -25282,7 +25283,7 @@
         <v>400</v>
       </c>
       <c r="AP183" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ183" s="10">
         <v>700</v>
@@ -25318,7 +25319,7 @@
       <c r="BR183" s="1"/>
       <c r="BS183" s="1"/>
       <c r="BT183" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU183" s="9">
         <f t="shared" ref="BU183:BU185" si="61">(AVERAGE(AP183,AQ183,AR183)/AVERAGE(AM183,AN183,AO183))</f>
@@ -25341,25 +25342,25 @@
       <c r="CJ183" s="1"/>
       <c r="CK183" s="1"/>
       <c r="CL183" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM183" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN183" s="1"/>
     </row>
     <row r="184" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C184" s="33">
         <v>223</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -25395,7 +25396,7 @@
       <c r="AK184" s="1"/>
       <c r="AL184" s="1"/>
       <c r="AM184" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN184" s="10">
         <v>300</v>
@@ -25404,7 +25405,7 @@
         <v>500</v>
       </c>
       <c r="AP184" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AQ184" s="10">
         <v>700</v>
@@ -25440,7 +25441,7 @@
       <c r="BR184" s="1"/>
       <c r="BS184" s="1"/>
       <c r="BT184" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU184" s="9">
         <f t="shared" si="61"/>
@@ -25463,25 +25464,25 @@
       <c r="CJ184" s="1"/>
       <c r="CK184" s="1"/>
       <c r="CL184" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM184" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN184" s="1"/>
     </row>
     <row r="185" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B185" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C185" s="33">
         <v>223</v>
       </c>
       <c r="D185" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E185" s="42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -25589,13 +25590,13 @@
         <v>1000000</v>
       </c>
       <c r="CM185" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN185" s="1"/>
     </row>
     <row r="186" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C186" s="32">
         <v>224</v>
@@ -25715,7 +25716,7 @@
     </row>
     <row r="187" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B187" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C187" s="32">
         <v>224</v>
@@ -25768,19 +25769,19 @@
         <v>1200</v>
       </c>
       <c r="AT187" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU187" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV187" s="10">
         <v>700</v>
       </c>
       <c r="AW187" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX187" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
@@ -25835,16 +25836,16 @@
     </row>
     <row r="188" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B188" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C188" s="32">
         <v>224</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -25886,22 +25887,22 @@
       <c r="AQ188" s="1"/>
       <c r="AR188" s="1"/>
       <c r="AS188" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT188" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AU188" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AV188" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW188" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AX188" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
@@ -25925,10 +25926,10 @@
       <c r="BR188" s="1"/>
       <c r="BS188" s="1"/>
       <c r="BT188" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV188" s="1"/>
       <c r="BW188" s="1"/>
@@ -25947,16 +25948,16 @@
       <c r="CJ188" s="1"/>
       <c r="CK188" s="1"/>
       <c r="CL188" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM188" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN188" s="1"/>
     </row>
     <row r="189" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B189" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C189" s="32">
         <v>224</v>
@@ -25965,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="E189" s="38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -26068,25 +26069,25 @@
       <c r="CJ189" s="1"/>
       <c r="CK189" s="1"/>
       <c r="CL189" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM189" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN189" s="1"/>
     </row>
     <row r="190" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C190" s="33">
         <v>224</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E190" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -26128,7 +26129,7 @@
       <c r="AQ190" s="1"/>
       <c r="AR190" s="1"/>
       <c r="AS190" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT190" s="10">
         <v>550</v>
@@ -26137,7 +26138,7 @@
         <v>400</v>
       </c>
       <c r="AV190" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW190" s="10">
         <v>700</v>
@@ -26167,7 +26168,7 @@
       <c r="BR190" s="9"/>
       <c r="BS190" s="9"/>
       <c r="BT190" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU190" s="1">
         <f t="shared" ref="BU190:BU192" si="62">(AVERAGE(AV190,AW190,AX190)/AVERAGE(AS190,AT190,AU190))</f>
@@ -26190,25 +26191,25 @@
       <c r="CJ190" s="1"/>
       <c r="CK190" s="1"/>
       <c r="CL190" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM190" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN190" s="1"/>
     </row>
     <row r="191" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B191" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C191" s="33">
         <v>224</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
@@ -26250,7 +26251,7 @@
       <c r="AQ191" s="9"/>
       <c r="AR191" s="9"/>
       <c r="AS191" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT191" s="10">
         <v>300</v>
@@ -26259,7 +26260,7 @@
         <v>500</v>
       </c>
       <c r="AV191" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AW191" s="10">
         <v>700</v>
@@ -26289,7 +26290,7 @@
       <c r="BR191" s="9"/>
       <c r="BS191" s="9"/>
       <c r="BT191" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU191" s="9">
         <f t="shared" si="62"/>
@@ -26312,25 +26313,25 @@
       <c r="CJ191" s="1"/>
       <c r="CK191" s="1"/>
       <c r="CL191" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM191" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="CN191" s="1"/>
     </row>
     <row r="192" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B192" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C192" s="33">
         <v>224</v>
       </c>
       <c r="D192" s="39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E192" s="43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
@@ -26438,13 +26439,13 @@
         <v>1000000</v>
       </c>
       <c r="CM192" s="35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN192" s="1"/>
     </row>
     <row r="193" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B193" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C193" s="32">
         <v>225</v>
@@ -26552,7 +26553,7 @@
     </row>
     <row r="194" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B194" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C194" s="32">
         <v>225</v>
@@ -26620,10 +26621,10 @@
         <v>1500</v>
       </c>
       <c r="BI194" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BJ194" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BK194" s="1"/>
       <c r="BL194" s="1"/>
@@ -26660,7 +26661,7 @@
     </row>
     <row r="195" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B195" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C195" s="32">
         <v>225</v>
@@ -26728,7 +26729,7 @@
         <v>1400</v>
       </c>
       <c r="BI195" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BJ195" s="1">
         <v>1400</v>
@@ -26768,16 +26769,16 @@
     </row>
     <row r="196" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B196" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C196" s="32">
         <v>225</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -26834,13 +26835,13 @@
       <c r="BF196" s="1"/>
       <c r="BG196" s="1"/>
       <c r="BH196" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BI196" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BJ196" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BK196" s="1"/>
       <c r="BL196" s="1"/>
@@ -26873,22 +26874,22 @@
         <v>0</v>
       </c>
       <c r="CM196" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN196" s="1"/>
     </row>
     <row r="197" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B197" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C197" s="32">
         <v>225</v>
       </c>
       <c r="D197" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -26984,13 +26985,13 @@
         <v>-1000</v>
       </c>
       <c r="CM197" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN197" s="1"/>
     </row>
     <row r="198" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B198" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C198" s="32">
         <v>226</v>
@@ -27107,7 +27108,7 @@
     </row>
     <row r="199" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B199" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C199" s="32">
         <v>226</v>
@@ -27178,10 +27179,10 @@
         <v>-800</v>
       </c>
       <c r="BL199" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM199" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BN199" s="1"/>
       <c r="BO199" s="1"/>
@@ -27196,10 +27197,10 @@
         <v>800</v>
       </c>
       <c r="BW199" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX199" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY199" s="1"/>
       <c r="BZ199" s="1"/>
@@ -27222,7 +27223,7 @@
     </row>
     <row r="200" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C200" s="32">
         <v>226</v>
@@ -27293,7 +27294,7 @@
         <v>-3000</v>
       </c>
       <c r="BL200" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM200" s="44">
         <v>-1400</v>
@@ -27311,7 +27312,7 @@
         <v>3000</v>
       </c>
       <c r="BW200" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX200" s="1">
         <f t="shared" ref="BX200:BX202" si="67">BM200*(-1)</f>
@@ -27338,16 +27339,16 @@
     </row>
     <row r="201" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B201" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C201" s="32">
         <v>226</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -27407,13 +27408,13 @@
       <c r="BI201" s="1"/>
       <c r="BJ201" s="1"/>
       <c r="BK201" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BL201" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM201" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BN201" s="1"/>
       <c r="BO201" s="1"/>
@@ -27424,13 +27425,13 @@
       <c r="BT201" s="1"/>
       <c r="BU201" s="1"/>
       <c r="BV201" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW201" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX201" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY201" s="1"/>
       <c r="BZ201" s="1"/>
@@ -27446,25 +27447,25 @@
       <c r="CJ201" s="1"/>
       <c r="CK201" s="1"/>
       <c r="CL201" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM201" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN201" s="1"/>
     </row>
     <row r="202" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B202" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C202" s="32">
         <v>226</v>
       </c>
       <c r="D202" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E202" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -27573,7 +27574,7 @@
     </row>
     <row r="203" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B203" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C203" s="32">
         <v>227</v>
@@ -27690,7 +27691,7 @@
     </row>
     <row r="204" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B204" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C204" s="32">
         <v>227</v>
@@ -27764,10 +27765,10 @@
         <v>-900</v>
       </c>
       <c r="BO204" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP204" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ204" s="1"/>
       <c r="BR204" s="1"/>
@@ -27779,10 +27780,10 @@
         <v>900</v>
       </c>
       <c r="BW204" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX204" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY204" s="1"/>
       <c r="BZ204" s="1"/>
@@ -27805,7 +27806,7 @@
     </row>
     <row r="205" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B205" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C205" s="32">
         <v>227</v>
@@ -27879,7 +27880,7 @@
         <v>-3000</v>
       </c>
       <c r="BO205" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP205" s="44">
         <v>-1200</v>
@@ -27894,7 +27895,7 @@
         <v>3000</v>
       </c>
       <c r="BW205" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX205" s="1">
         <f t="shared" ref="BX205:BX207" si="71">BP205*(-1)</f>
@@ -27921,16 +27922,16 @@
     </row>
     <row r="206" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B206" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C206" s="32">
         <v>227</v>
       </c>
       <c r="D206" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E206" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -27993,13 +27994,13 @@
       <c r="BL206" s="1"/>
       <c r="BM206" s="1"/>
       <c r="BN206" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BO206" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP206" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ206" s="1"/>
       <c r="BR206" s="1"/>
@@ -28007,13 +28008,13 @@
       <c r="BT206" s="1"/>
       <c r="BU206" s="1"/>
       <c r="BV206" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW206" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX206" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY206" s="1"/>
       <c r="BZ206" s="1"/>
@@ -28029,25 +28030,25 @@
       <c r="CJ206" s="1"/>
       <c r="CK206" s="1"/>
       <c r="CL206" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM206" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN206" s="1"/>
     </row>
     <row r="207" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B207" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C207" s="32">
         <v>227</v>
       </c>
       <c r="D207" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E207" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -28152,13 +28153,13 @@
         <v>-966.67</v>
       </c>
       <c r="CM207" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN207" s="1"/>
     </row>
     <row r="208" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C208" s="32">
         <v>228</v>
@@ -28287,7 +28288,7 @@
     </row>
     <row r="209" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B209" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C209" s="32">
         <v>228</v>
@@ -28355,10 +28356,10 @@
       <c r="BI209" s="1"/>
       <c r="BJ209" s="1"/>
       <c r="BK209" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BL209" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM209" s="45">
         <v>-800</v>
@@ -28367,10 +28368,10 @@
       <c r="BO209" s="1"/>
       <c r="BP209" s="1"/>
       <c r="BQ209" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BR209" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS209" s="1">
         <v>1500</v>
@@ -28384,10 +28385,10 @@
         <v>1500</v>
       </c>
       <c r="BV209" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW209" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX209" s="1">
         <f t="shared" ref="BX209:BX210" si="75">BM209*(-1)</f>
@@ -28414,7 +28415,7 @@
     </row>
     <row r="210" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B210" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C210" s="32">
         <v>228</v>
@@ -28485,7 +28486,7 @@
         <v>-1000</v>
       </c>
       <c r="BL210" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM210" s="45">
         <v>-1400</v>
@@ -28497,7 +28498,7 @@
         <v>2500</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS210" s="1">
         <v>2500</v>
@@ -28515,7 +28516,7 @@
         <v>1000</v>
       </c>
       <c r="BW210" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX210" s="1">
         <f t="shared" si="75"/>
@@ -28542,16 +28543,16 @@
     </row>
     <row r="211" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B211" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C211" s="32">
         <v>228</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E211" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -28611,40 +28612,40 @@
       <c r="BI211" s="1"/>
       <c r="BJ211" s="1"/>
       <c r="BK211" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BL211" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM211" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BN211" s="1"/>
       <c r="BO211" s="1"/>
       <c r="BP211" s="1"/>
       <c r="BQ211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX211" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY211" s="1"/>
       <c r="BZ211" s="1"/>
@@ -28660,16 +28661,16 @@
       <c r="CJ211" s="1"/>
       <c r="CK211" s="1"/>
       <c r="CL211" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM211" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN211" s="1"/>
     </row>
     <row r="212" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B212" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C212" s="32">
         <v>228</v>
@@ -28678,7 +28679,7 @@
         <v>999999</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -28795,13 +28796,13 @@
         <v>0</v>
       </c>
       <c r="CM212" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="CN212" s="1"/>
     </row>
     <row r="213" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B213" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C213" s="32">
         <v>228</v>
@@ -28810,7 +28811,7 @@
         <v>1000000</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -28927,22 +28928,22 @@
         <v>1000000</v>
       </c>
       <c r="CM213" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="CN213" s="1"/>
     </row>
     <row r="214" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B214" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C214" s="32">
         <v>228</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -29014,20 +29015,20 @@
       <c r="BO214" s="1"/>
       <c r="BP214" s="1"/>
       <c r="BQ214" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS214" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BT214" s="1">
         <f t="shared" si="76"/>
         <v>916.66666666666663</v>
       </c>
       <c r="BU214" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV214" s="1">
         <f t="shared" si="77"/>
@@ -29055,25 +29056,25 @@
       <c r="CJ214" s="1"/>
       <c r="CK214" s="1"/>
       <c r="CL214" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM214" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="CN214" s="1"/>
     </row>
     <row r="215" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B215" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C215" s="32">
         <v>228</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E215" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -29133,13 +29134,13 @@
       <c r="BI215" s="1"/>
       <c r="BJ215" s="1"/>
       <c r="BK215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BL215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BN215" s="1"/>
       <c r="BO215" s="1"/>
@@ -29154,20 +29155,20 @@
         <v>1200</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU215" s="1">
         <f>AVERAGE(BQ215,BR215,BS215)</f>
         <v>916.66666666666663</v>
       </c>
       <c r="BV215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX215" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY215" s="1"/>
       <c r="BZ215" s="1"/>
@@ -29183,25 +29184,25 @@
       <c r="CJ215" s="1"/>
       <c r="CK215" s="1"/>
       <c r="CL215" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM215" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="CN215" s="1"/>
     </row>
     <row r="216" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B216" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C216" s="32">
         <v>228</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
@@ -29315,25 +29316,25 @@
       <c r="CJ216" s="1"/>
       <c r="CK216" s="1"/>
       <c r="CL216" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM216" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN216" s="1"/>
     </row>
     <row r="217" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B217" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C217" s="32">
         <v>228</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -29447,25 +29448,25 @@
       <c r="CJ217" s="1"/>
       <c r="CK217" s="1"/>
       <c r="CL217" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM217" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CN217" s="1"/>
     </row>
     <row r="218" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B218" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C218" s="32">
         <v>228</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -29579,25 +29580,25 @@
       <c r="CJ218" s="1"/>
       <c r="CK218" s="1"/>
       <c r="CL218" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM218" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN218" s="1"/>
     </row>
     <row r="219" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B219" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C219" s="32">
         <v>228</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E219" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
@@ -29711,25 +29712,25 @@
       <c r="CJ219" s="1"/>
       <c r="CK219" s="1"/>
       <c r="CL219" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM219" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="CN219" s="1"/>
     </row>
     <row r="220" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B220" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C220" s="32">
         <v>228</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
@@ -29843,25 +29844,25 @@
       <c r="CJ220" s="1"/>
       <c r="CK220" s="1"/>
       <c r="CL220" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM220" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CN220" s="1"/>
     </row>
     <row r="221" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B221" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C221" s="32">
         <v>228</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E221" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -29975,16 +29976,16 @@
       <c r="CJ221" s="1"/>
       <c r="CK221" s="1"/>
       <c r="CL221" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM221" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="CN221" s="1"/>
     </row>
     <row r="222" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B222" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C222" s="32">
         <v>229</v>
@@ -30113,7 +30114,7 @@
     </row>
     <row r="223" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B223" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C223" s="32">
         <v>229</v>
@@ -30187,19 +30188,19 @@
         <v>-900</v>
       </c>
       <c r="BO223" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP223" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ223" s="9">
         <v>1500</v>
       </c>
       <c r="BR223" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS223" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BT223" s="1">
         <f t="shared" si="76"/>
@@ -30214,10 +30215,10 @@
         <v>900</v>
       </c>
       <c r="BW223" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX223" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY223" s="1"/>
       <c r="BZ223" s="1"/>
@@ -30240,7 +30241,7 @@
     </row>
     <row r="224" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B224" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C224" s="32">
         <v>229</v>
@@ -30314,7 +30315,7 @@
         <v>-3000</v>
       </c>
       <c r="BO224" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP224" s="45">
         <v>-1200</v>
@@ -30323,7 +30324,7 @@
         <v>2500</v>
       </c>
       <c r="BR224" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS224" s="9">
         <v>2500</v>
@@ -30341,7 +30342,7 @@
         <v>3000</v>
       </c>
       <c r="BW224" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX224" s="1">
         <f t="shared" ref="BX224" si="86">BP224*(-1)</f>
@@ -30368,16 +30369,16 @@
     </row>
     <row r="225" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B225" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C225" s="32">
         <v>229</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -30440,37 +30441,37 @@
       <c r="BL225" s="1"/>
       <c r="BM225" s="1"/>
       <c r="BN225" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BO225" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP225" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ225" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BR225" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS225" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV225" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW225" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX225" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY225" s="1"/>
       <c r="BZ225" s="1"/>
@@ -30486,16 +30487,16 @@
       <c r="CJ225" s="1"/>
       <c r="CK225" s="1"/>
       <c r="CL225" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM225" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN225" s="1"/>
     </row>
     <row r="226" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B226" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C226" s="32">
         <v>229</v>
@@ -30504,7 +30505,7 @@
         <v>999999</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -30621,13 +30622,13 @@
         <v>0</v>
       </c>
       <c r="CM226" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="CN226" s="1"/>
     </row>
     <row r="227" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B227" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C227" s="32">
         <v>229</v>
@@ -30636,7 +30637,7 @@
         <v>1000000</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -30753,22 +30754,22 @@
         <v>1000000</v>
       </c>
       <c r="CM227" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="CN227" s="1"/>
     </row>
     <row r="228" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B228" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C228" s="32">
         <v>229</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -30840,20 +30841,20 @@
         <v>-1200</v>
       </c>
       <c r="BQ228" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BR228" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BS228" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BT228" s="1">
         <f t="shared" si="76"/>
         <v>1166.6666666666667</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BV228" s="1">
         <f t="shared" ref="BV228" si="94">BN228*(-1)</f>
@@ -30881,25 +30882,25 @@
       <c r="CJ228" s="1"/>
       <c r="CK228" s="1"/>
       <c r="CL228" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM228" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="CN228" s="1"/>
     </row>
     <row r="229" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B229" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C229" s="32">
         <v>229</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -30962,13 +30963,13 @@
       <c r="BL229" s="1"/>
       <c r="BM229" s="1"/>
       <c r="BN229" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BO229" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP229" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ229" s="9">
         <v>750</v>
@@ -30980,20 +30981,20 @@
         <v>1200</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BU229" s="1">
         <f t="shared" ref="BU229:BU235" si="97">AVERAGE(BQ229,BR229,BS229)</f>
         <v>950</v>
       </c>
       <c r="BV229" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW229" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX229" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY229" s="1"/>
       <c r="BZ229" s="1"/>
@@ -31009,25 +31010,25 @@
       <c r="CJ229" s="1"/>
       <c r="CK229" s="1"/>
       <c r="CL229" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM229" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="CN229" s="1"/>
     </row>
     <row r="230" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B230" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C230" s="32">
         <v>229</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E230" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -31141,25 +31142,25 @@
       <c r="CJ230" s="1"/>
       <c r="CK230" s="1"/>
       <c r="CL230" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM230" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN230" s="1"/>
     </row>
     <row r="231" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B231" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C231" s="32">
         <v>229</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -31273,25 +31274,25 @@
       <c r="CJ231" s="1"/>
       <c r="CK231" s="1"/>
       <c r="CL231" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM231" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CN231" s="1"/>
     </row>
     <row r="232" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B232" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C232" s="32">
         <v>229</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -31405,25 +31406,25 @@
       <c r="CJ232" s="1"/>
       <c r="CK232" s="1"/>
       <c r="CL232" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM232" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN232" s="1"/>
     </row>
     <row r="233" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B233" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C233" s="32">
         <v>229</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -31537,25 +31538,25 @@
       <c r="CJ233" s="1"/>
       <c r="CK233" s="1"/>
       <c r="CL233" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM233" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="CN233" s="1"/>
     </row>
     <row r="234" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B234" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C234" s="32">
         <v>229</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -31669,25 +31670,25 @@
       <c r="CJ234" s="1"/>
       <c r="CK234" s="1"/>
       <c r="CL234" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM234" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="CN234" s="1"/>
     </row>
     <row r="235" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B235" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C235" s="32">
         <v>229</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -31801,16 +31802,16 @@
       <c r="CJ235" s="1"/>
       <c r="CK235" s="1"/>
       <c r="CL235" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM235" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="CN235" s="1"/>
     </row>
     <row r="236" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B236" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C236" s="32">
         <v>230</v>
@@ -31933,7 +31934,7 @@
     </row>
     <row r="237" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B237" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C237" s="32">
         <v>230</v>
@@ -31998,10 +31999,10 @@
         <v>1000</v>
       </c>
       <c r="BF237" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BG237" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BH237" s="1"/>
       <c r="BI237" s="1"/>
@@ -32010,10 +32011,10 @@
         <v>-800</v>
       </c>
       <c r="BL237" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM237" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BN237" s="1"/>
       <c r="BO237" s="1"/>
@@ -32028,10 +32029,10 @@
         <v>800</v>
       </c>
       <c r="BW237" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX237" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY237" s="1"/>
       <c r="BZ237" s="1"/>
@@ -32054,16 +32055,16 @@
     </row>
     <row r="238" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B238" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C238" s="32">
         <v>230</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E238" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -32117,25 +32118,25 @@
       <c r="BC238" s="1"/>
       <c r="BD238" s="1"/>
       <c r="BE238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BF238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BG238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BH238" s="1"/>
       <c r="BI238" s="1"/>
       <c r="BJ238" s="1"/>
       <c r="BK238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BL238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BN238" s="1"/>
       <c r="BO238" s="1"/>
@@ -32146,13 +32147,13 @@
       <c r="BT238" s="1"/>
       <c r="BU238" s="1"/>
       <c r="BV238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX238" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY238" s="1"/>
       <c r="BZ238" s="1"/>
@@ -32168,16 +32169,16 @@
       <c r="CJ238" s="1"/>
       <c r="CK238" s="1"/>
       <c r="CL238" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM238" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN238" s="1"/>
     </row>
     <row r="239" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B239" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C239" s="32">
         <v>230</v>
@@ -32300,16 +32301,16 @@
     </row>
     <row r="240" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B240" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C240" s="32">
         <v>230</v>
       </c>
       <c r="D240" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -32420,13 +32421,13 @@
         <v>-1300</v>
       </c>
       <c r="CM240" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN240" s="1"/>
     </row>
     <row r="241" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B241" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C241" s="32">
         <v>231</v>
@@ -32549,7 +32550,7 @@
     </row>
     <row r="242" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B242" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C242" s="32">
         <v>231</v>
@@ -32617,10 +32618,10 @@
         <v>1000</v>
       </c>
       <c r="BI242" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BJ242" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BK242" s="9"/>
       <c r="BL242" s="9"/>
@@ -32629,10 +32630,10 @@
         <v>-700</v>
       </c>
       <c r="BO242" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP242" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ242" s="1"/>
       <c r="BR242" s="1"/>
@@ -32644,10 +32645,10 @@
         <v>700</v>
       </c>
       <c r="BW242" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX242" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY242" s="1"/>
       <c r="BZ242" s="1"/>
@@ -32670,16 +32671,16 @@
     </row>
     <row r="243" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B243" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C243" s="32">
         <v>231</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -32736,25 +32737,25 @@
       <c r="BF243" s="1"/>
       <c r="BG243" s="1"/>
       <c r="BH243" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BI243" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BJ243" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BK243" s="9"/>
       <c r="BL243" s="9"/>
       <c r="BM243" s="9"/>
       <c r="BN243" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BO243" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BP243" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BQ243" s="1"/>
       <c r="BR243" s="1"/>
@@ -32762,13 +32763,13 @@
       <c r="BT243" s="1"/>
       <c r="BU243" s="1"/>
       <c r="BV243" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BW243" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BX243" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BY243" s="1"/>
       <c r="BZ243" s="1"/>
@@ -32784,16 +32785,16 @@
       <c r="CJ243" s="1"/>
       <c r="CK243" s="1"/>
       <c r="CL243" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="CM243" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="CN243" s="1"/>
     </row>
     <row r="244" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B244" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C244" s="32">
         <v>231</v>
@@ -32916,16 +32917,16 @@
     </row>
     <row r="245" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B245" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C245" s="32">
         <v>231</v>
       </c>
       <c r="D245" s="35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E245" s="29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -33036,7 +33037,7 @@
         <v>-400</v>
       </c>
       <c r="CM245" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="CN245" s="1"/>
     </row>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1388,7 +1388,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1707,72 +1707,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:FF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="BJ225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="B198" sqref="B198:B245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" style="3" customWidth="1"/>
-    <col min="16" max="18" width="23.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.88671875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.5546875" style="3" customWidth="1"/>
-    <col min="21" max="21" width="24.88671875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="22.109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.109375" style="3" customWidth="1"/>
-    <col min="25" max="38" width="25.109375" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.88671875" style="3" customWidth="1"/>
-    <col min="41" max="42" width="28.33203125" style="3" customWidth="1"/>
-    <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
-    <col min="44" max="44" width="28.33203125" style="3" customWidth="1"/>
-    <col min="45" max="62" width="25.109375" style="3" customWidth="1"/>
-    <col min="63" max="63" width="21.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="3" customWidth="1"/>
+    <col min="16" max="18" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" style="3" customWidth="1"/>
+    <col min="25" max="38" width="25.140625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.85546875" style="3" customWidth="1"/>
+    <col min="41" max="42" width="28.28515625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" style="3" customWidth="1"/>
+    <col min="44" max="44" width="28.28515625" style="3" customWidth="1"/>
+    <col min="45" max="62" width="25.140625" style="3" customWidth="1"/>
+    <col min="63" max="63" width="21.28515625" style="3" customWidth="1"/>
     <col min="64" max="64" width="21" style="3" customWidth="1"/>
-    <col min="65" max="65" width="21.33203125" style="3" customWidth="1"/>
+    <col min="65" max="65" width="21.28515625" style="3" customWidth="1"/>
     <col min="66" max="66" width="19" style="3" customWidth="1"/>
-    <col min="67" max="67" width="18.6640625" style="3" customWidth="1"/>
+    <col min="67" max="67" width="18.7109375" style="3" customWidth="1"/>
     <col min="68" max="69" width="19" style="3" customWidth="1"/>
-    <col min="70" max="70" width="17.88671875" style="3" customWidth="1"/>
+    <col min="70" max="70" width="17.85546875" style="3" customWidth="1"/>
     <col min="71" max="71" width="19" style="3" customWidth="1"/>
-    <col min="72" max="72" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="16.109375" style="3" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="13.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="18.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="80" max="83" width="13.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="84" max="88" width="14.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="15.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="8.88671875" style="3"/>
-    <col min="94" max="94" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="16.140625" style="3" customWidth="1"/>
+    <col min="77" max="77" width="16.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="18.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="80" max="83" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="84" max="88" width="14.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="15.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="8.85546875" style="3"/>
+    <col min="94" max="94" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="97" max="160" width="8.88671875" style="3"/>
-    <col min="161" max="161" width="15.33203125" style="3" customWidth="1"/>
-    <col min="162" max="16384" width="8.88671875" style="3"/>
+    <col min="97" max="160" width="8.85546875" style="3"/>
+    <col min="161" max="161" width="15.28515625" style="3" customWidth="1"/>
+    <col min="162" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:92" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:92" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>120</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
@@ -2358,7 +2358,7 @@
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>123</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>124</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>125</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>126</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>127</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>128</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>129</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>130</v>
       </c>
@@ -3286,7 +3286,7 @@
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>131</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
     </row>
-    <row r="17" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>132</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
     </row>
-    <row r="18" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>133</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
     </row>
-    <row r="19" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>134</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
     </row>
-    <row r="20" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>135</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
     </row>
-    <row r="21" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
     </row>
-    <row r="22" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>137</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
     </row>
-    <row r="23" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>138</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
     </row>
-    <row r="24" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
     </row>
-    <row r="25" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
     </row>
-    <row r="26" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>141</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
     </row>
-    <row r="27" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>142</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
     </row>
-    <row r="28" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>143</v>
       </c>
@@ -4626,7 +4626,7 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
     </row>
-    <row r="29" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>144</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
     </row>
-    <row r="30" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>145</v>
       </c>
@@ -4833,7 +4833,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
     </row>
-    <row r="31" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>146</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
     </row>
-    <row r="32" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>147</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
     </row>
-    <row r="33" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>148</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
     </row>
-    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>149</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
     </row>
-    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>150</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
     </row>
-    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>151</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
     </row>
-    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>152</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
     </row>
-    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>153</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
     </row>
-    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
     </row>
-    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
@@ -5924,7 +5924,7 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
     </row>
-    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>156</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
     </row>
-    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>157</v>
       </c>
@@ -6274,7 +6274,7 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
     </row>
-    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>158</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>159</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>160</v>
       </c>
@@ -6871,7 +6871,7 @@
       <c r="FE45" s="3"/>
       <c r="FF45" s="3"/>
     </row>
-    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>161</v>
       </c>
@@ -7116,7 +7116,7 @@
       <c r="FE46" s="3"/>
       <c r="FF46" s="3"/>
     </row>
-    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>162</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="FE47" s="3"/>
       <c r="FF47" s="3"/>
     </row>
-    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>163</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="FE48" s="3"/>
       <c r="FF48" s="3"/>
     </row>
-    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>164</v>
       </c>
@@ -7851,7 +7851,7 @@
       <c r="FE49" s="3"/>
       <c r="FF49" s="3"/>
     </row>
-    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>165</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="FE50" s="3"/>
       <c r="FF50" s="3"/>
     </row>
-    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="FE51" s="3"/>
       <c r="FF51" s="3"/>
     </row>
-    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
@@ -8500,7 +8500,7 @@
       <c r="FE52" s="3"/>
       <c r="FF52" s="3"/>
     </row>
-    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="FE53" s="3"/>
       <c r="FF53" s="3"/>
     </row>
-    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>169</v>
       </c>
@@ -8896,7 +8896,7 @@
       <c r="FE54" s="3"/>
       <c r="FF54" s="3"/>
     </row>
-    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>170</v>
       </c>
@@ -9100,7 +9100,7 @@
       <c r="FE55" s="3"/>
       <c r="FF55" s="3"/>
     </row>
-    <row r="56" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>171</v>
       </c>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="CN56" s="1"/>
     </row>
-    <row r="57" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:162" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>172</v>
       </c>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="CN57" s="1"/>
     </row>
-    <row r="58" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:162" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="CN58" s="1"/>
     </row>
-    <row r="59" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:162" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="CM59" s="35"/>
       <c r="CN59" s="1"/>
     </row>
-    <row r="60" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>175</v>
       </c>
@@ -9772,7 +9772,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
     </row>
-    <row r="61" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>176</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
     </row>
-    <row r="62" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>177</v>
       </c>
@@ -10044,7 +10044,7 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
     </row>
-    <row r="63" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>178</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
     </row>
-    <row r="64" spans="2:162" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>179</v>
       </c>
@@ -10306,7 +10306,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
     </row>
-    <row r="65" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>180</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
     </row>
-    <row r="66" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="CN66" s="1"/>
     </row>
-    <row r="67" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>182</v>
       </c>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="CN67" s="1"/>
     </row>
-    <row r="68" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>183</v>
       </c>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="CN68" s="1"/>
     </row>
-    <row r="69" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>184</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="CN69" s="1"/>
     </row>
-    <row r="70" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>185</v>
       </c>
@@ -11094,7 +11094,7 @@
       </c>
       <c r="CN70" s="1"/>
     </row>
-    <row r="71" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>186</v>
       </c>
@@ -11232,7 +11232,7 @@
       <c r="CM71" s="35"/>
       <c r="CN71" s="1"/>
     </row>
-    <row r="72" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>187</v>
       </c>
@@ -11368,7 +11368,7 @@
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
     </row>
-    <row r="73" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>188</v>
       </c>
@@ -11504,7 +11504,7 @@
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
     </row>
-    <row r="74" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>189</v>
       </c>
@@ -11640,7 +11640,7 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
     </row>
-    <row r="75" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>190</v>
       </c>
@@ -11771,7 +11771,7 @@
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
     </row>
-    <row r="76" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>191</v>
       </c>
@@ -11902,7 +11902,7 @@
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
     </row>
-    <row r="77" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>192</v>
       </c>
@@ -12029,7 +12029,7 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
     </row>
-    <row r="78" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>193</v>
       </c>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>194</v>
       </c>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="CN79" s="1"/>
     </row>
-    <row r="80" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>195</v>
       </c>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="CN80" s="1"/>
     </row>
-    <row r="81" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>196</v>
       </c>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="CN81" s="1"/>
     </row>
-    <row r="82" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>197</v>
       </c>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="CN82" s="1"/>
     </row>
-    <row r="83" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>198</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="CM83" s="35"/>
       <c r="CN83" s="1"/>
     </row>
-    <row r="84" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>199</v>
       </c>
@@ -12964,7 +12964,7 @@
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
     </row>
-    <row r="85" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>200</v>
       </c>
@@ -13100,7 +13100,7 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
     </row>
-    <row r="86" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>201</v>
       </c>
@@ -13236,7 +13236,7 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
     </row>
-    <row r="87" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>202</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
     </row>
-    <row r="88" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>203</v>
       </c>
@@ -13498,7 +13498,7 @@
       <c r="CM88" s="1"/>
       <c r="CN88" s="1"/>
     </row>
-    <row r="89" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>204</v>
       </c>
@@ -13625,7 +13625,7 @@
       <c r="CM89" s="1"/>
       <c r="CN89" s="1"/>
     </row>
-    <row r="90" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>205</v>
       </c>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="CN90" s="1"/>
     </row>
-    <row r="91" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>206</v>
       </c>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="CN91" s="1"/>
     </row>
-    <row r="92" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>207</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="CN92" s="1"/>
     </row>
-    <row r="93" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>208</v>
       </c>
@@ -14152,7 +14152,7 @@
       </c>
       <c r="CN93" s="1"/>
     </row>
-    <row r="94" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>209</v>
       </c>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="CN94" s="1"/>
     </row>
-    <row r="95" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>210</v>
       </c>
@@ -14424,7 +14424,7 @@
       <c r="CM95" s="35"/>
       <c r="CN95" s="1"/>
     </row>
-    <row r="96" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>211</v>
       </c>
@@ -14560,7 +14560,7 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
     </row>
-    <row r="97" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>212</v>
       </c>
@@ -14696,7 +14696,7 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
     </row>
-    <row r="98" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>213</v>
       </c>
@@ -14832,7 +14832,7 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
     </row>
-    <row r="99" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>214</v>
       </c>
@@ -14961,7 +14961,7 @@
       <c r="CM99" s="2"/>
       <c r="CN99" s="1"/>
     </row>
-    <row r="100" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>215</v>
       </c>
@@ -15090,7 +15090,7 @@
       <c r="CM100" s="2"/>
       <c r="CN100" s="1"/>
     </row>
-    <row r="101" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
@@ -15217,7 +15217,7 @@
       <c r="CM101" s="2"/>
       <c r="CN101" s="1"/>
     </row>
-    <row r="102" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>217</v>
       </c>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="CN102" s="1"/>
     </row>
-    <row r="103" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>218</v>
       </c>
@@ -15476,7 +15476,7 @@
       </c>
       <c r="CN103" s="1"/>
     </row>
-    <row r="104" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>219</v>
       </c>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="CN104" s="1"/>
     </row>
-    <row r="105" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
         <v>220</v>
       </c>
@@ -15735,7 +15735,7 @@
       </c>
       <c r="CN105" s="1"/>
     </row>
-    <row r="106" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
         <v>221</v>
       </c>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="CN106" s="1"/>
     </row>
-    <row r="107" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>222</v>
       </c>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="CN107" s="1"/>
     </row>
-    <row r="108" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
         <v>223</v>
       </c>
@@ -16127,7 +16127,7 @@
       </c>
       <c r="CN108" s="1"/>
     </row>
-    <row r="109" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
         <v>224</v>
       </c>
@@ -16256,7 +16256,7 @@
       <c r="CM109" s="2"/>
       <c r="CN109" s="1"/>
     </row>
-    <row r="110" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
         <v>225</v>
       </c>
@@ -16385,7 +16385,7 @@
       <c r="CM110" s="2"/>
       <c r="CN110" s="1"/>
     </row>
-    <row r="111" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>226</v>
       </c>
@@ -16512,7 +16512,7 @@
       <c r="CM111" s="2"/>
       <c r="CN111" s="1"/>
     </row>
-    <row r="112" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
         <v>227</v>
       </c>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="CN112" s="1"/>
     </row>
-    <row r="113" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
         <v>228</v>
       </c>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="CN113" s="1"/>
     </row>
-    <row r="114" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
         <v>229</v>
       </c>
@@ -16903,7 +16903,7 @@
       </c>
       <c r="CN114" s="1"/>
     </row>
-    <row r="115" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
         <v>230</v>
       </c>
@@ -17030,7 +17030,7 @@
       </c>
       <c r="CN115" s="1"/>
     </row>
-    <row r="116" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="CN116" s="1"/>
     </row>
-    <row r="117" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="CN117" s="1"/>
     </row>
-    <row r="118" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
         <v>233</v>
       </c>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="CN118" s="1"/>
     </row>
-    <row r="119" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
         <v>234</v>
       </c>
@@ -17542,7 +17542,7 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
     </row>
-    <row r="120" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
         <v>235</v>
       </c>
@@ -17662,7 +17662,7 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
     </row>
-    <row r="121" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
         <v>236</v>
       </c>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="CN121" s="1"/>
     </row>
-    <row r="122" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>237</v>
       </c>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="CN122" s="1"/>
     </row>
-    <row r="123" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>238</v>
       </c>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="CN123" s="1"/>
     </row>
-    <row r="124" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>239</v>
       </c>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="CN124" s="1"/>
     </row>
-    <row r="125" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="CN125" s="1"/>
     </row>
-    <row r="126" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
         <v>241</v>
       </c>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="CN126" s="1"/>
     </row>
-    <row r="127" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
         <v>242</v>
       </c>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="CN127" s="1"/>
     </row>
-    <row r="128" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>243</v>
       </c>
@@ -18642,7 +18642,7 @@
       </c>
       <c r="CN128" s="1"/>
     </row>
-    <row r="129" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="CN129" s="1"/>
     </row>
-    <row r="130" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
         <v>245</v>
       </c>
@@ -18888,7 +18888,7 @@
       </c>
       <c r="CN130" s="1"/>
     </row>
-    <row r="131" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
         <v>246</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="CN131" s="1"/>
     </row>
-    <row r="132" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
         <v>247</v>
       </c>
@@ -19131,7 +19131,7 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
     </row>
-    <row r="133" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
         <v>248</v>
       </c>
@@ -19251,7 +19251,7 @@
       <c r="CM133" s="1"/>
       <c r="CN133" s="1"/>
     </row>
-    <row r="134" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="CN134" s="1"/>
     </row>
-    <row r="135" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>250</v>
       </c>
@@ -19495,7 +19495,7 @@
       </c>
       <c r="CN135" s="1"/>
     </row>
-    <row r="136" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
         <v>251</v>
       </c>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="CN136" s="1"/>
     </row>
-    <row r="137" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>252</v>
       </c>
@@ -19740,7 +19740,7 @@
       </c>
       <c r="CN137" s="1"/>
     </row>
-    <row r="138" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>253</v>
       </c>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="CN138" s="1"/>
     </row>
-    <row r="139" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>254</v>
       </c>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="CN139" s="1"/>
     </row>
-    <row r="140" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>255</v>
       </c>
@@ -20108,7 +20108,7 @@
       </c>
       <c r="CN140" s="1"/>
     </row>
-    <row r="141" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="CN141" s="1"/>
     </row>
-    <row r="142" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>257</v>
       </c>
@@ -20354,7 +20354,7 @@
       </c>
       <c r="CN142" s="1"/>
     </row>
-    <row r="143" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>258</v>
       </c>
@@ -20477,7 +20477,7 @@
       </c>
       <c r="CN143" s="1"/>
     </row>
-    <row r="144" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>259</v>
       </c>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="CN144" s="1"/>
     </row>
-    <row r="145" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
         <v>260</v>
       </c>
@@ -20720,7 +20720,7 @@
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
     </row>
-    <row r="146" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>261</v>
       </c>
@@ -20840,7 +20840,7 @@
       <c r="CM146" s="1"/>
       <c r="CN146" s="1"/>
     </row>
-    <row r="147" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
         <v>262</v>
       </c>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="CN147" s="1"/>
     </row>
-    <row r="148" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>263</v>
       </c>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="CN148" s="1"/>
     </row>
-    <row r="149" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
         <v>264</v>
       </c>
@@ -21207,7 +21207,7 @@
       </c>
       <c r="CN149" s="1"/>
     </row>
-    <row r="150" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>265</v>
       </c>
@@ -21329,7 +21329,7 @@
       </c>
       <c r="CN150" s="1"/>
     </row>
-    <row r="151" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>266</v>
       </c>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="CN151" s="1"/>
     </row>
-    <row r="152" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
         <v>267</v>
       </c>
@@ -21574,7 +21574,7 @@
       </c>
       <c r="CN152" s="1"/>
     </row>
-    <row r="153" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
         <v>268</v>
       </c>
@@ -21697,7 +21697,7 @@
       </c>
       <c r="CN153" s="1"/>
     </row>
-    <row r="154" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
         <v>269</v>
       </c>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="CN154" s="1"/>
     </row>
-    <row r="155" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
         <v>270</v>
       </c>
@@ -21943,7 +21943,7 @@
       </c>
       <c r="CN155" s="1"/>
     </row>
-    <row r="156" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
         <v>271</v>
       </c>
@@ -22066,7 +22066,7 @@
       </c>
       <c r="CN156" s="1"/>
     </row>
-    <row r="157" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
         <v>272</v>
       </c>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="CN157" s="1"/>
     </row>
-    <row r="158" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
         <v>273</v>
       </c>
@@ -22309,7 +22309,7 @@
       <c r="CM158" s="1"/>
       <c r="CN158" s="1"/>
     </row>
-    <row r="159" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>274</v>
       </c>
@@ -22429,7 +22429,7 @@
       <c r="CM159" s="1"/>
       <c r="CN159" s="1"/>
     </row>
-    <row r="160" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>275</v>
       </c>
@@ -22549,7 +22549,7 @@
       <c r="CM160" s="1"/>
       <c r="CN160" s="1"/>
     </row>
-    <row r="161" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
         <v>276</v>
       </c>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="CN161" s="1"/>
     </row>
-    <row r="162" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
         <v>277</v>
       </c>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="CN162" s="1"/>
     </row>
-    <row r="163" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
         <v>278</v>
       </c>
@@ -22916,7 +22916,7 @@
       </c>
       <c r="CN163" s="1"/>
     </row>
-    <row r="164" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>279</v>
       </c>
@@ -23038,7 +23038,7 @@
       </c>
       <c r="CN164" s="1"/>
     </row>
-    <row r="165" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
         <v>280</v>
       </c>
@@ -23160,7 +23160,7 @@
       </c>
       <c r="CN165" s="1"/>
     </row>
-    <row r="166" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
         <v>281</v>
       </c>
@@ -23283,7 +23283,7 @@
       </c>
       <c r="CN166" s="1"/>
     </row>
-    <row r="167" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
         <v>282</v>
       </c>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="CN167" s="1"/>
     </row>
-    <row r="168" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
         <v>283</v>
       </c>
@@ -23529,7 +23529,7 @@
       </c>
       <c r="CN168" s="1"/>
     </row>
-    <row r="169" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
         <v>284</v>
       </c>
@@ -23652,7 +23652,7 @@
       </c>
       <c r="CN169" s="1"/>
     </row>
-    <row r="170" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
         <v>285</v>
       </c>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="CN170" s="1"/>
     </row>
-    <row r="171" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="s">
         <v>286</v>
       </c>
@@ -23896,7 +23896,7 @@
       <c r="CM171" s="35"/>
       <c r="CN171" s="1"/>
     </row>
-    <row r="172" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>287</v>
       </c>
@@ -24016,7 +24016,7 @@
       <c r="CM172" s="1"/>
       <c r="CN172" s="1"/>
     </row>
-    <row r="173" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="s">
         <v>288</v>
       </c>
@@ -24136,7 +24136,7 @@
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
     </row>
-    <row r="174" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
         <v>289</v>
       </c>
@@ -24257,7 +24257,7 @@
       </c>
       <c r="CN174" s="1"/>
     </row>
-    <row r="175" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
         <v>290</v>
       </c>
@@ -24378,7 +24378,7 @@
       </c>
       <c r="CN175" s="1"/>
     </row>
-    <row r="176" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
         <v>291</v>
       </c>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="CN176" s="1"/>
     </row>
-    <row r="177" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B177" s="6" t="s">
         <v>292</v>
       </c>
@@ -24622,7 +24622,7 @@
       </c>
       <c r="CN177" s="1"/>
     </row>
-    <row r="178" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B178" s="6" t="s">
         <v>293</v>
       </c>
@@ -24745,7 +24745,7 @@
       </c>
       <c r="CN178" s="1"/>
     </row>
-    <row r="179" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
         <v>294</v>
       </c>
@@ -24865,7 +24865,7 @@
       <c r="CM179" s="1"/>
       <c r="CN179" s="1"/>
     </row>
-    <row r="180" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
         <v>295</v>
       </c>
@@ -24985,7 +24985,7 @@
       <c r="CM180" s="1"/>
       <c r="CN180" s="1"/>
     </row>
-    <row r="181" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B181" s="6" t="s">
         <v>296</v>
       </c>
@@ -25106,7 +25106,7 @@
       </c>
       <c r="CN181" s="1"/>
     </row>
-    <row r="182" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B182" s="6" t="s">
         <v>297</v>
       </c>
@@ -25227,7 +25227,7 @@
       </c>
       <c r="CN182" s="1"/>
     </row>
-    <row r="183" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B183" s="6" t="s">
         <v>298</v>
       </c>
@@ -25349,7 +25349,7 @@
       </c>
       <c r="CN183" s="1"/>
     </row>
-    <row r="184" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
         <v>299</v>
       </c>
@@ -25471,7 +25471,7 @@
       </c>
       <c r="CN184" s="1"/>
     </row>
-    <row r="185" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
         <v>300</v>
       </c>
@@ -25594,7 +25594,7 @@
       </c>
       <c r="CN185" s="1"/>
     </row>
-    <row r="186" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
         <v>301</v>
       </c>
@@ -25714,7 +25714,7 @@
       <c r="CM186" s="1"/>
       <c r="CN186" s="1"/>
     </row>
-    <row r="187" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B187" s="6" t="s">
         <v>302</v>
       </c>
@@ -25834,7 +25834,7 @@
       <c r="CM187" s="1"/>
       <c r="CN187" s="1"/>
     </row>
-    <row r="188" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
         <v>303</v>
       </c>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="CN188" s="1"/>
     </row>
-    <row r="189" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B189" s="6" t="s">
         <v>304</v>
       </c>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="CN189" s="1"/>
     </row>
-    <row r="190" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B190" s="6" t="s">
         <v>305</v>
       </c>
@@ -26198,7 +26198,7 @@
       </c>
       <c r="CN190" s="1"/>
     </row>
-    <row r="191" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B191" s="6" t="s">
         <v>306</v>
       </c>
@@ -26320,7 +26320,7 @@
       </c>
       <c r="CN191" s="1"/>
     </row>
-    <row r="192" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
         <v>307</v>
       </c>
@@ -26443,7 +26443,7 @@
       </c>
       <c r="CN192" s="1"/>
     </row>
-    <row r="193" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B193" s="6" t="s">
         <v>308</v>
       </c>
@@ -26551,7 +26551,7 @@
       <c r="CM193" s="1"/>
       <c r="CN193" s="1"/>
     </row>
-    <row r="194" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B194" s="6" t="s">
         <v>309</v>
       </c>
@@ -26659,7 +26659,7 @@
       <c r="CM194" s="1"/>
       <c r="CN194" s="1"/>
     </row>
-    <row r="195" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B195" s="6" t="s">
         <v>310</v>
       </c>
@@ -26767,7 +26767,7 @@
       <c r="CM195" s="1"/>
       <c r="CN195" s="1"/>
     </row>
-    <row r="196" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
         <v>311</v>
       </c>
@@ -26878,7 +26878,7 @@
       </c>
       <c r="CN196" s="1"/>
     </row>
-    <row r="197" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
         <v>312</v>
       </c>
@@ -26989,7 +26989,7 @@
       </c>
       <c r="CN197" s="1"/>
     </row>
-    <row r="198" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B198" s="6" t="s">
         <v>313</v>
       </c>
@@ -27106,7 +27106,7 @@
       <c r="CM198" s="1"/>
       <c r="CN198" s="1"/>
     </row>
-    <row r="199" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
         <v>314</v>
       </c>
@@ -27221,7 +27221,7 @@
       <c r="CM199" s="1"/>
       <c r="CN199" s="1"/>
     </row>
-    <row r="200" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
         <v>315</v>
       </c>
@@ -27337,7 +27337,7 @@
       <c r="CM200" s="1"/>
       <c r="CN200" s="1"/>
     </row>
-    <row r="201" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B201" s="6" t="s">
         <v>316</v>
       </c>
@@ -27454,7 +27454,7 @@
       </c>
       <c r="CN201" s="1"/>
     </row>
-    <row r="202" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
         <v>317</v>
       </c>
@@ -27572,7 +27572,7 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
     </row>
-    <row r="203" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B203" s="6" t="s">
         <v>318</v>
       </c>
@@ -27689,7 +27689,7 @@
       <c r="CM203" s="1"/>
       <c r="CN203" s="1"/>
     </row>
-    <row r="204" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
         <v>319</v>
       </c>
@@ -27804,7 +27804,7 @@
       <c r="CM204" s="1"/>
       <c r="CN204" s="1"/>
     </row>
-    <row r="205" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B205" s="6" t="s">
         <v>320</v>
       </c>
@@ -27920,7 +27920,7 @@
       <c r="CM205" s="1"/>
       <c r="CN205" s="1"/>
     </row>
-    <row r="206" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
         <v>321</v>
       </c>
@@ -28037,7 +28037,7 @@
       </c>
       <c r="CN206" s="1"/>
     </row>
-    <row r="207" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B207" s="6" t="s">
         <v>322</v>
       </c>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="CN207" s="1"/>
     </row>
-    <row r="208" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
         <v>323</v>
       </c>
@@ -28286,7 +28286,7 @@
       <c r="CM208" s="1"/>
       <c r="CN208" s="1"/>
     </row>
-    <row r="209" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
         <v>324</v>
       </c>
@@ -28413,7 +28413,7 @@
       <c r="CM209" s="1"/>
       <c r="CN209" s="1"/>
     </row>
-    <row r="210" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
         <v>325</v>
       </c>
@@ -28541,7 +28541,7 @@
       <c r="CM210" s="1"/>
       <c r="CN210" s="1"/>
     </row>
-    <row r="211" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
         <v>326</v>
       </c>
@@ -28668,7 +28668,7 @@
       </c>
       <c r="CN211" s="1"/>
     </row>
-    <row r="212" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
         <v>327</v>
       </c>
@@ -28800,7 +28800,7 @@
       </c>
       <c r="CN212" s="1"/>
     </row>
-    <row r="213" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
         <v>328</v>
       </c>
@@ -28932,7 +28932,7 @@
       </c>
       <c r="CN213" s="1"/>
     </row>
-    <row r="214" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
         <v>329</v>
       </c>
@@ -29063,7 +29063,7 @@
       </c>
       <c r="CN214" s="1"/>
     </row>
-    <row r="215" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B215" s="6" t="s">
         <v>330</v>
       </c>
@@ -29191,7 +29191,7 @@
       </c>
       <c r="CN215" s="1"/>
     </row>
-    <row r="216" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
         <v>331</v>
       </c>
@@ -29323,7 +29323,7 @@
       </c>
       <c r="CN216" s="1"/>
     </row>
-    <row r="217" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
         <v>332</v>
       </c>
@@ -29455,7 +29455,7 @@
       </c>
       <c r="CN217" s="1"/>
     </row>
-    <row r="218" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
         <v>333</v>
       </c>
@@ -29587,7 +29587,7 @@
       </c>
       <c r="CN218" s="1"/>
     </row>
-    <row r="219" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
         <v>334</v>
       </c>
@@ -29719,7 +29719,7 @@
       </c>
       <c r="CN219" s="1"/>
     </row>
-    <row r="220" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
         <v>335</v>
       </c>
@@ -29851,7 +29851,7 @@
       </c>
       <c r="CN220" s="1"/>
     </row>
-    <row r="221" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
         <v>336</v>
       </c>
@@ -29983,7 +29983,7 @@
       </c>
       <c r="CN221" s="1"/>
     </row>
-    <row r="222" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
         <v>337</v>
       </c>
@@ -30112,7 +30112,7 @@
       <c r="CM222" s="1"/>
       <c r="CN222" s="1"/>
     </row>
-    <row r="223" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
         <v>338</v>
       </c>
@@ -30239,7 +30239,7 @@
       <c r="CM223" s="1"/>
       <c r="CN223" s="1"/>
     </row>
-    <row r="224" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
         <v>339</v>
       </c>
@@ -30367,7 +30367,7 @@
       <c r="CM224" s="1"/>
       <c r="CN224" s="1"/>
     </row>
-    <row r="225" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
         <v>340</v>
       </c>
@@ -30494,7 +30494,7 @@
       </c>
       <c r="CN225" s="1"/>
     </row>
-    <row r="226" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
         <v>341</v>
       </c>
@@ -30626,7 +30626,7 @@
       </c>
       <c r="CN226" s="1"/>
     </row>
-    <row r="227" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
         <v>342</v>
       </c>
@@ -30758,7 +30758,7 @@
       </c>
       <c r="CN227" s="1"/>
     </row>
-    <row r="228" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
         <v>343</v>
       </c>
@@ -30889,7 +30889,7 @@
       </c>
       <c r="CN228" s="1"/>
     </row>
-    <row r="229" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
         <v>344</v>
       </c>
@@ -31017,7 +31017,7 @@
       </c>
       <c r="CN229" s="1"/>
     </row>
-    <row r="230" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>345</v>
       </c>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="CN230" s="1"/>
     </row>
-    <row r="231" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B231" s="6" t="s">
         <v>346</v>
       </c>
@@ -31281,7 +31281,7 @@
       </c>
       <c r="CN231" s="1"/>
     </row>
-    <row r="232" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
         <v>347</v>
       </c>
@@ -31413,7 +31413,7 @@
       </c>
       <c r="CN232" s="1"/>
     </row>
-    <row r="233" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B233" s="6" t="s">
         <v>348</v>
       </c>
@@ -31545,7 +31545,7 @@
       </c>
       <c r="CN233" s="1"/>
     </row>
-    <row r="234" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B234" s="6" t="s">
         <v>349</v>
       </c>
@@ -31677,7 +31677,7 @@
       </c>
       <c r="CN234" s="1"/>
     </row>
-    <row r="235" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B235" s="6" t="s">
         <v>350</v>
       </c>
@@ -31809,7 +31809,7 @@
       </c>
       <c r="CN235" s="1"/>
     </row>
-    <row r="236" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
         <v>351</v>
       </c>
@@ -31932,7 +31932,7 @@
       <c r="CM236" s="1"/>
       <c r="CN236" s="1"/>
     </row>
-    <row r="237" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B237" s="6" t="s">
         <v>352</v>
       </c>
@@ -32053,7 +32053,7 @@
       <c r="CM237" s="1"/>
       <c r="CN237" s="1"/>
     </row>
-    <row r="238" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B238" s="6" t="s">
         <v>353</v>
       </c>
@@ -32176,7 +32176,7 @@
       </c>
       <c r="CN238" s="1"/>
     </row>
-    <row r="239" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B239" s="6" t="s">
         <v>354</v>
       </c>
@@ -32299,7 +32299,7 @@
       <c r="CM239" s="1"/>
       <c r="CN239" s="1"/>
     </row>
-    <row r="240" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
         <v>355</v>
       </c>
@@ -32425,7 +32425,7 @@
       </c>
       <c r="CN240" s="1"/>
     </row>
-    <row r="241" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
         <v>356</v>
       </c>
@@ -32548,7 +32548,7 @@
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
     </row>
-    <row r="242" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
         <v>357</v>
       </c>
@@ -32669,7 +32669,7 @@
       <c r="CM242" s="1"/>
       <c r="CN242" s="1"/>
     </row>
-    <row r="243" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B243" s="6" t="s">
         <v>358</v>
       </c>
@@ -32792,7 +32792,7 @@
       </c>
       <c r="CN243" s="1"/>
     </row>
-    <row r="244" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
         <v>359</v>
       </c>
@@ -32915,7 +32915,7 @@
       <c r="CM244" s="1"/>
       <c r="CN244" s="1"/>
     </row>
-    <row r="245" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:92" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
         <v>360</v>
       </c>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="368">
   <si>
     <t>SNDG</t>
   </si>
@@ -1120,6 +1120,9 @@
   </si>
   <si>
     <t>IMP_SALDO_CC_LT_0_M0</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1189,6 +1192,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,9 +1353,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1385,6 +1403,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,20 +1749,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:FF245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BJ225" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="BJ190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B198" sqref="B198:B245"/>
+      <selection pane="bottomRight" activeCell="BQ198" sqref="BQ198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="27.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
@@ -1761,7 +1802,7 @@
     <col min="80" max="83" width="13.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="84" max="88" width="14.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="89" max="89" width="15.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20" style="3" customWidth="1"/>
     <col min="91" max="91" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="92" max="93" width="8.85546875" style="3"/>
     <col min="94" max="94" width="18.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1816,13 +1857,13 @@
       <c r="O3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="45" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="45" t="s">
         <v>365</v>
       </c>
       <c r="S3" s="5" t="s">
@@ -2161,7 +2202,7 @@
         <f>IF(OR(F5&lt;0, F5 = "-"),"missing",F5)</f>
         <v>missing</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2265,7 +2306,7 @@
         <f>IF(OR(F6&lt;0, F6 = "-"),"missing",F6)</f>
         <v>missing</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="9">
@@ -2471,7 +2512,7 @@
         <f>IF(OR(G8&lt;0, G8 = "-"),"missing",G8)</f>
         <v>missing</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="9"/>
@@ -2575,7 +2616,7 @@
         <f>IF(OR(G9&lt;0, G9 = "-"),"missing",G9)</f>
         <v>missing</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="9"/>
@@ -2884,7 +2925,7 @@
       <c r="D12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="9"/>
@@ -3193,7 +3234,7 @@
       <c r="D15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="9"/>
@@ -3502,7 +3543,7 @@
       <c r="D18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F18" s="9"/>
@@ -3812,7 +3853,7 @@
         <f>IF(OR(K21&lt;0, K21 = "-"),"missing",K21)</f>
         <v>missing</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="9"/>
@@ -4122,7 +4163,7 @@
         <f>IF(OR(L24&lt;0, L24 = "-"),"missing",L24)</f>
         <v>missing</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="9"/>
@@ -4431,7 +4472,7 @@
       <c r="D27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F27" s="9"/>
@@ -4740,7 +4781,7 @@
       <c r="D30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="29" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="9"/>
@@ -4840,11 +4881,11 @@
       <c r="C31" s="1">
         <v>209</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <f>BT31/BU31</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -4948,11 +4989,11 @@
       <c r="C32" s="1">
         <v>209</v>
       </c>
-      <c r="D32" s="30" t="str">
+      <c r="D32" s="29" t="str">
         <f>IF(AND(OR(N32&lt;0, N32 = "-"),OR(O32&lt;0, O32 = "-")),"missing",N32/O32)</f>
         <v>missing</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="9"/>
@@ -5058,10 +5099,10 @@
       <c r="C33" s="1">
         <v>209</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>115</v>
       </c>
       <c r="F33" s="9"/>
@@ -5167,11 +5208,11 @@
       <c r="C34" s="1">
         <v>209</v>
       </c>
-      <c r="D34" s="30" t="str">
+      <c r="D34" s="29" t="str">
         <f>IF(OR(OR(N33&lt;0, N33 = "-"),OR(O33&lt;0, O33 = "-")),"missing",N33/O33)</f>
         <v>missing</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="29" t="s">
         <v>116</v>
       </c>
       <c r="F34" s="9"/>
@@ -5277,10 +5318,10 @@
       <c r="C35" s="1">
         <v>209</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F35" s="9"/>
@@ -5386,10 +5427,10 @@
       <c r="C36" s="1">
         <v>209</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="E36" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F36" s="9"/>
@@ -5495,10 +5536,10 @@
       <c r="C37" s="1">
         <v>209</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>117</v>
       </c>
       <c r="F37" s="9"/>
@@ -5604,10 +5645,10 @@
       <c r="C38" s="1">
         <v>209</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>118</v>
       </c>
       <c r="F38" s="9"/>
@@ -5713,10 +5754,10 @@
       <c r="C39" s="1">
         <v>209</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>118</v>
       </c>
       <c r="F39" s="9"/>
@@ -5822,10 +5863,10 @@
       <c r="C40" s="1">
         <v>209</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>117</v>
       </c>
       <c r="F40" s="9"/>
@@ -5925,7 +5966,7 @@
       <c r="CN40" s="1"/>
     </row>
     <row r="41" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="46" t="s">
         <v>156</v>
       </c>
       <c r="C41" s="1">
@@ -6100,7 +6141,7 @@
       <c r="CN41" s="1"/>
     </row>
     <row r="42" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="46" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="1">
@@ -6275,7 +6316,7 @@
       <c r="CN42" s="1"/>
     </row>
     <row r="43" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="46" t="s">
         <v>158</v>
       </c>
       <c r="C43" s="1">
@@ -6450,7 +6491,7 @@
       <c r="CN43" s="1"/>
     </row>
     <row r="44" spans="2:162" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="46" t="s">
         <v>159</v>
       </c>
       <c r="C44" s="1">
@@ -6625,7 +6666,7 @@
       <c r="CN44" s="1"/>
     </row>
     <row r="45" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="46" t="s">
         <v>160</v>
       </c>
       <c r="C45" s="2">
@@ -6872,7 +6913,7 @@
       <c r="FF45" s="3"/>
     </row>
     <row r="46" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="46" t="s">
         <v>161</v>
       </c>
       <c r="C46" s="2">
@@ -7117,7 +7158,7 @@
       <c r="FF46" s="3"/>
     </row>
     <row r="47" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="46" t="s">
         <v>162</v>
       </c>
       <c r="C47" s="2">
@@ -7362,7 +7403,7 @@
       <c r="FF47" s="3"/>
     </row>
     <row r="48" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="46" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="2">
@@ -7607,7 +7648,7 @@
       <c r="FF48" s="3"/>
     </row>
     <row r="49" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="46" t="s">
         <v>164</v>
       </c>
       <c r="C49" s="2">
@@ -7852,7 +7893,7 @@
       <c r="FF49" s="3"/>
     </row>
     <row r="50" spans="2:162" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="46" t="s">
         <v>165</v>
       </c>
       <c r="C50" s="2">
@@ -8102,7 +8143,7 @@
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="32">
+      <c r="C51" s="31">
         <v>212</v>
       </c>
       <c r="D51" s="10">
@@ -8303,7 +8344,7 @@
       <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="31">
         <v>212</v>
       </c>
       <c r="D52" s="10">
@@ -8504,7 +8545,7 @@
       <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="31">
         <v>212</v>
       </c>
       <c r="D53" s="10">
@@ -8701,7 +8742,7 @@
       <c r="B54" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="31">
         <v>212</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -8900,7 +8941,7 @@
       <c r="B55" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="31">
         <v>212</v>
       </c>
       <c r="D55" s="10">
@@ -9022,7 +9063,7 @@
       <c r="CI55" s="2"/>
       <c r="CJ55" s="2"/>
       <c r="CK55" s="2"/>
-      <c r="CL55" s="34">
+      <c r="CL55" s="33">
         <v>-1000000</v>
       </c>
       <c r="CM55" s="2" t="s">
@@ -9104,7 +9145,7 @@
       <c r="B56" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="31">
         <v>212</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -9234,7 +9275,7 @@
       <c r="B57" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="31">
         <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -9368,7 +9409,7 @@
       <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="31">
         <v>212</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -9502,14 +9543,14 @@
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="31">
         <v>212</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="34">
         <f>BV59</f>
         <v>999999</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="35" t="s">
         <v>94</v>
       </c>
       <c r="F59" s="1"/>
@@ -9594,15 +9635,15 @@
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
       <c r="BS59" s="1"/>
-      <c r="BT59" s="35">
+      <c r="BT59" s="34">
         <f>AVERAGE(BW59,BX59,BY59)</f>
         <v>0</v>
       </c>
-      <c r="BU59" s="35">
+      <c r="BU59" s="34">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="BV59" s="35">
+      <c r="BV59" s="34">
         <f>IF(AND(AF59 &lt;&gt; "AC", AE59=0),999999,"-")</f>
         <v>999999</v>
       </c>
@@ -9630,17 +9671,17 @@
       <c r="CI59" s="1"/>
       <c r="CJ59" s="1"/>
       <c r="CK59" s="1"/>
-      <c r="CL59" s="35">
+      <c r="CL59" s="34">
         <v>0</v>
       </c>
-      <c r="CM59" s="35"/>
+      <c r="CM59" s="34"/>
       <c r="CN59" s="1"/>
     </row>
     <row r="60" spans="2:162" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="31">
         <v>212</v>
       </c>
       <c r="D60" s="10">
@@ -9776,7 +9817,7 @@
       <c r="B61" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="31">
         <v>212</v>
       </c>
       <c r="D61" s="10">
@@ -9912,7 +9953,7 @@
       <c r="B62" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>212</v>
       </c>
       <c r="D62" s="10">
@@ -10048,7 +10089,7 @@
       <c r="B63" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="31">
         <v>213</v>
       </c>
       <c r="D63" s="1">
@@ -10179,7 +10220,7 @@
       <c r="B64" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="31">
         <v>213</v>
       </c>
       <c r="D64" s="1">
@@ -10310,7 +10351,7 @@
       <c r="B65" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="31">
         <v>213</v>
       </c>
       <c r="D65" s="1">
@@ -10437,7 +10478,7 @@
       <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="31">
         <v>213</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -10566,7 +10607,7 @@
       <c r="B67" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="31">
         <v>213</v>
       </c>
       <c r="D67" s="10">
@@ -10688,7 +10729,7 @@
       <c r="CI67" s="1"/>
       <c r="CJ67" s="1"/>
       <c r="CK67" s="1"/>
-      <c r="CL67" s="37">
+      <c r="CL67" s="36">
         <v>-1000000</v>
       </c>
       <c r="CM67" s="1" t="s">
@@ -10700,7 +10741,7 @@
       <c r="B68" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="32">
+      <c r="C68" s="31">
         <v>213</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -10830,7 +10871,7 @@
       <c r="B69" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="31">
         <v>213</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -10964,7 +11005,7 @@
       <c r="B70" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="32">
+      <c r="C70" s="31">
         <v>213</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -11098,14 +11139,14 @@
       <c r="B71" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C71" s="32">
+      <c r="C71" s="31">
         <v>213</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="34">
         <f>BV71</f>
         <v>999999</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="35" t="s">
         <v>94</v>
       </c>
       <c r="F71" s="1"/>
@@ -11226,17 +11267,17 @@
       <c r="CI71" s="1"/>
       <c r="CJ71" s="1"/>
       <c r="CK71" s="1"/>
-      <c r="CL71" s="35">
+      <c r="CL71" s="34">
         <v>0</v>
       </c>
-      <c r="CM71" s="35"/>
+      <c r="CM71" s="34"/>
       <c r="CN71" s="1"/>
     </row>
     <row r="72" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="31">
         <v>213</v>
       </c>
       <c r="D72" s="1">
@@ -11372,7 +11413,7 @@
       <c r="B73" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="31">
         <v>213</v>
       </c>
       <c r="D73" s="1">
@@ -11508,7 +11549,7 @@
       <c r="B74" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="31">
         <v>213</v>
       </c>
       <c r="D74" s="1">
@@ -11644,7 +11685,7 @@
       <c r="B75" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="32">
+      <c r="C75" s="31">
         <v>214</v>
       </c>
       <c r="D75" s="1">
@@ -11775,7 +11816,7 @@
       <c r="B76" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C76" s="31">
         <v>214</v>
       </c>
       <c r="D76" s="1">
@@ -11906,7 +11947,7 @@
       <c r="B77" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="31">
         <v>214</v>
       </c>
       <c r="D77" s="1">
@@ -12033,7 +12074,7 @@
       <c r="B78" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="31">
         <v>214</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -12162,7 +12203,7 @@
       <c r="B79" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="31">
         <v>214</v>
       </c>
       <c r="D79" s="10">
@@ -12284,7 +12325,7 @@
       <c r="CI79" s="1"/>
       <c r="CJ79" s="1"/>
       <c r="CK79" s="1"/>
-      <c r="CL79" s="37">
+      <c r="CL79" s="36">
         <v>-1000000</v>
       </c>
       <c r="CM79" s="1" t="s">
@@ -12296,7 +12337,7 @@
       <c r="B80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="31">
         <v>214</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -12426,7 +12467,7 @@
       <c r="B81" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="31">
         <v>214</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -12560,7 +12601,7 @@
       <c r="B82" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C82" s="31">
         <v>214</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -12694,14 +12735,14 @@
       <c r="B83" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="31">
         <v>214</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="34">
         <f>BV83</f>
         <v>999999</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="35" t="s">
         <v>94</v>
       </c>
       <c r="F83" s="1"/>
@@ -12822,17 +12863,17 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="35">
+      <c r="CL83" s="34">
         <v>0</v>
       </c>
-      <c r="CM83" s="35"/>
+      <c r="CM83" s="34"/>
       <c r="CN83" s="1"/>
     </row>
     <row r="84" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C84" s="31">
         <v>214</v>
       </c>
       <c r="D84" s="1">
@@ -12968,7 +13009,7 @@
       <c r="B85" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="32">
+      <c r="C85" s="31">
         <v>214</v>
       </c>
       <c r="D85" s="1">
@@ -13104,7 +13145,7 @@
       <c r="B86" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="32">
+      <c r="C86" s="31">
         <v>214</v>
       </c>
       <c r="D86" s="1">
@@ -13240,7 +13281,7 @@
       <c r="B87" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="32">
+      <c r="C87" s="31">
         <v>215</v>
       </c>
       <c r="D87" s="1">
@@ -13371,7 +13412,7 @@
       <c r="B88" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="31">
         <v>215</v>
       </c>
       <c r="D88" s="1">
@@ -13502,7 +13543,7 @@
       <c r="B89" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C89" s="31">
         <v>215</v>
       </c>
       <c r="D89" s="1">
@@ -13629,7 +13670,7 @@
       <c r="B90" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="31">
         <v>215</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -13758,7 +13799,7 @@
       <c r="B91" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="32">
+      <c r="C91" s="31">
         <v>215</v>
       </c>
       <c r="D91" s="10">
@@ -13880,7 +13921,7 @@
       <c r="CI91" s="1"/>
       <c r="CJ91" s="1"/>
       <c r="CK91" s="1"/>
-      <c r="CL91" s="37">
+      <c r="CL91" s="36">
         <v>-1000000</v>
       </c>
       <c r="CM91" s="1" t="s">
@@ -13892,7 +13933,7 @@
       <c r="B92" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="32">
+      <c r="C92" s="31">
         <v>215</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -14022,7 +14063,7 @@
       <c r="B93" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C93" s="31">
         <v>215</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -14156,7 +14197,7 @@
       <c r="B94" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="31">
         <v>215</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -14290,14 +14331,14 @@
       <c r="B95" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="32">
+      <c r="C95" s="31">
         <v>215</v>
       </c>
-      <c r="D95" s="35">
+      <c r="D95" s="34">
         <f>BV95</f>
         <v>999999</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>94</v>
       </c>
       <c r="F95" s="1"/>
@@ -14418,17 +14459,17 @@
       <c r="CI95" s="1"/>
       <c r="CJ95" s="1"/>
       <c r="CK95" s="1"/>
-      <c r="CL95" s="35">
+      <c r="CL95" s="34">
         <v>0</v>
       </c>
-      <c r="CM95" s="35"/>
+      <c r="CM95" s="34"/>
       <c r="CN95" s="1"/>
     </row>
     <row r="96" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="32">
+      <c r="C96" s="31">
         <v>215</v>
       </c>
       <c r="D96" s="1">
@@ -14564,7 +14605,7 @@
       <c r="B97" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C97" s="31">
         <v>215</v>
       </c>
       <c r="D97" s="1">
@@ -14700,7 +14741,7 @@
       <c r="B98" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="32">
+      <c r="C98" s="31">
         <v>215</v>
       </c>
       <c r="D98" s="1">
@@ -14836,7 +14877,7 @@
       <c r="B99" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="32">
+      <c r="C99" s="31">
         <v>216</v>
       </c>
       <c r="D99" s="2">
@@ -14965,7 +15006,7 @@
       <c r="B100" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="32">
+      <c r="C100" s="31">
         <v>216</v>
       </c>
       <c r="D100" s="2">
@@ -15094,7 +15135,7 @@
       <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="32">
+      <c r="C101" s="31">
         <v>216</v>
       </c>
       <c r="D101" s="2">
@@ -15221,7 +15262,7 @@
       <c r="B102" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="32">
+      <c r="C102" s="31">
         <v>216</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -15348,7 +15389,7 @@
       <c r="B103" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="32">
+      <c r="C103" s="31">
         <v>216</v>
       </c>
       <c r="D103" s="2">
@@ -15468,7 +15509,7 @@
       <c r="CI103" s="1"/>
       <c r="CJ103" s="1"/>
       <c r="CK103" s="1"/>
-      <c r="CL103" s="37">
+      <c r="CL103" s="36">
         <v>-1000000</v>
       </c>
       <c r="CM103" s="1" t="s">
@@ -15480,7 +15521,7 @@
       <c r="B104" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="32">
+      <c r="C104" s="31">
         <v>216</v>
       </c>
       <c r="D104" s="21">
@@ -15600,7 +15641,7 @@
       <c r="CI104" s="1"/>
       <c r="CJ104" s="1"/>
       <c r="CK104" s="1"/>
-      <c r="CL104" s="37" t="s">
+      <c r="CL104" s="36" t="s">
         <v>361</v>
       </c>
       <c r="CM104" s="1" t="s">
@@ -15612,7 +15653,7 @@
       <c r="B105" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="32">
+      <c r="C105" s="31">
         <v>216</v>
       </c>
       <c r="D105" s="20" t="s">
@@ -15739,7 +15780,7 @@
       <c r="B106" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C106" s="32">
+      <c r="C106" s="31">
         <v>216</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -15867,7 +15908,7 @@
       <c r="B107" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="32">
+      <c r="C107" s="31">
         <v>216</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -15999,7 +16040,7 @@
       <c r="B108" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C108" s="32">
+      <c r="C108" s="31">
         <v>216</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -16131,7 +16172,7 @@
       <c r="B109" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="32">
+      <c r="C109" s="31">
         <v>217</v>
       </c>
       <c r="D109" s="2">
@@ -16260,7 +16301,7 @@
       <c r="B110" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="32">
+      <c r="C110" s="31">
         <v>217</v>
       </c>
       <c r="D110" s="2">
@@ -16389,7 +16430,7 @@
       <c r="B111" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="32">
+      <c r="C111" s="31">
         <v>217</v>
       </c>
       <c r="D111" s="2">
@@ -16516,7 +16557,7 @@
       <c r="B112" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C112" s="32">
+      <c r="C112" s="31">
         <v>217</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -16643,7 +16684,7 @@
       <c r="B113" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="32">
+      <c r="C113" s="31">
         <v>217</v>
       </c>
       <c r="D113" s="1">
@@ -16763,7 +16804,7 @@
       <c r="CI113" s="1"/>
       <c r="CJ113" s="1"/>
       <c r="CK113" s="1"/>
-      <c r="CL113" s="37">
+      <c r="CL113" s="36">
         <v>-1000000</v>
       </c>
       <c r="CM113" s="1" t="s">
@@ -16775,7 +16816,7 @@
       <c r="B114" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="32">
+      <c r="C114" s="31">
         <v>217</v>
       </c>
       <c r="D114" s="21">
@@ -16895,7 +16936,7 @@
       <c r="CI114" s="1"/>
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
-      <c r="CL114" s="37" t="s">
+      <c r="CL114" s="36" t="s">
         <v>361</v>
       </c>
       <c r="CM114" s="1" t="s">
@@ -16907,7 +16948,7 @@
       <c r="B115" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="32">
+      <c r="C115" s="31">
         <v>217</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -17034,7 +17075,7 @@
       <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="32">
+      <c r="C116" s="31">
         <v>217</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -17162,7 +17203,7 @@
       <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="32">
+      <c r="C117" s="31">
         <v>217</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -17294,7 +17335,7 @@
       <c r="B118" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="32">
+      <c r="C118" s="31">
         <v>217</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -17426,7 +17467,7 @@
       <c r="B119" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C119" s="32">
+      <c r="C119" s="31">
         <v>218</v>
       </c>
       <c r="D119" s="1">
@@ -17546,7 +17587,7 @@
       <c r="B120" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="32">
+      <c r="C120" s="31">
         <v>218</v>
       </c>
       <c r="D120" s="1">
@@ -17666,7 +17707,7 @@
       <c r="B121" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="32">
+      <c r="C121" s="31">
         <v>218</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -17787,7 +17828,7 @@
       <c r="B122" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="32">
+      <c r="C122" s="31">
         <v>218</v>
       </c>
       <c r="D122" s="1">
@@ -17910,7 +17951,7 @@
       <c r="B123" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C123" s="32">
+      <c r="C123" s="31">
         <v>218</v>
       </c>
       <c r="D123" s="21">
@@ -18021,7 +18062,7 @@
       <c r="CI123" s="1"/>
       <c r="CJ123" s="1"/>
       <c r="CK123" s="1"/>
-      <c r="CL123" s="37">
+      <c r="CL123" s="36">
         <v>1000000</v>
       </c>
       <c r="CM123" s="1" t="s">
@@ -18033,7 +18074,7 @@
       <c r="B124" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C124" s="32">
+      <c r="C124" s="31">
         <v>218</v>
       </c>
       <c r="D124" s="21" t="s">
@@ -18155,7 +18196,7 @@
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C125" s="32">
+      <c r="C125" s="31">
         <v>218</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -18277,7 +18318,7 @@
       <c r="B126" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C126" s="32">
+      <c r="C126" s="31">
         <v>218</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -18400,7 +18441,7 @@
       <c r="B127" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C127" s="32">
+      <c r="C127" s="31">
         <v>218</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -18523,7 +18564,7 @@
       <c r="B128" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C128" s="32">
+      <c r="C128" s="31">
         <v>218</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -18646,7 +18687,7 @@
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C129" s="32">
+      <c r="C129" s="31">
         <v>218</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -18769,7 +18810,7 @@
       <c r="B130" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C130" s="32">
+      <c r="C130" s="31">
         <v>218</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -18892,7 +18933,7 @@
       <c r="B131" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C131" s="32">
+      <c r="C131" s="31">
         <v>218</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -19015,7 +19056,7 @@
       <c r="B132" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C132" s="33">
+      <c r="C132" s="32">
         <v>219</v>
       </c>
       <c r="D132" s="1">
@@ -19135,7 +19176,7 @@
       <c r="B133" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C133" s="33">
+      <c r="C133" s="32">
         <v>219</v>
       </c>
       <c r="D133" s="1">
@@ -19255,7 +19296,7 @@
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="33">
+      <c r="C134" s="32">
         <v>219</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -19376,7 +19417,7 @@
       <c r="B135" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C135" s="33">
+      <c r="C135" s="32">
         <v>219</v>
       </c>
       <c r="D135" s="1">
@@ -19499,7 +19540,7 @@
       <c r="B136" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C136" s="33">
+      <c r="C136" s="32">
         <v>219</v>
       </c>
       <c r="D136" s="21">
@@ -19610,7 +19651,7 @@
       <c r="CI136" s="1"/>
       <c r="CJ136" s="1"/>
       <c r="CK136" s="1"/>
-      <c r="CL136" s="37">
+      <c r="CL136" s="36">
         <v>1000000</v>
       </c>
       <c r="CM136" s="1" t="s">
@@ -19622,7 +19663,7 @@
       <c r="B137" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C137" s="33">
+      <c r="C137" s="32">
         <v>219</v>
       </c>
       <c r="D137" s="26" t="s">
@@ -19744,7 +19785,7 @@
       <c r="B138" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="33">
+      <c r="C138" s="32">
         <v>219</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -19866,7 +19907,7 @@
       <c r="B139" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="33">
+      <c r="C139" s="32">
         <v>219</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -19989,7 +20030,7 @@
       <c r="B140" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C140" s="33">
+      <c r="C140" s="32">
         <v>219</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -20112,7 +20153,7 @@
       <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C141" s="33">
+      <c r="C141" s="32">
         <v>219</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -20235,7 +20276,7 @@
       <c r="B142" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="33">
+      <c r="C142" s="32">
         <v>219</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -20358,7 +20399,7 @@
       <c r="B143" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C143" s="33">
+      <c r="C143" s="32">
         <v>219</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -20481,7 +20522,7 @@
       <c r="B144" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C144" s="33">
+      <c r="C144" s="32">
         <v>219</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -20604,7 +20645,7 @@
       <c r="B145" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C145" s="33">
+      <c r="C145" s="32">
         <v>220</v>
       </c>
       <c r="D145" s="1">
@@ -20724,7 +20765,7 @@
       <c r="B146" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C146" s="33">
+      <c r="C146" s="32">
         <v>220</v>
       </c>
       <c r="D146" s="1">
@@ -20844,7 +20885,7 @@
       <c r="B147" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="33">
+      <c r="C147" s="32">
         <v>220</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -20965,7 +21006,7 @@
       <c r="B148" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C148" s="33">
+      <c r="C148" s="32">
         <v>220</v>
       </c>
       <c r="D148" s="1">
@@ -21088,7 +21129,7 @@
       <c r="B149" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C149" s="33">
+      <c r="C149" s="32">
         <v>220</v>
       </c>
       <c r="D149" s="21">
@@ -21199,7 +21240,7 @@
       <c r="CI149" s="1"/>
       <c r="CJ149" s="1"/>
       <c r="CK149" s="1"/>
-      <c r="CL149" s="37">
+      <c r="CL149" s="36">
         <v>1000000</v>
       </c>
       <c r="CM149" s="1" t="s">
@@ -21211,7 +21252,7 @@
       <c r="B150" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C150" s="33">
+      <c r="C150" s="32">
         <v>220</v>
       </c>
       <c r="D150" s="26" t="s">
@@ -21333,7 +21374,7 @@
       <c r="B151" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C151" s="33">
+      <c r="C151" s="32">
         <v>220</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -21455,7 +21496,7 @@
       <c r="B152" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C152" s="33">
+      <c r="C152" s="32">
         <v>220</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -21578,7 +21619,7 @@
       <c r="B153" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="33">
+      <c r="C153" s="32">
         <v>220</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -21701,7 +21742,7 @@
       <c r="B154" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C154" s="33">
+      <c r="C154" s="32">
         <v>220</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -21824,7 +21865,7 @@
       <c r="B155" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C155" s="33">
+      <c r="C155" s="32">
         <v>220</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -21947,7 +21988,7 @@
       <c r="B156" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="33">
+      <c r="C156" s="32">
         <v>220</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -22070,7 +22111,7 @@
       <c r="B157" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="33">
+      <c r="C157" s="32">
         <v>220</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -22193,7 +22234,7 @@
       <c r="B158" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C158" s="32">
+      <c r="C158" s="31">
         <v>221</v>
       </c>
       <c r="D158" s="1">
@@ -22313,7 +22354,7 @@
       <c r="B159" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C159" s="32">
+      <c r="C159" s="31">
         <v>221</v>
       </c>
       <c r="D159" s="1">
@@ -22433,7 +22474,7 @@
       <c r="B160" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C160" s="32">
+      <c r="C160" s="31">
         <v>221</v>
       </c>
       <c r="D160" s="1">
@@ -22553,7 +22594,7 @@
       <c r="B161" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C161" s="32">
+      <c r="C161" s="31">
         <v>221</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -22674,7 +22715,7 @@
       <c r="B162" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="32">
+      <c r="C162" s="31">
         <v>221</v>
       </c>
       <c r="D162" s="1">
@@ -22797,7 +22838,7 @@
       <c r="B163" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C163" s="32">
+      <c r="C163" s="31">
         <v>221</v>
       </c>
       <c r="D163" s="21">
@@ -22908,7 +22949,7 @@
       <c r="CI163" s="1"/>
       <c r="CJ163" s="1"/>
       <c r="CK163" s="1"/>
-      <c r="CL163" s="37">
+      <c r="CL163" s="36">
         <v>1000000</v>
       </c>
       <c r="CM163" s="1" t="s">
@@ -22920,7 +22961,7 @@
       <c r="B164" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C164" s="32">
+      <c r="C164" s="31">
         <v>221</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -23042,7 +23083,7 @@
       <c r="B165" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C165" s="32">
+      <c r="C165" s="31">
         <v>221</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -23164,7 +23205,7 @@
       <c r="B166" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C166" s="32">
+      <c r="C166" s="31">
         <v>221</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -23287,7 +23328,7 @@
       <c r="B167" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C167" s="32">
+      <c r="C167" s="31">
         <v>221</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -23410,7 +23451,7 @@
       <c r="B168" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C168" s="32">
+      <c r="C168" s="31">
         <v>221</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -23533,7 +23574,7 @@
       <c r="B169" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C169" s="32">
+      <c r="C169" s="31">
         <v>221</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -23656,7 +23697,7 @@
       <c r="B170" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C170" s="32">
+      <c r="C170" s="31">
         <v>221</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -23779,13 +23820,13 @@
       <c r="B171" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C171" s="32">
+      <c r="C171" s="31">
         <v>221</v>
       </c>
-      <c r="D171" s="35" t="s">
+      <c r="D171" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E171" s="38" t="s">
+      <c r="E171" s="37" t="s">
         <v>91</v>
       </c>
       <c r="F171" s="1"/>
@@ -23890,17 +23931,17 @@
       <c r="CI171" s="1"/>
       <c r="CJ171" s="1"/>
       <c r="CK171" s="1"/>
-      <c r="CL171" s="35">
+      <c r="CL171" s="34">
         <v>1.1000000000000001</v>
       </c>
-      <c r="CM171" s="35"/>
+      <c r="CM171" s="34"/>
       <c r="CN171" s="1"/>
     </row>
     <row r="172" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C172" s="33">
+      <c r="C172" s="32">
         <v>222</v>
       </c>
       <c r="D172" s="9">
@@ -24020,7 +24061,7 @@
       <c r="B173" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C173" s="33">
+      <c r="C173" s="32">
         <v>222</v>
       </c>
       <c r="D173" s="9">
@@ -24140,13 +24181,13 @@
       <c r="B174" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C174" s="33">
+      <c r="C174" s="32">
         <v>222</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E174" s="31" t="s">
+      <c r="E174" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F174" s="1"/>
@@ -24261,13 +24302,13 @@
       <c r="B175" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C175" s="33">
+      <c r="C175" s="32">
         <v>222</v>
       </c>
-      <c r="D175" s="39">
+      <c r="D175" s="38">
         <v>0</v>
       </c>
-      <c r="E175" s="40" t="s">
+      <c r="E175" s="39" t="s">
         <v>88</v>
       </c>
       <c r="F175" s="1"/>
@@ -24370,10 +24411,10 @@
       <c r="CI175" s="1"/>
       <c r="CJ175" s="1"/>
       <c r="CK175" s="1"/>
-      <c r="CL175" s="35" t="s">
+      <c r="CL175" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="CM175" s="35" t="s">
+      <c r="CM175" s="34" t="s">
         <v>89</v>
       </c>
       <c r="CN175" s="1"/>
@@ -24382,13 +24423,13 @@
       <c r="B176" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C176" s="33">
+      <c r="C176" s="32">
         <v>222</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E176" s="40" t="s">
+      <c r="E176" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F176" s="1"/>
@@ -24495,7 +24536,7 @@
       <c r="CL176" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CM176" s="35" t="s">
+      <c r="CM176" s="34" t="s">
         <v>90</v>
       </c>
       <c r="CN176" s="1"/>
@@ -24504,13 +24545,13 @@
       <c r="B177" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C177" s="33">
+      <c r="C177" s="32">
         <v>222</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E177" s="40" t="s">
+      <c r="E177" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F177" s="1"/>
@@ -24617,7 +24658,7 @@
       <c r="CL177" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CM177" s="35" t="s">
+      <c r="CM177" s="34" t="s">
         <v>90</v>
       </c>
       <c r="CN177" s="1"/>
@@ -24626,13 +24667,13 @@
       <c r="B178" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C178" s="33">
+      <c r="C178" s="32">
         <v>222</v>
       </c>
-      <c r="D178" s="39" t="s">
+      <c r="D178" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="40" t="s">
+      <c r="E178" s="39" t="s">
         <v>112</v>
       </c>
       <c r="F178" s="1"/>
@@ -24737,10 +24778,10 @@
       <c r="CI178" s="1"/>
       <c r="CJ178" s="1"/>
       <c r="CK178" s="1"/>
-      <c r="CL178" s="41">
+      <c r="CL178" s="40">
         <v>1000000</v>
       </c>
-      <c r="CM178" s="35" t="s">
+      <c r="CM178" s="34" t="s">
         <v>95</v>
       </c>
       <c r="CN178" s="1"/>
@@ -24749,7 +24790,7 @@
       <c r="B179" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C179" s="33">
+      <c r="C179" s="32">
         <v>223</v>
       </c>
       <c r="D179" s="9">
@@ -24869,7 +24910,7 @@
       <c r="B180" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C180" s="33">
+      <c r="C180" s="32">
         <v>223</v>
       </c>
       <c r="D180" s="9">
@@ -24989,13 +25030,13 @@
       <c r="B181" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C181" s="33">
+      <c r="C181" s="32">
         <v>223</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E181" s="31" t="s">
+      <c r="E181" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F181" s="1"/>
@@ -25110,13 +25151,13 @@
       <c r="B182" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="33">
+      <c r="C182" s="32">
         <v>223</v>
       </c>
-      <c r="D182" s="39">
+      <c r="D182" s="38">
         <v>0</v>
       </c>
-      <c r="E182" s="40" t="s">
+      <c r="E182" s="39" t="s">
         <v>88</v>
       </c>
       <c r="F182" s="1"/>
@@ -25219,10 +25260,10 @@
       <c r="CI182" s="1"/>
       <c r="CJ182" s="1"/>
       <c r="CK182" s="1"/>
-      <c r="CL182" s="35" t="s">
+      <c r="CL182" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="CM182" s="35" t="s">
+      <c r="CM182" s="34" t="s">
         <v>89</v>
       </c>
       <c r="CN182" s="1"/>
@@ -25231,13 +25272,13 @@
       <c r="B183" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C183" s="33">
+      <c r="C183" s="32">
         <v>223</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E183" s="40" t="s">
+      <c r="E183" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F183" s="1"/>
@@ -25344,7 +25385,7 @@
       <c r="CL183" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CM183" s="35" t="s">
+      <c r="CM183" s="34" t="s">
         <v>90</v>
       </c>
       <c r="CN183" s="1"/>
@@ -25353,13 +25394,13 @@
       <c r="B184" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C184" s="33">
+      <c r="C184" s="32">
         <v>223</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E184" s="40" t="s">
+      <c r="E184" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F184" s="1"/>
@@ -25466,7 +25507,7 @@
       <c r="CL184" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CM184" s="35" t="s">
+      <c r="CM184" s="34" t="s">
         <v>90</v>
       </c>
       <c r="CN184" s="1"/>
@@ -25475,13 +25516,13 @@
       <c r="B185" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="33">
+      <c r="C185" s="32">
         <v>223</v>
       </c>
-      <c r="D185" s="39" t="s">
+      <c r="D185" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E185" s="42" t="s">
+      <c r="E185" s="41" t="s">
         <v>112</v>
       </c>
       <c r="F185" s="9"/>
@@ -25586,10 +25627,10 @@
       <c r="CI185" s="1"/>
       <c r="CJ185" s="1"/>
       <c r="CK185" s="1"/>
-      <c r="CL185" s="41">
+      <c r="CL185" s="40">
         <v>1000000</v>
       </c>
-      <c r="CM185" s="35" t="s">
+      <c r="CM185" s="34" t="s">
         <v>95</v>
       </c>
       <c r="CN185" s="1"/>
@@ -25598,7 +25639,7 @@
       <c r="B186" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C186" s="32">
+      <c r="C186" s="31">
         <v>224</v>
       </c>
       <c r="D186" s="1">
@@ -25718,7 +25759,7 @@
       <c r="B187" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C187" s="32">
+      <c r="C187" s="31">
         <v>224</v>
       </c>
       <c r="D187" s="1">
@@ -25838,7 +25879,7 @@
       <c r="B188" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C188" s="32">
+      <c r="C188" s="31">
         <v>224</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -25959,13 +26000,13 @@
       <c r="B189" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C189" s="32">
+      <c r="C189" s="31">
         <v>224</v>
       </c>
-      <c r="D189" s="35">
+      <c r="D189" s="34">
         <v>0</v>
       </c>
-      <c r="E189" s="38" t="s">
+      <c r="E189" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F189" s="1"/>
@@ -26068,10 +26109,10 @@
       <c r="CI189" s="1"/>
       <c r="CJ189" s="1"/>
       <c r="CK189" s="1"/>
-      <c r="CL189" s="35" t="s">
+      <c r="CL189" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="CM189" s="35" t="s">
+      <c r="CM189" s="34" t="s">
         <v>89</v>
       </c>
       <c r="CN189" s="1"/>
@@ -26080,13 +26121,13 @@
       <c r="B190" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C190" s="33">
+      <c r="C190" s="32">
         <v>224</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E190" s="40" t="s">
+      <c r="E190" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F190" s="1"/>
@@ -26193,7 +26234,7 @@
       <c r="CL190" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CM190" s="35" t="s">
+      <c r="CM190" s="34" t="s">
         <v>90</v>
       </c>
       <c r="CN190" s="1"/>
@@ -26202,13 +26243,13 @@
       <c r="B191" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C191" s="33">
+      <c r="C191" s="32">
         <v>224</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E191" s="40" t="s">
+      <c r="E191" s="39" t="s">
         <v>96</v>
       </c>
       <c r="F191" s="9"/>
@@ -26315,7 +26356,7 @@
       <c r="CL191" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="CM191" s="35" t="s">
+      <c r="CM191" s="34" t="s">
         <v>90</v>
       </c>
       <c r="CN191" s="1"/>
@@ -26324,13 +26365,13 @@
       <c r="B192" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C192" s="33">
+      <c r="C192" s="32">
         <v>224</v>
       </c>
-      <c r="D192" s="39" t="s">
+      <c r="D192" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E192" s="43" t="s">
+      <c r="E192" s="42" t="s">
         <v>112</v>
       </c>
       <c r="F192" s="9"/>
@@ -26435,10 +26476,10 @@
       <c r="CI192" s="1"/>
       <c r="CJ192" s="1"/>
       <c r="CK192" s="1"/>
-      <c r="CL192" s="41">
+      <c r="CL192" s="40">
         <v>1000000</v>
       </c>
-      <c r="CM192" s="35" t="s">
+      <c r="CM192" s="34" t="s">
         <v>95</v>
       </c>
       <c r="CN192" s="1"/>
@@ -26447,10 +26488,10 @@
       <c r="B193" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C193" s="32">
+      <c r="C193" s="31">
         <v>225</v>
       </c>
-      <c r="D193" s="35">
+      <c r="D193" s="34">
         <f>AVERAGE(BH193,BI193,BJ193)</f>
         <v>1833.3333333333333</v>
       </c>
@@ -26545,7 +26586,7 @@
       <c r="CI193" s="1"/>
       <c r="CJ193" s="1"/>
       <c r="CK193" s="1"/>
-      <c r="CL193" s="41">
+      <c r="CL193" s="40">
         <v>5500</v>
       </c>
       <c r="CM193" s="1"/>
@@ -26555,7 +26596,7 @@
       <c r="B194" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C194" s="32">
+      <c r="C194" s="31">
         <v>225</v>
       </c>
       <c r="D194" s="1">
@@ -26653,7 +26694,7 @@
       <c r="CI194" s="1"/>
       <c r="CJ194" s="1"/>
       <c r="CK194" s="1"/>
-      <c r="CL194" s="37">
+      <c r="CL194" s="36">
         <v>1500</v>
       </c>
       <c r="CM194" s="1"/>
@@ -26663,10 +26704,10 @@
       <c r="B195" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C195" s="32">
+      <c r="C195" s="31">
         <v>225</v>
       </c>
-      <c r="D195" s="35">
+      <c r="D195" s="34">
         <f>AVERAGE(BH195,BI195,BJ195)</f>
         <v>1400</v>
       </c>
@@ -26761,7 +26802,7 @@
       <c r="CI195" s="1"/>
       <c r="CJ195" s="1"/>
       <c r="CK195" s="1"/>
-      <c r="CL195" s="41">
+      <c r="CL195" s="40">
         <v>2800</v>
       </c>
       <c r="CM195" s="1"/>
@@ -26771,7 +26812,7 @@
       <c r="B196" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="32">
+      <c r="C196" s="31">
         <v>225</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -26882,10 +26923,10 @@
       <c r="B197" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C197" s="32">
+      <c r="C197" s="31">
         <v>225</v>
       </c>
-      <c r="D197" s="35" t="s">
+      <c r="D197" s="34" t="s">
         <v>60</v>
       </c>
       <c r="E197" s="24" t="s">
@@ -26981,7 +27022,7 @@
       <c r="CI197" s="1"/>
       <c r="CJ197" s="1"/>
       <c r="CK197" s="1"/>
-      <c r="CL197" s="41">
+      <c r="CL197" s="40">
         <v>-1000</v>
       </c>
       <c r="CM197" s="1" t="s">
@@ -26993,14 +27034,15 @@
       <c r="B198" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C198" s="32">
+      <c r="C198" s="47">
         <v>226</v>
       </c>
-      <c r="D198" s="2">
-        <f>AVERAGE(BV198,BW198,BX198)</f>
-        <v>1500</v>
-      </c>
-      <c r="E198" s="24"/>
+      <c r="D198" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E198" s="48" t="s">
+        <v>100</v>
+      </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -27058,13 +27100,13 @@
       <c r="BH198" s="1"/>
       <c r="BI198" s="1"/>
       <c r="BJ198" s="1"/>
-      <c r="BK198" s="44">
+      <c r="BK198" s="43">
         <v>-1000</v>
       </c>
-      <c r="BL198" s="44">
+      <c r="BL198" s="43">
         <v>-1500</v>
       </c>
-      <c r="BM198" s="44">
+      <c r="BM198" s="43">
         <v>-2000</v>
       </c>
       <c r="BN198" s="1"/>
@@ -27100,7 +27142,7 @@
       <c r="CI198" s="1"/>
       <c r="CJ198" s="1"/>
       <c r="CK198" s="1"/>
-      <c r="CL198" s="37">
+      <c r="CL198" s="36">
         <v>1500</v>
       </c>
       <c r="CM198" s="1"/>
@@ -27110,14 +27152,15 @@
       <c r="B199" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C199" s="32">
+      <c r="C199" s="47">
         <v>226</v>
       </c>
-      <c r="D199" s="2">
-        <f t="shared" ref="D199:D200" si="65">AVERAGE(BV199,BW199,BX199)</f>
-        <v>800</v>
-      </c>
-      <c r="E199" s="1"/>
+      <c r="D199" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E199" s="47" t="s">
+        <v>100</v>
+      </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -27175,7 +27218,7 @@
       <c r="BH199" s="1"/>
       <c r="BI199" s="1"/>
       <c r="BJ199" s="1"/>
-      <c r="BK199" s="44">
+      <c r="BK199" s="43">
         <v>-800</v>
       </c>
       <c r="BL199" s="2" t="s">
@@ -27193,7 +27236,7 @@
       <c r="BT199" s="1"/>
       <c r="BU199" s="1"/>
       <c r="BV199" s="1">
-        <f t="shared" ref="BV199:BV202" si="66">BK199*(-1)</f>
+        <f t="shared" ref="BV199:BV202" si="65">BK199*(-1)</f>
         <v>800</v>
       </c>
       <c r="BW199" s="1" t="s">
@@ -27225,14 +27268,15 @@
       <c r="B200" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C200" s="32">
+      <c r="C200" s="47">
         <v>226</v>
       </c>
-      <c r="D200" s="2">
-        <f t="shared" si="65"/>
-        <v>2200</v>
-      </c>
-      <c r="E200" s="1"/>
+      <c r="D200" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E200" s="47" t="s">
+        <v>100</v>
+      </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -27290,13 +27334,13 @@
       <c r="BH200" s="1"/>
       <c r="BI200" s="1"/>
       <c r="BJ200" s="1"/>
-      <c r="BK200" s="44">
+      <c r="BK200" s="43">
         <v>-3000</v>
       </c>
       <c r="BL200" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BM200" s="44">
+      <c r="BM200" s="43">
         <v>-1400</v>
       </c>
       <c r="BN200" s="1"/>
@@ -27308,14 +27352,14 @@
       <c r="BT200" s="1"/>
       <c r="BU200" s="1"/>
       <c r="BV200" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>3000</v>
       </c>
       <c r="BW200" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BX200" s="1">
-        <f t="shared" ref="BX200:BX202" si="67">BM200*(-1)</f>
+        <f t="shared" ref="BX200:BX202" si="66">BM200*(-1)</f>
         <v>1400</v>
       </c>
       <c r="BY200" s="1"/>
@@ -27331,7 +27375,7 @@
       <c r="CI200" s="1"/>
       <c r="CJ200" s="1"/>
       <c r="CK200" s="1"/>
-      <c r="CL200" s="37">
+      <c r="CL200" s="36">
         <v>2200</v>
       </c>
       <c r="CM200" s="1"/>
@@ -27341,13 +27385,13 @@
       <c r="B201" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C201" s="32">
+      <c r="C201" s="47">
         <v>226</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E201" s="24" t="s">
+      <c r="D201" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E201" s="48" t="s">
         <v>99</v>
       </c>
       <c r="F201" s="1"/>
@@ -27458,15 +27502,13 @@
       <c r="B202" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C202" s="32">
+      <c r="C202" s="47">
         <v>226</v>
       </c>
-      <c r="D202" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E202" s="38" t="s">
-        <v>100</v>
-      </c>
+      <c r="D202" s="47">
+        <v>-933.33</v>
+      </c>
+      <c r="E202" s="48"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -27524,13 +27566,13 @@
       <c r="BH202" s="1"/>
       <c r="BI202" s="1"/>
       <c r="BJ202" s="1"/>
-      <c r="BK202" s="44">
+      <c r="BK202" s="43">
         <v>1000</v>
       </c>
-      <c r="BL202" s="44">
+      <c r="BL202" s="43">
         <v>1500</v>
       </c>
-      <c r="BM202" s="44">
+      <c r="BM202" s="43">
         <v>300</v>
       </c>
       <c r="BN202" s="1"/>
@@ -27542,15 +27584,15 @@
       <c r="BT202" s="1"/>
       <c r="BU202" s="1"/>
       <c r="BV202" s="1">
+        <f t="shared" si="65"/>
+        <v>-1000</v>
+      </c>
+      <c r="BW202" s="1">
+        <f t="shared" ref="BW202" si="67">BL202*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX202" s="1">
         <f t="shared" si="66"/>
-        <v>-1000</v>
-      </c>
-      <c r="BW202" s="1">
-        <f t="shared" ref="BW202" si="68">BL202*(-1)</f>
-        <v>-1500</v>
-      </c>
-      <c r="BX202" s="1">
-        <f t="shared" si="67"/>
         <v>-300</v>
       </c>
       <c r="BY202" s="1"/>
@@ -27566,7 +27608,7 @@
       <c r="CI202" s="1"/>
       <c r="CJ202" s="1"/>
       <c r="CK202" s="1"/>
-      <c r="CL202" s="35">
+      <c r="CL202" s="34">
         <v>-933.33</v>
       </c>
       <c r="CM202" s="1"/>
@@ -27576,14 +27618,14 @@
       <c r="B203" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C203" s="32">
+      <c r="C203" s="31">
         <v>227</v>
       </c>
-      <c r="D203" s="35">
+      <c r="D203" s="34">
         <f>AVERAGE(BN203,BO203,BP203)</f>
         <v>-1000</v>
       </c>
-      <c r="E203" s="35"/>
+      <c r="E203" s="34"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -27644,13 +27686,13 @@
       <c r="BK203" s="1"/>
       <c r="BL203" s="1"/>
       <c r="BM203" s="1"/>
-      <c r="BN203" s="44">
+      <c r="BN203" s="43">
         <v>-1000</v>
       </c>
-      <c r="BO203" s="44">
+      <c r="BO203" s="43">
         <v>-1500</v>
       </c>
-      <c r="BP203" s="44">
+      <c r="BP203" s="43">
         <v>-500</v>
       </c>
       <c r="BQ203" s="1"/>
@@ -27683,7 +27725,7 @@
       <c r="CI203" s="1"/>
       <c r="CJ203" s="1"/>
       <c r="CK203" s="1"/>
-      <c r="CL203" s="37">
+      <c r="CL203" s="36">
         <v>1000</v>
       </c>
       <c r="CM203" s="1"/>
@@ -27693,14 +27735,14 @@
       <c r="B204" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C204" s="32">
+      <c r="C204" s="31">
         <v>227</v>
       </c>
-      <c r="D204" s="35">
-        <f t="shared" ref="D204:D205" si="69">AVERAGE(BN204,BO204,BP204)</f>
+      <c r="D204" s="34">
+        <f t="shared" ref="D204:D205" si="68">AVERAGE(BN204,BO204,BP204)</f>
         <v>-900</v>
       </c>
-      <c r="E204" s="35"/>
+      <c r="E204" s="34"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -27761,7 +27803,7 @@
       <c r="BK204" s="1"/>
       <c r="BL204" s="1"/>
       <c r="BM204" s="1"/>
-      <c r="BN204" s="44">
+      <c r="BN204" s="43">
         <v>-900</v>
       </c>
       <c r="BO204" s="2" t="s">
@@ -27776,7 +27818,7 @@
       <c r="BT204" s="1"/>
       <c r="BU204" s="1"/>
       <c r="BV204" s="1">
-        <f t="shared" ref="BV204:BV207" si="70">BN204*(-1)</f>
+        <f t="shared" ref="BV204:BV207" si="69">BN204*(-1)</f>
         <v>900</v>
       </c>
       <c r="BW204" s="1" t="s">
@@ -27808,14 +27850,14 @@
       <c r="B205" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C205" s="32">
+      <c r="C205" s="31">
         <v>227</v>
       </c>
-      <c r="D205" s="35">
-        <f t="shared" si="69"/>
+      <c r="D205" s="34">
+        <f t="shared" si="68"/>
         <v>-2100</v>
       </c>
-      <c r="E205" s="35"/>
+      <c r="E205" s="34"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -27876,13 +27918,13 @@
       <c r="BK205" s="1"/>
       <c r="BL205" s="1"/>
       <c r="BM205" s="1"/>
-      <c r="BN205" s="44">
+      <c r="BN205" s="43">
         <v>-3000</v>
       </c>
       <c r="BO205" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BP205" s="44">
+      <c r="BP205" s="43">
         <v>-1200</v>
       </c>
       <c r="BQ205" s="1"/>
@@ -27891,14 +27933,14 @@
       <c r="BT205" s="1"/>
       <c r="BU205" s="1"/>
       <c r="BV205" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>3000</v>
       </c>
       <c r="BW205" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BX205" s="1">
-        <f t="shared" ref="BX205:BX207" si="71">BP205*(-1)</f>
+        <f t="shared" ref="BX205:BX207" si="70">BP205*(-1)</f>
         <v>1200</v>
       </c>
       <c r="BY205" s="1"/>
@@ -27914,7 +27956,7 @@
       <c r="CI205" s="1"/>
       <c r="CJ205" s="1"/>
       <c r="CK205" s="1"/>
-      <c r="CL205" s="37">
+      <c r="CL205" s="36">
         <v>2100</v>
       </c>
       <c r="CM205" s="1"/>
@@ -27924,13 +27966,13 @@
       <c r="B206" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C206" s="32">
+      <c r="C206" s="31">
         <v>227</v>
       </c>
-      <c r="D206" s="35" t="s">
+      <c r="D206" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E206" s="38" t="s">
+      <c r="E206" s="37" t="s">
         <v>99</v>
       </c>
       <c r="F206" s="1"/>
@@ -28041,13 +28083,13 @@
       <c r="B207" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C207" s="32">
+      <c r="C207" s="31">
         <v>227</v>
       </c>
-      <c r="D207" s="35" t="s">
+      <c r="D207" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E207" s="38" t="s">
+      <c r="E207" s="37" t="s">
         <v>100</v>
       </c>
       <c r="F207" s="1"/>
@@ -28110,13 +28152,13 @@
       <c r="BK207" s="1"/>
       <c r="BL207" s="1"/>
       <c r="BM207" s="1"/>
-      <c r="BN207" s="44">
+      <c r="BN207" s="43">
         <v>1000</v>
       </c>
-      <c r="BO207" s="44">
+      <c r="BO207" s="43">
         <v>1500</v>
       </c>
-      <c r="BP207" s="44">
+      <c r="BP207" s="43">
         <v>400</v>
       </c>
       <c r="BQ207" s="1"/>
@@ -28125,15 +28167,15 @@
       <c r="BT207" s="1"/>
       <c r="BU207" s="1"/>
       <c r="BV207" s="1">
+        <f t="shared" si="69"/>
+        <v>-1000</v>
+      </c>
+      <c r="BW207" s="1">
+        <f t="shared" ref="BW207" si="71">BO207*(-1)</f>
+        <v>-1500</v>
+      </c>
+      <c r="BX207" s="1">
         <f t="shared" si="70"/>
-        <v>-1000</v>
-      </c>
-      <c r="BW207" s="1">
-        <f t="shared" ref="BW207" si="72">BO207*(-1)</f>
-        <v>-1500</v>
-      </c>
-      <c r="BX207" s="1">
-        <f t="shared" si="71"/>
         <v>-400</v>
       </c>
       <c r="BY207" s="1"/>
@@ -28149,7 +28191,7 @@
       <c r="CI207" s="1"/>
       <c r="CJ207" s="1"/>
       <c r="CK207" s="1"/>
-      <c r="CL207" s="35">
+      <c r="CL207" s="34">
         <v>-966.67</v>
       </c>
       <c r="CM207" s="1" t="s">
@@ -28161,14 +28203,14 @@
       <c r="B208" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C208" s="32">
+      <c r="C208" s="47">
         <v>228</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="49">
         <f>BT208/BU208</f>
         <v>0.75</v>
       </c>
-      <c r="E208" s="1"/>
+      <c r="E208" s="49"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -28226,13 +28268,13 @@
       <c r="BH208" s="1"/>
       <c r="BI208" s="1"/>
       <c r="BJ208" s="1"/>
-      <c r="BK208" s="45">
+      <c r="BK208" s="44">
         <v>-1000</v>
       </c>
-      <c r="BL208" s="45">
+      <c r="BL208" s="44">
         <v>-1500</v>
       </c>
-      <c r="BM208" s="45">
+      <c r="BM208" s="44">
         <v>-2000</v>
       </c>
       <c r="BN208" s="1"/>
@@ -28260,11 +28302,11 @@
         <v>1000</v>
       </c>
       <c r="BW208" s="1">
-        <f t="shared" ref="BW208" si="73">BL208*(-1)</f>
+        <f t="shared" ref="BW208" si="72">BL208*(-1)</f>
         <v>1500</v>
       </c>
       <c r="BX208" s="1">
-        <f t="shared" ref="BX208" si="74">BM208*(-1)</f>
+        <f t="shared" ref="BX208" si="73">BM208*(-1)</f>
         <v>2000</v>
       </c>
       <c r="BY208" s="1"/>
@@ -28284,20 +28326,22 @@
         <v>0.75</v>
       </c>
       <c r="CM208" s="1"/>
-      <c r="CN208" s="1"/>
+      <c r="CN208" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="209" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C209" s="32">
+      <c r="C209" s="47">
         <v>228</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="49">
         <f>BT209/BU209</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="E209" s="1"/>
+      <c r="E209" s="49"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -28361,7 +28405,7 @@
       <c r="BL209" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BM209" s="45">
+      <c r="BM209" s="44">
         <v>-800</v>
       </c>
       <c r="BN209" s="1"/>
@@ -28391,7 +28435,7 @@
         <v>59</v>
       </c>
       <c r="BX209" s="1">
-        <f t="shared" ref="BX209:BX210" si="75">BM209*(-1)</f>
+        <f t="shared" ref="BX209:BX210" si="74">BM209*(-1)</f>
         <v>800</v>
       </c>
       <c r="BY209" s="1"/>
@@ -28411,20 +28455,22 @@
         <v>0.5333</v>
       </c>
       <c r="CM209" s="1"/>
-      <c r="CN209" s="1"/>
+      <c r="CN209" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="210" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C210" s="32">
+      <c r="C210" s="47">
         <v>228</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="49">
         <f>BT210/BU210</f>
         <v>0.48</v>
       </c>
-      <c r="E210" s="1"/>
+      <c r="E210" s="49"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -28482,13 +28528,13 @@
       <c r="BH210" s="1"/>
       <c r="BI210" s="1"/>
       <c r="BJ210" s="1"/>
-      <c r="BK210" s="45">
+      <c r="BK210" s="44">
         <v>-1000</v>
       </c>
       <c r="BL210" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BM210" s="45">
+      <c r="BM210" s="44">
         <v>-1400</v>
       </c>
       <c r="BN210" s="1"/>
@@ -28519,7 +28565,7 @@
         <v>59</v>
       </c>
       <c r="BX210" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>1400</v>
       </c>
       <c r="BY210" s="1"/>
@@ -28539,19 +28585,21 @@
         <v>0.48</v>
       </c>
       <c r="CM210" s="1"/>
-      <c r="CN210" s="1"/>
+      <c r="CN210" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="211" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C211" s="32">
+      <c r="C211" s="47">
         <v>228</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E211" s="24" t="s">
+      <c r="E211" s="50" t="s">
         <v>99</v>
       </c>
       <c r="F211" s="1"/>
@@ -28666,19 +28714,21 @@
       <c r="CM211" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CN211" s="1"/>
+      <c r="CN211" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="212" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C212" s="32">
+      <c r="C212" s="47">
         <v>228</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="49">
         <v>999999</v>
       </c>
-      <c r="E212" s="24" t="s">
+      <c r="E212" s="50" t="s">
         <v>101</v>
       </c>
       <c r="F212" s="1"/>
@@ -28738,13 +28788,13 @@
       <c r="BH212" s="1"/>
       <c r="BI212" s="1"/>
       <c r="BJ212" s="1"/>
-      <c r="BK212" s="45">
+      <c r="BK212" s="44">
         <v>-1000</v>
       </c>
-      <c r="BL212" s="45">
+      <c r="BL212" s="44">
         <v>1500</v>
       </c>
-      <c r="BM212" s="45">
+      <c r="BM212" s="44">
         <v>-500</v>
       </c>
       <c r="BN212" s="1"/>
@@ -28760,7 +28810,7 @@
         <v>-1000</v>
       </c>
       <c r="BT212" s="1">
-        <f t="shared" ref="BT212:BT235" si="76">AVERAGE(BV212,BW212,BX212)</f>
+        <f t="shared" ref="BT212:BT235" si="75">AVERAGE(BV212,BW212,BX212)</f>
         <v>0</v>
       </c>
       <c r="BU212" s="1">
@@ -28768,15 +28818,15 @@
         <v>0</v>
       </c>
       <c r="BV212" s="1">
-        <f t="shared" ref="BV212:BX214" si="77">BK212*(-1)</f>
+        <f t="shared" ref="BV212:BX214" si="76">BK212*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BW212" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>-1500</v>
       </c>
       <c r="BX212" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>500</v>
       </c>
       <c r="BY212" s="1"/>
@@ -28792,25 +28842,27 @@
       <c r="CI212" s="1"/>
       <c r="CJ212" s="1"/>
       <c r="CK212" s="1"/>
-      <c r="CL212" s="35">
-        <v>0</v>
+      <c r="CL212" s="40">
+        <v>999999</v>
       </c>
       <c r="CM212" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CN212" s="1"/>
+      <c r="CN212" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="213" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C213" s="32">
+      <c r="C213" s="47">
         <v>228</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="49">
         <v>1000000</v>
       </c>
-      <c r="E213" s="24" t="s">
+      <c r="E213" s="50" t="s">
         <v>102</v>
       </c>
       <c r="F213" s="1"/>
@@ -28870,13 +28922,13 @@
       <c r="BH213" s="1"/>
       <c r="BI213" s="1"/>
       <c r="BJ213" s="1"/>
-      <c r="BK213" s="45">
+      <c r="BK213" s="44">
         <v>-1000</v>
       </c>
-      <c r="BL213" s="45">
+      <c r="BL213" s="44">
         <v>-1500</v>
       </c>
-      <c r="BM213" s="45">
+      <c r="BM213" s="44">
         <v>-500</v>
       </c>
       <c r="BN213" s="1"/>
@@ -28892,7 +28944,7 @@
         <v>-1000</v>
       </c>
       <c r="BT213" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>1000</v>
       </c>
       <c r="BU213" s="1">
@@ -28900,15 +28952,15 @@
         <v>0</v>
       </c>
       <c r="BV213" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1000</v>
       </c>
       <c r="BW213" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1500</v>
       </c>
       <c r="BX213" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>500</v>
       </c>
       <c r="BY213" s="1"/>
@@ -28924,25 +28976,27 @@
       <c r="CI213" s="1"/>
       <c r="CJ213" s="1"/>
       <c r="CK213" s="1"/>
-      <c r="CL213" s="37">
+      <c r="CL213" s="36">
         <v>1000000</v>
       </c>
       <c r="CM213" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CN213" s="1"/>
+      <c r="CN213" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="214" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C214" s="32">
+      <c r="C214" s="47">
         <v>228</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E214" s="24" t="s">
+      <c r="E214" s="50" t="s">
         <v>103</v>
       </c>
       <c r="F214" s="1"/>
@@ -29002,13 +29056,13 @@
       <c r="BH214" s="1"/>
       <c r="BI214" s="1"/>
       <c r="BJ214" s="1"/>
-      <c r="BK214" s="44">
+      <c r="BK214" s="43">
         <v>-750</v>
       </c>
-      <c r="BL214" s="44">
+      <c r="BL214" s="43">
         <v>-800</v>
       </c>
-      <c r="BM214" s="44">
+      <c r="BM214" s="43">
         <v>-1200</v>
       </c>
       <c r="BN214" s="1"/>
@@ -29024,22 +29078,22 @@
         <v>59</v>
       </c>
       <c r="BT214" s="1">
+        <f t="shared" si="75"/>
+        <v>916.66666666666663</v>
+      </c>
+      <c r="BU214" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV214" s="1">
         <f t="shared" si="76"/>
-        <v>916.66666666666663</v>
-      </c>
-      <c r="BU214" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BV214" s="1">
-        <f t="shared" si="77"/>
         <v>750</v>
       </c>
       <c r="BW214" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>800</v>
       </c>
       <c r="BX214" s="1">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1200</v>
       </c>
       <c r="BY214" s="1"/>
@@ -29061,19 +29115,21 @@
       <c r="CM214" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CN214" s="1"/>
+      <c r="CN214" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="215" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B215" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C215" s="32">
+      <c r="C215" s="47">
         <v>228</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E215" s="24" t="s">
+      <c r="E215" s="50" t="s">
         <v>104</v>
       </c>
       <c r="F215" s="1"/>
@@ -29189,19 +29245,21 @@
       <c r="CM215" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CN215" s="1"/>
+      <c r="CN215" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="216" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C216" s="32">
+      <c r="C216" s="47">
         <v>228</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E216" s="28" t="s">
+      <c r="E216" s="51" t="s">
         <v>100</v>
       </c>
       <c r="F216" s="1"/>
@@ -29261,13 +29319,13 @@
       <c r="BH216" s="1"/>
       <c r="BI216" s="1"/>
       <c r="BJ216" s="1"/>
-      <c r="BK216" s="45">
+      <c r="BK216" s="44">
         <v>1000</v>
       </c>
-      <c r="BL216" s="45">
+      <c r="BL216" s="44">
         <v>1500</v>
       </c>
-      <c r="BM216" s="45">
+      <c r="BM216" s="44">
         <v>-500</v>
       </c>
       <c r="BN216" s="1"/>
@@ -29283,7 +29341,7 @@
         <v>2000</v>
       </c>
       <c r="BT216" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-666.66666666666663</v>
       </c>
       <c r="BU216" s="1">
@@ -29291,15 +29349,15 @@
         <v>2000</v>
       </c>
       <c r="BV216" s="1">
-        <f t="shared" ref="BV216:BX221" si="78">BK216*(-1)</f>
+        <f t="shared" ref="BV216:BX221" si="77">BK216*(-1)</f>
         <v>-1000</v>
       </c>
       <c r="BW216" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-1500</v>
       </c>
       <c r="BX216" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>500</v>
       </c>
       <c r="BY216" s="1"/>
@@ -29321,19 +29379,21 @@
       <c r="CM216" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CN216" s="1"/>
+      <c r="CN216" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="217" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C217" s="32">
+      <c r="C217" s="47">
         <v>228</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="51" t="s">
         <v>114</v>
       </c>
       <c r="F217" s="1"/>
@@ -29393,13 +29453,13 @@
       <c r="BH217" s="1"/>
       <c r="BI217" s="1"/>
       <c r="BJ217" s="1"/>
-      <c r="BK217" s="45">
+      <c r="BK217" s="44">
         <v>800</v>
       </c>
-      <c r="BL217" s="45">
+      <c r="BL217" s="44">
         <v>1500</v>
       </c>
-      <c r="BM217" s="45">
+      <c r="BM217" s="44">
         <v>-500</v>
       </c>
       <c r="BN217" s="1"/>
@@ -29415,7 +29475,7 @@
         <v>2500</v>
       </c>
       <c r="BT217" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-600</v>
       </c>
       <c r="BU217" s="1">
@@ -29423,15 +29483,15 @@
         <v>-833.33333333333337</v>
       </c>
       <c r="BV217" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-800</v>
       </c>
       <c r="BW217" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-1500</v>
       </c>
       <c r="BX217" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>500</v>
       </c>
       <c r="BY217" s="1"/>
@@ -29453,19 +29513,21 @@
       <c r="CM217" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CN217" s="1"/>
+      <c r="CN217" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="218" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C218" s="32">
+      <c r="C218" s="47">
         <v>228</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E218" s="28" t="s">
+      <c r="E218" s="51" t="s">
         <v>100</v>
       </c>
       <c r="F218" s="1"/>
@@ -29525,13 +29587,13 @@
       <c r="BH218" s="1"/>
       <c r="BI218" s="1"/>
       <c r="BJ218" s="1"/>
-      <c r="BK218" s="45">
+      <c r="BK218" s="44">
         <v>800</v>
       </c>
-      <c r="BL218" s="45">
+      <c r="BL218" s="44">
         <v>1500</v>
       </c>
-      <c r="BM218" s="45">
+      <c r="BM218" s="44">
         <v>500</v>
       </c>
       <c r="BN218" s="1"/>
@@ -29547,7 +29609,7 @@
         <v>-2000</v>
       </c>
       <c r="BT218" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-933.33333333333337</v>
       </c>
       <c r="BU218" s="1">
@@ -29555,15 +29617,15 @@
         <v>0</v>
       </c>
       <c r="BV218" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-800</v>
       </c>
       <c r="BW218" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-1500</v>
       </c>
       <c r="BX218" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-500</v>
       </c>
       <c r="BY218" s="1"/>
@@ -29585,19 +29647,21 @@
       <c r="CM218" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CN218" s="1"/>
+      <c r="CN218" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="219" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C219" s="32">
+      <c r="C219" s="47">
         <v>228</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E219" s="28" t="s">
+      <c r="E219" s="51" t="s">
         <v>105</v>
       </c>
       <c r="F219" s="1"/>
@@ -29657,13 +29721,13 @@
       <c r="BH219" s="1"/>
       <c r="BI219" s="1"/>
       <c r="BJ219" s="1"/>
-      <c r="BK219" s="44">
+      <c r="BK219" s="43">
         <v>-2000</v>
       </c>
-      <c r="BL219" s="44">
+      <c r="BL219" s="43">
         <v>-2000</v>
       </c>
-      <c r="BM219" s="44">
+      <c r="BM219" s="43">
         <v>-2000</v>
       </c>
       <c r="BN219" s="1"/>
@@ -29679,23 +29743,23 @@
         <v>500</v>
       </c>
       <c r="BT219" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>2000</v>
       </c>
       <c r="BU219" s="1">
-        <f t="shared" ref="BU219:BU222" si="79">AVERAGE(BQ219,BR219,BS219)</f>
+        <f t="shared" ref="BU219:BU222" si="78">AVERAGE(BQ219,BR219,BS219)</f>
         <v>-666.66666666666663</v>
       </c>
       <c r="BV219" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2000</v>
       </c>
       <c r="BW219" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2000</v>
       </c>
       <c r="BX219" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2000</v>
       </c>
       <c r="BY219" s="1"/>
@@ -29717,19 +29781,21 @@
       <c r="CM219" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CN219" s="1"/>
+      <c r="CN219" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="220" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C220" s="32">
+      <c r="C220" s="47">
         <v>228</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="51" t="s">
         <v>114</v>
       </c>
       <c r="F220" s="1"/>
@@ -29789,13 +29855,13 @@
       <c r="BH220" s="1"/>
       <c r="BI220" s="1"/>
       <c r="BJ220" s="1"/>
-      <c r="BK220" s="44">
+      <c r="BK220" s="43">
         <v>2500</v>
       </c>
-      <c r="BL220" s="44">
+      <c r="BL220" s="43">
         <v>2500</v>
       </c>
-      <c r="BM220" s="44">
+      <c r="BM220" s="43">
         <v>-2500</v>
       </c>
       <c r="BN220" s="1"/>
@@ -29811,23 +29877,23 @@
         <v>500</v>
       </c>
       <c r="BT220" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-833.33333333333337</v>
       </c>
       <c r="BU220" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>-600</v>
       </c>
       <c r="BV220" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-2500</v>
       </c>
       <c r="BW220" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-2500</v>
       </c>
       <c r="BX220" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>2500</v>
       </c>
       <c r="BY220" s="1"/>
@@ -29849,19 +29915,21 @@
       <c r="CM220" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CN220" s="1"/>
+      <c r="CN220" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="221" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C221" s="32">
+      <c r="C221" s="47">
         <v>228</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E221" s="28" t="s">
+      <c r="E221" s="51" t="s">
         <v>105</v>
       </c>
       <c r="F221" s="1"/>
@@ -29921,13 +29989,13 @@
       <c r="BH221" s="1"/>
       <c r="BI221" s="1"/>
       <c r="BJ221" s="1"/>
-      <c r="BK221" s="44">
+      <c r="BK221" s="43">
         <v>-1000</v>
       </c>
-      <c r="BL221" s="44">
+      <c r="BL221" s="43">
         <v>-1000</v>
       </c>
-      <c r="BM221" s="44">
+      <c r="BM221" s="43">
         <v>2000</v>
       </c>
       <c r="BN221" s="1"/>
@@ -29943,23 +30011,23 @@
         <v>-500</v>
       </c>
       <c r="BT221" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="BU221" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>-933.33333333333337</v>
       </c>
       <c r="BV221" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1000</v>
       </c>
       <c r="BW221" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>1000</v>
       </c>
       <c r="BX221" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-2000</v>
       </c>
       <c r="BY221" s="1"/>
@@ -29981,20 +30049,22 @@
       <c r="CM221" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CN221" s="1"/>
+      <c r="CN221" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="222" spans="2:92" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C222" s="32">
+      <c r="C222" s="47">
         <v>229</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="49">
         <f>BT222/BU222</f>
         <v>0.5</v>
       </c>
-      <c r="E222" s="1"/>
+      <c r="E222" s="49"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -30055,13 +30125,13 @@
       <c r="BK222" s="1"/>
       <c r="BL222" s="1"/>
       <c r="BM222" s="1"/>
-      <c r="BN222" s="45">
+      <c r="BN222" s="44">
         <v>-1000</v>
       </c>
-      <c r="BO222" s="45">
+      <c r="BO222" s="44">
         <v>-1500</v>
       </c>
-      <c r="BP222" s="45">
+      <c r="BP222" s="44">
         <v>-500</v>
       </c>
       <c r="BQ222" s="9">
@@ -30074,23 +30144,23 @@
         <v>2000</v>
       </c>
       <c r="BT222" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>1000</v>
       </c>
       <c r="BU222" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="78"/>
         <v>2000</v>
       </c>
       <c r="BV222" s="1">
-        <f t="shared" ref="BV222" si="80">BN222*(-1)</f>
+        <f t="shared" ref="BV222" si="79">BN222*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BW222" s="1">
-        <f t="shared" ref="BW222" si="81">BO222*(-1)</f>
+        <f t="shared" ref="BW222" si="80">BO222*(-1)</f>
         <v>1500</v>
       </c>
       <c r="BX222" s="1">
-        <f t="shared" ref="BX222" si="82">BP222*(-1)</f>
+        <f t="shared" ref="BX222" si="81">BP222*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY222" s="1"/>
@@ -30116,14 +30186,14 @@
       <c r="B223" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C223" s="32">
+      <c r="C223" s="47">
         <v>229</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="49">
         <f>BT223/BU223</f>
         <v>0.6</v>
       </c>
-      <c r="E223" s="1"/>
+      <c r="E223" s="49"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -30184,7 +30254,7 @@
       <c r="BK223" s="1"/>
       <c r="BL223" s="1"/>
       <c r="BM223" s="1"/>
-      <c r="BN223" s="45">
+      <c r="BN223" s="44">
         <v>-900</v>
       </c>
       <c r="BO223" s="9" t="s">
@@ -30203,15 +30273,15 @@
         <v>59</v>
       </c>
       <c r="BT223" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>900</v>
       </c>
       <c r="BU223" s="1">
-        <f t="shared" ref="BU223" si="83">AVERAGE(BQ223,BR223,BS223)</f>
+        <f t="shared" ref="BU223" si="82">AVERAGE(BQ223,BR223,BS223)</f>
         <v>1500</v>
       </c>
       <c r="BV223" s="1">
-        <f t="shared" ref="BV223:BV224" si="84">BN223*(-1)</f>
+        <f t="shared" ref="BV223:BV224" si="83">BN223*(-1)</f>
         <v>900</v>
       </c>
       <c r="BW223" s="1" t="s">
@@ -30243,14 +30313,14 @@
       <c r="B224" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C224" s="32">
+      <c r="C224" s="47">
         <v>229</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="49">
         <f>BT224/BU224</f>
         <v>0.84</v>
       </c>
-      <c r="E224" s="1"/>
+      <c r="E224" s="49"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -30311,13 +30381,13 @@
       <c r="BK224" s="1"/>
       <c r="BL224" s="1"/>
       <c r="BM224" s="1"/>
-      <c r="BN224" s="45">
+      <c r="BN224" s="44">
         <v>-3000</v>
       </c>
       <c r="BO224" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BP224" s="45">
+      <c r="BP224" s="44">
         <v>-1200</v>
       </c>
       <c r="BQ224" s="9">
@@ -30330,22 +30400,22 @@
         <v>2500</v>
       </c>
       <c r="BT224" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>2100</v>
       </c>
       <c r="BU224" s="1">
-        <f t="shared" ref="BU224:BU226" si="85">AVERAGE(BQ224,BR224,BS224)</f>
+        <f t="shared" ref="BU224:BU226" si="84">AVERAGE(BQ224,BR224,BS224)</f>
         <v>2500</v>
       </c>
       <c r="BV224" s="1">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>3000</v>
       </c>
       <c r="BW224" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BX224" s="1">
-        <f t="shared" ref="BX224" si="86">BP224*(-1)</f>
+        <f t="shared" ref="BX224" si="85">BP224*(-1)</f>
         <v>1200</v>
       </c>
       <c r="BY224" s="1"/>
@@ -30371,13 +30441,13 @@
       <c r="B225" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C225" s="32">
+      <c r="C225" s="47">
         <v>229</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E225" s="24" t="s">
+      <c r="E225" s="50" t="s">
         <v>99</v>
       </c>
       <c r="F225" s="1"/>
@@ -30498,13 +30568,13 @@
       <c r="B226" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C226" s="32">
+      <c r="C226" s="47">
         <v>229</v>
       </c>
-      <c r="D226" s="35">
+      <c r="D226" s="49">
         <v>999999</v>
       </c>
-      <c r="E226" s="38" t="s">
+      <c r="E226" s="50" t="s">
         <v>101</v>
       </c>
       <c r="F226" s="1"/>
@@ -30567,13 +30637,13 @@
       <c r="BK226" s="1"/>
       <c r="BL226" s="1"/>
       <c r="BM226" s="1"/>
-      <c r="BN226" s="45">
+      <c r="BN226" s="44">
         <v>-1000</v>
       </c>
-      <c r="BO226" s="45">
+      <c r="BO226" s="44">
         <v>1500</v>
       </c>
-      <c r="BP226" s="45">
+      <c r="BP226" s="44">
         <v>-500</v>
       </c>
       <c r="BQ226" s="9">
@@ -30586,23 +30656,23 @@
         <v>-1000</v>
       </c>
       <c r="BT226" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="BU226" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="BV226" s="1">
-        <f t="shared" ref="BV226" si="87">BN226*(-1)</f>
+        <f t="shared" ref="BV226" si="86">BN226*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BW226" s="1">
-        <f t="shared" ref="BW226" si="88">BO226*(-1)</f>
+        <f t="shared" ref="BW226" si="87">BO226*(-1)</f>
         <v>-1500</v>
       </c>
       <c r="BX226" s="1">
-        <f t="shared" ref="BX226" si="89">BP226*(-1)</f>
+        <f t="shared" ref="BX226" si="88">BP226*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY226" s="1"/>
@@ -30630,13 +30700,13 @@
       <c r="B227" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C227" s="32">
+      <c r="C227" s="47">
         <v>229</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="49">
         <v>1000000</v>
       </c>
-      <c r="E227" s="24" t="s">
+      <c r="E227" s="50" t="s">
         <v>102</v>
       </c>
       <c r="F227" s="1"/>
@@ -30699,13 +30769,13 @@
       <c r="BK227" s="1"/>
       <c r="BL227" s="1"/>
       <c r="BM227" s="1"/>
-      <c r="BN227" s="45">
+      <c r="BN227" s="44">
         <v>-1000</v>
       </c>
-      <c r="BO227" s="45">
+      <c r="BO227" s="44">
         <v>-1500</v>
       </c>
-      <c r="BP227" s="45">
+      <c r="BP227" s="44">
         <v>-500</v>
       </c>
       <c r="BQ227" s="9">
@@ -30718,23 +30788,23 @@
         <v>-1000</v>
       </c>
       <c r="BT227" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>1000</v>
       </c>
       <c r="BU227" s="1">
-        <f t="shared" ref="BU227" si="90">AVERAGE(BQ227,BR227,BS227)</f>
+        <f t="shared" ref="BU227" si="89">AVERAGE(BQ227,BR227,BS227)</f>
         <v>0</v>
       </c>
       <c r="BV227" s="1">
-        <f t="shared" ref="BV227" si="91">BN227*(-1)</f>
+        <f t="shared" ref="BV227" si="90">BN227*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BW227" s="1">
-        <f t="shared" ref="BW227" si="92">BO227*(-1)</f>
+        <f t="shared" ref="BW227" si="91">BO227*(-1)</f>
         <v>1500</v>
       </c>
       <c r="BX227" s="1">
-        <f t="shared" ref="BX227" si="93">BP227*(-1)</f>
+        <f t="shared" ref="BX227" si="92">BP227*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY227" s="1"/>
@@ -30750,7 +30820,7 @@
       <c r="CI227" s="1"/>
       <c r="CJ227" s="1"/>
       <c r="CK227" s="1"/>
-      <c r="CL227" s="37">
+      <c r="CL227" s="36">
         <v>1000000</v>
       </c>
       <c r="CM227" s="1" t="s">
@@ -30762,13 +30832,13 @@
       <c r="B228" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C228" s="32">
+      <c r="C228" s="47">
         <v>229</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E228" s="24" t="s">
+      <c r="E228" s="50" t="s">
         <v>103</v>
       </c>
       <c r="F228" s="1"/>
@@ -30831,13 +30901,13 @@
       <c r="BK228" s="1"/>
       <c r="BL228" s="1"/>
       <c r="BM228" s="1"/>
-      <c r="BN228" s="45">
+      <c r="BN228" s="44">
         <v>-1500</v>
       </c>
-      <c r="BO228" s="45">
+      <c r="BO228" s="44">
         <v>-800</v>
       </c>
-      <c r="BP228" s="45">
+      <c r="BP228" s="44">
         <v>-1200</v>
       </c>
       <c r="BQ228" s="9" t="s">
@@ -30850,22 +30920,22 @@
         <v>59</v>
       </c>
       <c r="BT228" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>1166.6666666666667</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BV228" s="1">
-        <f t="shared" ref="BV228" si="94">BN228*(-1)</f>
+        <f t="shared" ref="BV228" si="93">BN228*(-1)</f>
         <v>1500</v>
       </c>
       <c r="BW228" s="1">
-        <f t="shared" ref="BW228" si="95">BO228*(-1)</f>
+        <f t="shared" ref="BW228" si="94">BO228*(-1)</f>
         <v>800</v>
       </c>
       <c r="BX228" s="1">
-        <f t="shared" ref="BX228" si="96">BP228*(-1)</f>
+        <f t="shared" ref="BX228" si="95">BP228*(-1)</f>
         <v>1200</v>
       </c>
       <c r="BY228" s="1"/>
@@ -30893,13 +30963,13 @@
       <c r="B229" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C229" s="32">
+      <c r="C229" s="47">
         <v>229</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E229" s="24" t="s">
+      <c r="E229" s="50" t="s">
         <v>104</v>
       </c>
       <c r="F229" s="1"/>
@@ -30984,7 +31054,7 @@
         <v>59</v>
       </c>
       <c r="BU229" s="1">
-        <f t="shared" ref="BU229:BU235" si="97">AVERAGE(BQ229,BR229,BS229)</f>
+        <f t="shared" ref="BU229:BU235" si="96">AVERAGE(BQ229,BR229,BS229)</f>
         <v>950</v>
       </c>
       <c r="BV229" s="1" t="s">
@@ -31021,13 +31091,13 @@
       <c r="B230" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C230" s="32">
+      <c r="C230" s="47">
         <v>229</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E230" s="28" t="s">
+      <c r="E230" s="51" t="s">
         <v>100</v>
       </c>
       <c r="F230" s="1"/>
@@ -31090,13 +31160,13 @@
       <c r="BK230" s="1"/>
       <c r="BL230" s="1"/>
       <c r="BM230" s="1"/>
-      <c r="BN230" s="45">
+      <c r="BN230" s="44">
         <v>1000</v>
       </c>
-      <c r="BO230" s="45">
+      <c r="BO230" s="44">
         <v>1500</v>
       </c>
-      <c r="BP230" s="45">
+      <c r="BP230" s="44">
         <v>-500</v>
       </c>
       <c r="BQ230" s="9">
@@ -31109,23 +31179,23 @@
         <v>2000</v>
       </c>
       <c r="BT230" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-666.66666666666663</v>
       </c>
       <c r="BU230" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>2000</v>
       </c>
       <c r="BV230" s="1">
-        <f t="shared" ref="BV230" si="98">BN230*(-1)</f>
+        <f t="shared" ref="BV230" si="97">BN230*(-1)</f>
         <v>-1000</v>
       </c>
       <c r="BW230" s="1">
-        <f t="shared" ref="BW230" si="99">BO230*(-1)</f>
+        <f t="shared" ref="BW230" si="98">BO230*(-1)</f>
         <v>-1500</v>
       </c>
       <c r="BX230" s="1">
-        <f t="shared" ref="BX230" si="100">BP230*(-1)</f>
+        <f t="shared" ref="BX230" si="99">BP230*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY230" s="1"/>
@@ -31153,13 +31223,13 @@
       <c r="B231" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C231" s="32">
+      <c r="C231" s="47">
         <v>229</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="51" t="s">
         <v>114</v>
       </c>
       <c r="F231" s="1"/>
@@ -31222,13 +31292,13 @@
       <c r="BK231" s="1"/>
       <c r="BL231" s="1"/>
       <c r="BM231" s="1"/>
-      <c r="BN231" s="45">
+      <c r="BN231" s="44">
         <v>800</v>
       </c>
-      <c r="BO231" s="45">
+      <c r="BO231" s="44">
         <v>1500</v>
       </c>
-      <c r="BP231" s="45">
+      <c r="BP231" s="44">
         <v>-500</v>
       </c>
       <c r="BQ231" s="9">
@@ -31241,23 +31311,23 @@
         <v>2500</v>
       </c>
       <c r="BT231" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-600</v>
       </c>
       <c r="BU231" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>-833.33333333333337</v>
       </c>
       <c r="BV231" s="1">
-        <f t="shared" ref="BV231" si="101">BN231*(-1)</f>
+        <f t="shared" ref="BV231" si="100">BN231*(-1)</f>
         <v>-800</v>
       </c>
       <c r="BW231" s="1">
-        <f t="shared" ref="BW231" si="102">BO231*(-1)</f>
+        <f t="shared" ref="BW231" si="101">BO231*(-1)</f>
         <v>-1500</v>
       </c>
       <c r="BX231" s="1">
-        <f t="shared" ref="BX231" si="103">BP231*(-1)</f>
+        <f t="shared" ref="BX231" si="102">BP231*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY231" s="1"/>
@@ -31285,13 +31355,13 @@
       <c r="B232" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C232" s="32">
+      <c r="C232" s="47">
         <v>229</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="51" t="s">
         <v>100</v>
       </c>
       <c r="F232" s="1"/>
@@ -31354,13 +31424,13 @@
       <c r="BK232" s="1"/>
       <c r="BL232" s="1"/>
       <c r="BM232" s="1"/>
-      <c r="BN232" s="45">
+      <c r="BN232" s="44">
         <v>800</v>
       </c>
-      <c r="BO232" s="45">
+      <c r="BO232" s="44">
         <v>1500</v>
       </c>
-      <c r="BP232" s="45">
+      <c r="BP232" s="44">
         <v>500</v>
       </c>
       <c r="BQ232" s="9">
@@ -31373,23 +31443,23 @@
         <v>-2000</v>
       </c>
       <c r="BT232" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-933.33333333333337</v>
       </c>
       <c r="BU232" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BV232" s="1">
-        <f t="shared" ref="BV232" si="104">BN232*(-1)</f>
+        <f t="shared" ref="BV232" si="103">BN232*(-1)</f>
         <v>-800</v>
       </c>
       <c r="BW232" s="1">
-        <f t="shared" ref="BW232" si="105">BO232*(-1)</f>
+        <f t="shared" ref="BW232" si="104">BO232*(-1)</f>
         <v>-1500</v>
       </c>
       <c r="BX232" s="1">
-        <f t="shared" ref="BX232" si="106">BP232*(-1)</f>
+        <f t="shared" ref="BX232" si="105">BP232*(-1)</f>
         <v>-500</v>
       </c>
       <c r="BY232" s="1"/>
@@ -31417,13 +31487,13 @@
       <c r="B233" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C233" s="32">
+      <c r="C233" s="47">
         <v>229</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="51" t="s">
         <v>105</v>
       </c>
       <c r="F233" s="1"/>
@@ -31486,13 +31556,13 @@
       <c r="BK233" s="1"/>
       <c r="BL233" s="1"/>
       <c r="BM233" s="1"/>
-      <c r="BN233" s="45">
+      <c r="BN233" s="44">
         <v>-2000</v>
       </c>
-      <c r="BO233" s="45">
+      <c r="BO233" s="44">
         <v>-2000</v>
       </c>
-      <c r="BP233" s="45">
+      <c r="BP233" s="44">
         <v>-2000</v>
       </c>
       <c r="BQ233" s="9">
@@ -31505,23 +31575,23 @@
         <v>500</v>
       </c>
       <c r="BT233" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>2000</v>
       </c>
       <c r="BU233" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>-666.66666666666663</v>
       </c>
       <c r="BV233" s="1">
-        <f t="shared" ref="BV233" si="107">BN233*(-1)</f>
+        <f t="shared" ref="BV233" si="106">BN233*(-1)</f>
         <v>2000</v>
       </c>
       <c r="BW233" s="1">
-        <f t="shared" ref="BW233" si="108">BO233*(-1)</f>
+        <f t="shared" ref="BW233" si="107">BO233*(-1)</f>
         <v>2000</v>
       </c>
       <c r="BX233" s="1">
-        <f t="shared" ref="BX233" si="109">BP233*(-1)</f>
+        <f t="shared" ref="BX233" si="108">BP233*(-1)</f>
         <v>2000</v>
       </c>
       <c r="BY233" s="1"/>
@@ -31549,13 +31619,13 @@
       <c r="B234" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C234" s="32">
+      <c r="C234" s="47">
         <v>229</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="51" t="s">
         <v>114</v>
       </c>
       <c r="F234" s="1"/>
@@ -31618,13 +31688,13 @@
       <c r="BK234" s="1"/>
       <c r="BL234" s="1"/>
       <c r="BM234" s="1"/>
-      <c r="BN234" s="45">
+      <c r="BN234" s="44">
         <v>2500</v>
       </c>
-      <c r="BO234" s="45">
+      <c r="BO234" s="44">
         <v>2500</v>
       </c>
-      <c r="BP234" s="45">
+      <c r="BP234" s="44">
         <v>-2500</v>
       </c>
       <c r="BQ234" s="9">
@@ -31637,23 +31707,23 @@
         <v>500</v>
       </c>
       <c r="BT234" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-833.33333333333337</v>
       </c>
       <c r="BU234" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>-600</v>
       </c>
       <c r="BV234" s="1">
-        <f t="shared" ref="BV234" si="110">BN234*(-1)</f>
+        <f t="shared" ref="BV234" si="109">BN234*(-1)</f>
         <v>-2500</v>
       </c>
       <c r="BW234" s="1">
-        <f t="shared" ref="BW234" si="111">BO234*(-1)</f>
+        <f t="shared" ref="BW234" si="110">BO234*(-1)</f>
         <v>-2500</v>
       </c>
       <c r="BX234" s="1">
-        <f t="shared" ref="BX234" si="112">BP234*(-1)</f>
+        <f t="shared" ref="BX234" si="111">BP234*(-1)</f>
         <v>2500</v>
       </c>
       <c r="BY234" s="1"/>
@@ -31681,13 +31751,13 @@
       <c r="B235" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C235" s="32">
+      <c r="C235" s="47">
         <v>229</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="51" t="s">
         <v>105</v>
       </c>
       <c r="F235" s="1"/>
@@ -31750,13 +31820,13 @@
       <c r="BK235" s="1"/>
       <c r="BL235" s="1"/>
       <c r="BM235" s="1"/>
-      <c r="BN235" s="45">
+      <c r="BN235" s="44">
         <v>-1000</v>
       </c>
-      <c r="BO235" s="45">
+      <c r="BO235" s="44">
         <v>-1000</v>
       </c>
-      <c r="BP235" s="45">
+      <c r="BP235" s="44">
         <v>2000</v>
       </c>
       <c r="BQ235" s="9">
@@ -31769,23 +31839,23 @@
         <v>-500</v>
       </c>
       <c r="BT235" s="1">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="BU235" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>-933.33333333333337</v>
       </c>
       <c r="BV235" s="1">
-        <f t="shared" ref="BV235" si="113">BN235*(-1)</f>
+        <f t="shared" ref="BV235" si="112">BN235*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BW235" s="1">
-        <f t="shared" ref="BW235" si="114">BO235*(-1)</f>
+        <f t="shared" ref="BW235" si="113">BO235*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BX235" s="1">
-        <f t="shared" ref="BX235" si="115">BP235*(-1)</f>
+        <f t="shared" ref="BX235" si="114">BP235*(-1)</f>
         <v>-2000</v>
       </c>
       <c r="BY235" s="1"/>
@@ -31813,14 +31883,14 @@
       <c r="B236" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C236" s="32">
+      <c r="C236" s="47">
         <v>230</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="49">
         <f>AVERAGE((BE236-BV236),(BF236-BW236),(BG236-BX236))</f>
         <v>233.33333333333334</v>
       </c>
-      <c r="E236" s="1"/>
+      <c r="E236" s="49"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -31884,13 +31954,13 @@
       <c r="BH236" s="1"/>
       <c r="BI236" s="1"/>
       <c r="BJ236" s="1"/>
-      <c r="BK236" s="44">
+      <c r="BK236" s="43">
         <v>-800</v>
       </c>
-      <c r="BL236" s="44">
+      <c r="BL236" s="43">
         <v>-1000</v>
       </c>
-      <c r="BM236" s="44">
+      <c r="BM236" s="43">
         <v>-1000</v>
       </c>
       <c r="BN236" s="1"/>
@@ -31936,14 +32006,14 @@
       <c r="B237" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C237" s="32">
+      <c r="C237" s="47">
         <v>230</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="49">
         <f>AVERAGE((BE237-BV237))</f>
         <v>200</v>
       </c>
-      <c r="E237" s="1"/>
+      <c r="E237" s="49"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -32007,7 +32077,7 @@
       <c r="BH237" s="1"/>
       <c r="BI237" s="1"/>
       <c r="BJ237" s="1"/>
-      <c r="BK237" s="44">
+      <c r="BK237" s="43">
         <v>-800</v>
       </c>
       <c r="BL237" s="1" t="s">
@@ -32057,13 +32127,13 @@
       <c r="B238" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C238" s="32">
+      <c r="C238" s="47">
         <v>230</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="24" t="s">
+      <c r="E238" s="50" t="s">
         <v>99</v>
       </c>
       <c r="F238" s="1"/>
@@ -32180,14 +32250,14 @@
       <c r="B239" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C239" s="32">
+      <c r="C239" s="47">
         <v>230</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="49">
         <f>AVERAGE((BE239-BV239),(BF239-BW239),(BG239-BX239))</f>
         <v>1300</v>
       </c>
-      <c r="E239" s="1"/>
+      <c r="E239" s="49"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -32251,13 +32321,13 @@
       <c r="BH239" s="1"/>
       <c r="BI239" s="1"/>
       <c r="BJ239" s="1"/>
-      <c r="BK239" s="44">
+      <c r="BK239" s="43">
         <v>1200</v>
       </c>
-      <c r="BL239" s="44">
+      <c r="BL239" s="43">
         <v>-800</v>
       </c>
-      <c r="BM239" s="44">
+      <c r="BM239" s="43">
         <v>-700</v>
       </c>
       <c r="BN239" s="1"/>
@@ -32269,15 +32339,15 @@
       <c r="BT239" s="1"/>
       <c r="BU239" s="1"/>
       <c r="BV239" s="1">
-        <f t="shared" ref="BV239:BX240" si="116">BK239*(-1)</f>
+        <f t="shared" ref="BV239:BX240" si="115">BK239*(-1)</f>
         <v>-1200</v>
       </c>
       <c r="BW239" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>800</v>
       </c>
       <c r="BX239" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>700</v>
       </c>
       <c r="BY239" s="1"/>
@@ -32293,7 +32363,7 @@
       <c r="CI239" s="1"/>
       <c r="CJ239" s="1"/>
       <c r="CK239" s="1"/>
-      <c r="CL239" s="37">
+      <c r="CL239" s="36">
         <v>1300</v>
       </c>
       <c r="CM239" s="1"/>
@@ -32303,13 +32373,13 @@
       <c r="B240" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C240" s="32">
+      <c r="C240" s="47">
         <v>230</v>
       </c>
-      <c r="D240" s="35" t="s">
+      <c r="D240" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="E240" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F240" s="1"/>
@@ -32375,13 +32445,13 @@
       <c r="BH240" s="1"/>
       <c r="BI240" s="1"/>
       <c r="BJ240" s="1"/>
-      <c r="BK240" s="44">
+      <c r="BK240" s="43">
         <v>1200</v>
       </c>
-      <c r="BL240" s="44">
+      <c r="BL240" s="43">
         <v>-800</v>
       </c>
-      <c r="BM240" s="44">
+      <c r="BM240" s="43">
         <v>-700</v>
       </c>
       <c r="BN240" s="1"/>
@@ -32393,15 +32463,15 @@
       <c r="BT240" s="1"/>
       <c r="BU240" s="1"/>
       <c r="BV240" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>-1200</v>
       </c>
       <c r="BW240" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>800</v>
       </c>
       <c r="BX240" s="1">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>700</v>
       </c>
       <c r="BY240" s="1"/>
@@ -32417,7 +32487,7 @@
       <c r="CI240" s="1"/>
       <c r="CJ240" s="1"/>
       <c r="CK240" s="1"/>
-      <c r="CL240" s="41">
+      <c r="CL240" s="40">
         <v>-1300</v>
       </c>
       <c r="CM240" s="1" t="s">
@@ -32429,14 +32499,14 @@
       <c r="B241" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C241" s="32">
+      <c r="C241" s="47">
         <v>231</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="49">
         <f>AVERAGE((BH241-BV241),(BI241-BW241),(BJ241-BX241))</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="E241" s="1"/>
+      <c r="E241" s="49"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -32503,13 +32573,13 @@
       <c r="BK241" s="9"/>
       <c r="BL241" s="9"/>
       <c r="BM241" s="9"/>
-      <c r="BN241" s="45">
+      <c r="BN241" s="44">
         <v>-800</v>
       </c>
-      <c r="BO241" s="45">
+      <c r="BO241" s="44">
         <v>-900</v>
       </c>
-      <c r="BP241" s="45">
+      <c r="BP241" s="44">
         <v>-500</v>
       </c>
       <c r="BQ241" s="9"/>
@@ -32518,15 +32588,15 @@
       <c r="BT241" s="1"/>
       <c r="BU241" s="1"/>
       <c r="BV241" s="1">
-        <f t="shared" ref="BV241" si="117">BN241*(-1)</f>
+        <f t="shared" ref="BV241" si="116">BN241*(-1)</f>
         <v>800</v>
       </c>
       <c r="BW241" s="1">
-        <f t="shared" ref="BW241" si="118">BO241*(-1)</f>
+        <f t="shared" ref="BW241" si="117">BO241*(-1)</f>
         <v>900</v>
       </c>
       <c r="BX241" s="1">
-        <f t="shared" ref="BX241" si="119">BP241*(-1)</f>
+        <f t="shared" ref="BX241" si="118">BP241*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY241" s="1"/>
@@ -32542,7 +32612,7 @@
       <c r="CI241" s="1"/>
       <c r="CJ241" s="1"/>
       <c r="CK241" s="1"/>
-      <c r="CL241" s="37">
+      <c r="CL241" s="36">
         <v>433.33</v>
       </c>
       <c r="CM241" s="1"/>
@@ -32552,14 +32622,14 @@
       <c r="B242" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C242" s="32">
+      <c r="C242" s="47">
         <v>231</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="49">
         <f>AVERAGE((BH242-BV242))</f>
         <v>300</v>
       </c>
-      <c r="E242" s="1"/>
+      <c r="E242" s="49"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -32626,7 +32696,7 @@
       <c r="BK242" s="9"/>
       <c r="BL242" s="9"/>
       <c r="BM242" s="9"/>
-      <c r="BN242" s="45">
+      <c r="BN242" s="44">
         <v>-700</v>
       </c>
       <c r="BO242" s="9" t="s">
@@ -32641,7 +32711,7 @@
       <c r="BT242" s="1"/>
       <c r="BU242" s="1"/>
       <c r="BV242" s="1">
-        <f t="shared" ref="BV242" si="120">BN242*(-1)</f>
+        <f t="shared" ref="BV242" si="119">BN242*(-1)</f>
         <v>700</v>
       </c>
       <c r="BW242" s="1" t="s">
@@ -32663,7 +32733,7 @@
       <c r="CI242" s="1"/>
       <c r="CJ242" s="1"/>
       <c r="CK242" s="1"/>
-      <c r="CL242" s="37">
+      <c r="CL242" s="36">
         <v>300</v>
       </c>
       <c r="CM242" s="1"/>
@@ -32673,13 +32743,13 @@
       <c r="B243" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C243" s="32">
+      <c r="C243" s="47">
         <v>231</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E243" s="24" t="s">
+      <c r="E243" s="50" t="s">
         <v>99</v>
       </c>
       <c r="F243" s="1"/>
@@ -32796,14 +32866,14 @@
       <c r="B244" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C244" s="32">
+      <c r="C244" s="47">
         <v>231</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="49">
         <f>AVERAGE((BH244-BV244),(BI244-BW244),(BJ244-BX244))</f>
         <v>966.66666666666663</v>
       </c>
-      <c r="E244" s="1"/>
+      <c r="E244" s="49"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -32870,13 +32940,13 @@
       <c r="BK244" s="9"/>
       <c r="BL244" s="9"/>
       <c r="BM244" s="9"/>
-      <c r="BN244" s="45">
+      <c r="BN244" s="44">
         <v>800</v>
       </c>
-      <c r="BO244" s="45">
+      <c r="BO244" s="44">
         <v>-900</v>
       </c>
-      <c r="BP244" s="45">
+      <c r="BP244" s="44">
         <v>-500</v>
       </c>
       <c r="BQ244" s="1"/>
@@ -32885,15 +32955,15 @@
       <c r="BT244" s="1"/>
       <c r="BU244" s="1"/>
       <c r="BV244" s="1">
-        <f t="shared" ref="BV244" si="121">BN244*(-1)</f>
+        <f t="shared" ref="BV244" si="120">BN244*(-1)</f>
         <v>-800</v>
       </c>
       <c r="BW244" s="1">
-        <f t="shared" ref="BW244" si="122">BO244*(-1)</f>
+        <f t="shared" ref="BW244" si="121">BO244*(-1)</f>
         <v>900</v>
       </c>
       <c r="BX244" s="1">
-        <f t="shared" ref="BX244" si="123">BP244*(-1)</f>
+        <f t="shared" ref="BX244" si="122">BP244*(-1)</f>
         <v>500</v>
       </c>
       <c r="BY244" s="1"/>
@@ -32909,7 +32979,7 @@
       <c r="CI244" s="1"/>
       <c r="CJ244" s="1"/>
       <c r="CK244" s="1"/>
-      <c r="CL244" s="37">
+      <c r="CL244" s="36">
         <v>966.67</v>
       </c>
       <c r="CM244" s="1"/>
@@ -32919,13 +32989,13 @@
       <c r="B245" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C245" s="32">
+      <c r="C245" s="47">
         <v>231</v>
       </c>
-      <c r="D245" s="35" t="s">
+      <c r="D245" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E245" s="29" t="s">
+      <c r="E245" s="53" t="s">
         <v>100</v>
       </c>
       <c r="F245" s="1"/>
@@ -32994,13 +33064,13 @@
       <c r="BK245" s="9"/>
       <c r="BL245" s="9"/>
       <c r="BM245" s="9"/>
-      <c r="BN245" s="45">
+      <c r="BN245" s="44">
         <v>-1000</v>
       </c>
-      <c r="BO245" s="45">
+      <c r="BO245" s="44">
         <v>-1000</v>
       </c>
-      <c r="BP245" s="45">
+      <c r="BP245" s="44">
         <v>2000</v>
       </c>
       <c r="BQ245" s="1"/>
@@ -33009,15 +33079,15 @@
       <c r="BT245" s="1"/>
       <c r="BU245" s="1"/>
       <c r="BV245" s="1">
-        <f t="shared" ref="BV245" si="124">BN245*(-1)</f>
+        <f t="shared" ref="BV245" si="123">BN245*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BW245" s="1">
-        <f t="shared" ref="BW245" si="125">BO245*(-1)</f>
+        <f t="shared" ref="BW245" si="124">BO245*(-1)</f>
         <v>1000</v>
       </c>
       <c r="BX245" s="1">
-        <f t="shared" ref="BX245" si="126">BP245*(-1)</f>
+        <f t="shared" ref="BX245" si="125">BP245*(-1)</f>
         <v>-2000</v>
       </c>
       <c r="BY245" s="1"/>
@@ -33033,7 +33103,7 @@
       <c r="CI245" s="1"/>
       <c r="CJ245" s="1"/>
       <c r="CK245" s="1"/>
-      <c r="CL245" s="35">
+      <c r="CL245" s="34">
         <v>-400</v>
       </c>
       <c r="CM245" s="1" t="s">

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="369">
   <si>
     <t>SNDG</t>
   </si>
@@ -1105,12 +1105,6 @@
   </si>
   <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>CRZER004_1; CRZER004_2</t>
-  </si>
-  <si>
-    <t>BILFAM004_1; BILFAM004_2</t>
   </si>
   <si>
     <t>IMP_SALDO_CC_LT_0_M1</t>
@@ -1720,10 +1714,10 @@
   <dimension ref="A3:FI245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="M220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="CH217" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q228" sqref="Q228"/>
+      <selection pane="bottomRight" activeCell="CI240" sqref="CI240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,22 +1823,22 @@
         <v>21</v>
       </c>
       <c r="P3" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="S3" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T3" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>2</v>
@@ -6235,7 +6229,7 @@
       </c>
       <c r="CP41" s="1"/>
       <c r="CQ41" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,7 +6411,7 @@
       </c>
       <c r="CP42" s="1"/>
       <c r="CQ42" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6599,7 +6593,7 @@
       </c>
       <c r="CP43" s="1"/>
       <c r="CQ43" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6781,7 +6775,7 @@
       </c>
       <c r="CP44" s="1"/>
       <c r="CQ44" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6967,7 +6961,7 @@
         <v>69</v>
       </c>
       <c r="CQ45" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR45" s="3"/>
       <c r="CS45" s="3"/>
@@ -7159,7 +7153,7 @@
       </c>
       <c r="CP46" s="2"/>
       <c r="CQ46" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR46" s="3"/>
       <c r="CS46" s="3"/>
@@ -7351,7 +7345,7 @@
       </c>
       <c r="CP47" s="2"/>
       <c r="CQ47" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR47" s="3"/>
       <c r="CS47" s="3"/>
@@ -7541,7 +7535,7 @@
       </c>
       <c r="CP48" s="2"/>
       <c r="CQ48" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR48" s="3"/>
       <c r="CS48" s="3"/>
@@ -7733,7 +7727,7 @@
       </c>
       <c r="CP49" s="2"/>
       <c r="CQ49" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR49" s="3"/>
       <c r="CS49" s="3"/>
@@ -7925,7 +7919,7 @@
         <v>69</v>
       </c>
       <c r="CQ50" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR50" s="3"/>
       <c r="CS50" s="3"/>
@@ -8131,7 +8125,7 @@
       </c>
       <c r="CP51" s="31"/>
       <c r="CQ51" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR51" s="3"/>
       <c r="CS51" s="3"/>
@@ -8337,7 +8331,7 @@
       </c>
       <c r="CP52" s="31"/>
       <c r="CQ52" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR52" s="3"/>
       <c r="CS52" s="3"/>
@@ -8539,7 +8533,7 @@
       </c>
       <c r="CP53" s="31"/>
       <c r="CQ53" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR53" s="3"/>
       <c r="CS53" s="3"/>
@@ -8737,13 +8731,13 @@
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
       <c r="CO54" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP54" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ54" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR54" s="3"/>
       <c r="CS54" s="3"/>
@@ -8952,7 +8946,7 @@
         <v>88</v>
       </c>
       <c r="CQ55" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CR55" s="3"/>
       <c r="CS55" s="3"/>
@@ -9151,13 +9145,13 @@
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
       <c r="CO56" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP56" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ56" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="2:165" x14ac:dyDescent="0.2">
@@ -9290,13 +9284,13 @@
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
       <c r="CO57" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP57" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ57" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="2:165" x14ac:dyDescent="0.2">
@@ -9429,13 +9423,13 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP58" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ58" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="2:165" x14ac:dyDescent="0.2">
@@ -9574,11 +9568,13 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="31">
-        <v>0</v>
-      </c>
-      <c r="CP59" s="31"/>
+        <v>999999</v>
+      </c>
+      <c r="CP59" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ59" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="2:165" x14ac:dyDescent="0.25">
@@ -9719,7 +9715,7 @@
       </c>
       <c r="CP60" s="31"/>
       <c r="CQ60" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="2:165" x14ac:dyDescent="0.25">
@@ -9856,11 +9852,11 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="31">
-        <v>0.34620000000000001</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="CP61" s="31"/>
       <c r="CQ61" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="2:165" x14ac:dyDescent="0.25">
@@ -9997,11 +9993,11 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="31">
-        <v>0.34620000000000001</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="CP62" s="31"/>
       <c r="CQ62" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="2:165" x14ac:dyDescent="0.25">
@@ -10133,11 +10129,11 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="31">
-        <v>0.17860000000000001</v>
+        <v>0.17857142857142855</v>
       </c>
       <c r="CP63" s="31"/>
       <c r="CQ63" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="2:165" x14ac:dyDescent="0.25">
@@ -10273,7 +10269,7 @@
       </c>
       <c r="CP64" s="31"/>
       <c r="CQ64" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="2:95" x14ac:dyDescent="0.25">
@@ -10405,7 +10401,7 @@
       </c>
       <c r="CP65" s="31"/>
       <c r="CQ65" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="2:95" x14ac:dyDescent="0.25">
@@ -10533,13 +10529,13 @@
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
       <c r="CO66" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP66" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ66" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="2:95" x14ac:dyDescent="0.25">
@@ -10678,7 +10674,7 @@
         <v>88</v>
       </c>
       <c r="CQ67" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="2:95" x14ac:dyDescent="0.25">
@@ -10807,13 +10803,13 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP68" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ68" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="2:95" x14ac:dyDescent="0.2">
@@ -10946,13 +10942,13 @@
       <c r="CM69" s="1"/>
       <c r="CN69" s="1"/>
       <c r="CO69" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP69" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ69" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="2:95" x14ac:dyDescent="0.2">
@@ -11085,13 +11081,13 @@
       <c r="CM70" s="1"/>
       <c r="CN70" s="1"/>
       <c r="CO70" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP70" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ70" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="2:95" x14ac:dyDescent="0.2">
@@ -11230,11 +11226,13 @@
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
       <c r="CO71" s="31">
-        <v>0</v>
-      </c>
-      <c r="CP71" s="31"/>
+        <v>999999</v>
+      </c>
+      <c r="CP71" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ71" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="2:95" x14ac:dyDescent="0.25">
@@ -11375,7 +11373,7 @@
       </c>
       <c r="CP72" s="31"/>
       <c r="CQ72" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="2:95" x14ac:dyDescent="0.25">
@@ -11512,11 +11510,11 @@
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
       <c r="CO73" s="31">
-        <v>0.4138</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="CP73" s="31"/>
       <c r="CQ73" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="2:95" x14ac:dyDescent="0.25">
@@ -11653,11 +11651,11 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="31">
-        <v>0.34620000000000001</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="CP74" s="31"/>
       <c r="CQ74" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="2:95" x14ac:dyDescent="0.25">
@@ -11793,7 +11791,7 @@
       </c>
       <c r="CP75" s="31"/>
       <c r="CQ75" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="2:95" x14ac:dyDescent="0.25">
@@ -11929,7 +11927,7 @@
       </c>
       <c r="CP76" s="31"/>
       <c r="CQ76" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="2:95" x14ac:dyDescent="0.25">
@@ -12061,7 +12059,7 @@
       </c>
       <c r="CP77" s="31"/>
       <c r="CQ77" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="2:95" x14ac:dyDescent="0.25">
@@ -12189,13 +12187,13 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP78" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ78" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="2:95" x14ac:dyDescent="0.25">
@@ -12334,7 +12332,7 @@
         <v>88</v>
       </c>
       <c r="CQ79" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="2:95" x14ac:dyDescent="0.25">
@@ -12463,13 +12461,13 @@
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
       <c r="CO80" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP80" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ80" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="2:95" x14ac:dyDescent="0.2">
@@ -12602,13 +12600,13 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP81" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ81" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="2:95" x14ac:dyDescent="0.2">
@@ -12741,13 +12739,13 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP82" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ82" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="2:95" x14ac:dyDescent="0.2">
@@ -12886,11 +12884,13 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="31">
-        <v>0</v>
-      </c>
-      <c r="CP83" s="31"/>
+        <v>999999</v>
+      </c>
+      <c r="CP83" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ83" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="2:95" x14ac:dyDescent="0.25">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="CP84" s="31"/>
       <c r="CQ84" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="2:95" x14ac:dyDescent="0.25">
@@ -13168,11 +13168,11 @@
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
       <c r="CO85" s="31">
-        <v>0.47760000000000002</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="CP85" s="31"/>
       <c r="CQ85" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="2:95" x14ac:dyDescent="0.25">
@@ -13309,11 +13309,11 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="31">
-        <v>0.2041</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="CP86" s="31"/>
       <c r="CQ86" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="2:95" x14ac:dyDescent="0.25">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="CP87" s="31"/>
       <c r="CQ87" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="2:95" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="CP88" s="31"/>
       <c r="CQ88" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="2:95" x14ac:dyDescent="0.25">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="CP89" s="31"/>
       <c r="CQ89" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="2:95" x14ac:dyDescent="0.25">
@@ -13845,13 +13845,13 @@
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
       <c r="CO90" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP90" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ90" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="2:95" x14ac:dyDescent="0.25">
@@ -13990,7 +13990,7 @@
         <v>88</v>
       </c>
       <c r="CQ91" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="2:95" x14ac:dyDescent="0.25">
@@ -14119,13 +14119,13 @@
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
       <c r="CO92" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP92" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ92" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="2:95" x14ac:dyDescent="0.2">
@@ -14258,13 +14258,13 @@
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
       <c r="CO93" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP93" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ93" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="2:95" x14ac:dyDescent="0.2">
@@ -14397,13 +14397,13 @@
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
       <c r="CO94" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP94" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ94" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="2:95" x14ac:dyDescent="0.2">
@@ -14542,11 +14542,13 @@
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
       <c r="CO95" s="31">
-        <v>0</v>
-      </c>
-      <c r="CP95" s="31"/>
+        <v>999999</v>
+      </c>
+      <c r="CP95" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ95" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="2:95" x14ac:dyDescent="0.25">
@@ -14687,7 +14689,7 @@
       </c>
       <c r="CP96" s="31"/>
       <c r="CQ96" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="2:95" x14ac:dyDescent="0.25">
@@ -14824,11 +14826,11 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="31">
-        <v>0.47760000000000002</v>
+        <v>0.47761194029850745</v>
       </c>
       <c r="CP97" s="31"/>
       <c r="CQ97" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="2:95" x14ac:dyDescent="0.25">
@@ -14965,11 +14967,11 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="31">
-        <v>0.2041</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="CP98" s="31"/>
       <c r="CQ98" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="2:95" x14ac:dyDescent="0.25">
@@ -15103,7 +15105,7 @@
       </c>
       <c r="CP99" s="31"/>
       <c r="CQ99" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="2:95" x14ac:dyDescent="0.25">
@@ -15233,11 +15235,11 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="31">
-        <v>0.4</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="CP100" s="31"/>
       <c r="CQ100" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="2:95" x14ac:dyDescent="0.25">
@@ -15365,11 +15367,11 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="31">
-        <v>0.91669999999999996</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="CP101" s="31"/>
       <c r="CQ101" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="2:95" x14ac:dyDescent="0.2">
@@ -15495,13 +15497,13 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP102" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ102" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="2:95" x14ac:dyDescent="0.2">
@@ -15632,13 +15634,13 @@
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
       <c r="CO103" s="43">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
       <c r="CP103" s="31" t="s">
         <v>88</v>
       </c>
       <c r="CQ103" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="2:95" x14ac:dyDescent="0.2">
@@ -15768,14 +15770,14 @@
       <c r="CL104" s="1"/>
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
-      <c r="CO104" s="43" t="s">
-        <v>361</v>
+      <c r="CO104" s="43">
+        <v>1000000</v>
       </c>
       <c r="CP104" s="31" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="CQ104" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="2:95" x14ac:dyDescent="0.2">
@@ -15901,13 +15903,13 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP105" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ105" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="2:95" x14ac:dyDescent="0.2">
@@ -16034,13 +16036,13 @@
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
       <c r="CO106" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP106" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ106" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="2:95" x14ac:dyDescent="0.2">
@@ -16171,13 +16173,13 @@
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
       <c r="CO107" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP107" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ107" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="2:95" x14ac:dyDescent="0.2">
@@ -16308,13 +16310,13 @@
       <c r="CM108" s="1"/>
       <c r="CN108" s="1"/>
       <c r="CO108" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP108" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ108" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="2:95" x14ac:dyDescent="0.2">
@@ -16448,7 +16450,7 @@
       </c>
       <c r="CP109" s="31"/>
       <c r="CQ109" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="2:95" x14ac:dyDescent="0.2">
@@ -16578,11 +16580,11 @@
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
       <c r="CO110" s="31">
-        <v>0.4</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="CP110" s="31"/>
       <c r="CQ110" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="2:95" x14ac:dyDescent="0.2">
@@ -16714,7 +16716,7 @@
       </c>
       <c r="CP111" s="31"/>
       <c r="CQ111" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="2:95" x14ac:dyDescent="0.2">
@@ -16840,13 +16842,13 @@
       <c r="CM112" s="1"/>
       <c r="CN112" s="1"/>
       <c r="CO112" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP112" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ112" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="2:95" x14ac:dyDescent="0.2">
@@ -16977,13 +16979,13 @@
       <c r="CM113" s="1"/>
       <c r="CN113" s="1"/>
       <c r="CO113" s="43">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
       <c r="CP113" s="31" t="s">
         <v>88</v>
       </c>
       <c r="CQ113" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="114" spans="2:95" x14ac:dyDescent="0.2">
@@ -17113,14 +17115,14 @@
       <c r="CL114" s="1"/>
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
-      <c r="CO114" s="43" t="s">
-        <v>361</v>
+      <c r="CO114" s="43">
+        <v>1000000</v>
       </c>
       <c r="CP114" s="31" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="CQ114" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" spans="2:95" x14ac:dyDescent="0.2">
@@ -17246,13 +17248,13 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
       <c r="CO115" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP115" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ115" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="2:95" x14ac:dyDescent="0.2">
@@ -17379,13 +17381,13 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
       <c r="CO116" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP116" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ116" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="2:95" x14ac:dyDescent="0.2">
@@ -17516,13 +17518,13 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP117" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ117" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="2:95" x14ac:dyDescent="0.2">
@@ -17653,13 +17655,13 @@
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
       <c r="CO118" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP118" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ118" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="2:95" x14ac:dyDescent="0.2">
@@ -17780,11 +17782,11 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
       <c r="CO119" s="31">
-        <v>0.64580000000000004</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="CP119" s="31"/>
       <c r="CQ119" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="2:95" x14ac:dyDescent="0.2">
@@ -17905,11 +17907,11 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="31">
-        <v>0.92310000000000003</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="CP120" s="31"/>
       <c r="CQ120" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="2:95" x14ac:dyDescent="0.2">
@@ -18029,13 +18031,13 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP121" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ121" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="2:95" x14ac:dyDescent="0.25">
@@ -18163,7 +18165,7 @@
         <v>88</v>
       </c>
       <c r="CQ122" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="2:95" x14ac:dyDescent="0.25">
@@ -18291,7 +18293,7 @@
         <v>95</v>
       </c>
       <c r="CQ123" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="2:95" x14ac:dyDescent="0.25">
@@ -18412,13 +18414,13 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP124" s="31" t="s">
         <v>96</v>
       </c>
       <c r="CQ124" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="2:95" x14ac:dyDescent="0.25">
@@ -18539,13 +18541,13 @@
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
       <c r="CO125" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP125" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ125" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="2:95" x14ac:dyDescent="0.25">
@@ -18667,13 +18669,13 @@
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
       <c r="CO126" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP126" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ126" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="2:95" x14ac:dyDescent="0.25">
@@ -18795,13 +18797,13 @@
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
       <c r="CO127" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP127" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ127" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="2:95" x14ac:dyDescent="0.25">
@@ -18923,13 +18925,13 @@
       <c r="CM128" s="1"/>
       <c r="CN128" s="1"/>
       <c r="CO128" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP128" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ128" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="2:95" x14ac:dyDescent="0.25">
@@ -19051,13 +19053,13 @@
       <c r="CM129" s="1"/>
       <c r="CN129" s="1"/>
       <c r="CO129" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP129" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ129" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="2:95" x14ac:dyDescent="0.25">
@@ -19179,13 +19181,13 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP130" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ130" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="2:95" x14ac:dyDescent="0.25">
@@ -19307,13 +19309,13 @@
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
       <c r="CO131" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP131" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ131" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="2:95" x14ac:dyDescent="0.2">
@@ -19434,11 +19436,11 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
       <c r="CO132" s="31">
-        <v>0.82140000000000002</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="CP132" s="31"/>
       <c r="CQ132" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="2:95" x14ac:dyDescent="0.2">
@@ -19563,7 +19565,7 @@
       </c>
       <c r="CP133" s="31"/>
       <c r="CQ133" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="2:95" x14ac:dyDescent="0.2">
@@ -19683,13 +19685,13 @@
       <c r="CM134" s="1"/>
       <c r="CN134" s="1"/>
       <c r="CO134" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP134" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ134" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="2:95" x14ac:dyDescent="0.25">
@@ -19817,7 +19819,7 @@
         <v>88</v>
       </c>
       <c r="CQ135" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="2:95" x14ac:dyDescent="0.25">
@@ -19945,7 +19947,7 @@
         <v>95</v>
       </c>
       <c r="CQ136" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="2:95" x14ac:dyDescent="0.25">
@@ -20066,13 +20068,13 @@
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
       <c r="CO137" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP137" s="31" t="s">
         <v>96</v>
       </c>
       <c r="CQ137" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" spans="2:95" x14ac:dyDescent="0.25">
@@ -20193,13 +20195,13 @@
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
       <c r="CO138" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP138" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ138" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="2:95" x14ac:dyDescent="0.25">
@@ -20321,13 +20323,13 @@
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
       <c r="CO139" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP139" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ139" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="2:95" x14ac:dyDescent="0.25">
@@ -20449,13 +20451,13 @@
       <c r="CM140" s="1"/>
       <c r="CN140" s="1"/>
       <c r="CO140" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP140" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ140" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="2:95" x14ac:dyDescent="0.25">
@@ -20577,13 +20579,13 @@
       <c r="CM141" s="1"/>
       <c r="CN141" s="1"/>
       <c r="CO141" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP141" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ141" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="2:95" x14ac:dyDescent="0.25">
@@ -20705,13 +20707,13 @@
       <c r="CM142" s="1"/>
       <c r="CN142" s="1"/>
       <c r="CO142" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP142" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ142" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="143" spans="2:95" x14ac:dyDescent="0.25">
@@ -20833,13 +20835,13 @@
       <c r="CM143" s="1"/>
       <c r="CN143" s="1"/>
       <c r="CO143" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP143" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ143" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="2:95" x14ac:dyDescent="0.25">
@@ -20961,13 +20963,13 @@
       <c r="CM144" s="1"/>
       <c r="CN144" s="1"/>
       <c r="CO144" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP144" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ144" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="2:95" x14ac:dyDescent="0.25">
@@ -21088,11 +21090,11 @@
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
       <c r="CO145" s="31">
-        <v>1.2142999999999999</v>
+        <v>1.2142857142857142</v>
       </c>
       <c r="CP145" s="31"/>
       <c r="CQ145" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="2:95" x14ac:dyDescent="0.25">
@@ -21217,7 +21219,7 @@
       </c>
       <c r="CP146" s="31"/>
       <c r="CQ146" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="147" spans="2:95" x14ac:dyDescent="0.2">
@@ -21337,13 +21339,13 @@
       <c r="CM147" s="1"/>
       <c r="CN147" s="1"/>
       <c r="CO147" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP147" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ147" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="2:95" x14ac:dyDescent="0.25">
@@ -21471,7 +21473,7 @@
         <v>88</v>
       </c>
       <c r="CQ148" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="149" spans="2:95" x14ac:dyDescent="0.25">
@@ -21599,7 +21601,7 @@
         <v>95</v>
       </c>
       <c r="CQ149" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="150" spans="2:95" x14ac:dyDescent="0.25">
@@ -21720,13 +21722,13 @@
       <c r="CM150" s="1"/>
       <c r="CN150" s="1"/>
       <c r="CO150" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP150" s="31" t="s">
         <v>96</v>
       </c>
       <c r="CQ150" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="2:95" x14ac:dyDescent="0.25">
@@ -21847,13 +21849,13 @@
       <c r="CM151" s="1"/>
       <c r="CN151" s="1"/>
       <c r="CO151" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP151" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ151" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="2:95" x14ac:dyDescent="0.25">
@@ -21975,13 +21977,13 @@
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
       <c r="CO152" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP152" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ152" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="2:95" x14ac:dyDescent="0.25">
@@ -22103,13 +22105,13 @@
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
       <c r="CO153" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP153" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ153" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="2:95" x14ac:dyDescent="0.25">
@@ -22231,13 +22233,13 @@
       <c r="CM154" s="1"/>
       <c r="CN154" s="1"/>
       <c r="CO154" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP154" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ154" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="2:95" x14ac:dyDescent="0.25">
@@ -22359,13 +22361,13 @@
       <c r="CM155" s="1"/>
       <c r="CN155" s="1"/>
       <c r="CO155" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP155" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ155" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="2:95" x14ac:dyDescent="0.25">
@@ -22487,13 +22489,13 @@
       <c r="CM156" s="1"/>
       <c r="CN156" s="1"/>
       <c r="CO156" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP156" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ156" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="2:95" x14ac:dyDescent="0.25">
@@ -22615,13 +22617,13 @@
       <c r="CM157" s="1"/>
       <c r="CN157" s="1"/>
       <c r="CO157" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP157" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ157" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="2:95" x14ac:dyDescent="0.25">
@@ -22742,11 +22744,11 @@
       <c r="CM158" s="1"/>
       <c r="CN158" s="1"/>
       <c r="CO158" s="31">
-        <v>0.94289999999999996</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="CP158" s="31"/>
       <c r="CQ158" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="2:95" x14ac:dyDescent="0.25">
@@ -22871,7 +22873,7 @@
       </c>
       <c r="CP159" s="31"/>
       <c r="CQ159" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="2:95" x14ac:dyDescent="0.25">
@@ -22992,11 +22994,11 @@
       <c r="CM160" s="1"/>
       <c r="CN160" s="1"/>
       <c r="CO160" s="31">
-        <v>1.3635999999999999</v>
+        <v>1.3636363636363635</v>
       </c>
       <c r="CP160" s="31"/>
       <c r="CQ160" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="2:95" x14ac:dyDescent="0.2">
@@ -23116,13 +23118,13 @@
       <c r="CM161" s="1"/>
       <c r="CN161" s="1"/>
       <c r="CO161" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP161" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ161" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="2:95" x14ac:dyDescent="0.25">
@@ -23250,7 +23252,7 @@
         <v>88</v>
       </c>
       <c r="CQ162" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="2:95" x14ac:dyDescent="0.25">
@@ -23378,7 +23380,7 @@
         <v>95</v>
       </c>
       <c r="CQ163" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="2:95" x14ac:dyDescent="0.25">
@@ -23499,13 +23501,13 @@
       <c r="CM164" s="1"/>
       <c r="CN164" s="1"/>
       <c r="CO164" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP164" s="31" t="s">
         <v>96</v>
       </c>
       <c r="CQ164" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="2:95" x14ac:dyDescent="0.25">
@@ -23626,13 +23628,13 @@
       <c r="CM165" s="1"/>
       <c r="CN165" s="1"/>
       <c r="CO165" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP165" s="31" t="s">
         <v>90</v>
       </c>
       <c r="CQ165" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="2:95" x14ac:dyDescent="0.25">
@@ -23754,13 +23756,13 @@
       <c r="CM166" s="1"/>
       <c r="CN166" s="1"/>
       <c r="CO166" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP166" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ166" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="2:95" x14ac:dyDescent="0.25">
@@ -23882,13 +23884,13 @@
       <c r="CM167" s="1"/>
       <c r="CN167" s="1"/>
       <c r="CO167" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP167" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ167" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="2:95" x14ac:dyDescent="0.25">
@@ -24010,13 +24012,13 @@
       <c r="CM168" s="1"/>
       <c r="CN168" s="1"/>
       <c r="CO168" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP168" s="31" t="s">
         <v>97</v>
       </c>
       <c r="CQ168" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="2:95" x14ac:dyDescent="0.25">
@@ -24138,13 +24140,13 @@
       <c r="CM169" s="1"/>
       <c r="CN169" s="1"/>
       <c r="CO169" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP169" s="31" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="CQ169" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="2:95" x14ac:dyDescent="0.25">
@@ -24266,13 +24268,13 @@
       <c r="CM170" s="1"/>
       <c r="CN170" s="1"/>
       <c r="CO170" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP170" s="31" t="s">
         <v>91</v>
       </c>
       <c r="CQ170" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="171" spans="2:95" x14ac:dyDescent="0.25">
@@ -24393,12 +24395,14 @@
       <c r="CL171" s="1"/>
       <c r="CM171" s="1"/>
       <c r="CN171" s="1"/>
-      <c r="CO171" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CP171" s="31"/>
+      <c r="CO171" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP171" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="CQ171" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="172" spans="2:95" x14ac:dyDescent="0.25">
@@ -24519,11 +24523,11 @@
       <c r="CM172" s="1"/>
       <c r="CN172" s="1"/>
       <c r="CO172" s="31">
-        <v>1.0529999999999999</v>
+        <v>1.0529032258064519</v>
       </c>
       <c r="CP172" s="31"/>
       <c r="CQ172" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="173" spans="2:95" x14ac:dyDescent="0.25">
@@ -24648,7 +24652,7 @@
       </c>
       <c r="CP173" s="31"/>
       <c r="CQ173" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="2:95" x14ac:dyDescent="0.25">
@@ -24768,13 +24772,13 @@
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
       <c r="CO174" s="31" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="CP174" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ174" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="175" spans="2:95" x14ac:dyDescent="0.25">
@@ -24893,14 +24897,14 @@
       <c r="CL175" s="1"/>
       <c r="CM175" s="1"/>
       <c r="CN175" s="1"/>
-      <c r="CO175" s="31" t="s">
-        <v>361</v>
+      <c r="CO175" s="31">
+        <v>0</v>
       </c>
       <c r="CP175" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CQ175" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="2:95" x14ac:dyDescent="0.25">
@@ -25021,13 +25025,13 @@
       <c r="CM176" s="1"/>
       <c r="CN176" s="1"/>
       <c r="CO176" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP176" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CQ176" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="177" spans="2:95" x14ac:dyDescent="0.25">
@@ -25148,13 +25152,13 @@
       <c r="CM177" s="1"/>
       <c r="CN177" s="1"/>
       <c r="CO177" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP177" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CQ177" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" spans="2:95" x14ac:dyDescent="0.25">
@@ -25275,14 +25279,14 @@
       <c r="CL178" s="1"/>
       <c r="CM178" s="1"/>
       <c r="CN178" s="1"/>
-      <c r="CO178" s="43">
-        <v>1000000</v>
+      <c r="CO178" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="CP178" s="31" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="CQ178" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" spans="2:95" x14ac:dyDescent="0.25">
@@ -25403,11 +25407,11 @@
       <c r="CM179" s="1"/>
       <c r="CN179" s="1"/>
       <c r="CO179" s="31">
-        <v>1.329</v>
+        <v>1.3352490421455938</v>
       </c>
       <c r="CP179" s="31"/>
       <c r="CQ179" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" spans="2:95" x14ac:dyDescent="0.25">
@@ -25532,7 +25536,7 @@
       </c>
       <c r="CP180" s="31"/>
       <c r="CQ180" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="2:95" x14ac:dyDescent="0.25">
@@ -25652,13 +25656,13 @@
       <c r="CM181" s="1"/>
       <c r="CN181" s="1"/>
       <c r="CO181" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP181" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ181" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="182" spans="2:95" x14ac:dyDescent="0.25">
@@ -25777,14 +25781,14 @@
       <c r="CL182" s="1"/>
       <c r="CM182" s="1"/>
       <c r="CN182" s="1"/>
-      <c r="CO182" s="31" t="s">
-        <v>361</v>
+      <c r="CO182" s="31">
+        <v>0</v>
       </c>
       <c r="CP182" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CQ182" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="183" spans="2:95" x14ac:dyDescent="0.25">
@@ -25905,13 +25909,13 @@
       <c r="CM183" s="1"/>
       <c r="CN183" s="1"/>
       <c r="CO183" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP183" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CQ183" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="184" spans="2:95" x14ac:dyDescent="0.25">
@@ -26032,13 +26036,13 @@
       <c r="CM184" s="1"/>
       <c r="CN184" s="1"/>
       <c r="CO184" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP184" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CQ184" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="185" spans="2:95" x14ac:dyDescent="0.2">
@@ -26159,14 +26163,14 @@
       <c r="CL185" s="1"/>
       <c r="CM185" s="1"/>
       <c r="CN185" s="1"/>
-      <c r="CO185" s="43">
-        <v>1000000</v>
+      <c r="CO185" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="CP185" s="31" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="CQ185" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" spans="2:95" x14ac:dyDescent="0.25">
@@ -26287,11 +26291,11 @@
       <c r="CM186" s="1"/>
       <c r="CN186" s="1"/>
       <c r="CO186" s="31">
-        <v>1.1109</v>
+        <v>1.103787878787879</v>
       </c>
       <c r="CP186" s="31"/>
       <c r="CQ186" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187" spans="2:95" x14ac:dyDescent="0.25">
@@ -26412,11 +26416,11 @@
       <c r="CM187" s="1"/>
       <c r="CN187" s="1"/>
       <c r="CO187" s="31">
-        <v>0.99429999999999996</v>
+        <v>1</v>
       </c>
       <c r="CP187" s="31"/>
       <c r="CQ187" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="2:95" x14ac:dyDescent="0.25">
@@ -26536,13 +26540,13 @@
       <c r="CM188" s="1"/>
       <c r="CN188" s="1"/>
       <c r="CO188" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP188" s="31" t="s">
         <v>89</v>
       </c>
       <c r="CQ188" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="189" spans="2:95" x14ac:dyDescent="0.25">
@@ -26661,14 +26665,14 @@
       <c r="CL189" s="1"/>
       <c r="CM189" s="1"/>
       <c r="CN189" s="1"/>
-      <c r="CO189" s="31" t="s">
-        <v>361</v>
+      <c r="CO189" s="31">
+        <v>0</v>
       </c>
       <c r="CP189" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="CQ189" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="2:95" x14ac:dyDescent="0.25">
@@ -26789,13 +26793,13 @@
       <c r="CM190" s="1"/>
       <c r="CN190" s="1"/>
       <c r="CO190" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP190" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CQ190" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="191" spans="2:95" x14ac:dyDescent="0.25">
@@ -26916,13 +26920,13 @@
       <c r="CM191" s="1"/>
       <c r="CN191" s="1"/>
       <c r="CO191" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP191" s="31" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CQ191" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="2:95" x14ac:dyDescent="0.25">
@@ -27043,14 +27047,14 @@
       <c r="CL192" s="1"/>
       <c r="CM192" s="1"/>
       <c r="CN192" s="1"/>
-      <c r="CO192" s="43">
-        <v>1000000</v>
+      <c r="CO192" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="CP192" s="31" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="CQ192" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="193" spans="2:95" x14ac:dyDescent="0.25">
@@ -27159,11 +27163,11 @@
       <c r="CM193" s="1"/>
       <c r="CN193" s="1"/>
       <c r="CO193" s="43">
-        <v>5500</v>
+        <v>1833.3333333333333</v>
       </c>
       <c r="CP193" s="31"/>
       <c r="CQ193" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="2:95" x14ac:dyDescent="0.25">
@@ -27276,7 +27280,7 @@
       </c>
       <c r="CP194" s="31"/>
       <c r="CQ194" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="2:95" x14ac:dyDescent="0.25">
@@ -27385,11 +27389,11 @@
       <c r="CM195" s="1"/>
       <c r="CN195" s="1"/>
       <c r="CO195" s="43">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="CP195" s="31"/>
       <c r="CQ195" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="2:95" x14ac:dyDescent="0.25">
@@ -27498,14 +27502,14 @@
       <c r="CL196" s="1"/>
       <c r="CM196" s="1"/>
       <c r="CN196" s="1"/>
-      <c r="CO196" s="31">
-        <v>0</v>
+      <c r="CO196" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="CP196" s="31" t="s">
         <v>99</v>
       </c>
       <c r="CQ196" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="2:95" x14ac:dyDescent="0.25">
@@ -27614,14 +27618,14 @@
       <c r="CL197" s="1"/>
       <c r="CM197" s="1"/>
       <c r="CN197" s="1"/>
-      <c r="CO197" s="43">
-        <v>-1000</v>
+      <c r="CO197" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="CP197" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ197" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="2:95" x14ac:dyDescent="0.25">
@@ -27742,7 +27746,7 @@
       </c>
       <c r="CP198" s="31"/>
       <c r="CQ198" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="2:95" x14ac:dyDescent="0.25">
@@ -27861,7 +27865,7 @@
       </c>
       <c r="CP199" s="31"/>
       <c r="CQ199" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="200" spans="2:95" x14ac:dyDescent="0.25">
@@ -27981,7 +27985,7 @@
       </c>
       <c r="CP200" s="31"/>
       <c r="CQ200" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="201" spans="2:95" x14ac:dyDescent="0.25">
@@ -28103,7 +28107,7 @@
         <v>99</v>
       </c>
       <c r="CQ201" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="202" spans="2:95" x14ac:dyDescent="0.25">
@@ -28220,11 +28224,11 @@
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
       <c r="CO202" s="31">
-        <v>-933.33</v>
+        <v>933.33</v>
       </c>
       <c r="CP202" s="31"/>
       <c r="CQ202" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="203" spans="2:95" x14ac:dyDescent="0.25">
@@ -28345,7 +28349,7 @@
       </c>
       <c r="CP203" s="31"/>
       <c r="CQ203" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="2:95" x14ac:dyDescent="0.25">
@@ -28464,7 +28468,7 @@
       </c>
       <c r="CP204" s="31"/>
       <c r="CQ204" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="2:95" x14ac:dyDescent="0.25">
@@ -28584,7 +28588,7 @@
       </c>
       <c r="CP205" s="31"/>
       <c r="CQ205" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206" spans="2:95" x14ac:dyDescent="0.25">
@@ -28706,7 +28710,7 @@
         <v>99</v>
       </c>
       <c r="CQ206" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="2:95" x14ac:dyDescent="0.25">
@@ -28823,13 +28827,11 @@
       <c r="CM207" s="1"/>
       <c r="CN207" s="1"/>
       <c r="CO207" s="31">
-        <v>-966.67</v>
-      </c>
-      <c r="CP207" s="31" t="s">
-        <v>100</v>
-      </c>
+        <v>966.67</v>
+      </c>
+      <c r="CP207" s="31"/>
       <c r="CQ207" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="2:95" x14ac:dyDescent="0.25">
@@ -28963,7 +28965,7 @@
       </c>
       <c r="CP208" s="31"/>
       <c r="CQ208" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="209" spans="2:95" x14ac:dyDescent="0.25">
@@ -29091,11 +29093,11 @@
       <c r="CM209" s="1"/>
       <c r="CN209" s="1"/>
       <c r="CO209" s="31">
-        <v>0.5333</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="CP209" s="31"/>
       <c r="CQ209" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="210" spans="2:95" x14ac:dyDescent="0.25">
@@ -29228,7 +29230,7 @@
       </c>
       <c r="CP210" s="31"/>
       <c r="CQ210" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="2:95" x14ac:dyDescent="0.25">
@@ -29354,13 +29356,13 @@
       <c r="CM211" s="1"/>
       <c r="CN211" s="1"/>
       <c r="CO211" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP211" s="31" t="s">
         <v>99</v>
       </c>
       <c r="CQ211" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="2:95" x14ac:dyDescent="0.25">
@@ -29497,7 +29499,7 @@
         <v>101</v>
       </c>
       <c r="CQ212" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="2:95" x14ac:dyDescent="0.25">
@@ -29634,7 +29636,7 @@
         <v>102</v>
       </c>
       <c r="CQ213" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="214" spans="2:95" x14ac:dyDescent="0.25">
@@ -29764,13 +29766,13 @@
       <c r="CM214" s="1"/>
       <c r="CN214" s="1"/>
       <c r="CO214" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP214" s="31" t="s">
         <v>103</v>
       </c>
       <c r="CQ214" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="2:95" x14ac:dyDescent="0.25">
@@ -29897,13 +29899,13 @@
       <c r="CM215" s="1"/>
       <c r="CN215" s="1"/>
       <c r="CO215" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP215" s="31" t="s">
         <v>104</v>
       </c>
       <c r="CQ215" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="2:95" x14ac:dyDescent="0.25">
@@ -30034,13 +30036,13 @@
       <c r="CM216" s="1"/>
       <c r="CN216" s="1"/>
       <c r="CO216" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP216" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ216" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="2:95" x14ac:dyDescent="0.25">
@@ -30171,13 +30173,13 @@
       <c r="CM217" s="1"/>
       <c r="CN217" s="1"/>
       <c r="CO217" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP217" s="31" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="CQ217" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="2:95" x14ac:dyDescent="0.25">
@@ -30308,13 +30310,13 @@
       <c r="CM218" s="1"/>
       <c r="CN218" s="1"/>
       <c r="CO218" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP218" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ218" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="2:95" x14ac:dyDescent="0.25">
@@ -30445,13 +30447,13 @@
       <c r="CM219" s="1"/>
       <c r="CN219" s="1"/>
       <c r="CO219" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP219" s="31" t="s">
         <v>105</v>
       </c>
       <c r="CQ219" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="220" spans="2:95" x14ac:dyDescent="0.25">
@@ -30582,13 +30584,13 @@
       <c r="CM220" s="1"/>
       <c r="CN220" s="1"/>
       <c r="CO220" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP220" s="31" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="CQ220" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="2:95" x14ac:dyDescent="0.25">
@@ -30719,13 +30721,13 @@
       <c r="CM221" s="1"/>
       <c r="CN221" s="1"/>
       <c r="CO221" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP221" s="31" t="s">
         <v>105</v>
       </c>
       <c r="CQ221" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="222" spans="2:95" x14ac:dyDescent="0.25">
@@ -30859,7 +30861,7 @@
       </c>
       <c r="CP222" s="31"/>
       <c r="CQ222" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="223" spans="2:95" x14ac:dyDescent="0.25">
@@ -30991,7 +30993,7 @@
       </c>
       <c r="CP223" s="31"/>
       <c r="CQ223" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="2:95" x14ac:dyDescent="0.25">
@@ -31124,7 +31126,7 @@
       </c>
       <c r="CP224" s="31"/>
       <c r="CQ224" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="225" spans="2:95" x14ac:dyDescent="0.25">
@@ -31250,13 +31252,13 @@
       <c r="CM225" s="1"/>
       <c r="CN225" s="1"/>
       <c r="CO225" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP225" s="31" t="s">
         <v>99</v>
       </c>
       <c r="CQ225" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="2:95" x14ac:dyDescent="0.25">
@@ -31387,13 +31389,13 @@
       <c r="CM226" s="1"/>
       <c r="CN226" s="1"/>
       <c r="CO226" s="31">
-        <v>0</v>
+        <v>999999</v>
       </c>
       <c r="CP226" s="31" t="s">
         <v>101</v>
       </c>
       <c r="CQ226" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="227" spans="2:95" x14ac:dyDescent="0.25">
@@ -31530,7 +31532,7 @@
         <v>102</v>
       </c>
       <c r="CQ227" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="228" spans="2:95" x14ac:dyDescent="0.25">
@@ -31660,13 +31662,13 @@
       <c r="CM228" s="1"/>
       <c r="CN228" s="1"/>
       <c r="CO228" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP228" s="31" t="s">
         <v>103</v>
       </c>
       <c r="CQ228" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="229" spans="2:95" x14ac:dyDescent="0.25">
@@ -31793,13 +31795,13 @@
       <c r="CM229" s="1"/>
       <c r="CN229" s="1"/>
       <c r="CO229" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP229" s="31" t="s">
         <v>104</v>
       </c>
       <c r="CQ229" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="230" spans="2:95" x14ac:dyDescent="0.25">
@@ -31930,13 +31932,13 @@
       <c r="CM230" s="1"/>
       <c r="CN230" s="1"/>
       <c r="CO230" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP230" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ230" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="231" spans="2:95" x14ac:dyDescent="0.25">
@@ -32067,13 +32069,13 @@
       <c r="CM231" s="1"/>
       <c r="CN231" s="1"/>
       <c r="CO231" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP231" s="31" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="CQ231" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="232" spans="2:95" x14ac:dyDescent="0.25">
@@ -32204,13 +32206,13 @@
       <c r="CM232" s="1"/>
       <c r="CN232" s="1"/>
       <c r="CO232" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP232" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ232" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="233" spans="2:95" x14ac:dyDescent="0.25">
@@ -32341,13 +32343,13 @@
       <c r="CM233" s="1"/>
       <c r="CN233" s="1"/>
       <c r="CO233" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP233" s="31" t="s">
         <v>105</v>
       </c>
       <c r="CQ233" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="234" spans="2:95" x14ac:dyDescent="0.25">
@@ -32478,13 +32480,13 @@
       <c r="CM234" s="1"/>
       <c r="CN234" s="1"/>
       <c r="CO234" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP234" s="31" t="s">
-        <v>363</v>
+        <v>114</v>
       </c>
       <c r="CQ234" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="235" spans="2:95" x14ac:dyDescent="0.25">
@@ -32615,13 +32617,13 @@
       <c r="CM235" s="1"/>
       <c r="CN235" s="1"/>
       <c r="CO235" s="31" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
       <c r="CP235" s="31" t="s">
         <v>105</v>
       </c>
       <c r="CQ235" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="236" spans="2:95" x14ac:dyDescent="0.25">
@@ -32745,11 +32747,11 @@
       <c r="CM236" s="1"/>
       <c r="CN236" s="1"/>
       <c r="CO236" s="31">
-        <v>233.33</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="CP236" s="31"/>
       <c r="CQ236" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="2:95" x14ac:dyDescent="0.25">
@@ -32875,7 +32877,7 @@
       </c>
       <c r="CP237" s="31"/>
       <c r="CQ237" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="2:95" x14ac:dyDescent="0.25">
@@ -32997,13 +32999,13 @@
       <c r="CM238" s="1"/>
       <c r="CN238" s="1"/>
       <c r="CO238" s="31" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="CP238" s="31" t="s">
         <v>99</v>
       </c>
       <c r="CQ238" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="239" spans="2:95" x14ac:dyDescent="0.25">
@@ -33131,7 +33133,7 @@
       </c>
       <c r="CP239" s="31"/>
       <c r="CQ239" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="240" spans="2:95" x14ac:dyDescent="0.2">
@@ -33255,14 +33257,14 @@
       <c r="CL240" s="1"/>
       <c r="CM240" s="1"/>
       <c r="CN240" s="1"/>
-      <c r="CO240" s="43">
-        <v>-1300</v>
+      <c r="CO240" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="CP240" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ240" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="241" spans="2:95" x14ac:dyDescent="0.25">
@@ -33386,11 +33388,11 @@
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
       <c r="CO241" s="43">
-        <v>433.33</v>
+        <v>433.33333333333331</v>
       </c>
       <c r="CP241" s="31"/>
       <c r="CQ241" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="242" spans="2:95" x14ac:dyDescent="0.25">
@@ -33516,7 +33518,7 @@
       </c>
       <c r="CP242" s="31"/>
       <c r="CQ242" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="243" spans="2:95" x14ac:dyDescent="0.25">
@@ -33638,13 +33640,13 @@
       <c r="CM243" s="1"/>
       <c r="CN243" s="1"/>
       <c r="CO243" s="31" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="CP243" s="31" t="s">
         <v>99</v>
       </c>
       <c r="CQ243" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="244" spans="2:95" x14ac:dyDescent="0.25">
@@ -33768,11 +33770,11 @@
       <c r="CM244" s="1"/>
       <c r="CN244" s="1"/>
       <c r="CO244" s="43">
-        <v>966.67</v>
+        <v>966.66666666666663</v>
       </c>
       <c r="CP244" s="31"/>
       <c r="CQ244" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="245" spans="2:95" x14ac:dyDescent="0.2">
@@ -33896,14 +33898,14 @@
       <c r="CL245" s="1"/>
       <c r="CM245" s="1"/>
       <c r="CN245" s="1"/>
-      <c r="CO245" s="31">
-        <v>-400</v>
+      <c r="CO245" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="CP245" s="31" t="s">
         <v>100</v>
       </c>
       <c r="CQ245" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="369">
   <si>
     <t>SNDG</t>
   </si>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1258,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,9 +1392,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1713,72 +1719,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:FI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="CH217" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AH70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CI240" sqref="CI240"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89:E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="3" customWidth="1"/>
-    <col min="17" max="18" width="19.5703125" style="3" customWidth="1"/>
-    <col min="19" max="21" width="23.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="22.140625" style="3" customWidth="1"/>
-    <col min="28" max="41" width="25.140625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="28.28515625" style="3" customWidth="1"/>
-    <col min="43" max="43" width="27.85546875" style="3" customWidth="1"/>
-    <col min="44" max="45" width="28.28515625" style="3" customWidth="1"/>
-    <col min="46" max="46" width="27.85546875" style="3" customWidth="1"/>
-    <col min="47" max="47" width="28.28515625" style="3" customWidth="1"/>
-    <col min="48" max="65" width="25.140625" style="3" customWidth="1"/>
-    <col min="66" max="66" width="21.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.44140625" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="19.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="23.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="24.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5546875" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="24.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="22.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="21.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="22.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="33" width="25.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="41" width="25.109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="28.33203125" style="3" customWidth="1"/>
+    <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
+    <col min="44" max="45" width="28.33203125" style="3" customWidth="1"/>
+    <col min="46" max="46" width="27.88671875" style="3" customWidth="1"/>
+    <col min="47" max="47" width="28.33203125" style="3" customWidth="1"/>
+    <col min="48" max="65" width="25.109375" style="3" customWidth="1"/>
+    <col min="66" max="66" width="21.33203125" style="3" customWidth="1"/>
     <col min="67" max="67" width="21" style="3" customWidth="1"/>
-    <col min="68" max="68" width="21.28515625" style="3" customWidth="1"/>
+    <col min="68" max="68" width="21.33203125" style="3" customWidth="1"/>
     <col min="69" max="69" width="19" style="3" customWidth="1"/>
-    <col min="70" max="70" width="18.7109375" style="3" customWidth="1"/>
+    <col min="70" max="70" width="18.6640625" style="3" customWidth="1"/>
     <col min="71" max="72" width="19" style="3" customWidth="1"/>
-    <col min="73" max="73" width="17.85546875" style="3" customWidth="1"/>
+    <col min="73" max="73" width="17.88671875" style="3" customWidth="1"/>
     <col min="74" max="74" width="19" style="3" customWidth="1"/>
-    <col min="75" max="75" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="77" max="80" width="16.140625" style="3" customWidth="1"/>
-    <col min="81" max="81" width="13.5703125" style="3" customWidth="1"/>
-    <col min="82" max="82" width="18.5703125" style="3" customWidth="1"/>
-    <col min="83" max="86" width="13.5703125" style="3" customWidth="1"/>
-    <col min="87" max="91" width="14.5703125" style="3" customWidth="1"/>
-    <col min="92" max="92" width="15.28515625" style="3" customWidth="1"/>
+    <col min="75" max="75" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="16.109375" style="3" customWidth="1"/>
+    <col min="81" max="81" width="13.5546875" style="3" customWidth="1"/>
+    <col min="82" max="82" width="18.5546875" style="3" customWidth="1"/>
+    <col min="83" max="86" width="13.5546875" style="3" customWidth="1"/>
+    <col min="87" max="91" width="14.5546875" style="3" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="3" customWidth="1"/>
     <col min="93" max="93" width="20" style="3" customWidth="1"/>
-    <col min="94" max="94" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="8.85546875" style="3"/>
-    <col min="97" max="97" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="8.88671875" style="3"/>
+    <col min="97" max="97" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="163" width="8.85546875" style="3"/>
-    <col min="164" max="164" width="15.28515625" style="3" customWidth="1"/>
-    <col min="165" max="16384" width="8.85546875" style="3"/>
+    <col min="100" max="163" width="8.88671875" style="3"/>
+    <col min="164" max="164" width="15.33203125" style="3" customWidth="1"/>
+    <col min="165" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:95" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2063,7 +2071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -2168,7 +2176,7 @@
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1"/>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>120</v>
       </c>
@@ -2275,7 +2283,7 @@
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1"/>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
@@ -2382,7 +2390,7 @@
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1"/>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
@@ -2487,7 +2495,7 @@
       <c r="CP7" s="1"/>
       <c r="CQ7" s="1"/>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>123</v>
       </c>
@@ -2594,7 +2602,7 @@
       <c r="CP8" s="1"/>
       <c r="CQ8" s="1"/>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>124</v>
       </c>
@@ -2701,7 +2709,7 @@
       <c r="CP9" s="1"/>
       <c r="CQ9" s="1"/>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>125</v>
       </c>
@@ -2806,7 +2814,7 @@
       <c r="CP10" s="1"/>
       <c r="CQ10" s="1"/>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>126</v>
       </c>
@@ -2913,7 +2921,7 @@
       <c r="CP11" s="1"/>
       <c r="CQ11" s="1"/>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>127</v>
       </c>
@@ -3019,7 +3027,7 @@
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1"/>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>128</v>
       </c>
@@ -3124,7 +3132,7 @@
       <c r="CP13" s="1"/>
       <c r="CQ13" s="1"/>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>129</v>
       </c>
@@ -3231,7 +3239,7 @@
       <c r="CP14" s="1"/>
       <c r="CQ14" s="1"/>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>130</v>
       </c>
@@ -3337,7 +3345,7 @@
       <c r="CP15" s="1"/>
       <c r="CQ15" s="1"/>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>131</v>
       </c>
@@ -3442,7 +3450,7 @@
       <c r="CP16" s="1"/>
       <c r="CQ16" s="1"/>
     </row>
-    <row r="17" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>132</v>
       </c>
@@ -3549,7 +3557,7 @@
       <c r="CP17" s="1"/>
       <c r="CQ17" s="1"/>
     </row>
-    <row r="18" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>133</v>
       </c>
@@ -3655,7 +3663,7 @@
       <c r="CP18" s="1"/>
       <c r="CQ18" s="1"/>
     </row>
-    <row r="19" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>134</v>
       </c>
@@ -3760,7 +3768,7 @@
       <c r="CP19" s="1"/>
       <c r="CQ19" s="1"/>
     </row>
-    <row r="20" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>135</v>
       </c>
@@ -3867,7 +3875,7 @@
       <c r="CP20" s="1"/>
       <c r="CQ20" s="1"/>
     </row>
-    <row r="21" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
@@ -3974,7 +3982,7 @@
       <c r="CP21" s="1"/>
       <c r="CQ21" s="1"/>
     </row>
-    <row r="22" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>137</v>
       </c>
@@ -4079,7 +4087,7 @@
       <c r="CP22" s="1"/>
       <c r="CQ22" s="1"/>
     </row>
-    <row r="23" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>138</v>
       </c>
@@ -4186,7 +4194,7 @@
       <c r="CP23" s="1"/>
       <c r="CQ23" s="1"/>
     </row>
-    <row r="24" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
@@ -4293,7 +4301,7 @@
       <c r="CP24" s="1"/>
       <c r="CQ24" s="1"/>
     </row>
-    <row r="25" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
@@ -4398,7 +4406,7 @@
       <c r="CP25" s="1"/>
       <c r="CQ25" s="1"/>
     </row>
-    <row r="26" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>141</v>
       </c>
@@ -4505,7 +4513,7 @@
       <c r="CP26" s="1"/>
       <c r="CQ26" s="1"/>
     </row>
-    <row r="27" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>142</v>
       </c>
@@ -4611,7 +4619,7 @@
       <c r="CP27" s="1"/>
       <c r="CQ27" s="1"/>
     </row>
-    <row r="28" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>143</v>
       </c>
@@ -4716,7 +4724,7 @@
       <c r="CP28" s="1"/>
       <c r="CQ28" s="1"/>
     </row>
-    <row r="29" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>144</v>
       </c>
@@ -4823,7 +4831,7 @@
       <c r="CP29" s="1"/>
       <c r="CQ29" s="1"/>
     </row>
-    <row r="30" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>145</v>
       </c>
@@ -4929,7 +4937,7 @@
       <c r="CP30" s="1"/>
       <c r="CQ30" s="1"/>
     </row>
-    <row r="31" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>146</v>
       </c>
@@ -5040,7 +5048,7 @@
       <c r="CP31" s="1"/>
       <c r="CQ31" s="1"/>
     </row>
-    <row r="32" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>147</v>
       </c>
@@ -5153,7 +5161,7 @@
       <c r="CP32" s="1"/>
       <c r="CQ32" s="1"/>
     </row>
-    <row r="33" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>148</v>
       </c>
@@ -5265,7 +5273,7 @@
       <c r="CP33" s="1"/>
       <c r="CQ33" s="1"/>
     </row>
-    <row r="34" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>149</v>
       </c>
@@ -5378,7 +5386,7 @@
       <c r="CP34" s="1"/>
       <c r="CQ34" s="1"/>
     </row>
-    <row r="35" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>150</v>
       </c>
@@ -5490,7 +5498,7 @@
       <c r="CP35" s="1"/>
       <c r="CQ35" s="1"/>
     </row>
-    <row r="36" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>151</v>
       </c>
@@ -5602,7 +5610,7 @@
       <c r="CP36" s="1"/>
       <c r="CQ36" s="1"/>
     </row>
-    <row r="37" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>152</v>
       </c>
@@ -5714,7 +5722,7 @@
       <c r="CP37" s="1"/>
       <c r="CQ37" s="1"/>
     </row>
-    <row r="38" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>153</v>
       </c>
@@ -5826,7 +5834,7 @@
       <c r="CP38" s="1"/>
       <c r="CQ38" s="1"/>
     </row>
-    <row r="39" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
@@ -5938,7 +5946,7 @@
       <c r="CP39" s="1"/>
       <c r="CQ39" s="1"/>
     </row>
-    <row r="40" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
@@ -6050,7 +6058,7 @@
       <c r="CP40" s="1"/>
       <c r="CQ40" s="1"/>
     </row>
-    <row r="41" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="29" t="s">
         <v>156</v>
       </c>
@@ -6232,7 +6240,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
         <v>157</v>
       </c>
@@ -6414,7 +6422,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="29" t="s">
         <v>158</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="29" t="s">
         <v>159</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="29" t="s">
         <v>160</v>
       </c>
@@ -7034,7 +7042,7 @@
       <c r="FH45" s="3"/>
       <c r="FI45" s="3"/>
     </row>
-    <row r="46" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="29" t="s">
         <v>161</v>
       </c>
@@ -7226,7 +7234,7 @@
       <c r="FH46" s="3"/>
       <c r="FI46" s="3"/>
     </row>
-    <row r="47" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>162</v>
       </c>
@@ -7418,7 +7426,7 @@
       <c r="FH47" s="3"/>
       <c r="FI47" s="3"/>
     </row>
-    <row r="48" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="29" t="s">
         <v>163</v>
       </c>
@@ -7608,7 +7616,7 @@
       <c r="FH48" s="3"/>
       <c r="FI48" s="3"/>
     </row>
-    <row r="49" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="29" t="s">
         <v>164</v>
       </c>
@@ -7800,7 +7808,7 @@
       <c r="FH49" s="3"/>
       <c r="FI49" s="3"/>
     </row>
-    <row r="50" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="29" t="s">
         <v>165</v>
       </c>
@@ -7992,7 +8000,7 @@
       <c r="FH50" s="3"/>
       <c r="FI50" s="3"/>
     </row>
-    <row r="51" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
@@ -8032,8 +8040,10 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
-      <c r="AH51" s="8"/>
-      <c r="AI51" s="14" t="s">
+      <c r="AH51" s="45">
+        <v>500</v>
+      </c>
+      <c r="AI51" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ51" s="1">
@@ -8198,7 +8208,7 @@
       <c r="FH51" s="3"/>
       <c r="FI51" s="3"/>
     </row>
-    <row r="52" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
@@ -8238,8 +8248,10 @@
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
-      <c r="AH52" s="8"/>
-      <c r="AI52" s="14" t="s">
+      <c r="AH52" s="45">
+        <v>200</v>
+      </c>
+      <c r="AI52" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ52" s="2">
@@ -8404,18 +8416,19 @@
       <c r="FH52" s="3"/>
       <c r="FI52" s="3"/>
     </row>
-    <row r="53" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C53" s="23">
         <v>212</v>
       </c>
-      <c r="D53" s="30">
-        <f>BW53/BX53</f>
-        <v>0.4</v>
-      </c>
-      <c r="E53" s="30"/>
+      <c r="D53" s="27">
+        <v>999999</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -8444,8 +8457,12 @@
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="8"/>
-      <c r="AH53" s="8"/>
-      <c r="AI53" s="14"/>
+      <c r="AH53" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ53" s="2">
         <v>2500</v>
       </c>
@@ -8606,7 +8623,7 @@
       <c r="FH53" s="3"/>
       <c r="FI53" s="3"/>
     </row>
-    <row r="54" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>169</v>
       </c>
@@ -8647,8 +8664,10 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
-      <c r="AH54" s="8"/>
-      <c r="AI54" s="14" t="s">
+      <c r="AH54" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI54" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ54" s="2" t="s">
@@ -8810,7 +8829,7 @@
       <c r="FH54" s="3"/>
       <c r="FI54" s="3"/>
     </row>
-    <row r="55" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="s">
         <v>170</v>
       </c>
@@ -8851,8 +8870,10 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="14" t="s">
+      <c r="AH55" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI55" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ55" s="1">
@@ -9019,7 +9040,7 @@
       <c r="FH55" s="3"/>
       <c r="FI55" s="3"/>
     </row>
-    <row r="56" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="s">
         <v>171</v>
       </c>
@@ -9060,8 +9081,10 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="14" t="s">
+      <c r="AH56" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI56" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ56" s="2">
@@ -9154,7 +9177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="2:165" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="s">
         <v>172</v>
       </c>
@@ -9195,8 +9218,10 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="9" t="s">
+      <c r="AH57" s="26">
+        <v>200</v>
+      </c>
+      <c r="AI57" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ57" s="2">
@@ -9293,7 +9318,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="2:165" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
@@ -9334,8 +9359,10 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="9" t="s">
+      <c r="AH58" s="26">
+        <v>300</v>
+      </c>
+      <c r="AI58" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ58" s="2">
@@ -9432,7 +9459,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="2:165" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
@@ -9577,7 +9604,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="60" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="s">
         <v>175</v>
       </c>
@@ -9718,7 +9745,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="61" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
         <v>176</v>
       </c>
@@ -9859,7 +9886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="s">
         <v>177</v>
       </c>
@@ -10000,7 +10027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="s">
         <v>178</v>
       </c>
@@ -10040,8 +10067,10 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
-      <c r="AI63" s="14" t="s">
+      <c r="AH63" s="45">
+        <v>500</v>
+      </c>
+      <c r="AI63" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ63" s="1"/>
@@ -10136,7 +10165,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="2:165" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:165" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
         <v>179</v>
       </c>
@@ -10176,8 +10205,10 @@
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
-      <c r="AH64" s="1"/>
-      <c r="AI64" s="14" t="s">
+      <c r="AH64" s="45">
+        <v>200</v>
+      </c>
+      <c r="AI64" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ64" s="1"/>
@@ -10272,18 +10303,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="s">
         <v>180</v>
       </c>
       <c r="C65" s="23">
         <v>213</v>
       </c>
-      <c r="D65" s="31">
-        <f t="shared" si="12"/>
-        <v>0.625</v>
-      </c>
-      <c r="E65" s="31"/>
+      <c r="D65" s="27">
+        <v>999999</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -10312,8 +10344,12 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="14"/>
+      <c r="AH65" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
@@ -10404,7 +10440,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
@@ -10445,8 +10481,10 @@
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="14" t="s">
+      <c r="AH66" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI66" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ66" s="1"/>
@@ -10538,7 +10576,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="s">
         <v>182</v>
       </c>
@@ -10579,8 +10617,10 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="14" t="s">
+      <c r="AH67" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI67" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ67" s="1"/>
@@ -10677,7 +10717,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
         <v>183</v>
       </c>
@@ -10718,8 +10758,10 @@
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="14" t="s">
+      <c r="AH68" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI68" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ68" s="1"/>
@@ -10812,7 +10854,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>184</v>
       </c>
@@ -10853,8 +10895,10 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
-      <c r="AH69" s="1"/>
-      <c r="AI69" s="9" t="s">
+      <c r="AH69" s="26">
+        <v>200</v>
+      </c>
+      <c r="AI69" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ69" s="1"/>
@@ -10951,7 +10995,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>185</v>
       </c>
@@ -10992,8 +11036,10 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="9" t="s">
+      <c r="AH70" s="26">
+        <v>300</v>
+      </c>
+      <c r="AI70" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ70" s="1"/>
@@ -11090,7 +11136,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B71" s="6" t="s">
         <v>186</v>
       </c>
@@ -11235,7 +11281,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B72" s="6" t="s">
         <v>187</v>
       </c>
@@ -11376,7 +11422,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B73" s="6" t="s">
         <v>188</v>
       </c>
@@ -11517,7 +11563,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B74" s="6" t="s">
         <v>189</v>
       </c>
@@ -11658,7 +11704,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
         <v>190</v>
       </c>
@@ -11698,8 +11744,10 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
-      <c r="AH75" s="1"/>
-      <c r="AI75" s="14" t="s">
+      <c r="AH75" s="45">
+        <v>500</v>
+      </c>
+      <c r="AI75" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ75" s="1"/>
@@ -11794,7 +11842,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>191</v>
       </c>
@@ -11834,8 +11882,10 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
-      <c r="AH76" s="1"/>
-      <c r="AI76" s="14" t="s">
+      <c r="AH76" s="45">
+        <v>200</v>
+      </c>
+      <c r="AI76" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ76" s="1"/>
@@ -11930,18 +11980,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B77" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C77" s="23">
         <v>214</v>
       </c>
-      <c r="D77" s="31">
-        <f t="shared" si="26"/>
-        <v>0.2</v>
-      </c>
-      <c r="E77" s="31"/>
+      <c r="D77" s="27">
+        <v>999999</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -11970,8 +12021,12 @@
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
-      <c r="AH77" s="1"/>
-      <c r="AI77" s="14"/>
+      <c r="AH77" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
@@ -12062,7 +12117,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B78" s="6" t="s">
         <v>193</v>
       </c>
@@ -12103,8 +12158,10 @@
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="14" t="s">
+      <c r="AH78" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI78" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ78" s="1"/>
@@ -12196,7 +12253,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B79" s="6" t="s">
         <v>194</v>
       </c>
@@ -12237,8 +12294,10 @@
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="14" t="s">
+      <c r="AH79" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI79" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ79" s="1"/>
@@ -12335,7 +12394,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B80" s="6" t="s">
         <v>195</v>
       </c>
@@ -12376,8 +12435,10 @@
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
-      <c r="AH80" s="1"/>
-      <c r="AI80" s="14" t="s">
+      <c r="AH80" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI80" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ80" s="1"/>
@@ -12470,7 +12531,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B81" s="6" t="s">
         <v>196</v>
       </c>
@@ -12511,8 +12572,10 @@
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="9" t="s">
+      <c r="AH81" s="26">
+        <v>200</v>
+      </c>
+      <c r="AI81" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ81" s="1"/>
@@ -12609,7 +12672,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B82" s="6" t="s">
         <v>197</v>
       </c>
@@ -12650,8 +12713,10 @@
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
-      <c r="AH82" s="1"/>
-      <c r="AI82" s="9" t="s">
+      <c r="AH82" s="26">
+        <v>300</v>
+      </c>
+      <c r="AI82" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ82" s="1"/>
@@ -12748,7 +12813,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B83" s="6" t="s">
         <v>198</v>
       </c>
@@ -12893,7 +12958,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B84" s="6" t="s">
         <v>199</v>
       </c>
@@ -13034,7 +13099,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B85" s="6" t="s">
         <v>200</v>
       </c>
@@ -13175,7 +13240,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B86" s="6" t="s">
         <v>201</v>
       </c>
@@ -13316,7 +13381,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B87" s="6" t="s">
         <v>202</v>
       </c>
@@ -13356,8 +13421,10 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
-      <c r="AH87" s="1"/>
-      <c r="AI87" s="14" t="s">
+      <c r="AH87" s="45">
+        <v>500</v>
+      </c>
+      <c r="AI87" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ87" s="1"/>
@@ -13452,7 +13519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B88" s="6" t="s">
         <v>203</v>
       </c>
@@ -13492,8 +13559,10 @@
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
-      <c r="AH88" s="1"/>
-      <c r="AI88" s="14" t="s">
+      <c r="AH88" s="45">
+        <v>200</v>
+      </c>
+      <c r="AI88" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ88" s="1"/>
@@ -13588,18 +13657,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B89" s="6" t="s">
         <v>204</v>
       </c>
       <c r="C89" s="23">
         <v>215</v>
       </c>
-      <c r="D89" s="31">
-        <f t="shared" si="34"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E89" s="31"/>
+      <c r="D89" s="27">
+        <v>999999</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>94</v>
+      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -13628,8 +13698,12 @@
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
-      <c r="AH89" s="1"/>
-      <c r="AI89" s="14"/>
+      <c r="AH89" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
@@ -13720,7 +13794,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="s">
         <v>205</v>
       </c>
@@ -13761,8 +13835,10 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="14" t="s">
+      <c r="AH90" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI90" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ90" s="1"/>
@@ -13854,7 +13930,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="s">
         <v>206</v>
       </c>
@@ -13895,8 +13971,10 @@
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
-      <c r="AH91" s="1"/>
-      <c r="AI91" s="14" t="s">
+      <c r="AH91" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI91" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ91" s="1"/>
@@ -13993,7 +14071,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="s">
         <v>207</v>
       </c>
@@ -14034,8 +14112,10 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="14" t="s">
+      <c r="AH92" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI92" s="46" t="s">
         <v>59</v>
       </c>
       <c r="AJ92" s="1"/>
@@ -14128,7 +14208,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="s">
         <v>208</v>
       </c>
@@ -14169,8 +14249,10 @@
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="9" t="s">
+      <c r="AH93" s="26">
+        <v>200</v>
+      </c>
+      <c r="AI93" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ93" s="1"/>
@@ -14267,7 +14349,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B94" s="6" t="s">
         <v>209</v>
       </c>
@@ -14308,8 +14390,10 @@
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
-      <c r="AH94" s="1"/>
-      <c r="AI94" s="9" t="s">
+      <c r="AH94" s="26">
+        <v>300</v>
+      </c>
+      <c r="AI94" s="27" t="s">
         <v>59</v>
       </c>
       <c r="AJ94" s="1"/>
@@ -14406,7 +14490,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="s">
         <v>210</v>
       </c>
@@ -14551,7 +14635,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="s">
         <v>211</v>
       </c>
@@ -14692,7 +14776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="s">
         <v>212</v>
       </c>
@@ -14833,7 +14917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="s">
         <v>213</v>
       </c>
@@ -14974,7 +15058,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B99" s="6" t="s">
         <v>214</v>
       </c>
@@ -15108,7 +15192,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B100" s="6" t="s">
         <v>215</v>
       </c>
@@ -15242,7 +15326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
@@ -15374,7 +15458,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B102" s="6" t="s">
         <v>217</v>
       </c>
@@ -15506,7 +15590,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B103" s="6" t="s">
         <v>218</v>
       </c>
@@ -15643,7 +15727,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B104" s="6" t="s">
         <v>219</v>
       </c>
@@ -15780,7 +15864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B105" s="6" t="s">
         <v>220</v>
       </c>
@@ -15912,7 +15996,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B106" s="6" t="s">
         <v>221</v>
       </c>
@@ -16045,7 +16129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B107" s="6" t="s">
         <v>222</v>
       </c>
@@ -16182,7 +16266,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B108" s="6" t="s">
         <v>223</v>
       </c>
@@ -16319,7 +16403,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
         <v>224</v>
       </c>
@@ -16453,7 +16537,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B110" s="6" t="s">
         <v>225</v>
       </c>
@@ -16587,7 +16671,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B111" s="6" t="s">
         <v>226</v>
       </c>
@@ -16719,7 +16803,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
         <v>227</v>
       </c>
@@ -16851,7 +16935,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B113" s="6" t="s">
         <v>228</v>
       </c>
@@ -16988,7 +17072,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B114" s="6" t="s">
         <v>229</v>
       </c>
@@ -17125,7 +17209,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B115" s="6" t="s">
         <v>230</v>
       </c>
@@ -17257,7 +17341,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
@@ -17390,7 +17474,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
@@ -17527,7 +17611,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B118" s="6" t="s">
         <v>233</v>
       </c>
@@ -17664,7 +17748,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B119" s="6" t="s">
         <v>234</v>
       </c>
@@ -17789,7 +17873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B120" s="6" t="s">
         <v>235</v>
       </c>
@@ -17914,7 +17998,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B121" s="6" t="s">
         <v>236</v>
       </c>
@@ -18040,7 +18124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B122" s="6" t="s">
         <v>237</v>
       </c>
@@ -18168,7 +18252,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B123" s="6" t="s">
         <v>238</v>
       </c>
@@ -18296,7 +18380,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B124" s="6" t="s">
         <v>239</v>
       </c>
@@ -18423,7 +18507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -18550,7 +18634,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>241</v>
       </c>
@@ -18678,7 +18762,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B127" s="6" t="s">
         <v>242</v>
       </c>
@@ -18806,7 +18890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B128" s="6" t="s">
         <v>243</v>
       </c>
@@ -18934,7 +19018,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -19062,7 +19146,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B130" s="6" t="s">
         <v>245</v>
       </c>
@@ -19190,7 +19274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B131" s="6" t="s">
         <v>246</v>
       </c>
@@ -19318,7 +19402,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B132" s="6" t="s">
         <v>247</v>
       </c>
@@ -19443,7 +19527,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B133" s="6" t="s">
         <v>248</v>
       </c>
@@ -19568,7 +19652,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
@@ -19694,7 +19778,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B135" s="6" t="s">
         <v>250</v>
       </c>
@@ -19822,7 +19906,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B136" s="6" t="s">
         <v>251</v>
       </c>
@@ -19950,7 +20034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B137" s="6" t="s">
         <v>252</v>
       </c>
@@ -20077,7 +20161,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B138" s="6" t="s">
         <v>253</v>
       </c>
@@ -20204,7 +20288,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
         <v>254</v>
       </c>
@@ -20332,7 +20416,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B140" s="6" t="s">
         <v>255</v>
       </c>
@@ -20460,7 +20544,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
@@ -20588,7 +20672,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B142" s="6" t="s">
         <v>257</v>
       </c>
@@ -20716,7 +20800,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B143" s="6" t="s">
         <v>258</v>
       </c>
@@ -20844,7 +20928,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B144" s="6" t="s">
         <v>259</v>
       </c>
@@ -20972,7 +21056,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B145" s="6" t="s">
         <v>260</v>
       </c>
@@ -21097,7 +21181,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B146" s="6" t="s">
         <v>261</v>
       </c>
@@ -21222,7 +21306,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B147" s="6" t="s">
         <v>262</v>
       </c>
@@ -21348,7 +21432,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B148" s="6" t="s">
         <v>263</v>
       </c>
@@ -21476,7 +21560,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B149" s="6" t="s">
         <v>264</v>
       </c>
@@ -21604,7 +21688,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B150" s="6" t="s">
         <v>265</v>
       </c>
@@ -21731,7 +21815,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="151" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B151" s="6" t="s">
         <v>266</v>
       </c>
@@ -21858,7 +21942,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="152" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B152" s="6" t="s">
         <v>267</v>
       </c>
@@ -21986,7 +22070,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B153" s="6" t="s">
         <v>268</v>
       </c>
@@ -22114,7 +22198,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B154" s="6" t="s">
         <v>269</v>
       </c>
@@ -22242,7 +22326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="155" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B155" s="6" t="s">
         <v>270</v>
       </c>
@@ -22370,7 +22454,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B156" s="6" t="s">
         <v>271</v>
       </c>
@@ -22498,7 +22582,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>272</v>
       </c>
@@ -22626,7 +22710,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B158" s="6" t="s">
         <v>273</v>
       </c>
@@ -22751,7 +22835,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B159" s="6" t="s">
         <v>274</v>
       </c>
@@ -22876,7 +22960,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B160" s="6" t="s">
         <v>275</v>
       </c>
@@ -23001,7 +23085,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B161" s="6" t="s">
         <v>276</v>
       </c>
@@ -23127,7 +23211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="162" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B162" s="6" t="s">
         <v>277</v>
       </c>
@@ -23255,7 +23339,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="163" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B163" s="6" t="s">
         <v>278</v>
       </c>
@@ -23383,7 +23467,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="164" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B164" s="6" t="s">
         <v>279</v>
       </c>
@@ -23510,7 +23594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B165" s="6" t="s">
         <v>280</v>
       </c>
@@ -23637,7 +23721,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B166" s="6" t="s">
         <v>281</v>
       </c>
@@ -23765,7 +23849,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B167" s="6" t="s">
         <v>282</v>
       </c>
@@ -23893,7 +23977,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="168" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B168" s="6" t="s">
         <v>283</v>
       </c>
@@ -24021,7 +24105,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="169" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B169" s="6" t="s">
         <v>284</v>
       </c>
@@ -24149,7 +24233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B170" s="6" t="s">
         <v>285</v>
       </c>
@@ -24277,7 +24361,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B171" s="6" t="s">
         <v>286</v>
       </c>
@@ -24405,7 +24489,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B172" s="6" t="s">
         <v>287</v>
       </c>
@@ -24530,7 +24614,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B173" s="6" t="s">
         <v>288</v>
       </c>
@@ -24655,7 +24739,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B174" s="6" t="s">
         <v>289</v>
       </c>
@@ -24781,7 +24865,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B175" s="6" t="s">
         <v>290</v>
       </c>
@@ -24907,7 +24991,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B176" s="6" t="s">
         <v>291</v>
       </c>
@@ -25034,7 +25118,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B177" s="6" t="s">
         <v>292</v>
       </c>
@@ -25161,7 +25245,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B178" s="6" t="s">
         <v>293</v>
       </c>
@@ -25289,7 +25373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="179" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B179" s="6" t="s">
         <v>294</v>
       </c>
@@ -25414,7 +25498,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="180" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B180" s="6" t="s">
         <v>295</v>
       </c>
@@ -25539,7 +25623,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="181" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B181" s="6" t="s">
         <v>296</v>
       </c>
@@ -25665,7 +25749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B182" s="6" t="s">
         <v>297</v>
       </c>
@@ -25791,7 +25875,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B183" s="6" t="s">
         <v>298</v>
       </c>
@@ -25918,7 +26002,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="s">
         <v>299</v>
       </c>
@@ -26045,7 +26129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B185" s="6" t="s">
         <v>300</v>
       </c>
@@ -26173,7 +26257,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B186" s="6" t="s">
         <v>301</v>
       </c>
@@ -26298,7 +26382,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="187" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B187" s="6" t="s">
         <v>302</v>
       </c>
@@ -26423,7 +26507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B188" s="6" t="s">
         <v>303</v>
       </c>
@@ -26549,7 +26633,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="189" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B189" s="6" t="s">
         <v>304</v>
       </c>
@@ -26675,7 +26759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B190" s="6" t="s">
         <v>305</v>
       </c>
@@ -26802,7 +26886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="191" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B191" s="6" t="s">
         <v>306</v>
       </c>
@@ -26929,7 +27013,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B192" s="6" t="s">
         <v>307</v>
       </c>
@@ -27057,7 +27141,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B193" s="6" t="s">
         <v>308</v>
       </c>
@@ -27170,7 +27254,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="194" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B194" s="6" t="s">
         <v>309</v>
       </c>
@@ -27283,7 +27367,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="195" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B195" s="6" t="s">
         <v>310</v>
       </c>
@@ -27396,7 +27480,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B196" s="6" t="s">
         <v>311</v>
       </c>
@@ -27512,7 +27596,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="197" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B197" s="6" t="s">
         <v>312</v>
       </c>
@@ -27628,7 +27712,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="198" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B198" s="6" t="s">
         <v>313</v>
       </c>
@@ -27749,7 +27833,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="199" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B199" s="6" t="s">
         <v>314</v>
       </c>
@@ -27868,7 +27952,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="200" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B200" s="6" t="s">
         <v>315</v>
       </c>
@@ -27988,7 +28072,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="201" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B201" s="6" t="s">
         <v>316</v>
       </c>
@@ -28110,7 +28194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="202" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B202" s="6" t="s">
         <v>317</v>
       </c>
@@ -28231,7 +28315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="203" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B203" s="6" t="s">
         <v>318</v>
       </c>
@@ -28352,7 +28436,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="204" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B204" s="6" t="s">
         <v>319</v>
       </c>
@@ -28471,7 +28555,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B205" s="6" t="s">
         <v>320</v>
       </c>
@@ -28591,7 +28675,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="206" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B206" s="6" t="s">
         <v>321</v>
       </c>
@@ -28713,7 +28797,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="207" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B207" s="6" t="s">
         <v>322</v>
       </c>
@@ -28834,7 +28918,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="208" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B208" s="6" t="s">
         <v>323</v>
       </c>
@@ -28968,7 +29052,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="209" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B209" s="6" t="s">
         <v>324</v>
       </c>
@@ -29100,7 +29184,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="210" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B210" s="6" t="s">
         <v>325</v>
       </c>
@@ -29233,7 +29317,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="211" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B211" s="6" t="s">
         <v>326</v>
       </c>
@@ -29365,7 +29449,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="212" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B212" s="6" t="s">
         <v>327</v>
       </c>
@@ -29502,7 +29586,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B213" s="6" t="s">
         <v>328</v>
       </c>
@@ -29639,7 +29723,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B214" s="6" t="s">
         <v>329</v>
       </c>
@@ -29775,7 +29859,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="215" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B215" s="6" t="s">
         <v>330</v>
       </c>
@@ -29908,7 +29992,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="216" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B216" s="6" t="s">
         <v>331</v>
       </c>
@@ -30045,7 +30129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="217" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B217" s="6" t="s">
         <v>332</v>
       </c>
@@ -30182,7 +30266,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B218" s="6" t="s">
         <v>333</v>
       </c>
@@ -30319,7 +30403,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="219" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B219" s="6" t="s">
         <v>334</v>
       </c>
@@ -30456,7 +30540,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="220" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B220" s="6" t="s">
         <v>335</v>
       </c>
@@ -30593,7 +30677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="221" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B221" s="6" t="s">
         <v>336</v>
       </c>
@@ -30730,7 +30814,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="222" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B222" s="6" t="s">
         <v>337</v>
       </c>
@@ -30864,7 +30948,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="223" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B223" s="6" t="s">
         <v>338</v>
       </c>
@@ -30996,7 +31080,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="224" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B224" s="6" t="s">
         <v>339</v>
       </c>
@@ -31129,7 +31213,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="225" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B225" s="6" t="s">
         <v>340</v>
       </c>
@@ -31261,7 +31345,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="226" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B226" s="6" t="s">
         <v>341</v>
       </c>
@@ -31398,7 +31482,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="227" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B227" s="6" t="s">
         <v>342</v>
       </c>
@@ -31535,7 +31619,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="228" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B228" s="6" t="s">
         <v>343</v>
       </c>
@@ -31671,7 +31755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="229" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B229" s="6" t="s">
         <v>344</v>
       </c>
@@ -31804,7 +31888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="230" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B230" s="6" t="s">
         <v>345</v>
       </c>
@@ -31941,7 +32025,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B231" s="6" t="s">
         <v>346</v>
       </c>
@@ -32078,7 +32162,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="232" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B232" s="6" t="s">
         <v>347</v>
       </c>
@@ -32215,7 +32299,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="233" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B233" s="6" t="s">
         <v>348</v>
       </c>
@@ -32352,7 +32436,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="234" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B234" s="6" t="s">
         <v>349</v>
       </c>
@@ -32489,7 +32573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="235" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B235" s="6" t="s">
         <v>350</v>
       </c>
@@ -32626,7 +32710,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="236" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B236" s="6" t="s">
         <v>351</v>
       </c>
@@ -32754,7 +32838,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="237" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B237" s="6" t="s">
         <v>352</v>
       </c>
@@ -32880,7 +32964,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="238" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B238" s="6" t="s">
         <v>353</v>
       </c>
@@ -33008,7 +33092,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="239" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B239" s="6" t="s">
         <v>354</v>
       </c>
@@ -33136,7 +33220,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="240" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B240" s="6" t="s">
         <v>355</v>
       </c>
@@ -33267,7 +33351,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="241" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B241" s="6" t="s">
         <v>356</v>
       </c>
@@ -33395,7 +33479,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="242" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B242" s="6" t="s">
         <v>357</v>
       </c>
@@ -33521,7 +33605,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="243" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B243" s="6" t="s">
         <v>358</v>
       </c>
@@ -33649,7 +33733,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="244" spans="2:95" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B244" s="6" t="s">
         <v>359</v>
       </c>
@@ -33777,7 +33861,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="245" spans="2:95" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B245" s="6" t="s">
         <v>360</v>
       </c>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1400,7 +1400,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1719,74 +1719,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:FI245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="AH70" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AH33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D89" sqref="D89:E89"/>
+      <selection pane="bottomRight" activeCell="AI92" sqref="AI92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="19.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="23.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="24.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5546875" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="24.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="22.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="22.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="33" width="25.109375" style="3" hidden="1" customWidth="1"/>
-    <col min="34" max="41" width="25.109375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="28.33203125" style="3" customWidth="1"/>
-    <col min="43" max="43" width="27.88671875" style="3" customWidth="1"/>
-    <col min="44" max="45" width="28.33203125" style="3" customWidth="1"/>
-    <col min="46" max="46" width="27.88671875" style="3" customWidth="1"/>
-    <col min="47" max="47" width="28.33203125" style="3" customWidth="1"/>
-    <col min="48" max="65" width="25.109375" style="3" customWidth="1"/>
-    <col min="66" max="66" width="21.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="19.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="23.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="33" width="25.140625" style="3" hidden="1" customWidth="1"/>
+    <col min="34" max="41" width="25.140625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="28.28515625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="27.85546875" style="3" customWidth="1"/>
+    <col min="44" max="45" width="28.28515625" style="3" customWidth="1"/>
+    <col min="46" max="46" width="27.85546875" style="3" customWidth="1"/>
+    <col min="47" max="47" width="28.28515625" style="3" customWidth="1"/>
+    <col min="48" max="65" width="25.140625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="21.28515625" style="3" customWidth="1"/>
     <col min="67" max="67" width="21" style="3" customWidth="1"/>
-    <col min="68" max="68" width="21.33203125" style="3" customWidth="1"/>
+    <col min="68" max="68" width="21.28515625" style="3" customWidth="1"/>
     <col min="69" max="69" width="19" style="3" customWidth="1"/>
-    <col min="70" max="70" width="18.6640625" style="3" customWidth="1"/>
+    <col min="70" max="70" width="18.7109375" style="3" customWidth="1"/>
     <col min="71" max="72" width="19" style="3" customWidth="1"/>
-    <col min="73" max="73" width="17.88671875" style="3" customWidth="1"/>
+    <col min="73" max="73" width="17.85546875" style="3" customWidth="1"/>
     <col min="74" max="74" width="19" style="3" customWidth="1"/>
-    <col min="75" max="75" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="77" max="80" width="16.109375" style="3" customWidth="1"/>
-    <col min="81" max="81" width="13.5546875" style="3" customWidth="1"/>
-    <col min="82" max="82" width="18.5546875" style="3" customWidth="1"/>
-    <col min="83" max="86" width="13.5546875" style="3" customWidth="1"/>
-    <col min="87" max="91" width="14.5546875" style="3" customWidth="1"/>
-    <col min="92" max="92" width="15.33203125" style="3" customWidth="1"/>
+    <col min="75" max="75" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="16.140625" style="3" customWidth="1"/>
+    <col min="81" max="81" width="13.5703125" style="3" customWidth="1"/>
+    <col min="82" max="82" width="18.5703125" style="3" customWidth="1"/>
+    <col min="83" max="86" width="13.5703125" style="3" customWidth="1"/>
+    <col min="87" max="91" width="14.5703125" style="3" customWidth="1"/>
+    <col min="92" max="92" width="15.28515625" style="3" customWidth="1"/>
     <col min="93" max="93" width="20" style="3" customWidth="1"/>
-    <col min="94" max="94" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="8.88671875" style="3"/>
-    <col min="97" max="97" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="22.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="8.85546875" style="3"/>
+    <col min="97" max="97" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="100" max="163" width="8.88671875" style="3"/>
-    <col min="164" max="164" width="15.33203125" style="3" customWidth="1"/>
-    <col min="165" max="16384" width="8.88671875" style="3"/>
+    <col min="100" max="163" width="8.85546875" style="3"/>
+    <col min="164" max="164" width="15.28515625" style="3" customWidth="1"/>
+    <col min="165" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:95" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1"/>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>120</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1"/>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1"/>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="CP7" s="1"/>
       <c r="CQ7" s="1"/>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>123</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="CP8" s="1"/>
       <c r="CQ8" s="1"/>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>124</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="CP9" s="1"/>
       <c r="CQ9" s="1"/>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>125</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="CP10" s="1"/>
       <c r="CQ10" s="1"/>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>126</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="CP11" s="1"/>
       <c r="CQ11" s="1"/>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>127</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="CP12" s="1"/>
       <c r="CQ12" s="1"/>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>128</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="CP13" s="1"/>
       <c r="CQ13" s="1"/>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>129</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="CP14" s="1"/>
       <c r="CQ14" s="1"/>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>130</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="CP15" s="1"/>
       <c r="CQ15" s="1"/>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>131</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="CP16" s="1"/>
       <c r="CQ16" s="1"/>
     </row>
-    <row r="17" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>132</v>
       </c>
@@ -3557,7 +3557,7 @@
       <c r="CP17" s="1"/>
       <c r="CQ17" s="1"/>
     </row>
-    <row r="18" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>133</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="CP18" s="1"/>
       <c r="CQ18" s="1"/>
     </row>
-    <row r="19" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>134</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="CP19" s="1"/>
       <c r="CQ19" s="1"/>
     </row>
-    <row r="20" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>135</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="CP20" s="1"/>
       <c r="CQ20" s="1"/>
     </row>
-    <row r="21" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="CP21" s="1"/>
       <c r="CQ21" s="1"/>
     </row>
-    <row r="22" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>137</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="CP22" s="1"/>
       <c r="CQ22" s="1"/>
     </row>
-    <row r="23" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>138</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="CP23" s="1"/>
       <c r="CQ23" s="1"/>
     </row>
-    <row r="24" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="CP24" s="1"/>
       <c r="CQ24" s="1"/>
     </row>
-    <row r="25" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c r="CP25" s="1"/>
       <c r="CQ25" s="1"/>
     </row>
-    <row r="26" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>141</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="CP26" s="1"/>
       <c r="CQ26" s="1"/>
     </row>
-    <row r="27" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>142</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="CP27" s="1"/>
       <c r="CQ27" s="1"/>
     </row>
-    <row r="28" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>143</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="CP28" s="1"/>
       <c r="CQ28" s="1"/>
     </row>
-    <row r="29" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>144</v>
       </c>
@@ -4831,7 +4831,7 @@
       <c r="CP29" s="1"/>
       <c r="CQ29" s="1"/>
     </row>
-    <row r="30" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>145</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="CP30" s="1"/>
       <c r="CQ30" s="1"/>
     </row>
-    <row r="31" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>146</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="CP31" s="1"/>
       <c r="CQ31" s="1"/>
     </row>
-    <row r="32" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>147</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="CP32" s="1"/>
       <c r="CQ32" s="1"/>
     </row>
-    <row r="33" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>148</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="CP33" s="1"/>
       <c r="CQ33" s="1"/>
     </row>
-    <row r="34" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>149</v>
       </c>
@@ -5386,7 +5386,7 @@
       <c r="CP34" s="1"/>
       <c r="CQ34" s="1"/>
     </row>
-    <row r="35" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>150</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="CP35" s="1"/>
       <c r="CQ35" s="1"/>
     </row>
-    <row r="36" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>151</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="CP36" s="1"/>
       <c r="CQ36" s="1"/>
     </row>
-    <row r="37" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>152</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="CP37" s="1"/>
       <c r="CQ37" s="1"/>
     </row>
-    <row r="38" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>153</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="CP38" s="1"/>
       <c r="CQ38" s="1"/>
     </row>
-    <row r="39" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
@@ -5946,7 +5946,7 @@
       <c r="CP39" s="1"/>
       <c r="CQ39" s="1"/>
     </row>
-    <row r="40" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="CP40" s="1"/>
       <c r="CQ40" s="1"/>
     </row>
-    <row r="41" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>156</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="29" t="s">
         <v>157</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="29" t="s">
         <v>158</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>159</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>160</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="FH45" s="3"/>
       <c r="FI45" s="3"/>
     </row>
-    <row r="46" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>161</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="FH46" s="3"/>
       <c r="FI46" s="3"/>
     </row>
-    <row r="47" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>162</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="FH47" s="3"/>
       <c r="FI47" s="3"/>
     </row>
-    <row r="48" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="29" t="s">
         <v>163</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="FH48" s="3"/>
       <c r="FI48" s="3"/>
     </row>
-    <row r="49" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>164</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="FH49" s="3"/>
       <c r="FI49" s="3"/>
     </row>
-    <row r="50" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>165</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="FH50" s="3"/>
       <c r="FI50" s="3"/>
     </row>
-    <row r="51" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="FH51" s="3"/>
       <c r="FI51" s="3"/>
     </row>
-    <row r="52" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="FH52" s="3"/>
       <c r="FI52" s="3"/>
     </row>
-    <row r="53" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
@@ -8623,7 +8623,7 @@
       <c r="FH53" s="3"/>
       <c r="FI53" s="3"/>
     </row>
-    <row r="54" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>169</v>
       </c>
@@ -8829,7 +8829,7 @@
       <c r="FH54" s="3"/>
       <c r="FI54" s="3"/>
     </row>
-    <row r="55" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>170</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="FH55" s="3"/>
       <c r="FI55" s="3"/>
     </row>
-    <row r="56" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>171</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:165" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>172</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:165" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:165" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="60" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>175</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>212</v>
       </c>
       <c r="D60" s="30">
-        <f t="shared" ref="D60:D65" si="12">BW60/BX60</f>
+        <f t="shared" ref="D60:D64" si="12">BW60/BX60</f>
         <v>0</v>
       </c>
       <c r="E60" s="31"/>
@@ -9745,7 +9745,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="61" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>176</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>177</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>178</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="2:165" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>179</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>180</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>182</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>183</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>184</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>185</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
         <v>186</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="72" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>187</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>188</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>189</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="75" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>190</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>191</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="77" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>192</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
         <v>193</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="79" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
         <v>194</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>195</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>196</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
         <v>197</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>198</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>199</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>200</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>201</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="87" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>202</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="88" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>203</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="89" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>204</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="90" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>205</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>206</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>207</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
         <v>208</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
         <v>209</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
         <v>210</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>211</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>212</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>213</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>214</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>215</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="101" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>217</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>218</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>219</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
         <v>220</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="106" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
         <v>221</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
         <v>222</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
         <v>223</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
         <v>224</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
         <v>225</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>226</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
         <v>227</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
         <v>228</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
         <v>229</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
         <v>230</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
         <v>233</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
         <v>234</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
         <v>235</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
         <v>236</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>237</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>238</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>239</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
@@ -18634,7 +18634,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
         <v>241</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
         <v>242</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
         <v>243</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
         <v>245</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
         <v>246</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
         <v>247</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
         <v>248</v>
       </c>
@@ -19652,7 +19652,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
         <v>250</v>
       </c>
@@ -19906,7 +19906,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
         <v>251</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
         <v>252</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
         <v>253</v>
       </c>
@@ -20288,7 +20288,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
         <v>254</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
         <v>255</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
         <v>257</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="143" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
         <v>258</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B144" s="6" t="s">
         <v>259</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B145" s="6" t="s">
         <v>260</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="146" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B146" s="6" t="s">
         <v>261</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
         <v>262</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="148" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>263</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
         <v>264</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>265</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="151" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>266</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="152" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B152" s="6" t="s">
         <v>267</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B153" s="6" t="s">
         <v>268</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="154" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
         <v>269</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="155" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B155" s="6" t="s">
         <v>270</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B156" s="6" t="s">
         <v>271</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B157" s="6" t="s">
         <v>272</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="158" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B158" s="6" t="s">
         <v>273</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="159" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>274</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B160" s="6" t="s">
         <v>275</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B161" s="6" t="s">
         <v>276</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="162" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B162" s="6" t="s">
         <v>277</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="163" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
         <v>278</v>
       </c>
@@ -23467,7 +23467,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="164" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>279</v>
       </c>
@@ -23594,7 +23594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="165" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
         <v>280</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
         <v>281</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
         <v>282</v>
       </c>
@@ -23977,7 +23977,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="168" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
         <v>283</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="169" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
         <v>284</v>
       </c>
@@ -24233,7 +24233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
         <v>285</v>
       </c>
@@ -24361,7 +24361,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B171" s="6" t="s">
         <v>286</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B172" s="6" t="s">
         <v>287</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="173" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B173" s="6" t="s">
         <v>288</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="174" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B174" s="6" t="s">
         <v>289</v>
       </c>
@@ -24865,7 +24865,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="175" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B175" s="6" t="s">
         <v>290</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="176" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B176" s="6" t="s">
         <v>291</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B177" s="6" t="s">
         <v>292</v>
       </c>
@@ -25245,7 +25245,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="178" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B178" s="6" t="s">
         <v>293</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="179" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B179" s="6" t="s">
         <v>294</v>
       </c>
@@ -25498,7 +25498,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="180" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B180" s="6" t="s">
         <v>295</v>
       </c>
@@ -25623,7 +25623,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="181" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B181" s="6" t="s">
         <v>296</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B182" s="6" t="s">
         <v>297</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="183" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B183" s="6" t="s">
         <v>298</v>
       </c>
@@ -26002,7 +26002,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B184" s="6" t="s">
         <v>299</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B185" s="6" t="s">
         <v>300</v>
       </c>
@@ -26257,7 +26257,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="186" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B186" s="6" t="s">
         <v>301</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="187" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B187" s="6" t="s">
         <v>302</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B188" s="6" t="s">
         <v>303</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="189" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B189" s="6" t="s">
         <v>304</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="190" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B190" s="6" t="s">
         <v>305</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="191" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B191" s="6" t="s">
         <v>306</v>
       </c>
@@ -27013,7 +27013,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B192" s="6" t="s">
         <v>307</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="193" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B193" s="6" t="s">
         <v>308</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="194" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B194" s="6" t="s">
         <v>309</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="195" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B195" s="6" t="s">
         <v>310</v>
       </c>
@@ -27480,7 +27480,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
         <v>311</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="197" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
         <v>312</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="198" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B198" s="6" t="s">
         <v>313</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="199" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
         <v>314</v>
       </c>
@@ -27952,7 +27952,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="200" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B200" s="6" t="s">
         <v>315</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="201" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B201" s="6" t="s">
         <v>316</v>
       </c>
@@ -28194,7 +28194,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="202" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
         <v>317</v>
       </c>
@@ -28315,7 +28315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="203" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B203" s="6" t="s">
         <v>318</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="204" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
         <v>319</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B205" s="6" t="s">
         <v>320</v>
       </c>
@@ -28675,7 +28675,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="206" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
         <v>321</v>
       </c>
@@ -28797,7 +28797,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="207" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B207" s="6" t="s">
         <v>322</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="208" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B208" s="6" t="s">
         <v>323</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="209" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
         <v>324</v>
       </c>
@@ -29184,7 +29184,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="210" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
         <v>325</v>
       </c>
@@ -29317,7 +29317,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="211" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B211" s="6" t="s">
         <v>326</v>
       </c>
@@ -29449,7 +29449,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="212" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B212" s="6" t="s">
         <v>327</v>
       </c>
@@ -29586,7 +29586,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B213" s="6" t="s">
         <v>328</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
         <v>329</v>
       </c>
@@ -29859,7 +29859,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="215" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B215" s="6" t="s">
         <v>330</v>
       </c>
@@ -29992,7 +29992,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="216" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B216" s="6" t="s">
         <v>331</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="217" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B217" s="6" t="s">
         <v>332</v>
       </c>
@@ -30266,7 +30266,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B218" s="6" t="s">
         <v>333</v>
       </c>
@@ -30403,7 +30403,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="219" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B219" s="6" t="s">
         <v>334</v>
       </c>
@@ -30540,7 +30540,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="220" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B220" s="6" t="s">
         <v>335</v>
       </c>
@@ -30677,7 +30677,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="221" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B221" s="6" t="s">
         <v>336</v>
       </c>
@@ -30814,7 +30814,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="222" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
         <v>337</v>
       </c>
@@ -30948,7 +30948,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="223" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B223" s="6" t="s">
         <v>338</v>
       </c>
@@ -31080,7 +31080,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="224" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
         <v>339</v>
       </c>
@@ -31213,7 +31213,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="225" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
         <v>340</v>
       </c>
@@ -31345,7 +31345,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="226" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
         <v>341</v>
       </c>
@@ -31482,7 +31482,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="227" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
         <v>342</v>
       </c>
@@ -31619,7 +31619,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="228" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
         <v>343</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="229" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
         <v>344</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="230" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
         <v>345</v>
       </c>
@@ -32025,7 +32025,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="231" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B231" s="6" t="s">
         <v>346</v>
       </c>
@@ -32162,7 +32162,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="232" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
         <v>347</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="233" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B233" s="6" t="s">
         <v>348</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="234" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B234" s="6" t="s">
         <v>349</v>
       </c>
@@ -32573,7 +32573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="235" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B235" s="6" t="s">
         <v>350</v>
       </c>
@@ -32710,7 +32710,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="236" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
         <v>351</v>
       </c>
@@ -32838,7 +32838,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="237" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B237" s="6" t="s">
         <v>352</v>
       </c>
@@ -32964,7 +32964,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="238" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B238" s="6" t="s">
         <v>353</v>
       </c>
@@ -33092,7 +33092,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="239" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B239" s="6" t="s">
         <v>354</v>
       </c>
@@ -33220,7 +33220,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="240" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B240" s="6" t="s">
         <v>355</v>
       </c>
@@ -33351,7 +33351,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="241" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
         <v>356</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="242" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
         <v>357</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="243" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B243" s="6" t="s">
         <v>358</v>
       </c>
@@ -33733,7 +33733,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="244" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
         <v>359</v>
       </c>
@@ -33861,7 +33861,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="245" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B245" s="6" t="s">
         <v>360</v>
       </c>

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="369">
   <si>
     <t>SNDG</t>
   </si>
@@ -1167,7 +1167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1201,6 +1201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,7 +1264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1293,9 +1299,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,9 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,6 +1397,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1720,10 +1729,10 @@
   <dimension ref="A3:FI245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="AH33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="CM22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AI92" sqref="AI92"/>
+      <selection pane="bottomRight" activeCell="CQ43" sqref="CQ22:CQ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,13 +1848,13 @@
       <c r="R3" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="26" t="s">
         <v>363</v>
       </c>
       <c r="V3" s="5" t="s">
@@ -2078,11 +2087,11 @@
       <c r="C4" s="10">
         <v>200</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="45">
         <f>IF(OR(F4&lt;0, F4 = "-"),"missing",F4)</f>
         <v>1000</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="9">
         <v>1000</v>
       </c>
@@ -2183,11 +2192,11 @@
       <c r="C5" s="10">
         <v>200</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="45" t="str">
         <f>IF(OR(F5&lt;0, F5 = "-"),"missing",F5)</f>
         <v>missing</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -2290,11 +2299,11 @@
       <c r="C6" s="10">
         <v>200</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="45" t="str">
         <f>IF(OR(F6&lt;0, F6 = "-"),"missing",F6)</f>
         <v>missing</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="46" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="9">
@@ -2397,11 +2406,11 @@
       <c r="C7" s="10">
         <v>201</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="45">
         <f>IF(OR(G7&lt;0, G7 = "-"),"missing",G7)</f>
         <v>15</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9">
         <v>15</v>
@@ -2502,11 +2511,11 @@
       <c r="C8" s="10">
         <v>201</v>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="45" t="str">
         <f>IF(OR(G8&lt;0, G8 = "-"),"missing",G8)</f>
         <v>missing</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="9"/>
@@ -2609,11 +2618,11 @@
       <c r="C9" s="10">
         <v>201</v>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="45" t="str">
         <f>IF(OR(G9&lt;0, G9 = "-"),"missing",G9)</f>
         <v>missing</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="9"/>
@@ -2713,14 +2722,14 @@
       <c r="B10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="47">
         <v>202</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="45">
         <f>IF(OR(H10&lt;0, H10 = "-"),"missing",H10)</f>
         <v>100</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9">
@@ -2818,14 +2827,14 @@
       <c r="B11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="47">
         <v>202</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="45" t="str">
         <f>IF(OR(H11&lt;0, H11 = "-"),"missing",H11)</f>
         <v>missing</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="9"/>
@@ -2925,13 +2934,13 @@
       <c r="B12" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="47">
         <v>202</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="9"/>
@@ -3031,14 +3040,14 @@
       <c r="B13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="47">
         <v>203</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="45">
         <f>IF(OR(I13&lt;0, I13 = "-"),"missing",I13)</f>
         <v>12</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -3136,14 +3145,14 @@
       <c r="B14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="47">
         <v>203</v>
       </c>
-      <c r="D14" s="9" t="str">
+      <c r="D14" s="45" t="str">
         <f>IF(OR(I14&lt;0, I14 = "-"),"missing",I14)</f>
         <v>missing</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="9"/>
@@ -3243,13 +3252,13 @@
       <c r="B15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="47">
         <v>203</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="9"/>
@@ -3349,14 +3358,14 @@
       <c r="B16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="47">
         <v>204</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="45">
         <f>IF(OR(I16&lt;0, J16 = "-"),"missing",J16)</f>
         <v>200</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3454,14 +3463,14 @@
       <c r="B17" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="47">
         <v>204</v>
       </c>
-      <c r="D17" s="9" t="str">
+      <c r="D17" s="45" t="str">
         <f>IF(OR(J17&lt;0, J17 = "-"),"missing",J17)</f>
         <v>missing</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="9"/>
@@ -3561,13 +3570,13 @@
       <c r="B18" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="47">
         <v>204</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F18" s="9"/>
@@ -3667,14 +3676,14 @@
       <c r="B19" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="47">
         <v>205</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="45">
         <f>IF(OR(K19&lt;0, K19 = "-"),"missing",K19)</f>
         <v>200</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -3772,14 +3781,14 @@
       <c r="B20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="47">
         <v>205</v>
       </c>
-      <c r="D20" s="9" t="str">
+      <c r="D20" s="45" t="str">
         <f>IF(OR(K20&lt;0, K20 = "-"),"missing",K20)</f>
         <v>missing</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="9"/>
@@ -3879,14 +3888,14 @@
       <c r="B21" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="47">
         <v>205</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="45" t="str">
         <f>IF(OR(K21&lt;0, K21 = "-"),"missing",K21)</f>
         <v>missing</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F21" s="9"/>
@@ -3986,14 +3995,14 @@
       <c r="B22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="47">
         <v>206</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="45">
         <f>IF(OR(L22&lt;0, L22 = "-"),"missing",L22)</f>
         <v>0.83</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -4083,22 +4092,26 @@
       <c r="CL22" s="1"/>
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
+      <c r="CO22" s="1">
+        <v>0.83</v>
+      </c>
       <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
+      <c r="CQ22" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="23" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="47">
         <v>206</v>
       </c>
-      <c r="D23" s="9" t="str">
+      <c r="D23" s="45" t="str">
         <f>IF(OR(L23&lt;0, L23 = "-"),"missing",L23)</f>
         <v>missing</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="9"/>
@@ -4190,22 +4203,28 @@
       <c r="CL23" s="1"/>
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
+      <c r="CO23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ23" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="24" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="47">
         <v>206</v>
       </c>
-      <c r="D24" s="9" t="str">
+      <c r="D24" s="45" t="str">
         <f>IF(OR(L24&lt;0, L24 = "-"),"missing",L24)</f>
         <v>missing</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="9"/>
@@ -4297,22 +4316,28 @@
       <c r="CL24" s="1"/>
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
+      <c r="CO24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ24" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="25" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="47">
         <v>207</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="45">
         <f>IF(OR(M25&lt;0, M25 = "-"),"missing",M25)</f>
         <v>10</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -4402,22 +4427,26 @@
       <c r="CL25" s="1"/>
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
+      <c r="CO25" s="1">
+        <v>10</v>
+      </c>
       <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
+      <c r="CQ25" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="26" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="47">
         <v>207</v>
       </c>
-      <c r="D26" s="9" t="str">
+      <c r="D26" s="45" t="str">
         <f>IF(OR(M26&lt;0, M26 = "-"),"missing",M26)</f>
         <v>missing</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="9"/>
@@ -4509,21 +4538,27 @@
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
+      <c r="CO26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ26" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="27" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="47">
         <v>207</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F27" s="9"/>
@@ -4615,22 +4650,28 @@
       <c r="CL27" s="1"/>
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
+      <c r="CO27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ27" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="28" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="47">
         <v>208</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="45">
         <f>IF(OR(N28&lt;0, N28 = "-"),"missing",N28)</f>
         <v>400</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -4720,22 +4761,26 @@
       <c r="CL28" s="1"/>
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
-      <c r="CO28" s="1"/>
+      <c r="CO28" s="1">
+        <v>400</v>
+      </c>
       <c r="CP28" s="1"/>
-      <c r="CQ28" s="1"/>
+      <c r="CQ28" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="29" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="47">
         <v>208</v>
       </c>
-      <c r="D29" s="9" t="str">
+      <c r="D29" s="45" t="str">
         <f>IF(OR(N29&lt;0, N29 = "-"),"missing",N29)</f>
         <v>missing</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="9"/>
@@ -4827,21 +4872,27 @@
       <c r="CL29" s="1"/>
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
-      <c r="CO29" s="1"/>
-      <c r="CP29" s="1"/>
-      <c r="CQ29" s="1"/>
+      <c r="CO29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ29" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="30" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="47">
         <v>208</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="46" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="9"/>
@@ -4933,22 +4984,28 @@
       <c r="CL30" s="1"/>
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
+      <c r="CO30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ30" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="31" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="47">
         <v>209</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="46">
         <f>BW31/BX31</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -5044,22 +5101,26 @@
       <c r="CL31" s="1"/>
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
-      <c r="CO31" s="1"/>
+      <c r="CO31" s="1">
+        <v>0.42857142857142855</v>
+      </c>
       <c r="CP31" s="1"/>
-      <c r="CQ31" s="1"/>
+      <c r="CQ31" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="32" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="47">
         <v>209</v>
       </c>
-      <c r="D32" s="22" t="str">
+      <c r="D32" s="46" t="str">
         <f>IF(AND(OR(N32&lt;0, N32 = "-"),OR(O32&lt;0, O32 = "-")),"missing",N32/O32)</f>
         <v>missing</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="46" t="s">
         <v>61</v>
       </c>
       <c r="F32" s="9"/>
@@ -5157,21 +5218,27 @@
       <c r="CL32" s="1"/>
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
-      <c r="CO32" s="1"/>
-      <c r="CP32" s="1"/>
-      <c r="CQ32" s="1"/>
+      <c r="CO32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ32" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="33" spans="2:165" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="47">
         <v>209</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="46" t="s">
         <v>115</v>
       </c>
       <c r="F33" s="9"/>
@@ -5269,22 +5336,28 @@
       <c r="CL33" s="1"/>
       <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
-      <c r="CO33" s="1"/>
-      <c r="CP33" s="1"/>
-      <c r="CQ33" s="1"/>
+      <c r="CO33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CQ33" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="34" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="47">
         <v>209</v>
       </c>
-      <c r="D34" s="22" t="str">
+      <c r="D34" s="46" t="str">
         <f>IF(OR(OR(N33&lt;0, N33 = "-"),OR(O33&lt;0, O33 = "-")),"missing",N33/O33)</f>
         <v>missing</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="46" t="s">
         <v>116</v>
       </c>
       <c r="F34" s="9"/>
@@ -5298,12 +5371,12 @@
       <c r="N34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="18">
         <v>700</v>
       </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -5363,7 +5436,7 @@
       <c r="BW34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BX34" s="19">
+      <c r="BX34" s="18">
         <v>700</v>
       </c>
       <c r="BY34" s="1"/>
@@ -5382,21 +5455,27 @@
       <c r="CL34" s="1"/>
       <c r="CM34" s="1"/>
       <c r="CN34" s="1"/>
-      <c r="CO34" s="1"/>
-      <c r="CP34" s="1"/>
-      <c r="CQ34" s="1"/>
+      <c r="CO34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CQ34" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="35" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="47">
         <v>209</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="46" t="s">
         <v>110</v>
       </c>
       <c r="F35" s="9"/>
@@ -5494,21 +5573,27 @@
       <c r="CL35" s="1"/>
       <c r="CM35" s="1"/>
       <c r="CN35" s="1"/>
-      <c r="CO35" s="1"/>
-      <c r="CP35" s="1"/>
-      <c r="CQ35" s="1"/>
+      <c r="CO35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ35" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="36" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="47">
         <v>209</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="46" t="s">
         <v>110</v>
       </c>
       <c r="F36" s="9"/>
@@ -5606,21 +5691,27 @@
       <c r="CL36" s="1"/>
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
+      <c r="CO36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ36" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="37" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="47">
         <v>209</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="46" t="s">
         <v>117</v>
       </c>
       <c r="F37" s="9"/>
@@ -5718,21 +5809,27 @@
       <c r="CL37" s="1"/>
       <c r="CM37" s="1"/>
       <c r="CN37" s="1"/>
-      <c r="CO37" s="1"/>
-      <c r="CP37" s="1"/>
-      <c r="CQ37" s="1"/>
+      <c r="CO37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ37" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="38" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="47">
         <v>209</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="46" t="s">
         <v>118</v>
       </c>
       <c r="F38" s="9"/>
@@ -5830,21 +5927,27 @@
       <c r="CL38" s="1"/>
       <c r="CM38" s="1"/>
       <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
+      <c r="CO38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ38" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="39" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="47">
         <v>209</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="46" t="s">
         <v>118</v>
       </c>
       <c r="F39" s="9"/>
@@ -5942,21 +6045,27 @@
       <c r="CL39" s="1"/>
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
-      <c r="CO39" s="1"/>
-      <c r="CP39" s="1"/>
-      <c r="CQ39" s="1"/>
+      <c r="CO39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CQ39" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="40" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="47">
         <v>209</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="46" t="s">
         <v>117</v>
       </c>
       <c r="F40" s="9"/>
@@ -6054,15 +6163,21 @@
       <c r="CL40" s="1"/>
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
-      <c r="CO40" s="1"/>
-      <c r="CP40" s="1"/>
-      <c r="CQ40" s="1"/>
+      <c r="CO40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CQ40" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="41" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="21">
         <v>210</v>
       </c>
       <c r="D41" s="9">
@@ -6119,16 +6234,16 @@
       <c r="AD41" s="10">
         <v>600</v>
       </c>
-      <c r="AE41" s="14">
+      <c r="AE41" s="13">
         <v>500</v>
       </c>
-      <c r="AF41" s="14">
+      <c r="AF41" s="13">
         <v>400</v>
       </c>
-      <c r="AG41" s="14">
+      <c r="AG41" s="13">
         <v>300</v>
       </c>
-      <c r="AH41" s="14"/>
+      <c r="AH41" s="13"/>
       <c r="AI41" s="8"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -6241,10 +6356,10 @@
       </c>
     </row>
     <row r="42" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="21">
         <v>210</v>
       </c>
       <c r="D42" s="9">
@@ -6301,17 +6416,17 @@
       <c r="AD42" s="10">
         <v>600</v>
       </c>
-      <c r="AE42" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF42" s="14">
+      <c r="AE42" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF42" s="13">
         <v>400</v>
       </c>
-      <c r="AG42" s="14">
+      <c r="AG42" s="13">
         <v>300</v>
       </c>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="12"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
@@ -6423,10 +6538,10 @@
       </c>
     </row>
     <row r="43" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="21">
         <v>210</v>
       </c>
       <c r="D43" s="9">
@@ -6483,17 +6598,17 @@
       <c r="AD43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AE43" s="14">
+      <c r="AE43" s="13">
         <v>500</v>
       </c>
-      <c r="AF43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="13"/>
+      <c r="AF43" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG43" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="12"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
@@ -6605,10 +6720,10 @@
       </c>
     </row>
     <row r="44" spans="2:165" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="21">
         <v>210</v>
       </c>
       <c r="D44" s="9">
@@ -6665,17 +6780,17 @@
       <c r="AD44" s="10">
         <v>600</v>
       </c>
-      <c r="AE44" s="14">
+      <c r="AE44" s="13">
         <v>500</v>
       </c>
-      <c r="AF44" s="14">
+      <c r="AF44" s="13">
         <v>400</v>
       </c>
-      <c r="AG44" s="14">
+      <c r="AG44" s="13">
         <v>300</v>
       </c>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="13"/>
+      <c r="AH44" s="13"/>
+      <c r="AI44" s="12"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
@@ -6787,10 +6902,10 @@
       </c>
     </row>
     <row r="45" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="21">
         <v>210</v>
       </c>
       <c r="D45" s="9" t="str">
@@ -6849,16 +6964,16 @@
       <c r="AD45" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AE45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH45" s="14"/>
+      <c r="AE45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH45" s="13"/>
       <c r="AI45" s="8"/>
       <c r="AJ45" s="2"/>
       <c r="AK45" s="2"/>
@@ -7043,10 +7158,10 @@
       <c r="FI45" s="3"/>
     </row>
     <row r="46" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="21">
         <v>211</v>
       </c>
       <c r="D46" s="9">
@@ -7067,13 +7182,13 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="26">
+      <c r="S46" s="24">
         <v>-1000</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="24">
         <v>-1500</v>
       </c>
-      <c r="U46" s="26">
+      <c r="U46" s="24">
         <v>-800</v>
       </c>
       <c r="V46" s="2"/>
@@ -7085,10 +7200,10 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="2"/>
       <c r="AK46" s="2"/>
@@ -7131,15 +7246,15 @@
       <c r="BV46" s="2"/>
       <c r="BW46" s="2"/>
       <c r="BX46" s="2"/>
-      <c r="BY46" s="26">
+      <c r="BY46" s="24">
         <f>IF(S46&lt;0,S46,0)</f>
         <v>-1000</v>
       </c>
-      <c r="BZ46" s="26">
+      <c r="BZ46" s="24">
         <f>IF(T46&lt;0,T46,0)</f>
         <v>-1500</v>
       </c>
-      <c r="CA46" s="26">
+      <c r="CA46" s="24">
         <f>IF(U46&lt;0,U46,0)</f>
         <v>-800</v>
       </c>
@@ -7235,17 +7350,17 @@
       <c r="FI46" s="3"/>
     </row>
     <row r="47" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="21">
         <v>211</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="28">
         <f>AVERAGE(SUM(BZ47,CD47,CG47,CJ47,CM47),SUM(CA47,CE47,CH47,CK47,CN47))</f>
         <v>-1150</v>
       </c>
-      <c r="E47" s="30"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -7259,13 +7374,13 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="T47" s="27">
+      <c r="S47" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="T47" s="25">
         <v>-1500</v>
       </c>
-      <c r="U47" s="27">
+      <c r="U47" s="25">
         <v>-800</v>
       </c>
       <c r="V47" s="10"/>
@@ -7277,11 +7392,11 @@
       <c r="AB47" s="10"/>
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
-      <c r="AE47" s="14"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="13"/>
+      <c r="AE47" s="13"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="12"/>
       <c r="AJ47" s="2"/>
       <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
@@ -7323,15 +7438,15 @@
       <c r="BV47" s="2"/>
       <c r="BW47" s="2"/>
       <c r="BX47" s="2"/>
-      <c r="BY47" s="26">
+      <c r="BY47" s="24">
         <f t="shared" ref="BY47:BY49" si="5">IF(S47&lt;0,S47,0)</f>
         <v>0</v>
       </c>
-      <c r="BZ47" s="26">
+      <c r="BZ47" s="24">
         <f t="shared" ref="BZ47:BZ49" si="6">IF(T47&lt;0,T47,0)</f>
         <v>-1500</v>
       </c>
-      <c r="CA47" s="26">
+      <c r="CA47" s="24">
         <f t="shared" ref="CA47:CA49" si="7">IF(U47&lt;0,U47,0)</f>
         <v>-800</v>
       </c>
@@ -7427,17 +7542,17 @@
       <c r="FI47" s="3"/>
     </row>
     <row r="48" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="21">
         <v>211</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="28">
         <f>AVERAGE(SUM(BY48,CC48,CF48,CI48,CL48))</f>
         <v>-100</v>
       </c>
-      <c r="E48" s="30"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -7451,13 +7566,13 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="27">
+      <c r="S48" s="25">
         <v>-100</v>
       </c>
-      <c r="T48" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="U48" s="27" t="s">
+      <c r="T48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U48" s="25" t="s">
         <v>59</v>
       </c>
       <c r="V48" s="10"/>
@@ -7469,11 +7584,11 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
-      <c r="AE48" s="14"/>
-      <c r="AF48" s="14"/>
-      <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="13"/>
+      <c r="AE48" s="13"/>
+      <c r="AF48" s="13"/>
+      <c r="AG48" s="13"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="12"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
@@ -7515,14 +7630,14 @@
       <c r="BV48" s="2"/>
       <c r="BW48" s="2"/>
       <c r="BX48" s="2"/>
-      <c r="BY48" s="26">
+      <c r="BY48" s="24">
         <f t="shared" si="5"/>
         <v>-100</v>
       </c>
-      <c r="BZ48" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="CA48" s="26" t="s">
+      <c r="BZ48" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA48" s="24" t="s">
         <v>59</v>
       </c>
       <c r="CB48" s="2"/>
@@ -7617,17 +7732,17 @@
       <c r="FI48" s="3"/>
     </row>
     <row r="49" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="21">
         <v>211</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="29">
         <f>AVERAGE(SUM(BY49,CC49,CF49,CI49,CL49),SUM(BZ49,CD49,CG49,CJ49,CM49),SUM(CA49,CE49,CH49,CK49,CN49))</f>
         <v>0</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -7641,13 +7756,13 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="25">
+      <c r="S49" s="23">
         <v>1000</v>
       </c>
-      <c r="T49" s="25">
+      <c r="T49" s="23">
         <v>1500</v>
       </c>
-      <c r="U49" s="25">
+      <c r="U49" s="23">
         <v>800</v>
       </c>
       <c r="V49" s="10"/>
@@ -7659,11 +7774,11 @@
       <c r="AB49" s="10"/>
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AG49" s="13"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="12"/>
       <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
@@ -7705,15 +7820,15 @@
       <c r="BV49" s="2"/>
       <c r="BW49" s="2"/>
       <c r="BX49" s="2"/>
-      <c r="BY49" s="26">
+      <c r="BY49" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BZ49" s="26">
+      <c r="BZ49" s="24">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="CA49" s="26">
+      <c r="CA49" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7809,16 +7924,16 @@
       <c r="FI49" s="3"/>
     </row>
     <row r="50" spans="2:165" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="21">
         <v>211</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F50" s="10"/>
@@ -7834,13 +7949,13 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="T50" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="U50" s="27" t="s">
+      <c r="S50" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="T50" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U50" s="25" t="s">
         <v>59</v>
       </c>
       <c r="V50" s="10"/>
@@ -7852,10 +7967,10 @@
       <c r="AB50" s="10"/>
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="13"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="2"/>
       <c r="AK50" s="2"/>
@@ -7898,13 +8013,13 @@
       <c r="BV50" s="2"/>
       <c r="BW50" s="2"/>
       <c r="BX50" s="2"/>
-      <c r="BY50" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="BZ50" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="CA50" s="26" t="s">
+      <c r="BY50" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="BZ50" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="CA50" s="24" t="s">
         <v>59</v>
       </c>
       <c r="CB50" s="2"/>
@@ -8004,14 +8119,14 @@
       <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="21">
         <v>212</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="28">
         <f>BW51/BX51</f>
         <v>0.35416666666666663</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -8040,10 +8155,10 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
-      <c r="AH51" s="45">
+      <c r="AH51" s="43">
         <v>500</v>
       </c>
-      <c r="AI51" s="46" t="s">
+      <c r="AI51" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ51" s="1">
@@ -8130,10 +8245,10 @@
       <c r="CL51" s="2"/>
       <c r="CM51" s="2"/>
       <c r="CN51" s="2"/>
-      <c r="CO51" s="31">
+      <c r="CO51" s="29">
         <v>0.35416666666666663</v>
       </c>
-      <c r="CP51" s="31"/>
+      <c r="CP51" s="29"/>
       <c r="CQ51" s="1" t="s">
         <v>368</v>
       </c>
@@ -8212,14 +8327,14 @@
       <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="21">
         <v>212</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="28">
         <f>BW52/BX52</f>
         <v>0</v>
       </c>
-      <c r="E52" s="30"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -8248,10 +8363,10 @@
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
-      <c r="AH52" s="45">
+      <c r="AH52" s="43">
         <v>200</v>
       </c>
-      <c r="AI52" s="46" t="s">
+      <c r="AI52" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ52" s="2">
@@ -8338,10 +8453,10 @@
       <c r="CL52" s="2"/>
       <c r="CM52" s="2"/>
       <c r="CN52" s="2"/>
-      <c r="CO52" s="31">
+      <c r="CO52" s="29">
         <v>0</v>
       </c>
-      <c r="CP52" s="31"/>
+      <c r="CP52" s="29"/>
       <c r="CQ52" s="1" t="s">
         <v>368</v>
       </c>
@@ -8420,13 +8535,13 @@
       <c r="B53" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="21">
         <v>212</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="25">
         <v>999999</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="10"/>
@@ -8457,10 +8572,10 @@
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
       <c r="AG53" s="8"/>
-      <c r="AH53" s="45">
+      <c r="AH53" s="43">
         <v>0</v>
       </c>
-      <c r="AI53" s="46" t="s">
+      <c r="AI53" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ53" s="2">
@@ -8545,10 +8660,10 @@
       <c r="CL53" s="2"/>
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
-      <c r="CO53" s="31">
+      <c r="CO53" s="29">
         <v>0.4</v>
       </c>
-      <c r="CP53" s="31"/>
+      <c r="CP53" s="29"/>
       <c r="CQ53" s="1" t="s">
         <v>368</v>
       </c>
@@ -8627,13 +8742,13 @@
       <c r="B54" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="21">
         <v>212</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F54" s="10"/>
@@ -8664,10 +8779,10 @@
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
-      <c r="AH54" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI54" s="46" t="s">
+      <c r="AH54" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI54" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ54" s="2" t="s">
@@ -8749,10 +8864,10 @@
       <c r="CL54" s="2"/>
       <c r="CM54" s="2"/>
       <c r="CN54" s="2"/>
-      <c r="CO54" s="31" t="s">
+      <c r="CO54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP54" s="31" t="s">
+      <c r="CP54" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ54" s="1" t="s">
@@ -8833,13 +8948,13 @@
       <c r="B55" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="21">
         <v>212</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="28">
         <v>-1000000</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F55" s="10"/>
@@ -8870,10 +8985,10 @@
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
-      <c r="AH55" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI55" s="46" t="s">
+      <c r="AH55" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI55" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ55" s="1">
@@ -8960,10 +9075,10 @@
       <c r="CL55" s="2"/>
       <c r="CM55" s="2"/>
       <c r="CN55" s="2"/>
-      <c r="CO55" s="43">
+      <c r="CO55" s="41">
         <v>-1000000</v>
       </c>
-      <c r="CP55" s="31" t="s">
+      <c r="CP55" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ55" s="1" t="s">
@@ -9044,13 +9159,13 @@
       <c r="B56" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="21">
         <v>212</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F56" s="9"/>
@@ -9081,10 +9196,10 @@
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
-      <c r="AH56" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI56" s="46" t="s">
+      <c r="AH56" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI56" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ56" s="2">
@@ -9167,10 +9282,10 @@
       <c r="CL56" s="1"/>
       <c r="CM56" s="1"/>
       <c r="CN56" s="1"/>
-      <c r="CO56" s="31" t="s">
+      <c r="CO56" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP56" s="31" t="s">
+      <c r="CP56" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ56" s="1" t="s">
@@ -9181,13 +9296,13 @@
       <c r="B57" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="21">
         <v>212</v>
       </c>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F57" s="1"/>
@@ -9218,10 +9333,10 @@
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
-      <c r="AH57" s="26">
+      <c r="AH57" s="24">
         <v>200</v>
       </c>
-      <c r="AI57" s="27" t="s">
+      <c r="AI57" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ57" s="2">
@@ -9308,10 +9423,10 @@
       <c r="CL57" s="1"/>
       <c r="CM57" s="1"/>
       <c r="CN57" s="1"/>
-      <c r="CO57" s="31" t="s">
+      <c r="CO57" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP57" s="31" t="s">
+      <c r="CP57" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ57" s="1" t="s">
@@ -9322,13 +9437,13 @@
       <c r="B58" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="21">
         <v>212</v>
       </c>
-      <c r="D58" s="31" t="s">
+      <c r="D58" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F58" s="1"/>
@@ -9359,10 +9474,10 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
-      <c r="AH58" s="26">
+      <c r="AH58" s="24">
         <v>300</v>
       </c>
-      <c r="AI58" s="27" t="s">
+      <c r="AI58" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ58" s="2">
@@ -9449,10 +9564,10 @@
       <c r="CL58" s="1"/>
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
-      <c r="CO58" s="31" t="s">
+      <c r="CO58" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP58" s="31" t="s">
+      <c r="CP58" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ58" s="1" t="s">
@@ -9463,14 +9578,14 @@
       <c r="B59" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="21">
         <v>212</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="29">
         <f>BY59</f>
         <v>999999</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="30" t="s">
         <v>94</v>
       </c>
       <c r="F59" s="1"/>
@@ -9507,22 +9622,22 @@
       <c r="AI59" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AJ59" s="15">
+      <c r="AJ59" s="14">
         <v>500</v>
       </c>
-      <c r="AK59" s="15">
+      <c r="AK59" s="14">
         <v>300</v>
       </c>
-      <c r="AL59" s="15">
+      <c r="AL59" s="14">
         <v>100</v>
       </c>
-      <c r="AM59" s="15">
+      <c r="AM59" s="14">
         <v>500</v>
       </c>
-      <c r="AN59" s="15">
+      <c r="AN59" s="14">
         <v>300</v>
       </c>
-      <c r="AO59" s="15">
+      <c r="AO59" s="14">
         <v>100</v>
       </c>
       <c r="AP59" s="1"/>
@@ -9558,15 +9673,15 @@
       <c r="BT59" s="1"/>
       <c r="BU59" s="1"/>
       <c r="BV59" s="1"/>
-      <c r="BW59" s="25">
+      <c r="BW59" s="23">
         <f>AVERAGE(BZ59,CA59,CB59)</f>
         <v>0</v>
       </c>
-      <c r="BX59" s="25">
+      <c r="BX59" s="23">
         <f t="shared" si="10"/>
         <v>300</v>
       </c>
-      <c r="BY59" s="25">
+      <c r="BY59" s="23">
         <f>IF(AND(AI59 &lt;&gt; "AC", AH59=0),999999,"-")</f>
         <v>999999</v>
       </c>
@@ -9594,10 +9709,10 @@
       <c r="CL59" s="1"/>
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
-      <c r="CO59" s="31">
+      <c r="CO59" s="29">
         <v>999999</v>
       </c>
-      <c r="CP59" s="31" t="s">
+      <c r="CP59" s="29" t="s">
         <v>94</v>
       </c>
       <c r="CQ59" s="1" t="s">
@@ -9608,14 +9723,14 @@
       <c r="B60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="21">
         <v>212</v>
       </c>
-      <c r="D60" s="30">
+      <c r="D60" s="28">
         <f t="shared" ref="D60:D64" si="12">BW60/BX60</f>
         <v>0</v>
       </c>
-      <c r="E60" s="31"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -9647,7 +9762,7 @@
       <c r="AH60" s="1">
         <v>0</v>
       </c>
-      <c r="AI60" s="16" t="s">
+      <c r="AI60" s="15" t="s">
         <v>87</v>
       </c>
       <c r="AJ60" s="2">
@@ -9737,10 +9852,10 @@
       <c r="CL60" s="1"/>
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
-      <c r="CO60" s="31">
+      <c r="CO60" s="29">
         <v>0</v>
       </c>
-      <c r="CP60" s="31"/>
+      <c r="CP60" s="29"/>
       <c r="CQ60" s="1" t="s">
         <v>368</v>
       </c>
@@ -9749,14 +9864,14 @@
       <c r="B61" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="21">
         <v>212</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="28">
         <f t="shared" si="12"/>
         <v>0.34615384615384615</v>
       </c>
-      <c r="E61" s="31"/>
+      <c r="E61" s="29"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -9785,10 +9900,10 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
-      <c r="AH61" s="18">
+      <c r="AH61" s="17">
         <v>300</v>
       </c>
-      <c r="AI61" s="17" t="s">
+      <c r="AI61" s="16" t="s">
         <v>92</v>
       </c>
       <c r="AJ61" s="2">
@@ -9878,10 +9993,10 @@
       <c r="CL61" s="1"/>
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
-      <c r="CO61" s="31">
+      <c r="CO61" s="29">
         <v>0.34615384615384615</v>
       </c>
-      <c r="CP61" s="31"/>
+      <c r="CP61" s="29"/>
       <c r="CQ61" s="1" t="s">
         <v>368</v>
       </c>
@@ -9890,14 +10005,14 @@
       <c r="B62" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="21">
         <v>212</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="28">
         <f t="shared" si="12"/>
         <v>0.34615384615384615</v>
       </c>
-      <c r="E62" s="31"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -10019,10 +10134,10 @@
       <c r="CL62" s="1"/>
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
-      <c r="CO62" s="31">
+      <c r="CO62" s="29">
         <v>0.34615384615384615</v>
       </c>
-      <c r="CP62" s="31"/>
+      <c r="CP62" s="29"/>
       <c r="CQ62" s="1" t="s">
         <v>368</v>
       </c>
@@ -10031,14 +10146,14 @@
       <c r="B63" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="21">
         <v>213</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="29">
         <f t="shared" si="12"/>
         <v>0.17857142857142855</v>
       </c>
-      <c r="E63" s="31"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -10067,10 +10182,10 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
-      <c r="AH63" s="45">
+      <c r="AH63" s="43">
         <v>500</v>
       </c>
-      <c r="AI63" s="46" t="s">
+      <c r="AI63" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ63" s="1"/>
@@ -10157,10 +10272,10 @@
       <c r="CL63" s="1"/>
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
-      <c r="CO63" s="31">
+      <c r="CO63" s="29">
         <v>0.17857142857142855</v>
       </c>
-      <c r="CP63" s="31"/>
+      <c r="CP63" s="29"/>
       <c r="CQ63" s="1" t="s">
         <v>368</v>
       </c>
@@ -10169,14 +10284,14 @@
       <c r="B64" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="21">
         <v>213</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E64" s="31"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -10205,10 +10320,10 @@
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
-      <c r="AH64" s="45">
+      <c r="AH64" s="43">
         <v>200</v>
       </c>
-      <c r="AI64" s="46" t="s">
+      <c r="AI64" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ64" s="1"/>
@@ -10295,10 +10410,10 @@
       <c r="CL64" s="1"/>
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
-      <c r="CO64" s="31">
+      <c r="CO64" s="29">
         <v>0</v>
       </c>
-      <c r="CP64" s="31"/>
+      <c r="CP64" s="29"/>
       <c r="CQ64" s="1" t="s">
         <v>368</v>
       </c>
@@ -10307,13 +10422,13 @@
       <c r="B65" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="21">
         <v>213</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="25">
         <v>999999</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F65" s="1"/>
@@ -10344,10 +10459,10 @@
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
-      <c r="AH65" s="45">
+      <c r="AH65" s="43">
         <v>0</v>
       </c>
-      <c r="AI65" s="46" t="s">
+      <c r="AI65" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ65" s="1"/>
@@ -10432,10 +10547,10 @@
       <c r="CL65" s="1"/>
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
-      <c r="CO65" s="31">
+      <c r="CO65" s="29">
         <v>0.625</v>
       </c>
-      <c r="CP65" s="31"/>
+      <c r="CP65" s="29"/>
       <c r="CQ65" s="1" t="s">
         <v>368</v>
       </c>
@@ -10444,13 +10559,13 @@
       <c r="B66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="21">
         <v>213</v>
       </c>
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="33" t="s">
+      <c r="E66" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="1"/>
@@ -10481,10 +10596,10 @@
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
-      <c r="AH66" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI66" s="46" t="s">
+      <c r="AH66" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI66" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ66" s="1"/>
@@ -10566,10 +10681,10 @@
       <c r="CL66" s="1"/>
       <c r="CM66" s="1"/>
       <c r="CN66" s="1"/>
-      <c r="CO66" s="31" t="s">
+      <c r="CO66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP66" s="31" t="s">
+      <c r="CP66" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ66" s="1" t="s">
@@ -10580,13 +10695,13 @@
       <c r="B67" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="21">
         <v>213</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D67" s="28">
         <v>-1000000</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F67" s="1"/>
@@ -10617,10 +10732,10 @@
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
-      <c r="AH67" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI67" s="46" t="s">
+      <c r="AH67" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI67" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ67" s="1"/>
@@ -10707,10 +10822,10 @@
       <c r="CL67" s="1"/>
       <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
-      <c r="CO67" s="43">
+      <c r="CO67" s="41">
         <v>-1000000</v>
       </c>
-      <c r="CP67" s="31" t="s">
+      <c r="CP67" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ67" s="1" t="s">
@@ -10721,13 +10836,13 @@
       <c r="B68" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="21">
         <v>213</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F68" s="1"/>
@@ -10758,10 +10873,10 @@
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
-      <c r="AH68" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI68" s="46" t="s">
+      <c r="AH68" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI68" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ68" s="1"/>
@@ -10844,10 +10959,10 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
-      <c r="CO68" s="31" t="s">
+      <c r="CO68" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP68" s="31" t="s">
+      <c r="CP68" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ68" s="1" t="s">
@@ -10858,13 +10973,13 @@
       <c r="B69" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="21">
         <v>213</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F69" s="1"/>
@@ -10895,10 +11010,10 @@
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
-      <c r="AH69" s="26">
+      <c r="AH69" s="24">
         <v>200</v>
       </c>
-      <c r="AI69" s="27" t="s">
+      <c r="AI69" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ69" s="1"/>
@@ -10985,10 +11100,10 @@
       <c r="CL69" s="1"/>
       <c r="CM69" s="1"/>
       <c r="CN69" s="1"/>
-      <c r="CO69" s="31" t="s">
+      <c r="CO69" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP69" s="31" t="s">
+      <c r="CP69" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ69" s="1" t="s">
@@ -10999,13 +11114,13 @@
       <c r="B70" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="21">
         <v>213</v>
       </c>
-      <c r="D70" s="31" t="s">
+      <c r="D70" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E70" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F70" s="1"/>
@@ -11036,10 +11151,10 @@
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
-      <c r="AH70" s="26">
+      <c r="AH70" s="24">
         <v>300</v>
       </c>
-      <c r="AI70" s="27" t="s">
+      <c r="AI70" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ70" s="1"/>
@@ -11126,10 +11241,10 @@
       <c r="CL70" s="1"/>
       <c r="CM70" s="1"/>
       <c r="CN70" s="1"/>
-      <c r="CO70" s="31" t="s">
+      <c r="CO70" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP70" s="31" t="s">
+      <c r="CP70" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ70" s="1" t="s">
@@ -11140,14 +11255,14 @@
       <c r="B71" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="21">
         <v>213</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="29">
         <f>BY71</f>
         <v>999999</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="30" t="s">
         <v>94</v>
       </c>
       <c r="F71" s="1"/>
@@ -11190,22 +11305,22 @@
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
-      <c r="AP71" s="15">
+      <c r="AP71" s="14">
         <v>500</v>
       </c>
-      <c r="AQ71" s="15">
+      <c r="AQ71" s="14">
         <v>300</v>
       </c>
-      <c r="AR71" s="15">
+      <c r="AR71" s="14">
         <v>100</v>
       </c>
-      <c r="AS71" s="15">
+      <c r="AS71" s="14">
         <v>500</v>
       </c>
-      <c r="AT71" s="15">
+      <c r="AT71" s="14">
         <v>300</v>
       </c>
-      <c r="AU71" s="15">
+      <c r="AU71" s="14">
         <v>100</v>
       </c>
       <c r="AV71" s="1"/>
@@ -11271,10 +11386,10 @@
       <c r="CL71" s="1"/>
       <c r="CM71" s="1"/>
       <c r="CN71" s="1"/>
-      <c r="CO71" s="31">
+      <c r="CO71" s="29">
         <v>999999</v>
       </c>
-      <c r="CP71" s="31" t="s">
+      <c r="CP71" s="29" t="s">
         <v>94</v>
       </c>
       <c r="CQ71" s="1" t="s">
@@ -11285,14 +11400,14 @@
       <c r="B72" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="21">
         <v>213</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="29">
         <f>BW72/BX72</f>
         <v>0</v>
       </c>
-      <c r="E72" s="31"/>
+      <c r="E72" s="29"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -11324,7 +11439,7 @@
       <c r="AH72" s="1">
         <v>0</v>
       </c>
-      <c r="AI72" s="16" t="s">
+      <c r="AI72" s="15" t="s">
         <v>87</v>
       </c>
       <c r="AJ72" s="1"/>
@@ -11414,10 +11529,10 @@
       <c r="CL72" s="1"/>
       <c r="CM72" s="1"/>
       <c r="CN72" s="1"/>
-      <c r="CO72" s="31">
+      <c r="CO72" s="29">
         <v>0</v>
       </c>
-      <c r="CP72" s="31"/>
+      <c r="CP72" s="29"/>
       <c r="CQ72" s="1" t="s">
         <v>368</v>
       </c>
@@ -11426,14 +11541,14 @@
       <c r="B73" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="21">
         <v>213</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="29">
         <f t="shared" ref="D73:D74" si="24">BW73/BX73</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="E73" s="31"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -11462,10 +11577,10 @@
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
-      <c r="AH73" s="18">
+      <c r="AH73" s="17">
         <v>300</v>
       </c>
-      <c r="AI73" s="17" t="s">
+      <c r="AI73" s="16" t="s">
         <v>92</v>
       </c>
       <c r="AJ73" s="1"/>
@@ -11555,10 +11670,10 @@
       <c r="CL73" s="1"/>
       <c r="CM73" s="1"/>
       <c r="CN73" s="1"/>
-      <c r="CO73" s="31">
+      <c r="CO73" s="29">
         <v>0.41379310344827586</v>
       </c>
-      <c r="CP73" s="31"/>
+      <c r="CP73" s="29"/>
       <c r="CQ73" s="1" t="s">
         <v>368</v>
       </c>
@@ -11567,14 +11682,14 @@
       <c r="B74" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="21">
         <v>213</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="29">
         <f t="shared" si="24"/>
         <v>0.34615384615384615</v>
       </c>
-      <c r="E74" s="31"/>
+      <c r="E74" s="29"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -11696,10 +11811,10 @@
       <c r="CL74" s="1"/>
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
-      <c r="CO74" s="31">
+      <c r="CO74" s="29">
         <v>0.34615384615384615</v>
       </c>
-      <c r="CP74" s="31"/>
+      <c r="CP74" s="29"/>
       <c r="CQ74" s="1" t="s">
         <v>368</v>
       </c>
@@ -11708,14 +11823,14 @@
       <c r="B75" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="21">
         <v>214</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="29">
         <f>BW75/BX75</f>
         <v>0.2</v>
       </c>
-      <c r="E75" s="31"/>
+      <c r="E75" s="29"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -11744,10 +11859,10 @@
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
       <c r="AG75" s="1"/>
-      <c r="AH75" s="45">
+      <c r="AH75" s="43">
         <v>500</v>
       </c>
-      <c r="AI75" s="46" t="s">
+      <c r="AI75" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ75" s="1"/>
@@ -11834,10 +11949,10 @@
       <c r="CL75" s="1"/>
       <c r="CM75" s="1"/>
       <c r="CN75" s="1"/>
-      <c r="CO75" s="31">
+      <c r="CO75" s="29">
         <v>0.2</v>
       </c>
-      <c r="CP75" s="31"/>
+      <c r="CP75" s="29"/>
       <c r="CQ75" s="1" t="s">
         <v>368</v>
       </c>
@@ -11846,14 +11961,14 @@
       <c r="B76" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="21">
         <v>214</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="29">
         <f t="shared" ref="D76:D86" si="26">BW76/BX76</f>
         <v>0</v>
       </c>
-      <c r="E76" s="31"/>
+      <c r="E76" s="29"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -11882,10 +11997,10 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
-      <c r="AH76" s="45">
+      <c r="AH76" s="43">
         <v>200</v>
       </c>
-      <c r="AI76" s="46" t="s">
+      <c r="AI76" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ76" s="1"/>
@@ -11972,10 +12087,10 @@
       <c r="CL76" s="1"/>
       <c r="CM76" s="1"/>
       <c r="CN76" s="1"/>
-      <c r="CO76" s="31">
+      <c r="CO76" s="29">
         <v>0</v>
       </c>
-      <c r="CP76" s="31"/>
+      <c r="CP76" s="29"/>
       <c r="CQ76" s="1" t="s">
         <v>368</v>
       </c>
@@ -11984,13 +12099,13 @@
       <c r="B77" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="21">
         <v>214</v>
       </c>
-      <c r="D77" s="27">
+      <c r="D77" s="25">
         <v>999999</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E77" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F77" s="1"/>
@@ -12021,10 +12136,10 @@
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
       <c r="AG77" s="1"/>
-      <c r="AH77" s="45">
+      <c r="AH77" s="43">
         <v>0</v>
       </c>
-      <c r="AI77" s="46" t="s">
+      <c r="AI77" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ77" s="1"/>
@@ -12109,10 +12224,10 @@
       <c r="CL77" s="1"/>
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
-      <c r="CO77" s="31">
+      <c r="CO77" s="29">
         <v>0.2</v>
       </c>
-      <c r="CP77" s="31"/>
+      <c r="CP77" s="29"/>
       <c r="CQ77" s="1" t="s">
         <v>368</v>
       </c>
@@ -12121,13 +12236,13 @@
       <c r="B78" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="21">
         <v>214</v>
       </c>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F78" s="1"/>
@@ -12158,10 +12273,10 @@
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
       <c r="AG78" s="1"/>
-      <c r="AH78" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI78" s="46" t="s">
+      <c r="AH78" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI78" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ78" s="1"/>
@@ -12243,10 +12358,10 @@
       <c r="CL78" s="1"/>
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
-      <c r="CO78" s="31" t="s">
+      <c r="CO78" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP78" s="31" t="s">
+      <c r="CP78" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ78" s="1" t="s">
@@ -12257,13 +12372,13 @@
       <c r="B79" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="21">
         <v>214</v>
       </c>
-      <c r="D79" s="30">
+      <c r="D79" s="28">
         <v>-1000000</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F79" s="1"/>
@@ -12294,10 +12409,10 @@
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
       <c r="AG79" s="1"/>
-      <c r="AH79" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI79" s="46" t="s">
+      <c r="AH79" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI79" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ79" s="1"/>
@@ -12384,10 +12499,10 @@
       <c r="CL79" s="1"/>
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
-      <c r="CO79" s="43">
+      <c r="CO79" s="41">
         <v>-1000000</v>
       </c>
-      <c r="CP79" s="31" t="s">
+      <c r="CP79" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ79" s="1" t="s">
@@ -12398,13 +12513,13 @@
       <c r="B80" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="21">
         <v>214</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F80" s="1"/>
@@ -12435,10 +12550,10 @@
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
-      <c r="AH80" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI80" s="46" t="s">
+      <c r="AH80" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI80" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ80" s="1"/>
@@ -12521,10 +12636,10 @@
       <c r="CL80" s="1"/>
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
-      <c r="CO80" s="31" t="s">
+      <c r="CO80" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP80" s="31" t="s">
+      <c r="CP80" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ80" s="1" t="s">
@@ -12535,13 +12650,13 @@
       <c r="B81" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="21">
         <v>214</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="32" t="s">
+      <c r="E81" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F81" s="1"/>
@@ -12572,10 +12687,10 @@
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
-      <c r="AH81" s="26">
+      <c r="AH81" s="24">
         <v>200</v>
       </c>
-      <c r="AI81" s="27" t="s">
+      <c r="AI81" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ81" s="1"/>
@@ -12662,10 +12777,10 @@
       <c r="CL81" s="1"/>
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
-      <c r="CO81" s="31" t="s">
+      <c r="CO81" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP81" s="31" t="s">
+      <c r="CP81" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ81" s="1" t="s">
@@ -12676,13 +12791,13 @@
       <c r="B82" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="21">
         <v>214</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="32" t="s">
+      <c r="E82" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F82" s="1"/>
@@ -12713,10 +12828,10 @@
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
       <c r="AG82" s="1"/>
-      <c r="AH82" s="26">
+      <c r="AH82" s="24">
         <v>300</v>
       </c>
-      <c r="AI82" s="27" t="s">
+      <c r="AI82" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ82" s="1"/>
@@ -12803,10 +12918,10 @@
       <c r="CL82" s="1"/>
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
-      <c r="CO82" s="31" t="s">
+      <c r="CO82" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP82" s="31" t="s">
+      <c r="CP82" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ82" s="1" t="s">
@@ -12817,14 +12932,14 @@
       <c r="B83" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="21">
         <v>214</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="29">
         <f>BY83</f>
         <v>999999</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="E83" s="30" t="s">
         <v>94</v>
       </c>
       <c r="F83" s="1"/>
@@ -12873,22 +12988,22 @@
       <c r="AS83" s="1"/>
       <c r="AT83" s="1"/>
       <c r="AU83" s="1"/>
-      <c r="AV83" s="15">
+      <c r="AV83" s="14">
         <v>500</v>
       </c>
-      <c r="AW83" s="15">
+      <c r="AW83" s="14">
         <v>300</v>
       </c>
-      <c r="AX83" s="15">
+      <c r="AX83" s="14">
         <v>100</v>
       </c>
-      <c r="AY83" s="15">
+      <c r="AY83" s="14">
         <v>500</v>
       </c>
-      <c r="AZ83" s="15">
+      <c r="AZ83" s="14">
         <v>300</v>
       </c>
-      <c r="BA83" s="15">
+      <c r="BA83" s="14">
         <v>100</v>
       </c>
       <c r="BB83" s="1"/>
@@ -12948,10 +13063,10 @@
       <c r="CL83" s="1"/>
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
-      <c r="CO83" s="31">
+      <c r="CO83" s="29">
         <v>999999</v>
       </c>
-      <c r="CP83" s="31" t="s">
+      <c r="CP83" s="29" t="s">
         <v>94</v>
       </c>
       <c r="CQ83" s="1" t="s">
@@ -12962,14 +13077,14 @@
       <c r="B84" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="21">
         <v>214</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E84" s="31"/>
+      <c r="E84" s="29"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -13001,7 +13116,7 @@
       <c r="AH84" s="1">
         <v>0</v>
       </c>
-      <c r="AI84" s="16" t="s">
+      <c r="AI84" s="15" t="s">
         <v>87</v>
       </c>
       <c r="AJ84" s="1"/>
@@ -13091,10 +13206,10 @@
       <c r="CL84" s="1"/>
       <c r="CM84" s="1"/>
       <c r="CN84" s="1"/>
-      <c r="CO84" s="31">
+      <c r="CO84" s="29">
         <v>0</v>
       </c>
-      <c r="CP84" s="31"/>
+      <c r="CP84" s="29"/>
       <c r="CQ84" s="1" t="s">
         <v>368</v>
       </c>
@@ -13103,14 +13218,14 @@
       <c r="B85" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="21">
         <v>214</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="29">
         <f t="shared" si="26"/>
         <v>0.47761194029850745</v>
       </c>
-      <c r="E85" s="31"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -13139,10 +13254,10 @@
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
       <c r="AG85" s="1"/>
-      <c r="AH85" s="18">
+      <c r="AH85" s="17">
         <v>300</v>
       </c>
-      <c r="AI85" s="17" t="s">
+      <c r="AI85" s="16" t="s">
         <v>92</v>
       </c>
       <c r="AJ85" s="1"/>
@@ -13232,10 +13347,10 @@
       <c r="CL85" s="1"/>
       <c r="CM85" s="1"/>
       <c r="CN85" s="1"/>
-      <c r="CO85" s="31">
+      <c r="CO85" s="29">
         <v>0.47761194029850745</v>
       </c>
-      <c r="CP85" s="31"/>
+      <c r="CP85" s="29"/>
       <c r="CQ85" s="1" t="s">
         <v>368</v>
       </c>
@@ -13244,14 +13359,14 @@
       <c r="B86" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="21">
         <v>214</v>
       </c>
-      <c r="D86" s="31">
+      <c r="D86" s="29">
         <f t="shared" si="26"/>
         <v>0.20408163265306123</v>
       </c>
-      <c r="E86" s="31"/>
+      <c r="E86" s="29"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -13373,10 +13488,10 @@
       <c r="CL86" s="1"/>
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
-      <c r="CO86" s="31">
+      <c r="CO86" s="29">
         <v>0.20408163265306123</v>
       </c>
-      <c r="CP86" s="31"/>
+      <c r="CP86" s="29"/>
       <c r="CQ86" s="1" t="s">
         <v>368</v>
       </c>
@@ -13385,14 +13500,14 @@
       <c r="B87" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="21">
         <v>215</v>
       </c>
-      <c r="D87" s="31">
+      <c r="D87" s="29">
         <f>BW87/BX87</f>
         <v>0.2</v>
       </c>
-      <c r="E87" s="31"/>
+      <c r="E87" s="29"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -13421,10 +13536,10 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
       <c r="AG87" s="1"/>
-      <c r="AH87" s="45">
+      <c r="AH87" s="43">
         <v>500</v>
       </c>
-      <c r="AI87" s="46" t="s">
+      <c r="AI87" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ87" s="1"/>
@@ -13511,10 +13626,10 @@
       <c r="CL87" s="1"/>
       <c r="CM87" s="1"/>
       <c r="CN87" s="1"/>
-      <c r="CO87" s="31">
+      <c r="CO87" s="29">
         <v>0.2</v>
       </c>
-      <c r="CP87" s="31"/>
+      <c r="CP87" s="29"/>
       <c r="CQ87" s="1" t="s">
         <v>368</v>
       </c>
@@ -13523,14 +13638,14 @@
       <c r="B88" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="21">
         <v>215</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D88" s="29">
         <f t="shared" ref="D88:D98" si="34">BW88/BX88</f>
         <v>0</v>
       </c>
-      <c r="E88" s="31"/>
+      <c r="E88" s="29"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -13559,10 +13674,10 @@
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
       <c r="AG88" s="1"/>
-      <c r="AH88" s="45">
+      <c r="AH88" s="43">
         <v>200</v>
       </c>
-      <c r="AI88" s="46" t="s">
+      <c r="AI88" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ88" s="1"/>
@@ -13649,10 +13764,10 @@
       <c r="CL88" s="1"/>
       <c r="CM88" s="1"/>
       <c r="CN88" s="1"/>
-      <c r="CO88" s="31">
+      <c r="CO88" s="29">
         <v>0</v>
       </c>
-      <c r="CP88" s="31"/>
+      <c r="CP88" s="29"/>
       <c r="CQ88" s="1" t="s">
         <v>368</v>
       </c>
@@ -13661,13 +13776,13 @@
       <c r="B89" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="21">
         <v>215</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="25">
         <v>999999</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E89" s="25" t="s">
         <v>94</v>
       </c>
       <c r="F89" s="1"/>
@@ -13698,10 +13813,10 @@
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
       <c r="AG89" s="1"/>
-      <c r="AH89" s="45">
+      <c r="AH89" s="43">
         <v>0</v>
       </c>
-      <c r="AI89" s="46" t="s">
+      <c r="AI89" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ89" s="1"/>
@@ -13786,10 +13901,10 @@
       <c r="CL89" s="1"/>
       <c r="CM89" s="1"/>
       <c r="CN89" s="1"/>
-      <c r="CO89" s="31">
+      <c r="CO89" s="29">
         <v>0.55000000000000004</v>
       </c>
-      <c r="CP89" s="31"/>
+      <c r="CP89" s="29"/>
       <c r="CQ89" s="1" t="s">
         <v>368</v>
       </c>
@@ -13798,13 +13913,13 @@
       <c r="B90" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="21">
         <v>215</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="31" t="s">
         <v>89</v>
       </c>
       <c r="F90" s="1"/>
@@ -13835,10 +13950,10 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1"/>
-      <c r="AH90" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI90" s="46" t="s">
+      <c r="AH90" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI90" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ90" s="1"/>
@@ -13920,10 +14035,10 @@
       <c r="CL90" s="1"/>
       <c r="CM90" s="1"/>
       <c r="CN90" s="1"/>
-      <c r="CO90" s="31" t="s">
+      <c r="CO90" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP90" s="31" t="s">
+      <c r="CP90" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ90" s="1" t="s">
@@ -13934,13 +14049,13 @@
       <c r="B91" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="21">
         <v>215</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="28">
         <v>-1000000</v>
       </c>
-      <c r="E91" s="32" t="s">
+      <c r="E91" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F91" s="1"/>
@@ -13971,10 +14086,10 @@
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
-      <c r="AH91" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI91" s="46" t="s">
+      <c r="AH91" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI91" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ91" s="1"/>
@@ -14061,10 +14176,10 @@
       <c r="CL91" s="1"/>
       <c r="CM91" s="1"/>
       <c r="CN91" s="1"/>
-      <c r="CO91" s="43">
+      <c r="CO91" s="41">
         <v>-1000000</v>
       </c>
-      <c r="CP91" s="31" t="s">
+      <c r="CP91" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ91" s="1" t="s">
@@ -14075,13 +14190,13 @@
       <c r="B92" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="21">
         <v>215</v>
       </c>
-      <c r="D92" s="31" t="s">
+      <c r="D92" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F92" s="1"/>
@@ -14112,10 +14227,10 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
-      <c r="AH92" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI92" s="46" t="s">
+      <c r="AH92" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI92" s="44" t="s">
         <v>59</v>
       </c>
       <c r="AJ92" s="1"/>
@@ -14198,10 +14313,10 @@
       <c r="CL92" s="1"/>
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
-      <c r="CO92" s="31" t="s">
+      <c r="CO92" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP92" s="31" t="s">
+      <c r="CP92" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ92" s="1" t="s">
@@ -14212,13 +14327,13 @@
       <c r="B93" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="21">
         <v>215</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D93" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E93" s="32" t="s">
+      <c r="E93" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F93" s="1"/>
@@ -14249,10 +14364,10 @@
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
       <c r="AG93" s="1"/>
-      <c r="AH93" s="26">
+      <c r="AH93" s="24">
         <v>200</v>
       </c>
-      <c r="AI93" s="27" t="s">
+      <c r="AI93" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ93" s="1"/>
@@ -14339,10 +14454,10 @@
       <c r="CL93" s="1"/>
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
-      <c r="CO93" s="31" t="s">
+      <c r="CO93" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP93" s="31" t="s">
+      <c r="CP93" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ93" s="1" t="s">
@@ -14353,13 +14468,13 @@
       <c r="B94" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="21">
         <v>215</v>
       </c>
-      <c r="D94" s="31" t="s">
+      <c r="D94" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F94" s="1"/>
@@ -14390,10 +14505,10 @@
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
       <c r="AG94" s="1"/>
-      <c r="AH94" s="26">
+      <c r="AH94" s="24">
         <v>300</v>
       </c>
-      <c r="AI94" s="27" t="s">
+      <c r="AI94" s="25" t="s">
         <v>59</v>
       </c>
       <c r="AJ94" s="1"/>
@@ -14480,10 +14595,10 @@
       <c r="CL94" s="1"/>
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
-      <c r="CO94" s="31" t="s">
+      <c r="CO94" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP94" s="31" t="s">
+      <c r="CP94" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ94" s="1" t="s">
@@ -14494,14 +14609,14 @@
       <c r="B95" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="21">
         <v>215</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D95" s="29">
         <f>BY95</f>
         <v>999999</v>
       </c>
-      <c r="E95" s="32" t="s">
+      <c r="E95" s="30" t="s">
         <v>94</v>
       </c>
       <c r="F95" s="1"/>
@@ -14556,27 +14671,27 @@
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
-      <c r="BB95" s="15">
+      <c r="BB95" s="14">
         <v>500</v>
       </c>
-      <c r="BC95" s="15">
+      <c r="BC95" s="14">
         <v>300</v>
       </c>
-      <c r="BD95" s="15">
+      <c r="BD95" s="14">
         <v>100</v>
       </c>
-      <c r="BE95" s="15">
+      <c r="BE95" s="14">
         <v>500</v>
       </c>
-      <c r="BF95" s="15">
+      <c r="BF95" s="14">
         <v>300</v>
       </c>
-      <c r="BG95" s="15">
+      <c r="BG95" s="14">
         <v>100</v>
       </c>
-      <c r="BH95" s="15"/>
-      <c r="BI95" s="15"/>
-      <c r="BJ95" s="15"/>
+      <c r="BH95" s="14"/>
+      <c r="BI95" s="14"/>
+      <c r="BJ95" s="14"/>
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
       <c r="BM95" s="1"/>
@@ -14625,10 +14740,10 @@
       <c r="CL95" s="1"/>
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
-      <c r="CO95" s="31">
+      <c r="CO95" s="29">
         <v>999999</v>
       </c>
-      <c r="CP95" s="31" t="s">
+      <c r="CP95" s="29" t="s">
         <v>94</v>
       </c>
       <c r="CQ95" s="1" t="s">
@@ -14639,14 +14754,14 @@
       <c r="B96" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="21">
         <v>215</v>
       </c>
-      <c r="D96" s="31">
+      <c r="D96" s="29">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E96" s="31"/>
+      <c r="E96" s="29"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -14678,7 +14793,7 @@
       <c r="AH96" s="1">
         <v>0</v>
       </c>
-      <c r="AI96" s="16" t="s">
+      <c r="AI96" s="15" t="s">
         <v>87</v>
       </c>
       <c r="AJ96" s="1"/>
@@ -14768,10 +14883,10 @@
       <c r="CL96" s="1"/>
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
-      <c r="CO96" s="31">
+      <c r="CO96" s="29">
         <v>0</v>
       </c>
-      <c r="CP96" s="31"/>
+      <c r="CP96" s="29"/>
       <c r="CQ96" s="1" t="s">
         <v>368</v>
       </c>
@@ -14780,14 +14895,14 @@
       <c r="B97" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="21">
         <v>215</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D97" s="29">
         <f t="shared" si="34"/>
         <v>0.47761194029850745</v>
       </c>
-      <c r="E97" s="31"/>
+      <c r="E97" s="29"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -14816,10 +14931,10 @@
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
       <c r="AG97" s="1"/>
-      <c r="AH97" s="18">
+      <c r="AH97" s="17">
         <v>300</v>
       </c>
-      <c r="AI97" s="17" t="s">
+      <c r="AI97" s="16" t="s">
         <v>92</v>
       </c>
       <c r="AJ97" s="1"/>
@@ -14909,10 +15024,10 @@
       <c r="CL97" s="1"/>
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
-      <c r="CO97" s="31">
+      <c r="CO97" s="29">
         <v>0.47761194029850745</v>
       </c>
-      <c r="CP97" s="31"/>
+      <c r="CP97" s="29"/>
       <c r="CQ97" s="1" t="s">
         <v>368</v>
       </c>
@@ -14921,14 +15036,14 @@
       <c r="B98" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="21">
         <v>215</v>
       </c>
-      <c r="D98" s="31">
+      <c r="D98" s="29">
         <f t="shared" si="34"/>
         <v>0.20408163265306123</v>
       </c>
-      <c r="E98" s="31"/>
+      <c r="E98" s="29"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -15050,10 +15165,10 @@
       <c r="CL98" s="1"/>
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
-      <c r="CO98" s="31">
+      <c r="CO98" s="29">
         <v>0.20408163265306123</v>
       </c>
-      <c r="CP98" s="31"/>
+      <c r="CP98" s="29"/>
       <c r="CQ98" s="1" t="s">
         <v>368</v>
       </c>
@@ -15062,14 +15177,14 @@
       <c r="B99" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="21">
         <v>216</v>
       </c>
-      <c r="D99" s="31">
+      <c r="D99" s="29">
         <f>BW99/BX99</f>
         <v>0</v>
       </c>
-      <c r="E99" s="31"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -15184,10 +15299,10 @@
       <c r="CL99" s="1"/>
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
-      <c r="CO99" s="31">
+      <c r="CO99" s="29">
         <v>0</v>
       </c>
-      <c r="CP99" s="31"/>
+      <c r="CP99" s="29"/>
       <c r="CQ99" s="1" t="s">
         <v>368</v>
       </c>
@@ -15196,14 +15311,14 @@
       <c r="B100" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="21">
         <v>216</v>
       </c>
-      <c r="D100" s="31">
+      <c r="D100" s="29">
         <f t="shared" ref="D100:D101" si="43">BW100/BX100</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E100" s="31"/>
+      <c r="E100" s="29"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -15318,10 +15433,10 @@
       <c r="CL100" s="1"/>
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
-      <c r="CO100" s="31">
+      <c r="CO100" s="29">
         <v>0.39999999999999997</v>
       </c>
-      <c r="CP100" s="31"/>
+      <c r="CP100" s="29"/>
       <c r="CQ100" s="1" t="s">
         <v>368</v>
       </c>
@@ -15330,14 +15445,14 @@
       <c r="B101" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="21">
         <v>216</v>
       </c>
-      <c r="D101" s="31">
+      <c r="D101" s="29">
         <f t="shared" si="43"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="E101" s="31"/>
+      <c r="E101" s="29"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -15450,10 +15565,10 @@
       <c r="CL101" s="1"/>
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
-      <c r="CO101" s="31">
+      <c r="CO101" s="29">
         <v>0.91666666666666663</v>
       </c>
-      <c r="CP101" s="31"/>
+      <c r="CP101" s="29"/>
       <c r="CQ101" s="1" t="s">
         <v>368</v>
       </c>
@@ -15462,13 +15577,13 @@
       <c r="B102" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="21">
         <v>216</v>
       </c>
-      <c r="D102" s="31" t="s">
+      <c r="D102" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F102" s="1"/>
@@ -15580,10 +15695,10 @@
       <c r="CL102" s="1"/>
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
-      <c r="CO102" s="31" t="s">
+      <c r="CO102" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP102" s="31" t="s">
+      <c r="CP102" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ102" s="1" t="s">
@@ -15594,13 +15709,13 @@
       <c r="B103" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="21">
         <v>216</v>
       </c>
-      <c r="D103" s="31">
+      <c r="D103" s="29">
         <v>0</v>
       </c>
-      <c r="E103" s="32" t="s">
+      <c r="E103" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F103" s="1"/>
@@ -15654,13 +15769,13 @@
       <c r="AX103" s="10">
         <v>-400</v>
       </c>
-      <c r="AY103" s="19">
+      <c r="AY103" s="18">
         <v>400</v>
       </c>
-      <c r="AZ103" s="19">
+      <c r="AZ103" s="18">
         <v>-700</v>
       </c>
-      <c r="BA103" s="19">
+      <c r="BA103" s="18">
         <v>-500</v>
       </c>
       <c r="BB103" s="1"/>
@@ -15717,10 +15832,10 @@
       <c r="CL103" s="1"/>
       <c r="CM103" s="1"/>
       <c r="CN103" s="1"/>
-      <c r="CO103" s="43">
+      <c r="CO103" s="41">
         <v>0</v>
       </c>
-      <c r="CP103" s="31" t="s">
+      <c r="CP103" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ103" s="1" t="s">
@@ -15731,13 +15846,13 @@
       <c r="B104" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="21">
         <v>216</v>
       </c>
-      <c r="D104" s="34">
+      <c r="D104" s="32">
         <v>1000000</v>
       </c>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="30" t="s">
         <v>95</v>
       </c>
       <c r="F104" s="1"/>
@@ -15854,10 +15969,10 @@
       <c r="CL104" s="1"/>
       <c r="CM104" s="1"/>
       <c r="CN104" s="1"/>
-      <c r="CO104" s="43">
+      <c r="CO104" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP104" s="31" t="s">
+      <c r="CP104" s="29" t="s">
         <v>95</v>
       </c>
       <c r="CQ104" s="1" t="s">
@@ -15868,13 +15983,13 @@
       <c r="B105" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="21">
         <v>216</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E105" s="32" t="s">
+      <c r="E105" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F105" s="1"/>
@@ -15919,22 +16034,22 @@
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
       <c r="AU105" s="1"/>
-      <c r="AV105" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW105" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX105" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY105" s="20">
+      <c r="AV105" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW105" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX105" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY105" s="19">
         <v>500</v>
       </c>
-      <c r="AZ105" s="20">
+      <c r="AZ105" s="19">
         <v>200</v>
       </c>
-      <c r="BA105" s="20">
+      <c r="BA105" s="19">
         <v>2500</v>
       </c>
       <c r="BB105" s="1"/>
@@ -15986,10 +16101,10 @@
       <c r="CL105" s="1"/>
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
-      <c r="CO105" s="31" t="s">
+      <c r="CO105" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP105" s="31" t="s">
+      <c r="CP105" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ105" s="1" t="s">
@@ -16000,13 +16115,13 @@
       <c r="B106" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="21">
         <v>216</v>
       </c>
-      <c r="D106" s="31" t="s">
+      <c r="D106" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F106" s="1"/>
@@ -16119,10 +16234,10 @@
       <c r="CL106" s="1"/>
       <c r="CM106" s="1"/>
       <c r="CN106" s="1"/>
-      <c r="CO106" s="31" t="s">
+      <c r="CO106" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP106" s="31" t="s">
+      <c r="CP106" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ106" s="1" t="s">
@@ -16133,13 +16248,13 @@
       <c r="B107" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="21">
         <v>216</v>
       </c>
-      <c r="D107" s="31" t="s">
+      <c r="D107" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="32" t="s">
+      <c r="E107" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F107" s="1"/>
@@ -16256,10 +16371,10 @@
       <c r="CL107" s="1"/>
       <c r="CM107" s="1"/>
       <c r="CN107" s="1"/>
-      <c r="CO107" s="31" t="s">
+      <c r="CO107" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP107" s="31" t="s">
+      <c r="CP107" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ107" s="1" t="s">
@@ -16270,13 +16385,13 @@
       <c r="B108" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="21">
         <v>216</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="D108" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F108" s="1"/>
@@ -16393,10 +16508,10 @@
       <c r="CL108" s="1"/>
       <c r="CM108" s="1"/>
       <c r="CN108" s="1"/>
-      <c r="CO108" s="31" t="s">
+      <c r="CO108" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP108" s="31" t="s">
+      <c r="CP108" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ108" s="1" t="s">
@@ -16407,14 +16522,14 @@
       <c r="B109" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="21">
         <v>217</v>
       </c>
-      <c r="D109" s="31">
+      <c r="D109" s="29">
         <f>BW109/BX109</f>
         <v>0</v>
       </c>
-      <c r="E109" s="32"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -16529,10 +16644,10 @@
       <c r="CL109" s="1"/>
       <c r="CM109" s="1"/>
       <c r="CN109" s="1"/>
-      <c r="CO109" s="31">
+      <c r="CO109" s="29">
         <v>0</v>
       </c>
-      <c r="CP109" s="31"/>
+      <c r="CP109" s="29"/>
       <c r="CQ109" s="1" t="s">
         <v>368</v>
       </c>
@@ -16541,14 +16656,14 @@
       <c r="B110" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="21">
         <v>217</v>
       </c>
-      <c r="D110" s="31">
+      <c r="D110" s="29">
         <f t="shared" ref="D110:D111" si="50">BW110/BX110</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="E110" s="32"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -16663,10 +16778,10 @@
       <c r="CL110" s="1"/>
       <c r="CM110" s="1"/>
       <c r="CN110" s="1"/>
-      <c r="CO110" s="31">
+      <c r="CO110" s="29">
         <v>0.39999999999999997</v>
       </c>
-      <c r="CP110" s="31"/>
+      <c r="CP110" s="29"/>
       <c r="CQ110" s="1" t="s">
         <v>368</v>
       </c>
@@ -16675,14 +16790,14 @@
       <c r="B111" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="21">
         <v>217</v>
       </c>
-      <c r="D111" s="31">
+      <c r="D111" s="29">
         <f t="shared" si="50"/>
         <v>0.4</v>
       </c>
-      <c r="E111" s="32"/>
+      <c r="E111" s="30"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -16795,10 +16910,10 @@
       <c r="CL111" s="1"/>
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
-      <c r="CO111" s="31">
+      <c r="CO111" s="29">
         <v>0.4</v>
       </c>
-      <c r="CP111" s="31"/>
+      <c r="CP111" s="29"/>
       <c r="CQ111" s="1" t="s">
         <v>368</v>
       </c>
@@ -16807,13 +16922,13 @@
       <c r="B112" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="21">
         <v>217</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D112" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="E112" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F112" s="1"/>
@@ -16925,10 +17040,10 @@
       <c r="CL112" s="1"/>
       <c r="CM112" s="1"/>
       <c r="CN112" s="1"/>
-      <c r="CO112" s="31" t="s">
+      <c r="CO112" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP112" s="31" t="s">
+      <c r="CP112" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ112" s="1" t="s">
@@ -16939,13 +17054,13 @@
       <c r="B113" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="21">
         <v>217</v>
       </c>
-      <c r="D113" s="31">
+      <c r="D113" s="29">
         <v>0</v>
       </c>
-      <c r="E113" s="32" t="s">
+      <c r="E113" s="30" t="s">
         <v>88</v>
       </c>
       <c r="F113" s="1"/>
@@ -17005,18 +17120,18 @@
       <c r="BD113" s="10">
         <v>-400</v>
       </c>
-      <c r="BE113" s="19">
+      <c r="BE113" s="18">
         <v>400</v>
       </c>
-      <c r="BF113" s="19">
+      <c r="BF113" s="18">
         <v>-700</v>
       </c>
-      <c r="BG113" s="19">
+      <c r="BG113" s="18">
         <v>-500</v>
       </c>
-      <c r="BH113" s="19"/>
-      <c r="BI113" s="19"/>
-      <c r="BJ113" s="19"/>
+      <c r="BH113" s="18"/>
+      <c r="BI113" s="18"/>
+      <c r="BJ113" s="18"/>
       <c r="BK113" s="1"/>
       <c r="BL113" s="1"/>
       <c r="BM113" s="1"/>
@@ -17062,10 +17177,10 @@
       <c r="CL113" s="1"/>
       <c r="CM113" s="1"/>
       <c r="CN113" s="1"/>
-      <c r="CO113" s="43">
+      <c r="CO113" s="41">
         <v>0</v>
       </c>
-      <c r="CP113" s="31" t="s">
+      <c r="CP113" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ113" s="1" t="s">
@@ -17076,13 +17191,13 @@
       <c r="B114" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="21">
         <v>217</v>
       </c>
-      <c r="D114" s="34">
+      <c r="D114" s="32">
         <v>1000000</v>
       </c>
-      <c r="E114" s="32" t="s">
+      <c r="E114" s="30" t="s">
         <v>95</v>
       </c>
       <c r="F114" s="1"/>
@@ -17199,10 +17314,10 @@
       <c r="CL114" s="1"/>
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
-      <c r="CO114" s="43">
+      <c r="CO114" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP114" s="31" t="s">
+      <c r="CP114" s="29" t="s">
         <v>95</v>
       </c>
       <c r="CQ114" s="1" t="s">
@@ -17213,13 +17328,13 @@
       <c r="B115" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="21">
         <v>217</v>
       </c>
-      <c r="D115" s="31" t="s">
+      <c r="D115" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F115" s="1"/>
@@ -17270,27 +17385,27 @@
       <c r="AY115" s="1"/>
       <c r="AZ115" s="1"/>
       <c r="BA115" s="1"/>
-      <c r="BB115" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC115" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD115" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE115" s="20">
+      <c r="BB115" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC115" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD115" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE115" s="19">
         <v>500</v>
       </c>
-      <c r="BF115" s="20">
+      <c r="BF115" s="19">
         <v>200</v>
       </c>
-      <c r="BG115" s="20">
+      <c r="BG115" s="19">
         <v>2500</v>
       </c>
-      <c r="BH115" s="20"/>
-      <c r="BI115" s="20"/>
-      <c r="BJ115" s="20"/>
+      <c r="BH115" s="19"/>
+      <c r="BI115" s="19"/>
+      <c r="BJ115" s="19"/>
       <c r="BK115" s="1"/>
       <c r="BL115" s="1"/>
       <c r="BM115" s="1"/>
@@ -17331,10 +17446,10 @@
       <c r="CL115" s="1"/>
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
-      <c r="CO115" s="31" t="s">
+      <c r="CO115" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP115" s="31" t="s">
+      <c r="CP115" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ115" s="1" t="s">
@@ -17345,13 +17460,13 @@
       <c r="B116" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="21">
         <v>217</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E116" s="32" t="s">
+      <c r="E116" s="30" t="s">
         <v>90</v>
       </c>
       <c r="F116" s="1"/>
@@ -17464,10 +17579,10 @@
       <c r="CL116" s="1"/>
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
-      <c r="CO116" s="31" t="s">
+      <c r="CO116" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP116" s="31" t="s">
+      <c r="CP116" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ116" s="1" t="s">
@@ -17478,13 +17593,13 @@
       <c r="B117" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="21">
         <v>217</v>
       </c>
-      <c r="D117" s="31" t="s">
+      <c r="D117" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E117" s="32" t="s">
+      <c r="E117" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F117" s="1"/>
@@ -17601,10 +17716,10 @@
       <c r="CL117" s="1"/>
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
-      <c r="CO117" s="31" t="s">
+      <c r="CO117" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP117" s="31" t="s">
+      <c r="CP117" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ117" s="1" t="s">
@@ -17615,13 +17730,13 @@
       <c r="B118" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="21">
         <v>217</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E118" s="32" t="s">
+      <c r="E118" s="30" t="s">
         <v>91</v>
       </c>
       <c r="F118" s="1"/>
@@ -17738,10 +17853,10 @@
       <c r="CL118" s="1"/>
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
-      <c r="CO118" s="31" t="s">
+      <c r="CO118" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP118" s="31" t="s">
+      <c r="CP118" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ118" s="1" t="s">
@@ -17752,14 +17867,14 @@
       <c r="B119" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="21">
         <v>218</v>
       </c>
-      <c r="D119" s="31">
+      <c r="D119" s="29">
         <f>BW119/BX119</f>
         <v>0.64583333333333326</v>
       </c>
-      <c r="E119" s="32"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -17865,10 +17980,10 @@
       <c r="CL119" s="1"/>
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
-      <c r="CO119" s="31">
+      <c r="CO119" s="29">
         <v>0.64583333333333326</v>
       </c>
-      <c r="CP119" s="31"/>
+      <c r="CP119" s="29"/>
       <c r="CQ119" s="1" t="s">
         <v>368</v>
       </c>
@@ -17877,14 +17992,14 @@
       <c r="B120" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="21">
         <v>218</v>
       </c>
-      <c r="D120" s="31">
+      <c r="D120" s="29">
         <f>BW120/BX120</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="E120" s="32"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -17990,10 +18105,10 @@
       <c r="CL120" s="1"/>
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
-      <c r="CO120" s="31">
+      <c r="CO120" s="29">
         <v>0.92307692307692313</v>
       </c>
-      <c r="CP120" s="31"/>
+      <c r="CP120" s="29"/>
       <c r="CQ120" s="1" t="s">
         <v>368</v>
       </c>
@@ -18002,13 +18117,13 @@
       <c r="B121" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="21">
         <v>218</v>
       </c>
-      <c r="D121" s="31" t="s">
+      <c r="D121" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E121" s="32" t="s">
+      <c r="E121" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F121" s="1"/>
@@ -18114,10 +18229,10 @@
       <c r="CL121" s="1"/>
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
-      <c r="CO121" s="31" t="s">
+      <c r="CO121" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP121" s="31" t="s">
+      <c r="CP121" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ121" s="1" t="s">
@@ -18128,13 +18243,13 @@
       <c r="B122" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="23">
+      <c r="C122" s="21">
         <v>218</v>
       </c>
-      <c r="D122" s="31">
+      <c r="D122" s="29">
         <v>0</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F122" s="1"/>
@@ -18242,10 +18357,10 @@
       <c r="CL122" s="1"/>
       <c r="CM122" s="1"/>
       <c r="CN122" s="1"/>
-      <c r="CO122" s="31">
+      <c r="CO122" s="29">
         <v>0</v>
       </c>
-      <c r="CP122" s="31" t="s">
+      <c r="CP122" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ122" s="1" t="s">
@@ -18256,13 +18371,13 @@
       <c r="B123" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="21">
         <v>218</v>
       </c>
-      <c r="D123" s="34">
+      <c r="D123" s="32">
         <v>1000000</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="34" t="s">
         <v>95</v>
       </c>
       <c r="F123" s="1"/>
@@ -18370,10 +18485,10 @@
       <c r="CL123" s="1"/>
       <c r="CM123" s="1"/>
       <c r="CN123" s="1"/>
-      <c r="CO123" s="43">
+      <c r="CO123" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP123" s="31" t="s">
+      <c r="CP123" s="29" t="s">
         <v>95</v>
       </c>
       <c r="CQ123" s="1" t="s">
@@ -18384,13 +18499,13 @@
       <c r="B124" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C124" s="21">
         <v>218</v>
       </c>
-      <c r="D124" s="34" t="s">
+      <c r="D124" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E124" s="36" t="s">
+      <c r="E124" s="34" t="s">
         <v>96</v>
       </c>
       <c r="F124" s="1"/>
@@ -18497,10 +18612,10 @@
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
-      <c r="CO124" s="31" t="s">
+      <c r="CO124" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP124" s="31" t="s">
+      <c r="CP124" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ124" s="1" t="s">
@@ -18511,13 +18626,13 @@
       <c r="B125" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C125" s="23">
+      <c r="C125" s="21">
         <v>218</v>
       </c>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="34" t="s">
         <v>90</v>
       </c>
       <c r="F125" s="1"/>
@@ -18624,10 +18739,10 @@
       <c r="CL125" s="1"/>
       <c r="CM125" s="1"/>
       <c r="CN125" s="1"/>
-      <c r="CO125" s="31" t="s">
+      <c r="CO125" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP125" s="31" t="s">
+      <c r="CP125" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ125" s="1" t="s">
@@ -18638,13 +18753,13 @@
       <c r="B126" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="21">
         <v>218</v>
       </c>
-      <c r="D126" s="31" t="s">
+      <c r="D126" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E126" s="36" t="s">
+      <c r="E126" s="34" t="s">
         <v>97</v>
       </c>
       <c r="F126" s="1"/>
@@ -18752,10 +18867,10 @@
       <c r="CL126" s="1"/>
       <c r="CM126" s="1"/>
       <c r="CN126" s="1"/>
-      <c r="CO126" s="31" t="s">
+      <c r="CO126" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP126" s="31" t="s">
+      <c r="CP126" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ126" s="1" t="s">
@@ -18766,13 +18881,13 @@
       <c r="B127" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="21">
         <v>218</v>
       </c>
-      <c r="D127" s="31" t="s">
+      <c r="D127" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E127" s="36" t="s">
+      <c r="E127" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F127" s="1"/>
@@ -18880,10 +18995,10 @@
       <c r="CL127" s="1"/>
       <c r="CM127" s="1"/>
       <c r="CN127" s="1"/>
-      <c r="CO127" s="31" t="s">
+      <c r="CO127" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP127" s="31" t="s">
+      <c r="CP127" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ127" s="1" t="s">
@@ -18894,13 +19009,13 @@
       <c r="B128" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="21">
         <v>218</v>
       </c>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E128" s="36" t="s">
+      <c r="E128" s="34" t="s">
         <v>97</v>
       </c>
       <c r="F128" s="1"/>
@@ -18933,13 +19048,13 @@
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
-      <c r="AJ128" s="21">
+      <c r="AJ128" s="20">
         <v>500</v>
       </c>
-      <c r="AK128" s="21">
+      <c r="AK128" s="20">
         <v>300</v>
       </c>
-      <c r="AL128" s="21">
+      <c r="AL128" s="20">
         <v>100</v>
       </c>
       <c r="AM128" s="10">
@@ -19008,10 +19123,10 @@
       <c r="CL128" s="1"/>
       <c r="CM128" s="1"/>
       <c r="CN128" s="1"/>
-      <c r="CO128" s="31" t="s">
+      <c r="CO128" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP128" s="31" t="s">
+      <c r="CP128" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ128" s="1" t="s">
@@ -19022,13 +19137,13 @@
       <c r="B129" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="21">
         <v>218</v>
       </c>
-      <c r="D129" s="31" t="s">
+      <c r="D129" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F129" s="1"/>
@@ -19136,10 +19251,10 @@
       <c r="CL129" s="1"/>
       <c r="CM129" s="1"/>
       <c r="CN129" s="1"/>
-      <c r="CO129" s="31" t="s">
+      <c r="CO129" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP129" s="31" t="s">
+      <c r="CP129" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ129" s="1" t="s">
@@ -19150,13 +19265,13 @@
       <c r="B130" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C130" s="23">
+      <c r="C130" s="21">
         <v>218</v>
       </c>
-      <c r="D130" s="31" t="s">
+      <c r="D130" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E130" s="36" t="s">
+      <c r="E130" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F130" s="1"/>
@@ -19264,10 +19379,10 @@
       <c r="CL130" s="1"/>
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
-      <c r="CO130" s="31" t="s">
+      <c r="CO130" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP130" s="31" t="s">
+      <c r="CP130" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ130" s="1" t="s">
@@ -19278,13 +19393,13 @@
       <c r="B131" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C131" s="21">
         <v>218</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E131" s="36" t="s">
+      <c r="E131" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F131" s="1"/>
@@ -19392,10 +19507,10 @@
       <c r="CL131" s="1"/>
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
-      <c r="CO131" s="31" t="s">
+      <c r="CO131" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP131" s="31" t="s">
+      <c r="CP131" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ131" s="1" t="s">
@@ -19406,14 +19521,14 @@
       <c r="B132" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C132" s="24">
+      <c r="C132" s="22">
         <v>219</v>
       </c>
-      <c r="D132" s="31">
+      <c r="D132" s="29">
         <f>BW132/BX132</f>
         <v>0.8214285714285714</v>
       </c>
-      <c r="E132" s="32"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -19519,10 +19634,10 @@
       <c r="CL132" s="1"/>
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
-      <c r="CO132" s="31">
+      <c r="CO132" s="29">
         <v>0.8214285714285714</v>
       </c>
-      <c r="CP132" s="31"/>
+      <c r="CP132" s="29"/>
       <c r="CQ132" s="1" t="s">
         <v>368</v>
       </c>
@@ -19531,14 +19646,14 @@
       <c r="B133" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C133" s="24">
+      <c r="C133" s="22">
         <v>219</v>
       </c>
-      <c r="D133" s="31">
+      <c r="D133" s="29">
         <f>BW133/BX133</f>
         <v>0.8</v>
       </c>
-      <c r="E133" s="32"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -19644,10 +19759,10 @@
       <c r="CL133" s="1"/>
       <c r="CM133" s="1"/>
       <c r="CN133" s="1"/>
-      <c r="CO133" s="31">
+      <c r="CO133" s="29">
         <v>0.8</v>
       </c>
-      <c r="CP133" s="31"/>
+      <c r="CP133" s="29"/>
       <c r="CQ133" s="1" t="s">
         <v>368</v>
       </c>
@@ -19656,13 +19771,13 @@
       <c r="B134" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C134" s="24">
+      <c r="C134" s="22">
         <v>219</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D134" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E134" s="32" t="s">
+      <c r="E134" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F134" s="1"/>
@@ -19768,10 +19883,10 @@
       <c r="CL134" s="1"/>
       <c r="CM134" s="1"/>
       <c r="CN134" s="1"/>
-      <c r="CO134" s="31" t="s">
+      <c r="CO134" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP134" s="31" t="s">
+      <c r="CP134" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ134" s="1" t="s">
@@ -19782,13 +19897,13 @@
       <c r="B135" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C135" s="24">
+      <c r="C135" s="22">
         <v>219</v>
       </c>
-      <c r="D135" s="31">
+      <c r="D135" s="29">
         <v>0</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F135" s="1"/>
@@ -19896,10 +20011,10 @@
       <c r="CL135" s="1"/>
       <c r="CM135" s="1"/>
       <c r="CN135" s="1"/>
-      <c r="CO135" s="31">
+      <c r="CO135" s="29">
         <v>0</v>
       </c>
-      <c r="CP135" s="31" t="s">
+      <c r="CP135" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ135" s="1" t="s">
@@ -19910,13 +20025,13 @@
       <c r="B136" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C136" s="24">
+      <c r="C136" s="22">
         <v>219</v>
       </c>
-      <c r="D136" s="34">
+      <c r="D136" s="32">
         <v>1000000</v>
       </c>
-      <c r="E136" s="37" t="s">
+      <c r="E136" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F136" s="1"/>
@@ -20024,10 +20139,10 @@
       <c r="CL136" s="1"/>
       <c r="CM136" s="1"/>
       <c r="CN136" s="1"/>
-      <c r="CO136" s="43">
+      <c r="CO136" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP136" s="31" t="s">
+      <c r="CP136" s="29" t="s">
         <v>95</v>
       </c>
       <c r="CQ136" s="1" t="s">
@@ -20038,13 +20153,13 @@
       <c r="B137" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C137" s="24">
+      <c r="C137" s="22">
         <v>219</v>
       </c>
-      <c r="D137" s="38" t="s">
+      <c r="D137" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E137" s="33" t="s">
+      <c r="E137" s="31" t="s">
         <v>96</v>
       </c>
       <c r="F137" s="1"/>
@@ -20151,10 +20266,10 @@
       <c r="CL137" s="1"/>
       <c r="CM137" s="1"/>
       <c r="CN137" s="1"/>
-      <c r="CO137" s="31" t="s">
+      <c r="CO137" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP137" s="31" t="s">
+      <c r="CP137" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ137" s="1" t="s">
@@ -20165,13 +20280,13 @@
       <c r="B138" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C138" s="24">
+      <c r="C138" s="22">
         <v>219</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="31" t="s">
         <v>90</v>
       </c>
       <c r="F138" s="1"/>
@@ -20278,10 +20393,10 @@
       <c r="CL138" s="1"/>
       <c r="CM138" s="1"/>
       <c r="CN138" s="1"/>
-      <c r="CO138" s="31" t="s">
+      <c r="CO138" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP138" s="31" t="s">
+      <c r="CP138" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ138" s="1" t="s">
@@ -20292,13 +20407,13 @@
       <c r="B139" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C139" s="24">
+      <c r="C139" s="22">
         <v>219</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F139" s="1"/>
@@ -20406,10 +20521,10 @@
       <c r="CL139" s="1"/>
       <c r="CM139" s="1"/>
       <c r="CN139" s="1"/>
-      <c r="CO139" s="31" t="s">
+      <c r="CO139" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP139" s="31" t="s">
+      <c r="CP139" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ139" s="1" t="s">
@@ -20420,13 +20535,13 @@
       <c r="B140" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C140" s="24">
+      <c r="C140" s="22">
         <v>219</v>
       </c>
-      <c r="D140" s="31" t="s">
+      <c r="D140" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="E140" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F140" s="1"/>
@@ -20465,22 +20580,22 @@
       <c r="AM140" s="1"/>
       <c r="AN140" s="1"/>
       <c r="AO140" s="1"/>
-      <c r="AP140" s="21">
+      <c r="AP140" s="20">
         <v>500</v>
       </c>
-      <c r="AQ140" s="21">
+      <c r="AQ140" s="20">
         <v>-300</v>
       </c>
-      <c r="AR140" s="21">
+      <c r="AR140" s="20">
         <v>-200</v>
       </c>
-      <c r="AS140" s="21">
+      <c r="AS140" s="20">
         <v>-500</v>
       </c>
-      <c r="AT140" s="21">
+      <c r="AT140" s="20">
         <v>300</v>
       </c>
-      <c r="AU140" s="21">
+      <c r="AU140" s="20">
         <v>-800</v>
       </c>
       <c r="AV140" s="1"/>
@@ -20534,10 +20649,10 @@
       <c r="CL140" s="1"/>
       <c r="CM140" s="1"/>
       <c r="CN140" s="1"/>
-      <c r="CO140" s="31" t="s">
+      <c r="CO140" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP140" s="31" t="s">
+      <c r="CP140" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ140" s="1" t="s">
@@ -20548,13 +20663,13 @@
       <c r="B141" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C141" s="24">
+      <c r="C141" s="22">
         <v>219</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D141" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E141" s="36" t="s">
+      <c r="E141" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F141" s="1"/>
@@ -20662,10 +20777,10 @@
       <c r="CL141" s="1"/>
       <c r="CM141" s="1"/>
       <c r="CN141" s="1"/>
-      <c r="CO141" s="31" t="s">
+      <c r="CO141" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP141" s="31" t="s">
+      <c r="CP141" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ141" s="1" t="s">
@@ -20676,13 +20791,13 @@
       <c r="B142" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C142" s="24">
+      <c r="C142" s="22">
         <v>219</v>
       </c>
-      <c r="D142" s="31" t="s">
+      <c r="D142" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="36" t="s">
+      <c r="E142" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F142" s="1"/>
@@ -20790,10 +20905,10 @@
       <c r="CL142" s="1"/>
       <c r="CM142" s="1"/>
       <c r="CN142" s="1"/>
-      <c r="CO142" s="31" t="s">
+      <c r="CO142" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP142" s="31" t="s">
+      <c r="CP142" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ142" s="1" t="s">
@@ -20804,13 +20919,13 @@
       <c r="B143" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C143" s="24">
+      <c r="C143" s="22">
         <v>219</v>
       </c>
-      <c r="D143" s="31" t="s">
+      <c r="D143" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E143" s="36" t="s">
+      <c r="E143" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F143" s="1"/>
@@ -20918,10 +21033,10 @@
       <c r="CL143" s="1"/>
       <c r="CM143" s="1"/>
       <c r="CN143" s="1"/>
-      <c r="CO143" s="31" t="s">
+      <c r="CO143" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP143" s="31" t="s">
+      <c r="CP143" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ143" s="1" t="s">
@@ -20932,13 +21047,13 @@
       <c r="B144" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C144" s="24">
+      <c r="C144" s="22">
         <v>219</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E144" s="36" t="s">
+      <c r="E144" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F144" s="1"/>
@@ -21046,10 +21161,10 @@
       <c r="CL144" s="1"/>
       <c r="CM144" s="1"/>
       <c r="CN144" s="1"/>
-      <c r="CO144" s="31" t="s">
+      <c r="CO144" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP144" s="31" t="s">
+      <c r="CP144" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ144" s="1" t="s">
@@ -21060,14 +21175,14 @@
       <c r="B145" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C145" s="24">
+      <c r="C145" s="22">
         <v>220</v>
       </c>
-      <c r="D145" s="31">
+      <c r="D145" s="29">
         <f>BW145/BX145</f>
         <v>1.2142857142857142</v>
       </c>
-      <c r="E145" s="31"/>
+      <c r="E145" s="29"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -21173,10 +21288,10 @@
       <c r="CL145" s="1"/>
       <c r="CM145" s="1"/>
       <c r="CN145" s="1"/>
-      <c r="CO145" s="31">
+      <c r="CO145" s="29">
         <v>1.2142857142857142</v>
       </c>
-      <c r="CP145" s="31"/>
+      <c r="CP145" s="29"/>
       <c r="CQ145" s="1" t="s">
         <v>368</v>
       </c>
@@ -21185,14 +21300,14 @@
       <c r="B146" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C146" s="24">
+      <c r="C146" s="22">
         <v>220</v>
       </c>
-      <c r="D146" s="31">
+      <c r="D146" s="29">
         <f>BW146/BX146</f>
         <v>0.625</v>
       </c>
-      <c r="E146" s="31"/>
+      <c r="E146" s="29"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -21298,10 +21413,10 @@
       <c r="CL146" s="1"/>
       <c r="CM146" s="1"/>
       <c r="CN146" s="1"/>
-      <c r="CO146" s="31">
+      <c r="CO146" s="29">
         <v>0.625</v>
       </c>
-      <c r="CP146" s="31"/>
+      <c r="CP146" s="29"/>
       <c r="CQ146" s="1" t="s">
         <v>368</v>
       </c>
@@ -21310,13 +21425,13 @@
       <c r="B147" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="24">
+      <c r="C147" s="22">
         <v>220</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D147" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E147" s="32" t="s">
+      <c r="E147" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F147" s="1"/>
@@ -21422,10 +21537,10 @@
       <c r="CL147" s="1"/>
       <c r="CM147" s="1"/>
       <c r="CN147" s="1"/>
-      <c r="CO147" s="31" t="s">
+      <c r="CO147" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP147" s="31" t="s">
+      <c r="CP147" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ147" s="1" t="s">
@@ -21436,13 +21551,13 @@
       <c r="B148" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C148" s="24">
+      <c r="C148" s="22">
         <v>220</v>
       </c>
-      <c r="D148" s="31">
+      <c r="D148" s="29">
         <v>0</v>
       </c>
-      <c r="E148" s="36" t="s">
+      <c r="E148" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F148" s="1"/>
@@ -21550,10 +21665,10 @@
       <c r="CL148" s="1"/>
       <c r="CM148" s="1"/>
       <c r="CN148" s="1"/>
-      <c r="CO148" s="31">
+      <c r="CO148" s="29">
         <v>0</v>
       </c>
-      <c r="CP148" s="31" t="s">
+      <c r="CP148" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ148" s="1" t="s">
@@ -21564,13 +21679,13 @@
       <c r="B149" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C149" s="24">
+      <c r="C149" s="22">
         <v>220</v>
       </c>
-      <c r="D149" s="34">
+      <c r="D149" s="32">
         <v>1000000</v>
       </c>
-      <c r="E149" s="37" t="s">
+      <c r="E149" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F149" s="1"/>
@@ -21678,10 +21793,10 @@
       <c r="CL149" s="1"/>
       <c r="CM149" s="1"/>
       <c r="CN149" s="1"/>
-      <c r="CO149" s="43">
+      <c r="CO149" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP149" s="31" t="s">
+      <c r="CP149" s="29" t="s">
         <v>95</v>
       </c>
       <c r="CQ149" s="1" t="s">
@@ -21692,13 +21807,13 @@
       <c r="B150" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C150" s="24">
+      <c r="C150" s="22">
         <v>220</v>
       </c>
-      <c r="D150" s="38" t="s">
+      <c r="D150" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E150" s="33" t="s">
+      <c r="E150" s="31" t="s">
         <v>96</v>
       </c>
       <c r="F150" s="1"/>
@@ -21805,10 +21920,10 @@
       <c r="CL150" s="1"/>
       <c r="CM150" s="1"/>
       <c r="CN150" s="1"/>
-      <c r="CO150" s="31" t="s">
+      <c r="CO150" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP150" s="31" t="s">
+      <c r="CP150" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ150" s="1" t="s">
@@ -21819,13 +21934,13 @@
       <c r="B151" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C151" s="24">
+      <c r="C151" s="22">
         <v>220</v>
       </c>
-      <c r="D151" s="39" t="s">
+      <c r="D151" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E151" s="33" t="s">
+      <c r="E151" s="31" t="s">
         <v>90</v>
       </c>
       <c r="F151" s="1"/>
@@ -21932,10 +22047,10 @@
       <c r="CL151" s="1"/>
       <c r="CM151" s="1"/>
       <c r="CN151" s="1"/>
-      <c r="CO151" s="31" t="s">
+      <c r="CO151" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP151" s="31" t="s">
+      <c r="CP151" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ151" s="1" t="s">
@@ -21946,13 +22061,13 @@
       <c r="B152" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C152" s="24">
+      <c r="C152" s="22">
         <v>220</v>
       </c>
-      <c r="D152" s="31" t="s">
+      <c r="D152" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F152" s="1"/>
@@ -22060,10 +22175,10 @@
       <c r="CL152" s="1"/>
       <c r="CM152" s="1"/>
       <c r="CN152" s="1"/>
-      <c r="CO152" s="31" t="s">
+      <c r="CO152" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP152" s="31" t="s">
+      <c r="CP152" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ152" s="1" t="s">
@@ -22074,13 +22189,13 @@
       <c r="B153" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C153" s="24">
+      <c r="C153" s="22">
         <v>220</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="D153" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E153" s="33" t="s">
+      <c r="E153" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F153" s="1"/>
@@ -22125,22 +22240,22 @@
       <c r="AS153" s="1"/>
       <c r="AT153" s="1"/>
       <c r="AU153" s="1"/>
-      <c r="AV153" s="21">
+      <c r="AV153" s="20">
         <v>500</v>
       </c>
-      <c r="AW153" s="21">
+      <c r="AW153" s="20">
         <v>-300</v>
       </c>
-      <c r="AX153" s="21">
+      <c r="AX153" s="20">
         <v>-200</v>
       </c>
-      <c r="AY153" s="21">
+      <c r="AY153" s="20">
         <v>-500</v>
       </c>
-      <c r="AZ153" s="21">
+      <c r="AZ153" s="20">
         <v>300</v>
       </c>
-      <c r="BA153" s="21">
+      <c r="BA153" s="20">
         <v>-800</v>
       </c>
       <c r="BB153" s="1"/>
@@ -22188,10 +22303,10 @@
       <c r="CL153" s="1"/>
       <c r="CM153" s="1"/>
       <c r="CN153" s="1"/>
-      <c r="CO153" s="31" t="s">
+      <c r="CO153" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP153" s="31" t="s">
+      <c r="CP153" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ153" s="1" t="s">
@@ -22202,13 +22317,13 @@
       <c r="B154" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C154" s="24">
+      <c r="C154" s="22">
         <v>220</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="D154" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E154" s="36" t="s">
+      <c r="E154" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F154" s="1"/>
@@ -22316,10 +22431,10 @@
       <c r="CL154" s="1"/>
       <c r="CM154" s="1"/>
       <c r="CN154" s="1"/>
-      <c r="CO154" s="31" t="s">
+      <c r="CO154" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP154" s="31" t="s">
+      <c r="CP154" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ154" s="1" t="s">
@@ -22330,13 +22445,13 @@
       <c r="B155" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C155" s="24">
+      <c r="C155" s="22">
         <v>220</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="D155" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E155" s="36" t="s">
+      <c r="E155" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F155" s="1"/>
@@ -22444,10 +22559,10 @@
       <c r="CL155" s="1"/>
       <c r="CM155" s="1"/>
       <c r="CN155" s="1"/>
-      <c r="CO155" s="31" t="s">
+      <c r="CO155" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP155" s="31" t="s">
+      <c r="CP155" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ155" s="1" t="s">
@@ -22458,13 +22573,13 @@
       <c r="B156" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="24">
+      <c r="C156" s="22">
         <v>220</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D156" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E156" s="36" t="s">
+      <c r="E156" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F156" s="1"/>
@@ -22572,10 +22687,10 @@
       <c r="CL156" s="1"/>
       <c r="CM156" s="1"/>
       <c r="CN156" s="1"/>
-      <c r="CO156" s="31" t="s">
+      <c r="CO156" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP156" s="31" t="s">
+      <c r="CP156" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ156" s="1" t="s">
@@ -22586,13 +22701,13 @@
       <c r="B157" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C157" s="24">
+      <c r="C157" s="22">
         <v>220</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E157" s="36" t="s">
+      <c r="E157" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F157" s="1"/>
@@ -22700,10 +22815,10 @@
       <c r="CL157" s="1"/>
       <c r="CM157" s="1"/>
       <c r="CN157" s="1"/>
-      <c r="CO157" s="31" t="s">
+      <c r="CO157" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP157" s="31" t="s">
+      <c r="CP157" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ157" s="1" t="s">
@@ -22714,14 +22829,14 @@
       <c r="B158" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C158" s="23">
+      <c r="C158" s="21">
         <v>221</v>
       </c>
-      <c r="D158" s="31">
+      <c r="D158" s="29">
         <f>BW158/BX158</f>
         <v>0.94285714285714284</v>
       </c>
-      <c r="E158" s="31"/>
+      <c r="E158" s="29"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -22827,10 +22942,10 @@
       <c r="CL158" s="1"/>
       <c r="CM158" s="1"/>
       <c r="CN158" s="1"/>
-      <c r="CO158" s="31">
+      <c r="CO158" s="29">
         <v>0.94285714285714284</v>
       </c>
-      <c r="CP158" s="31"/>
+      <c r="CP158" s="29"/>
       <c r="CQ158" s="1" t="s">
         <v>368</v>
       </c>
@@ -22839,14 +22954,14 @@
       <c r="B159" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C159" s="23">
+      <c r="C159" s="21">
         <v>221</v>
       </c>
-      <c r="D159" s="31">
+      <c r="D159" s="29">
         <f>BW159/BX159</f>
         <v>0.6</v>
       </c>
-      <c r="E159" s="31"/>
+      <c r="E159" s="29"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -22952,10 +23067,10 @@
       <c r="CL159" s="1"/>
       <c r="CM159" s="1"/>
       <c r="CN159" s="1"/>
-      <c r="CO159" s="31">
+      <c r="CO159" s="29">
         <v>0.6</v>
       </c>
-      <c r="CP159" s="31"/>
+      <c r="CP159" s="29"/>
       <c r="CQ159" s="1" t="s">
         <v>368</v>
       </c>
@@ -22964,14 +23079,14 @@
       <c r="B160" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C160" s="23">
+      <c r="C160" s="21">
         <v>221</v>
       </c>
-      <c r="D160" s="31">
+      <c r="D160" s="29">
         <f>BW160/BX160</f>
         <v>1.3636363636363635</v>
       </c>
-      <c r="E160" s="31"/>
+      <c r="E160" s="29"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -23077,10 +23192,10 @@
       <c r="CL160" s="1"/>
       <c r="CM160" s="1"/>
       <c r="CN160" s="1"/>
-      <c r="CO160" s="31">
+      <c r="CO160" s="29">
         <v>1.3636363636363635</v>
       </c>
-      <c r="CP160" s="31"/>
+      <c r="CP160" s="29"/>
       <c r="CQ160" s="1" t="s">
         <v>368</v>
       </c>
@@ -23089,13 +23204,13 @@
       <c r="B161" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C161" s="23">
+      <c r="C161" s="21">
         <v>221</v>
       </c>
-      <c r="D161" s="31" t="s">
+      <c r="D161" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E161" s="32" t="s">
+      <c r="E161" s="30" t="s">
         <v>89</v>
       </c>
       <c r="F161" s="1"/>
@@ -23201,10 +23316,10 @@
       <c r="CL161" s="1"/>
       <c r="CM161" s="1"/>
       <c r="CN161" s="1"/>
-      <c r="CO161" s="31" t="s">
+      <c r="CO161" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP161" s="31" t="s">
+      <c r="CP161" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ161" s="1" t="s">
@@ -23215,13 +23330,13 @@
       <c r="B162" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C162" s="23">
+      <c r="C162" s="21">
         <v>221</v>
       </c>
-      <c r="D162" s="31">
+      <c r="D162" s="29">
         <v>0</v>
       </c>
-      <c r="E162" s="36" t="s">
+      <c r="E162" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F162" s="1"/>
@@ -23281,18 +23396,18 @@
       <c r="BD162" s="10">
         <v>-400</v>
       </c>
-      <c r="BE162" s="19">
+      <c r="BE162" s="18">
         <v>1200</v>
       </c>
-      <c r="BF162" s="19">
+      <c r="BF162" s="18">
         <v>-700</v>
       </c>
-      <c r="BG162" s="19">
+      <c r="BG162" s="18">
         <v>-500</v>
       </c>
-      <c r="BH162" s="19"/>
-      <c r="BI162" s="19"/>
-      <c r="BJ162" s="19"/>
+      <c r="BH162" s="18"/>
+      <c r="BI162" s="18"/>
+      <c r="BJ162" s="18"/>
       <c r="BK162" s="1"/>
       <c r="BL162" s="1"/>
       <c r="BM162" s="1"/>
@@ -23329,10 +23444,10 @@
       <c r="CL162" s="1"/>
       <c r="CM162" s="1"/>
       <c r="CN162" s="1"/>
-      <c r="CO162" s="31">
+      <c r="CO162" s="29">
         <v>0</v>
       </c>
-      <c r="CP162" s="31" t="s">
+      <c r="CP162" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ162" s="1" t="s">
@@ -23343,13 +23458,13 @@
       <c r="B163" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C163" s="23">
+      <c r="C163" s="21">
         <v>221</v>
       </c>
-      <c r="D163" s="34">
+      <c r="D163" s="32">
         <v>1000000</v>
       </c>
-      <c r="E163" s="37" t="s">
+      <c r="E163" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F163" s="1"/>
@@ -23457,10 +23572,10 @@
       <c r="CL163" s="1"/>
       <c r="CM163" s="1"/>
       <c r="CN163" s="1"/>
-      <c r="CO163" s="43">
+      <c r="CO163" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP163" s="31" t="s">
+      <c r="CP163" s="29" t="s">
         <v>95</v>
       </c>
       <c r="CQ163" s="1" t="s">
@@ -23471,13 +23586,13 @@
       <c r="B164" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C164" s="23">
+      <c r="C164" s="21">
         <v>221</v>
       </c>
-      <c r="D164" s="31" t="s">
+      <c r="D164" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" s="31" t="s">
         <v>96</v>
       </c>
       <c r="F164" s="1"/>
@@ -23528,27 +23643,27 @@
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
       <c r="BA164" s="1"/>
-      <c r="BB164" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC164" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BD164" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE164" s="20">
+      <c r="BB164" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC164" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD164" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE164" s="19">
         <v>500</v>
       </c>
-      <c r="BF164" s="20">
+      <c r="BF164" s="19">
         <v>200</v>
       </c>
-      <c r="BG164" s="20">
+      <c r="BG164" s="19">
         <v>2500</v>
       </c>
-      <c r="BH164" s="20"/>
-      <c r="BI164" s="20"/>
-      <c r="BJ164" s="20"/>
+      <c r="BH164" s="19"/>
+      <c r="BI164" s="19"/>
+      <c r="BJ164" s="19"/>
       <c r="BK164" s="1"/>
       <c r="BL164" s="1"/>
       <c r="BM164" s="1"/>
@@ -23584,10 +23699,10 @@
       <c r="CL164" s="1"/>
       <c r="CM164" s="1"/>
       <c r="CN164" s="1"/>
-      <c r="CO164" s="31" t="s">
+      <c r="CO164" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP164" s="31" t="s">
+      <c r="CP164" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ164" s="1" t="s">
@@ -23598,13 +23713,13 @@
       <c r="B165" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C165" s="23">
+      <c r="C165" s="21">
         <v>221</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="D165" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E165" s="33" t="s">
+      <c r="E165" s="31" t="s">
         <v>90</v>
       </c>
       <c r="F165" s="1"/>
@@ -23711,10 +23826,10 @@
       <c r="CL165" s="1"/>
       <c r="CM165" s="1"/>
       <c r="CN165" s="1"/>
-      <c r="CO165" s="31" t="s">
+      <c r="CO165" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP165" s="31" t="s">
+      <c r="CP165" s="29" t="s">
         <v>90</v>
       </c>
       <c r="CQ165" s="1" t="s">
@@ -23725,13 +23840,13 @@
       <c r="B166" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C166" s="23">
+      <c r="C166" s="21">
         <v>221</v>
       </c>
-      <c r="D166" s="31" t="s">
+      <c r="D166" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E166" s="36" t="s">
+      <c r="E166" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F166" s="1"/>
@@ -23839,10 +23954,10 @@
       <c r="CL166" s="1"/>
       <c r="CM166" s="1"/>
       <c r="CN166" s="1"/>
-      <c r="CO166" s="31" t="s">
+      <c r="CO166" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP166" s="31" t="s">
+      <c r="CP166" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ166" s="1" t="s">
@@ -23853,13 +23968,13 @@
       <c r="B167" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C167" s="23">
+      <c r="C167" s="21">
         <v>221</v>
       </c>
-      <c r="D167" s="31" t="s">
+      <c r="D167" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E167" s="33" t="s">
+      <c r="E167" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F167" s="1"/>
@@ -23967,10 +24082,10 @@
       <c r="CL167" s="1"/>
       <c r="CM167" s="1"/>
       <c r="CN167" s="1"/>
-      <c r="CO167" s="31" t="s">
+      <c r="CO167" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP167" s="31" t="s">
+      <c r="CP167" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ167" s="1" t="s">
@@ -23981,13 +24096,13 @@
       <c r="B168" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C168" s="23">
+      <c r="C168" s="21">
         <v>221</v>
       </c>
-      <c r="D168" s="31" t="s">
+      <c r="D168" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E168" s="33" t="s">
+      <c r="E168" s="31" t="s">
         <v>97</v>
       </c>
       <c r="F168" s="1"/>
@@ -24095,10 +24210,10 @@
       <c r="CL168" s="1"/>
       <c r="CM168" s="1"/>
       <c r="CN168" s="1"/>
-      <c r="CO168" s="31" t="s">
+      <c r="CO168" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP168" s="31" t="s">
+      <c r="CP168" s="29" t="s">
         <v>97</v>
       </c>
       <c r="CQ168" s="1" t="s">
@@ -24109,13 +24224,13 @@
       <c r="B169" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C169" s="23">
+      <c r="C169" s="21">
         <v>221</v>
       </c>
-      <c r="D169" s="31" t="s">
+      <c r="D169" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E169" s="36" t="s">
+      <c r="E169" s="34" t="s">
         <v>113</v>
       </c>
       <c r="F169" s="1"/>
@@ -24223,10 +24338,10 @@
       <c r="CL169" s="1"/>
       <c r="CM169" s="1"/>
       <c r="CN169" s="1"/>
-      <c r="CO169" s="31" t="s">
+      <c r="CO169" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP169" s="31" t="s">
+      <c r="CP169" s="29" t="s">
         <v>113</v>
       </c>
       <c r="CQ169" s="1" t="s">
@@ -24237,13 +24352,13 @@
       <c r="B170" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C170" s="23">
+      <c r="C170" s="21">
         <v>221</v>
       </c>
-      <c r="D170" s="31" t="s">
+      <c r="D170" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E170" s="36" t="s">
+      <c r="E170" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F170" s="1"/>
@@ -24351,10 +24466,10 @@
       <c r="CL170" s="1"/>
       <c r="CM170" s="1"/>
       <c r="CN170" s="1"/>
-      <c r="CO170" s="31" t="s">
+      <c r="CO170" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP170" s="31" t="s">
+      <c r="CP170" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ170" s="1" t="s">
@@ -24365,13 +24480,13 @@
       <c r="B171" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C171" s="23">
+      <c r="C171" s="21">
         <v>221</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="D171" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E171" s="36" t="s">
+      <c r="E171" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F171" s="1"/>
@@ -24479,10 +24594,10 @@
       <c r="CL171" s="1"/>
       <c r="CM171" s="1"/>
       <c r="CN171" s="1"/>
-      <c r="CO171" s="31" t="s">
+      <c r="CO171" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP171" s="31" t="s">
+      <c r="CP171" s="29" t="s">
         <v>91</v>
       </c>
       <c r="CQ171" s="1" t="s">
@@ -24493,14 +24608,14 @@
       <c r="B172" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C172" s="24">
+      <c r="C172" s="22">
         <v>222</v>
       </c>
-      <c r="D172" s="30">
+      <c r="D172" s="28">
         <f>BW172/BX172</f>
         <v>1.0529032258064519</v>
       </c>
-      <c r="E172" s="30"/>
+      <c r="E172" s="28"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -24606,10 +24721,10 @@
       <c r="CL172" s="1"/>
       <c r="CM172" s="1"/>
       <c r="CN172" s="1"/>
-      <c r="CO172" s="31">
+      <c r="CO172" s="29">
         <v>1.0529032258064519</v>
       </c>
-      <c r="CP172" s="31"/>
+      <c r="CP172" s="29"/>
       <c r="CQ172" s="1" t="s">
         <v>368</v>
       </c>
@@ -24618,14 +24733,14 @@
       <c r="B173" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C173" s="24">
+      <c r="C173" s="22">
         <v>222</v>
       </c>
-      <c r="D173" s="30">
+      <c r="D173" s="28">
         <f>BW173/BX173</f>
         <v>1</v>
       </c>
-      <c r="E173" s="30"/>
+      <c r="E173" s="28"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -24731,10 +24846,10 @@
       <c r="CL173" s="1"/>
       <c r="CM173" s="1"/>
       <c r="CN173" s="1"/>
-      <c r="CO173" s="31">
+      <c r="CO173" s="29">
         <v>1</v>
       </c>
-      <c r="CP173" s="31"/>
+      <c r="CP173" s="29"/>
       <c r="CQ173" s="1" t="s">
         <v>368</v>
       </c>
@@ -24743,13 +24858,13 @@
       <c r="B174" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C174" s="24">
+      <c r="C174" s="22">
         <v>222</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E174" s="40" t="s">
+      <c r="E174" s="38" t="s">
         <v>89</v>
       </c>
       <c r="F174" s="1"/>
@@ -24855,10 +24970,10 @@
       <c r="CL174" s="1"/>
       <c r="CM174" s="1"/>
       <c r="CN174" s="1"/>
-      <c r="CO174" s="31" t="s">
+      <c r="CO174" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="CP174" s="31" t="s">
+      <c r="CP174" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ174" s="1" t="s">
@@ -24869,13 +24984,13 @@
       <c r="B175" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C175" s="24">
+      <c r="C175" s="22">
         <v>222</v>
       </c>
-      <c r="D175" s="30">
+      <c r="D175" s="28">
         <v>0</v>
       </c>
-      <c r="E175" s="40" t="s">
+      <c r="E175" s="38" t="s">
         <v>88</v>
       </c>
       <c r="F175" s="1"/>
@@ -24981,10 +25096,10 @@
       <c r="CL175" s="1"/>
       <c r="CM175" s="1"/>
       <c r="CN175" s="1"/>
-      <c r="CO175" s="31">
+      <c r="CO175" s="29">
         <v>0</v>
       </c>
-      <c r="CP175" s="31" t="s">
+      <c r="CP175" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ175" s="1" t="s">
@@ -24995,13 +25110,13 @@
       <c r="B176" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C176" s="24">
+      <c r="C176" s="22">
         <v>222</v>
       </c>
-      <c r="D176" s="30" t="s">
+      <c r="D176" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E176" s="40" t="s">
+      <c r="E176" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F176" s="1"/>
@@ -25108,10 +25223,10 @@
       <c r="CL176" s="1"/>
       <c r="CM176" s="1"/>
       <c r="CN176" s="1"/>
-      <c r="CO176" s="31" t="s">
+      <c r="CO176" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP176" s="31" t="s">
+      <c r="CP176" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ176" s="1" t="s">
@@ -25122,13 +25237,13 @@
       <c r="B177" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C177" s="24">
+      <c r="C177" s="22">
         <v>222</v>
       </c>
-      <c r="D177" s="30" t="s">
+      <c r="D177" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E177" s="40" t="s">
+      <c r="E177" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F177" s="1"/>
@@ -25235,10 +25350,10 @@
       <c r="CL177" s="1"/>
       <c r="CM177" s="1"/>
       <c r="CN177" s="1"/>
-      <c r="CO177" s="31" t="s">
+      <c r="CO177" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP177" s="31" t="s">
+      <c r="CP177" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ177" s="1" t="s">
@@ -25249,13 +25364,13 @@
       <c r="B178" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C178" s="24">
+      <c r="C178" s="22">
         <v>222</v>
       </c>
-      <c r="D178" s="30" t="s">
+      <c r="D178" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="40" t="s">
+      <c r="E178" s="38" t="s">
         <v>112</v>
       </c>
       <c r="F178" s="1"/>
@@ -25288,22 +25403,22 @@
       <c r="AG178" s="1"/>
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
-      <c r="AJ178" s="21">
+      <c r="AJ178" s="20">
         <v>700</v>
       </c>
-      <c r="AK178" s="21">
+      <c r="AK178" s="20">
         <v>300</v>
       </c>
-      <c r="AL178" s="21">
+      <c r="AL178" s="20">
         <v>400</v>
       </c>
-      <c r="AM178" s="21">
+      <c r="AM178" s="20">
         <v>500</v>
       </c>
-      <c r="AN178" s="21">
+      <c r="AN178" s="20">
         <v>-300</v>
       </c>
-      <c r="AO178" s="21">
+      <c r="AO178" s="20">
         <v>-200</v>
       </c>
       <c r="AP178" s="1"/>
@@ -25363,10 +25478,10 @@
       <c r="CL178" s="1"/>
       <c r="CM178" s="1"/>
       <c r="CN178" s="1"/>
-      <c r="CO178" s="43" t="s">
+      <c r="CO178" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="CP178" s="31" t="s">
+      <c r="CP178" s="29" t="s">
         <v>112</v>
       </c>
       <c r="CQ178" s="1" t="s">
@@ -25377,14 +25492,14 @@
       <c r="B179" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C179" s="24">
+      <c r="C179" s="22">
         <v>223</v>
       </c>
-      <c r="D179" s="30">
+      <c r="D179" s="28">
         <f>BW179/BX179</f>
         <v>1.3352490421455938</v>
       </c>
-      <c r="E179" s="30"/>
+      <c r="E179" s="28"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -25490,10 +25605,10 @@
       <c r="CL179" s="1"/>
       <c r="CM179" s="1"/>
       <c r="CN179" s="1"/>
-      <c r="CO179" s="31">
+      <c r="CO179" s="29">
         <v>1.3352490421455938</v>
       </c>
-      <c r="CP179" s="31"/>
+      <c r="CP179" s="29"/>
       <c r="CQ179" s="1" t="s">
         <v>368</v>
       </c>
@@ -25502,14 +25617,14 @@
       <c r="B180" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C180" s="24">
+      <c r="C180" s="22">
         <v>223</v>
       </c>
-      <c r="D180" s="30">
+      <c r="D180" s="28">
         <f>BW180/BX180</f>
         <v>1</v>
       </c>
-      <c r="E180" s="30"/>
+      <c r="E180" s="28"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -25615,10 +25730,10 @@
       <c r="CL180" s="1"/>
       <c r="CM180" s="1"/>
       <c r="CN180" s="1"/>
-      <c r="CO180" s="31">
+      <c r="CO180" s="29">
         <v>1</v>
       </c>
-      <c r="CP180" s="31"/>
+      <c r="CP180" s="29"/>
       <c r="CQ180" s="1" t="s">
         <v>368</v>
       </c>
@@ -25627,13 +25742,13 @@
       <c r="B181" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C181" s="24">
+      <c r="C181" s="22">
         <v>223</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D181" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E181" s="40" t="s">
+      <c r="E181" s="38" t="s">
         <v>89</v>
       </c>
       <c r="F181" s="1"/>
@@ -25739,10 +25854,10 @@
       <c r="CL181" s="1"/>
       <c r="CM181" s="1"/>
       <c r="CN181" s="1"/>
-      <c r="CO181" s="31" t="s">
+      <c r="CO181" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP181" s="31" t="s">
+      <c r="CP181" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ181" s="1" t="s">
@@ -25753,13 +25868,13 @@
       <c r="B182" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="24">
+      <c r="C182" s="22">
         <v>223</v>
       </c>
-      <c r="D182" s="30">
+      <c r="D182" s="28">
         <v>0</v>
       </c>
-      <c r="E182" s="40" t="s">
+      <c r="E182" s="38" t="s">
         <v>88</v>
       </c>
       <c r="F182" s="1"/>
@@ -25865,10 +25980,10 @@
       <c r="CL182" s="1"/>
       <c r="CM182" s="1"/>
       <c r="CN182" s="1"/>
-      <c r="CO182" s="31">
+      <c r="CO182" s="29">
         <v>0</v>
       </c>
-      <c r="CP182" s="31" t="s">
+      <c r="CP182" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ182" s="1" t="s">
@@ -25879,13 +25994,13 @@
       <c r="B183" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C183" s="24">
+      <c r="C183" s="22">
         <v>223</v>
       </c>
-      <c r="D183" s="30" t="s">
+      <c r="D183" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E183" s="40" t="s">
+      <c r="E183" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F183" s="1"/>
@@ -25992,10 +26107,10 @@
       <c r="CL183" s="1"/>
       <c r="CM183" s="1"/>
       <c r="CN183" s="1"/>
-      <c r="CO183" s="31" t="s">
+      <c r="CO183" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP183" s="31" t="s">
+      <c r="CP183" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ183" s="1" t="s">
@@ -26006,13 +26121,13 @@
       <c r="B184" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C184" s="24">
+      <c r="C184" s="22">
         <v>223</v>
       </c>
-      <c r="D184" s="30" t="s">
+      <c r="D184" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E184" s="40" t="s">
+      <c r="E184" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F184" s="1"/>
@@ -26119,10 +26234,10 @@
       <c r="CL184" s="1"/>
       <c r="CM184" s="1"/>
       <c r="CN184" s="1"/>
-      <c r="CO184" s="31" t="s">
+      <c r="CO184" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP184" s="31" t="s">
+      <c r="CP184" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ184" s="1" t="s">
@@ -26133,13 +26248,13 @@
       <c r="B185" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C185" s="24">
+      <c r="C185" s="22">
         <v>223</v>
       </c>
-      <c r="D185" s="30" t="s">
+      <c r="D185" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E185" s="41" t="s">
+      <c r="E185" s="39" t="s">
         <v>112</v>
       </c>
       <c r="F185" s="9"/>
@@ -26247,10 +26362,10 @@
       <c r="CL185" s="1"/>
       <c r="CM185" s="1"/>
       <c r="CN185" s="1"/>
-      <c r="CO185" s="43" t="s">
+      <c r="CO185" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="CP185" s="31" t="s">
+      <c r="CP185" s="29" t="s">
         <v>112</v>
       </c>
       <c r="CQ185" s="1" t="s">
@@ -26261,14 +26376,14 @@
       <c r="B186" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C186" s="23">
+      <c r="C186" s="21">
         <v>224</v>
       </c>
-      <c r="D186" s="31">
+      <c r="D186" s="29">
         <f>BW186/BX186</f>
         <v>1.103787878787879</v>
       </c>
-      <c r="E186" s="31"/>
+      <c r="E186" s="29"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -26374,10 +26489,10 @@
       <c r="CL186" s="1"/>
       <c r="CM186" s="1"/>
       <c r="CN186" s="1"/>
-      <c r="CO186" s="31">
+      <c r="CO186" s="29">
         <v>1.103787878787879</v>
       </c>
-      <c r="CP186" s="31"/>
+      <c r="CP186" s="29"/>
       <c r="CQ186" s="1" t="s">
         <v>368</v>
       </c>
@@ -26386,14 +26501,14 @@
       <c r="B187" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C187" s="23">
+      <c r="C187" s="21">
         <v>224</v>
       </c>
-      <c r="D187" s="31">
+      <c r="D187" s="29">
         <f>BW187/BX187</f>
         <v>1</v>
       </c>
-      <c r="E187" s="31"/>
+      <c r="E187" s="29"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -26499,10 +26614,10 @@
       <c r="CL187" s="1"/>
       <c r="CM187" s="1"/>
       <c r="CN187" s="1"/>
-      <c r="CO187" s="31">
+      <c r="CO187" s="29">
         <v>1</v>
       </c>
-      <c r="CP187" s="31"/>
+      <c r="CP187" s="29"/>
       <c r="CQ187" s="1" t="s">
         <v>368</v>
       </c>
@@ -26511,13 +26626,13 @@
       <c r="B188" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C188" s="23">
+      <c r="C188" s="21">
         <v>224</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E188" s="36" t="s">
+      <c r="E188" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F188" s="1"/>
@@ -26623,10 +26738,10 @@
       <c r="CL188" s="1"/>
       <c r="CM188" s="1"/>
       <c r="CN188" s="1"/>
-      <c r="CO188" s="31" t="s">
+      <c r="CO188" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP188" s="31" t="s">
+      <c r="CP188" s="29" t="s">
         <v>89</v>
       </c>
       <c r="CQ188" s="1" t="s">
@@ -26637,13 +26752,13 @@
       <c r="B189" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C189" s="23">
+      <c r="C189" s="21">
         <v>224</v>
       </c>
-      <c r="D189" s="31">
+      <c r="D189" s="29">
         <v>0</v>
       </c>
-      <c r="E189" s="36" t="s">
+      <c r="E189" s="34" t="s">
         <v>88</v>
       </c>
       <c r="F189" s="1"/>
@@ -26749,10 +26864,10 @@
       <c r="CL189" s="1"/>
       <c r="CM189" s="1"/>
       <c r="CN189" s="1"/>
-      <c r="CO189" s="31">
+      <c r="CO189" s="29">
         <v>0</v>
       </c>
-      <c r="CP189" s="31" t="s">
+      <c r="CP189" s="29" t="s">
         <v>88</v>
       </c>
       <c r="CQ189" s="1" t="s">
@@ -26763,13 +26878,13 @@
       <c r="B190" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C190" s="24">
+      <c r="C190" s="22">
         <v>224</v>
       </c>
-      <c r="D190" s="30" t="s">
+      <c r="D190" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E190" s="40" t="s">
+      <c r="E190" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F190" s="1"/>
@@ -26876,10 +26991,10 @@
       <c r="CL190" s="1"/>
       <c r="CM190" s="1"/>
       <c r="CN190" s="1"/>
-      <c r="CO190" s="31" t="s">
+      <c r="CO190" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP190" s="31" t="s">
+      <c r="CP190" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ190" s="1" t="s">
@@ -26890,13 +27005,13 @@
       <c r="B191" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C191" s="24">
+      <c r="C191" s="22">
         <v>224</v>
       </c>
-      <c r="D191" s="30" t="s">
+      <c r="D191" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E191" s="40" t="s">
+      <c r="E191" s="38" t="s">
         <v>96</v>
       </c>
       <c r="F191" s="9"/>
@@ -27003,10 +27118,10 @@
       <c r="CL191" s="1"/>
       <c r="CM191" s="1"/>
       <c r="CN191" s="1"/>
-      <c r="CO191" s="31" t="s">
+      <c r="CO191" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP191" s="31" t="s">
+      <c r="CP191" s="29" t="s">
         <v>96</v>
       </c>
       <c r="CQ191" s="1" t="s">
@@ -27017,13 +27132,13 @@
       <c r="B192" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C192" s="24">
+      <c r="C192" s="22">
         <v>224</v>
       </c>
-      <c r="D192" s="30" t="s">
+      <c r="D192" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E192" s="42" t="s">
+      <c r="E192" s="40" t="s">
         <v>112</v>
       </c>
       <c r="F192" s="9"/>
@@ -27131,10 +27246,10 @@
       <c r="CL192" s="1"/>
       <c r="CM192" s="1"/>
       <c r="CN192" s="1"/>
-      <c r="CO192" s="43" t="s">
+      <c r="CO192" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="CP192" s="31" t="s">
+      <c r="CP192" s="29" t="s">
         <v>112</v>
       </c>
       <c r="CQ192" s="1" t="s">
@@ -27145,14 +27260,14 @@
       <c r="B193" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C193" s="23">
+      <c r="C193" s="21">
         <v>225</v>
       </c>
-      <c r="D193" s="31">
+      <c r="D193" s="29">
         <f>AVERAGE(BK193,BL193,BM193)</f>
         <v>1833.3333333333333</v>
       </c>
-      <c r="E193" s="31"/>
+      <c r="E193" s="29"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -27246,10 +27361,10 @@
       <c r="CL193" s="1"/>
       <c r="CM193" s="1"/>
       <c r="CN193" s="1"/>
-      <c r="CO193" s="43">
+      <c r="CO193" s="41">
         <v>1833.3333333333333</v>
       </c>
-      <c r="CP193" s="31"/>
+      <c r="CP193" s="29"/>
       <c r="CQ193" s="1" t="s">
         <v>368</v>
       </c>
@@ -27258,14 +27373,14 @@
       <c r="B194" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C194" s="23">
+      <c r="C194" s="21">
         <v>225</v>
       </c>
-      <c r="D194" s="31">
+      <c r="D194" s="29">
         <f>AVERAGE(BK194,BL194,BM194)</f>
         <v>1500</v>
       </c>
-      <c r="E194" s="31"/>
+      <c r="E194" s="29"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -27359,10 +27474,10 @@
       <c r="CL194" s="1"/>
       <c r="CM194" s="1"/>
       <c r="CN194" s="1"/>
-      <c r="CO194" s="43">
+      <c r="CO194" s="41">
         <v>1500</v>
       </c>
-      <c r="CP194" s="31"/>
+      <c r="CP194" s="29"/>
       <c r="CQ194" s="1" t="s">
         <v>368</v>
       </c>
@@ -27371,14 +27486,14 @@
       <c r="B195" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C195" s="23">
+      <c r="C195" s="21">
         <v>225</v>
       </c>
-      <c r="D195" s="31">
+      <c r="D195" s="29">
         <f>AVERAGE(BK195,BL195,BM195)</f>
         <v>1400</v>
       </c>
-      <c r="E195" s="31"/>
+      <c r="E195" s="29"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -27472,10 +27587,10 @@
       <c r="CL195" s="1"/>
       <c r="CM195" s="1"/>
       <c r="CN195" s="1"/>
-      <c r="CO195" s="43">
+      <c r="CO195" s="41">
         <v>1400</v>
       </c>
-      <c r="CP195" s="31"/>
+      <c r="CP195" s="29"/>
       <c r="CQ195" s="1" t="s">
         <v>368</v>
       </c>
@@ -27484,13 +27599,13 @@
       <c r="B196" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="23">
+      <c r="C196" s="21">
         <v>225</v>
       </c>
-      <c r="D196" s="31" t="s">
+      <c r="D196" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E196" s="36" t="s">
+      <c r="E196" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F196" s="1"/>
@@ -27586,10 +27701,10 @@
       <c r="CL196" s="1"/>
       <c r="CM196" s="1"/>
       <c r="CN196" s="1"/>
-      <c r="CO196" s="31" t="s">
+      <c r="CO196" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP196" s="31" t="s">
+      <c r="CP196" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ196" s="1" t="s">
@@ -27600,13 +27715,13 @@
       <c r="B197" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C197" s="23">
+      <c r="C197" s="21">
         <v>225</v>
       </c>
-      <c r="D197" s="31" t="s">
+      <c r="D197" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E197" s="36" t="s">
+      <c r="E197" s="34" t="s">
         <v>100</v>
       </c>
       <c r="F197" s="1"/>
@@ -27702,10 +27817,10 @@
       <c r="CL197" s="1"/>
       <c r="CM197" s="1"/>
       <c r="CN197" s="1"/>
-      <c r="CO197" s="43" t="s">
+      <c r="CO197" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="CP197" s="31" t="s">
+      <c r="CP197" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ197" s="1" t="s">
@@ -27716,13 +27831,13 @@
       <c r="B198" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C198" s="23">
+      <c r="C198" s="21">
         <v>226</v>
       </c>
-      <c r="D198" s="43">
+      <c r="D198" s="41">
         <v>1500</v>
       </c>
-      <c r="E198" s="36"/>
+      <c r="E198" s="34"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -27783,13 +27898,13 @@
       <c r="BK198" s="1"/>
       <c r="BL198" s="1"/>
       <c r="BM198" s="1"/>
-      <c r="BN198" s="26">
+      <c r="BN198" s="24">
         <v>-1000</v>
       </c>
-      <c r="BO198" s="26">
+      <c r="BO198" s="24">
         <v>-1500</v>
       </c>
-      <c r="BP198" s="26">
+      <c r="BP198" s="24">
         <v>-2000</v>
       </c>
       <c r="BQ198" s="1"/>
@@ -27825,10 +27940,10 @@
       <c r="CL198" s="1"/>
       <c r="CM198" s="1"/>
       <c r="CN198" s="1"/>
-      <c r="CO198" s="43">
+      <c r="CO198" s="41">
         <v>1500</v>
       </c>
-      <c r="CP198" s="31"/>
+      <c r="CP198" s="29"/>
       <c r="CQ198" s="1" t="s">
         <v>368</v>
       </c>
@@ -27837,13 +27952,13 @@
       <c r="B199" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C199" s="23">
+      <c r="C199" s="21">
         <v>226</v>
       </c>
-      <c r="D199" s="31">
+      <c r="D199" s="29">
         <v>800</v>
       </c>
-      <c r="E199" s="31"/>
+      <c r="E199" s="29"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -27904,7 +28019,7 @@
       <c r="BK199" s="1"/>
       <c r="BL199" s="1"/>
       <c r="BM199" s="1"/>
-      <c r="BN199" s="26">
+      <c r="BN199" s="24">
         <v>-800</v>
       </c>
       <c r="BO199" s="2" t="s">
@@ -27944,10 +28059,10 @@
       <c r="CL199" s="1"/>
       <c r="CM199" s="1"/>
       <c r="CN199" s="1"/>
-      <c r="CO199" s="31">
+      <c r="CO199" s="29">
         <v>800</v>
       </c>
-      <c r="CP199" s="31"/>
+      <c r="CP199" s="29"/>
       <c r="CQ199" s="1" t="s">
         <v>368</v>
       </c>
@@ -27956,13 +28071,13 @@
       <c r="B200" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C200" s="23">
+      <c r="C200" s="21">
         <v>226</v>
       </c>
-      <c r="D200" s="43">
+      <c r="D200" s="41">
         <v>2200</v>
       </c>
-      <c r="E200" s="31"/>
+      <c r="E200" s="29"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -28023,13 +28138,13 @@
       <c r="BK200" s="1"/>
       <c r="BL200" s="1"/>
       <c r="BM200" s="1"/>
-      <c r="BN200" s="26">
+      <c r="BN200" s="24">
         <v>-3000</v>
       </c>
       <c r="BO200" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BP200" s="26">
+      <c r="BP200" s="24">
         <v>-1400</v>
       </c>
       <c r="BQ200" s="1"/>
@@ -28064,10 +28179,10 @@
       <c r="CL200" s="1"/>
       <c r="CM200" s="1"/>
       <c r="CN200" s="1"/>
-      <c r="CO200" s="43">
+      <c r="CO200" s="41">
         <v>2200</v>
       </c>
-      <c r="CP200" s="31"/>
+      <c r="CP200" s="29"/>
       <c r="CQ200" s="1" t="s">
         <v>368</v>
       </c>
@@ -28076,13 +28191,13 @@
       <c r="B201" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C201" s="23">
+      <c r="C201" s="21">
         <v>226</v>
       </c>
-      <c r="D201" s="31" t="s">
+      <c r="D201" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E201" s="36" t="s">
+      <c r="E201" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F201" s="1"/>
@@ -28184,10 +28299,10 @@
       <c r="CL201" s="1"/>
       <c r="CM201" s="1"/>
       <c r="CN201" s="1"/>
-      <c r="CO201" s="31" t="s">
+      <c r="CO201" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="CP201" s="31" t="s">
+      <c r="CP201" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ201" s="1" t="s">
@@ -28198,13 +28313,13 @@
       <c r="B202" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C202" s="23">
+      <c r="C202" s="21">
         <v>226</v>
       </c>
-      <c r="D202" s="31">
+      <c r="D202" s="29">
         <v>933.33</v>
       </c>
-      <c r="E202" s="36"/>
+      <c r="E202" s="34"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -28265,13 +28380,13 @@
       <c r="BK202" s="1"/>
       <c r="BL202" s="1"/>
       <c r="BM202" s="1"/>
-      <c r="BN202" s="26">
+      <c r="BN202" s="24">
         <v>1000</v>
       </c>
-      <c r="BO202" s="26">
+      <c r="BO202" s="24">
         <v>1500</v>
       </c>
-      <c r="BP202" s="26">
+      <c r="BP202" s="24">
         <v>300</v>
       </c>
       <c r="BQ202" s="1"/>
@@ -28307,10 +28422,10 @@
       <c r="CL202" s="1"/>
       <c r="CM202" s="1"/>
       <c r="CN202" s="1"/>
-      <c r="CO202" s="31">
+      <c r="CO202" s="29">
         <v>933.33</v>
       </c>
-      <c r="CP202" s="31"/>
+      <c r="CP202" s="29"/>
       <c r="CQ202" s="1" t="s">
         <v>368</v>
       </c>
@@ -28319,13 +28434,13 @@
       <c r="B203" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C203" s="23">
+      <c r="C203" s="21">
         <v>227</v>
       </c>
-      <c r="D203" s="43">
+      <c r="D203" s="41">
         <v>1000</v>
       </c>
-      <c r="E203" s="31"/>
+      <c r="E203" s="29"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -28389,13 +28504,13 @@
       <c r="BN203" s="1"/>
       <c r="BO203" s="1"/>
       <c r="BP203" s="1"/>
-      <c r="BQ203" s="26">
+      <c r="BQ203" s="24">
         <v>-1000</v>
       </c>
-      <c r="BR203" s="26">
+      <c r="BR203" s="24">
         <v>-1500</v>
       </c>
-      <c r="BS203" s="26">
+      <c r="BS203" s="24">
         <v>-500</v>
       </c>
       <c r="BT203" s="1"/>
@@ -28428,10 +28543,10 @@
       <c r="CL203" s="1"/>
       <c r="CM203" s="1"/>
       <c r="CN203" s="1"/>
-      <c r="CO203" s="43">
+      <c r="CO203" s="41">
         <v>1000</v>
       </c>
-      <c r="CP203" s="31"/>
+      <c r="CP203" s="29"/>
       <c r="CQ203" s="1" t="s">
         <v>368</v>
       </c>
@@ -28440,13 +28555,13 @@
       <c r="B204" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C204" s="23">
+      <c r="C204" s="21">
         <v>227</v>
       </c>
-      <c r="D204" s="31">
+      <c r="D204" s="29">
         <v>900</v>
       </c>
-      <c r="E204" s="31"/>
+      <c r="E204" s="29"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -28510,7 +28625,7 @@
       <c r="BN204" s="1"/>
       <c r="BO204" s="1"/>
       <c r="BP204" s="1"/>
-      <c r="BQ204" s="26">
+      <c r="BQ204" s="24">
         <v>-900</v>
       </c>
       <c r="BR204" s="2" t="s">
@@ -28547,10 +28662,10 @@
       <c r="CL204" s="1"/>
       <c r="CM204" s="1"/>
       <c r="CN204" s="1"/>
-      <c r="CO204" s="31">
+      <c r="CO204" s="29">
         <v>900</v>
       </c>
-      <c r="CP204" s="31"/>
+      <c r="CP204" s="29"/>
       <c r="CQ204" s="1" t="s">
         <v>368</v>
       </c>
@@ -28559,13 +28674,13 @@
       <c r="B205" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C205" s="23">
+      <c r="C205" s="21">
         <v>227</v>
       </c>
-      <c r="D205" s="43">
+      <c r="D205" s="41">
         <v>2100</v>
       </c>
-      <c r="E205" s="31"/>
+      <c r="E205" s="29"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -28629,13 +28744,13 @@
       <c r="BN205" s="1"/>
       <c r="BO205" s="1"/>
       <c r="BP205" s="1"/>
-      <c r="BQ205" s="26">
+      <c r="BQ205" s="24">
         <v>-3000</v>
       </c>
       <c r="BR205" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BS205" s="26">
+      <c r="BS205" s="24">
         <v>-1200</v>
       </c>
       <c r="BT205" s="1"/>
@@ -28667,10 +28782,10 @@
       <c r="CL205" s="1"/>
       <c r="CM205" s="1"/>
       <c r="CN205" s="1"/>
-      <c r="CO205" s="43">
+      <c r="CO205" s="41">
         <v>2100</v>
       </c>
-      <c r="CP205" s="31"/>
+      <c r="CP205" s="29"/>
       <c r="CQ205" s="1" t="s">
         <v>368</v>
       </c>
@@ -28679,13 +28794,13 @@
       <c r="B206" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C206" s="23">
+      <c r="C206" s="21">
         <v>227</v>
       </c>
-      <c r="D206" s="31" t="s">
+      <c r="D206" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E206" s="36" t="s">
+      <c r="E206" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F206" s="1"/>
@@ -28787,10 +28902,10 @@
       <c r="CL206" s="1"/>
       <c r="CM206" s="1"/>
       <c r="CN206" s="1"/>
-      <c r="CO206" s="31" t="s">
+      <c r="CO206" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="CP206" s="31" t="s">
+      <c r="CP206" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ206" s="1" t="s">
@@ -28801,13 +28916,13 @@
       <c r="B207" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C207" s="23">
+      <c r="C207" s="21">
         <v>227</v>
       </c>
-      <c r="D207" s="31">
+      <c r="D207" s="29">
         <v>966.67</v>
       </c>
-      <c r="E207" s="36"/>
+      <c r="E207" s="34"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -28871,13 +28986,13 @@
       <c r="BN207" s="1"/>
       <c r="BO207" s="1"/>
       <c r="BP207" s="1"/>
-      <c r="BQ207" s="26">
+      <c r="BQ207" s="24">
         <v>1000</v>
       </c>
-      <c r="BR207" s="26">
+      <c r="BR207" s="24">
         <v>1500</v>
       </c>
-      <c r="BS207" s="26">
+      <c r="BS207" s="24">
         <v>400</v>
       </c>
       <c r="BT207" s="1"/>
@@ -28910,10 +29025,10 @@
       <c r="CL207" s="1"/>
       <c r="CM207" s="1"/>
       <c r="CN207" s="1"/>
-      <c r="CO207" s="31">
+      <c r="CO207" s="29">
         <v>966.67</v>
       </c>
-      <c r="CP207" s="31"/>
+      <c r="CP207" s="29"/>
       <c r="CQ207" s="1" t="s">
         <v>368</v>
       </c>
@@ -28922,14 +29037,14 @@
       <c r="B208" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C208" s="23">
+      <c r="C208" s="21">
         <v>228</v>
       </c>
-      <c r="D208" s="31">
+      <c r="D208" s="29">
         <f>BW208/BX208</f>
         <v>0.75</v>
       </c>
-      <c r="E208" s="31"/>
+      <c r="E208" s="29"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -28990,13 +29105,13 @@
       <c r="BK208" s="1"/>
       <c r="BL208" s="1"/>
       <c r="BM208" s="1"/>
-      <c r="BN208" s="27">
+      <c r="BN208" s="25">
         <v>-1000</v>
       </c>
-      <c r="BO208" s="27">
+      <c r="BO208" s="25">
         <v>-1500</v>
       </c>
-      <c r="BP208" s="27">
+      <c r="BP208" s="25">
         <v>-2000</v>
       </c>
       <c r="BQ208" s="1"/>
@@ -29044,10 +29159,10 @@
       <c r="CL208" s="1"/>
       <c r="CM208" s="1"/>
       <c r="CN208" s="1"/>
-      <c r="CO208" s="31">
+      <c r="CO208" s="29">
         <v>0.75</v>
       </c>
-      <c r="CP208" s="31"/>
+      <c r="CP208" s="29"/>
       <c r="CQ208" s="1" t="s">
         <v>368</v>
       </c>
@@ -29056,14 +29171,14 @@
       <c r="B209" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C209" s="23">
+      <c r="C209" s="21">
         <v>228</v>
       </c>
-      <c r="D209" s="31">
+      <c r="D209" s="29">
         <f>BW209/BX209</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="E209" s="31"/>
+      <c r="E209" s="29"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -29130,7 +29245,7 @@
       <c r="BO209" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BP209" s="27">
+      <c r="BP209" s="25">
         <v>-800</v>
       </c>
       <c r="BQ209" s="1"/>
@@ -29176,10 +29291,10 @@
       <c r="CL209" s="1"/>
       <c r="CM209" s="1"/>
       <c r="CN209" s="1"/>
-      <c r="CO209" s="31">
+      <c r="CO209" s="29">
         <v>0.53333333333333333</v>
       </c>
-      <c r="CP209" s="31"/>
+      <c r="CP209" s="29"/>
       <c r="CQ209" s="1" t="s">
         <v>368</v>
       </c>
@@ -29188,14 +29303,14 @@
       <c r="B210" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C210" s="23">
+      <c r="C210" s="21">
         <v>228</v>
       </c>
-      <c r="D210" s="31">
+      <c r="D210" s="29">
         <f>BW210/BX210</f>
         <v>0.48</v>
       </c>
-      <c r="E210" s="31"/>
+      <c r="E210" s="29"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -29256,13 +29371,13 @@
       <c r="BK210" s="1"/>
       <c r="BL210" s="1"/>
       <c r="BM210" s="1"/>
-      <c r="BN210" s="27">
+      <c r="BN210" s="25">
         <v>-1000</v>
       </c>
       <c r="BO210" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BP210" s="27">
+      <c r="BP210" s="25">
         <v>-1400</v>
       </c>
       <c r="BQ210" s="1"/>
@@ -29309,10 +29424,10 @@
       <c r="CL210" s="1"/>
       <c r="CM210" s="1"/>
       <c r="CN210" s="1"/>
-      <c r="CO210" s="31">
+      <c r="CO210" s="29">
         <v>0.48</v>
       </c>
-      <c r="CP210" s="31"/>
+      <c r="CP210" s="29"/>
       <c r="CQ210" s="1" t="s">
         <v>368</v>
       </c>
@@ -29321,13 +29436,13 @@
       <c r="B211" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C211" s="23">
+      <c r="C211" s="21">
         <v>228</v>
       </c>
-      <c r="D211" s="31" t="s">
+      <c r="D211" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E211" s="36" t="s">
+      <c r="E211" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F211" s="1"/>
@@ -29439,10 +29554,10 @@
       <c r="CL211" s="1"/>
       <c r="CM211" s="1"/>
       <c r="CN211" s="1"/>
-      <c r="CO211" s="31" t="s">
+      <c r="CO211" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP211" s="31" t="s">
+      <c r="CP211" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ211" s="1" t="s">
@@ -29453,13 +29568,13 @@
       <c r="B212" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C212" s="23">
+      <c r="C212" s="21">
         <v>228</v>
       </c>
-      <c r="D212" s="31">
+      <c r="D212" s="29">
         <v>999999</v>
       </c>
-      <c r="E212" s="36" t="s">
+      <c r="E212" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F212" s="1"/>
@@ -29522,13 +29637,13 @@
       <c r="BK212" s="1"/>
       <c r="BL212" s="1"/>
       <c r="BM212" s="1"/>
-      <c r="BN212" s="27">
+      <c r="BN212" s="25">
         <v>-1000</v>
       </c>
-      <c r="BO212" s="27">
+      <c r="BO212" s="25">
         <v>1500</v>
       </c>
-      <c r="BP212" s="27">
+      <c r="BP212" s="25">
         <v>-500</v>
       </c>
       <c r="BQ212" s="1"/>
@@ -29576,10 +29691,10 @@
       <c r="CL212" s="1"/>
       <c r="CM212" s="1"/>
       <c r="CN212" s="1"/>
-      <c r="CO212" s="43">
+      <c r="CO212" s="41">
         <v>999999</v>
       </c>
-      <c r="CP212" s="31" t="s">
+      <c r="CP212" s="29" t="s">
         <v>101</v>
       </c>
       <c r="CQ212" s="1" t="s">
@@ -29590,13 +29705,13 @@
       <c r="B213" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C213" s="23">
+      <c r="C213" s="21">
         <v>228</v>
       </c>
-      <c r="D213" s="31">
+      <c r="D213" s="29">
         <v>1000000</v>
       </c>
-      <c r="E213" s="36" t="s">
+      <c r="E213" s="34" t="s">
         <v>102</v>
       </c>
       <c r="F213" s="1"/>
@@ -29659,13 +29774,13 @@
       <c r="BK213" s="1"/>
       <c r="BL213" s="1"/>
       <c r="BM213" s="1"/>
-      <c r="BN213" s="27">
+      <c r="BN213" s="25">
         <v>-1000</v>
       </c>
-      <c r="BO213" s="27">
+      <c r="BO213" s="25">
         <v>-1500</v>
       </c>
-      <c r="BP213" s="27">
+      <c r="BP213" s="25">
         <v>-500</v>
       </c>
       <c r="BQ213" s="1"/>
@@ -29713,10 +29828,10 @@
       <c r="CL213" s="1"/>
       <c r="CM213" s="1"/>
       <c r="CN213" s="1"/>
-      <c r="CO213" s="43">
+      <c r="CO213" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP213" s="31" t="s">
+      <c r="CP213" s="29" t="s">
         <v>102</v>
       </c>
       <c r="CQ213" s="1" t="s">
@@ -29727,13 +29842,13 @@
       <c r="B214" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C214" s="23">
+      <c r="C214" s="21">
         <v>228</v>
       </c>
-      <c r="D214" s="31" t="s">
+      <c r="D214" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E214" s="36" t="s">
+      <c r="E214" s="34" t="s">
         <v>103</v>
       </c>
       <c r="F214" s="1"/>
@@ -29796,13 +29911,13 @@
       <c r="BK214" s="1"/>
       <c r="BL214" s="1"/>
       <c r="BM214" s="1"/>
-      <c r="BN214" s="26">
+      <c r="BN214" s="24">
         <v>-750</v>
       </c>
-      <c r="BO214" s="26">
+      <c r="BO214" s="24">
         <v>-800</v>
       </c>
-      <c r="BP214" s="26">
+      <c r="BP214" s="24">
         <v>-1200</v>
       </c>
       <c r="BQ214" s="1"/>
@@ -29849,10 +29964,10 @@
       <c r="CL214" s="1"/>
       <c r="CM214" s="1"/>
       <c r="CN214" s="1"/>
-      <c r="CO214" s="31" t="s">
+      <c r="CO214" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP214" s="31" t="s">
+      <c r="CP214" s="29" t="s">
         <v>103</v>
       </c>
       <c r="CQ214" s="1" t="s">
@@ -29863,13 +29978,13 @@
       <c r="B215" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C215" s="23">
+      <c r="C215" s="21">
         <v>228</v>
       </c>
-      <c r="D215" s="31" t="s">
+      <c r="D215" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E215" s="36" t="s">
+      <c r="E215" s="34" t="s">
         <v>104</v>
       </c>
       <c r="F215" s="1"/>
@@ -29982,10 +30097,10 @@
       <c r="CL215" s="1"/>
       <c r="CM215" s="1"/>
       <c r="CN215" s="1"/>
-      <c r="CO215" s="31" t="s">
+      <c r="CO215" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP215" s="31" t="s">
+      <c r="CP215" s="29" t="s">
         <v>104</v>
       </c>
       <c r="CQ215" s="1" t="s">
@@ -29996,13 +30111,13 @@
       <c r="B216" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C216" s="23">
+      <c r="C216" s="21">
         <v>228</v>
       </c>
-      <c r="D216" s="31" t="s">
+      <c r="D216" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E216" s="33" t="s">
+      <c r="E216" s="31" t="s">
         <v>100</v>
       </c>
       <c r="F216" s="1"/>
@@ -30065,13 +30180,13 @@
       <c r="BK216" s="1"/>
       <c r="BL216" s="1"/>
       <c r="BM216" s="1"/>
-      <c r="BN216" s="27">
+      <c r="BN216" s="25">
         <v>1000</v>
       </c>
-      <c r="BO216" s="27">
+      <c r="BO216" s="25">
         <v>1500</v>
       </c>
-      <c r="BP216" s="27">
+      <c r="BP216" s="25">
         <v>-500</v>
       </c>
       <c r="BQ216" s="1"/>
@@ -30119,10 +30234,10 @@
       <c r="CL216" s="1"/>
       <c r="CM216" s="1"/>
       <c r="CN216" s="1"/>
-      <c r="CO216" s="31" t="s">
+      <c r="CO216" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP216" s="31" t="s">
+      <c r="CP216" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ216" s="1" t="s">
@@ -30133,13 +30248,13 @@
       <c r="B217" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C217" s="23">
+      <c r="C217" s="21">
         <v>228</v>
       </c>
-      <c r="D217" s="31" t="s">
+      <c r="D217" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E217" s="33" t="s">
+      <c r="E217" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F217" s="1"/>
@@ -30202,13 +30317,13 @@
       <c r="BK217" s="1"/>
       <c r="BL217" s="1"/>
       <c r="BM217" s="1"/>
-      <c r="BN217" s="27">
+      <c r="BN217" s="25">
         <v>800</v>
       </c>
-      <c r="BO217" s="27">
+      <c r="BO217" s="25">
         <v>1500</v>
       </c>
-      <c r="BP217" s="27">
+      <c r="BP217" s="25">
         <v>-500</v>
       </c>
       <c r="BQ217" s="1"/>
@@ -30256,10 +30371,10 @@
       <c r="CL217" s="1"/>
       <c r="CM217" s="1"/>
       <c r="CN217" s="1"/>
-      <c r="CO217" s="31" t="s">
+      <c r="CO217" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP217" s="31" t="s">
+      <c r="CP217" s="29" t="s">
         <v>114</v>
       </c>
       <c r="CQ217" s="1" t="s">
@@ -30270,13 +30385,13 @@
       <c r="B218" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C218" s="23">
+      <c r="C218" s="21">
         <v>228</v>
       </c>
-      <c r="D218" s="31" t="s">
+      <c r="D218" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E218" s="33" t="s">
+      <c r="E218" s="31" t="s">
         <v>100</v>
       </c>
       <c r="F218" s="1"/>
@@ -30339,13 +30454,13 @@
       <c r="BK218" s="1"/>
       <c r="BL218" s="1"/>
       <c r="BM218" s="1"/>
-      <c r="BN218" s="27">
+      <c r="BN218" s="25">
         <v>800</v>
       </c>
-      <c r="BO218" s="27">
+      <c r="BO218" s="25">
         <v>1500</v>
       </c>
-      <c r="BP218" s="27">
+      <c r="BP218" s="25">
         <v>500</v>
       </c>
       <c r="BQ218" s="1"/>
@@ -30393,10 +30508,10 @@
       <c r="CL218" s="1"/>
       <c r="CM218" s="1"/>
       <c r="CN218" s="1"/>
-      <c r="CO218" s="31" t="s">
+      <c r="CO218" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP218" s="31" t="s">
+      <c r="CP218" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ218" s="1" t="s">
@@ -30407,13 +30522,13 @@
       <c r="B219" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C219" s="23">
+      <c r="C219" s="21">
         <v>228</v>
       </c>
-      <c r="D219" s="31" t="s">
+      <c r="D219" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E219" s="33" t="s">
+      <c r="E219" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F219" s="1"/>
@@ -30476,13 +30591,13 @@
       <c r="BK219" s="1"/>
       <c r="BL219" s="1"/>
       <c r="BM219" s="1"/>
-      <c r="BN219" s="26">
+      <c r="BN219" s="24">
         <v>-2000</v>
       </c>
-      <c r="BO219" s="26">
+      <c r="BO219" s="24">
         <v>-2000</v>
       </c>
-      <c r="BP219" s="26">
+      <c r="BP219" s="24">
         <v>-2000</v>
       </c>
       <c r="BQ219" s="1"/>
@@ -30530,10 +30645,10 @@
       <c r="CL219" s="1"/>
       <c r="CM219" s="1"/>
       <c r="CN219" s="1"/>
-      <c r="CO219" s="31" t="s">
+      <c r="CO219" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP219" s="31" t="s">
+      <c r="CP219" s="29" t="s">
         <v>105</v>
       </c>
       <c r="CQ219" s="1" t="s">
@@ -30544,13 +30659,13 @@
       <c r="B220" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C220" s="23">
+      <c r="C220" s="21">
         <v>228</v>
       </c>
-      <c r="D220" s="31" t="s">
+      <c r="D220" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E220" s="33" t="s">
+      <c r="E220" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F220" s="1"/>
@@ -30613,13 +30728,13 @@
       <c r="BK220" s="1"/>
       <c r="BL220" s="1"/>
       <c r="BM220" s="1"/>
-      <c r="BN220" s="26">
+      <c r="BN220" s="24">
         <v>2500</v>
       </c>
-      <c r="BO220" s="26">
+      <c r="BO220" s="24">
         <v>2500</v>
       </c>
-      <c r="BP220" s="26">
+      <c r="BP220" s="24">
         <v>-2500</v>
       </c>
       <c r="BQ220" s="1"/>
@@ -30667,10 +30782,10 @@
       <c r="CL220" s="1"/>
       <c r="CM220" s="1"/>
       <c r="CN220" s="1"/>
-      <c r="CO220" s="31" t="s">
+      <c r="CO220" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP220" s="31" t="s">
+      <c r="CP220" s="29" t="s">
         <v>114</v>
       </c>
       <c r="CQ220" s="1" t="s">
@@ -30681,13 +30796,13 @@
       <c r="B221" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C221" s="23">
+      <c r="C221" s="21">
         <v>228</v>
       </c>
-      <c r="D221" s="31" t="s">
+      <c r="D221" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E221" s="33" t="s">
+      <c r="E221" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F221" s="1"/>
@@ -30750,13 +30865,13 @@
       <c r="BK221" s="1"/>
       <c r="BL221" s="1"/>
       <c r="BM221" s="1"/>
-      <c r="BN221" s="26">
+      <c r="BN221" s="24">
         <v>-1000</v>
       </c>
-      <c r="BO221" s="26">
+      <c r="BO221" s="24">
         <v>-1000</v>
       </c>
-      <c r="BP221" s="26">
+      <c r="BP221" s="24">
         <v>2000</v>
       </c>
       <c r="BQ221" s="1"/>
@@ -30804,10 +30919,10 @@
       <c r="CL221" s="1"/>
       <c r="CM221" s="1"/>
       <c r="CN221" s="1"/>
-      <c r="CO221" s="31" t="s">
+      <c r="CO221" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP221" s="31" t="s">
+      <c r="CP221" s="29" t="s">
         <v>105</v>
       </c>
       <c r="CQ221" s="1" t="s">
@@ -30818,14 +30933,14 @@
       <c r="B222" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C222" s="23">
+      <c r="C222" s="21">
         <v>229</v>
       </c>
-      <c r="D222" s="31">
+      <c r="D222" s="29">
         <f>BW222/BX222</f>
         <v>0.5</v>
       </c>
-      <c r="E222" s="31"/>
+      <c r="E222" s="29"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -30889,13 +31004,13 @@
       <c r="BN222" s="1"/>
       <c r="BO222" s="1"/>
       <c r="BP222" s="1"/>
-      <c r="BQ222" s="27">
+      <c r="BQ222" s="25">
         <v>-1000</v>
       </c>
-      <c r="BR222" s="27">
+      <c r="BR222" s="25">
         <v>-1500</v>
       </c>
-      <c r="BS222" s="27">
+      <c r="BS222" s="25">
         <v>-500</v>
       </c>
       <c r="BT222" s="9">
@@ -30940,10 +31055,10 @@
       <c r="CL222" s="1"/>
       <c r="CM222" s="1"/>
       <c r="CN222" s="1"/>
-      <c r="CO222" s="31">
+      <c r="CO222" s="29">
         <v>0.5</v>
       </c>
-      <c r="CP222" s="31"/>
+      <c r="CP222" s="29"/>
       <c r="CQ222" s="1" t="s">
         <v>368</v>
       </c>
@@ -30952,14 +31067,14 @@
       <c r="B223" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C223" s="23">
+      <c r="C223" s="21">
         <v>229</v>
       </c>
-      <c r="D223" s="31">
+      <c r="D223" s="29">
         <f>BW223/BX223</f>
         <v>0.6</v>
       </c>
-      <c r="E223" s="31"/>
+      <c r="E223" s="29"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -31023,7 +31138,7 @@
       <c r="BN223" s="1"/>
       <c r="BO223" s="1"/>
       <c r="BP223" s="1"/>
-      <c r="BQ223" s="27">
+      <c r="BQ223" s="25">
         <v>-900</v>
       </c>
       <c r="BR223" s="9" t="s">
@@ -31072,10 +31187,10 @@
       <c r="CL223" s="1"/>
       <c r="CM223" s="1"/>
       <c r="CN223" s="1"/>
-      <c r="CO223" s="31">
+      <c r="CO223" s="29">
         <v>0.6</v>
       </c>
-      <c r="CP223" s="31"/>
+      <c r="CP223" s="29"/>
       <c r="CQ223" s="1" t="s">
         <v>368</v>
       </c>
@@ -31084,14 +31199,14 @@
       <c r="B224" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C224" s="23">
+      <c r="C224" s="21">
         <v>229</v>
       </c>
-      <c r="D224" s="31">
+      <c r="D224" s="29">
         <f>BW224/BX224</f>
         <v>0.84</v>
       </c>
-      <c r="E224" s="31"/>
+      <c r="E224" s="29"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -31155,13 +31270,13 @@
       <c r="BN224" s="1"/>
       <c r="BO224" s="1"/>
       <c r="BP224" s="1"/>
-      <c r="BQ224" s="27">
+      <c r="BQ224" s="25">
         <v>-3000</v>
       </c>
       <c r="BR224" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BS224" s="27">
+      <c r="BS224" s="25">
         <v>-1200</v>
       </c>
       <c r="BT224" s="9">
@@ -31205,10 +31320,10 @@
       <c r="CL224" s="1"/>
       <c r="CM224" s="1"/>
       <c r="CN224" s="1"/>
-      <c r="CO224" s="31">
+      <c r="CO224" s="29">
         <v>0.84</v>
       </c>
-      <c r="CP224" s="31"/>
+      <c r="CP224" s="29"/>
       <c r="CQ224" s="1" t="s">
         <v>368</v>
       </c>
@@ -31217,13 +31332,13 @@
       <c r="B225" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C225" s="23">
+      <c r="C225" s="21">
         <v>229</v>
       </c>
-      <c r="D225" s="31" t="s">
+      <c r="D225" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E225" s="36" t="s">
+      <c r="E225" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F225" s="1"/>
@@ -31335,10 +31450,10 @@
       <c r="CL225" s="1"/>
       <c r="CM225" s="1"/>
       <c r="CN225" s="1"/>
-      <c r="CO225" s="31" t="s">
+      <c r="CO225" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP225" s="31" t="s">
+      <c r="CP225" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ225" s="1" t="s">
@@ -31349,13 +31464,13 @@
       <c r="B226" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C226" s="23">
+      <c r="C226" s="21">
         <v>229</v>
       </c>
-      <c r="D226" s="31">
+      <c r="D226" s="29">
         <v>999999</v>
       </c>
-      <c r="E226" s="36" t="s">
+      <c r="E226" s="34" t="s">
         <v>101</v>
       </c>
       <c r="F226" s="1"/>
@@ -31421,13 +31536,13 @@
       <c r="BN226" s="1"/>
       <c r="BO226" s="1"/>
       <c r="BP226" s="1"/>
-      <c r="BQ226" s="27">
+      <c r="BQ226" s="25">
         <v>-1000</v>
       </c>
-      <c r="BR226" s="27">
+      <c r="BR226" s="25">
         <v>1500</v>
       </c>
-      <c r="BS226" s="27">
+      <c r="BS226" s="25">
         <v>-500</v>
       </c>
       <c r="BT226" s="9">
@@ -31472,10 +31587,10 @@
       <c r="CL226" s="1"/>
       <c r="CM226" s="1"/>
       <c r="CN226" s="1"/>
-      <c r="CO226" s="31">
+      <c r="CO226" s="29">
         <v>999999</v>
       </c>
-      <c r="CP226" s="31" t="s">
+      <c r="CP226" s="29" t="s">
         <v>101</v>
       </c>
       <c r="CQ226" s="1" t="s">
@@ -31486,13 +31601,13 @@
       <c r="B227" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C227" s="23">
+      <c r="C227" s="21">
         <v>229</v>
       </c>
-      <c r="D227" s="31">
+      <c r="D227" s="29">
         <v>1000000</v>
       </c>
-      <c r="E227" s="36" t="s">
+      <c r="E227" s="34" t="s">
         <v>102</v>
       </c>
       <c r="F227" s="1"/>
@@ -31558,13 +31673,13 @@
       <c r="BN227" s="1"/>
       <c r="BO227" s="1"/>
       <c r="BP227" s="1"/>
-      <c r="BQ227" s="27">
+      <c r="BQ227" s="25">
         <v>-1000</v>
       </c>
-      <c r="BR227" s="27">
+      <c r="BR227" s="25">
         <v>-1500</v>
       </c>
-      <c r="BS227" s="27">
+      <c r="BS227" s="25">
         <v>-500</v>
       </c>
       <c r="BT227" s="9">
@@ -31609,10 +31724,10 @@
       <c r="CL227" s="1"/>
       <c r="CM227" s="1"/>
       <c r="CN227" s="1"/>
-      <c r="CO227" s="43">
+      <c r="CO227" s="41">
         <v>1000000</v>
       </c>
-      <c r="CP227" s="31" t="s">
+      <c r="CP227" s="29" t="s">
         <v>102</v>
       </c>
       <c r="CQ227" s="1" t="s">
@@ -31623,13 +31738,13 @@
       <c r="B228" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C228" s="23">
+      <c r="C228" s="21">
         <v>229</v>
       </c>
-      <c r="D228" s="31" t="s">
+      <c r="D228" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E228" s="36" t="s">
+      <c r="E228" s="34" t="s">
         <v>103</v>
       </c>
       <c r="F228" s="1"/>
@@ -31695,13 +31810,13 @@
       <c r="BN228" s="1"/>
       <c r="BO228" s="1"/>
       <c r="BP228" s="1"/>
-      <c r="BQ228" s="27">
+      <c r="BQ228" s="25">
         <v>-1500</v>
       </c>
-      <c r="BR228" s="27">
+      <c r="BR228" s="25">
         <v>-800</v>
       </c>
-      <c r="BS228" s="27">
+      <c r="BS228" s="25">
         <v>-1200</v>
       </c>
       <c r="BT228" s="9" t="s">
@@ -31745,10 +31860,10 @@
       <c r="CL228" s="1"/>
       <c r="CM228" s="1"/>
       <c r="CN228" s="1"/>
-      <c r="CO228" s="31" t="s">
+      <c r="CO228" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP228" s="31" t="s">
+      <c r="CP228" s="29" t="s">
         <v>103</v>
       </c>
       <c r="CQ228" s="1" t="s">
@@ -31759,13 +31874,13 @@
       <c r="B229" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C229" s="23">
+      <c r="C229" s="21">
         <v>229</v>
       </c>
-      <c r="D229" s="31" t="s">
+      <c r="D229" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E229" s="36" t="s">
+      <c r="E229" s="34" t="s">
         <v>104</v>
       </c>
       <c r="F229" s="1"/>
@@ -31878,10 +31993,10 @@
       <c r="CL229" s="1"/>
       <c r="CM229" s="1"/>
       <c r="CN229" s="1"/>
-      <c r="CO229" s="31" t="s">
+      <c r="CO229" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP229" s="31" t="s">
+      <c r="CP229" s="29" t="s">
         <v>104</v>
       </c>
       <c r="CQ229" s="1" t="s">
@@ -31892,13 +32007,13 @@
       <c r="B230" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C230" s="23">
+      <c r="C230" s="21">
         <v>229</v>
       </c>
-      <c r="D230" s="31" t="s">
+      <c r="D230" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E230" s="33" t="s">
+      <c r="E230" s="31" t="s">
         <v>100</v>
       </c>
       <c r="F230" s="1"/>
@@ -31964,13 +32079,13 @@
       <c r="BN230" s="1"/>
       <c r="BO230" s="1"/>
       <c r="BP230" s="1"/>
-      <c r="BQ230" s="27">
+      <c r="BQ230" s="25">
         <v>1000</v>
       </c>
-      <c r="BR230" s="27">
+      <c r="BR230" s="25">
         <v>1500</v>
       </c>
-      <c r="BS230" s="27">
+      <c r="BS230" s="25">
         <v>-500</v>
       </c>
       <c r="BT230" s="9">
@@ -32015,10 +32130,10 @@
       <c r="CL230" s="1"/>
       <c r="CM230" s="1"/>
       <c r="CN230" s="1"/>
-      <c r="CO230" s="31" t="s">
+      <c r="CO230" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP230" s="31" t="s">
+      <c r="CP230" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ230" s="1" t="s">
@@ -32029,13 +32144,13 @@
       <c r="B231" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C231" s="23">
+      <c r="C231" s="21">
         <v>229</v>
       </c>
-      <c r="D231" s="31" t="s">
+      <c r="D231" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E231" s="33" t="s">
+      <c r="E231" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F231" s="1"/>
@@ -32101,13 +32216,13 @@
       <c r="BN231" s="1"/>
       <c r="BO231" s="1"/>
       <c r="BP231" s="1"/>
-      <c r="BQ231" s="27">
+      <c r="BQ231" s="25">
         <v>800</v>
       </c>
-      <c r="BR231" s="27">
+      <c r="BR231" s="25">
         <v>1500</v>
       </c>
-      <c r="BS231" s="27">
+      <c r="BS231" s="25">
         <v>-500</v>
       </c>
       <c r="BT231" s="9">
@@ -32152,10 +32267,10 @@
       <c r="CL231" s="1"/>
       <c r="CM231" s="1"/>
       <c r="CN231" s="1"/>
-      <c r="CO231" s="31" t="s">
+      <c r="CO231" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP231" s="31" t="s">
+      <c r="CP231" s="29" t="s">
         <v>114</v>
       </c>
       <c r="CQ231" s="1" t="s">
@@ -32166,13 +32281,13 @@
       <c r="B232" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C232" s="23">
+      <c r="C232" s="21">
         <v>229</v>
       </c>
-      <c r="D232" s="31" t="s">
+      <c r="D232" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E232" s="33" t="s">
+      <c r="E232" s="31" t="s">
         <v>100</v>
       </c>
       <c r="F232" s="1"/>
@@ -32238,13 +32353,13 @@
       <c r="BN232" s="1"/>
       <c r="BO232" s="1"/>
       <c r="BP232" s="1"/>
-      <c r="BQ232" s="27">
+      <c r="BQ232" s="25">
         <v>800</v>
       </c>
-      <c r="BR232" s="27">
+      <c r="BR232" s="25">
         <v>1500</v>
       </c>
-      <c r="BS232" s="27">
+      <c r="BS232" s="25">
         <v>500</v>
       </c>
       <c r="BT232" s="9">
@@ -32289,10 +32404,10 @@
       <c r="CL232" s="1"/>
       <c r="CM232" s="1"/>
       <c r="CN232" s="1"/>
-      <c r="CO232" s="31" t="s">
+      <c r="CO232" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP232" s="31" t="s">
+      <c r="CP232" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ232" s="1" t="s">
@@ -32303,13 +32418,13 @@
       <c r="B233" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C233" s="23">
+      <c r="C233" s="21">
         <v>229</v>
       </c>
-      <c r="D233" s="31" t="s">
+      <c r="D233" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E233" s="33" t="s">
+      <c r="E233" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F233" s="1"/>
@@ -32375,13 +32490,13 @@
       <c r="BN233" s="1"/>
       <c r="BO233" s="1"/>
       <c r="BP233" s="1"/>
-      <c r="BQ233" s="27">
+      <c r="BQ233" s="25">
         <v>-2000</v>
       </c>
-      <c r="BR233" s="27">
+      <c r="BR233" s="25">
         <v>-2000</v>
       </c>
-      <c r="BS233" s="27">
+      <c r="BS233" s="25">
         <v>-2000</v>
       </c>
       <c r="BT233" s="9">
@@ -32426,10 +32541,10 @@
       <c r="CL233" s="1"/>
       <c r="CM233" s="1"/>
       <c r="CN233" s="1"/>
-      <c r="CO233" s="31" t="s">
+      <c r="CO233" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP233" s="31" t="s">
+      <c r="CP233" s="29" t="s">
         <v>105</v>
       </c>
       <c r="CQ233" s="1" t="s">
@@ -32440,13 +32555,13 @@
       <c r="B234" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C234" s="23">
+      <c r="C234" s="21">
         <v>229</v>
       </c>
-      <c r="D234" s="31" t="s">
+      <c r="D234" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E234" s="33" t="s">
+      <c r="E234" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F234" s="1"/>
@@ -32512,13 +32627,13 @@
       <c r="BN234" s="1"/>
       <c r="BO234" s="1"/>
       <c r="BP234" s="1"/>
-      <c r="BQ234" s="27">
+      <c r="BQ234" s="25">
         <v>2500</v>
       </c>
-      <c r="BR234" s="27">
+      <c r="BR234" s="25">
         <v>2500</v>
       </c>
-      <c r="BS234" s="27">
+      <c r="BS234" s="25">
         <v>-2500</v>
       </c>
       <c r="BT234" s="9">
@@ -32563,10 +32678,10 @@
       <c r="CL234" s="1"/>
       <c r="CM234" s="1"/>
       <c r="CN234" s="1"/>
-      <c r="CO234" s="31" t="s">
+      <c r="CO234" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP234" s="31" t="s">
+      <c r="CP234" s="29" t="s">
         <v>114</v>
       </c>
       <c r="CQ234" s="1" t="s">
@@ -32577,13 +32692,13 @@
       <c r="B235" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C235" s="23">
+      <c r="C235" s="21">
         <v>229</v>
       </c>
-      <c r="D235" s="31" t="s">
+      <c r="D235" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E235" s="33" t="s">
+      <c r="E235" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F235" s="1"/>
@@ -32649,13 +32764,13 @@
       <c r="BN235" s="1"/>
       <c r="BO235" s="1"/>
       <c r="BP235" s="1"/>
-      <c r="BQ235" s="27">
+      <c r="BQ235" s="25">
         <v>-1000</v>
       </c>
-      <c r="BR235" s="27">
+      <c r="BR235" s="25">
         <v>-1000</v>
       </c>
-      <c r="BS235" s="27">
+      <c r="BS235" s="25">
         <v>2000</v>
       </c>
       <c r="BT235" s="9">
@@ -32700,10 +32815,10 @@
       <c r="CL235" s="1"/>
       <c r="CM235" s="1"/>
       <c r="CN235" s="1"/>
-      <c r="CO235" s="31" t="s">
+      <c r="CO235" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP235" s="31" t="s">
+      <c r="CP235" s="29" t="s">
         <v>105</v>
       </c>
       <c r="CQ235" s="1" t="s">
@@ -32714,14 +32829,14 @@
       <c r="B236" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C236" s="23">
+      <c r="C236" s="21">
         <v>230</v>
       </c>
-      <c r="D236" s="31">
+      <c r="D236" s="29">
         <f>AVERAGE((BH236-BY236),(BI236-BZ236),(BJ236-CA236))</f>
         <v>233.33333333333334</v>
       </c>
-      <c r="E236" s="31"/>
+      <c r="E236" s="29"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -32788,13 +32903,13 @@
       <c r="BK236" s="1"/>
       <c r="BL236" s="1"/>
       <c r="BM236" s="1"/>
-      <c r="BN236" s="26">
+      <c r="BN236" s="24">
         <v>-800</v>
       </c>
-      <c r="BO236" s="26">
+      <c r="BO236" s="24">
         <v>-1000</v>
       </c>
-      <c r="BP236" s="26">
+      <c r="BP236" s="24">
         <v>-1000</v>
       </c>
       <c r="BQ236" s="1"/>
@@ -32830,10 +32945,10 @@
       <c r="CL236" s="1"/>
       <c r="CM236" s="1"/>
       <c r="CN236" s="1"/>
-      <c r="CO236" s="31">
+      <c r="CO236" s="29">
         <v>233.33333333333334</v>
       </c>
-      <c r="CP236" s="31"/>
+      <c r="CP236" s="29"/>
       <c r="CQ236" s="1" t="s">
         <v>368</v>
       </c>
@@ -32842,14 +32957,14 @@
       <c r="B237" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C237" s="23">
+      <c r="C237" s="21">
         <v>230</v>
       </c>
-      <c r="D237" s="31">
+      <c r="D237" s="29">
         <f>AVERAGE((BH237-BY237))</f>
         <v>200</v>
       </c>
-      <c r="E237" s="31"/>
+      <c r="E237" s="29"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -32916,7 +33031,7 @@
       <c r="BK237" s="1"/>
       <c r="BL237" s="1"/>
       <c r="BM237" s="1"/>
-      <c r="BN237" s="26">
+      <c r="BN237" s="24">
         <v>-800</v>
       </c>
       <c r="BO237" s="1" t="s">
@@ -32956,10 +33071,10 @@
       <c r="CL237" s="1"/>
       <c r="CM237" s="1"/>
       <c r="CN237" s="1"/>
-      <c r="CO237" s="31">
+      <c r="CO237" s="29">
         <v>200</v>
       </c>
-      <c r="CP237" s="31"/>
+      <c r="CP237" s="29"/>
       <c r="CQ237" s="1" t="s">
         <v>368</v>
       </c>
@@ -32968,13 +33083,13 @@
       <c r="B238" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C238" s="23">
+      <c r="C238" s="21">
         <v>230</v>
       </c>
-      <c r="D238" s="31" t="s">
+      <c r="D238" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="36" t="s">
+      <c r="E238" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F238" s="1"/>
@@ -33082,10 +33197,10 @@
       <c r="CL238" s="1"/>
       <c r="CM238" s="1"/>
       <c r="CN238" s="1"/>
-      <c r="CO238" s="31" t="s">
+      <c r="CO238" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="CP238" s="31" t="s">
+      <c r="CP238" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ238" s="1" t="s">
@@ -33096,14 +33211,14 @@
       <c r="B239" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C239" s="23">
+      <c r="C239" s="21">
         <v>230</v>
       </c>
-      <c r="D239" s="31">
+      <c r="D239" s="29">
         <f>AVERAGE((BH239-BY239),(BI239-BZ239),(BJ239-CA239))</f>
         <v>1300</v>
       </c>
-      <c r="E239" s="31"/>
+      <c r="E239" s="29"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
@@ -33170,13 +33285,13 @@
       <c r="BK239" s="1"/>
       <c r="BL239" s="1"/>
       <c r="BM239" s="1"/>
-      <c r="BN239" s="26">
+      <c r="BN239" s="24">
         <v>1200</v>
       </c>
-      <c r="BO239" s="26">
+      <c r="BO239" s="24">
         <v>-800</v>
       </c>
-      <c r="BP239" s="26">
+      <c r="BP239" s="24">
         <v>-700</v>
       </c>
       <c r="BQ239" s="1"/>
@@ -33212,10 +33327,10 @@
       <c r="CL239" s="1"/>
       <c r="CM239" s="1"/>
       <c r="CN239" s="1"/>
-      <c r="CO239" s="43">
+      <c r="CO239" s="41">
         <v>1300</v>
       </c>
-      <c r="CP239" s="31"/>
+      <c r="CP239" s="29"/>
       <c r="CQ239" s="1" t="s">
         <v>368</v>
       </c>
@@ -33224,13 +33339,13 @@
       <c r="B240" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C240" s="23">
+      <c r="C240" s="21">
         <v>230</v>
       </c>
-      <c r="D240" s="31" t="s">
+      <c r="D240" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E240" s="44" t="s">
+      <c r="E240" s="42" t="s">
         <v>100</v>
       </c>
       <c r="F240" s="1"/>
@@ -33299,13 +33414,13 @@
       <c r="BK240" s="1"/>
       <c r="BL240" s="1"/>
       <c r="BM240" s="1"/>
-      <c r="BN240" s="26">
+      <c r="BN240" s="24">
         <v>1200</v>
       </c>
-      <c r="BO240" s="26">
+      <c r="BO240" s="24">
         <v>-800</v>
       </c>
-      <c r="BP240" s="26">
+      <c r="BP240" s="24">
         <v>-700</v>
       </c>
       <c r="BQ240" s="1"/>
@@ -33341,10 +33456,10 @@
       <c r="CL240" s="1"/>
       <c r="CM240" s="1"/>
       <c r="CN240" s="1"/>
-      <c r="CO240" s="43" t="s">
+      <c r="CO240" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="CP240" s="31" t="s">
+      <c r="CP240" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ240" s="1" t="s">
@@ -33355,14 +33470,14 @@
       <c r="B241" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C241" s="23">
+      <c r="C241" s="21">
         <v>231</v>
       </c>
-      <c r="D241" s="31">
+      <c r="D241" s="29">
         <f>AVERAGE((BK241-BY241),(BL241-BZ241),(BM241-CA241))</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="E241" s="31"/>
+      <c r="E241" s="29"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -33432,13 +33547,13 @@
       <c r="BN241" s="9"/>
       <c r="BO241" s="9"/>
       <c r="BP241" s="9"/>
-      <c r="BQ241" s="27">
+      <c r="BQ241" s="25">
         <v>-800</v>
       </c>
-      <c r="BR241" s="27">
+      <c r="BR241" s="25">
         <v>-900</v>
       </c>
-      <c r="BS241" s="27">
+      <c r="BS241" s="25">
         <v>-500</v>
       </c>
       <c r="BT241" s="9"/>
@@ -33471,10 +33586,10 @@
       <c r="CL241" s="1"/>
       <c r="CM241" s="1"/>
       <c r="CN241" s="1"/>
-      <c r="CO241" s="43">
+      <c r="CO241" s="41">
         <v>433.33333333333331</v>
       </c>
-      <c r="CP241" s="31"/>
+      <c r="CP241" s="29"/>
       <c r="CQ241" s="1" t="s">
         <v>368</v>
       </c>
@@ -33483,14 +33598,14 @@
       <c r="B242" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C242" s="23">
+      <c r="C242" s="21">
         <v>231</v>
       </c>
-      <c r="D242" s="31">
+      <c r="D242" s="29">
         <f>AVERAGE((BK242-BY242))</f>
         <v>300</v>
       </c>
-      <c r="E242" s="31"/>
+      <c r="E242" s="29"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -33560,7 +33675,7 @@
       <c r="BN242" s="9"/>
       <c r="BO242" s="9"/>
       <c r="BP242" s="9"/>
-      <c r="BQ242" s="27">
+      <c r="BQ242" s="25">
         <v>-700</v>
       </c>
       <c r="BR242" s="9" t="s">
@@ -33597,10 +33712,10 @@
       <c r="CL242" s="1"/>
       <c r="CM242" s="1"/>
       <c r="CN242" s="1"/>
-      <c r="CO242" s="43">
+      <c r="CO242" s="41">
         <v>300</v>
       </c>
-      <c r="CP242" s="31"/>
+      <c r="CP242" s="29"/>
       <c r="CQ242" s="1" t="s">
         <v>368</v>
       </c>
@@ -33609,13 +33724,13 @@
       <c r="B243" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C243" s="23">
+      <c r="C243" s="21">
         <v>231</v>
       </c>
-      <c r="D243" s="31" t="s">
+      <c r="D243" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E243" s="36" t="s">
+      <c r="E243" s="34" t="s">
         <v>99</v>
       </c>
       <c r="F243" s="1"/>
@@ -33723,10 +33838,10 @@
       <c r="CL243" s="1"/>
       <c r="CM243" s="1"/>
       <c r="CN243" s="1"/>
-      <c r="CO243" s="31" t="s">
+      <c r="CO243" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="CP243" s="31" t="s">
+      <c r="CP243" s="29" t="s">
         <v>99</v>
       </c>
       <c r="CQ243" s="1" t="s">
@@ -33737,14 +33852,14 @@
       <c r="B244" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C244" s="23">
+      <c r="C244" s="21">
         <v>231</v>
       </c>
-      <c r="D244" s="31">
+      <c r="D244" s="29">
         <f>AVERAGE((BK244-BY244),(BL244-BZ244),(BM244-CA244))</f>
         <v>966.66666666666663</v>
       </c>
-      <c r="E244" s="31"/>
+      <c r="E244" s="29"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -33814,13 +33929,13 @@
       <c r="BN244" s="9"/>
       <c r="BO244" s="9"/>
       <c r="BP244" s="9"/>
-      <c r="BQ244" s="27">
+      <c r="BQ244" s="25">
         <v>800</v>
       </c>
-      <c r="BR244" s="27">
+      <c r="BR244" s="25">
         <v>-900</v>
       </c>
-      <c r="BS244" s="27">
+      <c r="BS244" s="25">
         <v>-500</v>
       </c>
       <c r="BT244" s="1"/>
@@ -33853,10 +33968,10 @@
       <c r="CL244" s="1"/>
       <c r="CM244" s="1"/>
       <c r="CN244" s="1"/>
-      <c r="CO244" s="43">
+      <c r="CO244" s="41">
         <v>966.66666666666663</v>
       </c>
-      <c r="CP244" s="31"/>
+      <c r="CP244" s="29"/>
       <c r="CQ244" s="1" t="s">
         <v>368</v>
       </c>
@@ -33865,13 +33980,13 @@
       <c r="B245" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C245" s="23">
+      <c r="C245" s="21">
         <v>231</v>
       </c>
-      <c r="D245" s="31" t="s">
+      <c r="D245" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E245" s="32" t="s">
+      <c r="E245" s="30" t="s">
         <v>100</v>
       </c>
       <c r="F245" s="1"/>
@@ -33943,13 +34058,13 @@
       <c r="BN245" s="9"/>
       <c r="BO245" s="9"/>
       <c r="BP245" s="9"/>
-      <c r="BQ245" s="27">
+      <c r="BQ245" s="25">
         <v>-1000</v>
       </c>
-      <c r="BR245" s="27">
+      <c r="BR245" s="25">
         <v>-1000</v>
       </c>
-      <c r="BS245" s="27">
+      <c r="BS245" s="25">
         <v>2000</v>
       </c>
       <c r="BT245" s="1"/>
@@ -33982,10 +34097,10 @@
       <c r="CL245" s="1"/>
       <c r="CM245" s="1"/>
       <c r="CN245" s="1"/>
-      <c r="CO245" s="31" t="s">
+      <c r="CO245" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="CP245" s="31" t="s">
+      <c r="CP245" s="29" t="s">
         <v>100</v>
       </c>
       <c r="CQ245" s="1" t="s">

--- a/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_Ind_Simulativi_RETAIL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="369">
   <si>
     <t>SNDG</t>
   </si>
@@ -1729,10 +1729,10 @@
   <dimension ref="A3:FI245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="CM22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="CN4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CQ43" sqref="CQ22:CQ43"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D88:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2084,7 @@
       <c r="B4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="45">
         <v>200</v>
       </c>
       <c r="D4" s="45">
@@ -2181,15 +2181,19 @@
       <c r="CL4" s="1"/>
       <c r="CM4" s="1"/>
       <c r="CN4" s="1"/>
-      <c r="CO4" s="1"/>
+      <c r="CO4" s="1">
+        <v>1000</v>
+      </c>
       <c r="CP4" s="1"/>
-      <c r="CQ4" s="1"/>
+      <c r="CQ4" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="45">
         <v>200</v>
       </c>
       <c r="D5" s="45" t="str">
@@ -2288,15 +2292,21 @@
       <c r="CL5" s="1"/>
       <c r="CM5" s="1"/>
       <c r="CN5" s="1"/>
-      <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
+      <c r="CO5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ5" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="45">
         <v>200</v>
       </c>
       <c r="D6" s="45" t="str">
@@ -2395,15 +2405,21 @@
       <c r="CL6" s="1"/>
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-      <c r="CQ6" s="1"/>
+      <c r="CO6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CQ6" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="45">
         <v>201</v>
       </c>
       <c r="D7" s="45">
@@ -2500,15 +2516,19 @@
       <c r="CL7" s="1"/>
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
-      <c r="CO7" s="1"/>
+      <c r="CO7" s="1">
+        <v>15</v>
+      </c>
       <c r="CP7" s="1"/>
-      <c r="CQ7" s="1"/>
+      <c r="CQ7" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="45">
         <v>201</v>
       </c>
       <c r="D8" s="45" t="str">
@@ -2607,15 +2627,21 @@
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
+      <c r="CO8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ8" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="45">
         <v>201</v>
       </c>
       <c r="D9" s="45" t="str">
@@ -2714,9 +2740,15 @@
       <c r="CL9" s="1"/>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
+      <c r="CO9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ9" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -2819,9 +2851,13 @@
       <c r="CL10" s="1"/>
       <c r="CM10" s="1"/>
       <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
+      <c r="CO10" s="1">
+        <v>100</v>
+      </c>
       <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
+      <c r="CQ10" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
@@ -2926,9 +2962,15 @@
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
+      <c r="CO11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ11" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -3032,9 +3074,15 @@
       <c r="CL12" s="1"/>
       <c r="CM12" s="1"/>
       <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
+      <c r="CO12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ12" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
@@ -3137,9 +3185,13 @@
       <c r="CL13" s="1"/>
       <c r="CM13" s="1"/>
       <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
+      <c r="CO13" s="1">
+        <v>12</v>
+      </c>
       <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
+      <c r="CQ13" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -3244,9 +3296,15 @@
       <c r="CL14" s="1"/>
       <c r="CM14" s="1"/>
       <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
+      <c r="CO14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ14" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
@@ -3350,9 +3408,15 @@
       <c r="CL15" s="1"/>
       <c r="CM15" s="1"/>
       <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
+      <c r="CO15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ15" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
@@ -3455,9 +3519,13 @@
       <c r="CL16" s="1"/>
       <c r="CM16" s="1"/>
       <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
+      <c r="CO16" s="1">
+        <v>200</v>
+      </c>
       <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
+      <c r="CQ16" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="17" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
@@ -3562,9 +3630,15 @@
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
+      <c r="CO17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ17" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="18" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
@@ -3668,9 +3742,15 @@
       <c r="CL18" s="1"/>
       <c r="CM18" s="1"/>
       <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
+      <c r="CO18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ18" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="19" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
@@ -3773,9 +3853,13 @@
       <c r="CL19" s="1"/>
       <c r="CM19" s="1"/>
       <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
+      <c r="CO19" s="1">
+        <v>200</v>
+      </c>
       <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
+      <c r="CQ19" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="20" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
@@ -3880,9 +3964,15 @@
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
+      <c r="CO20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CQ20" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="21" spans="2:95" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
@@ -3987,9 +4077,15 @@
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
+      <c r="CO21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CP21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ21" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="22" spans="2:95" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
@@ -8538,10 +8634,10 @@
       <c r="C53" s="21">
         <v>212</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="10">
         <v>999999</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="10"/>
@@ -8661,9 +8757,11 @@
       <c r="CM53" s="2"/>
       <c r="CN53" s="2"/>
       <c r="CO53" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="CP53" s="29"/>
+        <v>999999</v>
+      </c>
+      <c r="CP53" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ53" s="1" t="s">
         <v>368</v>
       </c>
@@ -10425,10 +10523,10 @@
       <c r="C65" s="21">
         <v>213</v>
       </c>
-      <c r="D65" s="25">
+      <c r="D65" s="10">
         <v>999999</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F65" s="1"/>
@@ -10548,9 +10646,11 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="29">
-        <v>0.625</v>
-      </c>
-      <c r="CP65" s="29"/>
+        <v>999999</v>
+      </c>
+      <c r="CP65" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ65" s="1" t="s">
         <v>368</v>
       </c>
@@ -12102,10 +12202,10 @@
       <c r="C77" s="21">
         <v>214</v>
       </c>
-      <c r="D77" s="25">
+      <c r="D77" s="10">
         <v>999999</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F77" s="1"/>
@@ -12225,9 +12325,11 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
       <c r="CO77" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="CP77" s="29"/>
+        <v>999999</v>
+      </c>
+      <c r="CP77" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ77" s="1" t="s">
         <v>368</v>
       </c>
@@ -13641,11 +13743,11 @@
       <c r="C88" s="21">
         <v>215</v>
       </c>
-      <c r="D88" s="29">
+      <c r="D88" s="2">
         <f t="shared" ref="D88:D98" si="34">BW88/BX88</f>
         <v>0</v>
       </c>
-      <c r="E88" s="29"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -13779,10 +13881,10 @@
       <c r="C89" s="21">
         <v>215</v>
       </c>
-      <c r="D89" s="25">
+      <c r="D89" s="10">
         <v>999999</v>
       </c>
-      <c r="E89" s="25" t="s">
+      <c r="E89" s="10" t="s">
         <v>94</v>
       </c>
       <c r="F89" s="1"/>
@@ -13902,9 +14004,11 @@
       <c r="CM89" s="1"/>
       <c r="CN89" s="1"/>
       <c r="CO89" s="29">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="CP89" s="29"/>
+        <v>999999</v>
+      </c>
+      <c r="CP89" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="CQ89" s="1" t="s">
         <v>368</v>
       </c>
